--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Fälle</t>
   </si>
@@ -602,37 +602,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Z54"/>
+  <dimension ref="A2:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="2" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -711,86 +711,92 @@
       <c r="Z6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43911</v>
+      </c>
+      <c r="C7" s="13">
         <v>43910</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43909</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43908</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43907</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="12">
         <v>43906</v>
       </c>
-      <c r="G7" s="12">
+      <c r="H7" s="12">
         <v>43905</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>43904</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>43903</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>43902</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="12">
         <v>43901</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>43900</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>43899</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43898</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43897</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43896</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43895</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43894</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43893</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43892</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43891</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43890</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43889</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43888</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43887</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -798,46 +804,46 @@
         <v>39</v>
       </c>
       <c r="C8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4">
         <v>26</v>
       </c>
       <c r="E8" s="4">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4">
         <v>24</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>13</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>12</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>7</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>6</v>
       </c>
-      <c r="K8" s="3">
-        <v>4</v>
-      </c>
-      <c r="L8" s="4">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>4</v>
       </c>
       <c r="M8" s="4">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="4">
         <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>3</v>
       </c>
       <c r="P8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>2</v>
@@ -845,7 +851,9 @@
       <c r="R8" s="3">
         <v>2</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="3">
+        <v>2</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -853,8 +861,9 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -862,45 +871,47 @@
         <v>21</v>
       </c>
       <c r="C9" s="4">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
         <v>17</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>14</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>12</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>7</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="4">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3</v>
-      </c>
-      <c r="J9" s="4">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1</v>
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -911,8 +922,9 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -923,13 +935,13 @@
         <v>45</v>
       </c>
       <c r="D10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4">
         <v>17</v>
       </c>
       <c r="F10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G10" s="4">
         <v>5</v>
@@ -937,31 +949,33 @@
       <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="4">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>3</v>
       </c>
       <c r="M10" s="4">
         <v>3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="4">
         <v>3</v>
       </c>
       <c r="O10" s="3">
         <v>3</v>
       </c>
       <c r="P10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -971,8 +985,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -980,7 +995,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4">
         <v>28</v>
@@ -989,7 +1004,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4">
         <v>9</v>
@@ -997,22 +1012,22 @@
       <c r="H11" s="4">
         <v>9</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <v>9</v>
       </c>
-      <c r="J11" s="4">
-        <v>4</v>
-      </c>
-      <c r="K11" s="3">
-        <v>4</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="J11" s="3">
+        <v>9</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3">
         <v>4</v>
       </c>
       <c r="M11" s="4">
-        <v>3</v>
-      </c>
-      <c r="N11" s="3">
+        <v>4</v>
+      </c>
+      <c r="N11" s="4">
         <v>3</v>
       </c>
       <c r="O11" s="3">
@@ -1022,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="Q11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11" s="3">
         <v>1</v>
@@ -1045,10 +1060,13 @@
       <c r="X11" s="3">
         <v>1</v>
       </c>
-      <c r="Y11" s="3"/>
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -1056,39 +1074,39 @@
         <v>71</v>
       </c>
       <c r="C12" s="4">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4">
         <v>62</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>39</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>31</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>29</v>
-      </c>
-      <c r="G12" s="4">
-        <v>13</v>
       </c>
       <c r="H12" s="4">
         <v>13</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
+        <v>13</v>
+      </c>
+      <c r="J12" s="3">
         <v>8</v>
       </c>
-      <c r="J12" s="4">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>6</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="4">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4">
         <v>4</v>
       </c>
       <c r="O12" s="3">
@@ -1098,12 +1116,14 @@
         <v>4</v>
       </c>
       <c r="Q12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" s="3">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1111,8 +1131,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1120,46 +1141,46 @@
         <v>134</v>
       </c>
       <c r="C13" s="4">
+        <v>134</v>
+      </c>
+      <c r="D13" s="4">
         <v>101</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>78</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>54</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>45</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>42</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>26</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>19</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>18</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>12</v>
-      </c>
-      <c r="L13" s="4">
-        <v>6</v>
       </c>
       <c r="M13" s="4">
         <v>6</v>
       </c>
-      <c r="N13" s="3">
-        <v>5</v>
+      <c r="N13" s="4">
+        <v>6</v>
       </c>
       <c r="O13" s="3">
         <v>5</v>
       </c>
       <c r="P13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="3">
         <v>4</v>
@@ -1168,13 +1189,13 @@
         <v>4</v>
       </c>
       <c r="S13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T13" s="3">
         <v>1</v>
       </c>
       <c r="U13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13" s="3">
         <v>3</v>
@@ -1185,51 +1206,54 @@
       <c r="X13" s="3">
         <v>3</v>
       </c>
-      <c r="Y13" s="3"/>
+      <c r="Y13" s="3">
+        <v>3</v>
+      </c>
       <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>108</v>
+      </c>
+      <c r="C14" s="4">
         <v>92</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>76</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>61</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>51</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>43</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>34</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>26</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>12</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>6</v>
       </c>
-      <c r="M14" s="4">
-        <v>2</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
+      <c r="N14" s="4">
+        <v>2</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -1237,7 +1261,9 @@
       <c r="P14" s="3">
         <v>1</v>
       </c>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1247,8 +1273,9 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
@@ -1256,109 +1283,114 @@
         <v>110</v>
       </c>
       <c r="C15" s="11">
+        <v>110</v>
+      </c>
+      <c r="D15" s="11">
         <v>99</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>60</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>59</v>
-      </c>
-      <c r="F15" s="11">
-        <v>35</v>
       </c>
       <c r="G15" s="11">
         <v>35</v>
       </c>
       <c r="H15" s="11">
+        <v>35</v>
+      </c>
+      <c r="I15" s="11">
         <v>21</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>17</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="11">
         <v>16</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>15</v>
-      </c>
-      <c r="L15" s="11">
-        <v>13</v>
       </c>
       <c r="M15" s="11">
         <v>13</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="11">
+        <v>13</v>
+      </c>
+      <c r="O15" s="3">
         <v>12</v>
       </c>
-      <c r="O15" s="3">
-        <v>3</v>
-      </c>
       <c r="P15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
       <c r="R15" s="3"/>
-      <c r="S15" s="3">
-        <v>1</v>
-      </c>
+      <c r="S15" s="3"/>
       <c r="T15" s="3">
         <v>1</v>
       </c>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>21</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>12</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>9</v>
       </c>
-      <c r="F16" s="4">
-        <v>4</v>
-      </c>
       <c r="G16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="4">
         <v>3</v>
       </c>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="4">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1</v>
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
       </c>
       <c r="M16" s="4">
         <v>1</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="4">
         <v>1</v>
       </c>
       <c r="O16" s="3">
         <v>1</v>
       </c>
-      <c r="P16" s="3"/>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -1369,8 +1401,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1378,65 +1411,68 @@
         <v>323</v>
       </c>
       <c r="C17" s="4">
+        <v>323</v>
+      </c>
+      <c r="D17" s="4">
         <v>234</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>193</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>128</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>123</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>111</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>82</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>65</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>47</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>23</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>18</v>
-      </c>
-      <c r="N17" s="3">
-        <v>16</v>
       </c>
       <c r="O17" s="3">
         <v>16</v>
       </c>
       <c r="P17" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="3">
         <v>14</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13</v>
-      </c>
-      <c r="R17" s="3">
-        <v>5</v>
       </c>
       <c r="S17" s="3">
         <v>5</v>
       </c>
-      <c r="T17" s="3"/>
+      <c r="T17" s="3">
+        <v>5</v>
+      </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1444,40 +1480,40 @@
         <v>150</v>
       </c>
       <c r="C18" s="4">
+        <v>150</v>
+      </c>
+      <c r="D18" s="4">
         <v>114</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>79</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>62</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>53</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>43</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>34</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>18</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13</v>
-      </c>
-      <c r="L18" s="4">
-        <v>12</v>
       </c>
       <c r="M18" s="4">
         <v>12</v>
       </c>
-      <c r="N18" s="3">
-        <v>8</v>
+      <c r="N18" s="4">
+        <v>12</v>
       </c>
       <c r="O18" s="3">
         <v>8</v>
@@ -1486,31 +1522,34 @@
         <v>8</v>
       </c>
       <c r="Q18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R18" s="3">
         <v>6</v>
       </c>
       <c r="S18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T18" s="3">
         <v>4</v>
       </c>
       <c r="U18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W18" s="3">
-        <v>1</v>
-      </c>
-      <c r="X18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1524,31 +1563,33 @@
         <v>14</v>
       </c>
       <c r="E19" s="4">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4">
         <v>10</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>8</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>7</v>
       </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="4">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="3"/>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1561,8 +1602,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1570,46 +1612,46 @@
         <v>97</v>
       </c>
       <c r="C20" s="4">
+        <v>97</v>
+      </c>
+      <c r="D20" s="4">
         <v>60</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>59</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>39</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>29</v>
-      </c>
-      <c r="G20" s="4">
-        <v>16</v>
       </c>
       <c r="H20" s="4">
         <v>16</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3">
         <v>14</v>
       </c>
-      <c r="J20" s="4">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4">
-        <v>4</v>
+      <c r="K20" s="4">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
       </c>
       <c r="M20" s="4">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+        <v>4</v>
+      </c>
+      <c r="N20" s="4">
         <v>3</v>
       </c>
       <c r="O20" s="3">
         <v>3</v>
       </c>
       <c r="P20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="3">
         <v>2</v>
@@ -1633,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="X20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="3">
         <v>1</v>
@@ -1641,13 +1683,16 @@
       <c r="Z20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4">
         <v>3</v>
@@ -1656,40 +1701,40 @@
         <v>3</v>
       </c>
       <c r="E21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2</v>
-      </c>
-      <c r="L21" s="4">
-        <v>5</v>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
       </c>
       <c r="M21" s="4">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="4">
         <v>5</v>
       </c>
       <c r="O21" s="3">
         <v>5</v>
       </c>
       <c r="P21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="3">
         <v>2</v>
@@ -1697,7 +1742,9 @@
       <c r="R21" s="3">
         <v>2</v>
       </c>
-      <c r="S21" s="3"/>
+      <c r="S21" s="3">
+        <v>2</v>
+      </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -1705,55 +1752,56 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>47</v>
+      </c>
+      <c r="C22" s="4">
         <v>39</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>34</v>
-      </c>
-      <c r="D22" s="4">
-        <v>17</v>
       </c>
       <c r="E22" s="4">
         <v>17</v>
       </c>
       <c r="F22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G22" s="4">
         <v>21</v>
       </c>
       <c r="H22" s="4">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4">
         <v>19</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>4</v>
-      </c>
-      <c r="L22" s="4">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>4</v>
       </c>
       <c r="M22" s="4">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="4">
         <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>3</v>
       </c>
       <c r="P22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>1</v>
@@ -1761,7 +1809,9 @@
       <c r="R22" s="3">
         <v>1</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -1769,70 +1819,71 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>140</v>
+      </c>
+      <c r="C23" s="11">
         <v>118</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>110</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>71</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>57</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>50</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>47</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>37</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>32</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30</v>
-      </c>
-      <c r="L23" s="11">
-        <v>26</v>
       </c>
       <c r="M23" s="11">
         <v>26</v>
       </c>
-      <c r="N23" s="3">
-        <v>20</v>
+      <c r="N23" s="11">
+        <v>26</v>
       </c>
       <c r="O23" s="3">
         <v>20</v>
       </c>
       <c r="P23" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="3">
         <v>14</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>10</v>
       </c>
       <c r="R23" s="3">
         <v>10</v>
       </c>
       <c r="S23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T23" s="3">
         <v>8</v>
       </c>
       <c r="U23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V23" s="3">
         <v>1</v>
@@ -1840,11 +1891,14 @@
       <c r="W23" s="3">
         <v>1</v>
       </c>
-      <c r="X23" s="3"/>
+      <c r="X23" s="3">
+        <v>1</v>
+      </c>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
@@ -1852,37 +1906,37 @@
         <v>20</v>
       </c>
       <c r="C24" s="11">
+        <v>20</v>
+      </c>
+      <c r="D24" s="11">
         <v>19</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="11">
         <v>13</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>9</v>
       </c>
-      <c r="F24" s="11">
-        <v>4</v>
-      </c>
       <c r="G24" s="11">
         <v>4</v>
       </c>
       <c r="H24" s="11">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="11">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="11">
-        <v>3</v>
-      </c>
+      <c r="I24" s="11">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3"/>
       <c r="M24" s="11">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="11">
         <v>3</v>
       </c>
       <c r="O24" s="3">
@@ -1892,40 +1946,43 @@
         <v>3</v>
       </c>
       <c r="Q24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>2</v>
       </c>
-      <c r="S24" s="3"/>
+      <c r="S24" s="3">
+        <v>2</v>
+      </c>
       <c r="T24" s="3"/>
-      <c r="U24" s="3">
-        <v>1</v>
-      </c>
-      <c r="V24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>222</v>
+      </c>
+      <c r="C25" s="4">
         <v>182</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>154</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>135</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>64</v>
-      </c>
-      <c r="F25" s="4">
-        <v>29</v>
       </c>
       <c r="G25" s="4">
         <v>29</v>
@@ -1933,23 +1990,23 @@
       <c r="H25" s="4">
         <v>29</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="4">
+        <v>29</v>
+      </c>
+      <c r="J25" s="3">
         <v>8</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>8</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>6</v>
       </c>
-      <c r="L25" s="4">
-        <v>2</v>
-      </c>
       <c r="M25" s="4">
         <v>2</v>
       </c>
-      <c r="N25" s="3">
-        <v>1</v>
+      <c r="N25" s="4">
+        <v>2</v>
       </c>
       <c r="O25" s="3">
         <v>1</v>
@@ -1960,7 +2017,9 @@
       <c r="Q25" s="3">
         <v>1</v>
       </c>
-      <c r="R25" s="3"/>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -1969,8 +2028,9 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -1978,52 +2038,52 @@
         <v>96</v>
       </c>
       <c r="C26" s="11">
+        <v>96</v>
+      </c>
+      <c r="D26" s="11">
         <v>75</v>
       </c>
-      <c r="D26" s="11">
+      <c r="E26" s="11">
         <v>63</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>47</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>24</v>
-      </c>
-      <c r="G26" s="11">
-        <v>29</v>
       </c>
       <c r="H26" s="11">
         <v>29</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="11">
+        <v>29</v>
+      </c>
+      <c r="J26" s="3">
         <v>16</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>16</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>9</v>
       </c>
-      <c r="M26" s="11">
-        <v>7</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="11">
         <v>7</v>
       </c>
       <c r="O26" s="3">
         <v>7</v>
       </c>
       <c r="P26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="3">
         <v>1</v>
@@ -2040,11 +2100,14 @@
       <c r="W26" s="3">
         <v>1</v>
       </c>
-      <c r="X26" s="3"/>
+      <c r="X26" s="3">
+        <v>1</v>
+      </c>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
@@ -2052,16 +2115,16 @@
         <v>42</v>
       </c>
       <c r="C27" s="11">
+        <v>42</v>
+      </c>
+      <c r="D27" s="11">
         <v>34</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E27" s="11">
         <v>29</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>26</v>
-      </c>
-      <c r="F27" s="11">
-        <v>14</v>
       </c>
       <c r="G27" s="11">
         <v>14</v>
@@ -2069,20 +2132,22 @@
       <c r="H27" s="11">
         <v>14</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="11">
+        <v>14</v>
+      </c>
+      <c r="J27" s="3">
         <v>8</v>
       </c>
-      <c r="J27" s="11">
+      <c r="K27" s="11">
         <v>8</v>
       </c>
-      <c r="K27" s="3">
-        <v>3</v>
-      </c>
-      <c r="L27" s="11">
-        <v>2</v>
-      </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="3"/>
+      <c r="L27" s="3">
+        <v>3</v>
+      </c>
+      <c r="M27" s="11">
+        <v>2</v>
+      </c>
+      <c r="N27" s="11"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -2095,8 +2160,9 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -2104,16 +2170,16 @@
         <v>52</v>
       </c>
       <c r="C28" s="4">
+        <v>52</v>
+      </c>
+      <c r="D28" s="4">
         <v>43</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>34</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>28</v>
-      </c>
-      <c r="F28" s="4">
-        <v>20</v>
       </c>
       <c r="G28" s="4">
         <v>20</v>
@@ -2121,28 +2187,30 @@
       <c r="H28" s="4">
         <v>20</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="4">
+        <v>20</v>
+      </c>
+      <c r="J28" s="3">
         <v>7</v>
       </c>
-      <c r="J28" s="4">
-        <v>2</v>
-      </c>
-      <c r="K28" s="3">
-        <v>2</v>
-      </c>
-      <c r="L28" s="4">
-        <v>1</v>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2</v>
       </c>
       <c r="M28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="4">
         <v>1</v>
       </c>
       <c r="O28" s="3">
         <v>1</v>
       </c>
-      <c r="P28" s="3"/>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -2153,8 +2221,9 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -2162,16 +2231,16 @@
         <v>57</v>
       </c>
       <c r="C29" s="4">
+        <v>57</v>
+      </c>
+      <c r="D29" s="4">
         <v>41</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>25</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>16</v>
-      </c>
-      <c r="F29" s="4">
-        <v>10</v>
       </c>
       <c r="G29" s="4">
         <v>10</v>
@@ -2179,20 +2248,20 @@
       <c r="H29" s="4">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="4">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <v>6</v>
       </c>
-      <c r="J29" s="4">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4">
-        <v>1</v>
-      </c>
+      <c r="K29" s="4">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3"/>
       <c r="M29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="4">
         <v>1</v>
       </c>
       <c r="O29" s="3">
@@ -2210,15 +2279,18 @@
       <c r="S29" s="3">
         <v>1</v>
       </c>
-      <c r="T29" s="3"/>
+      <c r="T29" s="3">
+        <v>1</v>
+      </c>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -2226,16 +2298,16 @@
         <v>175</v>
       </c>
       <c r="C30" s="4">
+        <v>175</v>
+      </c>
+      <c r="D30" s="4">
         <v>126</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>112</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>87</v>
-      </c>
-      <c r="F30" s="4">
-        <v>38</v>
       </c>
       <c r="G30" s="4">
         <v>38</v>
@@ -2243,41 +2315,41 @@
       <c r="H30" s="4">
         <v>38</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="4">
+        <v>38</v>
+      </c>
+      <c r="J30" s="3">
         <v>24</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>18</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>11</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>11</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>8</v>
-      </c>
-      <c r="N30" s="3">
-        <v>7</v>
       </c>
       <c r="O30" s="3">
         <v>7</v>
       </c>
       <c r="P30" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="3">
         <v>5</v>
       </c>
-      <c r="Q30" s="3">
-        <v>3</v>
-      </c>
       <c r="R30" s="3">
         <v>3</v>
       </c>
       <c r="S30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30" s="3">
         <v>1</v>
@@ -2288,11 +2360,14 @@
       <c r="W30" s="3">
         <v>1</v>
       </c>
-      <c r="X30" s="3"/>
+      <c r="X30" s="3">
+        <v>1</v>
+      </c>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -2300,10 +2375,10 @@
         <v>36</v>
       </c>
       <c r="C31" s="4">
+        <v>36</v>
+      </c>
+      <c r="D31" s="4">
         <v>33</v>
-      </c>
-      <c r="D31" s="4">
-        <v>31</v>
       </c>
       <c r="E31" s="4">
         <v>31</v>
@@ -2315,39 +2390,41 @@
         <v>31</v>
       </c>
       <c r="H31" s="4">
+        <v>31</v>
+      </c>
+      <c r="I31" s="4">
         <v>30</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>28</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>24</v>
       </c>
-      <c r="K31" s="3">
-        <v>24</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>24</v>
       </c>
       <c r="M31" s="4">
         <v>24</v>
       </c>
-      <c r="N31" s="3">
-        <v>23</v>
+      <c r="N31" s="4">
+        <v>24</v>
       </c>
       <c r="O31" s="3">
         <v>23</v>
       </c>
       <c r="P31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Q31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R31" s="3">
         <v>1</v>
       </c>
-      <c r="S31" s="3"/>
+      <c r="S31" s="3">
+        <v>1</v>
+      </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -2355,8 +2432,9 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -2364,13 +2442,13 @@
         <v>80</v>
       </c>
       <c r="C32" s="4">
+        <v>80</v>
+      </c>
+      <c r="D32" s="4">
         <v>73</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>71</v>
-      </c>
-      <c r="E32" s="4">
-        <v>27</v>
       </c>
       <c r="F32" s="4">
         <v>27</v>
@@ -2381,38 +2459,38 @@
       <c r="H32" s="4">
         <v>27</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="4">
+        <v>27</v>
+      </c>
+      <c r="J32" s="3">
         <v>22</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>12</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12</v>
-      </c>
-      <c r="L32" s="4">
-        <v>9</v>
       </c>
       <c r="M32" s="4">
         <v>9</v>
       </c>
-      <c r="N32" s="3">
-        <v>7</v>
+      <c r="N32" s="4">
+        <v>9</v>
       </c>
       <c r="O32" s="3">
         <v>7</v>
       </c>
       <c r="P32" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="3">
         <v>5</v>
       </c>
-      <c r="Q32" s="3">
-        <v>4</v>
-      </c>
       <c r="R32" s="3">
         <v>4</v>
       </c>
       <c r="S32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T32" s="3">
         <v>3</v>
@@ -2420,13 +2498,16 @@
       <c r="U32" s="3">
         <v>3</v>
       </c>
-      <c r="V32" s="3"/>
+      <c r="V32" s="3">
+        <v>3</v>
+      </c>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -2434,39 +2515,39 @@
         <v>26</v>
       </c>
       <c r="C33" s="4">
+        <v>26</v>
+      </c>
+      <c r="D33" s="4">
         <v>20</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>17</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>14</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>7</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>10</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>6</v>
       </c>
-      <c r="I33" s="3">
-        <v>4</v>
-      </c>
-      <c r="J33" s="4">
-        <v>2</v>
-      </c>
-      <c r="K33" s="3">
-        <v>2</v>
-      </c>
-      <c r="L33" s="4">
-        <v>1</v>
+      <c r="J33" s="3">
+        <v>4</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2</v>
       </c>
       <c r="M33" s="4">
         <v>1</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="4">
         <v>1</v>
       </c>
       <c r="O33" s="3">
@@ -2475,7 +2556,9 @@
       <c r="P33" s="3">
         <v>1</v>
       </c>
-      <c r="Q33" s="3"/>
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -2485,8 +2568,9 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
@@ -2494,48 +2578,50 @@
         <v>71</v>
       </c>
       <c r="C34" s="4">
+        <v>71</v>
+      </c>
+      <c r="D34" s="4">
         <v>55</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>45</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>38</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>28</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>25</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>22</v>
       </c>
-      <c r="I34" s="3">
+      <c r="J34" s="3">
         <v>16</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>13</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>13</v>
-      </c>
-      <c r="L34" s="4">
-        <v>12</v>
       </c>
       <c r="M34" s="4">
         <v>12</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="4">
+        <v>12</v>
+      </c>
+      <c r="O34" s="3">
         <v>7</v>
       </c>
-      <c r="O34" s="3">
+      <c r="P34" s="3">
         <v>6</v>
       </c>
-      <c r="P34" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="3"/>
+      <c r="Q34" s="3">
+        <v>2</v>
+      </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -2545,8 +2631,9 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -2554,40 +2641,40 @@
         <v>91</v>
       </c>
       <c r="C35" s="4">
+        <v>91</v>
+      </c>
+      <c r="D35" s="4">
         <v>85</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>46</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>41</v>
-      </c>
-      <c r="F35" s="4">
-        <v>31</v>
       </c>
       <c r="G35" s="4">
         <v>31</v>
       </c>
       <c r="H35" s="4">
+        <v>31</v>
+      </c>
+      <c r="I35" s="4">
         <v>20</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>7</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5</v>
       </c>
-      <c r="L35" s="4">
-        <v>4</v>
-      </c>
       <c r="M35" s="4">
         <v>4</v>
       </c>
-      <c r="N35" s="3">
-        <v>3</v>
+      <c r="N35" s="4">
+        <v>4</v>
       </c>
       <c r="O35" s="3">
         <v>3</v>
@@ -2602,53 +2689,58 @@
         <v>3</v>
       </c>
       <c r="S35" s="3">
-        <v>1</v>
-      </c>
-      <c r="T35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1</v>
+      </c>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="4">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4">
         <v>14</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>11</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>7</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>6</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>5</v>
       </c>
-      <c r="G36" s="4">
-        <v>4</v>
-      </c>
       <c r="H36" s="4">
         <v>4</v>
       </c>
-      <c r="I36" s="3">
-        <v>4</v>
-      </c>
-      <c r="J36" s="4">
-        <v>4</v>
-      </c>
-      <c r="K36" s="3">
-        <v>3</v>
-      </c>
-      <c r="L36" s="4"/>
+      <c r="I36" s="4">
+        <v>4</v>
+      </c>
+      <c r="J36" s="3">
+        <v>4</v>
+      </c>
+      <c r="K36" s="4">
+        <v>4</v>
+      </c>
+      <c r="L36" s="3">
+        <v>3</v>
+      </c>
       <c r="M36" s="4"/>
-      <c r="N36" s="3"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -2661,8 +2753,9 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -2670,45 +2763,47 @@
         <v>81</v>
       </c>
       <c r="C37" s="4">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4">
         <v>64</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>53</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>37</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>34</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>26</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>19</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>12</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>11</v>
       </c>
-      <c r="K37" s="3">
-        <v>3</v>
-      </c>
-      <c r="L37" s="4">
-        <v>4</v>
+      <c r="L37" s="3">
+        <v>3</v>
       </c>
       <c r="M37" s="4">
-        <v>3</v>
-      </c>
-      <c r="N37" s="3">
+        <v>4</v>
+      </c>
+      <c r="N37" s="4">
         <v>3</v>
       </c>
       <c r="O37" s="3">
-        <v>2</v>
-      </c>
-      <c r="P37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="P37" s="3">
+        <v>2</v>
+      </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -2719,8 +2814,9 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -2728,51 +2824,53 @@
         <v>110</v>
       </c>
       <c r="C38" s="4">
+        <v>110</v>
+      </c>
+      <c r="D38" s="4">
         <v>88</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>55</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>13</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>12</v>
-      </c>
-      <c r="G38" s="4">
-        <v>8</v>
       </c>
       <c r="H38" s="4">
         <v>8</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="4">
         <v>8</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
+        <v>8</v>
+      </c>
+      <c r="K38" s="4">
         <v>5</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
         <v>5</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>6</v>
       </c>
-      <c r="M38" s="4">
-        <v>3</v>
-      </c>
-      <c r="N38" s="3">
+      <c r="N38" s="4">
         <v>3</v>
       </c>
       <c r="O38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38" s="3">
         <v>2</v>
       </c>
       <c r="Q38" s="3">
-        <v>1</v>
-      </c>
-      <c r="R38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="R38" s="3">
+        <v>1</v>
+      </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -2781,8 +2879,9 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -2790,16 +2889,16 @@
         <v>117</v>
       </c>
       <c r="C39" s="4">
+        <v>117</v>
+      </c>
+      <c r="D39" s="4">
         <v>79</v>
-      </c>
-      <c r="D39" s="4">
-        <v>49</v>
       </c>
       <c r="E39" s="4">
         <v>49</v>
       </c>
       <c r="F39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G39" s="4">
         <v>23</v>
@@ -2807,86 +2906,91 @@
       <c r="H39" s="4">
         <v>23</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="4">
         <v>23</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
+        <v>23</v>
+      </c>
+      <c r="K39" s="4">
         <v>10</v>
       </c>
-      <c r="K39" s="3">
+      <c r="L39" s="3">
         <v>5</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>6</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <v>5</v>
       </c>
-      <c r="N39" s="3">
+      <c r="O39" s="3">
         <v>5</v>
       </c>
-      <c r="O39" s="3">
-        <v>4</v>
-      </c>
       <c r="P39" s="3">
         <v>4</v>
       </c>
       <c r="Q39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R39" s="3">
         <v>2</v>
       </c>
       <c r="S39" s="3">
-        <v>1</v>
-      </c>
-      <c r="T39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1</v>
+      </c>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>95</v>
+      </c>
+      <c r="C40" s="4">
         <v>94</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>43</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>33</v>
-      </c>
-      <c r="E40" s="4">
-        <v>31</v>
       </c>
       <c r="F40" s="4">
         <v>31</v>
       </c>
       <c r="G40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H40" s="4">
         <v>19</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="4">
+        <v>19</v>
+      </c>
+      <c r="J40" s="3">
         <v>11</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>7</v>
       </c>
-      <c r="K40" s="3">
+      <c r="L40" s="3">
         <v>5</v>
       </c>
-      <c r="L40" s="4">
-        <v>1</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="3"/>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
+      <c r="N40" s="4"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -2899,25 +3003,26 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>240</v>
+      </c>
+      <c r="C41" s="4">
         <v>215</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>144</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>127</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>76</v>
-      </c>
-      <c r="F41" s="4">
-        <v>38</v>
       </c>
       <c r="G41" s="4">
         <v>38</v>
@@ -2925,38 +3030,38 @@
       <c r="H41" s="4">
         <v>38</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="4">
+        <v>38</v>
+      </c>
+      <c r="J41" s="3">
         <v>28</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>28</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>14</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>13</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7</v>
       </c>
-      <c r="P41" s="3">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T41" s="3">
         <v>1</v>
@@ -2970,51 +3075,54 @@
       <c r="W41" s="3">
         <v>1</v>
       </c>
-      <c r="X41" s="3"/>
+      <c r="X41" s="3">
+        <v>1</v>
+      </c>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="4">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
         <v>5</v>
       </c>
-      <c r="F42" s="4">
-        <v>4</v>
-      </c>
       <c r="G42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" s="4">
         <v>3</v>
       </c>
-      <c r="I42" s="3">
-        <v>2</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="4">
+      <c r="I42" s="4">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
         <v>1</v>
       </c>
       <c r="M42" s="4">
         <v>1</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="4">
         <v>1</v>
       </c>
       <c r="O42" s="3">
@@ -3050,9 +3158,12 @@
       <c r="Y42" s="3">
         <v>1</v>
       </c>
-      <c r="Z42" s="3"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
@@ -3060,16 +3171,16 @@
         <v>98</v>
       </c>
       <c r="C43" s="4">
+        <v>98</v>
+      </c>
+      <c r="D43" s="4">
         <v>61</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>47</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>34</v>
-      </c>
-      <c r="F43" s="4">
-        <v>21</v>
       </c>
       <c r="G43" s="4">
         <v>21</v>
@@ -3077,20 +3188,22 @@
       <c r="H43" s="4">
         <v>21</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="4">
+        <v>21</v>
+      </c>
+      <c r="J43" s="3">
         <v>17</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>15</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="4">
-        <v>1</v>
-      </c>
+      <c r="L43" s="3"/>
       <c r="M43" s="4">
         <v>1</v>
       </c>
-      <c r="N43" s="3"/>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -3103,25 +3216,26 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
+        <v>48</v>
+      </c>
+      <c r="C44" s="4">
         <v>39</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>28</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>27</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>16</v>
-      </c>
-      <c r="F44" s="4">
-        <v>6</v>
       </c>
       <c r="G44" s="4">
         <v>6</v>
@@ -3129,28 +3243,30 @@
       <c r="H44" s="4">
         <v>6</v>
       </c>
-      <c r="I44" s="3">
-        <v>3</v>
-      </c>
-      <c r="J44" s="4">
-        <v>2</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2</v>
-      </c>
-      <c r="L44" s="4">
-        <v>1</v>
+      <c r="I44" s="4">
+        <v>6</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3</v>
+      </c>
+      <c r="K44" s="4">
+        <v>2</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2</v>
       </c>
       <c r="M44" s="4">
         <v>1</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="4">
         <v>1</v>
       </c>
       <c r="O44" s="3">
         <v>1</v>
       </c>
-      <c r="P44" s="3"/>
+      <c r="P44" s="3">
+        <v>1</v>
+      </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -3161,48 +3277,49 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>82</v>
+      </c>
+      <c r="C45" s="4">
         <v>67</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>41</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>28</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>22</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>16</v>
-      </c>
-      <c r="G45" s="4">
-        <v>12</v>
       </c>
       <c r="H45" s="4">
         <v>12</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="4">
+        <v>12</v>
+      </c>
+      <c r="J45" s="3">
         <v>6</v>
       </c>
-      <c r="J45" s="4">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3</v>
-      </c>
-      <c r="L45" s="4">
+      <c r="K45" s="4">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>3</v>
       </c>
       <c r="M45" s="4">
-        <v>1</v>
-      </c>
-      <c r="N45" s="3">
+        <v>3</v>
+      </c>
+      <c r="N45" s="4">
         <v>1</v>
       </c>
       <c r="O45" s="3">
@@ -3217,7 +3334,9 @@
       <c r="R45" s="3">
         <v>1</v>
       </c>
-      <c r="S45" s="3"/>
+      <c r="S45" s="3">
+        <v>1</v>
+      </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -3225,8 +3344,9 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -3234,7 +3354,7 @@
         <v>308</v>
       </c>
       <c r="C46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="D46" s="4">
         <v>196</v>
@@ -3243,7 +3363,7 @@
         <v>196</v>
       </c>
       <c r="F46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="G46" s="4">
         <v>60</v>
@@ -3251,37 +3371,39 @@
       <c r="H46" s="4">
         <v>60</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="4">
+        <v>60</v>
+      </c>
+      <c r="J46" s="3">
         <v>40</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>35</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>19</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>10</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8</v>
       </c>
-      <c r="P46" s="3">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R46" s="3">
-        <v>2</v>
-      </c>
-      <c r="S46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="S46" s="3">
+        <v>2</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -3289,8 +3411,9 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -3298,40 +3421,40 @@
         <v>112</v>
       </c>
       <c r="C47" s="4">
+        <v>112</v>
+      </c>
+      <c r="D47" s="4">
         <v>93</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>85</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>67</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>61</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>41</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>23</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>9</v>
       </c>
-      <c r="K47" s="3">
-        <v>3</v>
-      </c>
-      <c r="L47" s="4">
+      <c r="L47" s="3">
+        <v>3</v>
+      </c>
+      <c r="M47" s="4">
         <v>5</v>
       </c>
-      <c r="M47" s="4">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
-        <v>2</v>
+      <c r="N47" s="4">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>2</v>
@@ -3366,9 +3489,12 @@
       <c r="Y47" s="3">
         <v>2</v>
       </c>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -3376,13 +3502,13 @@
         <v>13</v>
       </c>
       <c r="C48" s="4">
+        <v>13</v>
+      </c>
+      <c r="D48" s="4">
         <v>10</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>7</v>
-      </c>
-      <c r="E48" s="4">
-        <v>5</v>
       </c>
       <c r="F48" s="4">
         <v>5</v>
@@ -3391,14 +3517,16 @@
         <v>5</v>
       </c>
       <c r="H48" s="4">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="I48" s="4">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="3"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="3"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -3411,8 +3539,9 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -3420,41 +3549,41 @@
         <v>35</v>
       </c>
       <c r="C49" s="4">
+        <v>35</v>
+      </c>
+      <c r="D49" s="4">
         <v>21</v>
-      </c>
-      <c r="D49" s="4">
-        <v>19</v>
       </c>
       <c r="E49" s="4">
         <v>19</v>
       </c>
       <c r="F49" s="4">
+        <v>19</v>
+      </c>
+      <c r="G49" s="4">
         <v>13</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>12</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>7</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>6</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>4</v>
-      </c>
       <c r="O49" s="3">
         <v>4</v>
       </c>
@@ -3468,19 +3597,22 @@
         <v>4</v>
       </c>
       <c r="S49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>1</v>
       </c>
-      <c r="U49" s="3"/>
+      <c r="U49" s="3">
+        <v>1</v>
+      </c>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -3488,13 +3620,13 @@
         <v>13</v>
       </c>
       <c r="C50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D50" s="4">
         <v>5</v>
       </c>
       <c r="E50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="4">
         <v>4</v>
@@ -3503,16 +3635,18 @@
         <v>4</v>
       </c>
       <c r="H50" s="4">
-        <v>3</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="I50" s="4">
+        <v>3</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="3"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="3"/>
+      <c r="N50" s="4"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -3525,8 +3659,9 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -3534,39 +3669,39 @@
         <v>70</v>
       </c>
       <c r="C51" s="4">
+        <v>70</v>
+      </c>
+      <c r="D51" s="4">
         <v>60</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>51</v>
-      </c>
-      <c r="E51" s="4">
-        <v>33</v>
       </c>
       <c r="F51" s="4">
         <v>33</v>
       </c>
       <c r="G51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H51" s="4">
         <v>21</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="4">
         <v>21</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="3">
         <v>21</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="4">
+        <v>21</v>
+      </c>
+      <c r="L51" s="3">
         <v>19</v>
       </c>
-      <c r="L51" s="4">
+      <c r="M51" s="4">
         <v>15</v>
       </c>
-      <c r="M51" s="4">
-        <v>11</v>
-      </c>
-      <c r="N51" s="3">
+      <c r="N51" s="4">
         <v>11</v>
       </c>
       <c r="O51" s="3">
@@ -3579,128 +3714,135 @@
         <v>11</v>
       </c>
       <c r="R51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T51" s="3">
         <v>1</v>
       </c>
-      <c r="U51" s="3"/>
+      <c r="U51" s="3">
+        <v>1</v>
+      </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
-    </row>
-    <row r="52" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA51" s="3"/>
+    </row>
+    <row r="52" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>3665</v>
+        <v>3818</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
+        <v>3665</v>
+      </c>
+      <c r="D52" s="15">
+        <f>SUM(D8:D51)</f>
         <v>2748</v>
       </c>
-      <c r="D52" s="14">
-        <f>SUM(D8:D51)</f>
+      <c r="E52" s="14">
+        <f>SUM(E8:E51)</f>
         <v>2184</v>
       </c>
-      <c r="E52" s="5">
-        <f t="shared" ref="E52:Z52" si="0">SUM(E8:E51)</f>
+      <c r="F52" s="5">
+        <f t="shared" ref="F52:AA52" si="0">SUM(F8:F51)</f>
         <v>1641</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <f t="shared" si="0"/>
         <v>1105</v>
       </c>
-      <c r="G52" s="5">
+      <c r="H52" s="5">
         <f t="shared" si="0"/>
         <v>977</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <f t="shared" si="0"/>
         <v>827</v>
       </c>
-      <c r="I52" s="5">
+      <c r="J52" s="5">
         <f t="shared" si="0"/>
         <v>569</v>
       </c>
-      <c r="J52" s="5">
+      <c r="K52" s="5">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="L52" s="5">
+      <c r="M52" s="5">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Y52" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="Z52" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>49</v>
       </c>
@@ -3715,16 +3857,17 @@
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0UKJnRdOKWvG1qENRNPV/WTK1k2UhrhiOC9RW+GuUIDhTtjNzA9e1/whwG4WV0Ikh35DMPYlit1yKl1dQNTSVQ==" saltValue="bmglVvZM73cxlp+rO5JGOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8YSDm3jyNMu4u++6t2Q/u9yyoRRuB8ARaIAqHsldrj/spS9788U8kI/IcasV2LNfjZk9Id7puhwA4mDLiePjbg==" saltValue="PReReNFSVYaixOsN6LnuiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A54:M54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D52:Z52" formulaRange="1"/>
+    <ignoredError sqref="E52:AA52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Fälle</t>
   </si>
@@ -602,37 +602,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AA54"/>
+  <dimension ref="A2:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="2" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I3" s="9"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -714,139 +714,145 @@
       <c r="AA6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43912</v>
+      </c>
+      <c r="C7" s="13">
         <v>43911</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43910</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43909</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43908</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43907</v>
       </c>
-      <c r="G7" s="12">
+      <c r="H7" s="12">
         <v>43906</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>43905</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>43904</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>43903</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="12">
         <v>43902</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>43901</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>43900</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43899</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43898</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43897</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43896</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43895</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43894</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43893</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43892</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43891</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43890</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43889</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43888</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43887</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4">
         <v>39</v>
       </c>
       <c r="D8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4">
         <v>26</v>
       </c>
       <c r="F8" s="4">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4">
         <v>24</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>13</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>12</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>7</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>6</v>
       </c>
-      <c r="L8" s="3">
-        <v>4</v>
-      </c>
-      <c r="M8" s="4">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>4</v>
       </c>
       <c r="N8" s="4">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="4">
         <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>3</v>
       </c>
       <c r="Q8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>2</v>
@@ -854,7 +860,9 @@
       <c r="S8" s="3">
         <v>2</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3">
+        <v>2</v>
+      </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -862,57 +870,60 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>21</v>
       </c>
       <c r="D9" s="4">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4">
         <v>17</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>14</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>12</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>7</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="4">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3</v>
-      </c>
-      <c r="K9" s="4">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1</v>
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="4">
         <v>1</v>
       </c>
       <c r="P9" s="3">
         <v>1</v>
       </c>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -923,8 +934,9 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -938,13 +950,13 @@
         <v>45</v>
       </c>
       <c r="E10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4">
         <v>17</v>
       </c>
       <c r="G10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H10" s="4">
         <v>5</v>
@@ -952,31 +964,33 @@
       <c r="I10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="K10" s="4">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>3</v>
       </c>
       <c r="N10" s="4">
         <v>3</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="4">
         <v>3</v>
       </c>
       <c r="P10" s="3">
         <v>3</v>
       </c>
       <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -986,19 +1000,20 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4">
         <v>67</v>
       </c>
       <c r="D11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E11" s="4">
         <v>28</v>
@@ -1007,7 +1022,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H11" s="4">
         <v>9</v>
@@ -1015,22 +1030,22 @@
       <c r="I11" s="4">
         <v>9</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>9</v>
       </c>
-      <c r="K11" s="4">
-        <v>4</v>
-      </c>
-      <c r="L11" s="3">
-        <v>4</v>
-      </c>
-      <c r="M11" s="4">
+      <c r="K11" s="3">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4">
+        <v>4</v>
+      </c>
+      <c r="M11" s="3">
         <v>4</v>
       </c>
       <c r="N11" s="4">
-        <v>3</v>
-      </c>
-      <c r="O11" s="3">
+        <v>4</v>
+      </c>
+      <c r="O11" s="4">
         <v>3</v>
       </c>
       <c r="P11" s="3">
@@ -1040,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="R11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11" s="3">
         <v>1</v>
@@ -1063,53 +1078,56 @@
       <c r="Y11" s="3">
         <v>1</v>
       </c>
-      <c r="Z11" s="3"/>
+      <c r="Z11" s="3">
+        <v>1</v>
+      </c>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4">
         <v>71</v>
       </c>
       <c r="D12" s="4">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4">
         <v>62</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>39</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>31</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>29</v>
-      </c>
-      <c r="H12" s="4">
-        <v>13</v>
       </c>
       <c r="I12" s="4">
         <v>13</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
+        <v>13</v>
+      </c>
+      <c r="K12" s="3">
         <v>8</v>
       </c>
-      <c r="K12" s="4">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="4">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>6</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>5</v>
       </c>
-      <c r="N12" s="4">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="4">
         <v>4</v>
       </c>
       <c r="P12" s="3">
@@ -1119,12 +1137,14 @@
         <v>4</v>
       </c>
       <c r="R12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12" s="3">
-        <v>1</v>
-      </c>
-      <c r="T12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -1132,58 +1152,59 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4">
         <v>134</v>
       </c>
       <c r="D13" s="4">
+        <v>134</v>
+      </c>
+      <c r="E13" s="4">
         <v>101</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>78</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>54</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>45</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>42</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>26</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>19</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>18</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>12</v>
-      </c>
-      <c r="M13" s="4">
-        <v>6</v>
       </c>
       <c r="N13" s="4">
         <v>6</v>
       </c>
-      <c r="O13" s="3">
-        <v>5</v>
+      <c r="O13" s="4">
+        <v>6</v>
       </c>
       <c r="P13" s="3">
         <v>5</v>
       </c>
       <c r="Q13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" s="3">
         <v>4</v>
@@ -1192,13 +1213,13 @@
         <v>4</v>
       </c>
       <c r="T13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U13" s="3">
         <v>1</v>
       </c>
       <c r="V13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W13" s="3">
         <v>3</v>
@@ -1209,54 +1230,57 @@
       <c r="Y13" s="3">
         <v>3</v>
       </c>
-      <c r="Z13" s="3"/>
+      <c r="Z13" s="3">
+        <v>3</v>
+      </c>
       <c r="AA13" s="3"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>120</v>
+      </c>
+      <c r="C14" s="4">
         <v>108</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>92</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>76</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>61</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>51</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>43</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>34</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>26</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>12</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>6</v>
       </c>
-      <c r="N14" s="4">
-        <v>2</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
+      <c r="O14" s="4">
+        <v>2</v>
       </c>
       <c r="P14" s="3">
         <v>1</v>
@@ -1264,7 +1288,9 @@
       <c r="Q14" s="3">
         <v>1</v>
       </c>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -1274,75 +1300,79 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C15" s="11">
         <v>110</v>
       </c>
       <c r="D15" s="11">
+        <v>110</v>
+      </c>
+      <c r="E15" s="11">
         <v>99</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>60</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>59</v>
-      </c>
-      <c r="G15" s="11">
-        <v>35</v>
       </c>
       <c r="H15" s="11">
         <v>35</v>
       </c>
       <c r="I15" s="11">
+        <v>35</v>
+      </c>
+      <c r="J15" s="11">
         <v>21</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>17</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>16</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>15</v>
-      </c>
-      <c r="M15" s="11">
-        <v>13</v>
       </c>
       <c r="N15" s="11">
         <v>13</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="11">
+        <v>13</v>
+      </c>
+      <c r="P15" s="3">
         <v>12</v>
       </c>
-      <c r="P15" s="3">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
       <c r="S15" s="3"/>
-      <c r="T15" s="3">
-        <v>1</v>
-      </c>
+      <c r="T15" s="3"/>
       <c r="U15" s="3">
         <v>1</v>
       </c>
-      <c r="V15" s="3"/>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1350,48 +1380,50 @@
         <v>33</v>
       </c>
       <c r="C16" s="4">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4">
         <v>24</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>21</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>12</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>9</v>
       </c>
-      <c r="G16" s="4">
-        <v>4</v>
-      </c>
       <c r="H16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="4">
         <v>3</v>
       </c>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
-      <c r="K16" s="4">
-        <v>3</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1</v>
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2</v>
       </c>
       <c r="N16" s="4">
         <v>1</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="4">
         <v>1</v>
       </c>
       <c r="P16" s="3">
         <v>1</v>
       </c>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -1402,121 +1434,125 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="C17" s="4">
         <v>323</v>
       </c>
       <c r="D17" s="4">
+        <v>323</v>
+      </c>
+      <c r="E17" s="4">
         <v>234</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>193</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>128</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>123</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>111</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>82</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>65</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>47</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>23</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>18</v>
-      </c>
-      <c r="O17" s="3">
-        <v>16</v>
       </c>
       <c r="P17" s="3">
         <v>16</v>
       </c>
       <c r="Q17" s="3">
+        <v>16</v>
+      </c>
+      <c r="R17" s="3">
         <v>14</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13</v>
-      </c>
-      <c r="S17" s="3">
-        <v>5</v>
       </c>
       <c r="T17" s="3">
         <v>5</v>
       </c>
-      <c r="U17" s="3"/>
+      <c r="U17" s="3">
+        <v>5</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="C18" s="4">
         <v>150</v>
       </c>
       <c r="D18" s="4">
+        <v>150</v>
+      </c>
+      <c r="E18" s="4">
         <v>114</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>79</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>62</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>53</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>43</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>34</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>18</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13</v>
-      </c>
-      <c r="M18" s="4">
-        <v>12</v>
       </c>
       <c r="N18" s="4">
         <v>12</v>
       </c>
-      <c r="O18" s="3">
-        <v>8</v>
+      <c r="O18" s="4">
+        <v>12</v>
       </c>
       <c r="P18" s="3">
         <v>8</v>
@@ -1525,31 +1561,34 @@
         <v>8</v>
       </c>
       <c r="R18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S18" s="3">
         <v>6</v>
       </c>
       <c r="T18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U18" s="3">
         <v>4</v>
       </c>
       <c r="V18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1566,31 +1605,33 @@
         <v>14</v>
       </c>
       <c r="F19" s="4">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4">
         <v>10</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>8</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>7</v>
       </c>
-      <c r="I19" s="4">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="4">
-        <v>2</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1603,8 +1644,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1615,46 +1657,46 @@
         <v>97</v>
       </c>
       <c r="D20" s="4">
+        <v>97</v>
+      </c>
+      <c r="E20" s="4">
         <v>60</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>59</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>39</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>29</v>
-      </c>
-      <c r="H20" s="4">
-        <v>16</v>
       </c>
       <c r="I20" s="4">
         <v>16</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
+        <v>16</v>
+      </c>
+      <c r="K20" s="3">
         <v>14</v>
       </c>
-      <c r="K20" s="4">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4">
-        <v>4</v>
+      <c r="L20" s="4">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
       </c>
       <c r="N20" s="4">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+        <v>4</v>
+      </c>
+      <c r="O20" s="4">
         <v>3</v>
       </c>
       <c r="P20" s="3">
         <v>3</v>
       </c>
       <c r="Q20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" s="3">
         <v>2</v>
@@ -1678,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="Y20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="3">
         <v>1</v>
@@ -1686,8 +1728,11 @@
       <c r="AA20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1695,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
@@ -1704,40 +1749,40 @@
         <v>3</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4">
         <v>2</v>
       </c>
       <c r="H21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="4">
-        <v>2</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
-      <c r="M21" s="4">
-        <v>5</v>
+      <c r="J21" s="4">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2</v>
       </c>
       <c r="N21" s="4">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="4">
         <v>5</v>
       </c>
       <c r="P21" s="3">
         <v>5</v>
       </c>
       <c r="Q21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R21" s="3">
         <v>2</v>
@@ -1745,7 +1790,9 @@
       <c r="S21" s="3">
         <v>2</v>
       </c>
-      <c r="T21" s="3"/>
+      <c r="T21" s="3">
+        <v>2</v>
+      </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -1753,58 +1800,59 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4">
         <v>47</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>39</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>34</v>
-      </c>
-      <c r="E22" s="4">
-        <v>17</v>
       </c>
       <c r="F22" s="4">
         <v>17</v>
       </c>
       <c r="G22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H22" s="4">
         <v>21</v>
       </c>
       <c r="I22" s="4">
+        <v>21</v>
+      </c>
+      <c r="J22" s="4">
         <v>19</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>4</v>
-      </c>
-      <c r="M22" s="4">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>4</v>
       </c>
       <c r="N22" s="4">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="4">
         <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>3</v>
       </c>
       <c r="Q22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>1</v>
@@ -1812,7 +1860,9 @@
       <c r="S22" s="3">
         <v>1</v>
       </c>
-      <c r="T22" s="3"/>
+      <c r="T22" s="3">
+        <v>1</v>
+      </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -1820,73 +1870,74 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>165</v>
+      </c>
+      <c r="C23" s="11">
         <v>140</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>118</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>110</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>71</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>57</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>50</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>47</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>37</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>32</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30</v>
-      </c>
-      <c r="M23" s="11">
-        <v>26</v>
       </c>
       <c r="N23" s="11">
         <v>26</v>
       </c>
-      <c r="O23" s="3">
-        <v>20</v>
+      <c r="O23" s="11">
+        <v>26</v>
       </c>
       <c r="P23" s="3">
         <v>20</v>
       </c>
       <c r="Q23" s="3">
+        <v>20</v>
+      </c>
+      <c r="R23" s="3">
         <v>14</v>
-      </c>
-      <c r="R23" s="3">
-        <v>10</v>
       </c>
       <c r="S23" s="3">
         <v>10</v>
       </c>
       <c r="T23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U23" s="3">
         <v>8</v>
       </c>
       <c r="V23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W23" s="3">
         <v>1</v>
@@ -1894,52 +1945,55 @@
       <c r="X23" s="3">
         <v>1</v>
       </c>
-      <c r="Y23" s="3"/>
+      <c r="Y23" s="3">
+        <v>1</v>
+      </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C24" s="11">
         <v>20</v>
       </c>
       <c r="D24" s="11">
+        <v>20</v>
+      </c>
+      <c r="E24" s="11">
         <v>19</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>13</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>9</v>
       </c>
-      <c r="G24" s="11">
-        <v>4</v>
-      </c>
       <c r="H24" s="11">
         <v>4</v>
       </c>
       <c r="I24" s="11">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="11">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="11">
-        <v>3</v>
-      </c>
+      <c r="J24" s="11">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="11">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3"/>
       <c r="N24" s="11">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="11">
         <v>3</v>
       </c>
       <c r="P24" s="3">
@@ -1949,23 +2003,26 @@
         <v>3</v>
       </c>
       <c r="R24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>2</v>
       </c>
-      <c r="T24" s="3"/>
+      <c r="T24" s="3">
+        <v>2</v>
+      </c>
       <c r="U24" s="3"/>
-      <c r="V24" s="3">
-        <v>1</v>
-      </c>
-      <c r="W24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1973,19 +2030,19 @@
         <v>222</v>
       </c>
       <c r="C25" s="4">
+        <v>222</v>
+      </c>
+      <c r="D25" s="4">
         <v>182</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>154</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>135</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>64</v>
-      </c>
-      <c r="G25" s="4">
-        <v>29</v>
       </c>
       <c r="H25" s="4">
         <v>29</v>
@@ -1993,23 +2050,23 @@
       <c r="I25" s="4">
         <v>29</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
+        <v>29</v>
+      </c>
+      <c r="K25" s="3">
         <v>8</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>8</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>6</v>
       </c>
-      <c r="M25" s="4">
-        <v>2</v>
-      </c>
       <c r="N25" s="4">
         <v>2</v>
       </c>
-      <c r="O25" s="3">
-        <v>1</v>
+      <c r="O25" s="4">
+        <v>2</v>
       </c>
       <c r="P25" s="3">
         <v>1</v>
@@ -2020,7 +2077,9 @@
       <c r="R25" s="3">
         <v>1</v>
       </c>
-      <c r="S25" s="3"/>
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -2029,64 +2088,65 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C26" s="11">
         <v>96</v>
       </c>
       <c r="D26" s="11">
+        <v>96</v>
+      </c>
+      <c r="E26" s="11">
         <v>75</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>63</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>47</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>24</v>
-      </c>
-      <c r="H26" s="11">
-        <v>29</v>
       </c>
       <c r="I26" s="11">
         <v>29</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="11">
+        <v>29</v>
+      </c>
+      <c r="K26" s="3">
         <v>16</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>16</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>9</v>
       </c>
-      <c r="N26" s="11">
-        <v>7</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="11">
         <v>7</v>
       </c>
       <c r="P26" s="3">
         <v>7</v>
       </c>
       <c r="Q26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26" s="3">
         <v>1</v>
@@ -2103,11 +2163,14 @@
       <c r="X26" s="3">
         <v>1</v>
       </c>
-      <c r="Y26" s="3"/>
+      <c r="Y26" s="3">
+        <v>1</v>
+      </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
@@ -2118,16 +2181,16 @@
         <v>42</v>
       </c>
       <c r="D27" s="11">
+        <v>42</v>
+      </c>
+      <c r="E27" s="11">
         <v>34</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>29</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>26</v>
-      </c>
-      <c r="G27" s="11">
-        <v>14</v>
       </c>
       <c r="H27" s="11">
         <v>14</v>
@@ -2135,20 +2198,22 @@
       <c r="I27" s="11">
         <v>14</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="11">
+        <v>14</v>
+      </c>
+      <c r="K27" s="3">
         <v>8</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>8</v>
       </c>
-      <c r="L27" s="3">
-        <v>3</v>
-      </c>
-      <c r="M27" s="11">
-        <v>2</v>
-      </c>
-      <c r="N27" s="11"/>
-      <c r="O27" s="3"/>
+      <c r="M27" s="3">
+        <v>3</v>
+      </c>
+      <c r="N27" s="11">
+        <v>2</v>
+      </c>
+      <c r="O27" s="11"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -2161,8 +2226,9 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -2173,16 +2239,16 @@
         <v>52</v>
       </c>
       <c r="D28" s="4">
+        <v>52</v>
+      </c>
+      <c r="E28" s="4">
         <v>43</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>34</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>28</v>
-      </c>
-      <c r="G28" s="4">
-        <v>20</v>
       </c>
       <c r="H28" s="4">
         <v>20</v>
@@ -2190,28 +2256,30 @@
       <c r="I28" s="4">
         <v>20</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
+        <v>20</v>
+      </c>
+      <c r="K28" s="3">
         <v>7</v>
       </c>
-      <c r="K28" s="4">
-        <v>2</v>
-      </c>
-      <c r="L28" s="3">
-        <v>2</v>
-      </c>
-      <c r="M28" s="4">
-        <v>1</v>
+      <c r="L28" s="4">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3">
+        <v>2</v>
       </c>
       <c r="N28" s="4">
         <v>1</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="4">
         <v>1</v>
       </c>
       <c r="P28" s="3">
         <v>1</v>
       </c>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -2222,8 +2290,9 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -2234,16 +2303,16 @@
         <v>57</v>
       </c>
       <c r="D29" s="4">
+        <v>57</v>
+      </c>
+      <c r="E29" s="4">
         <v>41</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>25</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>16</v>
-      </c>
-      <c r="G29" s="4">
-        <v>10</v>
       </c>
       <c r="H29" s="4">
         <v>10</v>
@@ -2251,20 +2320,20 @@
       <c r="I29" s="4">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>6</v>
       </c>
-      <c r="K29" s="4">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4">
-        <v>1</v>
-      </c>
+      <c r="L29" s="4">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3"/>
       <c r="N29" s="4">
         <v>1</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="4">
         <v>1</v>
       </c>
       <c r="P29" s="3">
@@ -2282,35 +2351,38 @@
       <c r="T29" s="3">
         <v>1</v>
       </c>
-      <c r="U29" s="3"/>
+      <c r="U29" s="3">
+        <v>1</v>
+      </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="C30" s="4">
         <v>175</v>
       </c>
       <c r="D30" s="4">
+        <v>175</v>
+      </c>
+      <c r="E30" s="4">
         <v>126</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>112</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>87</v>
-      </c>
-      <c r="G30" s="4">
-        <v>38</v>
       </c>
       <c r="H30" s="4">
         <v>38</v>
@@ -2318,41 +2390,41 @@
       <c r="I30" s="4">
         <v>38</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="4">
+        <v>38</v>
+      </c>
+      <c r="K30" s="3">
         <v>24</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>18</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>11</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>11</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>8</v>
-      </c>
-      <c r="O30" s="3">
-        <v>7</v>
       </c>
       <c r="P30" s="3">
         <v>7</v>
       </c>
       <c r="Q30" s="3">
+        <v>7</v>
+      </c>
+      <c r="R30" s="3">
         <v>5</v>
       </c>
-      <c r="R30" s="3">
-        <v>3</v>
-      </c>
       <c r="S30" s="3">
         <v>3</v>
       </c>
       <c r="T30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" s="3">
         <v>1</v>
@@ -2363,11 +2435,14 @@
       <c r="X30" s="3">
         <v>1</v>
       </c>
-      <c r="Y30" s="3"/>
+      <c r="Y30" s="3">
+        <v>1</v>
+      </c>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -2378,10 +2453,10 @@
         <v>36</v>
       </c>
       <c r="D31" s="4">
+        <v>36</v>
+      </c>
+      <c r="E31" s="4">
         <v>33</v>
-      </c>
-      <c r="E31" s="4">
-        <v>31</v>
       </c>
       <c r="F31" s="4">
         <v>31</v>
@@ -2393,39 +2468,41 @@
         <v>31</v>
       </c>
       <c r="I31" s="4">
+        <v>31</v>
+      </c>
+      <c r="J31" s="4">
         <v>30</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>28</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>24</v>
       </c>
-      <c r="L31" s="3">
-        <v>24</v>
-      </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>24</v>
       </c>
       <c r="N31" s="4">
         <v>24</v>
       </c>
-      <c r="O31" s="3">
-        <v>23</v>
+      <c r="O31" s="4">
+        <v>24</v>
       </c>
       <c r="P31" s="3">
         <v>23</v>
       </c>
       <c r="Q31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="R31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" s="3">
         <v>1</v>
       </c>
-      <c r="T31" s="3"/>
+      <c r="T31" s="3">
+        <v>1</v>
+      </c>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -2433,8 +2510,9 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -2445,13 +2523,13 @@
         <v>80</v>
       </c>
       <c r="D32" s="4">
+        <v>80</v>
+      </c>
+      <c r="E32" s="4">
         <v>73</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>71</v>
-      </c>
-      <c r="F32" s="4">
-        <v>27</v>
       </c>
       <c r="G32" s="4">
         <v>27</v>
@@ -2462,38 +2540,38 @@
       <c r="I32" s="4">
         <v>27</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
+        <v>27</v>
+      </c>
+      <c r="K32" s="3">
         <v>22</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>12</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12</v>
-      </c>
-      <c r="M32" s="4">
-        <v>9</v>
       </c>
       <c r="N32" s="4">
         <v>9</v>
       </c>
-      <c r="O32" s="3">
-        <v>7</v>
+      <c r="O32" s="4">
+        <v>9</v>
       </c>
       <c r="P32" s="3">
         <v>7</v>
       </c>
       <c r="Q32" s="3">
+        <v>7</v>
+      </c>
+      <c r="R32" s="3">
         <v>5</v>
       </c>
-      <c r="R32" s="3">
-        <v>4</v>
-      </c>
       <c r="S32" s="3">
         <v>4</v>
       </c>
       <c r="T32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U32" s="3">
         <v>3</v>
@@ -2501,56 +2579,59 @@
       <c r="V32" s="3">
         <v>3</v>
       </c>
-      <c r="W32" s="3"/>
+      <c r="W32" s="3">
+        <v>3</v>
+      </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4">
         <v>26</v>
       </c>
       <c r="D33" s="4">
+        <v>26</v>
+      </c>
+      <c r="E33" s="4">
         <v>20</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>17</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>14</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>7</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>10</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>6</v>
       </c>
-      <c r="J33" s="3">
-        <v>4</v>
-      </c>
-      <c r="K33" s="4">
-        <v>2</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2</v>
-      </c>
-      <c r="M33" s="4">
-        <v>1</v>
+      <c r="K33" s="3">
+        <v>4</v>
+      </c>
+      <c r="L33" s="4">
+        <v>2</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2</v>
       </c>
       <c r="N33" s="4">
         <v>1</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="4">
         <v>1</v>
       </c>
       <c r="P33" s="3">
@@ -2559,7 +2640,9 @@
       <c r="Q33" s="3">
         <v>1</v>
       </c>
-      <c r="R33" s="3"/>
+      <c r="R33" s="3">
+        <v>1</v>
+      </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -2569,60 +2652,63 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="4">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4">
         <v>71</v>
       </c>
       <c r="D34" s="4">
+        <v>71</v>
+      </c>
+      <c r="E34" s="4">
         <v>55</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>45</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>38</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>28</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>25</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>22</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>16</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>13</v>
       </c>
-      <c r="L34" s="3">
+      <c r="M34" s="3">
         <v>13</v>
-      </c>
-      <c r="M34" s="4">
-        <v>12</v>
       </c>
       <c r="N34" s="4">
         <v>12</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="4">
+        <v>12</v>
+      </c>
+      <c r="P34" s="3">
         <v>7</v>
       </c>
-      <c r="P34" s="3">
+      <c r="Q34" s="3">
         <v>6</v>
       </c>
-      <c r="Q34" s="3">
-        <v>2</v>
-      </c>
-      <c r="R34" s="3"/>
+      <c r="R34" s="3">
+        <v>2</v>
+      </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -2632,52 +2718,53 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C35" s="4">
         <v>91</v>
       </c>
       <c r="D35" s="4">
+        <v>91</v>
+      </c>
+      <c r="E35" s="4">
         <v>85</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>46</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>41</v>
-      </c>
-      <c r="G35" s="4">
-        <v>31</v>
       </c>
       <c r="H35" s="4">
         <v>31</v>
       </c>
       <c r="I35" s="4">
+        <v>31</v>
+      </c>
+      <c r="J35" s="4">
         <v>20</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>7</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5</v>
       </c>
-      <c r="M35" s="4">
-        <v>4</v>
-      </c>
       <c r="N35" s="4">
         <v>4</v>
       </c>
-      <c r="O35" s="3">
-        <v>3</v>
+      <c r="O35" s="4">
+        <v>4</v>
       </c>
       <c r="P35" s="3">
         <v>3</v>
@@ -2692,17 +2779,20 @@
         <v>3</v>
       </c>
       <c r="T35" s="3">
-        <v>1</v>
-      </c>
-      <c r="U35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1</v>
+      </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -2710,38 +2800,40 @@
         <v>16</v>
       </c>
       <c r="C36" s="4">
+        <v>16</v>
+      </c>
+      <c r="D36" s="4">
         <v>14</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>11</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>7</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>6</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>5</v>
       </c>
-      <c r="H36" s="4">
-        <v>4</v>
-      </c>
       <c r="I36" s="4">
         <v>4</v>
       </c>
-      <c r="J36" s="3">
-        <v>4</v>
-      </c>
-      <c r="K36" s="4">
-        <v>4</v>
-      </c>
-      <c r="L36" s="3">
-        <v>3</v>
-      </c>
-      <c r="M36" s="4"/>
+      <c r="J36" s="4">
+        <v>4</v>
+      </c>
+      <c r="K36" s="3">
+        <v>4</v>
+      </c>
+      <c r="L36" s="4">
+        <v>4</v>
+      </c>
+      <c r="M36" s="3">
+        <v>3</v>
+      </c>
       <c r="N36" s="4"/>
-      <c r="O36" s="3"/>
+      <c r="O36" s="4"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -2754,57 +2846,60 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C37" s="4">
         <v>81</v>
       </c>
       <c r="D37" s="4">
+        <v>81</v>
+      </c>
+      <c r="E37" s="4">
         <v>64</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>53</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>37</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>34</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>26</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>19</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>12</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>11</v>
       </c>
-      <c r="L37" s="3">
-        <v>3</v>
-      </c>
-      <c r="M37" s="4">
-        <v>4</v>
+      <c r="M37" s="3">
+        <v>3</v>
       </c>
       <c r="N37" s="4">
-        <v>3</v>
-      </c>
-      <c r="O37" s="3">
+        <v>4</v>
+      </c>
+      <c r="O37" s="4">
         <v>3</v>
       </c>
       <c r="P37" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>2</v>
+      </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -2815,8 +2910,9 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -2827,51 +2923,53 @@
         <v>110</v>
       </c>
       <c r="D38" s="4">
+        <v>110</v>
+      </c>
+      <c r="E38" s="4">
         <v>88</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>55</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>13</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>12</v>
-      </c>
-      <c r="H38" s="4">
-        <v>8</v>
       </c>
       <c r="I38" s="4">
         <v>8</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="4">
         <v>8</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
+        <v>8</v>
+      </c>
+      <c r="L38" s="4">
         <v>5</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M38" s="3">
         <v>5</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>6</v>
       </c>
-      <c r="N38" s="4">
-        <v>3</v>
-      </c>
-      <c r="O38" s="3">
+      <c r="O38" s="4">
         <v>3</v>
       </c>
       <c r="P38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="3">
         <v>2</v>
       </c>
       <c r="R38" s="3">
-        <v>1</v>
-      </c>
-      <c r="S38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="S38" s="3">
+        <v>1</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -2880,8 +2978,9 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -2892,16 +2991,16 @@
         <v>117</v>
       </c>
       <c r="D39" s="4">
+        <v>117</v>
+      </c>
+      <c r="E39" s="4">
         <v>79</v>
-      </c>
-      <c r="E39" s="4">
-        <v>49</v>
       </c>
       <c r="F39" s="4">
         <v>49</v>
       </c>
       <c r="G39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H39" s="4">
         <v>23</v>
@@ -2909,48 +3008,51 @@
       <c r="I39" s="4">
         <v>23</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="4">
         <v>23</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
+        <v>23</v>
+      </c>
+      <c r="L39" s="4">
         <v>10</v>
       </c>
-      <c r="L39" s="3">
+      <c r="M39" s="3">
         <v>5</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <v>6</v>
       </c>
-      <c r="N39" s="4">
+      <c r="O39" s="4">
         <v>5</v>
       </c>
-      <c r="O39" s="3">
+      <c r="P39" s="3">
         <v>5</v>
       </c>
-      <c r="P39" s="3">
-        <v>4</v>
-      </c>
       <c r="Q39" s="3">
         <v>4</v>
       </c>
       <c r="R39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S39" s="3">
         <v>2</v>
       </c>
       <c r="T39" s="3">
-        <v>1</v>
-      </c>
-      <c r="U39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="U39" s="3">
+        <v>1</v>
+      </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -2958,40 +3060,42 @@
         <v>95</v>
       </c>
       <c r="C40" s="4">
+        <v>95</v>
+      </c>
+      <c r="D40" s="4">
         <v>94</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>43</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>33</v>
-      </c>
-      <c r="F40" s="4">
-        <v>31</v>
       </c>
       <c r="G40" s="4">
         <v>31</v>
       </c>
       <c r="H40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I40" s="4">
         <v>19</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="4">
+        <v>19</v>
+      </c>
+      <c r="K40" s="3">
         <v>11</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>7</v>
       </c>
-      <c r="L40" s="3">
+      <c r="M40" s="3">
         <v>5</v>
       </c>
-      <c r="M40" s="4">
-        <v>1</v>
-      </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="3"/>
+      <c r="N40" s="4">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -3004,8 +3108,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
@@ -3013,19 +3118,19 @@
         <v>240</v>
       </c>
       <c r="C41" s="4">
+        <v>240</v>
+      </c>
+      <c r="D41" s="4">
         <v>215</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>144</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>127</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>76</v>
-      </c>
-      <c r="G41" s="4">
-        <v>38</v>
       </c>
       <c r="H41" s="4">
         <v>38</v>
@@ -3033,38 +3138,38 @@
       <c r="I41" s="4">
         <v>38</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="4">
+        <v>38</v>
+      </c>
+      <c r="K41" s="3">
         <v>28</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>28</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>14</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>13</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7</v>
       </c>
-      <c r="Q41" s="3">
-        <v>4</v>
-      </c>
       <c r="R41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41" s="3">
         <v>1</v>
@@ -3078,11 +3183,14 @@
       <c r="X41" s="3">
         <v>1</v>
       </c>
-      <c r="Y41" s="3"/>
+      <c r="Y41" s="3">
+        <v>1</v>
+      </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -3090,42 +3198,42 @@
         <v>8</v>
       </c>
       <c r="C42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="4">
+        <v>3</v>
+      </c>
+      <c r="G42" s="4">
         <v>5</v>
       </c>
-      <c r="G42" s="4">
-        <v>4</v>
-      </c>
       <c r="H42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42" s="4">
         <v>3</v>
       </c>
-      <c r="J42" s="3">
-        <v>2</v>
-      </c>
-      <c r="K42" s="4">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-      <c r="M42" s="4">
+      <c r="J42" s="4">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
+        <v>2</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
         <v>1</v>
       </c>
       <c r="N42" s="4">
         <v>1</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="4">
         <v>1</v>
       </c>
       <c r="P42" s="3">
@@ -3161,29 +3269,32 @@
       <c r="Z42" s="3">
         <v>1</v>
       </c>
-      <c r="AA42" s="3"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="3"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C43" s="4">
         <v>98</v>
       </c>
       <c r="D43" s="4">
+        <v>98</v>
+      </c>
+      <c r="E43" s="4">
         <v>61</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>47</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>34</v>
-      </c>
-      <c r="G43" s="4">
-        <v>21</v>
       </c>
       <c r="H43" s="4">
         <v>21</v>
@@ -3191,20 +3302,22 @@
       <c r="I43" s="4">
         <v>21</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="4">
+        <v>21</v>
+      </c>
+      <c r="K43" s="3">
         <v>17</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>15</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="4">
-        <v>1</v>
-      </c>
+      <c r="M43" s="3"/>
       <c r="N43" s="4">
         <v>1</v>
       </c>
-      <c r="O43" s="3"/>
+      <c r="O43" s="4">
+        <v>1</v>
+      </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -3217,28 +3330,29 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
+        <v>69</v>
+      </c>
+      <c r="C44" s="4">
         <v>48</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>39</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>28</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>27</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>16</v>
-      </c>
-      <c r="G44" s="4">
-        <v>6</v>
       </c>
       <c r="H44" s="4">
         <v>6</v>
@@ -3246,28 +3360,30 @@
       <c r="I44" s="4">
         <v>6</v>
       </c>
-      <c r="J44" s="3">
-        <v>3</v>
-      </c>
-      <c r="K44" s="4">
-        <v>2</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2</v>
-      </c>
-      <c r="M44" s="4">
-        <v>1</v>
+      <c r="J44" s="4">
+        <v>6</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3</v>
+      </c>
+      <c r="L44" s="4">
+        <v>2</v>
+      </c>
+      <c r="M44" s="3">
+        <v>2</v>
       </c>
       <c r="N44" s="4">
         <v>1</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="4">
         <v>1</v>
       </c>
       <c r="P44" s="3">
         <v>1</v>
       </c>
-      <c r="Q44" s="3"/>
+      <c r="Q44" s="3">
+        <v>1</v>
+      </c>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -3278,51 +3394,52 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>83</v>
+      </c>
+      <c r="C45" s="4">
         <v>82</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>67</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>41</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>28</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>22</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>16</v>
-      </c>
-      <c r="H45" s="4">
-        <v>12</v>
       </c>
       <c r="I45" s="4">
         <v>12</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="4">
+        <v>12</v>
+      </c>
+      <c r="K45" s="3">
         <v>6</v>
       </c>
-      <c r="K45" s="4">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>3</v>
-      </c>
-      <c r="M45" s="4">
+      <c r="L45" s="4">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>3</v>
       </c>
       <c r="N45" s="4">
-        <v>1</v>
-      </c>
-      <c r="O45" s="3">
+        <v>3</v>
+      </c>
+      <c r="O45" s="4">
         <v>1</v>
       </c>
       <c r="P45" s="3">
@@ -3337,7 +3454,9 @@
       <c r="S45" s="3">
         <v>1</v>
       </c>
-      <c r="T45" s="3"/>
+      <c r="T45" s="3">
+        <v>1</v>
+      </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -3345,19 +3464,20 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="C46" s="4">
         <v>308</v>
       </c>
       <c r="D46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="E46" s="4">
         <v>196</v>
@@ -3366,7 +3486,7 @@
         <v>196</v>
       </c>
       <c r="G46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="H46" s="4">
         <v>60</v>
@@ -3374,37 +3494,39 @@
       <c r="I46" s="4">
         <v>60</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="4">
+        <v>60</v>
+      </c>
+      <c r="K46" s="3">
         <v>40</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>35</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>19</v>
       </c>
-      <c r="N46" s="4">
+      <c r="O46" s="4">
         <v>10</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8</v>
       </c>
-      <c r="Q46" s="3">
-        <v>4</v>
-      </c>
       <c r="R46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S46" s="3">
-        <v>2</v>
-      </c>
-      <c r="T46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="T46" s="3">
+        <v>2</v>
+      </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -3412,52 +3534,53 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C47" s="4">
         <v>112</v>
       </c>
       <c r="D47" s="4">
+        <v>112</v>
+      </c>
+      <c r="E47" s="4">
         <v>93</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>85</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>67</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>61</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>41</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>23</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>9</v>
       </c>
-      <c r="L47" s="3">
-        <v>3</v>
-      </c>
-      <c r="M47" s="4">
+      <c r="M47" s="3">
+        <v>3</v>
+      </c>
+      <c r="N47" s="4">
         <v>5</v>
       </c>
-      <c r="N47" s="4">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3">
-        <v>2</v>
+      <c r="O47" s="4">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>2</v>
@@ -3492,26 +3615,29 @@
       <c r="Z47" s="3">
         <v>2</v>
       </c>
-      <c r="AA47" s="3"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="3"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48" s="4">
         <v>13</v>
       </c>
       <c r="D48" s="4">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4">
         <v>10</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>7</v>
-      </c>
-      <c r="F48" s="4">
-        <v>5</v>
       </c>
       <c r="G48" s="4">
         <v>5</v>
@@ -3520,14 +3646,16 @@
         <v>5</v>
       </c>
       <c r="I48" s="4">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="J48" s="4">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="3"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="3"/>
+      <c r="O48" s="4"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -3540,53 +3668,54 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C49" s="4">
         <v>35</v>
       </c>
       <c r="D49" s="4">
+        <v>35</v>
+      </c>
+      <c r="E49" s="4">
         <v>21</v>
-      </c>
-      <c r="E49" s="4">
-        <v>19</v>
       </c>
       <c r="F49" s="4">
         <v>19</v>
       </c>
       <c r="G49" s="4">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4">
         <v>13</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>12</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>7</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>6</v>
       </c>
-      <c r="N49" s="4">
+      <c r="O49" s="4">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>4</v>
-      </c>
       <c r="P49" s="3">
         <v>4</v>
       </c>
@@ -3600,36 +3729,39 @@
         <v>4</v>
       </c>
       <c r="T49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>1</v>
       </c>
-      <c r="V49" s="3"/>
+      <c r="V49" s="3">
+        <v>1</v>
+      </c>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C50" s="4">
         <v>13</v>
       </c>
       <c r="D50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E50" s="4">
         <v>5</v>
       </c>
       <c r="F50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" s="4">
         <v>4</v>
@@ -3638,16 +3770,18 @@
         <v>4</v>
       </c>
       <c r="I50" s="4">
-        <v>3</v>
-      </c>
-      <c r="J50" s="3">
-        <v>1</v>
-      </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="J50" s="4">
+        <v>3</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="M50" s="3"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="3"/>
+      <c r="O50" s="4"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
@@ -3660,8 +3794,9 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -3672,39 +3807,39 @@
         <v>70</v>
       </c>
       <c r="D51" s="4">
+        <v>70</v>
+      </c>
+      <c r="E51" s="4">
         <v>60</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>51</v>
-      </c>
-      <c r="F51" s="4">
-        <v>33</v>
       </c>
       <c r="G51" s="4">
         <v>33</v>
       </c>
       <c r="H51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I51" s="4">
         <v>21</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="4">
         <v>21</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="3">
         <v>21</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="4">
+        <v>21</v>
+      </c>
+      <c r="M51" s="3">
         <v>19</v>
       </c>
-      <c r="M51" s="4">
+      <c r="N51" s="4">
         <v>15</v>
       </c>
-      <c r="N51" s="4">
-        <v>11</v>
-      </c>
-      <c r="O51" s="3">
+      <c r="O51" s="4">
         <v>11</v>
       </c>
       <c r="P51" s="3">
@@ -3717,132 +3852,139 @@
         <v>11</v>
       </c>
       <c r="S51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U51" s="3">
         <v>1</v>
       </c>
-      <c r="V51" s="3"/>
+      <c r="V51" s="3">
+        <v>1</v>
+      </c>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
-    </row>
-    <row r="52" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB51" s="3"/>
+    </row>
+    <row r="52" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>3818</v>
+        <v>4300</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>3665</v>
+        <v>3818</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
+        <v>3665</v>
+      </c>
+      <c r="E52" s="15">
+        <f>SUM(E8:E51)</f>
         <v>2748</v>
       </c>
-      <c r="E52" s="14">
-        <f>SUM(E8:E51)</f>
+      <c r="F52" s="14">
+        <f>SUM(F8:F51)</f>
         <v>2184</v>
       </c>
-      <c r="F52" s="5">
-        <f t="shared" ref="F52:AA52" si="0">SUM(F8:F51)</f>
+      <c r="G52" s="5">
+        <f t="shared" ref="G52:AB52" si="0">SUM(G8:G51)</f>
         <v>1641</v>
       </c>
-      <c r="G52" s="5">
+      <c r="H52" s="5">
         <f t="shared" si="0"/>
         <v>1105</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <f t="shared" si="0"/>
         <v>977</v>
       </c>
-      <c r="I52" s="5">
+      <c r="J52" s="5">
         <f t="shared" si="0"/>
         <v>827</v>
       </c>
-      <c r="J52" s="5">
+      <c r="K52" s="5">
         <f t="shared" si="0"/>
         <v>569</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="L52" s="5">
+      <c r="M52" s="5">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Z52" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="AA52" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AB52" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>49</v>
       </c>
@@ -3858,16 +4000,17 @@
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8YSDm3jyNMu4u++6t2Q/u9yyoRRuB8ARaIAqHsldrj/spS9788U8kI/IcasV2LNfjZk9Id7puhwA4mDLiePjbg==" saltValue="PReReNFSVYaixOsN6LnuiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HsuC3kBsAWuZspULUukzdPajwPHeM1JAI5G0icG1XNza3X1uRpc4nGeHrqw4rVeaxfYqSZhJC8VYYbJLJuLsYg==" saltValue="RjUc+2Q0JZWlG++a/tlZcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A54:N54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E52:AA52" formulaRange="1"/>
+    <ignoredError sqref="E52:AB52 B52:C52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Fälle</t>
   </si>
@@ -602,37 +602,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AB54"/>
+  <dimension ref="A2:AC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="2" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -717,145 +717,151 @@
       <c r="AB6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43913</v>
+      </c>
+      <c r="C7" s="13">
         <v>43912</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43911</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43910</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43909</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43908</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43907</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>43906</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>43905</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>43904</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="12">
         <v>43903</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>43902</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>43901</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43900</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43899</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43898</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43897</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43896</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43895</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43894</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43893</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43892</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43891</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43890</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43889</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43888</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43887</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4">
         <v>44</v>
-      </c>
-      <c r="C8" s="4">
-        <v>39</v>
       </c>
       <c r="D8" s="4">
         <v>39</v>
       </c>
       <c r="E8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4">
         <v>26</v>
       </c>
       <c r="G8" s="4">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4">
         <v>24</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>13</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>12</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>7</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>6</v>
       </c>
-      <c r="M8" s="3">
-        <v>4</v>
-      </c>
-      <c r="N8" s="4">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>4</v>
       </c>
       <c r="O8" s="4">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="4">
         <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>3</v>
       </c>
       <c r="R8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>2</v>
@@ -863,7 +869,9 @@
       <c r="T8" s="3">
         <v>2</v>
       </c>
-      <c r="U8" s="3"/>
+      <c r="U8" s="3">
+        <v>2</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -871,60 +879,63 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4">
         <v>25</v>
-      </c>
-      <c r="C9" s="4">
-        <v>21</v>
       </c>
       <c r="D9" s="4">
         <v>21</v>
       </c>
       <c r="E9" s="4">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4">
         <v>17</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>14</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>12</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>7</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="4">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
-      <c r="L9" s="4">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
+      <c r="K9" s="4">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
       </c>
       <c r="O9" s="4">
         <v>1</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="4">
         <v>1</v>
       </c>
       <c r="Q9" s="3">
         <v>1</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -935,13 +946,14 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4">
         <v>45</v>
@@ -953,13 +965,13 @@
         <v>45</v>
       </c>
       <c r="F10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G10" s="4">
         <v>17</v>
       </c>
       <c r="H10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I10" s="4">
         <v>5</v>
@@ -967,31 +979,33 @@
       <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <v>5</v>
       </c>
-      <c r="L10" s="4">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="L10" s="3">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>3</v>
       </c>
       <c r="O10" s="4">
         <v>3</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="4">
         <v>3</v>
       </c>
       <c r="Q10" s="3">
         <v>3</v>
       </c>
       <c r="R10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1001,22 +1015,23 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>187</v>
+      </c>
+      <c r="C11" s="4">
         <v>117</v>
-      </c>
-      <c r="C11" s="4">
-        <v>67</v>
       </c>
       <c r="D11" s="4">
         <v>67</v>
       </c>
       <c r="E11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F11" s="4">
         <v>28</v>
@@ -1025,7 +1040,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I11" s="4">
         <v>9</v>
@@ -1033,22 +1048,22 @@
       <c r="J11" s="4">
         <v>9</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <v>9</v>
       </c>
-      <c r="L11" s="4">
-        <v>4</v>
-      </c>
-      <c r="M11" s="3">
-        <v>4</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="L11" s="3">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4">
+        <v>4</v>
+      </c>
+      <c r="N11" s="3">
         <v>4</v>
       </c>
       <c r="O11" s="4">
-        <v>3</v>
-      </c>
-      <c r="P11" s="3">
+        <v>4</v>
+      </c>
+      <c r="P11" s="4">
         <v>3</v>
       </c>
       <c r="Q11" s="3">
@@ -1058,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="S11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T11" s="3">
         <v>1</v>
@@ -1081,10 +1096,13 @@
       <c r="Z11" s="3">
         <v>1</v>
       </c>
-      <c r="AA11" s="3"/>
+      <c r="AA11" s="3">
+        <v>1</v>
+      </c>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -1092,45 +1110,45 @@
         <v>83</v>
       </c>
       <c r="C12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D12" s="4">
         <v>71</v>
       </c>
       <c r="E12" s="4">
+        <v>71</v>
+      </c>
+      <c r="F12" s="4">
         <v>62</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>39</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>31</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>29</v>
-      </c>
-      <c r="I12" s="4">
-        <v>13</v>
       </c>
       <c r="J12" s="4">
         <v>13</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
+        <v>13</v>
+      </c>
+      <c r="L12" s="3">
         <v>8</v>
       </c>
-      <c r="L12" s="4">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="4">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>6</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>5</v>
       </c>
-      <c r="O12" s="4">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <v>4</v>
       </c>
       <c r="Q12" s="3">
@@ -1140,12 +1158,14 @@
         <v>4</v>
       </c>
       <c r="S12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T12" s="3">
-        <v>1</v>
-      </c>
-      <c r="U12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -1153,61 +1173,62 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>178</v>
+      </c>
+      <c r="C13" s="4">
         <v>167</v>
-      </c>
-      <c r="C13" s="4">
-        <v>134</v>
       </c>
       <c r="D13" s="4">
         <v>134</v>
       </c>
       <c r="E13" s="4">
+        <v>134</v>
+      </c>
+      <c r="F13" s="4">
         <v>101</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>78</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>54</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>45</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>42</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>26</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>19</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>18</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>12</v>
-      </c>
-      <c r="N13" s="4">
-        <v>6</v>
       </c>
       <c r="O13" s="4">
         <v>6</v>
       </c>
-      <c r="P13" s="3">
-        <v>5</v>
+      <c r="P13" s="4">
+        <v>6</v>
       </c>
       <c r="Q13" s="3">
         <v>5</v>
       </c>
       <c r="R13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" s="3">
         <v>4</v>
@@ -1216,13 +1237,13 @@
         <v>4</v>
       </c>
       <c r="U13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" s="3">
         <v>1</v>
       </c>
       <c r="W13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X13" s="3">
         <v>3</v>
@@ -1233,57 +1254,60 @@
       <c r="Z13" s="3">
         <v>3</v>
       </c>
-      <c r="AA13" s="3"/>
+      <c r="AA13" s="3">
+        <v>3</v>
+      </c>
       <c r="AB13" s="3"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>150</v>
+      </c>
+      <c r="C14" s="4">
         <v>120</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>108</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>92</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>76</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>61</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>51</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>43</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>34</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>26</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>12</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>6</v>
       </c>
-      <c r="O14" s="4">
-        <v>2</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1</v>
+      <c r="P14" s="4">
+        <v>2</v>
       </c>
       <c r="Q14" s="3">
         <v>1</v>
@@ -1291,7 +1315,9 @@
       <c r="R14" s="3">
         <v>1</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1301,130 +1327,136 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>123</v>
+      </c>
+      <c r="C15" s="11">
         <v>121</v>
-      </c>
-      <c r="C15" s="11">
-        <v>110</v>
       </c>
       <c r="D15" s="11">
         <v>110</v>
       </c>
       <c r="E15" s="11">
+        <v>110</v>
+      </c>
+      <c r="F15" s="11">
         <v>99</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>60</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>59</v>
-      </c>
-      <c r="H15" s="11">
-        <v>35</v>
       </c>
       <c r="I15" s="11">
         <v>35</v>
       </c>
       <c r="J15" s="11">
+        <v>35</v>
+      </c>
+      <c r="K15" s="11">
         <v>21</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>16</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>15</v>
-      </c>
-      <c r="N15" s="11">
-        <v>13</v>
       </c>
       <c r="O15" s="11">
         <v>13</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="3">
         <v>12</v>
       </c>
-      <c r="Q15" s="3">
-        <v>3</v>
-      </c>
       <c r="R15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="3">
-        <v>1</v>
-      </c>
+      <c r="U15" s="3"/>
       <c r="V15" s="3">
         <v>1</v>
       </c>
-      <c r="W15" s="3"/>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <v>33</v>
       </c>
       <c r="D16" s="4">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4">
         <v>24</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>21</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>12</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>9</v>
       </c>
-      <c r="H16" s="4">
-        <v>4</v>
-      </c>
       <c r="I16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="4">
         <v>3</v>
       </c>
-      <c r="K16" s="3">
-        <v>3</v>
-      </c>
-      <c r="L16" s="4">
-        <v>3</v>
-      </c>
-      <c r="M16" s="3">
-        <v>2</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3</v>
+      </c>
+      <c r="M16" s="4">
+        <v>3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
       </c>
       <c r="O16" s="4">
         <v>1</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="4">
         <v>1</v>
       </c>
       <c r="Q16" s="3">
         <v>1</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -1435,127 +1467,131 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>435</v>
+      </c>
+      <c r="C17" s="4">
         <v>362</v>
-      </c>
-      <c r="C17" s="4">
-        <v>323</v>
       </c>
       <c r="D17" s="4">
         <v>323</v>
       </c>
       <c r="E17" s="4">
+        <v>323</v>
+      </c>
+      <c r="F17" s="4">
         <v>234</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>193</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>128</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>123</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>111</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>82</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>47</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>23</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>18</v>
-      </c>
-      <c r="P17" s="3">
-        <v>16</v>
       </c>
       <c r="Q17" s="3">
         <v>16</v>
       </c>
       <c r="R17" s="3">
+        <v>16</v>
+      </c>
+      <c r="S17" s="3">
         <v>14</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13</v>
-      </c>
-      <c r="T17" s="3">
-        <v>5</v>
       </c>
       <c r="U17" s="3">
         <v>5</v>
       </c>
-      <c r="V17" s="3"/>
+      <c r="V17" s="3">
+        <v>5</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4">
+        <v>212</v>
+      </c>
+      <c r="C18" s="4">
         <v>191</v>
-      </c>
-      <c r="C18" s="4">
-        <v>150</v>
       </c>
       <c r="D18" s="4">
         <v>150</v>
       </c>
       <c r="E18" s="4">
+        <v>150</v>
+      </c>
+      <c r="F18" s="4">
         <v>114</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>79</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>62</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>53</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>43</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>34</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>18</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13</v>
-      </c>
-      <c r="N18" s="4">
-        <v>12</v>
       </c>
       <c r="O18" s="4">
         <v>12</v>
       </c>
-      <c r="P18" s="3">
-        <v>8</v>
+      <c r="P18" s="4">
+        <v>12</v>
       </c>
       <c r="Q18" s="3">
         <v>8</v>
@@ -1564,36 +1600,39 @@
         <v>8</v>
       </c>
       <c r="S18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T18" s="3">
         <v>6</v>
       </c>
       <c r="U18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V18" s="3">
         <v>4</v>
       </c>
       <c r="W18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4">
         <v>14</v>
@@ -1608,31 +1647,33 @@
         <v>14</v>
       </c>
       <c r="G19" s="4">
+        <v>14</v>
+      </c>
+      <c r="H19" s="4">
         <v>10</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>8</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>7</v>
       </c>
-      <c r="J19" s="4">
-        <v>3</v>
-      </c>
-      <c r="K19" s="3">
-        <v>2</v>
-      </c>
-      <c r="L19" s="4">
-        <v>2</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="3"/>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -1645,13 +1686,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4">
         <v>97</v>
@@ -1660,46 +1702,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="4">
+        <v>97</v>
+      </c>
+      <c r="F20" s="4">
         <v>60</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>59</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>39</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>29</v>
-      </c>
-      <c r="I20" s="4">
-        <v>16</v>
       </c>
       <c r="J20" s="4">
         <v>16</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
+        <v>16</v>
+      </c>
+      <c r="L20" s="3">
         <v>14</v>
       </c>
-      <c r="L20" s="4">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4">
-        <v>4</v>
+      <c r="M20" s="4">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
       </c>
       <c r="O20" s="4">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+        <v>4</v>
+      </c>
+      <c r="P20" s="4">
         <v>3</v>
       </c>
       <c r="Q20" s="3">
         <v>3</v>
       </c>
       <c r="R20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S20" s="3">
         <v>2</v>
@@ -1723,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="Z20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="3">
         <v>1</v>
@@ -1731,19 +1773,22 @@
       <c r="AB20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="4">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C21" s="4">
         <v>5</v>
       </c>
       <c r="D21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="4">
         <v>3</v>
@@ -1752,40 +1797,40 @@
         <v>3</v>
       </c>
       <c r="G21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="4">
         <v>2</v>
       </c>
       <c r="I21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="4">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
-        <v>2</v>
-      </c>
-      <c r="L21" s="4">
-        <v>2</v>
-      </c>
-      <c r="M21" s="3">
-        <v>2</v>
-      </c>
-      <c r="N21" s="4">
-        <v>5</v>
+      <c r="K21" s="4">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="4">
+        <v>2</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2</v>
       </c>
       <c r="O21" s="4">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="4">
         <v>5</v>
       </c>
       <c r="Q21" s="3">
         <v>5</v>
       </c>
       <c r="R21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S21" s="3">
         <v>2</v>
@@ -1793,7 +1838,9 @@
       <c r="T21" s="3">
         <v>2</v>
       </c>
-      <c r="U21" s="3"/>
+      <c r="U21" s="3">
+        <v>2</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -1801,61 +1848,62 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4">
         <v>57</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>47</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>39</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>34</v>
-      </c>
-      <c r="F22" s="4">
-        <v>17</v>
       </c>
       <c r="G22" s="4">
         <v>17</v>
       </c>
       <c r="H22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I22" s="4">
         <v>21</v>
       </c>
       <c r="J22" s="4">
+        <v>21</v>
+      </c>
+      <c r="K22" s="4">
         <v>19</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>4</v>
-      </c>
-      <c r="N22" s="4">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>4</v>
       </c>
       <c r="O22" s="4">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="4">
         <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>3</v>
       </c>
       <c r="R22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>1</v>
@@ -1863,7 +1911,9 @@
       <c r="T22" s="3">
         <v>1</v>
       </c>
-      <c r="U22" s="3"/>
+      <c r="U22" s="3">
+        <v>1</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -1871,76 +1921,77 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>197</v>
+      </c>
+      <c r="C23" s="11">
         <v>165</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>140</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>118</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>110</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>71</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>57</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>50</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>47</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>37</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>32</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30</v>
-      </c>
-      <c r="N23" s="11">
-        <v>26</v>
       </c>
       <c r="O23" s="11">
         <v>26</v>
       </c>
-      <c r="P23" s="3">
-        <v>20</v>
+      <c r="P23" s="11">
+        <v>26</v>
       </c>
       <c r="Q23" s="3">
         <v>20</v>
       </c>
       <c r="R23" s="3">
+        <v>20</v>
+      </c>
+      <c r="S23" s="3">
         <v>14</v>
-      </c>
-      <c r="S23" s="3">
-        <v>10</v>
       </c>
       <c r="T23" s="3">
         <v>10</v>
       </c>
       <c r="U23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V23" s="3">
         <v>8</v>
       </c>
       <c r="W23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X23" s="3">
         <v>1</v>
@@ -1948,55 +1999,58 @@
       <c r="Y23" s="3">
         <v>1</v>
       </c>
-      <c r="Z23" s="3"/>
+      <c r="Z23" s="3">
+        <v>1</v>
+      </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="11">
+        <v>55</v>
+      </c>
+      <c r="C24" s="11">
         <v>28</v>
-      </c>
-      <c r="C24" s="11">
-        <v>20</v>
       </c>
       <c r="D24" s="11">
         <v>20</v>
       </c>
       <c r="E24" s="11">
+        <v>20</v>
+      </c>
+      <c r="F24" s="11">
         <v>19</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>13</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>9</v>
       </c>
-      <c r="H24" s="11">
-        <v>4</v>
-      </c>
       <c r="I24" s="11">
         <v>4</v>
       </c>
       <c r="J24" s="11">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="11">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="11">
-        <v>3</v>
-      </c>
+      <c r="K24" s="11">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="11">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3"/>
       <c r="O24" s="11">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="11">
         <v>3</v>
       </c>
       <c r="Q24" s="3">
@@ -2006,46 +2060,49 @@
         <v>3</v>
       </c>
       <c r="S24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>2</v>
       </c>
-      <c r="U24" s="3"/>
+      <c r="U24" s="3">
+        <v>2</v>
+      </c>
       <c r="V24" s="3"/>
-      <c r="W24" s="3">
-        <v>1</v>
-      </c>
-      <c r="X24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C25" s="4">
         <v>222</v>
       </c>
       <c r="D25" s="4">
+        <v>222</v>
+      </c>
+      <c r="E25" s="4">
         <v>182</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>154</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>135</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>64</v>
-      </c>
-      <c r="H25" s="4">
-        <v>29</v>
       </c>
       <c r="I25" s="4">
         <v>29</v>
@@ -2053,23 +2110,23 @@
       <c r="J25" s="4">
         <v>29</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
+        <v>29</v>
+      </c>
+      <c r="L25" s="3">
         <v>8</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>8</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>6</v>
       </c>
-      <c r="N25" s="4">
-        <v>2</v>
-      </c>
       <c r="O25" s="4">
         <v>2</v>
       </c>
-      <c r="P25" s="3">
-        <v>1</v>
+      <c r="P25" s="4">
+        <v>2</v>
       </c>
       <c r="Q25" s="3">
         <v>1</v>
@@ -2080,7 +2137,9 @@
       <c r="S25" s="3">
         <v>1</v>
       </c>
-      <c r="T25" s="3"/>
+      <c r="T25" s="3">
+        <v>1</v>
+      </c>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -2089,67 +2148,68 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
+        <v>154</v>
+      </c>
+      <c r="C26" s="11">
         <v>104</v>
-      </c>
-      <c r="C26" s="11">
-        <v>96</v>
       </c>
       <c r="D26" s="11">
         <v>96</v>
       </c>
       <c r="E26" s="11">
+        <v>96</v>
+      </c>
+      <c r="F26" s="11">
         <v>75</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>63</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>47</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>24</v>
-      </c>
-      <c r="I26" s="11">
-        <v>29</v>
       </c>
       <c r="J26" s="11">
         <v>29</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="11">
+        <v>29</v>
+      </c>
+      <c r="L26" s="3">
         <v>16</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>16</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12</v>
       </c>
-      <c r="N26" s="11">
+      <c r="O26" s="11">
         <v>9</v>
       </c>
-      <c r="O26" s="11">
-        <v>7</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="11">
         <v>7</v>
       </c>
       <c r="Q26" s="3">
         <v>7</v>
       </c>
       <c r="R26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26" s="3">
         <v>1</v>
@@ -2166,16 +2226,19 @@
       <c r="Y26" s="3">
         <v>1</v>
       </c>
-      <c r="Z26" s="3"/>
+      <c r="Z26" s="3">
+        <v>1</v>
+      </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="11">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C27" s="11">
         <v>42</v>
@@ -2184,16 +2247,16 @@
         <v>42</v>
       </c>
       <c r="E27" s="11">
+        <v>42</v>
+      </c>
+      <c r="F27" s="11">
         <v>34</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>29</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11">
         <v>26</v>
-      </c>
-      <c r="H27" s="11">
-        <v>14</v>
       </c>
       <c r="I27" s="11">
         <v>14</v>
@@ -2201,20 +2264,22 @@
       <c r="J27" s="11">
         <v>14</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="11">
+        <v>14</v>
+      </c>
+      <c r="L27" s="3">
         <v>8</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="11">
         <v>8</v>
       </c>
-      <c r="M27" s="3">
-        <v>3</v>
-      </c>
-      <c r="N27" s="11">
-        <v>2</v>
-      </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="3"/>
+      <c r="N27" s="3">
+        <v>3</v>
+      </c>
+      <c r="O27" s="11">
+        <v>2</v>
+      </c>
+      <c r="P27" s="11"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -2227,13 +2292,14 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4">
         <v>52</v>
@@ -2242,16 +2308,16 @@
         <v>52</v>
       </c>
       <c r="E28" s="4">
+        <v>52</v>
+      </c>
+      <c r="F28" s="4">
         <v>43</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>34</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>28</v>
-      </c>
-      <c r="H28" s="4">
-        <v>20</v>
       </c>
       <c r="I28" s="4">
         <v>20</v>
@@ -2259,28 +2325,30 @@
       <c r="J28" s="4">
         <v>20</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="4">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3">
         <v>7</v>
       </c>
-      <c r="L28" s="4">
-        <v>2</v>
-      </c>
-      <c r="M28" s="3">
-        <v>2</v>
-      </c>
-      <c r="N28" s="4">
-        <v>1</v>
+      <c r="M28" s="4">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
       </c>
       <c r="O28" s="4">
         <v>1</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="4">
         <v>1</v>
       </c>
       <c r="Q28" s="3">
         <v>1</v>
       </c>
-      <c r="R28" s="3"/>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -2291,8 +2359,9 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -2306,16 +2375,16 @@
         <v>57</v>
       </c>
       <c r="E29" s="4">
+        <v>57</v>
+      </c>
+      <c r="F29" s="4">
         <v>41</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>25</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>16</v>
-      </c>
-      <c r="H29" s="4">
-        <v>10</v>
       </c>
       <c r="I29" s="4">
         <v>10</v>
@@ -2323,20 +2392,20 @@
       <c r="J29" s="4">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="4">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>6</v>
       </c>
-      <c r="L29" s="4">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
+      <c r="M29" s="4">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3"/>
       <c r="O29" s="4">
         <v>1</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="4">
         <v>1</v>
       </c>
       <c r="Q29" s="3">
@@ -2354,38 +2423,41 @@
       <c r="U29" s="3">
         <v>1</v>
       </c>
-      <c r="V29" s="3"/>
+      <c r="V29" s="3">
+        <v>1</v>
+      </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>250</v>
+      </c>
+      <c r="C30" s="4">
         <v>236</v>
-      </c>
-      <c r="C30" s="4">
-        <v>175</v>
       </c>
       <c r="D30" s="4">
         <v>175</v>
       </c>
       <c r="E30" s="4">
+        <v>175</v>
+      </c>
+      <c r="F30" s="4">
         <v>126</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>112</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>87</v>
-      </c>
-      <c r="H30" s="4">
-        <v>38</v>
       </c>
       <c r="I30" s="4">
         <v>38</v>
@@ -2393,41 +2465,41 @@
       <c r="J30" s="4">
         <v>38</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
+        <v>38</v>
+      </c>
+      <c r="L30" s="3">
         <v>24</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>18</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>11</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>11</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>8</v>
-      </c>
-      <c r="P30" s="3">
-        <v>7</v>
       </c>
       <c r="Q30" s="3">
         <v>7</v>
       </c>
       <c r="R30" s="3">
+        <v>7</v>
+      </c>
+      <c r="S30" s="3">
         <v>5</v>
       </c>
-      <c r="S30" s="3">
-        <v>3</v>
-      </c>
       <c r="T30" s="3">
         <v>3</v>
       </c>
       <c r="U30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W30" s="3">
         <v>1</v>
@@ -2438,16 +2510,19 @@
       <c r="Y30" s="3">
         <v>1</v>
       </c>
-      <c r="Z30" s="3"/>
+      <c r="Z30" s="3">
+        <v>1</v>
+      </c>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C31" s="4">
         <v>36</v>
@@ -2456,10 +2531,10 @@
         <v>36</v>
       </c>
       <c r="E31" s="4">
+        <v>36</v>
+      </c>
+      <c r="F31" s="4">
         <v>33</v>
-      </c>
-      <c r="F31" s="4">
-        <v>31</v>
       </c>
       <c r="G31" s="4">
         <v>31</v>
@@ -2471,39 +2546,41 @@
         <v>31</v>
       </c>
       <c r="J31" s="4">
+        <v>31</v>
+      </c>
+      <c r="K31" s="4">
         <v>30</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>28</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>24</v>
       </c>
-      <c r="M31" s="3">
-        <v>24</v>
-      </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>24</v>
       </c>
       <c r="O31" s="4">
         <v>24</v>
       </c>
-      <c r="P31" s="3">
-        <v>23</v>
+      <c r="P31" s="4">
+        <v>24</v>
       </c>
       <c r="Q31" s="3">
         <v>23</v>
       </c>
       <c r="R31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="S31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" s="3">
         <v>1</v>
       </c>
-      <c r="U31" s="3"/>
+      <c r="U31" s="3">
+        <v>1</v>
+      </c>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -2511,8 +2588,9 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -2526,13 +2604,13 @@
         <v>80</v>
       </c>
       <c r="E32" s="4">
+        <v>80</v>
+      </c>
+      <c r="F32" s="4">
         <v>73</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>71</v>
-      </c>
-      <c r="G32" s="4">
-        <v>27</v>
       </c>
       <c r="H32" s="4">
         <v>27</v>
@@ -2543,38 +2621,38 @@
       <c r="J32" s="4">
         <v>27</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
+        <v>27</v>
+      </c>
+      <c r="L32" s="3">
         <v>22</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>12</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12</v>
-      </c>
-      <c r="N32" s="4">
-        <v>9</v>
       </c>
       <c r="O32" s="4">
         <v>9</v>
       </c>
-      <c r="P32" s="3">
-        <v>7</v>
+      <c r="P32" s="4">
+        <v>9</v>
       </c>
       <c r="Q32" s="3">
         <v>7</v>
       </c>
       <c r="R32" s="3">
+        <v>7</v>
+      </c>
+      <c r="S32" s="3">
         <v>5</v>
       </c>
-      <c r="S32" s="3">
-        <v>4</v>
-      </c>
       <c r="T32" s="3">
         <v>4</v>
       </c>
       <c r="U32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V32" s="3">
         <v>3</v>
@@ -2582,59 +2660,62 @@
       <c r="W32" s="3">
         <v>3</v>
       </c>
-      <c r="X32" s="3"/>
+      <c r="X32" s="3">
+        <v>3</v>
+      </c>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4">
         <v>30</v>
-      </c>
-      <c r="C33" s="4">
-        <v>26</v>
       </c>
       <c r="D33" s="4">
         <v>26</v>
       </c>
       <c r="E33" s="4">
+        <v>26</v>
+      </c>
+      <c r="F33" s="4">
         <v>20</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>17</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>14</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>7</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>10</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>6</v>
       </c>
-      <c r="K33" s="3">
-        <v>4</v>
-      </c>
-      <c r="L33" s="4">
-        <v>2</v>
-      </c>
-      <c r="M33" s="3">
-        <v>2</v>
-      </c>
-      <c r="N33" s="4">
-        <v>1</v>
+      <c r="L33" s="3">
+        <v>4</v>
+      </c>
+      <c r="M33" s="4">
+        <v>2</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2</v>
       </c>
       <c r="O33" s="4">
         <v>1</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="4">
         <v>1</v>
       </c>
       <c r="Q33" s="3">
@@ -2643,7 +2724,9 @@
       <c r="R33" s="3">
         <v>1</v>
       </c>
-      <c r="S33" s="3"/>
+      <c r="S33" s="3">
+        <v>1</v>
+      </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
@@ -2653,63 +2736,66 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="4">
+        <v>104</v>
+      </c>
+      <c r="C34" s="4">
         <v>82</v>
-      </c>
-      <c r="C34" s="4">
-        <v>71</v>
       </c>
       <c r="D34" s="4">
         <v>71</v>
       </c>
       <c r="E34" s="4">
+        <v>71</v>
+      </c>
+      <c r="F34" s="4">
         <v>55</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>45</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>38</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>28</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>25</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>22</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>16</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>13</v>
       </c>
-      <c r="M34" s="3">
+      <c r="N34" s="3">
         <v>13</v>
-      </c>
-      <c r="N34" s="4">
-        <v>12</v>
       </c>
       <c r="O34" s="4">
         <v>12</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="3">
         <v>7</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="R34" s="3">
         <v>6</v>
       </c>
-      <c r="R34" s="3">
-        <v>2</v>
-      </c>
-      <c r="S34" s="3"/>
+      <c r="S34" s="3">
+        <v>2</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -2719,55 +2805,56 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>121</v>
+      </c>
+      <c r="C35" s="4">
         <v>113</v>
-      </c>
-      <c r="C35" s="4">
-        <v>91</v>
       </c>
       <c r="D35" s="4">
         <v>91</v>
       </c>
       <c r="E35" s="4">
+        <v>91</v>
+      </c>
+      <c r="F35" s="4">
         <v>85</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>46</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>41</v>
-      </c>
-      <c r="H35" s="4">
-        <v>31</v>
       </c>
       <c r="I35" s="4">
         <v>31</v>
       </c>
       <c r="J35" s="4">
+        <v>31</v>
+      </c>
+      <c r="K35" s="4">
         <v>20</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>7</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5</v>
       </c>
-      <c r="N35" s="4">
-        <v>4</v>
-      </c>
       <c r="O35" s="4">
         <v>4</v>
       </c>
-      <c r="P35" s="3">
-        <v>3</v>
+      <c r="P35" s="4">
+        <v>4</v>
       </c>
       <c r="Q35" s="3">
         <v>3</v>
@@ -2782,59 +2869,64 @@
         <v>3</v>
       </c>
       <c r="U35" s="3">
-        <v>1</v>
-      </c>
-      <c r="V35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="V35" s="3">
+        <v>1</v>
+      </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" s="4">
         <v>16</v>
       </c>
       <c r="D36" s="4">
+        <v>16</v>
+      </c>
+      <c r="E36" s="4">
         <v>14</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>11</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>7</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>6</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>5</v>
       </c>
-      <c r="I36" s="4">
-        <v>4</v>
-      </c>
       <c r="J36" s="4">
         <v>4</v>
       </c>
-      <c r="K36" s="3">
-        <v>4</v>
-      </c>
-      <c r="L36" s="4">
-        <v>4</v>
-      </c>
-      <c r="M36" s="3">
-        <v>3</v>
-      </c>
-      <c r="N36" s="4"/>
+      <c r="K36" s="4">
+        <v>4</v>
+      </c>
+      <c r="L36" s="3">
+        <v>4</v>
+      </c>
+      <c r="M36" s="4">
+        <v>4</v>
+      </c>
+      <c r="N36" s="3">
+        <v>3</v>
+      </c>
       <c r="O36" s="4"/>
-      <c r="P36" s="3"/>
+      <c r="P36" s="4"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -2847,60 +2939,63 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC36" s="3"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>146</v>
+      </c>
+      <c r="C37" s="4">
         <v>100</v>
-      </c>
-      <c r="C37" s="4">
-        <v>81</v>
       </c>
       <c r="D37" s="4">
         <v>81</v>
       </c>
       <c r="E37" s="4">
+        <v>81</v>
+      </c>
+      <c r="F37" s="4">
         <v>64</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>53</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>37</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>34</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>26</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>19</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <v>12</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>11</v>
       </c>
-      <c r="M37" s="3">
-        <v>3</v>
-      </c>
-      <c r="N37" s="4">
-        <v>4</v>
+      <c r="N37" s="3">
+        <v>3</v>
       </c>
       <c r="O37" s="4">
-        <v>3</v>
-      </c>
-      <c r="P37" s="3">
+        <v>4</v>
+      </c>
+      <c r="P37" s="4">
         <v>3</v>
       </c>
       <c r="Q37" s="3">
-        <v>2</v>
-      </c>
-      <c r="R37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="R37" s="3">
+        <v>2</v>
+      </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -2911,13 +3006,14 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC37" s="3"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C38" s="4">
         <v>110</v>
@@ -2926,51 +3022,53 @@
         <v>110</v>
       </c>
       <c r="E38" s="4">
+        <v>110</v>
+      </c>
+      <c r="F38" s="4">
         <v>88</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>55</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>13</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>12</v>
-      </c>
-      <c r="I38" s="4">
-        <v>8</v>
       </c>
       <c r="J38" s="4">
         <v>8</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="4">
         <v>8</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="3">
+        <v>8</v>
+      </c>
+      <c r="M38" s="4">
         <v>5</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N38" s="3">
         <v>5</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>6</v>
       </c>
-      <c r="O38" s="4">
-        <v>3</v>
-      </c>
-      <c r="P38" s="3">
+      <c r="P38" s="4">
         <v>3</v>
       </c>
       <c r="Q38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R38" s="3">
         <v>2</v>
       </c>
       <c r="S38" s="3">
-        <v>1</v>
-      </c>
-      <c r="T38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="T38" s="3">
+        <v>1</v>
+      </c>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -2979,8 +3077,9 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="3"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -2994,16 +3093,16 @@
         <v>117</v>
       </c>
       <c r="E39" s="4">
+        <v>117</v>
+      </c>
+      <c r="F39" s="4">
         <v>79</v>
-      </c>
-      <c r="F39" s="4">
-        <v>49</v>
       </c>
       <c r="G39" s="4">
         <v>49</v>
       </c>
       <c r="H39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I39" s="4">
         <v>23</v>
@@ -3011,92 +3110,97 @@
       <c r="J39" s="4">
         <v>23</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="4">
         <v>23</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="3">
+        <v>23</v>
+      </c>
+      <c r="M39" s="4">
         <v>10</v>
       </c>
-      <c r="M39" s="3">
+      <c r="N39" s="3">
         <v>5</v>
       </c>
-      <c r="N39" s="4">
+      <c r="O39" s="4">
         <v>6</v>
       </c>
-      <c r="O39" s="4">
+      <c r="P39" s="4">
         <v>5</v>
       </c>
-      <c r="P39" s="3">
+      <c r="Q39" s="3">
         <v>5</v>
       </c>
-      <c r="Q39" s="3">
-        <v>4</v>
-      </c>
       <c r="R39" s="3">
         <v>4</v>
       </c>
       <c r="S39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T39" s="3">
         <v>2</v>
       </c>
       <c r="U39" s="3">
-        <v>1</v>
-      </c>
-      <c r="V39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="V39" s="3">
+        <v>1</v>
+      </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C40" s="4">
         <v>95</v>
       </c>
       <c r="D40" s="4">
+        <v>95</v>
+      </c>
+      <c r="E40" s="4">
         <v>94</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>43</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>33</v>
-      </c>
-      <c r="G40" s="4">
-        <v>31</v>
       </c>
       <c r="H40" s="4">
         <v>31</v>
       </c>
       <c r="I40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J40" s="4">
         <v>19</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="4">
+        <v>19</v>
+      </c>
+      <c r="L40" s="3">
         <v>11</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>7</v>
       </c>
-      <c r="M40" s="3">
+      <c r="N40" s="3">
         <v>5</v>
       </c>
-      <c r="N40" s="4">
-        <v>1</v>
-      </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="3"/>
+      <c r="O40" s="4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -3109,31 +3213,32 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="C41" s="4">
         <v>240</v>
       </c>
       <c r="D41" s="4">
+        <v>240</v>
+      </c>
+      <c r="E41" s="4">
         <v>215</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>144</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>127</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>76</v>
-      </c>
-      <c r="H41" s="4">
-        <v>38</v>
       </c>
       <c r="I41" s="4">
         <v>38</v>
@@ -3141,38 +3246,38 @@
       <c r="J41" s="4">
         <v>38</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="4">
+        <v>38</v>
+      </c>
+      <c r="L41" s="3">
         <v>28</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>28</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>14</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>13</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7</v>
       </c>
-      <c r="R41" s="3">
-        <v>4</v>
-      </c>
       <c r="S41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" s="3">
         <v>1</v>
@@ -3186,11 +3291,14 @@
       <c r="Y41" s="3">
         <v>1</v>
       </c>
-      <c r="Z41" s="3"/>
+      <c r="Z41" s="3">
+        <v>1</v>
+      </c>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -3201,42 +3309,42 @@
         <v>8</v>
       </c>
       <c r="D42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4">
+        <v>3</v>
+      </c>
+      <c r="H42" s="4">
         <v>5</v>
       </c>
-      <c r="H42" s="4">
-        <v>4</v>
-      </c>
       <c r="I42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" s="4">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>2</v>
-      </c>
-      <c r="L42" s="4">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1</v>
-      </c>
-      <c r="N42" s="4">
+      <c r="K42" s="4">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3">
         <v>1</v>
       </c>
       <c r="O42" s="4">
         <v>1</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="4">
         <v>1</v>
       </c>
       <c r="Q42" s="3">
@@ -3272,32 +3380,35 @@
       <c r="AA42" s="3">
         <v>1</v>
       </c>
-      <c r="AB42" s="3"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="3"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>145</v>
+      </c>
+      <c r="C43" s="4">
         <v>111</v>
-      </c>
-      <c r="C43" s="4">
-        <v>98</v>
       </c>
       <c r="D43" s="4">
         <v>98</v>
       </c>
       <c r="E43" s="4">
+        <v>98</v>
+      </c>
+      <c r="F43" s="4">
         <v>61</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>47</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>34</v>
-      </c>
-      <c r="H43" s="4">
-        <v>21</v>
       </c>
       <c r="I43" s="4">
         <v>21</v>
@@ -3305,20 +3416,22 @@
       <c r="J43" s="4">
         <v>21</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="4">
+        <v>21</v>
+      </c>
+      <c r="L43" s="3">
         <v>17</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>15</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="4">
-        <v>1</v>
-      </c>
+      <c r="N43" s="3"/>
       <c r="O43" s="4">
         <v>1</v>
       </c>
-      <c r="P43" s="3"/>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -3331,31 +3444,32 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
+        <v>78</v>
+      </c>
+      <c r="C44" s="4">
         <v>69</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>48</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>39</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>28</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>27</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>16</v>
-      </c>
-      <c r="H44" s="4">
-        <v>6</v>
       </c>
       <c r="I44" s="4">
         <v>6</v>
@@ -3363,28 +3477,30 @@
       <c r="J44" s="4">
         <v>6</v>
       </c>
-      <c r="K44" s="3">
-        <v>3</v>
-      </c>
-      <c r="L44" s="4">
-        <v>2</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2</v>
-      </c>
-      <c r="N44" s="4">
-        <v>1</v>
+      <c r="K44" s="4">
+        <v>6</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3</v>
+      </c>
+      <c r="M44" s="4">
+        <v>2</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2</v>
       </c>
       <c r="O44" s="4">
         <v>1</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="4">
         <v>1</v>
       </c>
       <c r="Q44" s="3">
         <v>1</v>
       </c>
-      <c r="R44" s="3"/>
+      <c r="R44" s="3">
+        <v>1</v>
+      </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -3395,54 +3511,55 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>99</v>
+      </c>
+      <c r="C45" s="4">
         <v>83</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>82</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>67</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>41</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>28</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>22</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>16</v>
-      </c>
-      <c r="I45" s="4">
-        <v>12</v>
       </c>
       <c r="J45" s="4">
         <v>12</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="4">
+        <v>12</v>
+      </c>
+      <c r="L45" s="3">
         <v>6</v>
       </c>
-      <c r="L45" s="4">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3</v>
-      </c>
-      <c r="N45" s="4">
+      <c r="M45" s="4">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>3</v>
       </c>
       <c r="O45" s="4">
-        <v>1</v>
-      </c>
-      <c r="P45" s="3">
+        <v>3</v>
+      </c>
+      <c r="P45" s="4">
         <v>1</v>
       </c>
       <c r="Q45" s="3">
@@ -3457,7 +3574,9 @@
       <c r="T45" s="3">
         <v>1</v>
       </c>
-      <c r="U45" s="3"/>
+      <c r="U45" s="3">
+        <v>1</v>
+      </c>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
@@ -3465,22 +3584,23 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>441</v>
+      </c>
+      <c r="C46" s="4">
         <v>350</v>
-      </c>
-      <c r="C46" s="4">
-        <v>308</v>
       </c>
       <c r="D46" s="4">
         <v>308</v>
       </c>
       <c r="E46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="F46" s="4">
         <v>196</v>
@@ -3489,7 +3609,7 @@
         <v>196</v>
       </c>
       <c r="H46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="I46" s="4">
         <v>60</v>
@@ -3497,37 +3617,39 @@
       <c r="J46" s="4">
         <v>60</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="4">
+        <v>60</v>
+      </c>
+      <c r="L46" s="3">
         <v>40</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>35</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24</v>
       </c>
-      <c r="N46" s="4">
+      <c r="O46" s="4">
         <v>19</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <v>10</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8</v>
       </c>
-      <c r="R46" s="3">
-        <v>4</v>
-      </c>
       <c r="S46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T46" s="3">
-        <v>2</v>
-      </c>
-      <c r="U46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="U46" s="3">
+        <v>2</v>
+      </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -3535,55 +3657,56 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>144</v>
+      </c>
+      <c r="C47" s="4">
         <v>133</v>
-      </c>
-      <c r="C47" s="4">
-        <v>112</v>
       </c>
       <c r="D47" s="4">
         <v>112</v>
       </c>
       <c r="E47" s="4">
+        <v>112</v>
+      </c>
+      <c r="F47" s="4">
         <v>93</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>85</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>67</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>61</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>41</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>23</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>9</v>
       </c>
-      <c r="M47" s="3">
-        <v>3</v>
-      </c>
-      <c r="N47" s="4">
+      <c r="N47" s="3">
+        <v>3</v>
+      </c>
+      <c r="O47" s="4">
         <v>5</v>
       </c>
-      <c r="O47" s="4">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3">
-        <v>2</v>
+      <c r="P47" s="4">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>2</v>
@@ -3618,9 +3741,12 @@
       <c r="AA47" s="3">
         <v>2</v>
       </c>
-      <c r="AB47" s="3"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="3"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -3628,19 +3754,19 @@
         <v>15</v>
       </c>
       <c r="C48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" s="4">
         <v>13</v>
       </c>
       <c r="E48" s="4">
+        <v>13</v>
+      </c>
+      <c r="F48" s="4">
         <v>10</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>7</v>
-      </c>
-      <c r="G48" s="4">
-        <v>5</v>
       </c>
       <c r="H48" s="4">
         <v>5</v>
@@ -3649,14 +3775,16 @@
         <v>5</v>
       </c>
       <c r="J48" s="4">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="K48" s="4">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="3"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="3"/>
+      <c r="P48" s="4"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
@@ -3669,56 +3797,57 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="4">
+        <v>53</v>
+      </c>
+      <c r="C49" s="4">
         <v>40</v>
-      </c>
-      <c r="C49" s="4">
-        <v>35</v>
       </c>
       <c r="D49" s="4">
         <v>35</v>
       </c>
       <c r="E49" s="4">
+        <v>35</v>
+      </c>
+      <c r="F49" s="4">
         <v>21</v>
-      </c>
-      <c r="F49" s="4">
-        <v>19</v>
       </c>
       <c r="G49" s="4">
         <v>19</v>
       </c>
       <c r="H49" s="4">
+        <v>19</v>
+      </c>
+      <c r="I49" s="4">
         <v>13</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>12</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>7</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5</v>
       </c>
-      <c r="N49" s="4">
+      <c r="O49" s="4">
         <v>6</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
-        <v>4</v>
-      </c>
       <c r="Q49" s="3">
         <v>4</v>
       </c>
@@ -3732,39 +3861,42 @@
         <v>4</v>
       </c>
       <c r="U49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>1</v>
       </c>
-      <c r="W49" s="3"/>
+      <c r="W49" s="3">
+        <v>1</v>
+      </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>25</v>
+      </c>
+      <c r="C50" s="4">
         <v>15</v>
-      </c>
-      <c r="C50" s="4">
-        <v>13</v>
       </c>
       <c r="D50" s="4">
         <v>13</v>
       </c>
       <c r="E50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F50" s="4">
         <v>5</v>
       </c>
       <c r="G50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" s="4">
         <v>4</v>
@@ -3773,16 +3905,18 @@
         <v>4</v>
       </c>
       <c r="J50" s="4">
-        <v>3</v>
-      </c>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="K50" s="4">
+        <v>3</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="3"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="3"/>
+      <c r="P50" s="4"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -3795,13 +3929,14 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C51" s="4">
         <v>70</v>
@@ -3810,39 +3945,39 @@
         <v>70</v>
       </c>
       <c r="E51" s="4">
+        <v>70</v>
+      </c>
+      <c r="F51" s="4">
         <v>60</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>51</v>
-      </c>
-      <c r="G51" s="4">
-        <v>33</v>
       </c>
       <c r="H51" s="4">
         <v>33</v>
       </c>
       <c r="I51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J51" s="4">
         <v>21</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="4">
         <v>21</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="3">
         <v>21</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="4">
+        <v>21</v>
+      </c>
+      <c r="N51" s="3">
         <v>19</v>
       </c>
-      <c r="N51" s="4">
+      <c r="O51" s="4">
         <v>15</v>
       </c>
-      <c r="O51" s="4">
-        <v>11</v>
-      </c>
-      <c r="P51" s="3">
+      <c r="P51" s="4">
         <v>11</v>
       </c>
       <c r="Q51" s="3">
@@ -3855,136 +3990,143 @@
         <v>11</v>
       </c>
       <c r="T51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V51" s="3">
         <v>1</v>
       </c>
-      <c r="W51" s="3"/>
+      <c r="W51" s="3">
+        <v>1</v>
+      </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
-    </row>
-    <row r="52" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AC51" s="3"/>
+    </row>
+    <row r="52" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>4300</v>
+        <v>5333</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>3818</v>
+        <v>4300</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
-        <v>3665</v>
+        <v>3818</v>
       </c>
       <c r="E52" s="15">
         <f>SUM(E8:E51)</f>
+        <v>3665</v>
+      </c>
+      <c r="F52" s="15">
+        <f>SUM(F8:F51)</f>
         <v>2748</v>
       </c>
-      <c r="F52" s="14">
-        <f>SUM(F8:F51)</f>
+      <c r="G52" s="14">
+        <f>SUM(G8:G51)</f>
         <v>2184</v>
       </c>
-      <c r="G52" s="5">
-        <f t="shared" ref="G52:AB52" si="0">SUM(G8:G51)</f>
+      <c r="H52" s="5">
+        <f t="shared" ref="H52:AC52" si="0">SUM(H8:H51)</f>
         <v>1641</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <f t="shared" si="0"/>
         <v>1105</v>
       </c>
-      <c r="I52" s="5">
+      <c r="J52" s="5">
         <f t="shared" si="0"/>
         <v>977</v>
       </c>
-      <c r="J52" s="5">
+      <c r="K52" s="5">
         <f t="shared" si="0"/>
         <v>827</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <f t="shared" si="0"/>
         <v>569</v>
       </c>
-      <c r="L52" s="5">
+      <c r="M52" s="5">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AA52" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="AB52" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AC52" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>49</v>
       </c>
@@ -4001,16 +4143,17 @@
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HsuC3kBsAWuZspULUukzdPajwPHeM1JAI5G0icG1XNza3X1uRpc4nGeHrqw4rVeaxfYqSZhJC8VYYbJLJuLsYg==" saltValue="RjUc+2Q0JZWlG++a/tlZcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dHtQWsLNMkI+wKPsv3iLrQuftb95gy1Abn9gDpklUpGVP+6XTS7fHZAGSsrZXIcze7eSYlUW+d7mqQVSpCG8bw==" saltValue="IY52vMOZdqIdMgZQJAOKoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:N54"/>
+    <mergeCell ref="A54:O54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E52:AB52 B52:C52" formulaRange="1"/>
+    <ignoredError sqref="F52:AC52 B52:D52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Fälle</t>
   </si>
@@ -602,37 +602,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AC54"/>
+  <dimension ref="A2:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="2" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="18" width="11.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K3" s="9"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -720,151 +720,157 @@
       <c r="AC6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43914</v>
+      </c>
+      <c r="C7" s="13">
         <v>43913</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43912</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43911</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43910</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43909</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43908</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43907</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>43906</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>43905</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="12">
         <v>43904</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>43903</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>43902</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43901</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43900</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43899</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43898</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43897</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43896</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43895</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43894</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43893</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43892</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43891</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43890</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43889</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43888</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43887</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4">
         <v>60</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>44</v>
-      </c>
-      <c r="D8" s="4">
-        <v>39</v>
       </c>
       <c r="E8" s="4">
         <v>39</v>
       </c>
       <c r="F8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G8" s="4">
         <v>26</v>
       </c>
       <c r="H8" s="4">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4">
         <v>24</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>13</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>12</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>7</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>6</v>
       </c>
-      <c r="N8" s="3">
-        <v>4</v>
-      </c>
-      <c r="O8" s="4">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>4</v>
       </c>
       <c r="P8" s="4">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="4">
         <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>3</v>
       </c>
       <c r="S8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>2</v>
@@ -872,7 +878,9 @@
       <c r="U8" s="3">
         <v>2</v>
       </c>
-      <c r="V8" s="3"/>
+      <c r="V8" s="3">
+        <v>2</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -880,63 +888,66 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4">
         <v>33</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>25</v>
-      </c>
-      <c r="D9" s="4">
-        <v>21</v>
       </c>
       <c r="E9" s="4">
         <v>21</v>
       </c>
       <c r="F9" s="4">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4">
         <v>17</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>14</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>12</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>7</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5</v>
       </c>
-      <c r="K9" s="4">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3</v>
-      </c>
-      <c r="M9" s="4">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>1</v>
+      <c r="L9" s="4">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2</v>
       </c>
       <c r="P9" s="4">
         <v>1</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="4">
         <v>1</v>
       </c>
       <c r="R9" s="3">
         <v>1</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
@@ -947,16 +958,17 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
+        <v>82</v>
+      </c>
+      <c r="C10" s="4">
         <v>74</v>
-      </c>
-      <c r="C10" s="4">
-        <v>45</v>
       </c>
       <c r="D10" s="4">
         <v>45</v>
@@ -968,13 +980,13 @@
         <v>45</v>
       </c>
       <c r="G10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4">
         <v>17</v>
       </c>
       <c r="I10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J10" s="4">
         <v>5</v>
@@ -982,31 +994,33 @@
       <c r="K10" s="4">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="M10" s="4">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="M10" s="3">
+        <v>5</v>
+      </c>
+      <c r="N10" s="4">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>3</v>
       </c>
       <c r="P10" s="4">
         <v>3</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="4">
         <v>3</v>
       </c>
       <c r="R10" s="3">
         <v>3</v>
       </c>
       <c r="S10" s="3">
-        <v>1</v>
-      </c>
-      <c r="T10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1016,25 +1030,26 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>224</v>
+      </c>
+      <c r="C11" s="4">
         <v>187</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>117</v>
-      </c>
-      <c r="D11" s="4">
-        <v>67</v>
       </c>
       <c r="E11" s="4">
         <v>67</v>
       </c>
       <c r="F11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4">
         <v>28</v>
@@ -1043,7 +1058,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J11" s="4">
         <v>9</v>
@@ -1051,22 +1066,22 @@
       <c r="K11" s="4">
         <v>9</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="4">
         <v>9</v>
       </c>
-      <c r="M11" s="4">
-        <v>4</v>
-      </c>
-      <c r="N11" s="3">
-        <v>4</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="M11" s="3">
+        <v>9</v>
+      </c>
+      <c r="N11" s="4">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3">
         <v>4</v>
       </c>
       <c r="P11" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="4">
         <v>3</v>
       </c>
       <c r="R11" s="3">
@@ -1076,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="T11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U11" s="3">
         <v>1</v>
@@ -1099,59 +1114,62 @@
       <c r="AA11" s="3">
         <v>1</v>
       </c>
-      <c r="AB11" s="3"/>
+      <c r="AB11" s="3">
+        <v>1</v>
+      </c>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C12" s="4">
         <v>83</v>
       </c>
       <c r="D12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E12" s="4">
         <v>71</v>
       </c>
       <c r="F12" s="4">
+        <v>71</v>
+      </c>
+      <c r="G12" s="4">
         <v>62</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>39</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>31</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>29</v>
-      </c>
-      <c r="J12" s="4">
-        <v>13</v>
       </c>
       <c r="K12" s="4">
         <v>13</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="4">
+        <v>13</v>
+      </c>
+      <c r="M12" s="3">
         <v>8</v>
       </c>
-      <c r="M12" s="4">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>6</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>5</v>
       </c>
-      <c r="P12" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="4">
         <v>4</v>
       </c>
       <c r="R12" s="3">
@@ -1161,12 +1179,14 @@
         <v>4</v>
       </c>
       <c r="T12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U12" s="3">
-        <v>1</v>
-      </c>
-      <c r="V12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -1174,64 +1194,65 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>197</v>
+      </c>
+      <c r="C13" s="4">
         <v>178</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>167</v>
-      </c>
-      <c r="D13" s="4">
-        <v>134</v>
       </c>
       <c r="E13" s="4">
         <v>134</v>
       </c>
       <c r="F13" s="4">
+        <v>134</v>
+      </c>
+      <c r="G13" s="4">
         <v>101</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>78</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>54</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>45</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>42</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>26</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>19</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>18</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>12</v>
-      </c>
-      <c r="O13" s="4">
-        <v>6</v>
       </c>
       <c r="P13" s="4">
         <v>6</v>
       </c>
-      <c r="Q13" s="3">
-        <v>5</v>
+      <c r="Q13" s="4">
+        <v>6</v>
       </c>
       <c r="R13" s="3">
         <v>5</v>
       </c>
       <c r="S13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" s="3">
         <v>4</v>
@@ -1240,13 +1261,13 @@
         <v>4</v>
       </c>
       <c r="V13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W13" s="3">
         <v>1</v>
       </c>
       <c r="X13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="3">
         <v>3</v>
@@ -1257,60 +1278,63 @@
       <c r="AA13" s="3">
         <v>3</v>
       </c>
-      <c r="AB13" s="3"/>
+      <c r="AB13" s="3">
+        <v>3</v>
+      </c>
       <c r="AC13" s="3"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>159</v>
+      </c>
+      <c r="C14" s="4">
         <v>150</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>120</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>108</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>92</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>76</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>61</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>51</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>43</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>34</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>26</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>12</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>6</v>
       </c>
-      <c r="P14" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
+      <c r="Q14" s="4">
+        <v>2</v>
       </c>
       <c r="R14" s="3">
         <v>1</v>
@@ -1318,7 +1342,9 @@
       <c r="S14" s="3">
         <v>1</v>
       </c>
-      <c r="T14" s="3"/>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -1328,136 +1354,142 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>141</v>
+      </c>
+      <c r="C15" s="11">
         <v>123</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>121</v>
-      </c>
-      <c r="D15" s="11">
-        <v>110</v>
       </c>
       <c r="E15" s="11">
         <v>110</v>
       </c>
       <c r="F15" s="11">
+        <v>110</v>
+      </c>
+      <c r="G15" s="11">
         <v>99</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>60</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>59</v>
-      </c>
-      <c r="I15" s="11">
-        <v>35</v>
       </c>
       <c r="J15" s="11">
         <v>35</v>
       </c>
       <c r="K15" s="11">
+        <v>35</v>
+      </c>
+      <c r="L15" s="11">
         <v>21</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <v>16</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15</v>
-      </c>
-      <c r="O15" s="11">
-        <v>13</v>
       </c>
       <c r="P15" s="11">
         <v>13</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="11">
+        <v>13</v>
+      </c>
+      <c r="R15" s="3">
         <v>12</v>
       </c>
-      <c r="R15" s="3">
-        <v>3</v>
-      </c>
       <c r="S15" s="3">
-        <v>1</v>
-      </c>
-      <c r="T15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
       <c r="U15" s="3"/>
-      <c r="V15" s="3">
-        <v>1</v>
-      </c>
+      <c r="V15" s="3"/>
       <c r="W15" s="3">
         <v>1</v>
       </c>
-      <c r="X15" s="3"/>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4">
         <v>37</v>
-      </c>
-      <c r="C16" s="4">
-        <v>33</v>
       </c>
       <c r="D16" s="4">
         <v>33</v>
       </c>
       <c r="E16" s="4">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4">
         <v>24</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>21</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>12</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>9</v>
       </c>
-      <c r="I16" s="4">
-        <v>4</v>
-      </c>
       <c r="J16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4">
         <v>3</v>
       </c>
-      <c r="L16" s="3">
-        <v>3</v>
-      </c>
-      <c r="M16" s="4">
-        <v>3</v>
-      </c>
-      <c r="N16" s="3">
-        <v>2</v>
-      </c>
-      <c r="O16" s="4">
-        <v>1</v>
+      <c r="L16" s="4">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2</v>
       </c>
       <c r="P16" s="4">
         <v>1</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="4">
         <v>1</v>
       </c>
       <c r="R16" s="3">
         <v>1</v>
       </c>
-      <c r="S16" s="3"/>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -1468,133 +1500,137 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>462</v>
+      </c>
+      <c r="C17" s="4">
         <v>435</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>362</v>
-      </c>
-      <c r="D17" s="4">
-        <v>323</v>
       </c>
       <c r="E17" s="4">
         <v>323</v>
       </c>
       <c r="F17" s="4">
+        <v>323</v>
+      </c>
+      <c r="G17" s="4">
         <v>234</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>193</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>128</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>123</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>111</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>82</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>47</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>23</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>18</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>16</v>
       </c>
       <c r="R17" s="3">
         <v>16</v>
       </c>
       <c r="S17" s="3">
+        <v>16</v>
+      </c>
+      <c r="T17" s="3">
         <v>14</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13</v>
-      </c>
-      <c r="U17" s="3">
-        <v>5</v>
       </c>
       <c r="V17" s="3">
         <v>5</v>
       </c>
-      <c r="W17" s="3"/>
+      <c r="W17" s="3">
+        <v>5</v>
+      </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4">
+        <v>227</v>
+      </c>
+      <c r="C18" s="4">
         <v>212</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>191</v>
-      </c>
-      <c r="D18" s="4">
-        <v>150</v>
       </c>
       <c r="E18" s="4">
         <v>150</v>
       </c>
       <c r="F18" s="4">
+        <v>150</v>
+      </c>
+      <c r="G18" s="4">
         <v>114</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>79</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>62</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>53</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>43</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>34</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>18</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13</v>
-      </c>
-      <c r="O18" s="4">
-        <v>12</v>
       </c>
       <c r="P18" s="4">
         <v>12</v>
       </c>
-      <c r="Q18" s="3">
-        <v>8</v>
+      <c r="Q18" s="4">
+        <v>12</v>
       </c>
       <c r="R18" s="3">
         <v>8</v>
@@ -1603,31 +1639,34 @@
         <v>8</v>
       </c>
       <c r="T18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U18" s="3">
         <v>6</v>
       </c>
       <c r="V18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W18" s="3">
         <v>4</v>
       </c>
       <c r="X18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4">
         <v>14</v>
@@ -1650,31 +1689,33 @@
         <v>14</v>
       </c>
       <c r="H19" s="4">
+        <v>14</v>
+      </c>
+      <c r="I19" s="4">
         <v>10</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>8</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>7</v>
       </c>
-      <c r="K19" s="4">
-        <v>3</v>
-      </c>
-      <c r="L19" s="3">
-        <v>2</v>
-      </c>
-      <c r="M19" s="4">
-        <v>2</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="4">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="3"/>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -1687,8 +1728,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1738,7 @@
         <v>166</v>
       </c>
       <c r="C20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="D20" s="4">
         <v>97</v>
@@ -1705,46 +1747,46 @@
         <v>97</v>
       </c>
       <c r="F20" s="4">
+        <v>97</v>
+      </c>
+      <c r="G20" s="4">
         <v>60</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>59</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>39</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>29</v>
-      </c>
-      <c r="J20" s="4">
-        <v>16</v>
       </c>
       <c r="K20" s="4">
         <v>16</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="4">
+        <v>16</v>
+      </c>
+      <c r="M20" s="3">
         <v>14</v>
       </c>
-      <c r="M20" s="4">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4">
-        <v>4</v>
+      <c r="N20" s="4">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
       </c>
       <c r="P20" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="4">
         <v>3</v>
       </c>
       <c r="R20" s="3">
         <v>3</v>
       </c>
       <c r="S20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T20" s="3">
         <v>2</v>
@@ -1768,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="AA20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="3">
         <v>1</v>
@@ -1776,22 +1818,25 @@
       <c r="AC20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="4">
+        <v>98</v>
+      </c>
+      <c r="C21" s="4">
         <v>89</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5</v>
       </c>
       <c r="D21" s="4">
         <v>5</v>
       </c>
       <c r="E21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
         <v>3</v>
@@ -1800,40 +1845,40 @@
         <v>3</v>
       </c>
       <c r="H21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
       </c>
       <c r="J21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" s="4">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
-      <c r="M21" s="4">
-        <v>2</v>
-      </c>
-      <c r="N21" s="3">
-        <v>2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>5</v>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2</v>
       </c>
       <c r="P21" s="4">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="4">
         <v>5</v>
       </c>
       <c r="R21" s="3">
         <v>5</v>
       </c>
       <c r="S21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T21" s="3">
         <v>2</v>
@@ -1841,7 +1886,9 @@
       <c r="U21" s="3">
         <v>2</v>
       </c>
-      <c r="V21" s="3"/>
+      <c r="V21" s="3">
+        <v>2</v>
+      </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -1849,64 +1896,65 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>62</v>
+      </c>
+      <c r="C22" s="4">
         <v>60</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>57</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>47</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>39</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>34</v>
-      </c>
-      <c r="G22" s="4">
-        <v>17</v>
       </c>
       <c r="H22" s="4">
         <v>17</v>
       </c>
       <c r="I22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J22" s="4">
         <v>21</v>
       </c>
       <c r="K22" s="4">
+        <v>21</v>
+      </c>
+      <c r="L22" s="4">
         <v>19</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>4</v>
-      </c>
-      <c r="O22" s="4">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>4</v>
       </c>
       <c r="P22" s="4">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="4">
         <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>3</v>
       </c>
       <c r="S22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>1</v>
@@ -1914,7 +1962,9 @@
       <c r="U22" s="3">
         <v>1</v>
       </c>
-      <c r="V22" s="3"/>
+      <c r="V22" s="3">
+        <v>1</v>
+      </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -1922,79 +1972,80 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>212</v>
+      </c>
+      <c r="C23" s="11">
         <v>197</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>165</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>140</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>118</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>110</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>71</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>57</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>50</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>47</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>37</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>32</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30</v>
-      </c>
-      <c r="O23" s="11">
-        <v>26</v>
       </c>
       <c r="P23" s="11">
         <v>26</v>
       </c>
-      <c r="Q23" s="3">
-        <v>20</v>
+      <c r="Q23" s="11">
+        <v>26</v>
       </c>
       <c r="R23" s="3">
         <v>20</v>
       </c>
       <c r="S23" s="3">
+        <v>20</v>
+      </c>
+      <c r="T23" s="3">
         <v>14</v>
-      </c>
-      <c r="T23" s="3">
-        <v>10</v>
       </c>
       <c r="U23" s="3">
         <v>10</v>
       </c>
       <c r="V23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W23" s="3">
         <v>8</v>
       </c>
       <c r="X23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y23" s="3">
         <v>1</v>
@@ -2002,58 +2053,61 @@
       <c r="Z23" s="3">
         <v>1</v>
       </c>
-      <c r="AA23" s="3"/>
+      <c r="AA23" s="3">
+        <v>1</v>
+      </c>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="11">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11">
         <v>55</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>28</v>
-      </c>
-      <c r="D24" s="11">
-        <v>20</v>
       </c>
       <c r="E24" s="11">
         <v>20</v>
       </c>
       <c r="F24" s="11">
+        <v>20</v>
+      </c>
+      <c r="G24" s="11">
         <v>19</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>13</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>9</v>
       </c>
-      <c r="I24" s="11">
-        <v>4</v>
-      </c>
       <c r="J24" s="11">
         <v>4</v>
       </c>
       <c r="K24" s="11">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="11">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="11">
-        <v>3</v>
-      </c>
+      <c r="L24" s="11">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="11">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3"/>
       <c r="P24" s="11">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="11">
         <v>3</v>
       </c>
       <c r="R24" s="3">
@@ -2063,49 +2117,52 @@
         <v>3</v>
       </c>
       <c r="T24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U24" s="3">
         <v>2</v>
       </c>
-      <c r="V24" s="3"/>
+      <c r="V24" s="3">
+        <v>2</v>
+      </c>
       <c r="W24" s="3"/>
-      <c r="X24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3">
+        <v>1</v>
+      </c>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>278</v>
+      </c>
+      <c r="C25" s="4">
         <v>257</v>
-      </c>
-      <c r="C25" s="4">
-        <v>222</v>
       </c>
       <c r="D25" s="4">
         <v>222</v>
       </c>
       <c r="E25" s="4">
+        <v>222</v>
+      </c>
+      <c r="F25" s="4">
         <v>182</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>154</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>135</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>64</v>
-      </c>
-      <c r="I25" s="4">
-        <v>29</v>
       </c>
       <c r="J25" s="4">
         <v>29</v>
@@ -2113,23 +2170,23 @@
       <c r="K25" s="4">
         <v>29</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4">
+        <v>29</v>
+      </c>
+      <c r="M25" s="3">
         <v>8</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>8</v>
       </c>
-      <c r="N25" s="3">
+      <c r="O25" s="3">
         <v>6</v>
       </c>
-      <c r="O25" s="4">
-        <v>2</v>
-      </c>
       <c r="P25" s="4">
         <v>2</v>
       </c>
-      <c r="Q25" s="3">
-        <v>1</v>
+      <c r="Q25" s="4">
+        <v>2</v>
       </c>
       <c r="R25" s="3">
         <v>1</v>
@@ -2140,7 +2197,9 @@
       <c r="T25" s="3">
         <v>1</v>
       </c>
-      <c r="U25" s="3"/>
+      <c r="U25" s="3">
+        <v>1</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -2149,70 +2208,71 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
+        <v>172</v>
+      </c>
+      <c r="C26" s="11">
         <v>154</v>
       </c>
-      <c r="C26" s="11">
+      <c r="D26" s="11">
         <v>104</v>
-      </c>
-      <c r="D26" s="11">
-        <v>96</v>
       </c>
       <c r="E26" s="11">
         <v>96</v>
       </c>
       <c r="F26" s="11">
+        <v>96</v>
+      </c>
+      <c r="G26" s="11">
         <v>75</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>63</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>47</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>24</v>
-      </c>
-      <c r="J26" s="11">
-        <v>29</v>
       </c>
       <c r="K26" s="11">
         <v>29</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="11">
+        <v>29</v>
+      </c>
+      <c r="M26" s="3">
         <v>16</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>16</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12</v>
       </c>
-      <c r="O26" s="11">
+      <c r="P26" s="11">
         <v>9</v>
       </c>
-      <c r="P26" s="11">
-        <v>7</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="11">
         <v>7</v>
       </c>
       <c r="R26" s="3">
         <v>7</v>
       </c>
       <c r="S26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" s="3">
         <v>1</v>
@@ -2229,19 +2289,22 @@
       <c r="Z26" s="3">
         <v>1</v>
       </c>
-      <c r="AA26" s="3"/>
+      <c r="AA26" s="3">
+        <v>1</v>
+      </c>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="11">
+        <v>74</v>
+      </c>
+      <c r="C27" s="11">
         <v>60</v>
-      </c>
-      <c r="C27" s="11">
-        <v>42</v>
       </c>
       <c r="D27" s="11">
         <v>42</v>
@@ -2250,16 +2313,16 @@
         <v>42</v>
       </c>
       <c r="F27" s="11">
+        <v>42</v>
+      </c>
+      <c r="G27" s="11">
         <v>34</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11">
         <v>29</v>
       </c>
-      <c r="H27" s="11">
+      <c r="I27" s="11">
         <v>26</v>
-      </c>
-      <c r="I27" s="11">
-        <v>14</v>
       </c>
       <c r="J27" s="11">
         <v>14</v>
@@ -2267,20 +2330,22 @@
       <c r="K27" s="11">
         <v>14</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="11">
+        <v>14</v>
+      </c>
+      <c r="M27" s="3">
         <v>8</v>
       </c>
-      <c r="M27" s="11">
+      <c r="N27" s="11">
         <v>8</v>
       </c>
-      <c r="N27" s="3">
-        <v>3</v>
-      </c>
-      <c r="O27" s="11">
-        <v>2</v>
-      </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="3"/>
+      <c r="O27" s="3">
+        <v>3</v>
+      </c>
+      <c r="P27" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="11"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -2293,16 +2358,17 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>81</v>
+      </c>
+      <c r="C28" s="4">
         <v>70</v>
-      </c>
-      <c r="C28" s="4">
-        <v>52</v>
       </c>
       <c r="D28" s="4">
         <v>52</v>
@@ -2311,16 +2377,16 @@
         <v>52</v>
       </c>
       <c r="F28" s="4">
+        <v>52</v>
+      </c>
+      <c r="G28" s="4">
         <v>43</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>34</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>28</v>
-      </c>
-      <c r="I28" s="4">
-        <v>20</v>
       </c>
       <c r="J28" s="4">
         <v>20</v>
@@ -2328,28 +2394,30 @@
       <c r="K28" s="4">
         <v>20</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="4">
+        <v>20</v>
+      </c>
+      <c r="M28" s="3">
         <v>7</v>
       </c>
-      <c r="M28" s="4">
-        <v>2</v>
-      </c>
-      <c r="N28" s="3">
-        <v>2</v>
-      </c>
-      <c r="O28" s="4">
-        <v>1</v>
+      <c r="N28" s="4">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>2</v>
       </c>
       <c r="P28" s="4">
         <v>1</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="4">
         <v>1</v>
       </c>
       <c r="R28" s="3">
         <v>1</v>
       </c>
-      <c r="S28" s="3"/>
+      <c r="S28" s="3">
+        <v>1</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -2360,13 +2428,14 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C29" s="4">
         <v>57</v>
@@ -2378,16 +2447,16 @@
         <v>57</v>
       </c>
       <c r="F29" s="4">
+        <v>57</v>
+      </c>
+      <c r="G29" s="4">
         <v>41</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>25</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>16</v>
-      </c>
-      <c r="I29" s="4">
-        <v>10</v>
       </c>
       <c r="J29" s="4">
         <v>10</v>
@@ -2395,20 +2464,20 @@
       <c r="K29" s="4">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="4">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>6</v>
       </c>
-      <c r="M29" s="4">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="4">
-        <v>1</v>
-      </c>
+      <c r="N29" s="4">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3"/>
       <c r="P29" s="4">
         <v>1</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="4">
         <v>1</v>
       </c>
       <c r="R29" s="3">
@@ -2426,41 +2495,44 @@
       <c r="V29" s="3">
         <v>1</v>
       </c>
-      <c r="W29" s="3"/>
+      <c r="W29" s="3">
+        <v>1</v>
+      </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>275</v>
+      </c>
+      <c r="C30" s="4">
         <v>250</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>236</v>
-      </c>
-      <c r="D30" s="4">
-        <v>175</v>
       </c>
       <c r="E30" s="4">
         <v>175</v>
       </c>
       <c r="F30" s="4">
+        <v>175</v>
+      </c>
+      <c r="G30" s="4">
         <v>126</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>112</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>87</v>
-      </c>
-      <c r="I30" s="4">
-        <v>38</v>
       </c>
       <c r="J30" s="4">
         <v>38</v>
@@ -2468,41 +2540,41 @@
       <c r="K30" s="4">
         <v>38</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="4">
+        <v>38</v>
+      </c>
+      <c r="M30" s="3">
         <v>24</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>18</v>
       </c>
-      <c r="N30" s="3">
+      <c r="O30" s="3">
         <v>11</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>11</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>8</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>7</v>
       </c>
       <c r="R30" s="3">
         <v>7</v>
       </c>
       <c r="S30" s="3">
+        <v>7</v>
+      </c>
+      <c r="T30" s="3">
         <v>5</v>
       </c>
-      <c r="T30" s="3">
-        <v>3</v>
-      </c>
       <c r="U30" s="3">
         <v>3</v>
       </c>
       <c r="V30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X30" s="3">
         <v>1</v>
@@ -2513,11 +2585,14 @@
       <c r="Z30" s="3">
         <v>1</v>
       </c>
-      <c r="AA30" s="3"/>
+      <c r="AA30" s="3">
+        <v>1</v>
+      </c>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,7 +2600,7 @@
         <v>53</v>
       </c>
       <c r="C31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D31" s="4">
         <v>36</v>
@@ -2534,10 +2609,10 @@
         <v>36</v>
       </c>
       <c r="F31" s="4">
+        <v>36</v>
+      </c>
+      <c r="G31" s="4">
         <v>33</v>
-      </c>
-      <c r="G31" s="4">
-        <v>31</v>
       </c>
       <c r="H31" s="4">
         <v>31</v>
@@ -2549,39 +2624,41 @@
         <v>31</v>
       </c>
       <c r="K31" s="4">
+        <v>31</v>
+      </c>
+      <c r="L31" s="4">
         <v>30</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>28</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <v>24</v>
       </c>
-      <c r="N31" s="3">
-        <v>24</v>
-      </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>24</v>
       </c>
       <c r="P31" s="4">
         <v>24</v>
       </c>
-      <c r="Q31" s="3">
-        <v>23</v>
+      <c r="Q31" s="4">
+        <v>24</v>
       </c>
       <c r="R31" s="3">
         <v>23</v>
       </c>
       <c r="S31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="T31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31" s="3">
         <v>1</v>
       </c>
-      <c r="V31" s="3"/>
+      <c r="V31" s="3">
+        <v>1</v>
+      </c>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -2589,13 +2666,14 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="4">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="C32" s="4">
         <v>80</v>
@@ -2607,13 +2685,13 @@
         <v>80</v>
       </c>
       <c r="F32" s="4">
+        <v>80</v>
+      </c>
+      <c r="G32" s="4">
         <v>73</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>71</v>
-      </c>
-      <c r="H32" s="4">
-        <v>27</v>
       </c>
       <c r="I32" s="4">
         <v>27</v>
@@ -2624,38 +2702,38 @@
       <c r="K32" s="4">
         <v>27</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="4">
+        <v>27</v>
+      </c>
+      <c r="M32" s="3">
         <v>22</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>12</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12</v>
-      </c>
-      <c r="O32" s="4">
-        <v>9</v>
       </c>
       <c r="P32" s="4">
         <v>9</v>
       </c>
-      <c r="Q32" s="3">
-        <v>7</v>
+      <c r="Q32" s="4">
+        <v>9</v>
       </c>
       <c r="R32" s="3">
         <v>7</v>
       </c>
       <c r="S32" s="3">
+        <v>7</v>
+      </c>
+      <c r="T32" s="3">
         <v>5</v>
       </c>
-      <c r="T32" s="3">
-        <v>4</v>
-      </c>
       <c r="U32" s="3">
         <v>4</v>
       </c>
       <c r="V32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>3</v>
@@ -2663,62 +2741,65 @@
       <c r="X32" s="3">
         <v>3</v>
       </c>
-      <c r="Y32" s="3"/>
+      <c r="Y32" s="3">
+        <v>3</v>
+      </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4">
         <v>35</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>30</v>
-      </c>
-      <c r="D33" s="4">
-        <v>26</v>
       </c>
       <c r="E33" s="4">
         <v>26</v>
       </c>
       <c r="F33" s="4">
+        <v>26</v>
+      </c>
+      <c r="G33" s="4">
         <v>20</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>17</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>14</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>7</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>10</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>6</v>
       </c>
-      <c r="L33" s="3">
-        <v>4</v>
-      </c>
-      <c r="M33" s="4">
-        <v>2</v>
-      </c>
-      <c r="N33" s="3">
-        <v>2</v>
-      </c>
-      <c r="O33" s="4">
-        <v>1</v>
+      <c r="M33" s="3">
+        <v>4</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2</v>
       </c>
       <c r="P33" s="4">
         <v>1</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="4">
         <v>1</v>
       </c>
       <c r="R33" s="3">
@@ -2727,7 +2808,9 @@
       <c r="S33" s="3">
         <v>1</v>
       </c>
-      <c r="T33" s="3"/>
+      <c r="T33" s="3">
+        <v>1</v>
+      </c>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -2737,66 +2820,69 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="4">
+        <v>120</v>
+      </c>
+      <c r="C34" s="4">
         <v>104</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>82</v>
-      </c>
-      <c r="D34" s="4">
-        <v>71</v>
       </c>
       <c r="E34" s="4">
         <v>71</v>
       </c>
       <c r="F34" s="4">
+        <v>71</v>
+      </c>
+      <c r="G34" s="4">
         <v>55</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>45</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>38</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>28</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>25</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>22</v>
       </c>
-      <c r="L34" s="3">
+      <c r="M34" s="3">
         <v>16</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>13</v>
       </c>
-      <c r="N34" s="3">
+      <c r="O34" s="3">
         <v>13</v>
-      </c>
-      <c r="O34" s="4">
-        <v>12</v>
       </c>
       <c r="P34" s="4">
         <v>12</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="4">
+        <v>12</v>
+      </c>
+      <c r="R34" s="3">
         <v>7</v>
       </c>
-      <c r="R34" s="3">
+      <c r="S34" s="3">
         <v>6</v>
       </c>
-      <c r="S34" s="3">
-        <v>2</v>
-      </c>
-      <c r="T34" s="3"/>
+      <c r="T34" s="3">
+        <v>2</v>
+      </c>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -2806,58 +2892,59 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>140</v>
+      </c>
+      <c r="C35" s="4">
         <v>121</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>113</v>
-      </c>
-      <c r="D35" s="4">
-        <v>91</v>
       </c>
       <c r="E35" s="4">
         <v>91</v>
       </c>
       <c r="F35" s="4">
+        <v>91</v>
+      </c>
+      <c r="G35" s="4">
         <v>85</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>46</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>41</v>
-      </c>
-      <c r="I35" s="4">
-        <v>31</v>
       </c>
       <c r="J35" s="4">
         <v>31</v>
       </c>
       <c r="K35" s="4">
+        <v>31</v>
+      </c>
+      <c r="L35" s="4">
         <v>20</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>7</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5</v>
       </c>
-      <c r="O35" s="4">
-        <v>4</v>
-      </c>
       <c r="P35" s="4">
         <v>4</v>
       </c>
-      <c r="Q35" s="3">
-        <v>3</v>
+      <c r="Q35" s="4">
+        <v>4</v>
       </c>
       <c r="R35" s="3">
         <v>3</v>
@@ -2872,62 +2959,67 @@
         <v>3</v>
       </c>
       <c r="V35" s="3">
-        <v>1</v>
-      </c>
-      <c r="W35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="W35" s="3">
+        <v>1</v>
+      </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="4">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4">
         <v>18</v>
-      </c>
-      <c r="C36" s="4">
-        <v>16</v>
       </c>
       <c r="D36" s="4">
         <v>16</v>
       </c>
       <c r="E36" s="4">
+        <v>16</v>
+      </c>
+      <c r="F36" s="4">
         <v>14</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>11</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>7</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>6</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>5</v>
       </c>
-      <c r="J36" s="4">
-        <v>4</v>
-      </c>
       <c r="K36" s="4">
         <v>4</v>
       </c>
-      <c r="L36" s="3">
-        <v>4</v>
-      </c>
-      <c r="M36" s="4">
-        <v>4</v>
-      </c>
-      <c r="N36" s="3">
-        <v>3</v>
-      </c>
-      <c r="O36" s="4"/>
+      <c r="L36" s="4">
+        <v>4</v>
+      </c>
+      <c r="M36" s="3">
+        <v>4</v>
+      </c>
+      <c r="N36" s="4">
+        <v>4</v>
+      </c>
+      <c r="O36" s="3">
+        <v>3</v>
+      </c>
       <c r="P36" s="4"/>
-      <c r="Q36" s="3"/>
+      <c r="Q36" s="4"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -2940,63 +3032,66 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD36" s="3"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>156</v>
+      </c>
+      <c r="C37" s="4">
         <v>146</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>100</v>
-      </c>
-      <c r="D37" s="4">
-        <v>81</v>
       </c>
       <c r="E37" s="4">
         <v>81</v>
       </c>
       <c r="F37" s="4">
+        <v>81</v>
+      </c>
+      <c r="G37" s="4">
         <v>64</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>53</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>37</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>34</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>26</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>19</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="3">
         <v>12</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>11</v>
       </c>
-      <c r="N37" s="3">
-        <v>3</v>
-      </c>
-      <c r="O37" s="4">
-        <v>4</v>
+      <c r="O37" s="3">
+        <v>3</v>
       </c>
       <c r="P37" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="4">
         <v>3</v>
       </c>
       <c r="R37" s="3">
-        <v>2</v>
-      </c>
-      <c r="S37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="S37" s="3">
+        <v>2</v>
+      </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -3007,16 +3102,17 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD37" s="3"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>176</v>
+      </c>
+      <c r="C38" s="4">
         <v>127</v>
-      </c>
-      <c r="C38" s="4">
-        <v>110</v>
       </c>
       <c r="D38" s="4">
         <v>110</v>
@@ -3025,51 +3121,53 @@
         <v>110</v>
       </c>
       <c r="F38" s="4">
+        <v>110</v>
+      </c>
+      <c r="G38" s="4">
         <v>88</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>55</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>13</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>12</v>
-      </c>
-      <c r="J38" s="4">
-        <v>8</v>
       </c>
       <c r="K38" s="4">
         <v>8</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="4">
         <v>8</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="3">
+        <v>8</v>
+      </c>
+      <c r="N38" s="4">
         <v>5</v>
       </c>
-      <c r="N38" s="3">
+      <c r="O38" s="3">
         <v>5</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <v>6</v>
       </c>
-      <c r="P38" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="4">
         <v>3</v>
       </c>
       <c r="R38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S38" s="3">
         <v>2</v>
       </c>
       <c r="T38" s="3">
-        <v>1</v>
-      </c>
-      <c r="U38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="U38" s="3">
+        <v>1</v>
+      </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
@@ -3078,13 +3176,14 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="3"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="C39" s="4">
         <v>117</v>
@@ -3096,16 +3195,16 @@
         <v>117</v>
       </c>
       <c r="F39" s="4">
+        <v>117</v>
+      </c>
+      <c r="G39" s="4">
         <v>79</v>
-      </c>
-      <c r="G39" s="4">
-        <v>49</v>
       </c>
       <c r="H39" s="4">
         <v>49</v>
       </c>
       <c r="I39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="J39" s="4">
         <v>23</v>
@@ -3113,95 +3212,100 @@
       <c r="K39" s="4">
         <v>23</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="4">
         <v>23</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="3">
+        <v>23</v>
+      </c>
+      <c r="N39" s="4">
         <v>10</v>
       </c>
-      <c r="N39" s="3">
+      <c r="O39" s="3">
         <v>5</v>
       </c>
-      <c r="O39" s="4">
+      <c r="P39" s="4">
         <v>6</v>
       </c>
-      <c r="P39" s="4">
+      <c r="Q39" s="4">
         <v>5</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="R39" s="3">
         <v>5</v>
       </c>
-      <c r="R39" s="3">
-        <v>4</v>
-      </c>
       <c r="S39" s="3">
         <v>4</v>
       </c>
       <c r="T39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U39" s="3">
         <v>2</v>
       </c>
       <c r="V39" s="3">
-        <v>1</v>
-      </c>
-      <c r="W39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="W39" s="3">
+        <v>1</v>
+      </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>117</v>
+      </c>
+      <c r="C40" s="4">
         <v>113</v>
-      </c>
-      <c r="C40" s="4">
-        <v>95</v>
       </c>
       <c r="D40" s="4">
         <v>95</v>
       </c>
       <c r="E40" s="4">
+        <v>95</v>
+      </c>
+      <c r="F40" s="4">
         <v>94</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>43</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>33</v>
-      </c>
-      <c r="H40" s="4">
-        <v>31</v>
       </c>
       <c r="I40" s="4">
         <v>31</v>
       </c>
       <c r="J40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K40" s="4">
         <v>19</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="4">
+        <v>19</v>
+      </c>
+      <c r="M40" s="3">
         <v>11</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <v>7</v>
       </c>
-      <c r="N40" s="3">
+      <c r="O40" s="3">
         <v>5</v>
       </c>
-      <c r="O40" s="4">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="3"/>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -3214,34 +3318,35 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>317</v>
+      </c>
+      <c r="C41" s="4">
         <v>276</v>
-      </c>
-      <c r="C41" s="4">
-        <v>240</v>
       </c>
       <c r="D41" s="4">
         <v>240</v>
       </c>
       <c r="E41" s="4">
+        <v>240</v>
+      </c>
+      <c r="F41" s="4">
         <v>215</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>144</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>127</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>76</v>
-      </c>
-      <c r="I41" s="4">
-        <v>38</v>
       </c>
       <c r="J41" s="4">
         <v>38</v>
@@ -3249,38 +3354,38 @@
       <c r="K41" s="4">
         <v>38</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="4">
+        <v>38</v>
+      </c>
+      <c r="M41" s="3">
         <v>28</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>28</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>14</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <v>13</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7</v>
       </c>
-      <c r="S41" s="3">
-        <v>4</v>
-      </c>
       <c r="T41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="3">
         <v>1</v>
@@ -3294,16 +3399,19 @@
       <c r="Z41" s="3">
         <v>1</v>
       </c>
-      <c r="AA41" s="3"/>
+      <c r="AA41" s="3">
+        <v>1</v>
+      </c>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="4">
         <v>8</v>
@@ -3312,42 +3420,42 @@
         <v>8</v>
       </c>
       <c r="E42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" s="4">
+        <v>3</v>
+      </c>
+      <c r="I42" s="4">
         <v>5</v>
       </c>
-      <c r="I42" s="4">
-        <v>4</v>
-      </c>
       <c r="J42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" s="4">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>2</v>
-      </c>
-      <c r="M42" s="4">
-        <v>1</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1</v>
-      </c>
-      <c r="O42" s="4">
+      <c r="L42" s="4">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>2</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
         <v>1</v>
       </c>
       <c r="P42" s="4">
         <v>1</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="4">
         <v>1</v>
       </c>
       <c r="R42" s="3">
@@ -3383,35 +3491,38 @@
       <c r="AB42" s="3">
         <v>1</v>
       </c>
-      <c r="AC42" s="3"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="3"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>148</v>
+      </c>
+      <c r="C43" s="4">
         <v>145</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>111</v>
-      </c>
-      <c r="D43" s="4">
-        <v>98</v>
       </c>
       <c r="E43" s="4">
         <v>98</v>
       </c>
       <c r="F43" s="4">
+        <v>98</v>
+      </c>
+      <c r="G43" s="4">
         <v>61</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>47</v>
       </c>
-      <c r="H43" s="4">
+      <c r="I43" s="4">
         <v>34</v>
-      </c>
-      <c r="I43" s="4">
-        <v>21</v>
       </c>
       <c r="J43" s="4">
         <v>21</v>
@@ -3419,20 +3530,22 @@
       <c r="K43" s="4">
         <v>21</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="4">
+        <v>21</v>
+      </c>
+      <c r="M43" s="3">
         <v>17</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>15</v>
       </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="4">
-        <v>1</v>
-      </c>
+      <c r="O43" s="3"/>
       <c r="P43" s="4">
         <v>1</v>
       </c>
-      <c r="Q43" s="3"/>
+      <c r="Q43" s="4">
+        <v>1</v>
+      </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -3445,34 +3558,35 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
+        <v>81</v>
+      </c>
+      <c r="C44" s="4">
         <v>78</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>69</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>48</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>39</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>28</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>27</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>16</v>
-      </c>
-      <c r="I44" s="4">
-        <v>6</v>
       </c>
       <c r="J44" s="4">
         <v>6</v>
@@ -3480,28 +3594,30 @@
       <c r="K44" s="4">
         <v>6</v>
       </c>
-      <c r="L44" s="3">
-        <v>3</v>
-      </c>
-      <c r="M44" s="4">
-        <v>2</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2</v>
-      </c>
-      <c r="O44" s="4">
-        <v>1</v>
+      <c r="L44" s="4">
+        <v>6</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3</v>
+      </c>
+      <c r="N44" s="4">
+        <v>2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>2</v>
       </c>
       <c r="P44" s="4">
         <v>1</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="4">
         <v>1</v>
       </c>
       <c r="R44" s="3">
         <v>1</v>
       </c>
-      <c r="S44" s="3"/>
+      <c r="S44" s="3">
+        <v>1</v>
+      </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -3512,57 +3628,58 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>123</v>
+      </c>
+      <c r="C45" s="4">
         <v>99</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>83</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>82</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>67</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>41</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>28</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>22</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>16</v>
-      </c>
-      <c r="J45" s="4">
-        <v>12</v>
       </c>
       <c r="K45" s="4">
         <v>12</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="4">
+        <v>12</v>
+      </c>
+      <c r="M45" s="3">
         <v>6</v>
       </c>
-      <c r="M45" s="4">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>3</v>
-      </c>
-      <c r="O45" s="4">
+      <c r="N45" s="4">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>3</v>
       </c>
       <c r="P45" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="4">
         <v>1</v>
       </c>
       <c r="R45" s="3">
@@ -3577,7 +3694,9 @@
       <c r="U45" s="3">
         <v>1</v>
       </c>
-      <c r="V45" s="3"/>
+      <c r="V45" s="3">
+        <v>1</v>
+      </c>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
@@ -3585,25 +3704,26 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>451</v>
+      </c>
+      <c r="C46" s="4">
         <v>441</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>350</v>
-      </c>
-      <c r="D46" s="4">
-        <v>308</v>
       </c>
       <c r="E46" s="4">
         <v>308</v>
       </c>
       <c r="F46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="G46" s="4">
         <v>196</v>
@@ -3612,7 +3732,7 @@
         <v>196</v>
       </c>
       <c r="I46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="J46" s="4">
         <v>60</v>
@@ -3620,37 +3740,39 @@
       <c r="K46" s="4">
         <v>60</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="4">
+        <v>60</v>
+      </c>
+      <c r="M46" s="3">
         <v>40</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>35</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <v>19</v>
       </c>
-      <c r="P46" s="4">
+      <c r="Q46" s="4">
         <v>10</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8</v>
       </c>
-      <c r="S46" s="3">
-        <v>4</v>
-      </c>
       <c r="T46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U46" s="3">
-        <v>2</v>
-      </c>
-      <c r="V46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="V46" s="3">
+        <v>2</v>
+      </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
@@ -3658,58 +3780,59 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>161</v>
+      </c>
+      <c r="C47" s="4">
         <v>144</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>133</v>
-      </c>
-      <c r="D47" s="4">
-        <v>112</v>
       </c>
       <c r="E47" s="4">
         <v>112</v>
       </c>
       <c r="F47" s="4">
+        <v>112</v>
+      </c>
+      <c r="G47" s="4">
         <v>93</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>85</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>67</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>61</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>41</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>23</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>9</v>
       </c>
-      <c r="N47" s="3">
-        <v>3</v>
-      </c>
-      <c r="O47" s="4">
+      <c r="O47" s="3">
+        <v>3</v>
+      </c>
+      <c r="P47" s="4">
         <v>5</v>
       </c>
-      <c r="P47" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>2</v>
+      <c r="Q47" s="4">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>2</v>
@@ -3744,32 +3867,35 @@
       <c r="AB47" s="3">
         <v>2</v>
       </c>
-      <c r="AC47" s="3"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD47" s="3"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C48" s="4">
         <v>15</v>
       </c>
       <c r="D48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E48" s="4">
         <v>13</v>
       </c>
       <c r="F48" s="4">
+        <v>13</v>
+      </c>
+      <c r="G48" s="4">
         <v>10</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>7</v>
-      </c>
-      <c r="H48" s="4">
-        <v>5</v>
       </c>
       <c r="I48" s="4">
         <v>5</v>
@@ -3778,14 +3904,16 @@
         <v>5</v>
       </c>
       <c r="K48" s="4">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="L48" s="4">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="3"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="3"/>
+      <c r="Q48" s="4"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -3798,59 +3926,60 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="4">
+        <v>58</v>
+      </c>
+      <c r="C49" s="4">
         <v>53</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>40</v>
-      </c>
-      <c r="D49" s="4">
-        <v>35</v>
       </c>
       <c r="E49" s="4">
         <v>35</v>
       </c>
       <c r="F49" s="4">
+        <v>35</v>
+      </c>
+      <c r="G49" s="4">
         <v>21</v>
-      </c>
-      <c r="G49" s="4">
-        <v>19</v>
       </c>
       <c r="H49" s="4">
         <v>19</v>
       </c>
       <c r="I49" s="4">
+        <v>19</v>
+      </c>
+      <c r="J49" s="4">
         <v>13</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>12</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>7</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <v>6</v>
       </c>
-      <c r="P49" s="4">
+      <c r="Q49" s="4">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
-        <v>4</v>
-      </c>
       <c r="R49" s="3">
         <v>4</v>
       </c>
@@ -3864,42 +3993,45 @@
         <v>4</v>
       </c>
       <c r="V49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>1</v>
       </c>
-      <c r="X49" s="3"/>
+      <c r="X49" s="3">
+        <v>1</v>
+      </c>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>40</v>
+      </c>
+      <c r="C50" s="4">
         <v>25</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>15</v>
-      </c>
-      <c r="D50" s="4">
-        <v>13</v>
       </c>
       <c r="E50" s="4">
         <v>13</v>
       </c>
       <c r="F50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G50" s="4">
         <v>5</v>
       </c>
       <c r="H50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50" s="4">
         <v>4</v>
@@ -3908,16 +4040,18 @@
         <v>4</v>
       </c>
       <c r="K50" s="4">
-        <v>3</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="L50" s="4">
+        <v>3</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="3"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="3"/>
+      <c r="Q50" s="4"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -3930,16 +4064,17 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>151</v>
+      </c>
+      <c r="C51" s="4">
         <v>109</v>
-      </c>
-      <c r="C51" s="4">
-        <v>70</v>
       </c>
       <c r="D51" s="4">
         <v>70</v>
@@ -3948,39 +4083,39 @@
         <v>70</v>
       </c>
       <c r="F51" s="4">
+        <v>70</v>
+      </c>
+      <c r="G51" s="4">
         <v>60</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>51</v>
-      </c>
-      <c r="H51" s="4">
-        <v>33</v>
       </c>
       <c r="I51" s="4">
         <v>33</v>
       </c>
       <c r="J51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K51" s="4">
         <v>21</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="4">
         <v>21</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="3">
         <v>21</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="4">
+        <v>21</v>
+      </c>
+      <c r="O51" s="3">
         <v>19</v>
       </c>
-      <c r="O51" s="4">
+      <c r="P51" s="4">
         <v>15</v>
       </c>
-      <c r="P51" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q51" s="3">
+      <c r="Q51" s="4">
         <v>11</v>
       </c>
       <c r="R51" s="3">
@@ -3993,140 +4128,147 @@
         <v>11</v>
       </c>
       <c r="U51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W51" s="3">
         <v>1</v>
       </c>
-      <c r="X51" s="3"/>
+      <c r="X51" s="3">
+        <v>1</v>
+      </c>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
-    </row>
-    <row r="52" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD51" s="3"/>
+    </row>
+    <row r="52" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
+        <v>6043</v>
+      </c>
+      <c r="C52" s="15">
+        <f t="shared" ref="C52:H52" si="0">SUM(C8:C51)</f>
         <v>5333</v>
       </c>
-      <c r="C52" s="15">
-        <f>SUM(C8:C51)</f>
+      <c r="D52" s="15">
+        <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="D52" s="15">
-        <f>SUM(D8:D51)</f>
+      <c r="E52" s="15">
+        <f t="shared" si="0"/>
         <v>3818</v>
       </c>
-      <c r="E52" s="15">
-        <f>SUM(E8:E51)</f>
+      <c r="F52" s="15">
+        <f t="shared" si="0"/>
         <v>3665</v>
       </c>
-      <c r="F52" s="15">
-        <f>SUM(F8:F51)</f>
+      <c r="G52" s="15">
+        <f t="shared" si="0"/>
         <v>2748</v>
       </c>
-      <c r="G52" s="14">
-        <f>SUM(G8:G51)</f>
+      <c r="H52" s="14">
+        <f t="shared" si="0"/>
         <v>2184</v>
       </c>
-      <c r="H52" s="5">
-        <f t="shared" ref="H52:AC52" si="0">SUM(H8:H51)</f>
+      <c r="I52" s="5">
+        <f t="shared" ref="I52:AD52" si="1">SUM(I8:I51)</f>
         <v>1641</v>
       </c>
-      <c r="I52" s="5">
-        <f t="shared" si="0"/>
+      <c r="J52" s="5">
+        <f t="shared" si="1"/>
         <v>1105</v>
       </c>
-      <c r="J52" s="5">
-        <f t="shared" si="0"/>
+      <c r="K52" s="5">
+        <f t="shared" si="1"/>
         <v>977</v>
       </c>
-      <c r="K52" s="5">
-        <f t="shared" si="0"/>
+      <c r="L52" s="5">
+        <f t="shared" si="1"/>
         <v>827</v>
       </c>
-      <c r="L52" s="5">
-        <f t="shared" si="0"/>
+      <c r="M52" s="5">
+        <f t="shared" si="1"/>
         <v>569</v>
       </c>
-      <c r="M52" s="5">
-        <f t="shared" si="0"/>
+      <c r="N52" s="5">
+        <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="N52" s="5">
-        <f t="shared" si="0"/>
+      <c r="O52" s="5">
+        <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="O52" s="5">
-        <f t="shared" si="0"/>
+      <c r="P52" s="5">
+        <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="P52" s="5">
-        <f t="shared" si="0"/>
+      <c r="Q52" s="5">
+        <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="Q52" s="5">
-        <f t="shared" si="0"/>
+      <c r="R52" s="5">
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="R52" s="5">
-        <f t="shared" si="0"/>
+      <c r="S52" s="5">
+        <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="S52" s="5">
-        <f t="shared" si="0"/>
+      <c r="T52" s="5">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="T52" s="5">
-        <f t="shared" si="0"/>
+      <c r="U52" s="5">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="U52" s="5">
-        <f t="shared" si="0"/>
+      <c r="V52" s="5">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="V52" s="5">
-        <f t="shared" si="0"/>
+      <c r="W52" s="5">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="W52" s="5">
-        <f t="shared" si="0"/>
+      <c r="X52" s="5">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="X52" s="5">
-        <f t="shared" si="0"/>
+      <c r="Y52" s="5">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Y52" s="5">
-        <f t="shared" si="0"/>
+      <c r="Z52" s="5">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Z52" s="5">
-        <f t="shared" si="0"/>
+      <c r="AA52" s="5">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AA52" s="5">
-        <f t="shared" si="0"/>
+      <c r="AB52" s="5">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AB52" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="AC52" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AD52" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>49</v>
       </c>
@@ -4144,16 +4286,17 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dHtQWsLNMkI+wKPsv3iLrQuftb95gy1Abn9gDpklUpGVP+6XTS7fHZAGSsrZXIcze7eSYlUW+d7mqQVSpCG8bw==" saltValue="IY52vMOZdqIdMgZQJAOKoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B0fK1BXM/7E0nm4SA6pk1bxM6mTB3z8Rq/Xr/yicAf5gI3wLnopcDgHM9l3xgumtRYe/lQZ6fhuccrFRX0dB5Q==" saltValue="m8OQkzknBG5sxVXrCXZI9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:O54"/>
+    <mergeCell ref="A54:P54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F52:AC52 B52:D52" formulaRange="1"/>
+    <ignoredError sqref="G52:AD52 C52:E52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>Fälle</t>
   </si>
@@ -602,37 +602,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AD54"/>
+  <dimension ref="A2:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="2" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L3" s="9"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -723,157 +723,163 @@
       <c r="AD6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43915</v>
+      </c>
+      <c r="C7" s="13">
         <v>43914</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43913</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43912</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43911</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43910</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43909</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43908</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43907</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>43906</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="12">
         <v>43905</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>43904</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>43903</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43902</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43901</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43900</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43899</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43898</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43897</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43896</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43895</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43894</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43893</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43892</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43891</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43890</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43889</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43888</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43887</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4">
         <v>64</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>60</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>44</v>
-      </c>
-      <c r="E8" s="4">
-        <v>39</v>
       </c>
       <c r="F8" s="4">
         <v>39</v>
       </c>
       <c r="G8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H8" s="4">
         <v>26</v>
       </c>
       <c r="I8" s="4">
+        <v>26</v>
+      </c>
+      <c r="J8" s="4">
         <v>24</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>13</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>12</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>7</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>6</v>
       </c>
-      <c r="O8" s="3">
-        <v>4</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3</v>
+      <c r="P8" s="3">
+        <v>4</v>
       </c>
       <c r="Q8" s="4">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="4">
         <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>3</v>
       </c>
       <c r="T8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>2</v>
@@ -881,7 +887,9 @@
       <c r="V8" s="3">
         <v>2</v>
       </c>
-      <c r="W8" s="3"/>
+      <c r="W8" s="3">
+        <v>2</v>
+      </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
@@ -889,8 +897,9 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -898,57 +907,59 @@
         <v>36</v>
       </c>
       <c r="C9" s="4">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4">
         <v>33</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>25</v>
-      </c>
-      <c r="E9" s="4">
-        <v>21</v>
       </c>
       <c r="F9" s="4">
         <v>21</v>
       </c>
       <c r="G9" s="4">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4">
         <v>17</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>14</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>12</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>7</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5</v>
       </c>
-      <c r="L9" s="4">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3</v>
-      </c>
-      <c r="N9" s="4">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
+      <c r="M9" s="4">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
+        <v>2</v>
       </c>
       <c r="Q9" s="4">
         <v>1</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="4">
         <v>1</v>
       </c>
       <c r="S9" s="3">
         <v>1</v>
       </c>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -959,19 +970,20 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
+        <v>106</v>
+      </c>
+      <c r="C10" s="4">
         <v>82</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>74</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45</v>
       </c>
       <c r="E10" s="4">
         <v>45</v>
@@ -983,13 +995,13 @@
         <v>45</v>
       </c>
       <c r="H10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I10" s="4">
         <v>17</v>
       </c>
       <c r="J10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K10" s="4">
         <v>5</v>
@@ -997,31 +1009,33 @@
       <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="4">
         <v>5</v>
       </c>
-      <c r="N10" s="4">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="N10" s="3">
+        <v>5</v>
+      </c>
+      <c r="O10" s="4">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>3</v>
       </c>
       <c r="Q10" s="4">
         <v>3</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="4">
         <v>3</v>
       </c>
       <c r="S10" s="3">
         <v>3</v>
       </c>
       <c r="T10" s="3">
-        <v>1</v>
-      </c>
-      <c r="U10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -1031,28 +1045,29 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>233</v>
+      </c>
+      <c r="C11" s="4">
         <v>224</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>187</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>117</v>
-      </c>
-      <c r="E11" s="4">
-        <v>67</v>
       </c>
       <c r="F11" s="4">
         <v>67</v>
       </c>
       <c r="G11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="H11" s="4">
         <v>28</v>
@@ -1061,7 +1076,7 @@
         <v>28</v>
       </c>
       <c r="J11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K11" s="4">
         <v>9</v>
@@ -1069,22 +1084,22 @@
       <c r="L11" s="4">
         <v>9</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="4">
         <v>9</v>
       </c>
-      <c r="N11" s="4">
-        <v>4</v>
-      </c>
-      <c r="O11" s="3">
-        <v>4</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="N11" s="3">
+        <v>9</v>
+      </c>
+      <c r="O11" s="4">
+        <v>4</v>
+      </c>
+      <c r="P11" s="3">
         <v>4</v>
       </c>
       <c r="Q11" s="4">
-        <v>3</v>
-      </c>
-      <c r="R11" s="3">
+        <v>4</v>
+      </c>
+      <c r="R11" s="4">
         <v>3</v>
       </c>
       <c r="S11" s="3">
@@ -1094,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="U11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11" s="3">
         <v>1</v>
@@ -1117,62 +1132,65 @@
       <c r="AB11" s="3">
         <v>1</v>
       </c>
-      <c r="AC11" s="3"/>
+      <c r="AC11" s="3">
+        <v>1</v>
+      </c>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>121</v>
+      </c>
+      <c r="C12" s="4">
         <v>89</v>
-      </c>
-      <c r="C12" s="4">
-        <v>83</v>
       </c>
       <c r="D12" s="4">
         <v>83</v>
       </c>
       <c r="E12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F12" s="4">
         <v>71</v>
       </c>
       <c r="G12" s="4">
+        <v>71</v>
+      </c>
+      <c r="H12" s="4">
         <v>62</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>39</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>31</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>29</v>
-      </c>
-      <c r="K12" s="4">
-        <v>13</v>
       </c>
       <c r="L12" s="4">
         <v>13</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="4">
+        <v>13</v>
+      </c>
+      <c r="N12" s="3">
         <v>8</v>
       </c>
-      <c r="N12" s="4">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="4">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>6</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>5</v>
       </c>
-      <c r="Q12" s="4">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="R12" s="4">
         <v>4</v>
       </c>
       <c r="S12" s="3">
@@ -1182,12 +1200,14 @@
         <v>4</v>
       </c>
       <c r="U12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V12" s="3">
-        <v>1</v>
-      </c>
-      <c r="W12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
@@ -1195,67 +1215,68 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>223</v>
+      </c>
+      <c r="C13" s="4">
         <v>197</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>178</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>167</v>
-      </c>
-      <c r="E13" s="4">
-        <v>134</v>
       </c>
       <c r="F13" s="4">
         <v>134</v>
       </c>
       <c r="G13" s="4">
+        <v>134</v>
+      </c>
+      <c r="H13" s="4">
         <v>101</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>78</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>54</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>45</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>42</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>26</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>19</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>18</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>12</v>
-      </c>
-      <c r="P13" s="4">
-        <v>6</v>
       </c>
       <c r="Q13" s="4">
         <v>6</v>
       </c>
-      <c r="R13" s="3">
-        <v>5</v>
+      <c r="R13" s="4">
+        <v>6</v>
       </c>
       <c r="S13" s="3">
         <v>5</v>
       </c>
       <c r="T13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U13" s="3">
         <v>4</v>
@@ -1264,13 +1285,13 @@
         <v>4</v>
       </c>
       <c r="W13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X13" s="3">
         <v>1</v>
       </c>
       <c r="Y13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="3">
         <v>3</v>
@@ -1281,63 +1302,66 @@
       <c r="AB13" s="3">
         <v>3</v>
       </c>
-      <c r="AC13" s="3"/>
+      <c r="AC13" s="3">
+        <v>3</v>
+      </c>
       <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>182</v>
+      </c>
+      <c r="C14" s="4">
         <v>159</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>150</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>120</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>108</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>92</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>76</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>61</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>51</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>43</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>34</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>26</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>12</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>6</v>
       </c>
-      <c r="Q14" s="4">
-        <v>2</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1</v>
+      <c r="R14" s="4">
+        <v>2</v>
       </c>
       <c r="S14" s="3">
         <v>1</v>
@@ -1345,7 +1369,9 @@
       <c r="T14" s="3">
         <v>1</v>
       </c>
-      <c r="U14" s="3"/>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -1355,142 +1381,148 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>154</v>
+      </c>
+      <c r="C15" s="11">
         <v>141</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>123</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>121</v>
-      </c>
-      <c r="E15" s="11">
-        <v>110</v>
       </c>
       <c r="F15" s="11">
         <v>110</v>
       </c>
       <c r="G15" s="11">
+        <v>110</v>
+      </c>
+      <c r="H15" s="11">
         <v>99</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>60</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>59</v>
-      </c>
-      <c r="J15" s="11">
-        <v>35</v>
       </c>
       <c r="K15" s="11">
         <v>35</v>
       </c>
       <c r="L15" s="11">
+        <v>35</v>
+      </c>
+      <c r="M15" s="11">
         <v>21</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17</v>
       </c>
-      <c r="N15" s="11">
+      <c r="O15" s="11">
         <v>16</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>15</v>
-      </c>
-      <c r="P15" s="11">
-        <v>13</v>
       </c>
       <c r="Q15" s="11">
         <v>13</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="11">
+        <v>13</v>
+      </c>
+      <c r="S15" s="3">
         <v>12</v>
       </c>
-      <c r="S15" s="3">
-        <v>3</v>
-      </c>
       <c r="T15" s="3">
-        <v>1</v>
-      </c>
-      <c r="U15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
       <c r="V15" s="3"/>
-      <c r="W15" s="3">
-        <v>1</v>
-      </c>
+      <c r="W15" s="3"/>
       <c r="X15" s="3">
         <v>1</v>
       </c>
-      <c r="Y15" s="3"/>
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4">
         <v>45</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>37</v>
-      </c>
-      <c r="D16" s="4">
-        <v>33</v>
       </c>
       <c r="E16" s="4">
         <v>33</v>
       </c>
       <c r="F16" s="4">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4">
         <v>24</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>21</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>9</v>
       </c>
-      <c r="J16" s="4">
-        <v>4</v>
-      </c>
       <c r="K16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="4">
         <v>3</v>
       </c>
-      <c r="M16" s="3">
-        <v>3</v>
-      </c>
-      <c r="N16" s="4">
-        <v>3</v>
-      </c>
-      <c r="O16" s="3">
-        <v>2</v>
-      </c>
-      <c r="P16" s="4">
-        <v>1</v>
+      <c r="M16" s="4">
+        <v>3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>3</v>
+      </c>
+      <c r="O16" s="4">
+        <v>3</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2</v>
       </c>
       <c r="Q16" s="4">
         <v>1</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="4">
         <v>1</v>
       </c>
       <c r="S16" s="3">
         <v>1</v>
       </c>
-      <c r="T16" s="3"/>
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -1501,139 +1533,143 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>493</v>
+      </c>
+      <c r="C17" s="4">
         <v>462</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>435</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>362</v>
-      </c>
-      <c r="E17" s="4">
-        <v>323</v>
       </c>
       <c r="F17" s="4">
         <v>323</v>
       </c>
       <c r="G17" s="4">
+        <v>323</v>
+      </c>
+      <c r="H17" s="4">
         <v>234</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>193</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>128</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>123</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>111</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>82</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>47</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>23</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>18</v>
-      </c>
-      <c r="R17" s="3">
-        <v>16</v>
       </c>
       <c r="S17" s="3">
         <v>16</v>
       </c>
       <c r="T17" s="3">
+        <v>16</v>
+      </c>
+      <c r="U17" s="3">
         <v>14</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13</v>
-      </c>
-      <c r="V17" s="3">
-        <v>5</v>
       </c>
       <c r="W17" s="3">
         <v>5</v>
       </c>
-      <c r="X17" s="3"/>
+      <c r="X17" s="3">
+        <v>5</v>
+      </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4">
+        <v>254</v>
+      </c>
+      <c r="C18" s="4">
         <v>227</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>212</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>191</v>
-      </c>
-      <c r="E18" s="4">
-        <v>150</v>
       </c>
       <c r="F18" s="4">
         <v>150</v>
       </c>
       <c r="G18" s="4">
+        <v>150</v>
+      </c>
+      <c r="H18" s="4">
         <v>114</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>79</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>62</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>53</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>43</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>34</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>18</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13</v>
-      </c>
-      <c r="P18" s="4">
-        <v>12</v>
       </c>
       <c r="Q18" s="4">
         <v>12</v>
       </c>
-      <c r="R18" s="3">
-        <v>8</v>
+      <c r="R18" s="4">
+        <v>12</v>
       </c>
       <c r="S18" s="3">
         <v>8</v>
@@ -1642,42 +1678,45 @@
         <v>8</v>
       </c>
       <c r="U18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V18" s="3">
         <v>6</v>
       </c>
       <c r="W18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X18" s="3">
         <v>4</v>
       </c>
       <c r="Y18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4">
         <v>39</v>
       </c>
       <c r="D19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4">
         <v>14</v>
@@ -1692,31 +1731,33 @@
         <v>14</v>
       </c>
       <c r="I19" s="4">
+        <v>14</v>
+      </c>
+      <c r="J19" s="4">
         <v>10</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>8</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>7</v>
       </c>
-      <c r="L19" s="4">
-        <v>3</v>
-      </c>
-      <c r="M19" s="3">
-        <v>2</v>
-      </c>
-      <c r="N19" s="4">
-        <v>2</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="3"/>
+      <c r="M19" s="4">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -1729,19 +1770,20 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C20" s="4">
         <v>166</v>
       </c>
       <c r="D20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="E20" s="4">
         <v>97</v>
@@ -1750,46 +1792,46 @@
         <v>97</v>
       </c>
       <c r="G20" s="4">
+        <v>97</v>
+      </c>
+      <c r="H20" s="4">
         <v>60</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>59</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>39</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>29</v>
-      </c>
-      <c r="K20" s="4">
-        <v>16</v>
       </c>
       <c r="L20" s="4">
         <v>16</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="4">
+        <v>16</v>
+      </c>
+      <c r="N20" s="3">
         <v>14</v>
       </c>
-      <c r="N20" s="4">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1</v>
-      </c>
-      <c r="P20" s="4">
-        <v>4</v>
+      <c r="O20" s="4">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1</v>
       </c>
       <c r="Q20" s="4">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
+        <v>4</v>
+      </c>
+      <c r="R20" s="4">
         <v>3</v>
       </c>
       <c r="S20" s="3">
         <v>3</v>
       </c>
       <c r="T20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U20" s="3">
         <v>2</v>
@@ -1813,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="AB20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC20" s="3">
         <v>1</v>
@@ -1821,25 +1863,28 @@
       <c r="AD20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="4">
+        <v>109</v>
+      </c>
+      <c r="C21" s="4">
         <v>98</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>89</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
       </c>
       <c r="E21" s="4">
         <v>5</v>
       </c>
       <c r="F21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
@@ -1848,40 +1893,40 @@
         <v>3</v>
       </c>
       <c r="I21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="4">
         <v>2</v>
       </c>
       <c r="K21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" s="4">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
-        <v>2</v>
-      </c>
-      <c r="N21" s="4">
-        <v>2</v>
-      </c>
-      <c r="O21" s="3">
-        <v>2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>5</v>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
+        <v>2</v>
       </c>
       <c r="Q21" s="4">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="4">
         <v>5</v>
       </c>
       <c r="S21" s="3">
         <v>5</v>
       </c>
       <c r="T21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U21" s="3">
         <v>2</v>
@@ -1889,7 +1934,9 @@
       <c r="V21" s="3">
         <v>2</v>
       </c>
-      <c r="W21" s="3"/>
+      <c r="W21" s="3">
+        <v>2</v>
+      </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
@@ -1897,67 +1944,68 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>97</v>
+      </c>
+      <c r="C22" s="4">
         <v>62</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>60</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>57</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>47</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>39</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>34</v>
-      </c>
-      <c r="H22" s="4">
-        <v>17</v>
       </c>
       <c r="I22" s="4">
         <v>17</v>
       </c>
       <c r="J22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K22" s="4">
         <v>21</v>
       </c>
       <c r="L22" s="4">
+        <v>21</v>
+      </c>
+      <c r="M22" s="4">
         <v>19</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>4</v>
-      </c>
-      <c r="P22" s="4">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>4</v>
       </c>
       <c r="Q22" s="4">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="4">
         <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>3</v>
       </c>
       <c r="T22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>1</v>
@@ -1965,7 +2013,9 @@
       <c r="V22" s="3">
         <v>1</v>
       </c>
-      <c r="W22" s="3"/>
+      <c r="W22" s="3">
+        <v>1</v>
+      </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
@@ -1973,82 +2023,83 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>236</v>
+      </c>
+      <c r="C23" s="11">
         <v>212</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>197</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>165</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>140</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>118</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>110</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>71</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>57</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>50</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>47</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>37</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>32</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30</v>
-      </c>
-      <c r="P23" s="11">
-        <v>26</v>
       </c>
       <c r="Q23" s="11">
         <v>26</v>
       </c>
-      <c r="R23" s="3">
-        <v>20</v>
+      <c r="R23" s="11">
+        <v>26</v>
       </c>
       <c r="S23" s="3">
         <v>20</v>
       </c>
       <c r="T23" s="3">
+        <v>20</v>
+      </c>
+      <c r="U23" s="3">
         <v>14</v>
-      </c>
-      <c r="U23" s="3">
-        <v>10</v>
       </c>
       <c r="V23" s="3">
         <v>10</v>
       </c>
       <c r="W23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X23" s="3">
         <v>8</v>
       </c>
       <c r="Y23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z23" s="3">
         <v>1</v>
@@ -2056,61 +2107,64 @@
       <c r="AA23" s="3">
         <v>1</v>
       </c>
-      <c r="AB23" s="3"/>
+      <c r="AB23" s="3">
+        <v>1</v>
+      </c>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="11">
+        <v>71</v>
+      </c>
+      <c r="C24" s="11">
         <v>60</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>55</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="11">
         <v>28</v>
-      </c>
-      <c r="E24" s="11">
-        <v>20</v>
       </c>
       <c r="F24" s="11">
         <v>20</v>
       </c>
       <c r="G24" s="11">
+        <v>20</v>
+      </c>
+      <c r="H24" s="11">
         <v>19</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>13</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>9</v>
       </c>
-      <c r="J24" s="11">
-        <v>4</v>
-      </c>
       <c r="K24" s="11">
         <v>4</v>
       </c>
       <c r="L24" s="11">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>1</v>
-      </c>
-      <c r="N24" s="11">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="11">
-        <v>3</v>
-      </c>
+      <c r="M24" s="11">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="11">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3"/>
       <c r="Q24" s="11">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="11">
         <v>3</v>
       </c>
       <c r="S24" s="3">
@@ -2120,23 +2174,26 @@
         <v>3</v>
       </c>
       <c r="U24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V24" s="3">
         <v>2</v>
       </c>
-      <c r="W24" s="3"/>
+      <c r="W24" s="3">
+        <v>2</v>
+      </c>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3">
+        <v>1</v>
+      </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2144,28 +2201,28 @@
         <v>278</v>
       </c>
       <c r="C25" s="4">
+        <v>278</v>
+      </c>
+      <c r="D25" s="4">
         <v>257</v>
-      </c>
-      <c r="D25" s="4">
-        <v>222</v>
       </c>
       <c r="E25" s="4">
         <v>222</v>
       </c>
       <c r="F25" s="4">
+        <v>222</v>
+      </c>
+      <c r="G25" s="4">
         <v>182</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>154</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>135</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>64</v>
-      </c>
-      <c r="J25" s="4">
-        <v>29</v>
       </c>
       <c r="K25" s="4">
         <v>29</v>
@@ -2173,23 +2230,23 @@
       <c r="L25" s="4">
         <v>29</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="4">
+        <v>29</v>
+      </c>
+      <c r="N25" s="3">
         <v>8</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>8</v>
       </c>
-      <c r="O25" s="3">
+      <c r="P25" s="3">
         <v>6</v>
       </c>
-      <c r="P25" s="4">
-        <v>2</v>
-      </c>
       <c r="Q25" s="4">
         <v>2</v>
       </c>
-      <c r="R25" s="3">
-        <v>1</v>
+      <c r="R25" s="4">
+        <v>2</v>
       </c>
       <c r="S25" s="3">
         <v>1</v>
@@ -2200,7 +2257,9 @@
       <c r="U25" s="3">
         <v>1</v>
       </c>
-      <c r="V25" s="3"/>
+      <c r="V25" s="3">
+        <v>1</v>
+      </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
@@ -2209,73 +2268,74 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
+        <v>189</v>
+      </c>
+      <c r="C26" s="11">
         <v>172</v>
       </c>
-      <c r="C26" s="11">
+      <c r="D26" s="11">
         <v>154</v>
       </c>
-      <c r="D26" s="11">
+      <c r="E26" s="11">
         <v>104</v>
-      </c>
-      <c r="E26" s="11">
-        <v>96</v>
       </c>
       <c r="F26" s="11">
         <v>96</v>
       </c>
       <c r="G26" s="11">
+        <v>96</v>
+      </c>
+      <c r="H26" s="11">
         <v>75</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>63</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>47</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>24</v>
-      </c>
-      <c r="K26" s="11">
-        <v>29</v>
       </c>
       <c r="L26" s="11">
         <v>29</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="11">
+        <v>29</v>
+      </c>
+      <c r="N26" s="3">
         <v>16</v>
       </c>
-      <c r="N26" s="11">
+      <c r="O26" s="11">
         <v>16</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12</v>
       </c>
-      <c r="P26" s="11">
+      <c r="Q26" s="11">
         <v>9</v>
       </c>
-      <c r="Q26" s="11">
-        <v>7</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="11">
         <v>7</v>
       </c>
       <c r="S26" s="3">
         <v>7</v>
       </c>
       <c r="T26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26" s="3">
         <v>1</v>
@@ -2292,22 +2352,25 @@
       <c r="AA26" s="3">
         <v>1</v>
       </c>
-      <c r="AB26" s="3"/>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="11">
+        <v>85</v>
+      </c>
+      <c r="C27" s="11">
         <v>74</v>
       </c>
-      <c r="C27" s="11">
+      <c r="D27" s="11">
         <v>60</v>
-      </c>
-      <c r="D27" s="11">
-        <v>42</v>
       </c>
       <c r="E27" s="11">
         <v>42</v>
@@ -2316,16 +2379,16 @@
         <v>42</v>
       </c>
       <c r="G27" s="11">
+        <v>42</v>
+      </c>
+      <c r="H27" s="11">
         <v>34</v>
       </c>
-      <c r="H27" s="11">
+      <c r="I27" s="11">
         <v>29</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11">
         <v>26</v>
-      </c>
-      <c r="J27" s="11">
-        <v>14</v>
       </c>
       <c r="K27" s="11">
         <v>14</v>
@@ -2333,20 +2396,22 @@
       <c r="L27" s="11">
         <v>14</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="11">
+        <v>14</v>
+      </c>
+      <c r="N27" s="3">
         <v>8</v>
       </c>
-      <c r="N27" s="11">
+      <c r="O27" s="11">
         <v>8</v>
       </c>
-      <c r="O27" s="3">
-        <v>3</v>
-      </c>
-      <c r="P27" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="3"/>
+      <c r="P27" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>2</v>
+      </c>
+      <c r="R27" s="11"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -2359,19 +2424,20 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>89</v>
+      </c>
+      <c r="C28" s="4">
         <v>81</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>70</v>
-      </c>
-      <c r="D28" s="4">
-        <v>52</v>
       </c>
       <c r="E28" s="4">
         <v>52</v>
@@ -2380,16 +2446,16 @@
         <v>52</v>
       </c>
       <c r="G28" s="4">
+        <v>52</v>
+      </c>
+      <c r="H28" s="4">
         <v>43</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>34</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>28</v>
-      </c>
-      <c r="J28" s="4">
-        <v>20</v>
       </c>
       <c r="K28" s="4">
         <v>20</v>
@@ -2397,28 +2463,30 @@
       <c r="L28" s="4">
         <v>20</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="4">
+        <v>20</v>
+      </c>
+      <c r="N28" s="3">
         <v>7</v>
       </c>
-      <c r="N28" s="4">
-        <v>2</v>
-      </c>
-      <c r="O28" s="3">
-        <v>2</v>
-      </c>
-      <c r="P28" s="4">
-        <v>1</v>
+      <c r="O28" s="4">
+        <v>2</v>
+      </c>
+      <c r="P28" s="3">
+        <v>2</v>
       </c>
       <c r="Q28" s="4">
         <v>1</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="4">
         <v>1</v>
       </c>
       <c r="S28" s="3">
         <v>1</v>
       </c>
-      <c r="T28" s="3"/>
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -2429,16 +2497,17 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>136</v>
+      </c>
+      <c r="C29" s="4">
         <v>101</v>
-      </c>
-      <c r="C29" s="4">
-        <v>57</v>
       </c>
       <c r="D29" s="4">
         <v>57</v>
@@ -2450,16 +2519,16 @@
         <v>57</v>
       </c>
       <c r="G29" s="4">
+        <v>57</v>
+      </c>
+      <c r="H29" s="4">
         <v>41</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>25</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>16</v>
-      </c>
-      <c r="J29" s="4">
-        <v>10</v>
       </c>
       <c r="K29" s="4">
         <v>10</v>
@@ -2467,20 +2536,20 @@
       <c r="L29" s="4">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="4">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>6</v>
       </c>
-      <c r="N29" s="4">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="4">
-        <v>1</v>
-      </c>
+      <c r="O29" s="4">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3"/>
       <c r="Q29" s="4">
         <v>1</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="4">
         <v>1</v>
       </c>
       <c r="S29" s="3">
@@ -2498,44 +2567,47 @@
       <c r="W29" s="3">
         <v>1</v>
       </c>
-      <c r="X29" s="3"/>
+      <c r="X29" s="3">
+        <v>1</v>
+      </c>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>352</v>
+      </c>
+      <c r="C30" s="4">
         <v>275</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>250</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>236</v>
-      </c>
-      <c r="E30" s="4">
-        <v>175</v>
       </c>
       <c r="F30" s="4">
         <v>175</v>
       </c>
       <c r="G30" s="4">
+        <v>175</v>
+      </c>
+      <c r="H30" s="4">
         <v>126</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>112</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>87</v>
-      </c>
-      <c r="J30" s="4">
-        <v>38</v>
       </c>
       <c r="K30" s="4">
         <v>38</v>
@@ -2543,41 +2615,41 @@
       <c r="L30" s="4">
         <v>38</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="4">
+        <v>38</v>
+      </c>
+      <c r="N30" s="3">
         <v>24</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>18</v>
       </c>
-      <c r="O30" s="3">
+      <c r="P30" s="3">
         <v>11</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>11</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <v>8</v>
-      </c>
-      <c r="R30" s="3">
-        <v>7</v>
       </c>
       <c r="S30" s="3">
         <v>7</v>
       </c>
       <c r="T30" s="3">
+        <v>7</v>
+      </c>
+      <c r="U30" s="3">
         <v>5</v>
       </c>
-      <c r="U30" s="3">
-        <v>3</v>
-      </c>
       <c r="V30" s="3">
         <v>3</v>
       </c>
       <c r="W30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y30" s="3">
         <v>1</v>
@@ -2588,22 +2660,25 @@
       <c r="AA30" s="3">
         <v>1</v>
       </c>
-      <c r="AB30" s="3"/>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4">
         <v>53</v>
       </c>
       <c r="D31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E31" s="4">
         <v>36</v>
@@ -2612,10 +2687,10 @@
         <v>36</v>
       </c>
       <c r="G31" s="4">
+        <v>36</v>
+      </c>
+      <c r="H31" s="4">
         <v>33</v>
-      </c>
-      <c r="H31" s="4">
-        <v>31</v>
       </c>
       <c r="I31" s="4">
         <v>31</v>
@@ -2627,39 +2702,41 @@
         <v>31</v>
       </c>
       <c r="L31" s="4">
+        <v>31</v>
+      </c>
+      <c r="M31" s="4">
         <v>30</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>28</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>24</v>
       </c>
-      <c r="O31" s="3">
-        <v>24</v>
-      </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <v>24</v>
       </c>
       <c r="Q31" s="4">
         <v>24</v>
       </c>
-      <c r="R31" s="3">
-        <v>23</v>
+      <c r="R31" s="4">
+        <v>24</v>
       </c>
       <c r="S31" s="3">
         <v>23</v>
       </c>
       <c r="T31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="U31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31" s="3">
         <v>1</v>
       </c>
-      <c r="W31" s="3"/>
+      <c r="W31" s="3">
+        <v>1</v>
+      </c>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
@@ -2667,16 +2744,17 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="4">
+        <v>145</v>
+      </c>
+      <c r="C32" s="4">
         <v>135</v>
-      </c>
-      <c r="C32" s="4">
-        <v>80</v>
       </c>
       <c r="D32" s="4">
         <v>80</v>
@@ -2688,13 +2766,13 @@
         <v>80</v>
       </c>
       <c r="G32" s="4">
+        <v>80</v>
+      </c>
+      <c r="H32" s="4">
         <v>73</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>71</v>
-      </c>
-      <c r="I32" s="4">
-        <v>27</v>
       </c>
       <c r="J32" s="4">
         <v>27</v>
@@ -2705,38 +2783,38 @@
       <c r="L32" s="4">
         <v>27</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="4">
+        <v>27</v>
+      </c>
+      <c r="N32" s="3">
         <v>22</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>12</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12</v>
-      </c>
-      <c r="P32" s="4">
-        <v>9</v>
       </c>
       <c r="Q32" s="4">
         <v>9</v>
       </c>
-      <c r="R32" s="3">
-        <v>7</v>
+      <c r="R32" s="4">
+        <v>9</v>
       </c>
       <c r="S32" s="3">
         <v>7</v>
       </c>
       <c r="T32" s="3">
+        <v>7</v>
+      </c>
+      <c r="U32" s="3">
         <v>5</v>
       </c>
-      <c r="U32" s="3">
-        <v>4</v>
-      </c>
       <c r="V32" s="3">
         <v>4</v>
       </c>
       <c r="W32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X32" s="3">
         <v>3</v>
@@ -2744,65 +2822,68 @@
       <c r="Y32" s="3">
         <v>3</v>
       </c>
-      <c r="Z32" s="3"/>
+      <c r="Z32" s="3">
+        <v>3</v>
+      </c>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>45</v>
+      </c>
+      <c r="C33" s="4">
         <v>40</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>35</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>30</v>
-      </c>
-      <c r="E33" s="4">
-        <v>26</v>
       </c>
       <c r="F33" s="4">
         <v>26</v>
       </c>
       <c r="G33" s="4">
+        <v>26</v>
+      </c>
+      <c r="H33" s="4">
         <v>20</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>17</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>14</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>7</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>10</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>6</v>
       </c>
-      <c r="M33" s="3">
-        <v>4</v>
-      </c>
-      <c r="N33" s="4">
-        <v>2</v>
-      </c>
-      <c r="O33" s="3">
-        <v>2</v>
-      </c>
-      <c r="P33" s="4">
-        <v>1</v>
+      <c r="N33" s="3">
+        <v>4</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2</v>
+      </c>
+      <c r="P33" s="3">
+        <v>2</v>
       </c>
       <c r="Q33" s="4">
         <v>1</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="4">
         <v>1</v>
       </c>
       <c r="S33" s="3">
@@ -2811,7 +2892,9 @@
       <c r="T33" s="3">
         <v>1</v>
       </c>
-      <c r="U33" s="3"/>
+      <c r="U33" s="3">
+        <v>1</v>
+      </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -2821,69 +2904,72 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="4">
+        <v>135</v>
+      </c>
+      <c r="C34" s="4">
         <v>120</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>104</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>82</v>
-      </c>
-      <c r="E34" s="4">
-        <v>71</v>
       </c>
       <c r="F34" s="4">
         <v>71</v>
       </c>
       <c r="G34" s="4">
+        <v>71</v>
+      </c>
+      <c r="H34" s="4">
         <v>55</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>45</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>38</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>28</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>25</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>22</v>
       </c>
-      <c r="M34" s="3">
+      <c r="N34" s="3">
         <v>16</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>13</v>
       </c>
-      <c r="O34" s="3">
+      <c r="P34" s="3">
         <v>13</v>
-      </c>
-      <c r="P34" s="4">
-        <v>12</v>
       </c>
       <c r="Q34" s="4">
         <v>12</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="4">
+        <v>12</v>
+      </c>
+      <c r="S34" s="3">
         <v>7</v>
       </c>
-      <c r="S34" s="3">
+      <c r="T34" s="3">
         <v>6</v>
       </c>
-      <c r="T34" s="3">
-        <v>2</v>
-      </c>
-      <c r="U34" s="3"/>
+      <c r="U34" s="3">
+        <v>2</v>
+      </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -2893,61 +2979,62 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>171</v>
+      </c>
+      <c r="C35" s="4">
         <v>140</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>121</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>113</v>
-      </c>
-      <c r="E35" s="4">
-        <v>91</v>
       </c>
       <c r="F35" s="4">
         <v>91</v>
       </c>
       <c r="G35" s="4">
+        <v>91</v>
+      </c>
+      <c r="H35" s="4">
         <v>85</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>46</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>41</v>
-      </c>
-      <c r="J35" s="4">
-        <v>31</v>
       </c>
       <c r="K35" s="4">
         <v>31</v>
       </c>
       <c r="L35" s="4">
+        <v>31</v>
+      </c>
+      <c r="M35" s="4">
         <v>20</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>7</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5</v>
       </c>
-      <c r="P35" s="4">
-        <v>4</v>
-      </c>
       <c r="Q35" s="4">
         <v>4</v>
       </c>
-      <c r="R35" s="3">
-        <v>3</v>
+      <c r="R35" s="4">
+        <v>4</v>
       </c>
       <c r="S35" s="3">
         <v>3</v>
@@ -2962,65 +3049,70 @@
         <v>3</v>
       </c>
       <c r="W35" s="3">
-        <v>1</v>
-      </c>
-      <c r="X35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="X35" s="3">
+        <v>1</v>
+      </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="4">
+        <v>20</v>
+      </c>
+      <c r="C36" s="4">
         <v>19</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>18</v>
-      </c>
-      <c r="D36" s="4">
-        <v>16</v>
       </c>
       <c r="E36" s="4">
         <v>16</v>
       </c>
       <c r="F36" s="4">
+        <v>16</v>
+      </c>
+      <c r="G36" s="4">
         <v>14</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>11</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>7</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>6</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>5</v>
       </c>
-      <c r="K36" s="4">
-        <v>4</v>
-      </c>
       <c r="L36" s="4">
         <v>4</v>
       </c>
-      <c r="M36" s="3">
-        <v>4</v>
-      </c>
-      <c r="N36" s="4">
-        <v>4</v>
-      </c>
-      <c r="O36" s="3">
-        <v>3</v>
-      </c>
-      <c r="P36" s="4"/>
+      <c r="M36" s="4">
+        <v>4</v>
+      </c>
+      <c r="N36" s="3">
+        <v>4</v>
+      </c>
+      <c r="O36" s="4">
+        <v>4</v>
+      </c>
+      <c r="P36" s="3">
+        <v>3</v>
+      </c>
       <c r="Q36" s="4"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="4"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -3033,66 +3125,69 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE36" s="3"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>180</v>
+      </c>
+      <c r="C37" s="4">
         <v>156</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>146</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>100</v>
-      </c>
-      <c r="E37" s="4">
-        <v>81</v>
       </c>
       <c r="F37" s="4">
         <v>81</v>
       </c>
       <c r="G37" s="4">
+        <v>81</v>
+      </c>
+      <c r="H37" s="4">
         <v>64</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>53</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>37</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>34</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>26</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>19</v>
       </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
         <v>12</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>11</v>
       </c>
-      <c r="O37" s="3">
-        <v>3</v>
-      </c>
-      <c r="P37" s="4">
-        <v>4</v>
+      <c r="P37" s="3">
+        <v>3</v>
       </c>
       <c r="Q37" s="4">
-        <v>3</v>
-      </c>
-      <c r="R37" s="3">
+        <v>4</v>
+      </c>
+      <c r="R37" s="4">
         <v>3</v>
       </c>
       <c r="S37" s="3">
-        <v>2</v>
-      </c>
-      <c r="T37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="T37" s="3">
+        <v>2</v>
+      </c>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -3103,19 +3198,20 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE37" s="3"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>255</v>
+      </c>
+      <c r="C38" s="4">
         <v>176</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>127</v>
-      </c>
-      <c r="D38" s="4">
-        <v>110</v>
       </c>
       <c r="E38" s="4">
         <v>110</v>
@@ -3124,51 +3220,53 @@
         <v>110</v>
       </c>
       <c r="G38" s="4">
+        <v>110</v>
+      </c>
+      <c r="H38" s="4">
         <v>88</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>55</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>13</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>12</v>
-      </c>
-      <c r="K38" s="4">
-        <v>8</v>
       </c>
       <c r="L38" s="4">
         <v>8</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="4">
         <v>8</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="3">
+        <v>8</v>
+      </c>
+      <c r="O38" s="4">
         <v>5</v>
       </c>
-      <c r="O38" s="3">
+      <c r="P38" s="3">
         <v>5</v>
       </c>
-      <c r="P38" s="4">
+      <c r="Q38" s="4">
         <v>6</v>
       </c>
-      <c r="Q38" s="4">
-        <v>3</v>
-      </c>
-      <c r="R38" s="3">
+      <c r="R38" s="4">
         <v>3</v>
       </c>
       <c r="S38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T38" s="3">
         <v>2</v>
       </c>
       <c r="U38" s="3">
-        <v>1</v>
-      </c>
-      <c r="V38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="V38" s="3">
+        <v>1</v>
+      </c>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
@@ -3177,16 +3275,17 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="3"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
+        <v>190</v>
+      </c>
+      <c r="C39" s="4">
         <v>172</v>
-      </c>
-      <c r="C39" s="4">
-        <v>117</v>
       </c>
       <c r="D39" s="4">
         <v>117</v>
@@ -3198,16 +3297,16 @@
         <v>117</v>
       </c>
       <c r="G39" s="4">
+        <v>117</v>
+      </c>
+      <c r="H39" s="4">
         <v>79</v>
-      </c>
-      <c r="H39" s="4">
-        <v>49</v>
       </c>
       <c r="I39" s="4">
         <v>49</v>
       </c>
       <c r="J39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="K39" s="4">
         <v>23</v>
@@ -3215,98 +3314,103 @@
       <c r="L39" s="4">
         <v>23</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="4">
         <v>23</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="3">
+        <v>23</v>
+      </c>
+      <c r="O39" s="4">
         <v>10</v>
       </c>
-      <c r="O39" s="3">
+      <c r="P39" s="3">
         <v>5</v>
       </c>
-      <c r="P39" s="4">
+      <c r="Q39" s="4">
         <v>6</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="R39" s="4">
         <v>5</v>
       </c>
-      <c r="R39" s="3">
+      <c r="S39" s="3">
         <v>5</v>
       </c>
-      <c r="S39" s="3">
-        <v>4</v>
-      </c>
       <c r="T39" s="3">
         <v>4</v>
       </c>
       <c r="U39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V39" s="3">
         <v>2</v>
       </c>
       <c r="W39" s="3">
-        <v>1</v>
-      </c>
-      <c r="X39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="X39" s="3">
+        <v>1</v>
+      </c>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>167</v>
+      </c>
+      <c r="C40" s="4">
         <v>117</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>113</v>
-      </c>
-      <c r="D40" s="4">
-        <v>95</v>
       </c>
       <c r="E40" s="4">
         <v>95</v>
       </c>
       <c r="F40" s="4">
+        <v>95</v>
+      </c>
+      <c r="G40" s="4">
         <v>94</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>43</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>33</v>
-      </c>
-      <c r="I40" s="4">
-        <v>31</v>
       </c>
       <c r="J40" s="4">
         <v>31</v>
       </c>
       <c r="K40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L40" s="4">
         <v>19</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="4">
+        <v>19</v>
+      </c>
+      <c r="N40" s="3">
         <v>11</v>
       </c>
-      <c r="N40" s="4">
+      <c r="O40" s="4">
         <v>7</v>
       </c>
-      <c r="O40" s="3">
+      <c r="P40" s="3">
         <v>5</v>
       </c>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="3"/>
+      <c r="Q40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
@@ -3319,37 +3423,38 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>357</v>
+      </c>
+      <c r="C41" s="4">
         <v>317</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>276</v>
-      </c>
-      <c r="D41" s="4">
-        <v>240</v>
       </c>
       <c r="E41" s="4">
         <v>240</v>
       </c>
       <c r="F41" s="4">
+        <v>240</v>
+      </c>
+      <c r="G41" s="4">
         <v>215</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>144</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>127</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>76</v>
-      </c>
-      <c r="J41" s="4">
-        <v>38</v>
       </c>
       <c r="K41" s="4">
         <v>38</v>
@@ -3357,38 +3462,38 @@
       <c r="L41" s="4">
         <v>38</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="4">
+        <v>38</v>
+      </c>
+      <c r="N41" s="3">
         <v>28</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>28</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <v>14</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="4">
         <v>13</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7</v>
       </c>
-      <c r="T41" s="3">
-        <v>4</v>
-      </c>
       <c r="U41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X41" s="3">
         <v>1</v>
@@ -3402,19 +3507,22 @@
       <c r="AA41" s="3">
         <v>1</v>
       </c>
-      <c r="AB41" s="3"/>
+      <c r="AB41" s="3">
+        <v>1</v>
+      </c>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
+        <v>29</v>
+      </c>
+      <c r="C42" s="4">
         <v>9</v>
-      </c>
-      <c r="C42" s="4">
-        <v>8</v>
       </c>
       <c r="D42" s="4">
         <v>8</v>
@@ -3423,42 +3531,42 @@
         <v>8</v>
       </c>
       <c r="F42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" s="4">
+        <v>3</v>
+      </c>
+      <c r="J42" s="4">
         <v>5</v>
       </c>
-      <c r="J42" s="4">
-        <v>4</v>
-      </c>
       <c r="K42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L42" s="4">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>2</v>
-      </c>
-      <c r="N42" s="4">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4">
+      <c r="M42" s="4">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3">
         <v>1</v>
       </c>
       <c r="Q42" s="4">
         <v>1</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="4">
         <v>1</v>
       </c>
       <c r="S42" s="3">
@@ -3494,38 +3602,41 @@
       <c r="AC42" s="3">
         <v>1</v>
       </c>
-      <c r="AD42" s="3"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="3"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>175</v>
+      </c>
+      <c r="C43" s="4">
         <v>148</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>145</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>111</v>
-      </c>
-      <c r="E43" s="4">
-        <v>98</v>
       </c>
       <c r="F43" s="4">
         <v>98</v>
       </c>
       <c r="G43" s="4">
+        <v>98</v>
+      </c>
+      <c r="H43" s="4">
         <v>61</v>
       </c>
-      <c r="H43" s="4">
+      <c r="I43" s="4">
         <v>47</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>34</v>
-      </c>
-      <c r="J43" s="4">
-        <v>21</v>
       </c>
       <c r="K43" s="4">
         <v>21</v>
@@ -3533,20 +3644,22 @@
       <c r="L43" s="4">
         <v>21</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="4">
+        <v>21</v>
+      </c>
+      <c r="N43" s="3">
         <v>17</v>
       </c>
-      <c r="N43" s="4">
+      <c r="O43" s="4">
         <v>15</v>
       </c>
-      <c r="O43" s="3"/>
-      <c r="P43" s="4">
-        <v>1</v>
-      </c>
+      <c r="P43" s="3"/>
       <c r="Q43" s="4">
         <v>1</v>
       </c>
-      <c r="R43" s="3"/>
+      <c r="R43" s="4">
+        <v>1</v>
+      </c>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -3559,37 +3672,38 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
+        <v>123</v>
+      </c>
+      <c r="C44" s="4">
         <v>81</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>78</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>69</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>48</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>39</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>28</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>27</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>16</v>
-      </c>
-      <c r="J44" s="4">
-        <v>6</v>
       </c>
       <c r="K44" s="4">
         <v>6</v>
@@ -3597,28 +3711,30 @@
       <c r="L44" s="4">
         <v>6</v>
       </c>
-      <c r="M44" s="3">
-        <v>3</v>
-      </c>
-      <c r="N44" s="4">
-        <v>2</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2</v>
-      </c>
-      <c r="P44" s="4">
-        <v>1</v>
+      <c r="M44" s="4">
+        <v>6</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3</v>
+      </c>
+      <c r="O44" s="4">
+        <v>2</v>
+      </c>
+      <c r="P44" s="3">
+        <v>2</v>
       </c>
       <c r="Q44" s="4">
         <v>1</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="4">
         <v>1</v>
       </c>
       <c r="S44" s="3">
         <v>1</v>
       </c>
-      <c r="T44" s="3"/>
+      <c r="T44" s="3">
+        <v>1</v>
+      </c>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -3629,60 +3745,61 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>161</v>
+      </c>
+      <c r="C45" s="4">
         <v>123</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>99</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>83</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>82</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>67</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>41</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>28</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>22</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>16</v>
-      </c>
-      <c r="K45" s="4">
-        <v>12</v>
       </c>
       <c r="L45" s="4">
         <v>12</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="4">
+        <v>12</v>
+      </c>
+      <c r="N45" s="3">
         <v>6</v>
       </c>
-      <c r="N45" s="4">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>3</v>
-      </c>
-      <c r="P45" s="4">
+      <c r="O45" s="4">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>3</v>
       </c>
       <c r="Q45" s="4">
-        <v>1</v>
-      </c>
-      <c r="R45" s="3">
+        <v>3</v>
+      </c>
+      <c r="R45" s="4">
         <v>1</v>
       </c>
       <c r="S45" s="3">
@@ -3697,7 +3814,9 @@
       <c r="V45" s="3">
         <v>1</v>
       </c>
-      <c r="W45" s="3"/>
+      <c r="W45" s="3">
+        <v>1</v>
+      </c>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
@@ -3705,28 +3824,29 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>504</v>
+      </c>
+      <c r="C46" s="4">
         <v>451</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>441</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>350</v>
-      </c>
-      <c r="E46" s="4">
-        <v>308</v>
       </c>
       <c r="F46" s="4">
         <v>308</v>
       </c>
       <c r="G46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="H46" s="4">
         <v>196</v>
@@ -3735,7 +3855,7 @@
         <v>196</v>
       </c>
       <c r="J46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="K46" s="4">
         <v>60</v>
@@ -3743,37 +3863,39 @@
       <c r="L46" s="4">
         <v>60</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="4">
+        <v>60</v>
+      </c>
+      <c r="N46" s="3">
         <v>40</v>
       </c>
-      <c r="N46" s="4">
+      <c r="O46" s="4">
         <v>35</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24</v>
       </c>
-      <c r="P46" s="4">
+      <c r="Q46" s="4">
         <v>19</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="R46" s="4">
         <v>10</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8</v>
       </c>
-      <c r="T46" s="3">
-        <v>4</v>
-      </c>
       <c r="U46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V46" s="3">
-        <v>2</v>
-      </c>
-      <c r="W46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="W46" s="3">
+        <v>2</v>
+      </c>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
@@ -3781,61 +3903,62 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>324</v>
+      </c>
+      <c r="C47" s="4">
         <v>161</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>144</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>133</v>
-      </c>
-      <c r="E47" s="4">
-        <v>112</v>
       </c>
       <c r="F47" s="4">
         <v>112</v>
       </c>
       <c r="G47" s="4">
+        <v>112</v>
+      </c>
+      <c r="H47" s="4">
         <v>93</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>85</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>67</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>61</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>41</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>23</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9</v>
       </c>
-      <c r="N47" s="4">
+      <c r="O47" s="4">
         <v>9</v>
       </c>
-      <c r="O47" s="3">
-        <v>3</v>
-      </c>
-      <c r="P47" s="4">
+      <c r="P47" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="4">
         <v>5</v>
       </c>
-      <c r="Q47" s="4">
-        <v>3</v>
-      </c>
-      <c r="R47" s="3">
-        <v>2</v>
+      <c r="R47" s="4">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>2</v>
@@ -3870,35 +3993,38 @@
       <c r="AC47" s="3">
         <v>2</v>
       </c>
-      <c r="AD47" s="3"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE47" s="3"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>40</v>
+      </c>
+      <c r="C48" s="4">
         <v>32</v>
-      </c>
-      <c r="C48" s="4">
-        <v>15</v>
       </c>
       <c r="D48" s="4">
         <v>15</v>
       </c>
       <c r="E48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F48" s="4">
         <v>13</v>
       </c>
       <c r="G48" s="4">
+        <v>13</v>
+      </c>
+      <c r="H48" s="4">
         <v>10</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>7</v>
-      </c>
-      <c r="I48" s="4">
-        <v>5</v>
       </c>
       <c r="J48" s="4">
         <v>5</v>
@@ -3907,14 +4033,16 @@
         <v>5</v>
       </c>
       <c r="L48" s="4">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M48" s="4">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="3"/>
       <c r="Q48" s="4"/>
-      <c r="R48" s="3"/>
+      <c r="R48" s="4"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -3927,62 +4055,63 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="4">
+        <v>72</v>
+      </c>
+      <c r="C49" s="4">
         <v>58</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>53</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>40</v>
-      </c>
-      <c r="E49" s="4">
-        <v>35</v>
       </c>
       <c r="F49" s="4">
         <v>35</v>
       </c>
       <c r="G49" s="4">
+        <v>35</v>
+      </c>
+      <c r="H49" s="4">
         <v>21</v>
-      </c>
-      <c r="H49" s="4">
-        <v>19</v>
       </c>
       <c r="I49" s="4">
         <v>19</v>
       </c>
       <c r="J49" s="4">
+        <v>19</v>
+      </c>
+      <c r="K49" s="4">
         <v>13</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>12</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>7</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5</v>
       </c>
-      <c r="N49" s="4">
+      <c r="O49" s="4">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5</v>
       </c>
-      <c r="P49" s="4">
+      <c r="Q49" s="4">
         <v>6</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="4">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
-        <v>4</v>
-      </c>
       <c r="S49" s="3">
         <v>4</v>
       </c>
@@ -3996,45 +4125,48 @@
         <v>4</v>
       </c>
       <c r="W49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>1</v>
       </c>
-      <c r="Y49" s="3"/>
+      <c r="Y49" s="3">
+        <v>1</v>
+      </c>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4">
         <v>40</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>25</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>15</v>
-      </c>
-      <c r="E50" s="4">
-        <v>13</v>
       </c>
       <c r="F50" s="4">
         <v>13</v>
       </c>
       <c r="G50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H50" s="4">
         <v>5</v>
       </c>
       <c r="I50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J50" s="4">
         <v>4</v>
@@ -4043,16 +4175,18 @@
         <v>4</v>
       </c>
       <c r="L50" s="4">
-        <v>3</v>
-      </c>
-      <c r="M50" s="3">
-        <v>1</v>
-      </c>
-      <c r="N50" s="4"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="M50" s="4">
+        <v>3</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="3"/>
       <c r="Q50" s="4"/>
-      <c r="R50" s="3"/>
+      <c r="R50" s="4"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -4065,19 +4199,20 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>184</v>
+      </c>
+      <c r="C51" s="4">
         <v>151</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>109</v>
-      </c>
-      <c r="D51" s="4">
-        <v>70</v>
       </c>
       <c r="E51" s="4">
         <v>70</v>
@@ -4086,39 +4221,39 @@
         <v>70</v>
       </c>
       <c r="G51" s="4">
+        <v>70</v>
+      </c>
+      <c r="H51" s="4">
         <v>60</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>51</v>
-      </c>
-      <c r="I51" s="4">
-        <v>33</v>
       </c>
       <c r="J51" s="4">
         <v>33</v>
       </c>
       <c r="K51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="L51" s="4">
         <v>21</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="4">
         <v>21</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="3">
         <v>21</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="4">
+        <v>21</v>
+      </c>
+      <c r="P51" s="3">
         <v>19</v>
       </c>
-      <c r="P51" s="4">
+      <c r="Q51" s="4">
         <v>15</v>
       </c>
-      <c r="Q51" s="4">
-        <v>11</v>
-      </c>
-      <c r="R51" s="3">
+      <c r="R51" s="4">
         <v>11</v>
       </c>
       <c r="S51" s="3">
@@ -4131,144 +4266,151 @@
         <v>11</v>
       </c>
       <c r="V51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="W51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X51" s="3">
         <v>1</v>
       </c>
-      <c r="Y51" s="3"/>
+      <c r="Y51" s="3">
+        <v>1</v>
+      </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
-    </row>
-    <row r="52" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE51" s="3"/>
+    </row>
+    <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
+        <v>7252</v>
+      </c>
+      <c r="C52" s="15">
+        <f>SUM(C8:C51)</f>
         <v>6043</v>
       </c>
-      <c r="C52" s="15">
-        <f t="shared" ref="C52:H52" si="0">SUM(C8:C51)</f>
+      <c r="D52" s="15">
+        <f t="shared" ref="D52:I52" si="0">SUM(D8:D51)</f>
         <v>5333</v>
       </c>
-      <c r="D52" s="15">
+      <c r="E52" s="15">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="E52" s="15">
+      <c r="F52" s="15">
         <f t="shared" si="0"/>
         <v>3818</v>
       </c>
-      <c r="F52" s="15">
+      <c r="G52" s="15">
         <f t="shared" si="0"/>
         <v>3665</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>2748</v>
       </c>
-      <c r="H52" s="14">
+      <c r="I52" s="14">
         <f t="shared" si="0"/>
         <v>2184</v>
       </c>
-      <c r="I52" s="5">
-        <f t="shared" ref="I52:AD52" si="1">SUM(I8:I51)</f>
+      <c r="J52" s="5">
+        <f t="shared" ref="J52:AE52" si="1">SUM(J8:J51)</f>
         <v>1641</v>
       </c>
-      <c r="J52" s="5">
+      <c r="K52" s="5">
         <f t="shared" si="1"/>
         <v>1105</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
-      <c r="L52" s="5">
+      <c r="M52" s="5">
         <f t="shared" si="1"/>
         <v>827</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <f t="shared" si="1"/>
         <v>569</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AB52" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AC52" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AC52" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="AD52" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>49</v>
       </c>
@@ -4287,16 +4429,17 @@
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B0fK1BXM/7E0nm4SA6pk1bxM6mTB3z8Rq/Xr/yicAf5gI3wLnopcDgHM9l3xgumtRYe/lQZ6fhuccrFRX0dB5Q==" saltValue="m8OQkzknBG5sxVXrCXZI9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Hu/SwFn9CkDuWglEsi7YhWxSP6aPcylScSHrx9j+fIlx68UbMcAeh47SoBetN+kDb4PSjubZv6vHCbYxL8hZqQ==" saltValue="s61LFENO+CJR26k0Qjln1w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A54:Q54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G52:AD52 C52:E52" formulaRange="1"/>
+    <ignoredError sqref="H52:AE52 D52:F52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Fälle</t>
   </si>
@@ -602,37 +602,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AE54"/>
+  <dimension ref="A2:AF54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="19" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="2" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="M3" s="9"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -726,163 +726,169 @@
       <c r="AE6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43916</v>
+      </c>
+      <c r="C7" s="13">
         <v>43915</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43914</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43913</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43912</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43911</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43910</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43909</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43908</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43907</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="12">
         <v>43906</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>43905</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>43904</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43903</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43902</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43901</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43900</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43899</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43898</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43897</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43896</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43895</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43894</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43893</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43892</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43891</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43890</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43889</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43888</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43887</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AF7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
+        <v>99</v>
+      </c>
+      <c r="C8" s="4">
         <v>85</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>64</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>60</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>44</v>
-      </c>
-      <c r="F8" s="4">
-        <v>39</v>
       </c>
       <c r="G8" s="4">
         <v>39</v>
       </c>
       <c r="H8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I8" s="4">
         <v>26</v>
       </c>
       <c r="J8" s="4">
+        <v>26</v>
+      </c>
+      <c r="K8" s="4">
         <v>24</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>13</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>12</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>7</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>6</v>
       </c>
-      <c r="P8" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>3</v>
+      <c r="Q8" s="3">
+        <v>4</v>
       </c>
       <c r="R8" s="4">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="4">
         <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>3</v>
       </c>
       <c r="U8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8" s="3">
         <v>2</v>
@@ -890,7 +896,9 @@
       <c r="W8" s="3">
         <v>2</v>
       </c>
-      <c r="X8" s="3"/>
+      <c r="X8" s="3">
+        <v>2</v>
+      </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -898,69 +906,72 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4">
         <v>36</v>
       </c>
       <c r="D9" s="4">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4">
         <v>33</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>25</v>
-      </c>
-      <c r="F9" s="4">
-        <v>21</v>
       </c>
       <c r="G9" s="4">
         <v>21</v>
       </c>
       <c r="H9" s="4">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4">
         <v>17</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>14</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>12</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>7</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="4">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3</v>
-      </c>
-      <c r="O9" s="4">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>1</v>
+      <c r="N9" s="4">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3</v>
+      </c>
+      <c r="P9" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2</v>
       </c>
       <c r="R9" s="4">
         <v>1</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="4">
         <v>1</v>
       </c>
       <c r="T9" s="3">
         <v>1</v>
       </c>
-      <c r="U9" s="3"/>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -971,22 +982,23 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
+        <v>144</v>
+      </c>
+      <c r="C10" s="4">
         <v>106</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>82</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>74</v>
-      </c>
-      <c r="E10" s="4">
-        <v>45</v>
       </c>
       <c r="F10" s="4">
         <v>45</v>
@@ -998,13 +1010,13 @@
         <v>45</v>
       </c>
       <c r="I10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J10" s="4">
         <v>17</v>
       </c>
       <c r="K10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L10" s="4">
         <v>5</v>
@@ -1012,31 +1024,33 @@
       <c r="M10" s="4">
         <v>5</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="4">
         <v>5</v>
       </c>
-      <c r="O10" s="4">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="O10" s="3">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>3</v>
       </c>
       <c r="R10" s="4">
         <v>3</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="4">
         <v>3</v>
       </c>
       <c r="T10" s="3">
         <v>3</v>
       </c>
       <c r="U10" s="3">
-        <v>1</v>
-      </c>
-      <c r="V10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1046,31 +1060,32 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>263</v>
+      </c>
+      <c r="C11" s="4">
         <v>233</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>224</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>187</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>117</v>
-      </c>
-      <c r="F11" s="4">
-        <v>67</v>
       </c>
       <c r="G11" s="4">
         <v>67</v>
       </c>
       <c r="H11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I11" s="4">
         <v>28</v>
@@ -1079,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="L11" s="4">
         <v>9</v>
@@ -1087,22 +1102,22 @@
       <c r="M11" s="4">
         <v>9</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="4">
         <v>9</v>
       </c>
-      <c r="O11" s="4">
-        <v>4</v>
-      </c>
-      <c r="P11" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="4">
+      <c r="O11" s="3">
+        <v>9</v>
+      </c>
+      <c r="P11" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="3">
         <v>4</v>
       </c>
       <c r="R11" s="4">
-        <v>3</v>
-      </c>
-      <c r="S11" s="3">
+        <v>4</v>
+      </c>
+      <c r="S11" s="4">
         <v>3</v>
       </c>
       <c r="T11" s="3">
@@ -1112,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="V11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W11" s="3">
         <v>1</v>
@@ -1135,65 +1150,68 @@
       <c r="AC11" s="3">
         <v>1</v>
       </c>
-      <c r="AD11" s="3"/>
+      <c r="AD11" s="3">
+        <v>1</v>
+      </c>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>153</v>
+      </c>
+      <c r="C12" s="4">
         <v>121</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>89</v>
-      </c>
-      <c r="D12" s="4">
-        <v>83</v>
       </c>
       <c r="E12" s="4">
         <v>83</v>
       </c>
       <c r="F12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G12" s="4">
         <v>71</v>
       </c>
       <c r="H12" s="4">
+        <v>71</v>
+      </c>
+      <c r="I12" s="4">
         <v>62</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>39</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>31</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>29</v>
-      </c>
-      <c r="L12" s="4">
-        <v>13</v>
       </c>
       <c r="M12" s="4">
         <v>13</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4">
+        <v>13</v>
+      </c>
+      <c r="O12" s="3">
         <v>8</v>
       </c>
-      <c r="O12" s="4">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
         <v>6</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>5</v>
       </c>
-      <c r="R12" s="4">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="S12" s="4">
         <v>4</v>
       </c>
       <c r="T12" s="3">
@@ -1203,12 +1221,14 @@
         <v>4</v>
       </c>
       <c r="V12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W12" s="3">
-        <v>1</v>
-      </c>
-      <c r="X12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -1216,70 +1236,71 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>254</v>
+      </c>
+      <c r="C13" s="4">
         <v>223</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>197</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>178</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>167</v>
-      </c>
-      <c r="F13" s="4">
-        <v>134</v>
       </c>
       <c r="G13" s="4">
         <v>134</v>
       </c>
       <c r="H13" s="4">
+        <v>134</v>
+      </c>
+      <c r="I13" s="4">
         <v>101</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>78</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>54</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>45</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>42</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>26</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>19</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>18</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>12</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>6</v>
       </c>
       <c r="R13" s="4">
         <v>6</v>
       </c>
-      <c r="S13" s="3">
-        <v>5</v>
+      <c r="S13" s="4">
+        <v>6</v>
       </c>
       <c r="T13" s="3">
         <v>5</v>
       </c>
       <c r="U13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" s="3">
         <v>4</v>
@@ -1288,13 +1309,13 @@
         <v>4</v>
       </c>
       <c r="X13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y13" s="3">
         <v>1</v>
       </c>
       <c r="Z13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="3">
         <v>3</v>
@@ -1305,66 +1326,69 @@
       <c r="AC13" s="3">
         <v>3</v>
       </c>
-      <c r="AD13" s="3"/>
+      <c r="AD13" s="3">
+        <v>3</v>
+      </c>
       <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>210</v>
+      </c>
+      <c r="C14" s="4">
         <v>182</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>159</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>150</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>120</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>108</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>92</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>76</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>61</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>51</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>43</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>34</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>26</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>12</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>6</v>
       </c>
-      <c r="R14" s="4">
-        <v>2</v>
-      </c>
-      <c r="S14" s="3">
-        <v>1</v>
+      <c r="S14" s="4">
+        <v>2</v>
       </c>
       <c r="T14" s="3">
         <v>1</v>
@@ -1372,7 +1396,9 @@
       <c r="U14" s="3">
         <v>1</v>
       </c>
-      <c r="V14" s="3"/>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -1382,148 +1408,154 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>171</v>
+      </c>
+      <c r="C15" s="11">
         <v>154</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>141</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>123</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>121</v>
-      </c>
-      <c r="F15" s="11">
-        <v>110</v>
       </c>
       <c r="G15" s="11">
         <v>110</v>
       </c>
       <c r="H15" s="11">
+        <v>110</v>
+      </c>
+      <c r="I15" s="11">
         <v>99</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>60</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="11">
         <v>59</v>
-      </c>
-      <c r="K15" s="11">
-        <v>35</v>
       </c>
       <c r="L15" s="11">
         <v>35</v>
       </c>
       <c r="M15" s="11">
+        <v>35</v>
+      </c>
+      <c r="N15" s="11">
         <v>21</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>17</v>
       </c>
-      <c r="O15" s="11">
+      <c r="P15" s="11">
         <v>16</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>15</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>13</v>
       </c>
       <c r="R15" s="11">
         <v>13</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="11">
+        <v>13</v>
+      </c>
+      <c r="T15" s="3">
         <v>12</v>
       </c>
-      <c r="T15" s="3">
-        <v>3</v>
-      </c>
       <c r="U15" s="3">
-        <v>1</v>
-      </c>
-      <c r="V15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
       <c r="W15" s="3"/>
-      <c r="X15" s="3">
-        <v>1</v>
-      </c>
+      <c r="X15" s="3"/>
       <c r="Y15" s="3">
         <v>1</v>
       </c>
-      <c r="Z15" s="3"/>
+      <c r="Z15" s="3">
+        <v>1</v>
+      </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4">
         <v>55</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>45</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>37</v>
-      </c>
-      <c r="E16" s="4">
-        <v>33</v>
       </c>
       <c r="F16" s="4">
         <v>33</v>
       </c>
       <c r="G16" s="4">
+        <v>33</v>
+      </c>
+      <c r="H16" s="4">
         <v>24</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>21</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>12</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>9</v>
       </c>
-      <c r="K16" s="4">
-        <v>4</v>
-      </c>
       <c r="L16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" s="4">
         <v>3</v>
       </c>
-      <c r="N16" s="3">
-        <v>3</v>
-      </c>
-      <c r="O16" s="4">
-        <v>3</v>
-      </c>
-      <c r="P16" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>1</v>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3">
+        <v>3</v>
+      </c>
+      <c r="P16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2</v>
       </c>
       <c r="R16" s="4">
         <v>1</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="4">
         <v>1</v>
       </c>
       <c r="T16" s="3">
         <v>1</v>
       </c>
-      <c r="U16" s="3"/>
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -1534,145 +1566,149 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>596</v>
+      </c>
+      <c r="C17" s="4">
         <v>493</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>462</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>435</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>362</v>
-      </c>
-      <c r="F17" s="4">
-        <v>323</v>
       </c>
       <c r="G17" s="4">
         <v>323</v>
       </c>
       <c r="H17" s="4">
+        <v>323</v>
+      </c>
+      <c r="I17" s="4">
         <v>234</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>193</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>128</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>123</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>111</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>82</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>47</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>23</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>18</v>
-      </c>
-      <c r="S17" s="3">
-        <v>16</v>
       </c>
       <c r="T17" s="3">
         <v>16</v>
       </c>
       <c r="U17" s="3">
+        <v>16</v>
+      </c>
+      <c r="V17" s="3">
         <v>14</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13</v>
-      </c>
-      <c r="W17" s="3">
-        <v>5</v>
       </c>
       <c r="X17" s="3">
         <v>5</v>
       </c>
-      <c r="Y17" s="3"/>
+      <c r="Y17" s="3">
+        <v>5</v>
+      </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4">
+        <v>284</v>
+      </c>
+      <c r="C18" s="4">
         <v>254</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>227</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>212</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>191</v>
-      </c>
-      <c r="F18" s="4">
-        <v>150</v>
       </c>
       <c r="G18" s="4">
         <v>150</v>
       </c>
       <c r="H18" s="4">
+        <v>150</v>
+      </c>
+      <c r="I18" s="4">
         <v>114</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>79</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>62</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>53</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>43</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>34</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>18</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>12</v>
       </c>
       <c r="R18" s="4">
         <v>12</v>
       </c>
-      <c r="S18" s="3">
-        <v>8</v>
+      <c r="S18" s="4">
+        <v>12</v>
       </c>
       <c r="T18" s="3">
         <v>8</v>
@@ -1681,45 +1717,48 @@
         <v>8</v>
       </c>
       <c r="V18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W18" s="3">
         <v>6</v>
       </c>
       <c r="X18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y18" s="3">
         <v>4</v>
       </c>
       <c r="Z18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>1</v>
+      </c>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
+        <v>76</v>
+      </c>
+      <c r="C19" s="4">
         <v>69</v>
-      </c>
-      <c r="C19" s="4">
-        <v>39</v>
       </c>
       <c r="D19" s="4">
         <v>39</v>
       </c>
       <c r="E19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4">
         <v>14</v>
@@ -1734,31 +1773,33 @@
         <v>14</v>
       </c>
       <c r="J19" s="4">
+        <v>14</v>
+      </c>
+      <c r="K19" s="4">
         <v>10</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>8</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>7</v>
       </c>
-      <c r="M19" s="4">
-        <v>3</v>
-      </c>
-      <c r="N19" s="3">
-        <v>2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>2</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>1</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="3"/>
+      <c r="N19" s="4">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -1771,22 +1812,23 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
+        <v>249</v>
+      </c>
+      <c r="C20" s="4">
         <v>216</v>
-      </c>
-      <c r="C20" s="4">
-        <v>166</v>
       </c>
       <c r="D20" s="4">
         <v>166</v>
       </c>
       <c r="E20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="F20" s="4">
         <v>97</v>
@@ -1795,46 +1837,46 @@
         <v>97</v>
       </c>
       <c r="H20" s="4">
+        <v>97</v>
+      </c>
+      <c r="I20" s="4">
         <v>60</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>59</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>39</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>29</v>
-      </c>
-      <c r="L20" s="4">
-        <v>16</v>
       </c>
       <c r="M20" s="4">
         <v>16</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="4">
+        <v>16</v>
+      </c>
+      <c r="O20" s="3">
         <v>14</v>
       </c>
-      <c r="O20" s="4">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>4</v>
+      <c r="P20" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
       </c>
       <c r="R20" s="4">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
+        <v>4</v>
+      </c>
+      <c r="S20" s="4">
         <v>3</v>
       </c>
       <c r="T20" s="3">
         <v>3</v>
       </c>
       <c r="U20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V20" s="3">
         <v>2</v>
@@ -1858,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="AC20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="3">
         <v>1</v>
@@ -1866,28 +1908,31 @@
       <c r="AE20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="4">
+        <v>112</v>
+      </c>
+      <c r="C21" s="4">
         <v>109</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>98</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>89</v>
-      </c>
-      <c r="E21" s="4">
-        <v>5</v>
       </c>
       <c r="F21" s="4">
         <v>5</v>
       </c>
       <c r="G21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" s="4">
         <v>3</v>
@@ -1896,40 +1941,40 @@
         <v>3</v>
       </c>
       <c r="J21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="4">
         <v>2</v>
       </c>
       <c r="L21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21" s="4">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
-        <v>2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>2</v>
-      </c>
-      <c r="P21" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>5</v>
+      <c r="N21" s="4">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2</v>
       </c>
       <c r="R21" s="4">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="4">
         <v>5</v>
       </c>
       <c r="T21" s="3">
         <v>5</v>
       </c>
       <c r="U21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" s="3">
         <v>2</v>
@@ -1937,7 +1982,9 @@
       <c r="W21" s="3">
         <v>2</v>
       </c>
-      <c r="X21" s="3"/>
+      <c r="X21" s="3">
+        <v>2</v>
+      </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -1945,70 +1992,71 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>98</v>
+      </c>
+      <c r="C22" s="4">
         <v>97</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>62</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>60</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>57</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>47</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>39</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>34</v>
-      </c>
-      <c r="I22" s="4">
-        <v>17</v>
       </c>
       <c r="J22" s="4">
         <v>17</v>
       </c>
       <c r="K22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L22" s="4">
         <v>21</v>
       </c>
       <c r="M22" s="4">
+        <v>21</v>
+      </c>
+      <c r="N22" s="4">
         <v>19</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>4</v>
       </c>
       <c r="R22" s="4">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="4">
         <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>3</v>
       </c>
       <c r="U22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>1</v>
@@ -2016,7 +2064,9 @@
       <c r="W22" s="3">
         <v>1</v>
       </c>
-      <c r="X22" s="3"/>
+      <c r="X22" s="3">
+        <v>1</v>
+      </c>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -2024,85 +2074,86 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>279</v>
+      </c>
+      <c r="C23" s="11">
         <v>236</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>212</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>197</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>165</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>140</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>118</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>110</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>71</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>57</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>50</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>47</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>37</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>32</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>26</v>
       </c>
       <c r="R23" s="11">
         <v>26</v>
       </c>
-      <c r="S23" s="3">
-        <v>20</v>
+      <c r="S23" s="11">
+        <v>26</v>
       </c>
       <c r="T23" s="3">
         <v>20</v>
       </c>
       <c r="U23" s="3">
+        <v>20</v>
+      </c>
+      <c r="V23" s="3">
         <v>14</v>
-      </c>
-      <c r="V23" s="3">
-        <v>10</v>
       </c>
       <c r="W23" s="3">
         <v>10</v>
       </c>
       <c r="X23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y23" s="3">
         <v>8</v>
       </c>
       <c r="Z23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA23" s="3">
         <v>1</v>
@@ -2110,64 +2161,67 @@
       <c r="AB23" s="3">
         <v>1</v>
       </c>
-      <c r="AC23" s="3"/>
+      <c r="AC23" s="3">
+        <v>1</v>
+      </c>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="11">
+        <v>81</v>
+      </c>
+      <c r="C24" s="11">
         <v>71</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>60</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="11">
         <v>55</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>28</v>
-      </c>
-      <c r="F24" s="11">
-        <v>20</v>
       </c>
       <c r="G24" s="11">
         <v>20</v>
       </c>
       <c r="H24" s="11">
+        <v>20</v>
+      </c>
+      <c r="I24" s="11">
         <v>19</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>13</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="11">
         <v>9</v>
       </c>
-      <c r="K24" s="11">
-        <v>4</v>
-      </c>
       <c r="L24" s="11">
         <v>4</v>
       </c>
       <c r="M24" s="11">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="11">
-        <v>3</v>
-      </c>
+      <c r="N24" s="11">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3"/>
       <c r="R24" s="11">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="11">
         <v>3</v>
       </c>
       <c r="T24" s="3">
@@ -2177,55 +2231,58 @@
         <v>3</v>
       </c>
       <c r="V24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W24" s="3">
         <v>2</v>
       </c>
-      <c r="X24" s="3"/>
+      <c r="X24" s="3">
+        <v>2</v>
+      </c>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3">
+        <v>1</v>
+      </c>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="C25" s="4">
         <v>278</v>
       </c>
       <c r="D25" s="4">
+        <v>278</v>
+      </c>
+      <c r="E25" s="4">
         <v>257</v>
-      </c>
-      <c r="E25" s="4">
-        <v>222</v>
       </c>
       <c r="F25" s="4">
         <v>222</v>
       </c>
       <c r="G25" s="4">
+        <v>222</v>
+      </c>
+      <c r="H25" s="4">
         <v>182</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>154</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>135</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>64</v>
-      </c>
-      <c r="K25" s="4">
-        <v>29</v>
       </c>
       <c r="L25" s="4">
         <v>29</v>
@@ -2233,23 +2290,23 @@
       <c r="M25" s="4">
         <v>29</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="4">
+        <v>29</v>
+      </c>
+      <c r="O25" s="3">
         <v>8</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>8</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Q25" s="3">
         <v>6</v>
       </c>
-      <c r="Q25" s="4">
-        <v>2</v>
-      </c>
       <c r="R25" s="4">
         <v>2</v>
       </c>
-      <c r="S25" s="3">
-        <v>1</v>
+      <c r="S25" s="4">
+        <v>2</v>
       </c>
       <c r="T25" s="3">
         <v>1</v>
@@ -2260,7 +2317,9 @@
       <c r="V25" s="3">
         <v>1</v>
       </c>
-      <c r="W25" s="3"/>
+      <c r="W25" s="3">
+        <v>1</v>
+      </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
@@ -2269,76 +2328,77 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
+        <v>206</v>
+      </c>
+      <c r="C26" s="11">
         <v>189</v>
       </c>
-      <c r="C26" s="11">
+      <c r="D26" s="11">
         <v>172</v>
       </c>
-      <c r="D26" s="11">
+      <c r="E26" s="11">
         <v>154</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>104</v>
-      </c>
-      <c r="F26" s="11">
-        <v>96</v>
       </c>
       <c r="G26" s="11">
         <v>96</v>
       </c>
       <c r="H26" s="11">
+        <v>96</v>
+      </c>
+      <c r="I26" s="11">
         <v>75</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>63</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>47</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>24</v>
-      </c>
-      <c r="L26" s="11">
-        <v>29</v>
       </c>
       <c r="M26" s="11">
         <v>29</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="11">
+        <v>29</v>
+      </c>
+      <c r="O26" s="3">
         <v>16</v>
       </c>
-      <c r="O26" s="11">
+      <c r="P26" s="11">
         <v>16</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="R26" s="11">
         <v>9</v>
       </c>
-      <c r="R26" s="11">
-        <v>7</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="11">
         <v>7</v>
       </c>
       <c r="T26" s="3">
         <v>7</v>
       </c>
       <c r="U26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X26" s="3">
         <v>1</v>
@@ -2355,25 +2415,28 @@
       <c r="AB26" s="3">
         <v>1</v>
       </c>
-      <c r="AC26" s="3"/>
+      <c r="AC26" s="3">
+        <v>1</v>
+      </c>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="11">
+        <v>99</v>
+      </c>
+      <c r="C27" s="11">
         <v>85</v>
       </c>
-      <c r="C27" s="11">
+      <c r="D27" s="11">
         <v>74</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E27" s="11">
         <v>60</v>
-      </c>
-      <c r="E27" s="11">
-        <v>42</v>
       </c>
       <c r="F27" s="11">
         <v>42</v>
@@ -2382,16 +2445,16 @@
         <v>42</v>
       </c>
       <c r="H27" s="11">
+        <v>42</v>
+      </c>
+      <c r="I27" s="11">
         <v>34</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11">
         <v>29</v>
       </c>
-      <c r="J27" s="11">
+      <c r="K27" s="11">
         <v>26</v>
-      </c>
-      <c r="K27" s="11">
-        <v>14</v>
       </c>
       <c r="L27" s="11">
         <v>14</v>
@@ -2399,20 +2462,22 @@
       <c r="M27" s="11">
         <v>14</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="11">
+        <v>14</v>
+      </c>
+      <c r="O27" s="3">
         <v>8</v>
       </c>
-      <c r="O27" s="11">
+      <c r="P27" s="11">
         <v>8</v>
       </c>
-      <c r="P27" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>2</v>
-      </c>
-      <c r="R27" s="11"/>
-      <c r="S27" s="3"/>
+      <c r="Q27" s="3">
+        <v>3</v>
+      </c>
+      <c r="R27" s="11">
+        <v>2</v>
+      </c>
+      <c r="S27" s="11"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -2425,22 +2490,23 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>109</v>
+      </c>
+      <c r="C28" s="4">
         <v>89</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>81</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>70</v>
-      </c>
-      <c r="E28" s="4">
-        <v>52</v>
       </c>
       <c r="F28" s="4">
         <v>52</v>
@@ -2449,16 +2515,16 @@
         <v>52</v>
       </c>
       <c r="H28" s="4">
+        <v>52</v>
+      </c>
+      <c r="I28" s="4">
         <v>43</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>34</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>28</v>
-      </c>
-      <c r="K28" s="4">
-        <v>20</v>
       </c>
       <c r="L28" s="4">
         <v>20</v>
@@ -2466,28 +2532,30 @@
       <c r="M28" s="4">
         <v>20</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="4">
+        <v>20</v>
+      </c>
+      <c r="O28" s="3">
         <v>7</v>
       </c>
-      <c r="O28" s="4">
-        <v>2</v>
-      </c>
-      <c r="P28" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>1</v>
+      <c r="P28" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>2</v>
       </c>
       <c r="R28" s="4">
         <v>1</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="4">
         <v>1</v>
       </c>
       <c r="T28" s="3">
         <v>1</v>
       </c>
-      <c r="U28" s="3"/>
+      <c r="U28" s="3">
+        <v>1</v>
+      </c>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -2498,19 +2566,20 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>147</v>
+      </c>
+      <c r="C29" s="4">
         <v>136</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>101</v>
-      </c>
-      <c r="D29" s="4">
-        <v>57</v>
       </c>
       <c r="E29" s="4">
         <v>57</v>
@@ -2522,16 +2591,16 @@
         <v>57</v>
       </c>
       <c r="H29" s="4">
+        <v>57</v>
+      </c>
+      <c r="I29" s="4">
         <v>41</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>25</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>16</v>
-      </c>
-      <c r="K29" s="4">
-        <v>10</v>
       </c>
       <c r="L29" s="4">
         <v>10</v>
@@ -2539,20 +2608,20 @@
       <c r="M29" s="4">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="4">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>6</v>
       </c>
-      <c r="O29" s="4">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="4">
-        <v>1</v>
-      </c>
+      <c r="P29" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3"/>
       <c r="R29" s="4">
         <v>1</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="4">
         <v>1</v>
       </c>
       <c r="T29" s="3">
@@ -2570,47 +2639,50 @@
       <c r="X29" s="3">
         <v>1</v>
       </c>
-      <c r="Y29" s="3"/>
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>450</v>
+      </c>
+      <c r="C30" s="4">
         <v>352</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>275</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>250</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>236</v>
-      </c>
-      <c r="F30" s="4">
-        <v>175</v>
       </c>
       <c r="G30" s="4">
         <v>175</v>
       </c>
       <c r="H30" s="4">
+        <v>175</v>
+      </c>
+      <c r="I30" s="4">
         <v>126</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>112</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>87</v>
-      </c>
-      <c r="K30" s="4">
-        <v>38</v>
       </c>
       <c r="L30" s="4">
         <v>38</v>
@@ -2618,41 +2690,41 @@
       <c r="M30" s="4">
         <v>38</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="4">
+        <v>38</v>
+      </c>
+      <c r="O30" s="3">
         <v>24</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>18</v>
       </c>
-      <c r="P30" s="3">
+      <c r="Q30" s="3">
         <v>11</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <v>11</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>8</v>
-      </c>
-      <c r="S30" s="3">
-        <v>7</v>
       </c>
       <c r="T30" s="3">
         <v>7</v>
       </c>
       <c r="U30" s="3">
+        <v>7</v>
+      </c>
+      <c r="V30" s="3">
         <v>5</v>
       </c>
-      <c r="V30" s="3">
-        <v>3</v>
-      </c>
       <c r="W30" s="3">
         <v>3</v>
       </c>
       <c r="X30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z30" s="3">
         <v>1</v>
@@ -2663,25 +2735,28 @@
       <c r="AB30" s="3">
         <v>1</v>
       </c>
-      <c r="AC30" s="3"/>
+      <c r="AC30" s="3">
+        <v>1</v>
+      </c>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
+        <v>67</v>
+      </c>
+      <c r="C31" s="4">
         <v>58</v>
-      </c>
-      <c r="C31" s="4">
-        <v>53</v>
       </c>
       <c r="D31" s="4">
         <v>53</v>
       </c>
       <c r="E31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F31" s="4">
         <v>36</v>
@@ -2690,10 +2765,10 @@
         <v>36</v>
       </c>
       <c r="H31" s="4">
+        <v>36</v>
+      </c>
+      <c r="I31" s="4">
         <v>33</v>
-      </c>
-      <c r="I31" s="4">
-        <v>31</v>
       </c>
       <c r="J31" s="4">
         <v>31</v>
@@ -2705,39 +2780,41 @@
         <v>31</v>
       </c>
       <c r="M31" s="4">
+        <v>31</v>
+      </c>
+      <c r="N31" s="4">
         <v>30</v>
       </c>
-      <c r="N31" s="3">
+      <c r="O31" s="3">
         <v>28</v>
       </c>
-      <c r="O31" s="4">
+      <c r="P31" s="4">
         <v>24</v>
       </c>
-      <c r="P31" s="3">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="3">
         <v>24</v>
       </c>
       <c r="R31" s="4">
         <v>24</v>
       </c>
-      <c r="S31" s="3">
-        <v>23</v>
+      <c r="S31" s="4">
+        <v>24</v>
       </c>
       <c r="T31" s="3">
         <v>23</v>
       </c>
       <c r="U31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="V31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="3">
         <v>1</v>
       </c>
-      <c r="X31" s="3"/>
+      <c r="X31" s="3">
+        <v>1</v>
+      </c>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
@@ -2745,19 +2822,20 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="4">
+        <v>158</v>
+      </c>
+      <c r="C32" s="4">
         <v>145</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>135</v>
-      </c>
-      <c r="D32" s="4">
-        <v>80</v>
       </c>
       <c r="E32" s="4">
         <v>80</v>
@@ -2769,13 +2847,13 @@
         <v>80</v>
       </c>
       <c r="H32" s="4">
+        <v>80</v>
+      </c>
+      <c r="I32" s="4">
         <v>73</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>71</v>
-      </c>
-      <c r="J32" s="4">
-        <v>27</v>
       </c>
       <c r="K32" s="4">
         <v>27</v>
@@ -2786,38 +2864,38 @@
       <c r="M32" s="4">
         <v>27</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="4">
+        <v>27</v>
+      </c>
+      <c r="O32" s="3">
         <v>22</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <v>12</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>9</v>
       </c>
       <c r="R32" s="4">
         <v>9</v>
       </c>
-      <c r="S32" s="3">
-        <v>7</v>
+      <c r="S32" s="4">
+        <v>9</v>
       </c>
       <c r="T32" s="3">
         <v>7</v>
       </c>
       <c r="U32" s="3">
+        <v>7</v>
+      </c>
+      <c r="V32" s="3">
         <v>5</v>
       </c>
-      <c r="V32" s="3">
-        <v>4</v>
-      </c>
       <c r="W32" s="3">
         <v>4</v>
       </c>
       <c r="X32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y32" s="3">
         <v>3</v>
@@ -2825,68 +2903,71 @@
       <c r="Z32" s="3">
         <v>3</v>
       </c>
-      <c r="AA32" s="3"/>
+      <c r="AA32" s="3">
+        <v>3</v>
+      </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>58</v>
+      </c>
+      <c r="C33" s="4">
         <v>45</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>40</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>35</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>30</v>
-      </c>
-      <c r="F33" s="4">
-        <v>26</v>
       </c>
       <c r="G33" s="4">
         <v>26</v>
       </c>
       <c r="H33" s="4">
+        <v>26</v>
+      </c>
+      <c r="I33" s="4">
         <v>20</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>17</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>14</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>7</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>10</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>6</v>
       </c>
-      <c r="N33" s="3">
-        <v>4</v>
-      </c>
-      <c r="O33" s="4">
-        <v>2</v>
-      </c>
-      <c r="P33" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>1</v>
+      <c r="O33" s="3">
+        <v>4</v>
+      </c>
+      <c r="P33" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>2</v>
       </c>
       <c r="R33" s="4">
         <v>1</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="4">
         <v>1</v>
       </c>
       <c r="T33" s="3">
@@ -2895,7 +2976,9 @@
       <c r="U33" s="3">
         <v>1</v>
       </c>
-      <c r="V33" s="3"/>
+      <c r="V33" s="3">
+        <v>1</v>
+      </c>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
@@ -2905,72 +2988,75 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="4">
+        <v>175</v>
+      </c>
+      <c r="C34" s="4">
         <v>135</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>120</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>104</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>82</v>
-      </c>
-      <c r="F34" s="4">
-        <v>71</v>
       </c>
       <c r="G34" s="4">
         <v>71</v>
       </c>
       <c r="H34" s="4">
+        <v>71</v>
+      </c>
+      <c r="I34" s="4">
         <v>55</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>45</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>38</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>28</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>25</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>22</v>
       </c>
-      <c r="N34" s="3">
+      <c r="O34" s="3">
         <v>16</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>13</v>
       </c>
-      <c r="P34" s="3">
+      <c r="Q34" s="3">
         <v>13</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>12</v>
       </c>
       <c r="R34" s="4">
         <v>12</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="4">
+        <v>12</v>
+      </c>
+      <c r="T34" s="3">
         <v>7</v>
       </c>
-      <c r="T34" s="3">
+      <c r="U34" s="3">
         <v>6</v>
       </c>
-      <c r="U34" s="3">
-        <v>2</v>
-      </c>
-      <c r="V34" s="3"/>
+      <c r="V34" s="3">
+        <v>2</v>
+      </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
@@ -2980,64 +3066,65 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>224</v>
+      </c>
+      <c r="C35" s="4">
         <v>171</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>140</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>121</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>113</v>
-      </c>
-      <c r="F35" s="4">
-        <v>91</v>
       </c>
       <c r="G35" s="4">
         <v>91</v>
       </c>
       <c r="H35" s="4">
+        <v>91</v>
+      </c>
+      <c r="I35" s="4">
         <v>85</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>46</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>41</v>
-      </c>
-      <c r="K35" s="4">
-        <v>31</v>
       </c>
       <c r="L35" s="4">
         <v>31</v>
       </c>
       <c r="M35" s="4">
+        <v>31</v>
+      </c>
+      <c r="N35" s="4">
         <v>20</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13</v>
       </c>
-      <c r="O35" s="4">
+      <c r="P35" s="4">
         <v>7</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5</v>
       </c>
-      <c r="Q35" s="4">
-        <v>4</v>
-      </c>
       <c r="R35" s="4">
         <v>4</v>
       </c>
-      <c r="S35" s="3">
-        <v>3</v>
+      <c r="S35" s="4">
+        <v>4</v>
       </c>
       <c r="T35" s="3">
         <v>3</v>
@@ -3052,68 +3139,73 @@
         <v>3</v>
       </c>
       <c r="X35" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>1</v>
+      </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="4">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4">
         <v>20</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>19</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>18</v>
-      </c>
-      <c r="E36" s="4">
-        <v>16</v>
       </c>
       <c r="F36" s="4">
         <v>16</v>
       </c>
       <c r="G36" s="4">
+        <v>16</v>
+      </c>
+      <c r="H36" s="4">
         <v>14</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>11</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>7</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>6</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>5</v>
       </c>
-      <c r="L36" s="4">
-        <v>4</v>
-      </c>
       <c r="M36" s="4">
         <v>4</v>
       </c>
-      <c r="N36" s="3">
-        <v>4</v>
-      </c>
-      <c r="O36" s="4">
-        <v>4</v>
-      </c>
-      <c r="P36" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="4"/>
+      <c r="N36" s="4">
+        <v>4</v>
+      </c>
+      <c r="O36" s="3">
+        <v>4</v>
+      </c>
+      <c r="P36" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>3</v>
+      </c>
       <c r="R36" s="4"/>
-      <c r="S36" s="3"/>
+      <c r="S36" s="4"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3126,69 +3218,72 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF36" s="3"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>194</v>
+      </c>
+      <c r="C37" s="4">
         <v>180</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>156</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>146</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>100</v>
-      </c>
-      <c r="F37" s="4">
-        <v>81</v>
       </c>
       <c r="G37" s="4">
         <v>81</v>
       </c>
       <c r="H37" s="4">
+        <v>81</v>
+      </c>
+      <c r="I37" s="4">
         <v>64</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>53</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>37</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>34</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>26</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>19</v>
       </c>
-      <c r="N37" s="3">
+      <c r="O37" s="3">
         <v>12</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <v>11</v>
       </c>
-      <c r="P37" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>4</v>
+      <c r="Q37" s="3">
+        <v>3</v>
       </c>
       <c r="R37" s="4">
-        <v>3</v>
-      </c>
-      <c r="S37" s="3">
+        <v>4</v>
+      </c>
+      <c r="S37" s="4">
         <v>3</v>
       </c>
       <c r="T37" s="3">
-        <v>2</v>
-      </c>
-      <c r="U37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="U37" s="3">
+        <v>2</v>
+      </c>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
@@ -3199,22 +3294,23 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF37" s="3"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>281</v>
+      </c>
+      <c r="C38" s="4">
         <v>255</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>176</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>127</v>
-      </c>
-      <c r="E38" s="4">
-        <v>110</v>
       </c>
       <c r="F38" s="4">
         <v>110</v>
@@ -3223,51 +3319,53 @@
         <v>110</v>
       </c>
       <c r="H38" s="4">
+        <v>110</v>
+      </c>
+      <c r="I38" s="4">
         <v>88</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>55</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>13</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>12</v>
-      </c>
-      <c r="L38" s="4">
-        <v>8</v>
       </c>
       <c r="M38" s="4">
         <v>8</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="4">
         <v>8</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="3">
+        <v>8</v>
+      </c>
+      <c r="P38" s="4">
         <v>5</v>
       </c>
-      <c r="P38" s="3">
+      <c r="Q38" s="3">
         <v>5</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="R38" s="4">
         <v>6</v>
       </c>
-      <c r="R38" s="4">
-        <v>3</v>
-      </c>
-      <c r="S38" s="3">
+      <c r="S38" s="4">
         <v>3</v>
       </c>
       <c r="T38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U38" s="3">
         <v>2</v>
       </c>
       <c r="V38" s="3">
-        <v>1</v>
-      </c>
-      <c r="W38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="W38" s="3">
+        <v>1</v>
+      </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
@@ -3276,19 +3374,20 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="3"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
+        <v>243</v>
+      </c>
+      <c r="C39" s="4">
         <v>190</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>172</v>
-      </c>
-      <c r="D39" s="4">
-        <v>117</v>
       </c>
       <c r="E39" s="4">
         <v>117</v>
@@ -3300,16 +3399,16 @@
         <v>117</v>
       </c>
       <c r="H39" s="4">
+        <v>117</v>
+      </c>
+      <c r="I39" s="4">
         <v>79</v>
-      </c>
-      <c r="I39" s="4">
-        <v>49</v>
       </c>
       <c r="J39" s="4">
         <v>49</v>
       </c>
       <c r="K39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="L39" s="4">
         <v>23</v>
@@ -3317,101 +3416,106 @@
       <c r="M39" s="4">
         <v>23</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="4">
         <v>23</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="3">
+        <v>23</v>
+      </c>
+      <c r="P39" s="4">
         <v>10</v>
       </c>
-      <c r="P39" s="3">
+      <c r="Q39" s="3">
         <v>5</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="R39" s="4">
         <v>6</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <v>5</v>
       </c>
-      <c r="S39" s="3">
+      <c r="T39" s="3">
         <v>5</v>
       </c>
-      <c r="T39" s="3">
-        <v>4</v>
-      </c>
       <c r="U39" s="3">
         <v>4</v>
       </c>
       <c r="V39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W39" s="3">
         <v>2</v>
       </c>
       <c r="X39" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>1</v>
+      </c>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>200</v>
+      </c>
+      <c r="C40" s="4">
         <v>167</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>117</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>113</v>
-      </c>
-      <c r="E40" s="4">
-        <v>95</v>
       </c>
       <c r="F40" s="4">
         <v>95</v>
       </c>
       <c r="G40" s="4">
+        <v>95</v>
+      </c>
+      <c r="H40" s="4">
         <v>94</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>43</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>33</v>
-      </c>
-      <c r="J40" s="4">
-        <v>31</v>
       </c>
       <c r="K40" s="4">
         <v>31</v>
       </c>
       <c r="L40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M40" s="4">
         <v>19</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="4">
+        <v>19</v>
+      </c>
+      <c r="O40" s="3">
         <v>11</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <v>7</v>
       </c>
-      <c r="P40" s="3">
+      <c r="Q40" s="3">
         <v>5</v>
       </c>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4"/>
-      <c r="S40" s="3"/>
+      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+      <c r="S40" s="4"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3424,40 +3528,41 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>396</v>
+      </c>
+      <c r="C41" s="4">
         <v>357</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>317</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>276</v>
-      </c>
-      <c r="E41" s="4">
-        <v>240</v>
       </c>
       <c r="F41" s="4">
         <v>240</v>
       </c>
       <c r="G41" s="4">
+        <v>240</v>
+      </c>
+      <c r="H41" s="4">
         <v>215</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>144</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>127</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>76</v>
-      </c>
-      <c r="K41" s="4">
-        <v>38</v>
       </c>
       <c r="L41" s="4">
         <v>38</v>
@@ -3465,38 +3570,38 @@
       <c r="M41" s="4">
         <v>38</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="4">
+        <v>38</v>
+      </c>
+      <c r="O41" s="3">
         <v>28</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>28</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="4">
         <v>14</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <v>13</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7</v>
       </c>
-      <c r="U41" s="3">
-        <v>4</v>
-      </c>
       <c r="V41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y41" s="3">
         <v>1</v>
@@ -3510,22 +3615,25 @@
       <c r="AB41" s="3">
         <v>1</v>
       </c>
-      <c r="AC41" s="3"/>
+      <c r="AC41" s="3">
+        <v>1</v>
+      </c>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
+        <v>60</v>
+      </c>
+      <c r="C42" s="4">
         <v>29</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>9</v>
-      </c>
-      <c r="D42" s="4">
-        <v>8</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
@@ -3534,42 +3642,42 @@
         <v>8</v>
       </c>
       <c r="G42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" s="4">
+        <v>3</v>
+      </c>
+      <c r="K42" s="4">
         <v>5</v>
       </c>
-      <c r="K42" s="4">
-        <v>4</v>
-      </c>
       <c r="L42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42" s="4">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>2</v>
-      </c>
-      <c r="O42" s="4">
-        <v>1</v>
-      </c>
-      <c r="P42" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="4">
+      <c r="N42" s="4">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
+        <v>2</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1</v>
       </c>
       <c r="R42" s="4">
         <v>1</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="4">
         <v>1</v>
       </c>
       <c r="T42" s="3">
@@ -3605,41 +3713,44 @@
       <c r="AD42" s="3">
         <v>1</v>
       </c>
-      <c r="AE42" s="3"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="3"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>206</v>
+      </c>
+      <c r="C43" s="4">
         <v>175</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>148</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>145</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>111</v>
-      </c>
-      <c r="F43" s="4">
-        <v>98</v>
       </c>
       <c r="G43" s="4">
         <v>98</v>
       </c>
       <c r="H43" s="4">
+        <v>98</v>
+      </c>
+      <c r="I43" s="4">
         <v>61</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>47</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>34</v>
-      </c>
-      <c r="K43" s="4">
-        <v>21</v>
       </c>
       <c r="L43" s="4">
         <v>21</v>
@@ -3647,20 +3758,22 @@
       <c r="M43" s="4">
         <v>21</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="4">
+        <v>21</v>
+      </c>
+      <c r="O43" s="3">
         <v>17</v>
       </c>
-      <c r="O43" s="4">
+      <c r="P43" s="4">
         <v>15</v>
       </c>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q43" s="3"/>
       <c r="R43" s="4">
         <v>1</v>
       </c>
-      <c r="S43" s="3"/>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
@@ -3673,40 +3786,41 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
+        <v>127</v>
+      </c>
+      <c r="C44" s="4">
         <v>123</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>81</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>78</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>69</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>48</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>39</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>28</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>27</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>16</v>
-      </c>
-      <c r="K44" s="4">
-        <v>6</v>
       </c>
       <c r="L44" s="4">
         <v>6</v>
@@ -3714,28 +3828,30 @@
       <c r="M44" s="4">
         <v>6</v>
       </c>
-      <c r="N44" s="3">
-        <v>3</v>
-      </c>
-      <c r="O44" s="4">
-        <v>2</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>1</v>
+      <c r="N44" s="4">
+        <v>6</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3</v>
+      </c>
+      <c r="P44" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>2</v>
       </c>
       <c r="R44" s="4">
         <v>1</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="4">
         <v>1</v>
       </c>
       <c r="T44" s="3">
         <v>1</v>
       </c>
-      <c r="U44" s="3"/>
+      <c r="U44" s="3">
+        <v>1</v>
+      </c>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
@@ -3746,63 +3862,64 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>184</v>
+      </c>
+      <c r="C45" s="4">
         <v>161</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>123</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>99</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>83</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>82</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>67</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>41</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>28</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>22</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>16</v>
-      </c>
-      <c r="L45" s="4">
-        <v>12</v>
       </c>
       <c r="M45" s="4">
         <v>12</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="4">
+        <v>12</v>
+      </c>
+      <c r="O45" s="3">
         <v>6</v>
       </c>
-      <c r="O45" s="4">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="4">
+      <c r="P45" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>3</v>
       </c>
       <c r="R45" s="4">
-        <v>1</v>
-      </c>
-      <c r="S45" s="3">
+        <v>3</v>
+      </c>
+      <c r="S45" s="4">
         <v>1</v>
       </c>
       <c r="T45" s="3">
@@ -3817,7 +3934,9 @@
       <c r="W45" s="3">
         <v>1</v>
       </c>
-      <c r="X45" s="3"/>
+      <c r="X45" s="3">
+        <v>1</v>
+      </c>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
@@ -3825,31 +3944,32 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>561</v>
+      </c>
+      <c r="C46" s="4">
         <v>504</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>451</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>441</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>350</v>
-      </c>
-      <c r="F46" s="4">
-        <v>308</v>
       </c>
       <c r="G46" s="4">
         <v>308</v>
       </c>
       <c r="H46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="I46" s="4">
         <v>196</v>
@@ -3858,7 +3978,7 @@
         <v>196</v>
       </c>
       <c r="K46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="L46" s="4">
         <v>60</v>
@@ -3866,37 +3986,39 @@
       <c r="M46" s="4">
         <v>60</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="4">
+        <v>60</v>
+      </c>
+      <c r="O46" s="3">
         <v>40</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <v>35</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="R46" s="4">
         <v>19</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <v>10</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8</v>
       </c>
-      <c r="U46" s="3">
-        <v>4</v>
-      </c>
       <c r="V46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W46" s="3">
-        <v>2</v>
-      </c>
-      <c r="X46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="X46" s="3">
+        <v>2</v>
+      </c>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
@@ -3904,64 +4026,65 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>377</v>
+      </c>
+      <c r="C47" s="4">
         <v>324</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>161</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>144</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>133</v>
-      </c>
-      <c r="F47" s="4">
-        <v>112</v>
       </c>
       <c r="G47" s="4">
         <v>112</v>
       </c>
       <c r="H47" s="4">
+        <v>112</v>
+      </c>
+      <c r="I47" s="4">
         <v>93</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>85</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>67</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>61</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>41</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>23</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>9</v>
       </c>
-      <c r="P47" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="3">
+        <v>3</v>
+      </c>
+      <c r="R47" s="4">
         <v>5</v>
       </c>
-      <c r="R47" s="4">
-        <v>3</v>
-      </c>
-      <c r="S47" s="3">
-        <v>2</v>
+      <c r="S47" s="4">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>2</v>
@@ -3996,38 +4119,41 @@
       <c r="AD47" s="3">
         <v>2</v>
       </c>
-      <c r="AE47" s="3"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="3"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>74</v>
+      </c>
+      <c r="C48" s="4">
         <v>40</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>32</v>
-      </c>
-      <c r="D48" s="4">
-        <v>15</v>
       </c>
       <c r="E48" s="4">
         <v>15</v>
       </c>
       <c r="F48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G48" s="4">
         <v>13</v>
       </c>
       <c r="H48" s="4">
+        <v>13</v>
+      </c>
+      <c r="I48" s="4">
         <v>10</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>7</v>
-      </c>
-      <c r="J48" s="4">
-        <v>5</v>
       </c>
       <c r="K48" s="4">
         <v>5</v>
@@ -4036,14 +4162,16 @@
         <v>5</v>
       </c>
       <c r="M48" s="4">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="N48" s="4">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="3"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="3"/>
+      <c r="S48" s="4"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4056,65 +4184,66 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="4">
+        <v>81</v>
+      </c>
+      <c r="C49" s="4">
         <v>72</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>58</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>53</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>40</v>
-      </c>
-      <c r="F49" s="4">
-        <v>35</v>
       </c>
       <c r="G49" s="4">
         <v>35</v>
       </c>
       <c r="H49" s="4">
+        <v>35</v>
+      </c>
+      <c r="I49" s="4">
         <v>21</v>
-      </c>
-      <c r="I49" s="4">
-        <v>19</v>
       </c>
       <c r="J49" s="4">
         <v>19</v>
       </c>
       <c r="K49" s="4">
+        <v>19</v>
+      </c>
+      <c r="L49" s="4">
         <v>13</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>12</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>7</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="4">
         <v>6</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
-        <v>4</v>
-      </c>
       <c r="T49" s="3">
         <v>4</v>
       </c>
@@ -4128,48 +4257,51 @@
         <v>4</v>
       </c>
       <c r="X49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y49" s="3">
         <v>1</v>
       </c>
-      <c r="Z49" s="3"/>
+      <c r="Z49" s="3">
+        <v>1</v>
+      </c>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>51</v>
+      </c>
+      <c r="C50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>40</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>25</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>15</v>
-      </c>
-      <c r="F50" s="4">
-        <v>13</v>
       </c>
       <c r="G50" s="4">
         <v>13</v>
       </c>
       <c r="H50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I50" s="4">
         <v>5</v>
       </c>
       <c r="J50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50" s="4">
         <v>4</v>
@@ -4178,16 +4310,18 @@
         <v>4</v>
       </c>
       <c r="M50" s="4">
-        <v>3</v>
-      </c>
-      <c r="N50" s="3">
-        <v>1</v>
-      </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="N50" s="4">
+        <v>3</v>
+      </c>
+      <c r="O50" s="3">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="3"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="3"/>
+      <c r="S50" s="4"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4200,22 +4334,23 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>219</v>
+      </c>
+      <c r="C51" s="4">
         <v>184</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>151</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>109</v>
-      </c>
-      <c r="E51" s="4">
-        <v>70</v>
       </c>
       <c r="F51" s="4">
         <v>70</v>
@@ -4224,39 +4359,39 @@
         <v>70</v>
       </c>
       <c r="H51" s="4">
+        <v>70</v>
+      </c>
+      <c r="I51" s="4">
         <v>60</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>51</v>
-      </c>
-      <c r="J51" s="4">
-        <v>33</v>
       </c>
       <c r="K51" s="4">
         <v>33</v>
       </c>
       <c r="L51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M51" s="4">
         <v>21</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="4">
         <v>21</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="3">
         <v>21</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="3">
         <v>19</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="R51" s="4">
         <v>15</v>
       </c>
-      <c r="R51" s="4">
-        <v>11</v>
-      </c>
-      <c r="S51" s="3">
+      <c r="S51" s="4">
         <v>11</v>
       </c>
       <c r="T51" s="3">
@@ -4269,148 +4404,155 @@
         <v>11</v>
       </c>
       <c r="W51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y51" s="3">
         <v>1</v>
       </c>
-      <c r="Z51" s="3"/>
+      <c r="Z51" s="3">
+        <v>1</v>
+      </c>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-    </row>
-    <row r="52" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF51" s="3"/>
+    </row>
+    <row r="52" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>7252</v>
+        <v>8441</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
+        <v>7252</v>
+      </c>
+      <c r="D52" s="15">
+        <f>SUM(D8:D51)</f>
         <v>6043</v>
       </c>
-      <c r="D52" s="15">
-        <f t="shared" ref="D52:I52" si="0">SUM(D8:D51)</f>
+      <c r="E52" s="15">
+        <f t="shared" ref="E52:J52" si="0">SUM(E8:E51)</f>
         <v>5333</v>
       </c>
-      <c r="E52" s="15">
+      <c r="F52" s="15">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="F52" s="15">
+      <c r="G52" s="15">
         <f t="shared" si="0"/>
         <v>3818</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>3665</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>2748</v>
       </c>
-      <c r="I52" s="14">
+      <c r="J52" s="14">
         <f t="shared" si="0"/>
         <v>2184</v>
       </c>
-      <c r="J52" s="5">
-        <f t="shared" ref="J52:AE52" si="1">SUM(J8:J51)</f>
+      <c r="K52" s="5">
+        <f t="shared" ref="K52:AF52" si="1">SUM(K8:K51)</f>
         <v>1641</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <f t="shared" si="1"/>
         <v>1105</v>
       </c>
-      <c r="L52" s="5">
+      <c r="M52" s="5">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <f t="shared" si="1"/>
         <v>827</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <f t="shared" si="1"/>
         <v>569</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AB52" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AC52" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AC52" s="5">
+      <c r="AD52" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AD52" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="AE52" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:31" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AF52" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>49</v>
       </c>
@@ -4430,16 +4572,17 @@
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Hu/SwFn9CkDuWglEsi7YhWxSP6aPcylScSHrx9j+fIlx68UbMcAeh47SoBetN+kDb4PSjubZv6vHCbYxL8hZqQ==" saltValue="s61LFENO+CJR26k0Qjln1w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RW8BTiCgKA6VH7aWJWYzZ4I6Js68S042o+vdO7SN5gVvmGi2sZX37YDX5QR4HcxDGY3Fn3QzQFhutUFkDstfhA==" saltValue="YWqMO/w+7QKKaZ5iWLJgjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:Q54"/>
+    <mergeCell ref="A54:R54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H52:AE52 D52:F52" formulaRange="1"/>
+    <ignoredError sqref="I52:AF52 E52:G52 B52:C52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="11535"/>
   </bookViews>
   <sheets>
-    <sheet name="Fälle Coronavirus in BW" sheetId="4" r:id="rId1"/>
+    <sheet name="Infizierte Coronavirus in BW" sheetId="4" r:id="rId1"/>
+    <sheet name="Todesfälle Coronavirus in BW" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
   <si>
     <t>Fälle</t>
   </si>
@@ -143,9 +144,6 @@
     <t>Stadt-/Landkreis</t>
   </si>
   <si>
-    <t>Anzahl der Fälle in Stadt-/Landkreisen</t>
-  </si>
-  <si>
     <t>Baden-Baden (Stadtkreis)</t>
   </si>
   <si>
@@ -174,6 +172,12 @@
   </si>
   <si>
     <t>Hinweis: Es handelt sich bei den Zahlen immer um einen vorläufigen Datenstand. Änderungen sind durch Nachmeldungen und Streichungen möglich. Aufgrund des Meldeverzugs zwischen dem Bekanntwerden neuer Fälle vor Ort und der Übermittlung an das Landesgesundheitsamt kann es mitunter auch deutliche Abweichungen zu den von den kommunalen Gesundheitsämtern aktuell herausgegebenen Zahlen geben. Dafür bitten wir um Verständnis.</t>
+  </si>
+  <si>
+    <t>Anzahl der Infizierten in Stadt-/Landkreisen</t>
+  </si>
+  <si>
+    <t>Anzahl der Todesfälle in Stadt-/Landkreisen</t>
   </si>
 </sst>
 </file>
@@ -602,37 +606,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AF54"/>
+  <dimension ref="A2:AG54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="2" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="20" max="21" width="11.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -729,169 +733,175 @@
       <c r="AF6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43917</v>
+      </c>
+      <c r="C7" s="13">
         <v>43916</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43915</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43914</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43913</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43912</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43911</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43910</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43909</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43908</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43907</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>43906</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>43905</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43904</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43903</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43902</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43901</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43900</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43899</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43898</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43897</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43896</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43895</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43894</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43893</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43892</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43891</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43890</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43889</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43888</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AF7" s="12">
         <v>43887</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AG7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
+        <v>130</v>
+      </c>
+      <c r="C8" s="4">
         <v>99</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>85</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>64</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>60</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>44</v>
-      </c>
-      <c r="G8" s="4">
-        <v>39</v>
       </c>
       <c r="H8" s="4">
         <v>39</v>
       </c>
       <c r="I8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J8" s="4">
         <v>26</v>
       </c>
       <c r="K8" s="4">
+        <v>26</v>
+      </c>
+      <c r="L8" s="4">
         <v>24</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>13</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>12</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>7</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>6</v>
       </c>
-      <c r="Q8" s="3">
-        <v>4</v>
-      </c>
-      <c r="R8" s="4">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>4</v>
       </c>
       <c r="S8" s="4">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="4">
         <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>3</v>
       </c>
       <c r="V8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W8" s="3">
         <v>2</v>
@@ -899,7 +909,9 @@
       <c r="X8" s="3">
         <v>2</v>
       </c>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="3">
+        <v>2</v>
+      </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -907,72 +919,75 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4">
         <v>39</v>
-      </c>
-      <c r="C9" s="4">
-        <v>36</v>
       </c>
       <c r="D9" s="4">
         <v>36</v>
       </c>
       <c r="E9" s="4">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4">
         <v>33</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>25</v>
-      </c>
-      <c r="G9" s="4">
-        <v>21</v>
       </c>
       <c r="H9" s="4">
         <v>21</v>
       </c>
       <c r="I9" s="4">
+        <v>21</v>
+      </c>
+      <c r="J9" s="4">
         <v>17</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>14</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>12</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>7</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>5</v>
       </c>
-      <c r="N9" s="4">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
-        <v>3</v>
-      </c>
-      <c r="P9" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>2</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1</v>
+      <c r="O9" s="4">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2</v>
       </c>
       <c r="S9" s="4">
         <v>1</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="4">
         <v>1</v>
       </c>
       <c r="U9" s="3">
         <v>1</v>
       </c>
-      <c r="V9" s="3"/>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -983,25 +998,26 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
+        <v>182</v>
+      </c>
+      <c r="C10" s="4">
         <v>144</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>106</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>82</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>74</v>
-      </c>
-      <c r="F10" s="4">
-        <v>45</v>
       </c>
       <c r="G10" s="4">
         <v>45</v>
@@ -1013,13 +1029,13 @@
         <v>45</v>
       </c>
       <c r="J10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="K10" s="4">
         <v>17</v>
       </c>
       <c r="L10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M10" s="4">
         <v>5</v>
@@ -1027,31 +1043,33 @@
       <c r="N10" s="4">
         <v>5</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="4">
         <v>5</v>
       </c>
-      <c r="P10" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>3</v>
-      </c>
-      <c r="R10" s="4">
+      <c r="P10" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>3</v>
       </c>
       <c r="S10" s="4">
         <v>3</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="4">
         <v>3</v>
       </c>
       <c r="U10" s="3">
         <v>3</v>
       </c>
       <c r="V10" s="3">
-        <v>1</v>
-      </c>
-      <c r="W10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
@@ -1061,34 +1079,35 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>333</v>
+      </c>
+      <c r="C11" s="4">
         <v>263</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>233</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>224</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>187</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>117</v>
-      </c>
-      <c r="G11" s="4">
-        <v>67</v>
       </c>
       <c r="H11" s="4">
         <v>67</v>
       </c>
       <c r="I11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="J11" s="4">
         <v>28</v>
@@ -1097,7 +1116,7 @@
         <v>28</v>
       </c>
       <c r="L11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M11" s="4">
         <v>9</v>
@@ -1105,22 +1124,22 @@
       <c r="N11" s="4">
         <v>9</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="4">
         <v>9</v>
       </c>
-      <c r="P11" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>4</v>
-      </c>
-      <c r="R11" s="4">
+      <c r="P11" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>4</v>
+      </c>
+      <c r="R11" s="3">
         <v>4</v>
       </c>
       <c r="S11" s="4">
-        <v>3</v>
-      </c>
-      <c r="T11" s="3">
+        <v>4</v>
+      </c>
+      <c r="T11" s="4">
         <v>3</v>
       </c>
       <c r="U11" s="3">
@@ -1130,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="W11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X11" s="3">
         <v>1</v>
@@ -1153,68 +1172,71 @@
       <c r="AD11" s="3">
         <v>1</v>
       </c>
-      <c r="AE11" s="3"/>
+      <c r="AE11" s="3">
+        <v>1</v>
+      </c>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>175</v>
+      </c>
+      <c r="C12" s="4">
         <v>153</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>121</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>89</v>
-      </c>
-      <c r="E12" s="4">
-        <v>83</v>
       </c>
       <c r="F12" s="4">
         <v>83</v>
       </c>
       <c r="G12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H12" s="4">
         <v>71</v>
       </c>
       <c r="I12" s="4">
+        <v>71</v>
+      </c>
+      <c r="J12" s="4">
         <v>62</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>39</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>31</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>29</v>
-      </c>
-      <c r="M12" s="4">
-        <v>13</v>
       </c>
       <c r="N12" s="4">
         <v>13</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="4">
+        <v>13</v>
+      </c>
+      <c r="P12" s="3">
         <v>8</v>
       </c>
-      <c r="P12" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="4">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>6</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>5</v>
       </c>
-      <c r="S12" s="4">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="T12" s="4">
         <v>4</v>
       </c>
       <c r="U12" s="3">
@@ -1224,12 +1246,14 @@
         <v>4</v>
       </c>
       <c r="W12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -1237,73 +1261,74 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>273</v>
+      </c>
+      <c r="C13" s="4">
         <v>254</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>223</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>197</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>178</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>167</v>
-      </c>
-      <c r="G13" s="4">
-        <v>134</v>
       </c>
       <c r="H13" s="4">
         <v>134</v>
       </c>
       <c r="I13" s="4">
+        <v>134</v>
+      </c>
+      <c r="J13" s="4">
         <v>101</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>78</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>54</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>45</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>42</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>26</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>19</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>18</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>12</v>
-      </c>
-      <c r="R13" s="4">
-        <v>6</v>
       </c>
       <c r="S13" s="4">
         <v>6</v>
       </c>
-      <c r="T13" s="3">
-        <v>5</v>
+      <c r="T13" s="4">
+        <v>6</v>
       </c>
       <c r="U13" s="3">
         <v>5</v>
       </c>
       <c r="V13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W13" s="3">
         <v>4</v>
@@ -1312,13 +1337,13 @@
         <v>4</v>
       </c>
       <c r="Y13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="3">
         <v>1</v>
       </c>
       <c r="AA13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="3">
         <v>3</v>
@@ -1329,69 +1354,72 @@
       <c r="AD13" s="3">
         <v>3</v>
       </c>
-      <c r="AE13" s="3"/>
+      <c r="AE13" s="3">
+        <v>3</v>
+      </c>
       <c r="AF13" s="3"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>226</v>
+      </c>
+      <c r="C14" s="4">
         <v>210</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>182</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>159</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>150</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>120</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>108</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>92</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>76</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>61</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>51</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>43</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>34</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>26</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>12</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>6</v>
       </c>
-      <c r="S14" s="4">
-        <v>2</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1</v>
+      <c r="T14" s="4">
+        <v>2</v>
       </c>
       <c r="U14" s="3">
         <v>1</v>
@@ -1399,7 +1427,9 @@
       <c r="V14" s="3">
         <v>1</v>
       </c>
-      <c r="W14" s="3"/>
+      <c r="W14" s="3">
+        <v>1</v>
+      </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
@@ -1409,154 +1439,160 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="3"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>191</v>
+      </c>
+      <c r="C15" s="11">
         <v>171</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>154</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>141</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>123</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>121</v>
-      </c>
-      <c r="G15" s="11">
-        <v>110</v>
       </c>
       <c r="H15" s="11">
         <v>110</v>
       </c>
       <c r="I15" s="11">
+        <v>110</v>
+      </c>
+      <c r="J15" s="11">
         <v>99</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="11">
         <v>60</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>59</v>
-      </c>
-      <c r="L15" s="11">
-        <v>35</v>
       </c>
       <c r="M15" s="11">
         <v>35</v>
       </c>
       <c r="N15" s="11">
+        <v>35</v>
+      </c>
+      <c r="O15" s="11">
         <v>21</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>17</v>
       </c>
-      <c r="P15" s="11">
+      <c r="Q15" s="11">
         <v>16</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>15</v>
-      </c>
-      <c r="R15" s="11">
-        <v>13</v>
       </c>
       <c r="S15" s="11">
         <v>13</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="11">
+        <v>13</v>
+      </c>
+      <c r="U15" s="3">
         <v>12</v>
       </c>
-      <c r="U15" s="3">
-        <v>3</v>
-      </c>
       <c r="V15" s="3">
-        <v>1</v>
-      </c>
-      <c r="W15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="3"/>
       <c r="Z15" s="3">
         <v>1</v>
       </c>
-      <c r="AA15" s="3"/>
+      <c r="AA15" s="3">
+        <v>1</v>
+      </c>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="3"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>74</v>
+      </c>
+      <c r="C16" s="4">
         <v>62</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>55</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>45</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>37</v>
-      </c>
-      <c r="F16" s="4">
-        <v>33</v>
       </c>
       <c r="G16" s="4">
         <v>33</v>
       </c>
       <c r="H16" s="4">
+        <v>33</v>
+      </c>
+      <c r="I16" s="4">
         <v>24</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>21</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>12</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>9</v>
       </c>
-      <c r="L16" s="4">
-        <v>4</v>
-      </c>
       <c r="M16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" s="4">
         <v>3</v>
       </c>
-      <c r="O16" s="3">
-        <v>3</v>
-      </c>
-      <c r="P16" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>2</v>
-      </c>
-      <c r="R16" s="4">
-        <v>1</v>
+      <c r="O16" s="4">
+        <v>3</v>
+      </c>
+      <c r="P16" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>3</v>
+      </c>
+      <c r="R16" s="3">
+        <v>2</v>
       </c>
       <c r="S16" s="4">
         <v>1</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="4">
         <v>1</v>
       </c>
       <c r="U16" s="3">
         <v>1</v>
       </c>
-      <c r="V16" s="3"/>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -1567,151 +1603,155 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>648</v>
+      </c>
+      <c r="C17" s="4">
         <v>596</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>493</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>462</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>435</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>362</v>
-      </c>
-      <c r="G17" s="4">
-        <v>323</v>
       </c>
       <c r="H17" s="4">
         <v>323</v>
       </c>
       <c r="I17" s="4">
+        <v>323</v>
+      </c>
+      <c r="J17" s="4">
         <v>234</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>193</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>128</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>123</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>111</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>82</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>47</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>43</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>23</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>18</v>
-      </c>
-      <c r="T17" s="3">
-        <v>16</v>
       </c>
       <c r="U17" s="3">
         <v>16</v>
       </c>
       <c r="V17" s="3">
+        <v>16</v>
+      </c>
+      <c r="W17" s="3">
         <v>14</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13</v>
-      </c>
-      <c r="X17" s="3">
-        <v>5</v>
       </c>
       <c r="Y17" s="3">
         <v>5</v>
       </c>
-      <c r="Z17" s="3"/>
+      <c r="Z17" s="3">
+        <v>5</v>
+      </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG17" s="3"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>325</v>
+      </c>
+      <c r="C18" s="4">
         <v>284</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>254</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>227</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>212</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>191</v>
-      </c>
-      <c r="G18" s="4">
-        <v>150</v>
       </c>
       <c r="H18" s="4">
         <v>150</v>
       </c>
       <c r="I18" s="4">
+        <v>150</v>
+      </c>
+      <c r="J18" s="4">
         <v>114</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>79</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>62</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>53</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>43</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>34</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>18</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13</v>
-      </c>
-      <c r="R18" s="4">
-        <v>12</v>
       </c>
       <c r="S18" s="4">
         <v>12</v>
       </c>
-      <c r="T18" s="3">
-        <v>8</v>
+      <c r="T18" s="4">
+        <v>12</v>
       </c>
       <c r="U18" s="3">
         <v>8</v>
@@ -1720,48 +1760,51 @@
         <v>8</v>
       </c>
       <c r="W18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X18" s="3">
         <v>6</v>
       </c>
       <c r="Y18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z18" s="3">
         <v>4</v>
       </c>
       <c r="AA18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>1</v>
+      </c>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG18" s="3"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
+        <v>110</v>
+      </c>
+      <c r="C19" s="4">
         <v>76</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>69</v>
-      </c>
-      <c r="D19" s="4">
-        <v>39</v>
       </c>
       <c r="E19" s="4">
         <v>39</v>
       </c>
       <c r="F19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G19" s="4">
         <v>14</v>
@@ -1776,31 +1819,33 @@
         <v>14</v>
       </c>
       <c r="K19" s="4">
+        <v>14</v>
+      </c>
+      <c r="L19" s="4">
         <v>10</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>8</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>7</v>
       </c>
-      <c r="N19" s="4">
-        <v>3</v>
-      </c>
-      <c r="O19" s="3">
-        <v>2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="4">
-        <v>1</v>
-      </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="3"/>
+      <c r="O19" s="4">
+        <v>3</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>2</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -1813,25 +1858,26 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
+        <v>278</v>
+      </c>
+      <c r="C20" s="4">
         <v>249</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>216</v>
-      </c>
-      <c r="D20" s="4">
-        <v>166</v>
       </c>
       <c r="E20" s="4">
         <v>166</v>
       </c>
       <c r="F20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="G20" s="4">
         <v>97</v>
@@ -1840,46 +1886,46 @@
         <v>97</v>
       </c>
       <c r="I20" s="4">
+        <v>97</v>
+      </c>
+      <c r="J20" s="4">
         <v>60</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>59</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>39</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>29</v>
-      </c>
-      <c r="M20" s="4">
-        <v>16</v>
       </c>
       <c r="N20" s="4">
         <v>16</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="4">
+        <v>16</v>
+      </c>
+      <c r="P20" s="3">
         <v>14</v>
       </c>
-      <c r="P20" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4">
-        <v>4</v>
+      <c r="Q20" s="4">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
       </c>
       <c r="S20" s="4">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3">
+        <v>4</v>
+      </c>
+      <c r="T20" s="4">
         <v>3</v>
       </c>
       <c r="U20" s="3">
         <v>3</v>
       </c>
       <c r="V20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="3">
         <v>2</v>
@@ -1903,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="AD20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE20" s="3">
         <v>1</v>
@@ -1911,31 +1957,34 @@
       <c r="AF20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4">
+        <v>113</v>
+      </c>
+      <c r="C21" s="4">
         <v>112</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>109</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>98</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>89</v>
-      </c>
-      <c r="F21" s="4">
-        <v>5</v>
       </c>
       <c r="G21" s="4">
         <v>5</v>
       </c>
       <c r="H21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" s="4">
         <v>3</v>
@@ -1944,40 +1993,40 @@
         <v>3</v>
       </c>
       <c r="K21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="4">
         <v>2</v>
       </c>
       <c r="M21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="4">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
-        <v>2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>2</v>
-      </c>
-      <c r="R21" s="4">
-        <v>5</v>
+      <c r="O21" s="4">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>2</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2</v>
       </c>
       <c r="S21" s="4">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="4">
         <v>5</v>
       </c>
       <c r="U21" s="3">
         <v>5</v>
       </c>
       <c r="V21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W21" s="3">
         <v>2</v>
@@ -1985,7 +2034,9 @@
       <c r="X21" s="3">
         <v>2</v>
       </c>
-      <c r="Y21" s="3"/>
+      <c r="Y21" s="3">
+        <v>2</v>
+      </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -1993,73 +2044,74 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG21" s="3"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>117</v>
+      </c>
+      <c r="C22" s="4">
         <v>98</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>97</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>62</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>60</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>57</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>47</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>39</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>34</v>
-      </c>
-      <c r="J22" s="4">
-        <v>17</v>
       </c>
       <c r="K22" s="4">
         <v>17</v>
       </c>
       <c r="L22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M22" s="4">
         <v>21</v>
       </c>
       <c r="N22" s="4">
+        <v>21</v>
+      </c>
+      <c r="O22" s="4">
         <v>19</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>4</v>
-      </c>
-      <c r="R22" s="4">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>4</v>
       </c>
       <c r="S22" s="4">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="4">
         <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>3</v>
       </c>
       <c r="V22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="3">
         <v>1</v>
@@ -2067,7 +2119,9 @@
       <c r="X22" s="3">
         <v>1</v>
       </c>
-      <c r="Y22" s="3"/>
+      <c r="Y22" s="3">
+        <v>1</v>
+      </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2075,88 +2129,89 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="3"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>331</v>
+      </c>
+      <c r="C23" s="11">
         <v>279</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>236</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>212</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>197</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>165</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>140</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>118</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>110</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>71</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>57</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>50</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>47</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>37</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="11">
         <v>32</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30</v>
-      </c>
-      <c r="R23" s="11">
-        <v>26</v>
       </c>
       <c r="S23" s="11">
         <v>26</v>
       </c>
-      <c r="T23" s="3">
-        <v>20</v>
+      <c r="T23" s="11">
+        <v>26</v>
       </c>
       <c r="U23" s="3">
         <v>20</v>
       </c>
       <c r="V23" s="3">
+        <v>20</v>
+      </c>
+      <c r="W23" s="3">
         <v>14</v>
-      </c>
-      <c r="W23" s="3">
-        <v>10</v>
       </c>
       <c r="X23" s="3">
         <v>10</v>
       </c>
       <c r="Y23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z23" s="3">
         <v>8</v>
       </c>
       <c r="AA23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB23" s="3">
         <v>1</v>
@@ -2164,67 +2219,70 @@
       <c r="AC23" s="3">
         <v>1</v>
       </c>
-      <c r="AD23" s="3"/>
+      <c r="AD23" s="3">
+        <v>1</v>
+      </c>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG23" s="3"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="11">
+        <v>104</v>
+      </c>
+      <c r="C24" s="11">
         <v>81</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>71</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="11">
         <v>60</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>55</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>28</v>
-      </c>
-      <c r="G24" s="11">
-        <v>20</v>
       </c>
       <c r="H24" s="11">
         <v>20</v>
       </c>
       <c r="I24" s="11">
+        <v>20</v>
+      </c>
+      <c r="J24" s="11">
         <v>19</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="11">
         <v>13</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>9</v>
       </c>
-      <c r="L24" s="11">
-        <v>4</v>
-      </c>
       <c r="M24" s="11">
         <v>4</v>
       </c>
       <c r="N24" s="11">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="11">
-        <v>3</v>
-      </c>
+      <c r="O24" s="11">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3"/>
       <c r="S24" s="11">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="11">
         <v>3</v>
       </c>
       <c r="U24" s="3">
@@ -2234,58 +2292,61 @@
         <v>3</v>
       </c>
       <c r="W24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X24" s="3">
         <v>2</v>
       </c>
-      <c r="Y24" s="3"/>
+      <c r="Y24" s="3">
+        <v>2</v>
+      </c>
       <c r="Z24" s="3"/>
-      <c r="AA24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="3"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>350</v>
+      </c>
+      <c r="C25" s="4">
         <v>302</v>
-      </c>
-      <c r="C25" s="4">
-        <v>278</v>
       </c>
       <c r="D25" s="4">
         <v>278</v>
       </c>
       <c r="E25" s="4">
+        <v>278</v>
+      </c>
+      <c r="F25" s="4">
         <v>257</v>
-      </c>
-      <c r="F25" s="4">
-        <v>222</v>
       </c>
       <c r="G25" s="4">
         <v>222</v>
       </c>
       <c r="H25" s="4">
+        <v>222</v>
+      </c>
+      <c r="I25" s="4">
         <v>182</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>154</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>135</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>64</v>
-      </c>
-      <c r="L25" s="4">
-        <v>29</v>
       </c>
       <c r="M25" s="4">
         <v>29</v>
@@ -2293,23 +2354,23 @@
       <c r="N25" s="4">
         <v>29</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="4">
+        <v>29</v>
+      </c>
+      <c r="P25" s="3">
         <v>8</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>8</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="3">
         <v>6</v>
       </c>
-      <c r="R25" s="4">
-        <v>2</v>
-      </c>
       <c r="S25" s="4">
         <v>2</v>
       </c>
-      <c r="T25" s="3">
-        <v>1</v>
+      <c r="T25" s="4">
+        <v>2</v>
       </c>
       <c r="U25" s="3">
         <v>1</v>
@@ -2320,7 +2381,9 @@
       <c r="W25" s="3">
         <v>1</v>
       </c>
-      <c r="X25" s="3"/>
+      <c r="X25" s="3">
+        <v>1</v>
+      </c>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -2329,79 +2392,80 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
+        <v>229</v>
+      </c>
+      <c r="C26" s="11">
         <v>206</v>
       </c>
-      <c r="C26" s="11">
+      <c r="D26" s="11">
         <v>189</v>
       </c>
-      <c r="D26" s="11">
+      <c r="E26" s="11">
         <v>172</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>154</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>104</v>
-      </c>
-      <c r="G26" s="11">
-        <v>96</v>
       </c>
       <c r="H26" s="11">
         <v>96</v>
       </c>
       <c r="I26" s="11">
+        <v>96</v>
+      </c>
+      <c r="J26" s="11">
         <v>75</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>63</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>47</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>24</v>
-      </c>
-      <c r="M26" s="11">
-        <v>29</v>
       </c>
       <c r="N26" s="11">
         <v>29</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="11">
+        <v>29</v>
+      </c>
+      <c r="P26" s="3">
         <v>16</v>
       </c>
-      <c r="P26" s="11">
+      <c r="Q26" s="11">
         <v>16</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12</v>
       </c>
-      <c r="R26" s="11">
+      <c r="S26" s="11">
         <v>9</v>
       </c>
-      <c r="S26" s="11">
-        <v>7</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="11">
         <v>7</v>
       </c>
       <c r="U26" s="3">
         <v>7</v>
       </c>
       <c r="V26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y26" s="3">
         <v>1</v>
@@ -2418,28 +2482,31 @@
       <c r="AC26" s="3">
         <v>1</v>
       </c>
-      <c r="AD26" s="3"/>
+      <c r="AD26" s="3">
+        <v>1</v>
+      </c>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG26" s="3"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="11">
+        <v>110</v>
+      </c>
+      <c r="C27" s="11">
         <v>99</v>
       </c>
-      <c r="C27" s="11">
+      <c r="D27" s="11">
         <v>85</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E27" s="11">
         <v>74</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>60</v>
-      </c>
-      <c r="F27" s="11">
-        <v>42</v>
       </c>
       <c r="G27" s="11">
         <v>42</v>
@@ -2448,16 +2515,16 @@
         <v>42</v>
       </c>
       <c r="I27" s="11">
+        <v>42</v>
+      </c>
+      <c r="J27" s="11">
         <v>34</v>
       </c>
-      <c r="J27" s="11">
+      <c r="K27" s="11">
         <v>29</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>26</v>
-      </c>
-      <c r="L27" s="11">
-        <v>14</v>
       </c>
       <c r="M27" s="11">
         <v>14</v>
@@ -2465,20 +2532,22 @@
       <c r="N27" s="11">
         <v>14</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="11">
+        <v>14</v>
+      </c>
+      <c r="P27" s="3">
         <v>8</v>
       </c>
-      <c r="P27" s="11">
+      <c r="Q27" s="11">
         <v>8</v>
       </c>
-      <c r="Q27" s="3">
-        <v>3</v>
-      </c>
-      <c r="R27" s="11">
-        <v>2</v>
-      </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="3"/>
+      <c r="R27" s="3">
+        <v>3</v>
+      </c>
+      <c r="S27" s="11">
+        <v>2</v>
+      </c>
+      <c r="T27" s="11"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -2491,25 +2560,26 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG27" s="3"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>124</v>
+      </c>
+      <c r="C28" s="4">
         <v>109</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>89</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>81</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>70</v>
-      </c>
-      <c r="F28" s="4">
-        <v>52</v>
       </c>
       <c r="G28" s="4">
         <v>52</v>
@@ -2518,16 +2588,16 @@
         <v>52</v>
       </c>
       <c r="I28" s="4">
+        <v>52</v>
+      </c>
+      <c r="J28" s="4">
         <v>43</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>34</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>28</v>
-      </c>
-      <c r="L28" s="4">
-        <v>20</v>
       </c>
       <c r="M28" s="4">
         <v>20</v>
@@ -2535,28 +2605,30 @@
       <c r="N28" s="4">
         <v>20</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="4">
+        <v>20</v>
+      </c>
+      <c r="P28" s="3">
         <v>7</v>
       </c>
-      <c r="P28" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>2</v>
-      </c>
-      <c r="R28" s="4">
-        <v>1</v>
+      <c r="Q28" s="4">
+        <v>2</v>
+      </c>
+      <c r="R28" s="3">
+        <v>2</v>
       </c>
       <c r="S28" s="4">
         <v>1</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="4">
         <v>1</v>
       </c>
       <c r="U28" s="3">
         <v>1</v>
       </c>
-      <c r="V28" s="3"/>
+      <c r="V28" s="3">
+        <v>1</v>
+      </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
@@ -2567,22 +2639,23 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>162</v>
+      </c>
+      <c r="C29" s="4">
         <v>147</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>136</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>101</v>
-      </c>
-      <c r="E29" s="4">
-        <v>57</v>
       </c>
       <c r="F29" s="4">
         <v>57</v>
@@ -2594,16 +2667,16 @@
         <v>57</v>
       </c>
       <c r="I29" s="4">
+        <v>57</v>
+      </c>
+      <c r="J29" s="4">
         <v>41</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>25</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>16</v>
-      </c>
-      <c r="L29" s="4">
-        <v>10</v>
       </c>
       <c r="M29" s="4">
         <v>10</v>
@@ -2611,20 +2684,20 @@
       <c r="N29" s="4">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="4">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>6</v>
       </c>
-      <c r="P29" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q29" s="4">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3"/>
       <c r="S29" s="4">
         <v>1</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="4">
         <v>1</v>
       </c>
       <c r="U29" s="3">
@@ -2642,50 +2715,53 @@
       <c r="Y29" s="3">
         <v>1</v>
       </c>
-      <c r="Z29" s="3"/>
+      <c r="Z29" s="3">
+        <v>1</v>
+      </c>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>543</v>
+      </c>
+      <c r="C30" s="4">
         <v>450</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>352</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>275</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>250</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>236</v>
-      </c>
-      <c r="G30" s="4">
-        <v>175</v>
       </c>
       <c r="H30" s="4">
         <v>175</v>
       </c>
       <c r="I30" s="4">
+        <v>175</v>
+      </c>
+      <c r="J30" s="4">
         <v>126</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>112</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>87</v>
-      </c>
-      <c r="L30" s="4">
-        <v>38</v>
       </c>
       <c r="M30" s="4">
         <v>38</v>
@@ -2693,41 +2769,41 @@
       <c r="N30" s="4">
         <v>38</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="4">
+        <v>38</v>
+      </c>
+      <c r="P30" s="3">
         <v>24</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>18</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="R30" s="3">
         <v>11</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>11</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <v>8</v>
-      </c>
-      <c r="T30" s="3">
-        <v>7</v>
       </c>
       <c r="U30" s="3">
         <v>7</v>
       </c>
       <c r="V30" s="3">
+        <v>7</v>
+      </c>
+      <c r="W30" s="3">
         <v>5</v>
       </c>
-      <c r="W30" s="3">
-        <v>3</v>
-      </c>
       <c r="X30" s="3">
         <v>3</v>
       </c>
       <c r="Y30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA30" s="3">
         <v>1</v>
@@ -2738,28 +2814,31 @@
       <c r="AC30" s="3">
         <v>1</v>
       </c>
-      <c r="AD30" s="3"/>
+      <c r="AD30" s="3">
+        <v>1</v>
+      </c>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
+        <v>74</v>
+      </c>
+      <c r="C31" s="4">
         <v>67</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>58</v>
-      </c>
-      <c r="D31" s="4">
-        <v>53</v>
       </c>
       <c r="E31" s="4">
         <v>53</v>
       </c>
       <c r="F31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G31" s="4">
         <v>36</v>
@@ -2768,10 +2847,10 @@
         <v>36</v>
       </c>
       <c r="I31" s="4">
+        <v>36</v>
+      </c>
+      <c r="J31" s="4">
         <v>33</v>
-      </c>
-      <c r="J31" s="4">
-        <v>31</v>
       </c>
       <c r="K31" s="4">
         <v>31</v>
@@ -2783,39 +2862,41 @@
         <v>31</v>
       </c>
       <c r="N31" s="4">
+        <v>31</v>
+      </c>
+      <c r="O31" s="4">
         <v>30</v>
       </c>
-      <c r="O31" s="3">
+      <c r="P31" s="3">
         <v>28</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Q31" s="4">
         <v>24</v>
       </c>
-      <c r="Q31" s="3">
-        <v>24</v>
-      </c>
-      <c r="R31" s="4">
+      <c r="R31" s="3">
         <v>24</v>
       </c>
       <c r="S31" s="4">
         <v>24</v>
       </c>
-      <c r="T31" s="3">
-        <v>23</v>
+      <c r="T31" s="4">
+        <v>24</v>
       </c>
       <c r="U31" s="3">
         <v>23</v>
       </c>
       <c r="V31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="W31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31" s="3">
         <v>1</v>
       </c>
-      <c r="Y31" s="3"/>
+      <c r="Y31" s="3">
+        <v>1</v>
+      </c>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
@@ -2823,22 +2904,23 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4">
+        <v>166</v>
+      </c>
+      <c r="C32" s="4">
         <v>158</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>145</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>135</v>
-      </c>
-      <c r="E32" s="4">
-        <v>80</v>
       </c>
       <c r="F32" s="4">
         <v>80</v>
@@ -2850,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="I32" s="4">
+        <v>80</v>
+      </c>
+      <c r="J32" s="4">
         <v>73</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>71</v>
-      </c>
-      <c r="K32" s="4">
-        <v>27</v>
       </c>
       <c r="L32" s="4">
         <v>27</v>
@@ -2867,38 +2949,38 @@
       <c r="N32" s="4">
         <v>27</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="4">
+        <v>27</v>
+      </c>
+      <c r="P32" s="3">
         <v>22</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="4">
         <v>12</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12</v>
-      </c>
-      <c r="R32" s="4">
-        <v>9</v>
       </c>
       <c r="S32" s="4">
         <v>9</v>
       </c>
-      <c r="T32" s="3">
-        <v>7</v>
+      <c r="T32" s="4">
+        <v>9</v>
       </c>
       <c r="U32" s="3">
         <v>7</v>
       </c>
       <c r="V32" s="3">
+        <v>7</v>
+      </c>
+      <c r="W32" s="3">
         <v>5</v>
       </c>
-      <c r="W32" s="3">
-        <v>4</v>
-      </c>
       <c r="X32" s="3">
         <v>4</v>
       </c>
       <c r="Y32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z32" s="3">
         <v>3</v>
@@ -2906,71 +2988,74 @@
       <c r="AA32" s="3">
         <v>3</v>
       </c>
-      <c r="AB32" s="3"/>
+      <c r="AB32" s="3">
+        <v>3</v>
+      </c>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG32" s="3"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4">
         <v>58</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>45</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>40</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>35</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>30</v>
-      </c>
-      <c r="G33" s="4">
-        <v>26</v>
       </c>
       <c r="H33" s="4">
         <v>26</v>
       </c>
       <c r="I33" s="4">
+        <v>26</v>
+      </c>
+      <c r="J33" s="4">
         <v>20</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>17</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>14</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>7</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>10</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>6</v>
       </c>
-      <c r="O33" s="3">
-        <v>4</v>
-      </c>
-      <c r="P33" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>2</v>
-      </c>
-      <c r="R33" s="4">
-        <v>1</v>
+      <c r="P33" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>2</v>
+      </c>
+      <c r="R33" s="3">
+        <v>2</v>
       </c>
       <c r="S33" s="4">
         <v>1</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="4">
         <v>1</v>
       </c>
       <c r="U33" s="3">
@@ -2979,7 +3064,9 @@
       <c r="V33" s="3">
         <v>1</v>
       </c>
-      <c r="W33" s="3"/>
+      <c r="W33" s="3">
+        <v>1</v>
+      </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
@@ -2989,75 +3076,78 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG33" s="3"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>197</v>
+      </c>
+      <c r="C34" s="4">
         <v>175</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>135</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>120</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>104</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>82</v>
-      </c>
-      <c r="G34" s="4">
-        <v>71</v>
       </c>
       <c r="H34" s="4">
         <v>71</v>
       </c>
       <c r="I34" s="4">
+        <v>71</v>
+      </c>
+      <c r="J34" s="4">
         <v>55</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>45</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>38</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>28</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>25</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>22</v>
       </c>
-      <c r="O34" s="3">
+      <c r="P34" s="3">
         <v>16</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>13</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="R34" s="3">
         <v>13</v>
-      </c>
-      <c r="R34" s="4">
-        <v>12</v>
       </c>
       <c r="S34" s="4">
         <v>12</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34" s="4">
+        <v>12</v>
+      </c>
+      <c r="U34" s="3">
         <v>7</v>
       </c>
-      <c r="U34" s="3">
+      <c r="V34" s="3">
         <v>6</v>
       </c>
-      <c r="V34" s="3">
-        <v>2</v>
-      </c>
-      <c r="W34" s="3"/>
+      <c r="W34" s="3">
+        <v>2</v>
+      </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
@@ -3067,67 +3157,68 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>236</v>
+      </c>
+      <c r="C35" s="4">
         <v>224</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>171</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>140</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>121</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>113</v>
-      </c>
-      <c r="G35" s="4">
-        <v>91</v>
       </c>
       <c r="H35" s="4">
         <v>91</v>
       </c>
       <c r="I35" s="4">
+        <v>91</v>
+      </c>
+      <c r="J35" s="4">
         <v>85</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>46</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>41</v>
-      </c>
-      <c r="L35" s="4">
-        <v>31</v>
       </c>
       <c r="M35" s="4">
         <v>31</v>
       </c>
       <c r="N35" s="4">
+        <v>31</v>
+      </c>
+      <c r="O35" s="4">
         <v>20</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13</v>
       </c>
-      <c r="P35" s="4">
+      <c r="Q35" s="4">
         <v>7</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5</v>
       </c>
-      <c r="R35" s="4">
-        <v>4</v>
-      </c>
       <c r="S35" s="4">
         <v>4</v>
       </c>
-      <c r="T35" s="3">
-        <v>3</v>
+      <c r="T35" s="4">
+        <v>4</v>
       </c>
       <c r="U35" s="3">
         <v>3</v>
@@ -3142,71 +3233,76 @@
         <v>3</v>
       </c>
       <c r="Y35" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>1</v>
+      </c>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG35" s="3"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4">
+        <v>25</v>
+      </c>
+      <c r="C36" s="4">
         <v>22</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>20</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>19</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>18</v>
-      </c>
-      <c r="F36" s="4">
-        <v>16</v>
       </c>
       <c r="G36" s="4">
         <v>16</v>
       </c>
       <c r="H36" s="4">
+        <v>16</v>
+      </c>
+      <c r="I36" s="4">
         <v>14</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>11</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>7</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>6</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>5</v>
       </c>
-      <c r="M36" s="4">
-        <v>4</v>
-      </c>
       <c r="N36" s="4">
         <v>4</v>
       </c>
-      <c r="O36" s="3">
-        <v>4</v>
-      </c>
-      <c r="P36" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>3</v>
-      </c>
-      <c r="R36" s="4"/>
+      <c r="O36" s="4">
+        <v>4</v>
+      </c>
+      <c r="P36" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>4</v>
+      </c>
+      <c r="R36" s="3">
+        <v>3</v>
+      </c>
       <c r="S36" s="4"/>
-      <c r="T36" s="3"/>
+      <c r="T36" s="4"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -3219,72 +3315,75 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG36" s="3"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>222</v>
+      </c>
+      <c r="C37" s="4">
         <v>194</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>180</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>156</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>146</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>100</v>
-      </c>
-      <c r="G37" s="4">
-        <v>81</v>
       </c>
       <c r="H37" s="4">
         <v>81</v>
       </c>
       <c r="I37" s="4">
+        <v>81</v>
+      </c>
+      <c r="J37" s="4">
         <v>64</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>53</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>37</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>34</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>26</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>19</v>
       </c>
-      <c r="O37" s="3">
+      <c r="P37" s="3">
         <v>12</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>11</v>
       </c>
-      <c r="Q37" s="3">
-        <v>3</v>
-      </c>
-      <c r="R37" s="4">
-        <v>4</v>
+      <c r="R37" s="3">
+        <v>3</v>
       </c>
       <c r="S37" s="4">
-        <v>3</v>
-      </c>
-      <c r="T37" s="3">
+        <v>4</v>
+      </c>
+      <c r="T37" s="4">
         <v>3</v>
       </c>
       <c r="U37" s="3">
-        <v>2</v>
-      </c>
-      <c r="V37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="V37" s="3">
+        <v>2</v>
+      </c>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -3295,25 +3394,26 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG37" s="3"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>304</v>
+      </c>
+      <c r="C38" s="4">
         <v>281</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>255</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>176</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>127</v>
-      </c>
-      <c r="F38" s="4">
-        <v>110</v>
       </c>
       <c r="G38" s="4">
         <v>110</v>
@@ -3322,51 +3422,53 @@
         <v>110</v>
       </c>
       <c r="I38" s="4">
+        <v>110</v>
+      </c>
+      <c r="J38" s="4">
         <v>88</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>55</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>13</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>12</v>
-      </c>
-      <c r="M38" s="4">
-        <v>8</v>
       </c>
       <c r="N38" s="4">
         <v>8</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="4">
         <v>8</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="4">
         <v>5</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="R38" s="3">
         <v>5</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <v>6</v>
       </c>
-      <c r="S38" s="4">
-        <v>3</v>
-      </c>
-      <c r="T38" s="3">
+      <c r="T38" s="4">
         <v>3</v>
       </c>
       <c r="U38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V38" s="3">
         <v>2</v>
       </c>
       <c r="W38" s="3">
-        <v>1</v>
-      </c>
-      <c r="X38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="X38" s="3">
+        <v>1</v>
+      </c>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
@@ -3375,22 +3477,23 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG38" s="3"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
+        <v>285</v>
+      </c>
+      <c r="C39" s="4">
         <v>243</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>190</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>172</v>
-      </c>
-      <c r="E39" s="4">
-        <v>117</v>
       </c>
       <c r="F39" s="4">
         <v>117</v>
@@ -3402,16 +3505,16 @@
         <v>117</v>
       </c>
       <c r="I39" s="4">
+        <v>117</v>
+      </c>
+      <c r="J39" s="4">
         <v>79</v>
-      </c>
-      <c r="J39" s="4">
-        <v>49</v>
       </c>
       <c r="K39" s="4">
         <v>49</v>
       </c>
       <c r="L39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M39" s="4">
         <v>23</v>
@@ -3419,104 +3522,109 @@
       <c r="N39" s="4">
         <v>23</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="4">
         <v>23</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="4">
         <v>10</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="R39" s="3">
         <v>5</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <v>6</v>
       </c>
-      <c r="S39" s="4">
+      <c r="T39" s="4">
         <v>5</v>
       </c>
-      <c r="T39" s="3">
+      <c r="U39" s="3">
         <v>5</v>
       </c>
-      <c r="U39" s="3">
-        <v>4</v>
-      </c>
       <c r="V39" s="3">
         <v>4</v>
       </c>
       <c r="W39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X39" s="3">
         <v>2</v>
       </c>
       <c r="Y39" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>1</v>
+      </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>235</v>
+      </c>
+      <c r="C40" s="4">
         <v>200</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>167</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>117</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>113</v>
-      </c>
-      <c r="F40" s="4">
-        <v>95</v>
       </c>
       <c r="G40" s="4">
         <v>95</v>
       </c>
       <c r="H40" s="4">
+        <v>95</v>
+      </c>
+      <c r="I40" s="4">
         <v>94</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>43</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>33</v>
-      </c>
-      <c r="K40" s="4">
-        <v>31</v>
       </c>
       <c r="L40" s="4">
         <v>31</v>
       </c>
       <c r="M40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N40" s="4">
         <v>19</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="4">
+        <v>19</v>
+      </c>
+      <c r="P40" s="3">
         <v>11</v>
       </c>
-      <c r="P40" s="4">
+      <c r="Q40" s="4">
         <v>7</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="R40" s="3">
         <v>5</v>
       </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
-      <c r="S40" s="4"/>
-      <c r="T40" s="3"/>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+      <c r="T40" s="4"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -3529,43 +3637,44 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>405</v>
+      </c>
+      <c r="C41" s="4">
         <v>396</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>357</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>317</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>276</v>
-      </c>
-      <c r="F41" s="4">
-        <v>240</v>
       </c>
       <c r="G41" s="4">
         <v>240</v>
       </c>
       <c r="H41" s="4">
+        <v>240</v>
+      </c>
+      <c r="I41" s="4">
         <v>215</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>144</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>127</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>76</v>
-      </c>
-      <c r="L41" s="4">
-        <v>38</v>
       </c>
       <c r="M41" s="4">
         <v>38</v>
@@ -3573,38 +3682,38 @@
       <c r="N41" s="4">
         <v>38</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="4">
+        <v>38</v>
+      </c>
+      <c r="P41" s="3">
         <v>28</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <v>28</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <v>14</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <v>13</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7</v>
       </c>
-      <c r="V41" s="3">
-        <v>4</v>
-      </c>
       <c r="W41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z41" s="3">
         <v>1</v>
@@ -3618,25 +3727,28 @@
       <c r="AC41" s="3">
         <v>1</v>
       </c>
-      <c r="AD41" s="3"/>
+      <c r="AD41" s="3">
+        <v>1</v>
+      </c>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG41" s="3"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
+        <v>87</v>
+      </c>
+      <c r="C42" s="4">
         <v>60</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>29</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>9</v>
-      </c>
-      <c r="E42" s="4">
-        <v>8</v>
       </c>
       <c r="F42" s="4">
         <v>8</v>
@@ -3645,42 +3757,42 @@
         <v>8</v>
       </c>
       <c r="H42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" s="4">
+        <v>3</v>
+      </c>
+      <c r="L42" s="4">
         <v>5</v>
       </c>
-      <c r="L42" s="4">
-        <v>4</v>
-      </c>
       <c r="M42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" s="4">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>2</v>
-      </c>
-      <c r="P42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>1</v>
-      </c>
-      <c r="R42" s="4">
+      <c r="O42" s="4">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>1</v>
+      </c>
+      <c r="R42" s="3">
         <v>1</v>
       </c>
       <c r="S42" s="4">
         <v>1</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="4">
         <v>1</v>
       </c>
       <c r="U42" s="3">
@@ -3716,44 +3828,47 @@
       <c r="AE42" s="3">
         <v>1</v>
       </c>
-      <c r="AF42" s="3"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="3"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>253</v>
+      </c>
+      <c r="C43" s="4">
         <v>206</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>175</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>148</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>145</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>111</v>
-      </c>
-      <c r="G43" s="4">
-        <v>98</v>
       </c>
       <c r="H43" s="4">
         <v>98</v>
       </c>
       <c r="I43" s="4">
+        <v>98</v>
+      </c>
+      <c r="J43" s="4">
         <v>61</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>47</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>34</v>
-      </c>
-      <c r="L43" s="4">
-        <v>21</v>
       </c>
       <c r="M43" s="4">
         <v>21</v>
@@ -3761,20 +3876,22 @@
       <c r="N43" s="4">
         <v>21</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="4">
+        <v>21</v>
+      </c>
+      <c r="P43" s="3">
         <v>17</v>
       </c>
-      <c r="P43" s="4">
+      <c r="Q43" s="4">
         <v>15</v>
       </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="4">
-        <v>1</v>
-      </c>
+      <c r="R43" s="3"/>
       <c r="S43" s="4">
         <v>1</v>
       </c>
-      <c r="T43" s="3"/>
+      <c r="T43" s="4">
+        <v>1</v>
+      </c>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -3787,43 +3904,44 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG43" s="3"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
+        <v>137</v>
+      </c>
+      <c r="C44" s="4">
         <v>127</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>123</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>81</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>78</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>69</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>48</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>39</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>28</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>27</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>16</v>
-      </c>
-      <c r="L44" s="4">
-        <v>6</v>
       </c>
       <c r="M44" s="4">
         <v>6</v>
@@ -3831,28 +3949,30 @@
       <c r="N44" s="4">
         <v>6</v>
       </c>
-      <c r="O44" s="3">
-        <v>3</v>
-      </c>
-      <c r="P44" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2</v>
-      </c>
-      <c r="R44" s="4">
-        <v>1</v>
+      <c r="O44" s="4">
+        <v>6</v>
+      </c>
+      <c r="P44" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>2</v>
+      </c>
+      <c r="R44" s="3">
+        <v>2</v>
       </c>
       <c r="S44" s="4">
         <v>1</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="4">
         <v>1</v>
       </c>
       <c r="U44" s="3">
         <v>1</v>
       </c>
-      <c r="V44" s="3"/>
+      <c r="V44" s="3">
+        <v>1</v>
+      </c>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
@@ -3863,66 +3983,67 @@
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="3"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>235</v>
+      </c>
+      <c r="C45" s="4">
         <v>184</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>161</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>123</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>99</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>83</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>82</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>67</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>41</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>28</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>22</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>16</v>
-      </c>
-      <c r="M45" s="4">
-        <v>12</v>
       </c>
       <c r="N45" s="4">
         <v>12</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="4">
+        <v>12</v>
+      </c>
+      <c r="P45" s="3">
         <v>6</v>
       </c>
-      <c r="P45" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>3</v>
-      </c>
-      <c r="R45" s="4">
+      <c r="Q45" s="4">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>3</v>
       </c>
       <c r="S45" s="4">
-        <v>1</v>
-      </c>
-      <c r="T45" s="3">
+        <v>3</v>
+      </c>
+      <c r="T45" s="4">
         <v>1</v>
       </c>
       <c r="U45" s="3">
@@ -3937,7 +4058,9 @@
       <c r="X45" s="3">
         <v>1</v>
       </c>
-      <c r="Y45" s="3"/>
+      <c r="Y45" s="3">
+        <v>1</v>
+      </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
@@ -3945,34 +4068,35 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG45" s="3"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>635</v>
+      </c>
+      <c r="C46" s="4">
         <v>561</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>504</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>451</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>441</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>350</v>
-      </c>
-      <c r="G46" s="4">
-        <v>308</v>
       </c>
       <c r="H46" s="4">
         <v>308</v>
       </c>
       <c r="I46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="J46" s="4">
         <v>196</v>
@@ -3981,7 +4105,7 @@
         <v>196</v>
       </c>
       <c r="L46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="M46" s="4">
         <v>60</v>
@@ -3989,37 +4113,39 @@
       <c r="N46" s="4">
         <v>60</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="4">
+        <v>60</v>
+      </c>
+      <c r="P46" s="3">
         <v>40</v>
       </c>
-      <c r="P46" s="4">
+      <c r="Q46" s="4">
         <v>35</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <v>19</v>
       </c>
-      <c r="S46" s="4">
+      <c r="T46" s="4">
         <v>10</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8</v>
       </c>
-      <c r="V46" s="3">
-        <v>4</v>
-      </c>
       <c r="W46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X46" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>2</v>
+      </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -4027,67 +4153,68 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG46" s="3"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>525</v>
+      </c>
+      <c r="C47" s="4">
         <v>377</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>324</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>161</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>144</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>133</v>
-      </c>
-      <c r="G47" s="4">
-        <v>112</v>
       </c>
       <c r="H47" s="4">
         <v>112</v>
       </c>
       <c r="I47" s="4">
+        <v>112</v>
+      </c>
+      <c r="J47" s="4">
         <v>93</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>85</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>67</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>61</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>41</v>
       </c>
-      <c r="N47" s="4">
+      <c r="O47" s="4">
         <v>23</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9</v>
       </c>
-      <c r="P47" s="4">
+      <c r="Q47" s="4">
         <v>9</v>
       </c>
-      <c r="Q47" s="3">
-        <v>3</v>
-      </c>
-      <c r="R47" s="4">
+      <c r="R47" s="3">
+        <v>3</v>
+      </c>
+      <c r="S47" s="4">
         <v>5</v>
       </c>
-      <c r="S47" s="4">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3">
-        <v>2</v>
+      <c r="T47" s="4">
+        <v>3</v>
       </c>
       <c r="U47" s="3">
         <v>2</v>
@@ -4122,41 +4249,44 @@
       <c r="AE47" s="3">
         <v>2</v>
       </c>
-      <c r="AF47" s="3"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG47" s="3"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>85</v>
+      </c>
+      <c r="C48" s="4">
         <v>74</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>40</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>32</v>
-      </c>
-      <c r="E48" s="4">
-        <v>15</v>
       </c>
       <c r="F48" s="4">
         <v>15</v>
       </c>
       <c r="G48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H48" s="4">
         <v>13</v>
       </c>
       <c r="I48" s="4">
+        <v>13</v>
+      </c>
+      <c r="J48" s="4">
         <v>10</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>7</v>
-      </c>
-      <c r="K48" s="4">
-        <v>5</v>
       </c>
       <c r="L48" s="4">
         <v>5</v>
@@ -4165,14 +4295,16 @@
         <v>5</v>
       </c>
       <c r="N48" s="4">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="O48" s="4">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="3"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="3"/>
+      <c r="T48" s="4"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -4185,68 +4317,69 @@
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG48" s="3"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="4">
+        <v>89</v>
+      </c>
+      <c r="C49" s="4">
         <v>81</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>72</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>58</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>53</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>40</v>
-      </c>
-      <c r="G49" s="4">
-        <v>35</v>
       </c>
       <c r="H49" s="4">
         <v>35</v>
       </c>
       <c r="I49" s="4">
+        <v>35</v>
+      </c>
+      <c r="J49" s="4">
         <v>21</v>
-      </c>
-      <c r="J49" s="4">
-        <v>19</v>
       </c>
       <c r="K49" s="4">
         <v>19</v>
       </c>
       <c r="L49" s="4">
+        <v>19</v>
+      </c>
+      <c r="M49" s="4">
         <v>13</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>12</v>
       </c>
-      <c r="N49" s="4">
+      <c r="O49" s="4">
         <v>7</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5</v>
       </c>
-      <c r="P49" s="4">
+      <c r="Q49" s="4">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <v>6</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
-        <v>4</v>
-      </c>
       <c r="U49" s="3">
         <v>4</v>
       </c>
@@ -4260,51 +4393,54 @@
         <v>4</v>
       </c>
       <c r="Y49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z49" s="3">
         <v>1</v>
       </c>
-      <c r="AA49" s="3"/>
+      <c r="AA49" s="3">
+        <v>1</v>
+      </c>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="3"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>61</v>
+      </c>
+      <c r="C50" s="4">
         <v>51</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>48</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>40</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>25</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>15</v>
-      </c>
-      <c r="G50" s="4">
-        <v>13</v>
       </c>
       <c r="H50" s="4">
         <v>13</v>
       </c>
       <c r="I50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J50" s="4">
         <v>5</v>
       </c>
       <c r="K50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L50" s="4">
         <v>4</v>
@@ -4313,16 +4449,18 @@
         <v>4</v>
       </c>
       <c r="N50" s="4">
-        <v>3</v>
-      </c>
-      <c r="O50" s="3">
-        <v>1</v>
-      </c>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="O50" s="4">
+        <v>3</v>
+      </c>
+      <c r="P50" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="3"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="3"/>
+      <c r="T50" s="4"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -4335,25 +4473,26 @@
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>232</v>
+      </c>
+      <c r="C51" s="4">
         <v>219</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>184</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>151</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>109</v>
-      </c>
-      <c r="F51" s="4">
-        <v>70</v>
       </c>
       <c r="G51" s="4">
         <v>70</v>
@@ -4362,39 +4501,39 @@
         <v>70</v>
       </c>
       <c r="I51" s="4">
+        <v>70</v>
+      </c>
+      <c r="J51" s="4">
         <v>60</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>51</v>
-      </c>
-      <c r="K51" s="4">
-        <v>33</v>
       </c>
       <c r="L51" s="4">
         <v>33</v>
       </c>
       <c r="M51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N51" s="4">
         <v>21</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="4">
         <v>21</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="3">
         <v>21</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q51" s="4">
+        <v>21</v>
+      </c>
+      <c r="R51" s="3">
         <v>19</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <v>15</v>
       </c>
-      <c r="S51" s="4">
-        <v>11</v>
-      </c>
-      <c r="T51" s="3">
+      <c r="T51" s="4">
         <v>11</v>
       </c>
       <c r="U51" s="3">
@@ -4407,154 +4546,161 @@
         <v>11</v>
       </c>
       <c r="X51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Y51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z51" s="3">
         <v>1</v>
       </c>
-      <c r="AA51" s="3"/>
+      <c r="AA51" s="3">
+        <v>1</v>
+      </c>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
-    </row>
-    <row r="52" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG51" s="3"/>
+    </row>
+    <row r="52" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>8441</v>
+        <v>9729</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>7252</v>
+        <v>8441</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
+        <v>7252</v>
+      </c>
+      <c r="E52" s="15">
+        <f>SUM(E8:E51)</f>
         <v>6043</v>
       </c>
-      <c r="E52" s="15">
-        <f t="shared" ref="E52:J52" si="0">SUM(E8:E51)</f>
+      <c r="F52" s="15">
+        <f t="shared" ref="F52:K52" si="0">SUM(F8:F51)</f>
         <v>5333</v>
       </c>
-      <c r="F52" s="15">
+      <c r="G52" s="15">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>3818</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>3665</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>2748</v>
       </c>
-      <c r="J52" s="14">
+      <c r="K52" s="14">
         <f t="shared" si="0"/>
         <v>2184</v>
       </c>
-      <c r="K52" s="5">
-        <f t="shared" ref="K52:AF52" si="1">SUM(K8:K51)</f>
+      <c r="L52" s="5">
+        <f t="shared" ref="L52:AG52" si="1">SUM(L8:L51)</f>
         <v>1641</v>
       </c>
-      <c r="L52" s="5">
+      <c r="M52" s="5">
         <f t="shared" si="1"/>
         <v>1105</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <f t="shared" si="1"/>
         <v>827</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <f t="shared" si="1"/>
         <v>569</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AB52" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AC52" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AC52" s="5">
+      <c r="AD52" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AD52" s="5">
+      <c r="AE52" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AE52" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="AF52" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AG52" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -4573,16 +4719,1564 @@
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RW8BTiCgKA6VH7aWJWYzZ4I6Js68S042o+vdO7SN5gVvmGi2sZX37YDX5QR4HcxDGY3Fn3QzQFhutUFkDstfhA==" saltValue="YWqMO/w+7QKKaZ5iWLJgjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RSTawNwzuzVSzrQ5QtZ6XSbTzlsbawvYJsuY5qxLmDWJ+FC0xqzyy+6G8sVTbcFN9grSTbawkp0AGnfBV83fRw==" saltValue="O+4FV6RHXMiVXXTNn0XEyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:R54"/>
+    <mergeCell ref="A54:S54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I52:AF52 E52:G52 B52:C52" formulaRange="1"/>
+    <ignoredError sqref="J52:AG52 F52:H52 B52:D52" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:Q54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="17" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="13">
+        <v>43917</v>
+      </c>
+      <c r="C7" s="13">
+        <v>43916</v>
+      </c>
+      <c r="D7" s="13">
+        <v>43915</v>
+      </c>
+      <c r="E7" s="13">
+        <v>43914</v>
+      </c>
+      <c r="F7" s="13">
+        <v>43913</v>
+      </c>
+      <c r="G7" s="13">
+        <v>43912</v>
+      </c>
+      <c r="H7" s="13">
+        <v>43911</v>
+      </c>
+      <c r="I7" s="13">
+        <v>43910</v>
+      </c>
+      <c r="J7" s="13">
+        <v>43909</v>
+      </c>
+      <c r="K7" s="13">
+        <v>43908</v>
+      </c>
+      <c r="L7" s="13">
+        <v>43907</v>
+      </c>
+      <c r="M7" s="12">
+        <v>43906</v>
+      </c>
+      <c r="N7" s="12">
+        <v>43905</v>
+      </c>
+      <c r="O7" s="12">
+        <v>43904</v>
+      </c>
+      <c r="P7" s="12">
+        <v>43903</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4</v>
+      </c>
+      <c r="I15" s="11">
+        <v>4</v>
+      </c>
+      <c r="J15" s="11">
+        <v>2</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="11">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11">
+        <v>4</v>
+      </c>
+      <c r="E23" s="11">
+        <v>4</v>
+      </c>
+      <c r="F23" s="11">
+        <v>3</v>
+      </c>
+      <c r="G23" s="11">
+        <v>3</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11">
+        <v>1</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="11"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="4">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="4">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="4">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4">
+        <v>3</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="15">
+        <f>SUM(B8:B51)</f>
+        <v>101</v>
+      </c>
+      <c r="C52" s="15">
+        <f>SUM(C8:C51)</f>
+        <v>76</v>
+      </c>
+      <c r="D52" s="15">
+        <f>SUM(D8:D51)</f>
+        <v>56</v>
+      </c>
+      <c r="E52" s="15">
+        <f>SUM(E8:E51)</f>
+        <v>37</v>
+      </c>
+      <c r="F52" s="15">
+        <f t="shared" ref="F52:Q52" si="0">SUM(F8:F51)</f>
+        <v>31</v>
+      </c>
+      <c r="G52" s="15">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H52" s="15">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I52" s="15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J52" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L52" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M52" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N52" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P52" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q52" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mosXym1W+MslcR+Ldo/NuTrzrI+9CvP9n0jgyh8/7q1evs57Mm2yt1a8VXQoRAmf/0DPSmG62i4iuWtH8wKSAw==" saltValue="QUMiuKhtyBegzShH4ZpzvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A54:Q54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B52:Q52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Infizierte Coronavirus in BW" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
   <si>
     <t>Fälle</t>
   </si>
@@ -606,37 +606,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AG54"/>
+  <dimension ref="A2:AH54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
-    <col min="20" max="21" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="2" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
+    <col min="21" max="22" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="O3" s="9"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -736,175 +736,181 @@
       <c r="AG6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43918</v>
+      </c>
+      <c r="C7" s="13">
         <v>43917</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43916</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43915</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43914</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43913</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43912</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43911</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43910</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43909</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43908</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43907</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>43906</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43905</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43904</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43903</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43902</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43901</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43900</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43899</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43898</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43897</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43896</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43895</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43894</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43893</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43892</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43891</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43890</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43889</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AF7" s="12">
         <v>43888</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AG7" s="12">
         <v>43887</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AH7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
+        <v>189</v>
+      </c>
+      <c r="C8" s="4">
         <v>130</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>99</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>85</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>64</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>60</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>44</v>
-      </c>
-      <c r="H8" s="4">
-        <v>39</v>
       </c>
       <c r="I8" s="4">
         <v>39</v>
       </c>
       <c r="J8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K8" s="4">
         <v>26</v>
       </c>
       <c r="L8" s="4">
+        <v>26</v>
+      </c>
+      <c r="M8" s="4">
         <v>24</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>13</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>12</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>7</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>6</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4</v>
       </c>
-      <c r="S8" s="4">
-        <v>3</v>
-      </c>
       <c r="T8" s="4">
         <v>3</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="4">
         <v>3</v>
       </c>
       <c r="V8" s="3">
         <v>3</v>
       </c>
       <c r="W8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8" s="3">
         <v>2</v>
@@ -912,7 +918,9 @@
       <c r="Y8" s="3">
         <v>2</v>
       </c>
-      <c r="Z8" s="3"/>
+      <c r="Z8" s="3">
+        <v>2</v>
+      </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
@@ -920,75 +928,78 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4">
         <v>45</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>39</v>
-      </c>
-      <c r="D9" s="4">
-        <v>36</v>
       </c>
       <c r="E9" s="4">
         <v>36</v>
       </c>
       <c r="F9" s="4">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4">
         <v>33</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>25</v>
-      </c>
-      <c r="H9" s="4">
-        <v>21</v>
       </c>
       <c r="I9" s="4">
         <v>21</v>
       </c>
       <c r="J9" s="4">
+        <v>21</v>
+      </c>
+      <c r="K9" s="4">
         <v>17</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>14</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>12</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>7</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>5</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>3</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2</v>
-      </c>
-      <c r="S9" s="4">
-        <v>1</v>
+      <c r="Q9" s="3">
+        <v>3</v>
+      </c>
+      <c r="R9" s="4">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2</v>
       </c>
       <c r="T9" s="4">
         <v>1</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="4">
         <v>1</v>
       </c>
       <c r="V9" s="3">
         <v>1</v>
       </c>
-      <c r="W9" s="3"/>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -999,28 +1010,29 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
+        <v>196</v>
+      </c>
+      <c r="C10" s="4">
         <v>182</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>144</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>106</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>82</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>74</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45</v>
       </c>
       <c r="H10" s="4">
         <v>45</v>
@@ -1032,13 +1044,13 @@
         <v>45</v>
       </c>
       <c r="K10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="L10" s="4">
         <v>17</v>
       </c>
       <c r="M10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N10" s="4">
         <v>5</v>
@@ -1046,31 +1058,33 @@
       <c r="O10" s="4">
         <v>5</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="4">
         <v>5</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>3</v>
-      </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>3</v>
       </c>
       <c r="T10" s="4">
         <v>3</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="4">
         <v>3</v>
       </c>
       <c r="V10" s="3">
         <v>3</v>
       </c>
       <c r="W10" s="3">
-        <v>1</v>
-      </c>
-      <c r="X10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
@@ -1080,37 +1094,38 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>369</v>
+      </c>
+      <c r="C11" s="4">
         <v>333</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>263</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>233</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>224</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>187</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>117</v>
-      </c>
-      <c r="H11" s="4">
-        <v>67</v>
       </c>
       <c r="I11" s="4">
         <v>67</v>
       </c>
       <c r="J11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K11" s="4">
         <v>28</v>
@@ -1119,7 +1134,7 @@
         <v>28</v>
       </c>
       <c r="M11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="N11" s="4">
         <v>9</v>
@@ -1127,22 +1142,22 @@
       <c r="O11" s="4">
         <v>9</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="4">
         <v>9</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
+        <v>9</v>
+      </c>
+      <c r="R11" s="4">
         <v>4</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>4</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <v>4</v>
       </c>
-      <c r="T11" s="4">
-        <v>3</v>
-      </c>
-      <c r="U11" s="3">
+      <c r="U11" s="4">
         <v>3</v>
       </c>
       <c r="V11" s="3">
@@ -1152,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="X11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="3">
         <v>1</v>
@@ -1175,71 +1190,74 @@
       <c r="AE11" s="3">
         <v>1</v>
       </c>
-      <c r="AF11" s="3"/>
+      <c r="AF11" s="3">
+        <v>1</v>
+      </c>
       <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>178</v>
+      </c>
+      <c r="C12" s="4">
         <v>175</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>153</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>121</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>89</v>
-      </c>
-      <c r="F12" s="4">
-        <v>83</v>
       </c>
       <c r="G12" s="4">
         <v>83</v>
       </c>
       <c r="H12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I12" s="4">
         <v>71</v>
       </c>
       <c r="J12" s="4">
+        <v>71</v>
+      </c>
+      <c r="K12" s="4">
         <v>62</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>39</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>31</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>29</v>
-      </c>
-      <c r="N12" s="4">
-        <v>13</v>
       </c>
       <c r="O12" s="4">
         <v>13</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="3">
         <v>8</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <v>5</v>
       </c>
-      <c r="T12" s="4">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="U12" s="4">
         <v>4</v>
       </c>
       <c r="V12" s="3">
@@ -1249,12 +1267,14 @@
         <v>4</v>
       </c>
       <c r="X12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
@@ -1262,76 +1282,77 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH12" s="3"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>299</v>
+      </c>
+      <c r="C13" s="4">
         <v>273</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>254</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>223</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>197</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>178</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>167</v>
-      </c>
-      <c r="H13" s="4">
-        <v>134</v>
       </c>
       <c r="I13" s="4">
         <v>134</v>
       </c>
       <c r="J13" s="4">
+        <v>134</v>
+      </c>
+      <c r="K13" s="4">
         <v>101</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>78</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>54</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>45</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>42</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>26</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>19</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>18</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>12</v>
-      </c>
-      <c r="S13" s="4">
-        <v>6</v>
       </c>
       <c r="T13" s="4">
         <v>6</v>
       </c>
-      <c r="U13" s="3">
-        <v>5</v>
+      <c r="U13" s="4">
+        <v>6</v>
       </c>
       <c r="V13" s="3">
         <v>5</v>
       </c>
       <c r="W13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X13" s="3">
         <v>4</v>
@@ -1340,13 +1361,13 @@
         <v>4</v>
       </c>
       <c r="Z13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA13" s="3">
         <v>1</v>
       </c>
       <c r="AB13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="3">
         <v>3</v>
@@ -1357,72 +1378,75 @@
       <c r="AE13" s="3">
         <v>3</v>
       </c>
-      <c r="AF13" s="3"/>
+      <c r="AF13" s="3">
+        <v>3</v>
+      </c>
       <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>259</v>
+      </c>
+      <c r="C14" s="4">
         <v>226</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>210</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>182</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>159</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>150</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>120</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>108</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>92</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>76</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>61</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>51</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>43</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>34</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>26</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>12</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>6</v>
       </c>
-      <c r="T14" s="4">
-        <v>2</v>
-      </c>
-      <c r="U14" s="3">
-        <v>1</v>
+      <c r="U14" s="4">
+        <v>2</v>
       </c>
       <c r="V14" s="3">
         <v>1</v>
@@ -1430,7 +1454,9 @@
       <c r="W14" s="3">
         <v>1</v>
       </c>
-      <c r="X14" s="3"/>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
@@ -1440,8 +1466,9 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH14" s="3"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
@@ -1449,151 +1476,156 @@
         <v>191</v>
       </c>
       <c r="C15" s="11">
+        <v>191</v>
+      </c>
+      <c r="D15" s="11">
         <v>171</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>154</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>141</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>123</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>121</v>
-      </c>
-      <c r="H15" s="11">
-        <v>110</v>
       </c>
       <c r="I15" s="11">
         <v>110</v>
       </c>
       <c r="J15" s="11">
+        <v>110</v>
+      </c>
+      <c r="K15" s="11">
         <v>99</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>60</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>59</v>
-      </c>
-      <c r="M15" s="11">
-        <v>35</v>
       </c>
       <c r="N15" s="11">
         <v>35</v>
       </c>
       <c r="O15" s="11">
+        <v>35</v>
+      </c>
+      <c r="P15" s="11">
         <v>21</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>17</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="R15" s="11">
         <v>16</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>15</v>
-      </c>
-      <c r="S15" s="11">
-        <v>13</v>
       </c>
       <c r="T15" s="11">
         <v>13</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="11">
+        <v>13</v>
+      </c>
+      <c r="V15" s="3">
         <v>12</v>
       </c>
-      <c r="V15" s="3">
-        <v>3</v>
-      </c>
       <c r="W15" s="3">
-        <v>1</v>
-      </c>
-      <c r="X15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3">
-        <v>1</v>
-      </c>
+      <c r="Z15" s="3"/>
       <c r="AA15" s="3">
         <v>1</v>
       </c>
-      <c r="AB15" s="3"/>
+      <c r="AB15" s="3">
+        <v>1</v>
+      </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH15" s="3"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>89</v>
+      </c>
+      <c r="C16" s="4">
         <v>74</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>62</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>55</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>45</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>37</v>
-      </c>
-      <c r="G16" s="4">
-        <v>33</v>
       </c>
       <c r="H16" s="4">
         <v>33</v>
       </c>
       <c r="I16" s="4">
+        <v>33</v>
+      </c>
+      <c r="J16" s="4">
         <v>24</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>21</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>12</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>9</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>4</v>
       </c>
-      <c r="N16" s="4">
-        <v>3</v>
-      </c>
       <c r="O16" s="4">
         <v>3</v>
       </c>
-      <c r="P16" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>3</v>
-      </c>
-      <c r="R16" s="3">
-        <v>2</v>
-      </c>
-      <c r="S16" s="4">
-        <v>1</v>
+      <c r="P16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>3</v>
+      </c>
+      <c r="R16" s="4">
+        <v>3</v>
+      </c>
+      <c r="S16" s="3">
+        <v>2</v>
       </c>
       <c r="T16" s="4">
         <v>1</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="4">
         <v>1</v>
       </c>
       <c r="V16" s="3">
         <v>1</v>
       </c>
-      <c r="W16" s="3"/>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
@@ -1604,157 +1636,161 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH16" s="3"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>705</v>
+      </c>
+      <c r="C17" s="4">
         <v>648</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>596</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>493</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>462</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>435</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>362</v>
-      </c>
-      <c r="H17" s="4">
-        <v>323</v>
       </c>
       <c r="I17" s="4">
         <v>323</v>
       </c>
       <c r="J17" s="4">
+        <v>323</v>
+      </c>
+      <c r="K17" s="4">
         <v>234</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>193</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>128</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>123</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>111</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>82</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>47</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>43</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>23</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <v>18</v>
-      </c>
-      <c r="U17" s="3">
-        <v>16</v>
       </c>
       <c r="V17" s="3">
         <v>16</v>
       </c>
       <c r="W17" s="3">
+        <v>16</v>
+      </c>
+      <c r="X17" s="3">
         <v>14</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>5</v>
       </c>
       <c r="Z17" s="3">
         <v>5</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="3">
+        <v>5</v>
+      </c>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH17" s="3"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>346</v>
+      </c>
+      <c r="C18" s="4">
         <v>325</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>284</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>254</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>227</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>212</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>191</v>
-      </c>
-      <c r="H18" s="4">
-        <v>150</v>
       </c>
       <c r="I18" s="4">
         <v>150</v>
       </c>
       <c r="J18" s="4">
+        <v>150</v>
+      </c>
+      <c r="K18" s="4">
         <v>114</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>79</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>62</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>53</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>43</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>34</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <v>18</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13</v>
-      </c>
-      <c r="S18" s="4">
-        <v>12</v>
       </c>
       <c r="T18" s="4">
         <v>12</v>
       </c>
-      <c r="U18" s="3">
-        <v>8</v>
+      <c r="U18" s="4">
+        <v>12</v>
       </c>
       <c r="V18" s="3">
         <v>8</v>
@@ -1763,51 +1799,54 @@
         <v>8</v>
       </c>
       <c r="X18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y18" s="3">
         <v>6</v>
       </c>
       <c r="Z18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA18" s="3">
         <v>4</v>
       </c>
       <c r="AB18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>1</v>
+      </c>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
+        <v>136</v>
+      </c>
+      <c r="C19" s="4">
         <v>110</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>76</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>69</v>
-      </c>
-      <c r="E19" s="4">
-        <v>39</v>
       </c>
       <c r="F19" s="4">
         <v>39</v>
       </c>
       <c r="G19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H19" s="4">
         <v>14</v>
@@ -1822,31 +1861,33 @@
         <v>14</v>
       </c>
       <c r="L19" s="4">
+        <v>14</v>
+      </c>
+      <c r="M19" s="4">
         <v>10</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>8</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>7</v>
       </c>
-      <c r="O19" s="4">
-        <v>3</v>
-      </c>
-      <c r="P19" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>2</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="4">
-        <v>1</v>
-      </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="3"/>
+      <c r="P19" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2</v>
+      </c>
+      <c r="R19" s="4">
+        <v>2</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -1859,28 +1900,29 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
+        <v>317</v>
+      </c>
+      <c r="C20" s="4">
         <v>278</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>249</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>216</v>
-      </c>
-      <c r="E20" s="4">
-        <v>166</v>
       </c>
       <c r="F20" s="4">
         <v>166</v>
       </c>
       <c r="G20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="H20" s="4">
         <v>97</v>
@@ -1889,46 +1931,46 @@
         <v>97</v>
       </c>
       <c r="J20" s="4">
+        <v>97</v>
+      </c>
+      <c r="K20" s="4">
         <v>60</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>59</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>39</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>29</v>
-      </c>
-      <c r="N20" s="4">
-        <v>16</v>
       </c>
       <c r="O20" s="4">
         <v>16</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="3">
         <v>14</v>
       </c>
-      <c r="Q20" s="4">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="4">
+      <c r="R20" s="4">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
         <v>4</v>
       </c>
-      <c r="T20" s="4">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="4">
         <v>3</v>
       </c>
       <c r="V20" s="3">
         <v>3</v>
       </c>
       <c r="W20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20" s="3">
         <v>2</v>
@@ -1952,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="AE20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF20" s="3">
         <v>1</v>
@@ -1960,34 +2002,37 @@
       <c r="AG20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4">
+        <v>124</v>
+      </c>
+      <c r="C21" s="4">
         <v>113</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>112</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>109</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>98</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>89</v>
-      </c>
-      <c r="G21" s="4">
-        <v>5</v>
       </c>
       <c r="H21" s="4">
         <v>5</v>
       </c>
       <c r="I21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" s="4">
         <v>3</v>
@@ -1996,40 +2041,40 @@
         <v>3</v>
       </c>
       <c r="L21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" s="4">
         <v>2</v>
       </c>
       <c r="N21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21" s="4">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>2</v>
-      </c>
-      <c r="R21" s="3">
-        <v>2</v>
-      </c>
-      <c r="S21" s="4">
-        <v>5</v>
+      <c r="P21" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2</v>
+      </c>
+      <c r="R21" s="4">
+        <v>2</v>
+      </c>
+      <c r="S21" s="3">
+        <v>2</v>
       </c>
       <c r="T21" s="4">
         <v>5</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="4">
         <v>5</v>
       </c>
       <c r="V21" s="3">
         <v>5</v>
       </c>
       <c r="W21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X21" s="3">
         <v>2</v>
@@ -2037,7 +2082,9 @@
       <c r="Y21" s="3">
         <v>2</v>
       </c>
-      <c r="Z21" s="3"/>
+      <c r="Z21" s="3">
+        <v>2</v>
+      </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
@@ -2045,76 +2092,77 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>125</v>
+      </c>
+      <c r="C22" s="4">
         <v>117</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>98</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>97</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>62</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>60</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>57</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>47</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>39</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>34</v>
-      </c>
-      <c r="K22" s="4">
-        <v>17</v>
       </c>
       <c r="L22" s="4">
         <v>17</v>
       </c>
       <c r="M22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N22" s="4">
         <v>21</v>
       </c>
       <c r="O22" s="4">
+        <v>21</v>
+      </c>
+      <c r="P22" s="4">
         <v>19</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4</v>
       </c>
-      <c r="S22" s="4">
-        <v>3</v>
-      </c>
       <c r="T22" s="4">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="4">
         <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>3</v>
       </c>
       <c r="W22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X22" s="3">
         <v>1</v>
@@ -2122,7 +2170,9 @@
       <c r="Y22" s="3">
         <v>1</v>
       </c>
-      <c r="Z22" s="3"/>
+      <c r="Z22" s="3">
+        <v>1</v>
+      </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
@@ -2130,91 +2180,92 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH22" s="3"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>342</v>
+      </c>
+      <c r="C23" s="11">
         <v>331</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>279</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>236</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>212</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>197</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>165</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>140</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>118</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>110</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>71</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>57</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>50</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>47</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>37</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="R23" s="11">
         <v>32</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30</v>
-      </c>
-      <c r="S23" s="11">
-        <v>26</v>
       </c>
       <c r="T23" s="11">
         <v>26</v>
       </c>
-      <c r="U23" s="3">
-        <v>20</v>
+      <c r="U23" s="11">
+        <v>26</v>
       </c>
       <c r="V23" s="3">
         <v>20</v>
       </c>
       <c r="W23" s="3">
+        <v>20</v>
+      </c>
+      <c r="X23" s="3">
         <v>14</v>
-      </c>
-      <c r="X23" s="3">
-        <v>10</v>
       </c>
       <c r="Y23" s="3">
         <v>10</v>
       </c>
       <c r="Z23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA23" s="3">
         <v>8</v>
       </c>
       <c r="AB23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC23" s="3">
         <v>1</v>
@@ -2222,49 +2273,52 @@
       <c r="AD23" s="3">
         <v>1</v>
       </c>
-      <c r="AE23" s="3"/>
+      <c r="AE23" s="3">
+        <v>1</v>
+      </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH23" s="3"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="11">
+        <v>122</v>
+      </c>
+      <c r="C24" s="11">
         <v>104</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>81</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="11">
         <v>71</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>60</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>55</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>28</v>
-      </c>
-      <c r="H24" s="11">
-        <v>20</v>
       </c>
       <c r="I24" s="11">
         <v>20</v>
       </c>
       <c r="J24" s="11">
+        <v>20</v>
+      </c>
+      <c r="K24" s="11">
         <v>19</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>13</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
         <v>9</v>
-      </c>
-      <c r="M24" s="11">
-        <v>4</v>
       </c>
       <c r="N24" s="11">
         <v>4</v>
@@ -2272,20 +2326,20 @@
       <c r="O24" s="11">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="11">
-        <v>3</v>
-      </c>
+      <c r="P24" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="11">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3"/>
       <c r="T24" s="11">
         <v>3</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="11">
         <v>3</v>
       </c>
       <c r="V24" s="3">
@@ -2295,61 +2349,64 @@
         <v>3</v>
       </c>
       <c r="X24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="3">
         <v>2</v>
       </c>
-      <c r="Z24" s="3"/>
+      <c r="Z24" s="3">
+        <v>2</v>
+      </c>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3">
+        <v>1</v>
+      </c>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>404</v>
+      </c>
+      <c r="C25" s="4">
         <v>350</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>302</v>
-      </c>
-      <c r="D25" s="4">
-        <v>278</v>
       </c>
       <c r="E25" s="4">
         <v>278</v>
       </c>
       <c r="F25" s="4">
+        <v>278</v>
+      </c>
+      <c r="G25" s="4">
         <v>257</v>
-      </c>
-      <c r="G25" s="4">
-        <v>222</v>
       </c>
       <c r="H25" s="4">
         <v>222</v>
       </c>
       <c r="I25" s="4">
+        <v>222</v>
+      </c>
+      <c r="J25" s="4">
         <v>182</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>154</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>135</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>64</v>
-      </c>
-      <c r="M25" s="4">
-        <v>29</v>
       </c>
       <c r="N25" s="4">
         <v>29</v>
@@ -2357,23 +2414,23 @@
       <c r="O25" s="4">
         <v>29</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="4">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="3">
         <v>8</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <v>8</v>
       </c>
-      <c r="R25" s="3">
+      <c r="S25" s="3">
         <v>6</v>
       </c>
-      <c r="S25" s="4">
-        <v>2</v>
-      </c>
       <c r="T25" s="4">
         <v>2</v>
       </c>
-      <c r="U25" s="3">
-        <v>1</v>
+      <c r="U25" s="4">
+        <v>2</v>
       </c>
       <c r="V25" s="3">
         <v>1</v>
@@ -2384,7 +2441,9 @@
       <c r="X25" s="3">
         <v>1</v>
       </c>
-      <c r="Y25" s="3"/>
+      <c r="Y25" s="3">
+        <v>1</v>
+      </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -2393,82 +2452,83 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
+        <v>246</v>
+      </c>
+      <c r="C26" s="11">
         <v>229</v>
       </c>
-      <c r="C26" s="11">
+      <c r="D26" s="11">
         <v>206</v>
       </c>
-      <c r="D26" s="11">
+      <c r="E26" s="11">
         <v>189</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>172</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>154</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>104</v>
-      </c>
-      <c r="H26" s="11">
-        <v>96</v>
       </c>
       <c r="I26" s="11">
         <v>96</v>
       </c>
       <c r="J26" s="11">
+        <v>96</v>
+      </c>
+      <c r="K26" s="11">
         <v>75</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>63</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>47</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>24</v>
-      </c>
-      <c r="N26" s="11">
-        <v>29</v>
       </c>
       <c r="O26" s="11">
         <v>29</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="11">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="3">
         <v>16</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="R26" s="11">
         <v>16</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12</v>
       </c>
-      <c r="S26" s="11">
+      <c r="T26" s="11">
         <v>9</v>
       </c>
-      <c r="T26" s="11">
-        <v>7</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="11">
         <v>7</v>
       </c>
       <c r="V26" s="3">
         <v>7</v>
       </c>
       <c r="W26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="3">
         <v>1</v>
@@ -2485,31 +2545,34 @@
       <c r="AD26" s="3">
         <v>1</v>
       </c>
-      <c r="AE26" s="3"/>
+      <c r="AE26" s="3">
+        <v>1</v>
+      </c>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="11">
+        <v>119</v>
+      </c>
+      <c r="C27" s="11">
         <v>110</v>
       </c>
-      <c r="C27" s="11">
+      <c r="D27" s="11">
         <v>99</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E27" s="11">
         <v>85</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>74</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>60</v>
-      </c>
-      <c r="G27" s="11">
-        <v>42</v>
       </c>
       <c r="H27" s="11">
         <v>42</v>
@@ -2518,16 +2581,16 @@
         <v>42</v>
       </c>
       <c r="J27" s="11">
+        <v>42</v>
+      </c>
+      <c r="K27" s="11">
         <v>34</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>29</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="11">
         <v>26</v>
-      </c>
-      <c r="M27" s="11">
-        <v>14</v>
       </c>
       <c r="N27" s="11">
         <v>14</v>
@@ -2535,20 +2598,22 @@
       <c r="O27" s="11">
         <v>14</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="3">
         <v>8</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="R27" s="11">
         <v>8</v>
       </c>
-      <c r="R27" s="3">
-        <v>3</v>
-      </c>
-      <c r="S27" s="11">
-        <v>2</v>
-      </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="3"/>
+      <c r="S27" s="3">
+        <v>3</v>
+      </c>
+      <c r="T27" s="11">
+        <v>2</v>
+      </c>
+      <c r="U27" s="11"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -2561,28 +2626,29 @@
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH27" s="3"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>132</v>
+      </c>
+      <c r="C28" s="4">
         <v>124</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>109</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>89</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>81</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>70</v>
-      </c>
-      <c r="G28" s="4">
-        <v>52</v>
       </c>
       <c r="H28" s="4">
         <v>52</v>
@@ -2591,16 +2657,16 @@
         <v>52</v>
       </c>
       <c r="J28" s="4">
+        <v>52</v>
+      </c>
+      <c r="K28" s="4">
         <v>43</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>34</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>28</v>
-      </c>
-      <c r="M28" s="4">
-        <v>20</v>
       </c>
       <c r="N28" s="4">
         <v>20</v>
@@ -2608,28 +2674,30 @@
       <c r="O28" s="4">
         <v>20</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="3">
         <v>7</v>
       </c>
-      <c r="Q28" s="4">
-        <v>2</v>
-      </c>
-      <c r="R28" s="3">
-        <v>2</v>
-      </c>
-      <c r="S28" s="4">
-        <v>1</v>
+      <c r="R28" s="4">
+        <v>2</v>
+      </c>
+      <c r="S28" s="3">
+        <v>2</v>
       </c>
       <c r="T28" s="4">
         <v>1</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="4">
         <v>1</v>
       </c>
       <c r="V28" s="3">
         <v>1</v>
       </c>
-      <c r="W28" s="3"/>
+      <c r="W28" s="3">
+        <v>1</v>
+      </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
@@ -2640,25 +2708,26 @@
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH28" s="3"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>186</v>
+      </c>
+      <c r="C29" s="4">
         <v>162</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>147</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>136</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>101</v>
-      </c>
-      <c r="F29" s="4">
-        <v>57</v>
       </c>
       <c r="G29" s="4">
         <v>57</v>
@@ -2670,16 +2739,16 @@
         <v>57</v>
       </c>
       <c r="J29" s="4">
+        <v>57</v>
+      </c>
+      <c r="K29" s="4">
         <v>41</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>25</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>16</v>
-      </c>
-      <c r="M29" s="4">
-        <v>10</v>
       </c>
       <c r="N29" s="4">
         <v>10</v>
@@ -2687,20 +2756,20 @@
       <c r="O29" s="4">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>6</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="4">
         <v>4</v>
       </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
+      <c r="S29" s="3"/>
       <c r="T29" s="4">
         <v>1</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="4">
         <v>1</v>
       </c>
       <c r="V29" s="3">
@@ -2718,15 +2787,18 @@
       <c r="Z29" s="3">
         <v>1</v>
       </c>
-      <c r="AA29" s="3"/>
+      <c r="AA29" s="3">
+        <v>1</v>
+      </c>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -2734,37 +2806,37 @@
         <v>543</v>
       </c>
       <c r="C30" s="4">
+        <v>543</v>
+      </c>
+      <c r="D30" s="4">
         <v>450</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>352</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>275</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>250</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>236</v>
-      </c>
-      <c r="H30" s="4">
-        <v>175</v>
       </c>
       <c r="I30" s="4">
         <v>175</v>
       </c>
       <c r="J30" s="4">
+        <v>175</v>
+      </c>
+      <c r="K30" s="4">
         <v>126</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>112</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>87</v>
-      </c>
-      <c r="M30" s="4">
-        <v>38</v>
       </c>
       <c r="N30" s="4">
         <v>38</v>
@@ -2772,41 +2844,41 @@
       <c r="O30" s="4">
         <v>38</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="4">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="3">
         <v>24</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <v>18</v>
       </c>
-      <c r="R30" s="3">
+      <c r="S30" s="3">
         <v>11</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <v>11</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <v>8</v>
-      </c>
-      <c r="U30" s="3">
-        <v>7</v>
       </c>
       <c r="V30" s="3">
         <v>7</v>
       </c>
       <c r="W30" s="3">
+        <v>7</v>
+      </c>
+      <c r="X30" s="3">
         <v>5</v>
       </c>
-      <c r="X30" s="3">
-        <v>3</v>
-      </c>
       <c r="Y30" s="3">
         <v>3</v>
       </c>
       <c r="Z30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="3">
         <v>1</v>
@@ -2817,31 +2889,34 @@
       <c r="AD30" s="3">
         <v>1</v>
       </c>
-      <c r="AE30" s="3"/>
+      <c r="AE30" s="3">
+        <v>1</v>
+      </c>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH30" s="3"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
+        <v>92</v>
+      </c>
+      <c r="C31" s="4">
         <v>74</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>67</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>58</v>
-      </c>
-      <c r="E31" s="4">
-        <v>53</v>
       </c>
       <c r="F31" s="4">
         <v>53</v>
       </c>
       <c r="G31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H31" s="4">
         <v>36</v>
@@ -2850,10 +2925,10 @@
         <v>36</v>
       </c>
       <c r="J31" s="4">
+        <v>36</v>
+      </c>
+      <c r="K31" s="4">
         <v>33</v>
-      </c>
-      <c r="K31" s="4">
-        <v>31</v>
       </c>
       <c r="L31" s="4">
         <v>31</v>
@@ -2865,39 +2940,41 @@
         <v>31</v>
       </c>
       <c r="O31" s="4">
+        <v>31</v>
+      </c>
+      <c r="P31" s="4">
         <v>30</v>
       </c>
-      <c r="P31" s="3">
+      <c r="Q31" s="3">
         <v>28</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="R31" s="4">
         <v>24</v>
       </c>
-      <c r="R31" s="3">
-        <v>24</v>
-      </c>
-      <c r="S31" s="4">
+      <c r="S31" s="3">
         <v>24</v>
       </c>
       <c r="T31" s="4">
         <v>24</v>
       </c>
-      <c r="U31" s="3">
-        <v>23</v>
+      <c r="U31" s="4">
+        <v>24</v>
       </c>
       <c r="V31" s="3">
         <v>23</v>
       </c>
       <c r="W31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="X31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y31" s="3">
         <v>1</v>
       </c>
-      <c r="Z31" s="3"/>
+      <c r="Z31" s="3">
+        <v>1</v>
+      </c>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
@@ -2905,25 +2982,26 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH31" s="3"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="4">
+        <v>183</v>
+      </c>
+      <c r="C32" s="4">
         <v>166</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>158</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>145</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>135</v>
-      </c>
-      <c r="F32" s="4">
-        <v>80</v>
       </c>
       <c r="G32" s="4">
         <v>80</v>
@@ -2935,13 +3013,13 @@
         <v>80</v>
       </c>
       <c r="J32" s="4">
+        <v>80</v>
+      </c>
+      <c r="K32" s="4">
         <v>73</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>71</v>
-      </c>
-      <c r="L32" s="4">
-        <v>27</v>
       </c>
       <c r="M32" s="4">
         <v>27</v>
@@ -2952,38 +3030,38 @@
       <c r="O32" s="4">
         <v>27</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="4">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="3">
         <v>22</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="R32" s="4">
         <v>12</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12</v>
-      </c>
-      <c r="S32" s="4">
-        <v>9</v>
       </c>
       <c r="T32" s="4">
         <v>9</v>
       </c>
-      <c r="U32" s="3">
-        <v>7</v>
+      <c r="U32" s="4">
+        <v>9</v>
       </c>
       <c r="V32" s="3">
         <v>7</v>
       </c>
       <c r="W32" s="3">
+        <v>7</v>
+      </c>
+      <c r="X32" s="3">
         <v>5</v>
-      </c>
-      <c r="X32" s="3">
-        <v>4</v>
       </c>
       <c r="Y32" s="3">
         <v>4</v>
       </c>
       <c r="Z32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA32" s="3">
         <v>3</v>
@@ -2991,74 +3069,77 @@
       <c r="AB32" s="3">
         <v>3</v>
       </c>
-      <c r="AC32" s="3"/>
+      <c r="AC32" s="3">
+        <v>3</v>
+      </c>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH32" s="3"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>76</v>
+      </c>
+      <c r="C33" s="4">
         <v>68</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>58</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>45</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>40</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>35</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>30</v>
-      </c>
-      <c r="H33" s="4">
-        <v>26</v>
       </c>
       <c r="I33" s="4">
         <v>26</v>
       </c>
       <c r="J33" s="4">
+        <v>26</v>
+      </c>
+      <c r="K33" s="4">
         <v>20</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>17</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>14</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>7</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>10</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <v>6</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4</v>
       </c>
-      <c r="Q33" s="4">
-        <v>2</v>
-      </c>
-      <c r="R33" s="3">
-        <v>2</v>
-      </c>
-      <c r="S33" s="4">
-        <v>1</v>
+      <c r="R33" s="4">
+        <v>2</v>
+      </c>
+      <c r="S33" s="3">
+        <v>2</v>
       </c>
       <c r="T33" s="4">
         <v>1</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="4">
         <v>1</v>
       </c>
       <c r="V33" s="3">
@@ -3067,7 +3148,9 @@
       <c r="W33" s="3">
         <v>1</v>
       </c>
-      <c r="X33" s="3"/>
+      <c r="X33" s="3">
+        <v>1</v>
+      </c>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
@@ -3077,78 +3160,81 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH33" s="3"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>245</v>
+      </c>
+      <c r="C34" s="4">
         <v>197</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>175</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>135</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>120</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>104</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>82</v>
-      </c>
-      <c r="H34" s="4">
-        <v>71</v>
       </c>
       <c r="I34" s="4">
         <v>71</v>
       </c>
       <c r="J34" s="4">
+        <v>71</v>
+      </c>
+      <c r="K34" s="4">
         <v>55</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>45</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>38</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>28</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>25</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>22</v>
       </c>
-      <c r="P34" s="3">
+      <c r="Q34" s="3">
         <v>16</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <v>13</v>
       </c>
-      <c r="R34" s="3">
+      <c r="S34" s="3">
         <v>13</v>
-      </c>
-      <c r="S34" s="4">
-        <v>12</v>
       </c>
       <c r="T34" s="4">
         <v>12</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U34" s="4">
+        <v>12</v>
+      </c>
+      <c r="V34" s="3">
         <v>7</v>
       </c>
-      <c r="V34" s="3">
+      <c r="W34" s="3">
         <v>6</v>
       </c>
-      <c r="W34" s="3">
-        <v>2</v>
-      </c>
-      <c r="X34" s="3"/>
+      <c r="X34" s="3">
+        <v>2</v>
+      </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
@@ -3158,70 +3244,71 @@
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH34" s="3"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>256</v>
+      </c>
+      <c r="C35" s="4">
         <v>236</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>224</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>171</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>140</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>121</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>113</v>
-      </c>
-      <c r="H35" s="4">
-        <v>91</v>
       </c>
       <c r="I35" s="4">
         <v>91</v>
       </c>
       <c r="J35" s="4">
+        <v>91</v>
+      </c>
+      <c r="K35" s="4">
         <v>85</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>46</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>41</v>
-      </c>
-      <c r="M35" s="4">
-        <v>31</v>
       </c>
       <c r="N35" s="4">
         <v>31</v>
       </c>
       <c r="O35" s="4">
+        <v>31</v>
+      </c>
+      <c r="P35" s="4">
         <v>20</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="4">
         <v>7</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5</v>
-      </c>
-      <c r="S35" s="4">
-        <v>4</v>
       </c>
       <c r="T35" s="4">
         <v>4</v>
       </c>
-      <c r="U35" s="3">
-        <v>3</v>
+      <c r="U35" s="4">
+        <v>4</v>
       </c>
       <c r="V35" s="3">
         <v>3</v>
@@ -3236,74 +3323,79 @@
         <v>3</v>
       </c>
       <c r="Z35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>1</v>
+      </c>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH35" s="3"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
+        <v>29</v>
+      </c>
+      <c r="C36" s="4">
         <v>25</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>22</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>20</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>19</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>18</v>
-      </c>
-      <c r="G36" s="4">
-        <v>16</v>
       </c>
       <c r="H36" s="4">
         <v>16</v>
       </c>
       <c r="I36" s="4">
+        <v>16</v>
+      </c>
+      <c r="J36" s="4">
         <v>14</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>11</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>7</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>6</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>5</v>
-      </c>
-      <c r="N36" s="4">
-        <v>4</v>
       </c>
       <c r="O36" s="4">
         <v>4</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="4">
         <v>4</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="3">
         <v>4</v>
       </c>
-      <c r="R36" s="3">
-        <v>3</v>
-      </c>
-      <c r="S36" s="4"/>
+      <c r="R36" s="4">
+        <v>4</v>
+      </c>
+      <c r="S36" s="3">
+        <v>3</v>
+      </c>
       <c r="T36" s="4"/>
-      <c r="U36" s="3"/>
+      <c r="U36" s="4"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -3316,75 +3408,78 @@
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH36" s="3"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>240</v>
+      </c>
+      <c r="C37" s="4">
         <v>222</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>194</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>180</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>156</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>146</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>100</v>
-      </c>
-      <c r="H37" s="4">
-        <v>81</v>
       </c>
       <c r="I37" s="4">
         <v>81</v>
       </c>
       <c r="J37" s="4">
+        <v>81</v>
+      </c>
+      <c r="K37" s="4">
         <v>64</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>53</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>37</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>34</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>26</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <v>19</v>
       </c>
-      <c r="P37" s="3">
+      <c r="Q37" s="3">
         <v>12</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <v>11</v>
       </c>
-      <c r="R37" s="3">
-        <v>3</v>
-      </c>
-      <c r="S37" s="4">
+      <c r="S37" s="3">
+        <v>3</v>
+      </c>
+      <c r="T37" s="4">
         <v>4</v>
       </c>
-      <c r="T37" s="4">
-        <v>3</v>
-      </c>
-      <c r="U37" s="3">
+      <c r="U37" s="4">
         <v>3</v>
       </c>
       <c r="V37" s="3">
-        <v>2</v>
-      </c>
-      <c r="W37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="W37" s="3">
+        <v>2</v>
+      </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
@@ -3395,28 +3490,29 @@
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH37" s="3"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>318</v>
+      </c>
+      <c r="C38" s="4">
         <v>304</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>281</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>255</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>176</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>127</v>
-      </c>
-      <c r="G38" s="4">
-        <v>110</v>
       </c>
       <c r="H38" s="4">
         <v>110</v>
@@ -3425,51 +3521,53 @@
         <v>110</v>
       </c>
       <c r="J38" s="4">
+        <v>110</v>
+      </c>
+      <c r="K38" s="4">
         <v>88</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>55</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>13</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>12</v>
-      </c>
-      <c r="N38" s="4">
-        <v>8</v>
       </c>
       <c r="O38" s="4">
         <v>8</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="4">
         <v>8</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="3">
+        <v>8</v>
+      </c>
+      <c r="R38" s="4">
         <v>5</v>
       </c>
-      <c r="R38" s="3">
+      <c r="S38" s="3">
         <v>5</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <v>6</v>
       </c>
-      <c r="T38" s="4">
-        <v>3</v>
-      </c>
-      <c r="U38" s="3">
+      <c r="U38" s="4">
         <v>3</v>
       </c>
       <c r="V38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W38" s="3">
         <v>2</v>
       </c>
       <c r="X38" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>1</v>
+      </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
@@ -3478,8 +3576,9 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH38" s="3"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -3487,16 +3586,16 @@
         <v>285</v>
       </c>
       <c r="C39" s="4">
+        <v>285</v>
+      </c>
+      <c r="D39" s="4">
         <v>243</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>190</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>172</v>
-      </c>
-      <c r="F39" s="4">
-        <v>117</v>
       </c>
       <c r="G39" s="4">
         <v>117</v>
@@ -3508,16 +3607,16 @@
         <v>117</v>
       </c>
       <c r="J39" s="4">
+        <v>117</v>
+      </c>
+      <c r="K39" s="4">
         <v>79</v>
-      </c>
-      <c r="K39" s="4">
-        <v>49</v>
       </c>
       <c r="L39" s="4">
         <v>49</v>
       </c>
       <c r="M39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N39" s="4">
         <v>23</v>
@@ -3525,107 +3624,112 @@
       <c r="O39" s="4">
         <v>23</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="4">
         <v>23</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="3">
+        <v>23</v>
+      </c>
+      <c r="R39" s="4">
         <v>10</v>
       </c>
-      <c r="R39" s="3">
+      <c r="S39" s="3">
         <v>5</v>
       </c>
-      <c r="S39" s="4">
+      <c r="T39" s="4">
         <v>6</v>
       </c>
-      <c r="T39" s="4">
+      <c r="U39" s="4">
         <v>5</v>
       </c>
-      <c r="U39" s="3">
+      <c r="V39" s="3">
         <v>5</v>
-      </c>
-      <c r="V39" s="3">
-        <v>4</v>
       </c>
       <c r="W39" s="3">
         <v>4</v>
       </c>
       <c r="X39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y39" s="3">
         <v>2</v>
       </c>
       <c r="Z39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>1</v>
+      </c>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH39" s="3"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>249</v>
+      </c>
+      <c r="C40" s="4">
         <v>235</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>200</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>167</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>117</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>113</v>
-      </c>
-      <c r="G40" s="4">
-        <v>95</v>
       </c>
       <c r="H40" s="4">
         <v>95</v>
       </c>
       <c r="I40" s="4">
+        <v>95</v>
+      </c>
+      <c r="J40" s="4">
         <v>94</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>43</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>33</v>
-      </c>
-      <c r="L40" s="4">
-        <v>31</v>
       </c>
       <c r="M40" s="4">
         <v>31</v>
       </c>
       <c r="N40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O40" s="4">
         <v>19</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="3">
         <v>11</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="R40" s="4">
         <v>7</v>
       </c>
-      <c r="R40" s="3">
+      <c r="S40" s="3">
         <v>5</v>
       </c>
-      <c r="S40" s="4">
-        <v>1</v>
-      </c>
-      <c r="T40" s="4"/>
-      <c r="U40" s="3"/>
+      <c r="T40" s="4">
+        <v>1</v>
+      </c>
+      <c r="U40" s="4"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
@@ -3638,46 +3742,47 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH40" s="3"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>477</v>
+      </c>
+      <c r="C41" s="4">
         <v>405</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>396</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>357</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>317</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>276</v>
-      </c>
-      <c r="G41" s="4">
-        <v>240</v>
       </c>
       <c r="H41" s="4">
         <v>240</v>
       </c>
       <c r="I41" s="4">
+        <v>240</v>
+      </c>
+      <c r="J41" s="4">
         <v>215</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>144</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>127</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>76</v>
-      </c>
-      <c r="M41" s="4">
-        <v>38</v>
       </c>
       <c r="N41" s="4">
         <v>38</v>
@@ -3685,38 +3790,38 @@
       <c r="O41" s="4">
         <v>38</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="4">
+        <v>38</v>
+      </c>
+      <c r="Q41" s="3">
         <v>28</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="4">
         <v>28</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <v>14</v>
       </c>
-      <c r="T41" s="4">
+      <c r="U41" s="4">
         <v>13</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4</v>
       </c>
-      <c r="X41" s="3">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA41" s="3">
         <v>1</v>
@@ -3730,28 +3835,31 @@
       <c r="AD41" s="3">
         <v>1</v>
       </c>
-      <c r="AE41" s="3"/>
+      <c r="AE41" s="3">
+        <v>1</v>
+      </c>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH41" s="3"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
+        <v>98</v>
+      </c>
+      <c r="C42" s="4">
         <v>87</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>60</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>29</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>9</v>
-      </c>
-      <c r="F42" s="4">
-        <v>8</v>
       </c>
       <c r="G42" s="4">
         <v>8</v>
@@ -3760,42 +3868,42 @@
         <v>8</v>
       </c>
       <c r="I42" s="4">
+        <v>8</v>
+      </c>
+      <c r="J42" s="4">
         <v>4</v>
       </c>
-      <c r="J42" s="4">
-        <v>2</v>
-      </c>
       <c r="K42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" s="4">
+        <v>3</v>
+      </c>
+      <c r="M42" s="4">
         <v>5</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N42" s="4">
         <v>4</v>
       </c>
-      <c r="N42" s="4">
-        <v>3</v>
-      </c>
       <c r="O42" s="4">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>1</v>
-      </c>
-      <c r="R42" s="3">
-        <v>1</v>
-      </c>
-      <c r="S42" s="4">
+      <c r="P42" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>2</v>
+      </c>
+      <c r="R42" s="4">
+        <v>1</v>
+      </c>
+      <c r="S42" s="3">
         <v>1</v>
       </c>
       <c r="T42" s="4">
         <v>1</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="4">
         <v>1</v>
       </c>
       <c r="V42" s="3">
@@ -3831,47 +3939,50 @@
       <c r="AF42" s="3">
         <v>1</v>
       </c>
-      <c r="AG42" s="3"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="3"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>287</v>
+      </c>
+      <c r="C43" s="4">
         <v>253</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>206</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>175</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>148</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>145</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>111</v>
-      </c>
-      <c r="H43" s="4">
-        <v>98</v>
       </c>
       <c r="I43" s="4">
         <v>98</v>
       </c>
       <c r="J43" s="4">
+        <v>98</v>
+      </c>
+      <c r="K43" s="4">
         <v>61</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>47</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>34</v>
-      </c>
-      <c r="M43" s="4">
-        <v>21</v>
       </c>
       <c r="N43" s="4">
         <v>21</v>
@@ -3879,20 +3990,22 @@
       <c r="O43" s="4">
         <v>21</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="3">
         <v>17</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="R43" s="4">
         <v>15</v>
       </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="4">
-        <v>1</v>
-      </c>
+      <c r="S43" s="3"/>
       <c r="T43" s="4">
         <v>1</v>
       </c>
-      <c r="U43" s="3"/>
+      <c r="U43" s="4">
+        <v>1</v>
+      </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
@@ -3905,46 +4018,47 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH43" s="3"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
+        <v>170</v>
+      </c>
+      <c r="C44" s="4">
         <v>137</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>127</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>123</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>81</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>78</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>69</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>48</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>39</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>28</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>27</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>16</v>
-      </c>
-      <c r="M44" s="4">
-        <v>6</v>
       </c>
       <c r="N44" s="4">
         <v>6</v>
@@ -3952,28 +4066,30 @@
       <c r="O44" s="4">
         <v>6</v>
       </c>
-      <c r="P44" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>2</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2</v>
-      </c>
-      <c r="S44" s="4">
-        <v>1</v>
+      <c r="P44" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>3</v>
+      </c>
+      <c r="R44" s="4">
+        <v>2</v>
+      </c>
+      <c r="S44" s="3">
+        <v>2</v>
       </c>
       <c r="T44" s="4">
         <v>1</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="4">
         <v>1</v>
       </c>
       <c r="V44" s="3">
         <v>1</v>
       </c>
-      <c r="W44" s="3"/>
+      <c r="W44" s="3">
+        <v>1</v>
+      </c>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
@@ -3984,69 +4100,70 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH44" s="3"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>290</v>
+      </c>
+      <c r="C45" s="4">
         <v>235</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>184</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>161</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>123</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>99</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>83</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>82</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>67</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>41</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>28</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>22</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>16</v>
-      </c>
-      <c r="N45" s="4">
-        <v>12</v>
       </c>
       <c r="O45" s="4">
         <v>12</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="3">
         <v>6</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="4">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>3</v>
-      </c>
-      <c r="S45" s="4">
+      <c r="S45" s="3">
         <v>3</v>
       </c>
       <c r="T45" s="4">
-        <v>1</v>
-      </c>
-      <c r="U45" s="3">
+        <v>3</v>
+      </c>
+      <c r="U45" s="4">
         <v>1</v>
       </c>
       <c r="V45" s="3">
@@ -4061,7 +4178,9 @@
       <c r="Y45" s="3">
         <v>1</v>
       </c>
-      <c r="Z45" s="3"/>
+      <c r="Z45" s="3">
+        <v>1</v>
+      </c>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
@@ -4069,37 +4188,38 @@
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH45" s="3"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>685</v>
+      </c>
+      <c r="C46" s="4">
         <v>635</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>561</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>504</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>451</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>441</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>350</v>
-      </c>
-      <c r="H46" s="4">
-        <v>308</v>
       </c>
       <c r="I46" s="4">
         <v>308</v>
       </c>
       <c r="J46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="K46" s="4">
         <v>196</v>
@@ -4108,7 +4228,7 @@
         <v>196</v>
       </c>
       <c r="M46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="N46" s="4">
         <v>60</v>
@@ -4116,37 +4236,39 @@
       <c r="O46" s="4">
         <v>60</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="4">
+        <v>60</v>
+      </c>
+      <c r="Q46" s="3">
         <v>40</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="R46" s="4">
         <v>35</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>24</v>
       </c>
-      <c r="S46" s="4">
+      <c r="T46" s="4">
         <v>19</v>
       </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4">
         <v>10</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4</v>
       </c>
-      <c r="X46" s="3">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>2</v>
+      </c>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
@@ -4154,70 +4276,71 @@
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH46" s="3"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>556</v>
+      </c>
+      <c r="C47" s="4">
         <v>525</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>377</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>324</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>161</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>144</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>133</v>
-      </c>
-      <c r="H47" s="4">
-        <v>112</v>
       </c>
       <c r="I47" s="4">
         <v>112</v>
       </c>
       <c r="J47" s="4">
+        <v>112</v>
+      </c>
+      <c r="K47" s="4">
         <v>93</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>85</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>67</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>61</v>
       </c>
-      <c r="N47" s="4">
+      <c r="O47" s="4">
         <v>41</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>23</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <v>9</v>
       </c>
-      <c r="R47" s="3">
-        <v>3</v>
-      </c>
-      <c r="S47" s="4">
+      <c r="S47" s="3">
+        <v>3</v>
+      </c>
+      <c r="T47" s="4">
         <v>5</v>
       </c>
-      <c r="T47" s="4">
-        <v>3</v>
-      </c>
-      <c r="U47" s="3">
-        <v>2</v>
+      <c r="U47" s="4">
+        <v>3</v>
       </c>
       <c r="V47" s="3">
         <v>2</v>
@@ -4252,44 +4375,47 @@
       <c r="AF47" s="3">
         <v>2</v>
       </c>
-      <c r="AG47" s="3"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH47" s="3"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>111</v>
+      </c>
+      <c r="C48" s="4">
         <v>85</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>74</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>40</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>32</v>
-      </c>
-      <c r="F48" s="4">
-        <v>15</v>
       </c>
       <c r="G48" s="4">
         <v>15</v>
       </c>
       <c r="H48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I48" s="4">
         <v>13</v>
       </c>
       <c r="J48" s="4">
+        <v>13</v>
+      </c>
+      <c r="K48" s="4">
         <v>10</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>7</v>
-      </c>
-      <c r="L48" s="4">
-        <v>5</v>
       </c>
       <c r="M48" s="4">
         <v>5</v>
@@ -4298,14 +4424,16 @@
         <v>5</v>
       </c>
       <c r="O48" s="4">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="P48" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="3"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="3"/>
+      <c r="U48" s="4"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
@@ -4318,70 +4446,71 @@
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH48" s="3"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="4">
+        <v>103</v>
+      </c>
+      <c r="C49" s="4">
         <v>89</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>81</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>72</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>58</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>53</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>40</v>
-      </c>
-      <c r="H49" s="4">
-        <v>35</v>
       </c>
       <c r="I49" s="4">
         <v>35</v>
       </c>
       <c r="J49" s="4">
+        <v>35</v>
+      </c>
+      <c r="K49" s="4">
         <v>21</v>
-      </c>
-      <c r="K49" s="4">
-        <v>19</v>
       </c>
       <c r="L49" s="4">
         <v>19</v>
       </c>
       <c r="M49" s="4">
+        <v>19</v>
+      </c>
+      <c r="N49" s="4">
         <v>13</v>
       </c>
-      <c r="N49" s="4">
+      <c r="O49" s="4">
         <v>12</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <v>7</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="4">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <v>6</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <v>5</v>
-      </c>
-      <c r="U49" s="3">
-        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>4</v>
@@ -4396,19 +4525,22 @@
         <v>4</v>
       </c>
       <c r="Z49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA49" s="3">
         <v>1</v>
       </c>
-      <c r="AB49" s="3"/>
+      <c r="AB49" s="3">
+        <v>1</v>
+      </c>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH49" s="3"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -4416,34 +4548,34 @@
         <v>61</v>
       </c>
       <c r="C50" s="4">
+        <v>61</v>
+      </c>
+      <c r="D50" s="4">
         <v>51</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>48</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>40</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>25</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>15</v>
-      </c>
-      <c r="H50" s="4">
-        <v>13</v>
       </c>
       <c r="I50" s="4">
         <v>13</v>
       </c>
       <c r="J50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K50" s="4">
         <v>5</v>
       </c>
       <c r="L50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" s="4">
         <v>4</v>
@@ -4452,16 +4584,18 @@
         <v>4</v>
       </c>
       <c r="O50" s="4">
-        <v>3</v>
-      </c>
-      <c r="P50" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="P50" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>1</v>
+      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="3"/>
       <c r="T50" s="4"/>
-      <c r="U50" s="3"/>
+      <c r="U50" s="4"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -4474,28 +4608,29 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH50" s="3"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>336</v>
+      </c>
+      <c r="C51" s="4">
         <v>232</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>219</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>184</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>151</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>109</v>
-      </c>
-      <c r="G51" s="4">
-        <v>70</v>
       </c>
       <c r="H51" s="4">
         <v>70</v>
@@ -4504,39 +4639,39 @@
         <v>70</v>
       </c>
       <c r="J51" s="4">
+        <v>70</v>
+      </c>
+      <c r="K51" s="4">
         <v>60</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>51</v>
-      </c>
-      <c r="L51" s="4">
-        <v>33</v>
       </c>
       <c r="M51" s="4">
         <v>33</v>
       </c>
       <c r="N51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="O51" s="4">
         <v>21</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="4">
         <v>21</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="3">
         <v>21</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R51" s="4">
+        <v>21</v>
+      </c>
+      <c r="S51" s="3">
         <v>19</v>
       </c>
-      <c r="S51" s="4">
+      <c r="T51" s="4">
         <v>15</v>
       </c>
-      <c r="T51" s="4">
-        <v>11</v>
-      </c>
-      <c r="U51" s="3">
+      <c r="U51" s="4">
         <v>11</v>
       </c>
       <c r="V51" s="3">
@@ -4549,156 +4684,163 @@
         <v>11</v>
       </c>
       <c r="Y51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA51" s="3">
         <v>1</v>
       </c>
-      <c r="AB51" s="3"/>
+      <c r="AB51" s="3">
+        <v>1</v>
+      </c>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
-    </row>
-    <row r="52" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH51" s="3"/>
+    </row>
+    <row r="52" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>9729</v>
+        <v>10819</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>8441</v>
+        <v>9729</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
-        <v>7252</v>
+        <v>8441</v>
       </c>
       <c r="E52" s="15">
         <f>SUM(E8:E51)</f>
+        <v>7252</v>
+      </c>
+      <c r="F52" s="15">
+        <f>SUM(F8:F51)</f>
         <v>6043</v>
       </c>
-      <c r="F52" s="15">
-        <f t="shared" ref="F52:K52" si="0">SUM(F8:F51)</f>
+      <c r="G52" s="15">
+        <f t="shared" ref="G52:L52" si="0">SUM(G8:G51)</f>
         <v>5333</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>3818</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>3665</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>2748</v>
       </c>
-      <c r="K52" s="14">
+      <c r="L52" s="14">
         <f t="shared" si="0"/>
         <v>2184</v>
       </c>
-      <c r="L52" s="5">
-        <f t="shared" ref="L52:AG52" si="1">SUM(L8:L51)</f>
+      <c r="M52" s="5">
+        <f t="shared" ref="M52:AH52" si="1">SUM(M8:M51)</f>
         <v>1641</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <f t="shared" si="1"/>
         <v>1105</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <f t="shared" si="1"/>
         <v>827</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="1"/>
         <v>569</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AB52" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AC52" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AC52" s="5">
+      <c r="AD52" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AD52" s="5">
+      <c r="AE52" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AE52" s="5">
+      <c r="AF52" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AF52" s="5">
+      <c r="AG52" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AG52" s="5">
+      <c r="AH52" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -4720,16 +4862,17 @@
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
       <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RSTawNwzuzVSzrQ5QtZ6XSbTzlsbawvYJsuY5qxLmDWJ+FC0xqzyy+6G8sVTbcFN9grSTbawkp0AGnfBV83fRw==" saltValue="O+4FV6RHXMiVXXTNn0XEyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7gD9F6gVEVLlGP/+pIppUPl/mi8N/hvi7cm8abfyMueW2LqH9CoFPAF1DB8qmrFtoAW/QuxBOVvyRUrqInJViA==" saltValue="XGq95hlWoFJVdwG9fr5whQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:S54"/>
+    <mergeCell ref="A54:T54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J52:AG52 F52:H52 B52:D52" formulaRange="1"/>
+    <ignoredError sqref="K52:AH52 G52:I52 B52:E52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4739,31 +4882,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Q54"/>
+  <dimension ref="A2:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="17" width="11.140625" customWidth="1"/>
+    <col min="2" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="18" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O3" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -4815,59 +4958,65 @@
       <c r="Q6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43918</v>
+      </c>
+      <c r="C7" s="13">
         <v>43917</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43916</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43915</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43914</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43913</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43912</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43911</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43910</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43909</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43908</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43907</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>43906</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43905</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43904</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43903</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43902</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -4885,10 +5034,11 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -4899,12 +5049,14 @@
         <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -4914,17 +5066,20 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -4937,10 +5092,11 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -4948,12 +5104,14 @@
         <v>7</v>
       </c>
       <c r="C11" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -4964,10 +5122,11 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -4985,20 +5144,23 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -5010,10 +5172,11 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5030,7 +5193,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -5038,17 +5201,20 @@
       <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
@@ -5056,7 +5222,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="11">
         <v>5</v>
@@ -5068,7 +5234,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="11">
         <v>4</v>
@@ -5077,19 +5243,22 @@
         <v>4</v>
       </c>
       <c r="J15" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" s="11">
-        <v>1</v>
-      </c>
-      <c r="L15" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -5102,7 +5271,9 @@
       <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -5113,10 +5284,11 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -5127,7 +5299,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
@@ -5139,7 +5311,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
@@ -5148,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="4">
         <v>1</v>
@@ -5162,12 +5334,15 @@
       <c r="O17" s="4">
         <v>1</v>
       </c>
-      <c r="P17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -5175,11 +5350,11 @@
         <v>5</v>
       </c>
       <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
@@ -5190,19 +5365,22 @@
         <v>2</v>
       </c>
       <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5220,10 +5398,11 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -5234,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -5269,12 +5448,15 @@
       <c r="O20" s="4">
         <v>1</v>
       </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -5292,10 +5474,11 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -5303,10 +5486,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -5314,7 +5497,9 @@
       <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -5323,10 +5508,11 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -5337,13 +5523,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="11">
         <v>4</v>
       </c>
       <c r="F23" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="11">
         <v>3</v>
@@ -5352,10 +5538,10 @@
         <v>3</v>
       </c>
       <c r="I23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="11">
         <v>1</v>
@@ -5363,13 +5549,16 @@
       <c r="L23" s="11">
         <v>1</v>
       </c>
-      <c r="M23" s="11"/>
+      <c r="M23" s="11">
+        <v>1</v>
+      </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="11"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P23" s="11"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -5387,15 +5576,16 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="11"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
@@ -5410,13 +5600,13 @@
         <v>3</v>
       </c>
       <c r="G25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="4">
         <v>2</v>
       </c>
       <c r="I25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
@@ -5424,19 +5614,22 @@
       <c r="K25" s="4">
         <v>1</v>
       </c>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
@@ -5444,7 +5637,9 @@
       <c r="D26" s="11">
         <v>1</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -5455,10 +5650,11 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P26" s="11"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
@@ -5476,10 +5672,11 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="11"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P27" s="11"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -5489,7 +5686,9 @@
       <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -5501,10 +5700,11 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -5517,7 +5717,9 @@
       <c r="D29" s="4">
         <v>3</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4">
+        <v>3</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -5528,10 +5730,11 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -5542,12 +5745,14 @@
         <v>3</v>
       </c>
       <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
         <v>4</v>
       </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -5557,10 +5762,11 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -5578,10 +5784,11 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -5599,10 +5806,11 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -5615,7 +5823,9 @@
       <c r="D33" s="4">
         <v>1</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -5626,21 +5836,22 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4">
         <v>8</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>5</v>
-      </c>
-      <c r="D34" s="4">
-        <v>4</v>
       </c>
       <c r="E34" s="4">
         <v>4</v>
@@ -5652,13 +5863,13 @@
         <v>4</v>
       </c>
       <c r="H34" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34" s="4">
         <v>2</v>
       </c>
       <c r="J34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="4">
         <v>1</v>
@@ -5666,13 +5877,16 @@
       <c r="L34" s="4">
         <v>1</v>
       </c>
-      <c r="M34" s="4"/>
+      <c r="M34" s="4">
+        <v>1</v>
+      </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -5690,10 +5904,11 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -5711,10 +5926,11 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="4"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -5732,10 +5948,11 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -5753,10 +5970,11 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -5764,10 +5982,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -5802,14 +6020,17 @@
       <c r="O39" s="4">
         <v>1</v>
       </c>
-      <c r="P39" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -5817,10 +6038,10 @@
         <v>5</v>
       </c>
       <c r="C40" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -5829,7 +6050,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -5837,29 +6058,34 @@
       <c r="I40" s="4">
         <v>1</v>
       </c>
-      <c r="J40" s="4"/>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -5870,10 +6096,11 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="4"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -5887,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -5910,29 +6137,34 @@
       <c r="L42" s="4">
         <v>1</v>
       </c>
-      <c r="M42" s="4"/>
+      <c r="M42" s="4">
+        <v>1</v>
+      </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="4"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4">
         <v>7</v>
-      </c>
-      <c r="C43" s="4">
-        <v>5</v>
       </c>
       <c r="D43" s="4">
         <v>5</v>
       </c>
       <c r="E43" s="4">
-        <v>2</v>
-      </c>
-      <c r="F43" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -5942,14 +6174,17 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="4"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -5963,15 +6198,16 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="4">
         <v>2</v>
@@ -5992,34 +6228,37 @@
         <v>2</v>
       </c>
       <c r="I45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="4">
         <v>1</v>
       </c>
-      <c r="K45" s="4"/>
+      <c r="K45" s="4">
+        <v>1</v>
+      </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4">
         <v>5</v>
       </c>
-      <c r="C46" s="4">
-        <v>3</v>
-      </c>
       <c r="D46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -6030,27 +6269,32 @@
       <c r="H46" s="4">
         <v>1</v>
       </c>
-      <c r="I46" s="4"/>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -6062,23 +6306,26 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="4"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -6089,10 +6336,11 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="4"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -6110,10 +6358,11 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="4"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -6141,16 +6390,19 @@
       <c r="I50" s="4">
         <v>1</v>
       </c>
-      <c r="J50" s="4"/>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="4"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -6158,12 +6410,14 @@
         <v>4</v>
       </c>
       <c r="C51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="4">
-        <v>2</v>
-      </c>
-      <c r="E51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -6174,61 +6428,62 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="4"/>
-    </row>
-    <row r="52" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E52" s="15">
         <f>SUM(E8:E51)</f>
+        <v>56</v>
+      </c>
+      <c r="F52" s="15">
+        <f>SUM(F8:F51)</f>
         <v>37</v>
       </c>
-      <c r="F52" s="15">
-        <f t="shared" ref="F52:Q52" si="0">SUM(F8:F51)</f>
+      <c r="G52" s="15">
+        <f t="shared" ref="G52:R52" si="0">SUM(G8:G51)</f>
         <v>31</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K52" s="14">
+      <c r="L52" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L52" s="5">
+      <c r="M52" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M52" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="N52" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6243,11 +6498,15 @@
       </c>
       <c r="Q52" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="R52" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -6267,16 +6526,17 @@
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mosXym1W+MslcR+Ldo/NuTrzrI+9CvP9n0jgyh8/7q1evs57Mm2yt1a8VXQoRAmf/0DPSmG62i4iuWtH8wKSAw==" saltValue="QUMiuKhtyBegzShH4ZpzvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="newY/BOR6A7Q7CBQ/vBQMh3WC2Vv5O5kOfgxtWcWGRYSWGHgrBv0F9yBGGP//NjOK65Vkv8sRBERKapaVhLlQg==" saltValue="VXynLQS99iNZQ4X5ZL54AQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:Q54"/>
+    <mergeCell ref="A54:R54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B52:Q52" formulaRange="1"/>
+    <ignoredError sqref="B52:R52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Infizierte Coronavirus in BW" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
   <si>
     <t>Fälle</t>
   </si>
@@ -606,37 +606,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AH54"/>
+  <dimension ref="A2:AI54"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="22" width="11.5703125" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" customWidth="1"/>
+    <col min="2" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="19" width="11.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="23" width="11.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="P3" s="9"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -739,110 +739,116 @@
       <c r="AH6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43919</v>
+      </c>
+      <c r="C7" s="13">
         <v>43918</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43917</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43916</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43915</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43914</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43913</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43912</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43911</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43910</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43909</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43908</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43907</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43906</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43905</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43904</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43903</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43902</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43901</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43900</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43899</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43898</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43897</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43896</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43895</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43894</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43893</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43892</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43891</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43890</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AF7" s="12">
         <v>43889</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AG7" s="12">
         <v>43888</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AH7" s="12">
         <v>43887</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AI7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -850,70 +856,70 @@
         <v>189</v>
       </c>
       <c r="C8" s="4">
+        <v>189</v>
+      </c>
+      <c r="D8" s="4">
         <v>130</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>99</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>85</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>64</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>60</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>44</v>
-      </c>
-      <c r="I8" s="4">
-        <v>39</v>
       </c>
       <c r="J8" s="4">
         <v>39</v>
       </c>
       <c r="K8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L8" s="4">
         <v>26</v>
       </c>
       <c r="M8" s="4">
+        <v>26</v>
+      </c>
+      <c r="N8" s="4">
         <v>24</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>13</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>12</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>7</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>6</v>
       </c>
-      <c r="S8" s="3">
-        <v>4</v>
-      </c>
-      <c r="T8" s="4">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>4</v>
       </c>
       <c r="U8" s="4">
         <v>3</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="4">
         <v>3</v>
       </c>
       <c r="W8" s="3">
         <v>3</v>
       </c>
       <c r="X8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y8" s="3">
         <v>2</v>
@@ -921,7 +927,9 @@
       <c r="Z8" s="3">
         <v>2</v>
       </c>
-      <c r="AA8" s="3"/>
+      <c r="AA8" s="3">
+        <v>2</v>
+      </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
@@ -929,78 +937,81 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI8" s="3"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4">
         <v>55</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>45</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>39</v>
-      </c>
-      <c r="E9" s="4">
-        <v>36</v>
       </c>
       <c r="F9" s="4">
         <v>36</v>
       </c>
       <c r="G9" s="4">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4">
         <v>33</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>25</v>
-      </c>
-      <c r="I9" s="4">
-        <v>21</v>
       </c>
       <c r="J9" s="4">
         <v>21</v>
       </c>
       <c r="K9" s="4">
+        <v>21</v>
+      </c>
+      <c r="L9" s="4">
         <v>17</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>14</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>12</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>7</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>5</v>
       </c>
-      <c r="P9" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>3</v>
-      </c>
-      <c r="R9" s="4">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2</v>
-      </c>
-      <c r="T9" s="4">
-        <v>1</v>
+      <c r="Q9" s="4">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3</v>
+      </c>
+      <c r="S9" s="4">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3">
+        <v>2</v>
       </c>
       <c r="U9" s="4">
         <v>1</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="4">
         <v>1</v>
       </c>
       <c r="W9" s="3">
         <v>1</v>
       </c>
-      <c r="X9" s="3"/>
+      <c r="X9" s="3">
+        <v>1</v>
+      </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -1011,31 +1022,32 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI9" s="3"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
+        <v>216</v>
+      </c>
+      <c r="C10" s="4">
         <v>196</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>182</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>144</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>106</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>82</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>74</v>
-      </c>
-      <c r="H10" s="4">
-        <v>45</v>
       </c>
       <c r="I10" s="4">
         <v>45</v>
@@ -1047,13 +1059,13 @@
         <v>45</v>
       </c>
       <c r="L10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M10" s="4">
         <v>17</v>
       </c>
       <c r="N10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O10" s="4">
         <v>5</v>
@@ -1061,31 +1073,33 @@
       <c r="P10" s="4">
         <v>5</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="4">
         <v>5</v>
       </c>
-      <c r="R10" s="4">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
-        <v>3</v>
-      </c>
-      <c r="T10" s="4">
+      <c r="R10" s="3">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>3</v>
       </c>
       <c r="U10" s="4">
         <v>3</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="4">
         <v>3</v>
       </c>
       <c r="W10" s="3">
         <v>3</v>
       </c>
       <c r="X10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -1095,40 +1109,41 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI10" s="3"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>385</v>
+      </c>
+      <c r="C11" s="4">
         <v>369</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>333</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>263</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>233</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>224</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>187</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>117</v>
-      </c>
-      <c r="I11" s="4">
-        <v>67</v>
       </c>
       <c r="J11" s="4">
         <v>67</v>
       </c>
       <c r="K11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="L11" s="4">
         <v>28</v>
@@ -1137,7 +1152,7 @@
         <v>28</v>
       </c>
       <c r="N11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="O11" s="4">
         <v>9</v>
@@ -1145,22 +1160,22 @@
       <c r="P11" s="4">
         <v>9</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="4">
         <v>9</v>
       </c>
-      <c r="R11" s="4">
-        <v>4</v>
-      </c>
-      <c r="S11" s="3">
-        <v>4</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="R11" s="3">
+        <v>9</v>
+      </c>
+      <c r="S11" s="4">
+        <v>4</v>
+      </c>
+      <c r="T11" s="3">
         <v>4</v>
       </c>
       <c r="U11" s="4">
-        <v>3</v>
-      </c>
-      <c r="V11" s="3">
+        <v>4</v>
+      </c>
+      <c r="V11" s="4">
         <v>3</v>
       </c>
       <c r="W11" s="3">
@@ -1170,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="Y11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="3">
         <v>1</v>
@@ -1193,74 +1208,77 @@
       <c r="AF11" s="3">
         <v>1</v>
       </c>
-      <c r="AG11" s="3"/>
+      <c r="AG11" s="3">
+        <v>1</v>
+      </c>
       <c r="AH11" s="3"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI11" s="3"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>185</v>
+      </c>
+      <c r="C12" s="4">
         <v>178</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>175</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>153</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>121</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>89</v>
-      </c>
-      <c r="G12" s="4">
-        <v>83</v>
       </c>
       <c r="H12" s="4">
         <v>83</v>
       </c>
       <c r="I12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J12" s="4">
         <v>71</v>
       </c>
       <c r="K12" s="4">
+        <v>71</v>
+      </c>
+      <c r="L12" s="4">
         <v>62</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>39</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>31</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>29</v>
-      </c>
-      <c r="O12" s="4">
-        <v>13</v>
       </c>
       <c r="P12" s="4">
         <v>13</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="4">
+        <v>13</v>
+      </c>
+      <c r="R12" s="3">
         <v>8</v>
       </c>
-      <c r="R12" s="4">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="S12" s="4">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
         <v>6</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <v>5</v>
       </c>
-      <c r="U12" s="4">
-        <v>4</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="V12" s="4">
         <v>4</v>
       </c>
       <c r="W12" s="3">
@@ -1270,12 +1288,14 @@
         <v>4</v>
       </c>
       <c r="Y12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>1</v>
+      </c>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
@@ -1283,79 +1303,80 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI12" s="3"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>372</v>
+      </c>
+      <c r="C13" s="4">
         <v>299</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>273</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>254</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>223</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>197</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>178</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>167</v>
-      </c>
-      <c r="I13" s="4">
-        <v>134</v>
       </c>
       <c r="J13" s="4">
         <v>134</v>
       </c>
       <c r="K13" s="4">
+        <v>134</v>
+      </c>
+      <c r="L13" s="4">
         <v>101</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>78</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>54</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>45</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>42</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>26</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>19</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>18</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>12</v>
-      </c>
-      <c r="T13" s="4">
-        <v>6</v>
       </c>
       <c r="U13" s="4">
         <v>6</v>
       </c>
-      <c r="V13" s="3">
-        <v>5</v>
+      <c r="V13" s="4">
+        <v>6</v>
       </c>
       <c r="W13" s="3">
         <v>5</v>
       </c>
       <c r="X13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="3">
         <v>4</v>
@@ -1364,13 +1385,13 @@
         <v>4</v>
       </c>
       <c r="AA13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="3">
         <v>1</v>
       </c>
       <c r="AC13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="3">
         <v>3</v>
@@ -1381,75 +1402,78 @@
       <c r="AF13" s="3">
         <v>3</v>
       </c>
-      <c r="AG13" s="3"/>
+      <c r="AG13" s="3">
+        <v>3</v>
+      </c>
       <c r="AH13" s="3"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI13" s="3"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>278</v>
+      </c>
+      <c r="C14" s="4">
         <v>259</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>226</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>210</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>182</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>159</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>150</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>120</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>108</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>92</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>76</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>61</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>51</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>43</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>34</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>26</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>12</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <v>6</v>
       </c>
-      <c r="U14" s="4">
-        <v>2</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1</v>
+      <c r="V14" s="4">
+        <v>2</v>
       </c>
       <c r="W14" s="3">
         <v>1</v>
@@ -1457,7 +1481,9 @@
       <c r="X14" s="3">
         <v>1</v>
       </c>
-      <c r="Y14" s="3"/>
+      <c r="Y14" s="3">
+        <v>1</v>
+      </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -1467,166 +1493,172 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI14" s="3"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C15" s="11">
         <v>191</v>
       </c>
       <c r="D15" s="11">
+        <v>191</v>
+      </c>
+      <c r="E15" s="11">
         <v>171</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>154</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>141</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>123</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>121</v>
-      </c>
-      <c r="I15" s="11">
-        <v>110</v>
       </c>
       <c r="J15" s="11">
         <v>110</v>
       </c>
       <c r="K15" s="11">
+        <v>110</v>
+      </c>
+      <c r="L15" s="11">
         <v>99</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>60</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <v>59</v>
-      </c>
-      <c r="N15" s="11">
-        <v>35</v>
       </c>
       <c r="O15" s="11">
         <v>35</v>
       </c>
       <c r="P15" s="11">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="11">
         <v>21</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>17</v>
       </c>
-      <c r="R15" s="11">
+      <c r="S15" s="11">
         <v>16</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>15</v>
-      </c>
-      <c r="T15" s="11">
-        <v>13</v>
       </c>
       <c r="U15" s="11">
         <v>13</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="11">
+        <v>13</v>
+      </c>
+      <c r="W15" s="3">
         <v>12</v>
       </c>
-      <c r="W15" s="3">
-        <v>3</v>
-      </c>
       <c r="X15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="3">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="3"/>
       <c r="AB15" s="3">
         <v>1</v>
       </c>
-      <c r="AC15" s="3"/>
+      <c r="AC15" s="3">
+        <v>1</v>
+      </c>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI15" s="3"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>110</v>
+      </c>
+      <c r="C16" s="4">
         <v>89</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>74</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>62</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>55</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>45</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>37</v>
-      </c>
-      <c r="H16" s="4">
-        <v>33</v>
       </c>
       <c r="I16" s="4">
         <v>33</v>
       </c>
       <c r="J16" s="4">
+        <v>33</v>
+      </c>
+      <c r="K16" s="4">
         <v>24</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>21</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>12</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>9</v>
       </c>
-      <c r="N16" s="4">
-        <v>4</v>
-      </c>
       <c r="O16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16" s="4">
         <v>3</v>
       </c>
-      <c r="Q16" s="3">
-        <v>3</v>
-      </c>
-      <c r="R16" s="4">
-        <v>3</v>
-      </c>
-      <c r="S16" s="3">
-        <v>2</v>
-      </c>
-      <c r="T16" s="4">
-        <v>1</v>
+      <c r="Q16" s="4">
+        <v>3</v>
+      </c>
+      <c r="R16" s="3">
+        <v>3</v>
+      </c>
+      <c r="S16" s="4">
+        <v>3</v>
+      </c>
+      <c r="T16" s="3">
+        <v>2</v>
       </c>
       <c r="U16" s="4">
         <v>1</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="4">
         <v>1</v>
       </c>
       <c r="W16" s="3">
         <v>1</v>
       </c>
-      <c r="X16" s="3"/>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -1637,163 +1669,167 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI16" s="3"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>737</v>
+      </c>
+      <c r="C17" s="4">
         <v>705</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>648</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>596</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>493</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>462</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>435</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>362</v>
-      </c>
-      <c r="I17" s="4">
-        <v>323</v>
       </c>
       <c r="J17" s="4">
         <v>323</v>
       </c>
       <c r="K17" s="4">
+        <v>323</v>
+      </c>
+      <c r="L17" s="4">
         <v>234</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>193</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>128</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>123</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>111</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>82</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>65</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>47</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>43</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <v>23</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <v>18</v>
-      </c>
-      <c r="V17" s="3">
-        <v>16</v>
       </c>
       <c r="W17" s="3">
         <v>16</v>
       </c>
       <c r="X17" s="3">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="3">
         <v>14</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>5</v>
       </c>
       <c r="AA17" s="3">
         <v>5</v>
       </c>
-      <c r="AB17" s="3"/>
+      <c r="AB17" s="3">
+        <v>5</v>
+      </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI17" s="3"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>386</v>
+      </c>
+      <c r="C18" s="4">
         <v>346</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>325</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>284</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>254</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>227</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>212</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>191</v>
-      </c>
-      <c r="I18" s="4">
-        <v>150</v>
       </c>
       <c r="J18" s="4">
         <v>150</v>
       </c>
       <c r="K18" s="4">
+        <v>150</v>
+      </c>
+      <c r="L18" s="4">
         <v>114</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>79</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>62</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>53</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>43</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>34</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>18</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13</v>
-      </c>
-      <c r="T18" s="4">
-        <v>12</v>
       </c>
       <c r="U18" s="4">
         <v>12</v>
       </c>
-      <c r="V18" s="3">
-        <v>8</v>
+      <c r="V18" s="4">
+        <v>12</v>
       </c>
       <c r="W18" s="3">
         <v>8</v>
@@ -1802,54 +1838,57 @@
         <v>8</v>
       </c>
       <c r="Y18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z18" s="3">
         <v>6</v>
       </c>
       <c r="AA18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB18" s="3">
         <v>4</v>
       </c>
       <c r="AC18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>1</v>
+      </c>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI18" s="3"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
+        <v>154</v>
+      </c>
+      <c r="C19" s="4">
         <v>136</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>110</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>76</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>69</v>
-      </c>
-      <c r="F19" s="4">
-        <v>39</v>
       </c>
       <c r="G19" s="4">
         <v>39</v>
       </c>
       <c r="H19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I19" s="4">
         <v>14</v>
@@ -1864,31 +1903,33 @@
         <v>14</v>
       </c>
       <c r="M19" s="4">
+        <v>14</v>
+      </c>
+      <c r="N19" s="4">
         <v>10</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>8</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>7</v>
       </c>
-      <c r="P19" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>2</v>
-      </c>
-      <c r="R19" s="4">
-        <v>2</v>
-      </c>
-      <c r="S19" s="3">
-        <v>1</v>
-      </c>
-      <c r="T19" s="4">
-        <v>1</v>
-      </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="3"/>
+      <c r="Q19" s="4">
+        <v>3</v>
+      </c>
+      <c r="R19" s="3">
+        <v>2</v>
+      </c>
+      <c r="S19" s="4">
+        <v>2</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -1901,31 +1942,32 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI19" s="3"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
+        <v>340</v>
+      </c>
+      <c r="C20" s="4">
         <v>317</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>278</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>249</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>216</v>
-      </c>
-      <c r="F20" s="4">
-        <v>166</v>
       </c>
       <c r="G20" s="4">
         <v>166</v>
       </c>
       <c r="H20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="I20" s="4">
         <v>97</v>
@@ -1934,46 +1976,46 @@
         <v>97</v>
       </c>
       <c r="K20" s="4">
+        <v>97</v>
+      </c>
+      <c r="L20" s="4">
         <v>60</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>59</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>39</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>29</v>
-      </c>
-      <c r="O20" s="4">
-        <v>16</v>
       </c>
       <c r="P20" s="4">
         <v>16</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="4">
+        <v>16</v>
+      </c>
+      <c r="R20" s="3">
         <v>14</v>
       </c>
-      <c r="R20" s="4">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="4">
-        <v>4</v>
+      <c r="S20" s="4">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1</v>
       </c>
       <c r="U20" s="4">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3">
+        <v>4</v>
+      </c>
+      <c r="V20" s="4">
         <v>3</v>
       </c>
       <c r="W20" s="3">
         <v>3</v>
       </c>
       <c r="X20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="3">
         <v>2</v>
@@ -1997,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="AF20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG20" s="3">
         <v>1</v>
@@ -2005,37 +2047,40 @@
       <c r="AH20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4">
+        <v>130</v>
+      </c>
+      <c r="C21" s="4">
         <v>124</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>113</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>112</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>109</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>98</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>89</v>
-      </c>
-      <c r="H21" s="4">
-        <v>5</v>
       </c>
       <c r="I21" s="4">
         <v>5</v>
       </c>
       <c r="J21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" s="4">
         <v>3</v>
@@ -2044,40 +2089,40 @@
         <v>3</v>
       </c>
       <c r="M21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" s="4">
         <v>2</v>
       </c>
       <c r="O21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
-        <v>2</v>
-      </c>
-      <c r="R21" s="4">
-        <v>2</v>
-      </c>
-      <c r="S21" s="3">
-        <v>2</v>
-      </c>
-      <c r="T21" s="4">
-        <v>5</v>
+      <c r="Q21" s="4">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2</v>
+      </c>
+      <c r="S21" s="4">
+        <v>2</v>
+      </c>
+      <c r="T21" s="3">
+        <v>2</v>
       </c>
       <c r="U21" s="4">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="4">
         <v>5</v>
       </c>
       <c r="W21" s="3">
         <v>5</v>
       </c>
       <c r="X21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y21" s="3">
         <v>2</v>
@@ -2085,7 +2130,9 @@
       <c r="Z21" s="3">
         <v>2</v>
       </c>
-      <c r="AA21" s="3"/>
+      <c r="AA21" s="3">
+        <v>2</v>
+      </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
@@ -2093,8 +2140,9 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI21" s="3"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2102,70 +2150,70 @@
         <v>125</v>
       </c>
       <c r="C22" s="4">
+        <v>125</v>
+      </c>
+      <c r="D22" s="4">
         <v>117</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>98</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>97</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>62</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>60</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>57</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>47</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>39</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>34</v>
-      </c>
-      <c r="L22" s="4">
-        <v>17</v>
       </c>
       <c r="M22" s="4">
         <v>17</v>
       </c>
       <c r="N22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O22" s="4">
         <v>21</v>
       </c>
       <c r="P22" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="4">
         <v>19</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>4</v>
-      </c>
-      <c r="T22" s="4">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>4</v>
       </c>
       <c r="U22" s="4">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="4">
         <v>3</v>
       </c>
       <c r="W22" s="3">
         <v>3</v>
       </c>
       <c r="X22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="3">
         <v>1</v>
@@ -2173,7 +2221,9 @@
       <c r="Z22" s="3">
         <v>1</v>
       </c>
-      <c r="AA22" s="3"/>
+      <c r="AA22" s="3">
+        <v>1</v>
+      </c>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
@@ -2181,94 +2231,95 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI22" s="3"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>365</v>
+      </c>
+      <c r="C23" s="11">
         <v>342</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>331</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>279</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>236</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>212</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>197</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>165</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>140</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>118</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>110</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>71</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>57</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>50</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>47</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="11">
         <v>37</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32</v>
       </c>
-      <c r="R23" s="11">
+      <c r="S23" s="11">
         <v>32</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30</v>
-      </c>
-      <c r="T23" s="11">
-        <v>26</v>
       </c>
       <c r="U23" s="11">
         <v>26</v>
       </c>
-      <c r="V23" s="3">
-        <v>20</v>
+      <c r="V23" s="11">
+        <v>26</v>
       </c>
       <c r="W23" s="3">
         <v>20</v>
       </c>
       <c r="X23" s="3">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="3">
         <v>14</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>10</v>
       </c>
       <c r="Z23" s="3">
         <v>10</v>
       </c>
       <c r="AA23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB23" s="3">
         <v>8</v>
       </c>
       <c r="AC23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD23" s="3">
         <v>1</v>
@@ -2276,73 +2327,76 @@
       <c r="AE23" s="3">
         <v>1</v>
       </c>
-      <c r="AF23" s="3"/>
+      <c r="AF23" s="3">
+        <v>1</v>
+      </c>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI23" s="3"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="11">
+        <v>124</v>
+      </c>
+      <c r="C24" s="11">
         <v>122</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>104</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="11">
         <v>81</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>71</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>60</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>55</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>28</v>
-      </c>
-      <c r="I24" s="11">
-        <v>20</v>
       </c>
       <c r="J24" s="11">
         <v>20</v>
       </c>
       <c r="K24" s="11">
+        <v>20</v>
+      </c>
+      <c r="L24" s="11">
         <v>19</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
         <v>13</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="11">
         <v>9</v>
       </c>
-      <c r="N24" s="11">
-        <v>4</v>
-      </c>
       <c r="O24" s="11">
         <v>4</v>
       </c>
       <c r="P24" s="11">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>1</v>
-      </c>
-      <c r="R24" s="11">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="11">
-        <v>3</v>
-      </c>
+      <c r="Q24" s="11">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="11">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3"/>
       <c r="U24" s="11">
         <v>3</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="11">
         <v>3</v>
       </c>
       <c r="W24" s="3">
@@ -2352,64 +2406,67 @@
         <v>3</v>
       </c>
       <c r="Y24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z24" s="3">
         <v>2</v>
       </c>
-      <c r="AA24" s="3"/>
+      <c r="AA24" s="3">
+        <v>2</v>
+      </c>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3">
+        <v>1</v>
+      </c>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI24" s="3"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>421</v>
+      </c>
+      <c r="C25" s="4">
         <v>404</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>350</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>302</v>
-      </c>
-      <c r="E25" s="4">
-        <v>278</v>
       </c>
       <c r="F25" s="4">
         <v>278</v>
       </c>
       <c r="G25" s="4">
+        <v>278</v>
+      </c>
+      <c r="H25" s="4">
         <v>257</v>
-      </c>
-      <c r="H25" s="4">
-        <v>222</v>
       </c>
       <c r="I25" s="4">
         <v>222</v>
       </c>
       <c r="J25" s="4">
+        <v>222</v>
+      </c>
+      <c r="K25" s="4">
         <v>182</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>154</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>135</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>64</v>
-      </c>
-      <c r="N25" s="4">
-        <v>29</v>
       </c>
       <c r="O25" s="4">
         <v>29</v>
@@ -2417,23 +2474,23 @@
       <c r="P25" s="4">
         <v>29</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="4">
+        <v>29</v>
+      </c>
+      <c r="R25" s="3">
         <v>8</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>8</v>
       </c>
-      <c r="S25" s="3">
+      <c r="T25" s="3">
         <v>6</v>
       </c>
-      <c r="T25" s="4">
-        <v>2</v>
-      </c>
       <c r="U25" s="4">
         <v>2</v>
       </c>
-      <c r="V25" s="3">
-        <v>1</v>
+      <c r="V25" s="4">
+        <v>2</v>
       </c>
       <c r="W25" s="3">
         <v>1</v>
@@ -2444,7 +2501,9 @@
       <c r="Y25" s="3">
         <v>1</v>
       </c>
-      <c r="Z25" s="3"/>
+      <c r="Z25" s="3">
+        <v>1</v>
+      </c>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
@@ -2453,8 +2512,9 @@
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI25" s="3"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -2462,76 +2522,76 @@
         <v>246</v>
       </c>
       <c r="C26" s="11">
+        <v>246</v>
+      </c>
+      <c r="D26" s="11">
         <v>229</v>
       </c>
-      <c r="D26" s="11">
+      <c r="E26" s="11">
         <v>206</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>189</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>172</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>154</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>104</v>
-      </c>
-      <c r="I26" s="11">
-        <v>96</v>
       </c>
       <c r="J26" s="11">
         <v>96</v>
       </c>
       <c r="K26" s="11">
+        <v>96</v>
+      </c>
+      <c r="L26" s="11">
         <v>75</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>63</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>47</v>
       </c>
-      <c r="N26" s="11">
+      <c r="O26" s="11">
         <v>24</v>
-      </c>
-      <c r="O26" s="11">
-        <v>29</v>
       </c>
       <c r="P26" s="11">
         <v>29</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="11">
+        <v>29</v>
+      </c>
+      <c r="R26" s="3">
         <v>16</v>
       </c>
-      <c r="R26" s="11">
+      <c r="S26" s="11">
         <v>16</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12</v>
       </c>
-      <c r="T26" s="11">
+      <c r="U26" s="11">
         <v>9</v>
       </c>
-      <c r="U26" s="11">
-        <v>7</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="11">
         <v>7</v>
       </c>
       <c r="W26" s="3">
         <v>7</v>
       </c>
       <c r="X26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA26" s="3">
         <v>1</v>
@@ -2548,11 +2608,14 @@
       <c r="AE26" s="3">
         <v>1</v>
       </c>
-      <c r="AF26" s="3"/>
+      <c r="AF26" s="3">
+        <v>1</v>
+      </c>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI26" s="3"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
@@ -2560,22 +2623,22 @@
         <v>119</v>
       </c>
       <c r="C27" s="11">
+        <v>119</v>
+      </c>
+      <c r="D27" s="11">
         <v>110</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E27" s="11">
         <v>99</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>85</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>74</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11">
         <v>60</v>
-      </c>
-      <c r="H27" s="11">
-        <v>42</v>
       </c>
       <c r="I27" s="11">
         <v>42</v>
@@ -2584,16 +2647,16 @@
         <v>42</v>
       </c>
       <c r="K27" s="11">
+        <v>42</v>
+      </c>
+      <c r="L27" s="11">
         <v>34</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="11">
         <v>29</v>
       </c>
-      <c r="M27" s="11">
+      <c r="N27" s="11">
         <v>26</v>
-      </c>
-      <c r="N27" s="11">
-        <v>14</v>
       </c>
       <c r="O27" s="11">
         <v>14</v>
@@ -2601,20 +2664,22 @@
       <c r="P27" s="11">
         <v>14</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="11">
+        <v>14</v>
+      </c>
+      <c r="R27" s="3">
         <v>8</v>
       </c>
-      <c r="R27" s="11">
+      <c r="S27" s="11">
         <v>8</v>
       </c>
-      <c r="S27" s="3">
-        <v>3</v>
-      </c>
-      <c r="T27" s="11">
-        <v>2</v>
-      </c>
-      <c r="U27" s="11"/>
-      <c r="V27" s="3"/>
+      <c r="T27" s="3">
+        <v>3</v>
+      </c>
+      <c r="U27" s="11">
+        <v>2</v>
+      </c>
+      <c r="V27" s="11"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -2627,31 +2692,32 @@
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI27" s="3"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>137</v>
+      </c>
+      <c r="C28" s="4">
         <v>132</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>124</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>109</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>89</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>81</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>70</v>
-      </c>
-      <c r="H28" s="4">
-        <v>52</v>
       </c>
       <c r="I28" s="4">
         <v>52</v>
@@ -2660,16 +2726,16 @@
         <v>52</v>
       </c>
       <c r="K28" s="4">
+        <v>52</v>
+      </c>
+      <c r="L28" s="4">
         <v>43</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>34</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>28</v>
-      </c>
-      <c r="N28" s="4">
-        <v>20</v>
       </c>
       <c r="O28" s="4">
         <v>20</v>
@@ -2677,28 +2743,30 @@
       <c r="P28" s="4">
         <v>20</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="4">
+        <v>20</v>
+      </c>
+      <c r="R28" s="3">
         <v>7</v>
       </c>
-      <c r="R28" s="4">
-        <v>2</v>
-      </c>
-      <c r="S28" s="3">
-        <v>2</v>
-      </c>
-      <c r="T28" s="4">
-        <v>1</v>
+      <c r="S28" s="4">
+        <v>2</v>
+      </c>
+      <c r="T28" s="3">
+        <v>2</v>
       </c>
       <c r="U28" s="4">
         <v>1</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="4">
         <v>1</v>
       </c>
       <c r="W28" s="3">
         <v>1</v>
       </c>
-      <c r="X28" s="3"/>
+      <c r="X28" s="3">
+        <v>1</v>
+      </c>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
@@ -2709,28 +2777,29 @@
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI28" s="3"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>201</v>
+      </c>
+      <c r="C29" s="4">
         <v>186</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>162</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>147</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>136</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>101</v>
-      </c>
-      <c r="G29" s="4">
-        <v>57</v>
       </c>
       <c r="H29" s="4">
         <v>57</v>
@@ -2742,16 +2811,16 @@
         <v>57</v>
       </c>
       <c r="K29" s="4">
+        <v>57</v>
+      </c>
+      <c r="L29" s="4">
         <v>41</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>25</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>16</v>
-      </c>
-      <c r="N29" s="4">
-        <v>10</v>
       </c>
       <c r="O29" s="4">
         <v>10</v>
@@ -2759,20 +2828,20 @@
       <c r="P29" s="4">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="4">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>6</v>
       </c>
-      <c r="R29" s="4">
-        <v>4</v>
-      </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="4">
-        <v>1</v>
-      </c>
+      <c r="S29" s="4">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3"/>
       <c r="U29" s="4">
         <v>1</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="4">
         <v>1</v>
       </c>
       <c r="W29" s="3">
@@ -2790,56 +2859,59 @@
       <c r="AA29" s="3">
         <v>1</v>
       </c>
-      <c r="AB29" s="3"/>
+      <c r="AB29" s="3">
+        <v>1</v>
+      </c>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI29" s="3"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
-        <v>543</v>
+        <v>657</v>
       </c>
       <c r="C30" s="4">
         <v>543</v>
       </c>
       <c r="D30" s="4">
+        <v>543</v>
+      </c>
+      <c r="E30" s="4">
         <v>450</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>352</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>275</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>250</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>236</v>
-      </c>
-      <c r="I30" s="4">
-        <v>175</v>
       </c>
       <c r="J30" s="4">
         <v>175</v>
       </c>
       <c r="K30" s="4">
+        <v>175</v>
+      </c>
+      <c r="L30" s="4">
         <v>126</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>112</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>87</v>
-      </c>
-      <c r="N30" s="4">
-        <v>38</v>
       </c>
       <c r="O30" s="4">
         <v>38</v>
@@ -2847,41 +2919,41 @@
       <c r="P30" s="4">
         <v>38</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="4">
+        <v>38</v>
+      </c>
+      <c r="R30" s="3">
         <v>24</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>18</v>
       </c>
-      <c r="S30" s="3">
+      <c r="T30" s="3">
         <v>11</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <v>11</v>
       </c>
-      <c r="U30" s="4">
+      <c r="V30" s="4">
         <v>8</v>
-      </c>
-      <c r="V30" s="3">
-        <v>7</v>
       </c>
       <c r="W30" s="3">
         <v>7</v>
       </c>
       <c r="X30" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y30" s="3">
         <v>5</v>
       </c>
-      <c r="Y30" s="3">
-        <v>3</v>
-      </c>
       <c r="Z30" s="3">
         <v>3</v>
       </c>
       <c r="AA30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC30" s="3">
         <v>1</v>
@@ -2892,34 +2964,37 @@
       <c r="AE30" s="3">
         <v>1</v>
       </c>
-      <c r="AF30" s="3"/>
+      <c r="AF30" s="3">
+        <v>1</v>
+      </c>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI30" s="3"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
+        <v>112</v>
+      </c>
+      <c r="C31" s="4">
         <v>92</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>74</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>67</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>58</v>
-      </c>
-      <c r="F31" s="4">
-        <v>53</v>
       </c>
       <c r="G31" s="4">
         <v>53</v>
       </c>
       <c r="H31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I31" s="4">
         <v>36</v>
@@ -2928,10 +3003,10 @@
         <v>36</v>
       </c>
       <c r="K31" s="4">
+        <v>36</v>
+      </c>
+      <c r="L31" s="4">
         <v>33</v>
-      </c>
-      <c r="L31" s="4">
-        <v>31</v>
       </c>
       <c r="M31" s="4">
         <v>31</v>
@@ -2943,39 +3018,41 @@
         <v>31</v>
       </c>
       <c r="P31" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="4">
         <v>30</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="R31" s="3">
         <v>28</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <v>24</v>
       </c>
-      <c r="S31" s="3">
-        <v>24</v>
-      </c>
-      <c r="T31" s="4">
+      <c r="T31" s="3">
         <v>24</v>
       </c>
       <c r="U31" s="4">
         <v>24</v>
       </c>
-      <c r="V31" s="3">
-        <v>23</v>
+      <c r="V31" s="4">
+        <v>24</v>
       </c>
       <c r="W31" s="3">
         <v>23</v>
       </c>
       <c r="X31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Y31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="3">
         <v>1</v>
       </c>
-      <c r="AA31" s="3"/>
+      <c r="AA31" s="3">
+        <v>1</v>
+      </c>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
@@ -2983,8 +3060,9 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI31" s="3"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -2992,19 +3070,19 @@
         <v>183</v>
       </c>
       <c r="C32" s="4">
+        <v>183</v>
+      </c>
+      <c r="D32" s="4">
         <v>166</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>158</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>145</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>135</v>
-      </c>
-      <c r="G32" s="4">
-        <v>80</v>
       </c>
       <c r="H32" s="4">
         <v>80</v>
@@ -3016,13 +3094,13 @@
         <v>80</v>
       </c>
       <c r="K32" s="4">
+        <v>80</v>
+      </c>
+      <c r="L32" s="4">
         <v>73</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>71</v>
-      </c>
-      <c r="M32" s="4">
-        <v>27</v>
       </c>
       <c r="N32" s="4">
         <v>27</v>
@@ -3033,38 +3111,38 @@
       <c r="P32" s="4">
         <v>27</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="4">
+        <v>27</v>
+      </c>
+      <c r="R32" s="3">
         <v>22</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <v>12</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12</v>
-      </c>
-      <c r="T32" s="4">
-        <v>9</v>
       </c>
       <c r="U32" s="4">
         <v>9</v>
       </c>
-      <c r="V32" s="3">
-        <v>7</v>
+      <c r="V32" s="4">
+        <v>9</v>
       </c>
       <c r="W32" s="3">
         <v>7</v>
       </c>
       <c r="X32" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="3">
         <v>5</v>
       </c>
-      <c r="Y32" s="3">
-        <v>4</v>
-      </c>
       <c r="Z32" s="3">
         <v>4</v>
       </c>
       <c r="AA32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB32" s="3">
         <v>3</v>
@@ -3072,13 +3150,16 @@
       <c r="AC32" s="3">
         <v>3</v>
       </c>
-      <c r="AD32" s="3"/>
+      <c r="AD32" s="3">
+        <v>3</v>
+      </c>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI32" s="3"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -3086,63 +3167,63 @@
         <v>76</v>
       </c>
       <c r="C33" s="4">
+        <v>76</v>
+      </c>
+      <c r="D33" s="4">
         <v>68</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>58</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>45</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>40</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>35</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>30</v>
-      </c>
-      <c r="I33" s="4">
-        <v>26</v>
       </c>
       <c r="J33" s="4">
         <v>26</v>
       </c>
       <c r="K33" s="4">
+        <v>26</v>
+      </c>
+      <c r="L33" s="4">
         <v>20</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>17</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>14</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>7</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <v>10</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>6</v>
       </c>
-      <c r="Q33" s="3">
-        <v>4</v>
-      </c>
-      <c r="R33" s="4">
-        <v>2</v>
-      </c>
-      <c r="S33" s="3">
-        <v>2</v>
-      </c>
-      <c r="T33" s="4">
-        <v>1</v>
+      <c r="R33" s="3">
+        <v>4</v>
+      </c>
+      <c r="S33" s="4">
+        <v>2</v>
+      </c>
+      <c r="T33" s="3">
+        <v>2</v>
       </c>
       <c r="U33" s="4">
         <v>1</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="4">
         <v>1</v>
       </c>
       <c r="W33" s="3">
@@ -3151,7 +3232,9 @@
       <c r="X33" s="3">
         <v>1</v>
       </c>
-      <c r="Y33" s="3"/>
+      <c r="Y33" s="3">
+        <v>1</v>
+      </c>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -3161,81 +3244,84 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI33" s="3"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>276</v>
+      </c>
+      <c r="C34" s="4">
         <v>245</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>197</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>175</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>135</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>120</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>104</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>82</v>
-      </c>
-      <c r="I34" s="4">
-        <v>71</v>
       </c>
       <c r="J34" s="4">
         <v>71</v>
       </c>
       <c r="K34" s="4">
+        <v>71</v>
+      </c>
+      <c r="L34" s="4">
         <v>55</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>45</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>38</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>28</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>25</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>22</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="R34" s="3">
         <v>16</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>13</v>
       </c>
-      <c r="S34" s="3">
+      <c r="T34" s="3">
         <v>13</v>
-      </c>
-      <c r="T34" s="4">
-        <v>12</v>
       </c>
       <c r="U34" s="4">
         <v>12</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V34" s="4">
+        <v>12</v>
+      </c>
+      <c r="W34" s="3">
         <v>7</v>
       </c>
-      <c r="W34" s="3">
+      <c r="X34" s="3">
         <v>6</v>
       </c>
-      <c r="X34" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y34" s="3"/>
+      <c r="Y34" s="3">
+        <v>2</v>
+      </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
@@ -3245,8 +3331,9 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI34" s="3"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -3254,64 +3341,64 @@
         <v>256</v>
       </c>
       <c r="C35" s="4">
+        <v>256</v>
+      </c>
+      <c r="D35" s="4">
         <v>236</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>224</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>171</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>140</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>121</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>113</v>
-      </c>
-      <c r="I35" s="4">
-        <v>91</v>
       </c>
       <c r="J35" s="4">
         <v>91</v>
       </c>
       <c r="K35" s="4">
+        <v>91</v>
+      </c>
+      <c r="L35" s="4">
         <v>85</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>46</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>41</v>
-      </c>
-      <c r="N35" s="4">
-        <v>31</v>
       </c>
       <c r="O35" s="4">
         <v>31</v>
       </c>
       <c r="P35" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="4">
         <v>20</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <v>7</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5</v>
       </c>
-      <c r="T35" s="4">
-        <v>4</v>
-      </c>
       <c r="U35" s="4">
         <v>4</v>
       </c>
-      <c r="V35" s="3">
-        <v>3</v>
+      <c r="V35" s="4">
+        <v>4</v>
       </c>
       <c r="W35" s="3">
         <v>3</v>
@@ -3326,77 +3413,82 @@
         <v>3</v>
       </c>
       <c r="AA35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>1</v>
+      </c>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI35" s="3"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4">
         <v>29</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>25</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>22</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>20</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>19</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>18</v>
-      </c>
-      <c r="H36" s="4">
-        <v>16</v>
       </c>
       <c r="I36" s="4">
         <v>16</v>
       </c>
       <c r="J36" s="4">
+        <v>16</v>
+      </c>
+      <c r="K36" s="4">
         <v>14</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>11</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>7</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>6</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>5</v>
       </c>
-      <c r="O36" s="4">
-        <v>4</v>
-      </c>
       <c r="P36" s="4">
         <v>4</v>
       </c>
-      <c r="Q36" s="3">
-        <v>4</v>
-      </c>
-      <c r="R36" s="4">
-        <v>4</v>
-      </c>
-      <c r="S36" s="3">
-        <v>3</v>
-      </c>
-      <c r="T36" s="4"/>
+      <c r="Q36" s="4">
+        <v>4</v>
+      </c>
+      <c r="R36" s="3">
+        <v>4</v>
+      </c>
+      <c r="S36" s="4">
+        <v>4</v>
+      </c>
+      <c r="T36" s="3">
+        <v>3</v>
+      </c>
       <c r="U36" s="4"/>
-      <c r="V36" s="3"/>
+      <c r="V36" s="4"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -3409,78 +3501,81 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI36" s="3"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>252</v>
+      </c>
+      <c r="C37" s="4">
         <v>240</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>222</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>194</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>180</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>156</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>146</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>100</v>
-      </c>
-      <c r="I37" s="4">
-        <v>81</v>
       </c>
       <c r="J37" s="4">
         <v>81</v>
       </c>
       <c r="K37" s="4">
+        <v>81</v>
+      </c>
+      <c r="L37" s="4">
         <v>64</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>53</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>37</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>34</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <v>26</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>19</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="R37" s="3">
         <v>12</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>11</v>
       </c>
-      <c r="S37" s="3">
-        <v>3</v>
-      </c>
-      <c r="T37" s="4">
-        <v>4</v>
+      <c r="T37" s="3">
+        <v>3</v>
       </c>
       <c r="U37" s="4">
-        <v>3</v>
-      </c>
-      <c r="V37" s="3">
+        <v>4</v>
+      </c>
+      <c r="V37" s="4">
         <v>3</v>
       </c>
       <c r="W37" s="3">
-        <v>2</v>
-      </c>
-      <c r="X37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="X37" s="3">
+        <v>2</v>
+      </c>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
@@ -3491,31 +3586,32 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI37" s="3"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>320</v>
+      </c>
+      <c r="C38" s="4">
         <v>318</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>304</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>281</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>255</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>176</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>127</v>
-      </c>
-      <c r="H38" s="4">
-        <v>110</v>
       </c>
       <c r="I38" s="4">
         <v>110</v>
@@ -3524,51 +3620,53 @@
         <v>110</v>
       </c>
       <c r="K38" s="4">
+        <v>110</v>
+      </c>
+      <c r="L38" s="4">
         <v>88</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>55</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>13</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>12</v>
-      </c>
-      <c r="O38" s="4">
-        <v>8</v>
       </c>
       <c r="P38" s="4">
         <v>8</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="4">
         <v>8</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R38" s="3">
+        <v>8</v>
+      </c>
+      <c r="S38" s="4">
         <v>5</v>
       </c>
-      <c r="S38" s="3">
+      <c r="T38" s="3">
         <v>5</v>
       </c>
-      <c r="T38" s="4">
+      <c r="U38" s="4">
         <v>6</v>
       </c>
-      <c r="U38" s="4">
-        <v>3</v>
-      </c>
-      <c r="V38" s="3">
+      <c r="V38" s="4">
         <v>3</v>
       </c>
       <c r="W38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X38" s="3">
         <v>2</v>
       </c>
       <c r="Y38" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>1</v>
+      </c>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
@@ -3577,8 +3675,9 @@
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI38" s="3"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -3589,16 +3688,16 @@
         <v>285</v>
       </c>
       <c r="D39" s="4">
+        <v>285</v>
+      </c>
+      <c r="E39" s="4">
         <v>243</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>190</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>172</v>
-      </c>
-      <c r="G39" s="4">
-        <v>117</v>
       </c>
       <c r="H39" s="4">
         <v>117</v>
@@ -3610,16 +3709,16 @@
         <v>117</v>
       </c>
       <c r="K39" s="4">
+        <v>117</v>
+      </c>
+      <c r="L39" s="4">
         <v>79</v>
-      </c>
-      <c r="L39" s="4">
-        <v>49</v>
       </c>
       <c r="M39" s="4">
         <v>49</v>
       </c>
       <c r="N39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="O39" s="4">
         <v>23</v>
@@ -3627,48 +3726,51 @@
       <c r="P39" s="4">
         <v>23</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="4">
         <v>23</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R39" s="3">
+        <v>23</v>
+      </c>
+      <c r="S39" s="4">
         <v>10</v>
       </c>
-      <c r="S39" s="3">
+      <c r="T39" s="3">
         <v>5</v>
       </c>
-      <c r="T39" s="4">
+      <c r="U39" s="4">
         <v>6</v>
       </c>
-      <c r="U39" s="4">
+      <c r="V39" s="4">
         <v>5</v>
       </c>
-      <c r="V39" s="3">
+      <c r="W39" s="3">
         <v>5</v>
       </c>
-      <c r="W39" s="3">
-        <v>4</v>
-      </c>
       <c r="X39" s="3">
         <v>4</v>
       </c>
       <c r="Y39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z39" s="3">
         <v>2</v>
       </c>
       <c r="AA39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>1</v>
+      </c>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI39" s="3"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -3676,61 +3778,63 @@
         <v>249</v>
       </c>
       <c r="C40" s="4">
+        <v>249</v>
+      </c>
+      <c r="D40" s="4">
         <v>235</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>200</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>167</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>117</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>113</v>
-      </c>
-      <c r="H40" s="4">
-        <v>95</v>
       </c>
       <c r="I40" s="4">
         <v>95</v>
       </c>
       <c r="J40" s="4">
+        <v>95</v>
+      </c>
+      <c r="K40" s="4">
         <v>94</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>43</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>33</v>
-      </c>
-      <c r="M40" s="4">
-        <v>31</v>
       </c>
       <c r="N40" s="4">
         <v>31</v>
       </c>
       <c r="O40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="P40" s="4">
         <v>19</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="4">
+        <v>19</v>
+      </c>
+      <c r="R40" s="3">
         <v>11</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <v>7</v>
       </c>
-      <c r="S40" s="3">
+      <c r="T40" s="3">
         <v>5</v>
       </c>
-      <c r="T40" s="4">
-        <v>1</v>
-      </c>
-      <c r="U40" s="4"/>
-      <c r="V40" s="3"/>
+      <c r="U40" s="4">
+        <v>1</v>
+      </c>
+      <c r="V40" s="4"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -3743,49 +3847,50 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI40" s="3"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>502</v>
+      </c>
+      <c r="C41" s="4">
         <v>477</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>405</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>396</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>357</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>317</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>276</v>
-      </c>
-      <c r="H41" s="4">
-        <v>240</v>
       </c>
       <c r="I41" s="4">
         <v>240</v>
       </c>
       <c r="J41" s="4">
+        <v>240</v>
+      </c>
+      <c r="K41" s="4">
         <v>215</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>144</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>127</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>76</v>
-      </c>
-      <c r="N41" s="4">
-        <v>38</v>
       </c>
       <c r="O41" s="4">
         <v>38</v>
@@ -3793,38 +3898,38 @@
       <c r="P41" s="4">
         <v>38</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="4">
+        <v>38</v>
+      </c>
+      <c r="R41" s="3">
         <v>28</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <v>28</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18</v>
       </c>
-      <c r="T41" s="4">
+      <c r="U41" s="4">
         <v>14</v>
       </c>
-      <c r="U41" s="4">
+      <c r="V41" s="4">
         <v>13</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7</v>
       </c>
-      <c r="X41" s="3">
-        <v>4</v>
-      </c>
       <c r="Y41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB41" s="3">
         <v>1</v>
@@ -3838,31 +3943,34 @@
       <c r="AE41" s="3">
         <v>1</v>
       </c>
-      <c r="AF41" s="3"/>
+      <c r="AF41" s="3">
+        <v>1</v>
+      </c>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI41" s="3"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
+        <v>108</v>
+      </c>
+      <c r="C42" s="4">
         <v>98</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>87</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>60</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>29</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>9</v>
-      </c>
-      <c r="G42" s="4">
-        <v>8</v>
       </c>
       <c r="H42" s="4">
         <v>8</v>
@@ -3871,42 +3979,42 @@
         <v>8</v>
       </c>
       <c r="J42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42" s="4">
+        <v>3</v>
+      </c>
+      <c r="N42" s="4">
         <v>5</v>
       </c>
-      <c r="N42" s="4">
-        <v>4</v>
-      </c>
       <c r="O42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P42" s="4">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>2</v>
-      </c>
-      <c r="R42" s="4">
-        <v>1</v>
-      </c>
-      <c r="S42" s="3">
-        <v>1</v>
-      </c>
-      <c r="T42" s="4">
+      <c r="Q42" s="4">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3">
+        <v>2</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
+      <c r="T42" s="3">
         <v>1</v>
       </c>
       <c r="U42" s="4">
         <v>1</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="4">
         <v>1</v>
       </c>
       <c r="W42" s="3">
@@ -3942,9 +4050,12 @@
       <c r="AG42" s="3">
         <v>1</v>
       </c>
-      <c r="AH42" s="3"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="3"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
@@ -3952,40 +4063,40 @@
         <v>287</v>
       </c>
       <c r="C43" s="4">
+        <v>287</v>
+      </c>
+      <c r="D43" s="4">
         <v>253</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>206</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>175</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>148</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>145</v>
       </c>
-      <c r="H43" s="4">
+      <c r="I43" s="4">
         <v>111</v>
-      </c>
-      <c r="I43" s="4">
-        <v>98</v>
       </c>
       <c r="J43" s="4">
         <v>98</v>
       </c>
       <c r="K43" s="4">
+        <v>98</v>
+      </c>
+      <c r="L43" s="4">
         <v>61</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>47</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>34</v>
-      </c>
-      <c r="N43" s="4">
-        <v>21</v>
       </c>
       <c r="O43" s="4">
         <v>21</v>
@@ -3993,20 +4104,22 @@
       <c r="P43" s="4">
         <v>21</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="4">
+        <v>21</v>
+      </c>
+      <c r="R43" s="3">
         <v>17</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <v>15</v>
       </c>
-      <c r="S43" s="3"/>
-      <c r="T43" s="4">
-        <v>1</v>
-      </c>
+      <c r="T43" s="3"/>
       <c r="U43" s="4">
         <v>1</v>
       </c>
-      <c r="V43" s="3"/>
+      <c r="V43" s="4">
+        <v>1</v>
+      </c>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
@@ -4019,8 +4132,9 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI43" s="3"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -4028,40 +4142,40 @@
         <v>170</v>
       </c>
       <c r="C44" s="4">
+        <v>170</v>
+      </c>
+      <c r="D44" s="4">
         <v>137</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>127</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>123</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>81</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>78</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>69</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>48</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>39</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>28</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>27</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>16</v>
-      </c>
-      <c r="N44" s="4">
-        <v>6</v>
       </c>
       <c r="O44" s="4">
         <v>6</v>
@@ -4069,28 +4183,30 @@
       <c r="P44" s="4">
         <v>6</v>
       </c>
-      <c r="Q44" s="3">
-        <v>3</v>
-      </c>
-      <c r="R44" s="4">
-        <v>2</v>
-      </c>
-      <c r="S44" s="3">
-        <v>2</v>
-      </c>
-      <c r="T44" s="4">
-        <v>1</v>
+      <c r="Q44" s="4">
+        <v>6</v>
+      </c>
+      <c r="R44" s="3">
+        <v>3</v>
+      </c>
+      <c r="S44" s="4">
+        <v>2</v>
+      </c>
+      <c r="T44" s="3">
+        <v>2</v>
       </c>
       <c r="U44" s="4">
         <v>1</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="4">
         <v>1</v>
       </c>
       <c r="W44" s="3">
         <v>1</v>
       </c>
-      <c r="X44" s="3"/>
+      <c r="X44" s="3">
+        <v>1</v>
+      </c>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
@@ -4101,72 +4217,73 @@
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI44" s="3"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>299</v>
+      </c>
+      <c r="C45" s="4">
         <v>290</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>235</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>184</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>161</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>123</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>99</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>83</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>82</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>67</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>41</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>28</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>22</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>16</v>
-      </c>
-      <c r="O45" s="4">
-        <v>12</v>
       </c>
       <c r="P45" s="4">
         <v>12</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="4">
+        <v>12</v>
+      </c>
+      <c r="R45" s="3">
         <v>6</v>
       </c>
-      <c r="R45" s="4">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
-        <v>3</v>
-      </c>
-      <c r="T45" s="4">
+      <c r="S45" s="4">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>3</v>
       </c>
       <c r="U45" s="4">
-        <v>1</v>
-      </c>
-      <c r="V45" s="3">
+        <v>3</v>
+      </c>
+      <c r="V45" s="4">
         <v>1</v>
       </c>
       <c r="W45" s="3">
@@ -4181,7 +4298,9 @@
       <c r="Z45" s="3">
         <v>1</v>
       </c>
-      <c r="AA45" s="3"/>
+      <c r="AA45" s="3">
+        <v>1</v>
+      </c>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
@@ -4189,8 +4308,9 @@
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI45" s="3"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -4198,31 +4318,31 @@
         <v>685</v>
       </c>
       <c r="C46" s="4">
+        <v>685</v>
+      </c>
+      <c r="D46" s="4">
         <v>635</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>561</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>504</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>451</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>441</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>350</v>
-      </c>
-      <c r="I46" s="4">
-        <v>308</v>
       </c>
       <c r="J46" s="4">
         <v>308</v>
       </c>
       <c r="K46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="L46" s="4">
         <v>196</v>
@@ -4231,7 +4351,7 @@
         <v>196</v>
       </c>
       <c r="N46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="O46" s="4">
         <v>60</v>
@@ -4239,37 +4359,39 @@
       <c r="P46" s="4">
         <v>60</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="4">
+        <v>60</v>
+      </c>
+      <c r="R46" s="3">
         <v>40</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <v>35</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24</v>
       </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4">
         <v>19</v>
       </c>
-      <c r="U46" s="4">
+      <c r="V46" s="4">
         <v>10</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8</v>
       </c>
-      <c r="X46" s="3">
-        <v>4</v>
-      </c>
       <c r="Y46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z46" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>2</v>
+      </c>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
@@ -4277,73 +4399,74 @@
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI46" s="3"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>630</v>
+      </c>
+      <c r="C47" s="4">
         <v>556</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>525</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>377</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>324</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>161</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>144</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>133</v>
-      </c>
-      <c r="I47" s="4">
-        <v>112</v>
       </c>
       <c r="J47" s="4">
         <v>112</v>
       </c>
       <c r="K47" s="4">
+        <v>112</v>
+      </c>
+      <c r="L47" s="4">
         <v>93</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>85</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>67</v>
       </c>
-      <c r="N47" s="4">
+      <c r="O47" s="4">
         <v>61</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>41</v>
       </c>
-      <c r="P47" s="4">
+      <c r="Q47" s="4">
         <v>23</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <v>9</v>
       </c>
-      <c r="S47" s="3">
-        <v>3</v>
-      </c>
-      <c r="T47" s="4">
+      <c r="T47" s="3">
+        <v>3</v>
+      </c>
+      <c r="U47" s="4">
         <v>5</v>
       </c>
-      <c r="U47" s="4">
-        <v>3</v>
-      </c>
-      <c r="V47" s="3">
-        <v>2</v>
+      <c r="V47" s="4">
+        <v>3</v>
       </c>
       <c r="W47" s="3">
         <v>2</v>
@@ -4378,47 +4501,50 @@
       <c r="AG47" s="3">
         <v>2</v>
       </c>
-      <c r="AH47" s="3"/>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI47" s="3"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>137</v>
+      </c>
+      <c r="C48" s="4">
         <v>111</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>85</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>74</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>40</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>32</v>
-      </c>
-      <c r="G48" s="4">
-        <v>15</v>
       </c>
       <c r="H48" s="4">
         <v>15</v>
       </c>
       <c r="I48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J48" s="4">
         <v>13</v>
       </c>
       <c r="K48" s="4">
+        <v>13</v>
+      </c>
+      <c r="L48" s="4">
         <v>10</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>7</v>
-      </c>
-      <c r="M48" s="4">
-        <v>5</v>
       </c>
       <c r="N48" s="4">
         <v>5</v>
@@ -4427,14 +4553,16 @@
         <v>5</v>
       </c>
       <c r="P48" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="3"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="3"/>
+      <c r="V48" s="4"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
@@ -4447,8 +4575,9 @@
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI48" s="3"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -4456,65 +4585,65 @@
         <v>103</v>
       </c>
       <c r="C49" s="4">
+        <v>103</v>
+      </c>
+      <c r="D49" s="4">
         <v>89</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>81</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>72</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>58</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>53</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>40</v>
-      </c>
-      <c r="I49" s="4">
-        <v>35</v>
       </c>
       <c r="J49" s="4">
         <v>35</v>
       </c>
       <c r="K49" s="4">
+        <v>35</v>
+      </c>
+      <c r="L49" s="4">
         <v>21</v>
-      </c>
-      <c r="L49" s="4">
-        <v>19</v>
       </c>
       <c r="M49" s="4">
         <v>19</v>
       </c>
       <c r="N49" s="4">
+        <v>19</v>
+      </c>
+      <c r="O49" s="4">
         <v>13</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <v>12</v>
       </c>
-      <c r="P49" s="4">
+      <c r="Q49" s="4">
         <v>7</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <v>6</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <v>5</v>
       </c>
-      <c r="V49" s="3">
-        <v>4</v>
-      </c>
       <c r="W49" s="3">
         <v>4</v>
       </c>
@@ -4528,57 +4657,60 @@
         <v>4</v>
       </c>
       <c r="AA49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB49" s="3">
         <v>1</v>
       </c>
-      <c r="AC49" s="3"/>
+      <c r="AC49" s="3">
+        <v>1</v>
+      </c>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI49" s="3"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C50" s="4">
         <v>61</v>
       </c>
       <c r="D50" s="4">
+        <v>61</v>
+      </c>
+      <c r="E50" s="4">
         <v>51</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>48</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>40</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>25</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
         <v>15</v>
-      </c>
-      <c r="I50" s="4">
-        <v>13</v>
       </c>
       <c r="J50" s="4">
         <v>13</v>
       </c>
       <c r="K50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L50" s="4">
         <v>5</v>
       </c>
       <c r="M50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" s="4">
         <v>4</v>
@@ -4587,16 +4719,18 @@
         <v>4</v>
       </c>
       <c r="P50" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>1</v>
-      </c>
-      <c r="R50" s="4"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>3</v>
+      </c>
+      <c r="R50" s="3">
+        <v>1</v>
+      </c>
+      <c r="S50" s="4"/>
+      <c r="T50" s="3"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="3"/>
+      <c r="V50" s="4"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
@@ -4609,31 +4743,32 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI50" s="3"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>346</v>
+      </c>
+      <c r="C51" s="4">
         <v>336</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>232</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>219</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>184</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>151</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>109</v>
-      </c>
-      <c r="H51" s="4">
-        <v>70</v>
       </c>
       <c r="I51" s="4">
         <v>70</v>
@@ -4642,39 +4777,39 @@
         <v>70</v>
       </c>
       <c r="K51" s="4">
+        <v>70</v>
+      </c>
+      <c r="L51" s="4">
         <v>60</v>
       </c>
-      <c r="L51" s="4">
+      <c r="M51" s="4">
         <v>51</v>
-      </c>
-      <c r="M51" s="4">
-        <v>33</v>
       </c>
       <c r="N51" s="4">
         <v>33</v>
       </c>
       <c r="O51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P51" s="4">
         <v>21</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q51" s="4">
         <v>21</v>
       </c>
-      <c r="R51" s="4">
+      <c r="R51" s="3">
         <v>21</v>
       </c>
-      <c r="S51" s="3">
+      <c r="S51" s="4">
+        <v>21</v>
+      </c>
+      <c r="T51" s="3">
         <v>19</v>
       </c>
-      <c r="T51" s="4">
+      <c r="U51" s="4">
         <v>15</v>
       </c>
-      <c r="U51" s="4">
-        <v>11</v>
-      </c>
-      <c r="V51" s="3">
+      <c r="V51" s="4">
         <v>11</v>
       </c>
       <c r="W51" s="3">
@@ -4687,160 +4822,167 @@
         <v>11</v>
       </c>
       <c r="Z51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AA51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB51" s="3">
         <v>1</v>
       </c>
-      <c r="AC51" s="3"/>
+      <c r="AC51" s="3">
+        <v>1</v>
+      </c>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
-    </row>
-    <row r="52" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AI51" s="3"/>
+    </row>
+    <row r="52" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>10819</v>
+        <v>11536</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>9729</v>
+        <v>10819</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
-        <v>8441</v>
+        <v>9729</v>
       </c>
       <c r="E52" s="15">
         <f>SUM(E8:E51)</f>
-        <v>7252</v>
+        <v>8441</v>
       </c>
       <c r="F52" s="15">
         <f>SUM(F8:F51)</f>
+        <v>7252</v>
+      </c>
+      <c r="G52" s="15">
+        <f>SUM(G8:G51)</f>
         <v>6043</v>
       </c>
-      <c r="G52" s="15">
-        <f t="shared" ref="G52:L52" si="0">SUM(G8:G51)</f>
+      <c r="H52" s="15">
+        <f t="shared" ref="H52:M52" si="0">SUM(H8:H51)</f>
         <v>5333</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>3818</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>3665</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <f t="shared" si="0"/>
         <v>2748</v>
       </c>
-      <c r="L52" s="14">
+      <c r="M52" s="14">
         <f t="shared" si="0"/>
         <v>2184</v>
       </c>
-      <c r="M52" s="5">
-        <f t="shared" ref="M52:AH52" si="1">SUM(M8:M51)</f>
+      <c r="N52" s="5">
+        <f t="shared" ref="N52:AI52" si="1">SUM(N8:N51)</f>
         <v>1641</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <f t="shared" si="1"/>
         <v>1105</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="1"/>
         <v>827</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="1"/>
         <v>569</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AB52" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AC52" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="AC52" s="5">
+      <c r="AD52" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AD52" s="5">
+      <c r="AE52" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AE52" s="5">
+      <c r="AF52" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AF52" s="5">
+      <c r="AG52" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AG52" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="AH52" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AI52" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -4863,16 +5005,17 @@
       <c r="R54" s="17"/>
       <c r="S54" s="17"/>
       <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7gD9F6gVEVLlGP/+pIppUPl/mi8N/hvi7cm8abfyMueW2LqH9CoFPAF1DB8qmrFtoAW/QuxBOVvyRUrqInJViA==" saltValue="XGq95hlWoFJVdwG9fr5whQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZuGZ4JzFxFWheekeAA97FTFrCV6BkZvyvcHiiz6MWcaEXGXYQmIOb2vTOA+gsYT5YKJGROV/1aYHJufcecJnEw==" saltValue="P9hIeIk+BJrQ2cqLshPfCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:T54"/>
+    <mergeCell ref="A54:U54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K52:AH52 G52:I52 B52:E52" formulaRange="1"/>
+    <ignoredError sqref="L52:AI52 H52:J52 B52:F52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4882,31 +5025,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R54"/>
+  <dimension ref="A2:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="18" width="11.140625" customWidth="1"/>
+    <col min="2" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P3" s="9"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -4961,62 +5104,68 @@
       <c r="R6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43919</v>
+      </c>
+      <c r="C7" s="13">
         <v>43918</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43917</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43916</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43915</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43914</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43913</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43912</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43911</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43910</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43909</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43908</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43907</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>43906</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43905</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43904</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43903</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43902</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -5035,10 +5184,11 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -5052,12 +5202,14 @@
         <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5067,10 +5219,11 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -5080,7 +5233,9 @@
       <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -5093,10 +5248,11 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -5107,12 +5263,14 @@
         <v>7</v>
       </c>
       <c r="D11" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5123,14 +5281,17 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -5145,23 +5306,26 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
       <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -5173,10 +5337,11 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5196,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
@@ -5204,28 +5369,31 @@
       <c r="I14" s="4">
         <v>1</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="11">
         <v>7</v>
       </c>
       <c r="D15" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="11">
         <v>5</v>
@@ -5237,7 +5405,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="11">
         <v>4</v>
@@ -5246,19 +5414,22 @@
         <v>4</v>
       </c>
       <c r="K15" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15" s="11">
-        <v>1</v>
-      </c>
-      <c r="M15" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1</v>
+      </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q15" s="11"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -5274,7 +5445,9 @@
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -5285,15 +5458,16 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4">
         <v>6</v>
@@ -5302,7 +5476,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="4">
         <v>3</v>
@@ -5314,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="4">
         <v>2</v>
@@ -5323,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="4">
         <v>1</v>
@@ -5337,26 +5511,29 @@
       <c r="P17" s="4">
         <v>1</v>
       </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4">
         <v>5</v>
       </c>
       <c r="D18" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -5368,19 +5545,22 @@
         <v>2</v>
       </c>
       <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5399,10 +5579,11 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -5416,7 +5597,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -5451,12 +5632,15 @@
       <c r="P20" s="4">
         <v>1</v>
       </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q20" s="4">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -5475,10 +5659,11 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q21" s="4"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -5489,10 +5674,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -5500,7 +5685,9 @@
       <c r="G22" s="4">
         <v>1</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -5509,10 +5696,11 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -5526,13 +5714,13 @@
         <v>5</v>
       </c>
       <c r="E23" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="11">
         <v>4</v>
       </c>
       <c r="G23" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="11">
         <v>3</v>
@@ -5541,10 +5729,10 @@
         <v>3</v>
       </c>
       <c r="J23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="11">
         <v>1</v>
@@ -5552,13 +5740,16 @@
       <c r="M23" s="11">
         <v>1</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="N23" s="11">
+        <v>1</v>
+      </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -5577,19 +5768,20 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
         <v>5</v>
       </c>
-      <c r="C25" s="4">
-        <v>3</v>
-      </c>
       <c r="D25" s="4">
         <v>3</v>
       </c>
@@ -5603,13 +5795,13 @@
         <v>3</v>
       </c>
       <c r="H25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
       </c>
       <c r="J25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -5617,14 +5809,17 @@
       <c r="L25" s="4">
         <v>1</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -5632,7 +5827,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
@@ -5640,7 +5835,9 @@
       <c r="E26" s="11">
         <v>1</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -5651,10 +5848,11 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q26" s="11"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
@@ -5673,10 +5871,11 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q27" s="11"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -5689,7 +5888,9 @@
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -5701,10 +5902,11 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q28" s="4"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -5720,7 +5922,9 @@
       <c r="E29" s="4">
         <v>3</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -5731,15 +5935,16 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q29" s="4"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4">
         <v>3</v>
@@ -5748,12 +5953,14 @@
         <v>3</v>
       </c>
       <c r="E30" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -5763,10 +5970,11 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q30" s="4"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -5785,10 +5993,11 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q31" s="4"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -5807,10 +6016,11 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q32" s="4"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -5826,7 +6036,9 @@
       <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -5837,25 +6049,26 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q33" s="4"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4">
         <v>10</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>8</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>5</v>
       </c>
-      <c r="E34" s="4">
-        <v>4</v>
-      </c>
       <c r="F34" s="4">
         <v>4</v>
       </c>
@@ -5866,13 +6079,13 @@
         <v>4</v>
       </c>
       <c r="I34" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J34" s="4">
         <v>2</v>
       </c>
       <c r="K34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="4">
         <v>1</v>
@@ -5880,13 +6093,16 @@
       <c r="M34" s="4">
         <v>1</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q34" s="4"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -5905,10 +6121,11 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q35" s="4"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -5927,10 +6144,11 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q36" s="4"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -5949,10 +6167,11 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q37" s="4"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -5971,10 +6190,11 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q38" s="4"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -5985,10 +6205,10 @@
         <v>3</v>
       </c>
       <c r="D39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -6023,14 +6243,17 @@
       <c r="P39" s="4">
         <v>1</v>
       </c>
-      <c r="Q39" s="3">
-        <v>1</v>
-      </c>
-      <c r="R39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q39" s="4">
+        <v>1</v>
+      </c>
+      <c r="R39" s="3">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -6041,10 +6264,10 @@
         <v>5</v>
       </c>
       <c r="D40" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="4">
         <v>2</v>
@@ -6053,7 +6276,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="4">
         <v>1</v>
@@ -6061,32 +6284,37 @@
       <c r="J40" s="4">
         <v>1</v>
       </c>
-      <c r="K40" s="4"/>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q40" s="4"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -6097,10 +6325,11 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q41" s="4"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -6117,7 +6346,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -6140,13 +6369,16 @@
       <c r="M42" s="4">
         <v>1</v>
       </c>
-      <c r="N42" s="4"/>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q42" s="4"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
@@ -6154,18 +6386,20 @@
         <v>9</v>
       </c>
       <c r="C43" s="4">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4">
         <v>7</v>
-      </c>
-      <c r="D43" s="4">
-        <v>5</v>
       </c>
       <c r="E43" s="4">
         <v>5</v>
       </c>
       <c r="F43" s="4">
-        <v>2</v>
-      </c>
-      <c r="G43" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -6175,17 +6409,20 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q43" s="4"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
         <v>2</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="4">
+        <v>2</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -6199,10 +6436,11 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q44" s="4"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -6210,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
@@ -6231,20 +6469,23 @@
         <v>2</v>
       </c>
       <c r="J45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" s="4">
         <v>1</v>
       </c>
-      <c r="L45" s="4"/>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q45" s="4"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -6252,16 +6493,16 @@
         <v>6</v>
       </c>
       <c r="C46" s="4">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4">
         <v>5</v>
       </c>
-      <c r="D46" s="4">
-        <v>3</v>
-      </c>
       <c r="E46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="4">
         <v>1</v>
@@ -6272,17 +6513,20 @@
       <c r="I46" s="4">
         <v>1</v>
       </c>
-      <c r="J46" s="4"/>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q46" s="4"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -6290,12 +6534,14 @@
         <v>2</v>
       </c>
       <c r="C47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -6307,10 +6553,11 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q47" s="4"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -6318,15 +6565,17 @@
         <v>3</v>
       </c>
       <c r="C48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -6337,10 +6586,11 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q48" s="4"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="4"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -6359,10 +6609,11 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q49" s="4"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -6393,16 +6644,19 @@
       <c r="J50" s="4">
         <v>1</v>
       </c>
-      <c r="K50" s="4"/>
+      <c r="K50" s="4">
+        <v>1</v>
+      </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q50" s="4"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="4"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -6413,12 +6667,14 @@
         <v>4</v>
       </c>
       <c r="D51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="F51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -6429,65 +6685,66 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="4"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E52" s="15">
         <f>SUM(E8:E51)</f>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F52" s="15">
         <f>SUM(F8:F51)</f>
+        <v>56</v>
+      </c>
+      <c r="G52" s="15">
+        <f>SUM(G8:G51)</f>
         <v>37</v>
       </c>
-      <c r="G52" s="15">
-        <f t="shared" ref="G52:R52" si="0">SUM(G8:G51)</f>
+      <c r="H52" s="15">
+        <f t="shared" ref="H52:S52" si="0">SUM(H8:H51)</f>
         <v>31</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L52" s="14">
+      <c r="M52" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N52" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="O52" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6502,11 +6759,15 @@
       </c>
       <c r="R52" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="S52" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -6527,16 +6788,17 @@
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="newY/BOR6A7Q7CBQ/vBQMh3WC2Vv5O5kOfgxtWcWGRYSWGHgrBv0F9yBGGP//NjOK65Vkv8sRBERKapaVhLlQg==" saltValue="VXynLQS99iNZQ4X5ZL54AQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u2dnBvy0jSG40eOrCwld7dG0oQzxt7ZcQDKwAbgZMBcZqw0HnaF23Z7WkU9SXHu11VZk8hc3izB3I0+NiaH+FA==" saltValue="tEinWv347wxlXbMAb9iUkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:R54"/>
+    <mergeCell ref="A54:S54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B52:R52" formulaRange="1"/>
+    <ignoredError sqref="B52:S52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Infizierte Coronavirus in BW" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
   <si>
     <t>Fälle</t>
   </si>
@@ -606,37 +606,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AI54"/>
+  <dimension ref="A2:AJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="19" width="11.140625" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="23" width="11.5703125" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" customWidth="1"/>
+    <col min="2" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="20" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -742,187 +742,193 @@
       <c r="AI6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43920</v>
+      </c>
+      <c r="C7" s="13">
         <v>43919</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43918</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43917</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43916</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43915</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43914</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43913</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43912</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43911</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43910</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43909</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43908</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43907</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43906</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43905</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43904</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43903</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43902</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43901</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43900</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43899</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43898</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43897</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43896</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43895</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43894</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43893</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43892</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43891</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AF7" s="12">
         <v>43890</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AG7" s="12">
         <v>43889</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AH7" s="12">
         <v>43888</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AI7" s="12">
         <v>43887</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AJ7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="C8" s="4">
         <v>189</v>
       </c>
       <c r="D8" s="4">
+        <v>189</v>
+      </c>
+      <c r="E8" s="4">
         <v>130</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>99</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>85</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>64</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>60</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>44</v>
-      </c>
-      <c r="J8" s="4">
-        <v>39</v>
       </c>
       <c r="K8" s="4">
         <v>39</v>
       </c>
       <c r="L8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M8" s="4">
         <v>26</v>
       </c>
       <c r="N8" s="4">
+        <v>26</v>
+      </c>
+      <c r="O8" s="4">
         <v>24</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>13</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>12</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>7</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <v>6</v>
       </c>
-      <c r="T8" s="3">
-        <v>4</v>
-      </c>
-      <c r="U8" s="4">
-        <v>3</v>
+      <c r="U8" s="3">
+        <v>4</v>
       </c>
       <c r="V8" s="4">
         <v>3</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="4">
         <v>3</v>
       </c>
       <c r="X8" s="3">
         <v>3</v>
       </c>
       <c r="Y8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z8" s="3">
         <v>2</v>
@@ -930,7 +936,9 @@
       <c r="AA8" s="3">
         <v>2</v>
       </c>
-      <c r="AB8" s="3"/>
+      <c r="AB8" s="3">
+        <v>2</v>
+      </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
@@ -938,81 +946,84 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ8" s="3"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4">
         <v>65</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>55</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>45</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>39</v>
-      </c>
-      <c r="F9" s="4">
-        <v>36</v>
       </c>
       <c r="G9" s="4">
         <v>36</v>
       </c>
       <c r="H9" s="4">
+        <v>36</v>
+      </c>
+      <c r="I9" s="4">
         <v>33</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>25</v>
-      </c>
-      <c r="J9" s="4">
-        <v>21</v>
       </c>
       <c r="K9" s="4">
         <v>21</v>
       </c>
       <c r="L9" s="4">
+        <v>21</v>
+      </c>
+      <c r="M9" s="4">
         <v>17</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>14</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>12</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>7</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>5</v>
       </c>
-      <c r="Q9" s="4">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
-        <v>3</v>
-      </c>
-      <c r="S9" s="4">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2</v>
-      </c>
-      <c r="U9" s="4">
-        <v>1</v>
+      <c r="R9" s="4">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>3</v>
+      </c>
+      <c r="T9" s="4">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2</v>
       </c>
       <c r="V9" s="4">
         <v>1</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="4">
         <v>1</v>
       </c>
       <c r="X9" s="3">
         <v>1</v>
       </c>
-      <c r="Y9" s="3"/>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -1023,8 +1034,9 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1032,25 +1044,25 @@
         <v>216</v>
       </c>
       <c r="C10" s="4">
+        <v>216</v>
+      </c>
+      <c r="D10" s="4">
         <v>196</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>182</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>144</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>106</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>82</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>74</v>
-      </c>
-      <c r="I10" s="4">
-        <v>45</v>
       </c>
       <c r="J10" s="4">
         <v>45</v>
@@ -1062,13 +1074,13 @@
         <v>45</v>
       </c>
       <c r="M10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N10" s="4">
         <v>17</v>
       </c>
       <c r="O10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P10" s="4">
         <v>5</v>
@@ -1076,31 +1088,33 @@
       <c r="Q10" s="4">
         <v>5</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="4">
         <v>5</v>
       </c>
-      <c r="S10" s="4">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
-        <v>3</v>
-      </c>
-      <c r="U10" s="4">
+      <c r="S10" s="3">
+        <v>5</v>
+      </c>
+      <c r="T10" s="4">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>3</v>
       </c>
       <c r="V10" s="4">
         <v>3</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="4">
         <v>3</v>
       </c>
       <c r="X10" s="3">
         <v>3</v>
       </c>
       <c r="Y10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1</v>
+      </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -1110,43 +1124,44 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ10" s="3"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>413</v>
+      </c>
+      <c r="C11" s="4">
         <v>385</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>369</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>333</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>263</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>233</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>224</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>187</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>117</v>
-      </c>
-      <c r="J11" s="4">
-        <v>67</v>
       </c>
       <c r="K11" s="4">
         <v>67</v>
       </c>
       <c r="L11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M11" s="4">
         <v>28</v>
@@ -1155,7 +1170,7 @@
         <v>28</v>
       </c>
       <c r="O11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="P11" s="4">
         <v>9</v>
@@ -1163,22 +1178,22 @@
       <c r="Q11" s="4">
         <v>9</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="4">
         <v>9</v>
       </c>
-      <c r="S11" s="4">
-        <v>4</v>
-      </c>
-      <c r="T11" s="3">
-        <v>4</v>
-      </c>
-      <c r="U11" s="4">
+      <c r="S11" s="3">
+        <v>9</v>
+      </c>
+      <c r="T11" s="4">
+        <v>4</v>
+      </c>
+      <c r="U11" s="3">
         <v>4</v>
       </c>
       <c r="V11" s="4">
-        <v>3</v>
-      </c>
-      <c r="W11" s="3">
+        <v>4</v>
+      </c>
+      <c r="W11" s="4">
         <v>3</v>
       </c>
       <c r="X11" s="3">
@@ -1188,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="Z11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA11" s="3">
         <v>1</v>
@@ -1211,77 +1226,80 @@
       <c r="AG11" s="3">
         <v>1</v>
       </c>
-      <c r="AH11" s="3"/>
+      <c r="AH11" s="3">
+        <v>1</v>
+      </c>
       <c r="AI11" s="3"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ11" s="3"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>186</v>
+      </c>
+      <c r="C12" s="4">
         <v>185</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>178</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>175</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>153</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>121</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>89</v>
-      </c>
-      <c r="H12" s="4">
-        <v>83</v>
       </c>
       <c r="I12" s="4">
         <v>83</v>
       </c>
       <c r="J12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K12" s="4">
         <v>71</v>
       </c>
       <c r="L12" s="4">
+        <v>71</v>
+      </c>
+      <c r="M12" s="4">
         <v>62</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>39</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>31</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>29</v>
-      </c>
-      <c r="P12" s="4">
-        <v>13</v>
       </c>
       <c r="Q12" s="4">
         <v>13</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="4">
+        <v>13</v>
+      </c>
+      <c r="S12" s="3">
         <v>8</v>
       </c>
-      <c r="S12" s="4">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="T12" s="4">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
         <v>6</v>
       </c>
-      <c r="U12" s="4">
+      <c r="V12" s="4">
         <v>5</v>
       </c>
-      <c r="V12" s="4">
-        <v>4</v>
-      </c>
-      <c r="W12" s="3">
+      <c r="W12" s="4">
         <v>4</v>
       </c>
       <c r="X12" s="3">
@@ -1291,12 +1309,14 @@
         <v>4</v>
       </c>
       <c r="Z12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1304,82 +1324,83 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ12" s="3"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>392</v>
+      </c>
+      <c r="C13" s="4">
         <v>372</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>299</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>273</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>254</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>223</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>197</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>178</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>167</v>
-      </c>
-      <c r="J13" s="4">
-        <v>134</v>
       </c>
       <c r="K13" s="4">
         <v>134</v>
       </c>
       <c r="L13" s="4">
+        <v>134</v>
+      </c>
+      <c r="M13" s="4">
         <v>101</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>78</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>54</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>45</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>42</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>26</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>19</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <v>18</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>12</v>
-      </c>
-      <c r="U13" s="4">
-        <v>6</v>
       </c>
       <c r="V13" s="4">
         <v>6</v>
       </c>
-      <c r="W13" s="3">
-        <v>5</v>
+      <c r="W13" s="4">
+        <v>6</v>
       </c>
       <c r="X13" s="3">
         <v>5</v>
       </c>
       <c r="Y13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z13" s="3">
         <v>4</v>
@@ -1388,13 +1409,13 @@
         <v>4</v>
       </c>
       <c r="AB13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC13" s="3">
         <v>1</v>
       </c>
       <c r="AD13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="3">
         <v>3</v>
@@ -1405,78 +1426,81 @@
       <c r="AG13" s="3">
         <v>3</v>
       </c>
-      <c r="AH13" s="3"/>
+      <c r="AH13" s="3">
+        <v>3</v>
+      </c>
       <c r="AI13" s="3"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>295</v>
+      </c>
+      <c r="C14" s="4">
         <v>278</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>259</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>226</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>210</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>182</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>159</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>150</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>120</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>108</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>92</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>76</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>61</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>51</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>43</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>34</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>26</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>12</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <v>6</v>
       </c>
-      <c r="V14" s="4">
-        <v>2</v>
-      </c>
-      <c r="W14" s="3">
-        <v>1</v>
+      <c r="W14" s="4">
+        <v>2</v>
       </c>
       <c r="X14" s="3">
         <v>1</v>
@@ -1484,7 +1508,9 @@
       <c r="Y14" s="3">
         <v>1</v>
       </c>
-      <c r="Z14" s="3"/>
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
@@ -1494,172 +1520,178 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>264</v>
+      </c>
+      <c r="C15" s="11">
         <v>201</v>
-      </c>
-      <c r="C15" s="11">
-        <v>191</v>
       </c>
       <c r="D15" s="11">
         <v>191</v>
       </c>
       <c r="E15" s="11">
+        <v>191</v>
+      </c>
+      <c r="F15" s="11">
         <v>171</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>154</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>141</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>123</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>121</v>
-      </c>
-      <c r="J15" s="11">
-        <v>110</v>
       </c>
       <c r="K15" s="11">
         <v>110</v>
       </c>
       <c r="L15" s="11">
+        <v>110</v>
+      </c>
+      <c r="M15" s="11">
         <v>99</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <v>60</v>
       </c>
-      <c r="N15" s="11">
+      <c r="O15" s="11">
         <v>59</v>
-      </c>
-      <c r="O15" s="11">
-        <v>35</v>
       </c>
       <c r="P15" s="11">
         <v>35</v>
       </c>
       <c r="Q15" s="11">
+        <v>35</v>
+      </c>
+      <c r="R15" s="11">
         <v>21</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>17</v>
       </c>
-      <c r="S15" s="11">
+      <c r="T15" s="11">
         <v>16</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>15</v>
-      </c>
-      <c r="U15" s="11">
-        <v>13</v>
       </c>
       <c r="V15" s="11">
         <v>13</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="11">
+        <v>13</v>
+      </c>
+      <c r="X15" s="3">
         <v>12</v>
       </c>
-      <c r="X15" s="3">
-        <v>3</v>
-      </c>
       <c r="Y15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>1</v>
+      </c>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB15" s="3"/>
       <c r="AC15" s="3">
         <v>1</v>
       </c>
-      <c r="AD15" s="3"/>
+      <c r="AD15" s="3">
+        <v>1</v>
+      </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ15" s="3"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>115</v>
+      </c>
+      <c r="C16" s="4">
         <v>110</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>89</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>74</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>62</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>55</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>45</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>37</v>
-      </c>
-      <c r="I16" s="4">
-        <v>33</v>
       </c>
       <c r="J16" s="4">
         <v>33</v>
       </c>
       <c r="K16" s="4">
+        <v>33</v>
+      </c>
+      <c r="L16" s="4">
         <v>24</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>21</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>12</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>9</v>
       </c>
-      <c r="O16" s="4">
-        <v>4</v>
-      </c>
       <c r="P16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="4">
         <v>3</v>
       </c>
-      <c r="R16" s="3">
-        <v>3</v>
-      </c>
-      <c r="S16" s="4">
-        <v>3</v>
-      </c>
-      <c r="T16" s="3">
-        <v>2</v>
-      </c>
-      <c r="U16" s="4">
-        <v>1</v>
+      <c r="R16" s="4">
+        <v>3</v>
+      </c>
+      <c r="S16" s="3">
+        <v>3</v>
+      </c>
+      <c r="T16" s="4">
+        <v>3</v>
+      </c>
+      <c r="U16" s="3">
+        <v>2</v>
       </c>
       <c r="V16" s="4">
         <v>1</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="4">
         <v>1</v>
       </c>
       <c r="X16" s="3">
         <v>1</v>
       </c>
-      <c r="Y16" s="3"/>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -1670,169 +1702,173 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="3"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>761</v>
+      </c>
+      <c r="C17" s="4">
         <v>737</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>705</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>648</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>596</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>493</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>462</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>435</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>362</v>
-      </c>
-      <c r="J17" s="4">
-        <v>323</v>
       </c>
       <c r="K17" s="4">
         <v>323</v>
       </c>
       <c r="L17" s="4">
+        <v>323</v>
+      </c>
+      <c r="M17" s="4">
         <v>234</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>193</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>128</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>123</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>111</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>82</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>65</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>47</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>43</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <v>23</v>
       </c>
-      <c r="V17" s="4">
+      <c r="W17" s="4">
         <v>18</v>
-      </c>
-      <c r="W17" s="3">
-        <v>16</v>
       </c>
       <c r="X17" s="3">
         <v>16</v>
       </c>
       <c r="Y17" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z17" s="3">
         <v>14</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>13</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>5</v>
       </c>
       <c r="AB17" s="3">
         <v>5</v>
       </c>
-      <c r="AC17" s="3"/>
+      <c r="AC17" s="3">
+        <v>5</v>
+      </c>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="3"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>414</v>
+      </c>
+      <c r="C18" s="4">
         <v>386</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>346</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>325</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>284</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>254</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>227</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>212</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>191</v>
-      </c>
-      <c r="J18" s="4">
-        <v>150</v>
       </c>
       <c r="K18" s="4">
         <v>150</v>
       </c>
       <c r="L18" s="4">
+        <v>150</v>
+      </c>
+      <c r="M18" s="4">
         <v>114</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>79</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>62</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>53</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>43</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <v>34</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>18</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13</v>
-      </c>
-      <c r="U18" s="4">
-        <v>12</v>
       </c>
       <c r="V18" s="4">
         <v>12</v>
       </c>
-      <c r="W18" s="3">
-        <v>8</v>
+      <c r="W18" s="4">
+        <v>12</v>
       </c>
       <c r="X18" s="3">
         <v>8</v>
@@ -1841,31 +1877,34 @@
         <v>8</v>
       </c>
       <c r="Z18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA18" s="3">
         <v>6</v>
       </c>
       <c r="AB18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC18" s="3">
         <v>4</v>
       </c>
       <c r="AD18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>1</v>
+      </c>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ18" s="3"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1873,25 +1912,25 @@
         <v>154</v>
       </c>
       <c r="C19" s="4">
+        <v>154</v>
+      </c>
+      <c r="D19" s="4">
         <v>136</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>110</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>76</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>69</v>
-      </c>
-      <c r="G19" s="4">
-        <v>39</v>
       </c>
       <c r="H19" s="4">
         <v>39</v>
       </c>
       <c r="I19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J19" s="4">
         <v>14</v>
@@ -1906,31 +1945,33 @@
         <v>14</v>
       </c>
       <c r="N19" s="4">
+        <v>14</v>
+      </c>
+      <c r="O19" s="4">
         <v>10</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>8</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>7</v>
       </c>
-      <c r="Q19" s="4">
-        <v>3</v>
-      </c>
-      <c r="R19" s="3">
-        <v>2</v>
-      </c>
-      <c r="S19" s="4">
-        <v>2</v>
-      </c>
-      <c r="T19" s="3">
-        <v>1</v>
-      </c>
-      <c r="U19" s="4">
-        <v>1</v>
-      </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="3"/>
+      <c r="R19" s="4">
+        <v>3</v>
+      </c>
+      <c r="S19" s="3">
+        <v>2</v>
+      </c>
+      <c r="T19" s="4">
+        <v>2</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -1943,34 +1984,35 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ19" s="3"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
+        <v>361</v>
+      </c>
+      <c r="C20" s="4">
         <v>340</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>317</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>278</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>249</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>216</v>
-      </c>
-      <c r="G20" s="4">
-        <v>166</v>
       </c>
       <c r="H20" s="4">
         <v>166</v>
       </c>
       <c r="I20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="J20" s="4">
         <v>97</v>
@@ -1979,46 +2021,46 @@
         <v>97</v>
       </c>
       <c r="L20" s="4">
+        <v>97</v>
+      </c>
+      <c r="M20" s="4">
         <v>60</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>59</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>39</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>29</v>
-      </c>
-      <c r="P20" s="4">
-        <v>16</v>
       </c>
       <c r="Q20" s="4">
         <v>16</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="4">
+        <v>16</v>
+      </c>
+      <c r="S20" s="3">
         <v>14</v>
       </c>
-      <c r="S20" s="4">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1</v>
-      </c>
-      <c r="U20" s="4">
-        <v>4</v>
+      <c r="T20" s="4">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1</v>
       </c>
       <c r="V20" s="4">
-        <v>3</v>
-      </c>
-      <c r="W20" s="3">
+        <v>4</v>
+      </c>
+      <c r="W20" s="4">
         <v>3</v>
       </c>
       <c r="X20" s="3">
         <v>3</v>
       </c>
       <c r="Y20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z20" s="3">
         <v>2</v>
@@ -2042,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="AG20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH20" s="3">
         <v>1</v>
@@ -2050,40 +2092,43 @@
       <c r="AI20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4">
+        <v>148</v>
+      </c>
+      <c r="C21" s="4">
         <v>130</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>124</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>113</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>112</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>109</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>98</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>89</v>
-      </c>
-      <c r="I21" s="4">
-        <v>5</v>
       </c>
       <c r="J21" s="4">
         <v>5</v>
       </c>
       <c r="K21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21" s="4">
         <v>3</v>
@@ -2092,40 +2137,40 @@
         <v>3</v>
       </c>
       <c r="N21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" s="4">
         <v>2</v>
       </c>
       <c r="P21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="4">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
-        <v>2</v>
-      </c>
-      <c r="S21" s="4">
-        <v>2</v>
-      </c>
-      <c r="T21" s="3">
-        <v>2</v>
-      </c>
-      <c r="U21" s="4">
-        <v>5</v>
+      <c r="R21" s="4">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
+        <v>2</v>
+      </c>
+      <c r="T21" s="4">
+        <v>2</v>
+      </c>
+      <c r="U21" s="3">
+        <v>2</v>
       </c>
       <c r="V21" s="4">
         <v>5</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="4">
         <v>5</v>
       </c>
       <c r="X21" s="3">
         <v>5</v>
       </c>
       <c r="Y21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z21" s="3">
         <v>2</v>
@@ -2133,7 +2178,9 @@
       <c r="AA21" s="3">
         <v>2</v>
       </c>
-      <c r="AB21" s="3"/>
+      <c r="AB21" s="3">
+        <v>2</v>
+      </c>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
@@ -2141,82 +2188,83 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ21" s="3"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C22" s="4">
         <v>125</v>
       </c>
       <c r="D22" s="4">
+        <v>125</v>
+      </c>
+      <c r="E22" s="4">
         <v>117</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>98</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>97</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>62</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>60</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>57</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>47</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>39</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>34</v>
-      </c>
-      <c r="M22" s="4">
-        <v>17</v>
       </c>
       <c r="N22" s="4">
         <v>17</v>
       </c>
       <c r="O22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P22" s="4">
         <v>21</v>
       </c>
       <c r="Q22" s="4">
+        <v>21</v>
+      </c>
+      <c r="R22" s="4">
         <v>19</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>4</v>
-      </c>
-      <c r="U22" s="4">
-        <v>3</v>
+      <c r="U22" s="3">
+        <v>4</v>
       </c>
       <c r="V22" s="4">
         <v>3</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="4">
         <v>3</v>
       </c>
       <c r="X22" s="3">
         <v>3</v>
       </c>
       <c r="Y22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="3">
         <v>1</v>
@@ -2224,7 +2272,9 @@
       <c r="AA22" s="3">
         <v>1</v>
       </c>
-      <c r="AB22" s="3"/>
+      <c r="AB22" s="3">
+        <v>1</v>
+      </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
@@ -2232,97 +2282,98 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ22" s="3"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>390</v>
+      </c>
+      <c r="C23" s="11">
         <v>365</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>342</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>331</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>279</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>236</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>212</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>197</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>165</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>140</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>118</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>110</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>71</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>57</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>50</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="11">
         <v>47</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="R23" s="11">
         <v>37</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32</v>
       </c>
-      <c r="S23" s="11">
+      <c r="T23" s="11">
         <v>32</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30</v>
-      </c>
-      <c r="U23" s="11">
-        <v>26</v>
       </c>
       <c r="V23" s="11">
         <v>26</v>
       </c>
-      <c r="W23" s="3">
-        <v>20</v>
+      <c r="W23" s="11">
+        <v>26</v>
       </c>
       <c r="X23" s="3">
         <v>20</v>
       </c>
       <c r="Y23" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z23" s="3">
         <v>14</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>10</v>
       </c>
       <c r="AA23" s="3">
         <v>10</v>
       </c>
       <c r="AB23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC23" s="3">
         <v>8</v>
       </c>
       <c r="AD23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE23" s="3">
         <v>1</v>
@@ -2330,76 +2381,79 @@
       <c r="AF23" s="3">
         <v>1</v>
       </c>
-      <c r="AG23" s="3"/>
+      <c r="AG23" s="3">
+        <v>1</v>
+      </c>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ23" s="3"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="11">
+        <v>147</v>
+      </c>
+      <c r="C24" s="11">
         <v>124</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>122</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="11">
         <v>104</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>81</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>71</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>60</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>55</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>28</v>
-      </c>
-      <c r="J24" s="11">
-        <v>20</v>
       </c>
       <c r="K24" s="11">
         <v>20</v>
       </c>
       <c r="L24" s="11">
+        <v>20</v>
+      </c>
+      <c r="M24" s="11">
         <v>19</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="11">
         <v>13</v>
       </c>
-      <c r="N24" s="11">
+      <c r="O24" s="11">
         <v>9</v>
       </c>
-      <c r="O24" s="11">
-        <v>4</v>
-      </c>
       <c r="P24" s="11">
         <v>4</v>
       </c>
       <c r="Q24" s="11">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>1</v>
-      </c>
-      <c r="S24" s="11">
-        <v>1</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="11">
-        <v>3</v>
-      </c>
+      <c r="R24" s="11">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+      <c r="T24" s="11">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3"/>
       <c r="V24" s="11">
         <v>3</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="11">
         <v>3</v>
       </c>
       <c r="X24" s="3">
@@ -2409,67 +2463,70 @@
         <v>3</v>
       </c>
       <c r="Z24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA24" s="3">
         <v>2</v>
       </c>
-      <c r="AB24" s="3"/>
+      <c r="AB24" s="3">
+        <v>2</v>
+      </c>
       <c r="AC24" s="3"/>
-      <c r="AD24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3">
+        <v>1</v>
+      </c>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ24" s="3"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>453</v>
+      </c>
+      <c r="C25" s="4">
         <v>421</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>404</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>350</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>302</v>
-      </c>
-      <c r="F25" s="4">
-        <v>278</v>
       </c>
       <c r="G25" s="4">
         <v>278</v>
       </c>
       <c r="H25" s="4">
+        <v>278</v>
+      </c>
+      <c r="I25" s="4">
         <v>257</v>
-      </c>
-      <c r="I25" s="4">
-        <v>222</v>
       </c>
       <c r="J25" s="4">
         <v>222</v>
       </c>
       <c r="K25" s="4">
+        <v>222</v>
+      </c>
+      <c r="L25" s="4">
         <v>182</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>154</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>135</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>64</v>
-      </c>
-      <c r="O25" s="4">
-        <v>29</v>
       </c>
       <c r="P25" s="4">
         <v>29</v>
@@ -2477,23 +2534,23 @@
       <c r="Q25" s="4">
         <v>29</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="4">
+        <v>29</v>
+      </c>
+      <c r="S25" s="3">
         <v>8</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <v>8</v>
       </c>
-      <c r="T25" s="3">
+      <c r="U25" s="3">
         <v>6</v>
       </c>
-      <c r="U25" s="4">
-        <v>2</v>
-      </c>
       <c r="V25" s="4">
         <v>2</v>
       </c>
-      <c r="W25" s="3">
-        <v>1</v>
+      <c r="W25" s="4">
+        <v>2</v>
       </c>
       <c r="X25" s="3">
         <v>1</v>
@@ -2504,7 +2561,9 @@
       <c r="Z25" s="3">
         <v>1</v>
       </c>
-      <c r="AA25" s="3"/>
+      <c r="AA25" s="3">
+        <v>1</v>
+      </c>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
@@ -2513,8 +2572,9 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ25" s="3"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -2525,76 +2585,76 @@
         <v>246</v>
       </c>
       <c r="D26" s="11">
+        <v>246</v>
+      </c>
+      <c r="E26" s="11">
         <v>229</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>206</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>189</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>172</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>154</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>104</v>
-      </c>
-      <c r="J26" s="11">
-        <v>96</v>
       </c>
       <c r="K26" s="11">
         <v>96</v>
       </c>
       <c r="L26" s="11">
+        <v>96</v>
+      </c>
+      <c r="M26" s="11">
         <v>75</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>63</v>
       </c>
-      <c r="N26" s="11">
+      <c r="O26" s="11">
         <v>47</v>
       </c>
-      <c r="O26" s="11">
+      <c r="P26" s="11">
         <v>24</v>
-      </c>
-      <c r="P26" s="11">
-        <v>29</v>
       </c>
       <c r="Q26" s="11">
         <v>29</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="11">
+        <v>29</v>
+      </c>
+      <c r="S26" s="3">
         <v>16</v>
       </c>
-      <c r="S26" s="11">
+      <c r="T26" s="11">
         <v>16</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12</v>
       </c>
-      <c r="U26" s="11">
+      <c r="V26" s="11">
         <v>9</v>
       </c>
-      <c r="V26" s="11">
-        <v>7</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="11">
         <v>7</v>
       </c>
       <c r="X26" s="3">
         <v>7</v>
       </c>
       <c r="Y26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="3">
         <v>1</v>
@@ -2611,11 +2671,14 @@
       <c r="AF26" s="3">
         <v>1</v>
       </c>
-      <c r="AG26" s="3"/>
+      <c r="AG26" s="3">
+        <v>1</v>
+      </c>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ26" s="3"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
@@ -2626,22 +2689,22 @@
         <v>119</v>
       </c>
       <c r="D27" s="11">
+        <v>119</v>
+      </c>
+      <c r="E27" s="11">
         <v>110</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>99</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>85</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11">
         <v>74</v>
       </c>
-      <c r="H27" s="11">
+      <c r="I27" s="11">
         <v>60</v>
-      </c>
-      <c r="I27" s="11">
-        <v>42</v>
       </c>
       <c r="J27" s="11">
         <v>42</v>
@@ -2650,16 +2713,16 @@
         <v>42</v>
       </c>
       <c r="L27" s="11">
+        <v>42</v>
+      </c>
+      <c r="M27" s="11">
         <v>34</v>
       </c>
-      <c r="M27" s="11">
+      <c r="N27" s="11">
         <v>29</v>
       </c>
-      <c r="N27" s="11">
+      <c r="O27" s="11">
         <v>26</v>
-      </c>
-      <c r="O27" s="11">
-        <v>14</v>
       </c>
       <c r="P27" s="11">
         <v>14</v>
@@ -2667,20 +2730,22 @@
       <c r="Q27" s="11">
         <v>14</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="11">
+        <v>14</v>
+      </c>
+      <c r="S27" s="3">
         <v>8</v>
       </c>
-      <c r="S27" s="11">
+      <c r="T27" s="11">
         <v>8</v>
       </c>
-      <c r="T27" s="3">
-        <v>3</v>
-      </c>
-      <c r="U27" s="11">
-        <v>2</v>
-      </c>
-      <c r="V27" s="11"/>
-      <c r="W27" s="3"/>
+      <c r="U27" s="3">
+        <v>3</v>
+      </c>
+      <c r="V27" s="11">
+        <v>2</v>
+      </c>
+      <c r="W27" s="11"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
@@ -2693,34 +2758,35 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ27" s="3"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>144</v>
+      </c>
+      <c r="C28" s="4">
         <v>137</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>132</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>124</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>109</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>89</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>81</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>70</v>
-      </c>
-      <c r="I28" s="4">
-        <v>52</v>
       </c>
       <c r="J28" s="4">
         <v>52</v>
@@ -2729,16 +2795,16 @@
         <v>52</v>
       </c>
       <c r="L28" s="4">
+        <v>52</v>
+      </c>
+      <c r="M28" s="4">
         <v>43</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>34</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>28</v>
-      </c>
-      <c r="O28" s="4">
-        <v>20</v>
       </c>
       <c r="P28" s="4">
         <v>20</v>
@@ -2746,28 +2812,30 @@
       <c r="Q28" s="4">
         <v>20</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="4">
+        <v>20</v>
+      </c>
+      <c r="S28" s="3">
         <v>7</v>
       </c>
-      <c r="S28" s="4">
-        <v>2</v>
-      </c>
-      <c r="T28" s="3">
-        <v>2</v>
-      </c>
-      <c r="U28" s="4">
-        <v>1</v>
+      <c r="T28" s="4">
+        <v>2</v>
+      </c>
+      <c r="U28" s="3">
+        <v>2</v>
       </c>
       <c r="V28" s="4">
         <v>1</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="4">
         <v>1</v>
       </c>
       <c r="X28" s="3">
         <v>1</v>
       </c>
-      <c r="Y28" s="3"/>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -2778,31 +2846,32 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ28" s="3"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>216</v>
+      </c>
+      <c r="C29" s="4">
         <v>201</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>186</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>162</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>147</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>136</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>101</v>
-      </c>
-      <c r="H29" s="4">
-        <v>57</v>
       </c>
       <c r="I29" s="4">
         <v>57</v>
@@ -2814,16 +2883,16 @@
         <v>57</v>
       </c>
       <c r="L29" s="4">
+        <v>57</v>
+      </c>
+      <c r="M29" s="4">
         <v>41</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>25</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>16</v>
-      </c>
-      <c r="O29" s="4">
-        <v>10</v>
       </c>
       <c r="P29" s="4">
         <v>10</v>
@@ -2831,20 +2900,20 @@
       <c r="Q29" s="4">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="4">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>6</v>
       </c>
-      <c r="S29" s="4">
-        <v>4</v>
-      </c>
-      <c r="T29" s="3"/>
-      <c r="U29" s="4">
-        <v>1</v>
-      </c>
+      <c r="T29" s="4">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3"/>
       <c r="V29" s="4">
         <v>1</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="4">
         <v>1</v>
       </c>
       <c r="X29" s="3">
@@ -2862,59 +2931,62 @@
       <c r="AB29" s="3">
         <v>1</v>
       </c>
-      <c r="AC29" s="3"/>
+      <c r="AC29" s="3">
+        <v>1</v>
+      </c>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ29" s="3"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>671</v>
+      </c>
+      <c r="C30" s="4">
         <v>657</v>
-      </c>
-      <c r="C30" s="4">
-        <v>543</v>
       </c>
       <c r="D30" s="4">
         <v>543</v>
       </c>
       <c r="E30" s="4">
+        <v>543</v>
+      </c>
+      <c r="F30" s="4">
         <v>450</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>352</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>275</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>250</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>236</v>
-      </c>
-      <c r="J30" s="4">
-        <v>175</v>
       </c>
       <c r="K30" s="4">
         <v>175</v>
       </c>
       <c r="L30" s="4">
+        <v>175</v>
+      </c>
+      <c r="M30" s="4">
         <v>126</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>112</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>87</v>
-      </c>
-      <c r="O30" s="4">
-        <v>38</v>
       </c>
       <c r="P30" s="4">
         <v>38</v>
@@ -2922,41 +2994,41 @@
       <c r="Q30" s="4">
         <v>38</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="4">
+        <v>38</v>
+      </c>
+      <c r="S30" s="3">
         <v>24</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <v>18</v>
       </c>
-      <c r="T30" s="3">
+      <c r="U30" s="3">
         <v>11</v>
       </c>
-      <c r="U30" s="4">
+      <c r="V30" s="4">
         <v>11</v>
       </c>
-      <c r="V30" s="4">
+      <c r="W30" s="4">
         <v>8</v>
-      </c>
-      <c r="W30" s="3">
-        <v>7</v>
       </c>
       <c r="X30" s="3">
         <v>7</v>
       </c>
       <c r="Y30" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z30" s="3">
         <v>5</v>
       </c>
-      <c r="Z30" s="3">
-        <v>3</v>
-      </c>
       <c r="AA30" s="3">
         <v>3</v>
       </c>
       <c r="AB30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD30" s="3">
         <v>1</v>
@@ -2967,11 +3039,14 @@
       <c r="AF30" s="3">
         <v>1</v>
       </c>
-      <c r="AG30" s="3"/>
+      <c r="AG30" s="3">
+        <v>1</v>
+      </c>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ30" s="3"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,25 +3054,25 @@
         <v>112</v>
       </c>
       <c r="C31" s="4">
+        <v>112</v>
+      </c>
+      <c r="D31" s="4">
         <v>92</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>74</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>67</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>58</v>
-      </c>
-      <c r="G31" s="4">
-        <v>53</v>
       </c>
       <c r="H31" s="4">
         <v>53</v>
       </c>
       <c r="I31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="J31" s="4">
         <v>36</v>
@@ -3006,10 +3081,10 @@
         <v>36</v>
       </c>
       <c r="L31" s="4">
+        <v>36</v>
+      </c>
+      <c r="M31" s="4">
         <v>33</v>
-      </c>
-      <c r="M31" s="4">
-        <v>31</v>
       </c>
       <c r="N31" s="4">
         <v>31</v>
@@ -3021,39 +3096,41 @@
         <v>31</v>
       </c>
       <c r="Q31" s="4">
+        <v>31</v>
+      </c>
+      <c r="R31" s="4">
         <v>30</v>
       </c>
-      <c r="R31" s="3">
+      <c r="S31" s="3">
         <v>28</v>
       </c>
-      <c r="S31" s="4">
+      <c r="T31" s="4">
         <v>24</v>
       </c>
-      <c r="T31" s="3">
-        <v>24</v>
-      </c>
-      <c r="U31" s="4">
+      <c r="U31" s="3">
         <v>24</v>
       </c>
       <c r="V31" s="4">
         <v>24</v>
       </c>
-      <c r="W31" s="3">
-        <v>23</v>
+      <c r="W31" s="4">
+        <v>24</v>
       </c>
       <c r="X31" s="3">
         <v>23</v>
       </c>
       <c r="Y31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Z31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA31" s="3">
         <v>1</v>
       </c>
-      <c r="AB31" s="3"/>
+      <c r="AB31" s="3">
+        <v>1</v>
+      </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
@@ -3061,31 +3138,32 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ31" s="3"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="4">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="C32" s="4">
         <v>183</v>
       </c>
       <c r="D32" s="4">
+        <v>183</v>
+      </c>
+      <c r="E32" s="4">
         <v>166</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>158</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>145</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>135</v>
-      </c>
-      <c r="H32" s="4">
-        <v>80</v>
       </c>
       <c r="I32" s="4">
         <v>80</v>
@@ -3097,13 +3175,13 @@
         <v>80</v>
       </c>
       <c r="L32" s="4">
+        <v>80</v>
+      </c>
+      <c r="M32" s="4">
         <v>73</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>71</v>
-      </c>
-      <c r="N32" s="4">
-        <v>27</v>
       </c>
       <c r="O32" s="4">
         <v>27</v>
@@ -3114,38 +3192,38 @@
       <c r="Q32" s="4">
         <v>27</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="4">
+        <v>27</v>
+      </c>
+      <c r="S32" s="3">
         <v>22</v>
       </c>
-      <c r="S32" s="4">
+      <c r="T32" s="4">
         <v>12</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12</v>
-      </c>
-      <c r="U32" s="4">
-        <v>9</v>
       </c>
       <c r="V32" s="4">
         <v>9</v>
       </c>
-      <c r="W32" s="3">
-        <v>7</v>
+      <c r="W32" s="4">
+        <v>9</v>
       </c>
       <c r="X32" s="3">
         <v>7</v>
       </c>
       <c r="Y32" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z32" s="3">
         <v>5</v>
       </c>
-      <c r="Z32" s="3">
-        <v>4</v>
-      </c>
       <c r="AA32" s="3">
         <v>4</v>
       </c>
       <c r="AB32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC32" s="3">
         <v>3</v>
@@ -3153,80 +3231,83 @@
       <c r="AD32" s="3">
         <v>3</v>
       </c>
-      <c r="AE32" s="3"/>
+      <c r="AE32" s="3">
+        <v>3</v>
+      </c>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ32" s="3"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4">
         <v>76</v>
       </c>
       <c r="D33" s="4">
+        <v>76</v>
+      </c>
+      <c r="E33" s="4">
         <v>68</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>58</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>45</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>40</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>35</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>30</v>
-      </c>
-      <c r="J33" s="4">
-        <v>26</v>
       </c>
       <c r="K33" s="4">
         <v>26</v>
       </c>
       <c r="L33" s="4">
+        <v>26</v>
+      </c>
+      <c r="M33" s="4">
         <v>20</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>17</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>14</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <v>7</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>10</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="R33" s="4">
         <v>6</v>
       </c>
-      <c r="R33" s="3">
-        <v>4</v>
-      </c>
-      <c r="S33" s="4">
-        <v>2</v>
-      </c>
-      <c r="T33" s="3">
-        <v>2</v>
-      </c>
-      <c r="U33" s="4">
-        <v>1</v>
+      <c r="S33" s="3">
+        <v>4</v>
+      </c>
+      <c r="T33" s="4">
+        <v>2</v>
+      </c>
+      <c r="U33" s="3">
+        <v>2</v>
       </c>
       <c r="V33" s="4">
         <v>1</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="4">
         <v>1</v>
       </c>
       <c r="X33" s="3">
@@ -3235,7 +3316,9 @@
       <c r="Y33" s="3">
         <v>1</v>
       </c>
-      <c r="Z33" s="3"/>
+      <c r="Z33" s="3">
+        <v>1</v>
+      </c>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
@@ -3245,84 +3328,87 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ33" s="3"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>316</v>
+      </c>
+      <c r="C34" s="4">
         <v>276</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>245</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>197</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>175</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>135</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>120</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>104</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>82</v>
-      </c>
-      <c r="J34" s="4">
-        <v>71</v>
       </c>
       <c r="K34" s="4">
         <v>71</v>
       </c>
       <c r="L34" s="4">
+        <v>71</v>
+      </c>
+      <c r="M34" s="4">
         <v>55</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>45</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>38</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>28</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>25</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <v>22</v>
       </c>
-      <c r="R34" s="3">
+      <c r="S34" s="3">
         <v>16</v>
       </c>
-      <c r="S34" s="4">
+      <c r="T34" s="4">
         <v>13</v>
       </c>
-      <c r="T34" s="3">
+      <c r="U34" s="3">
         <v>13</v>
-      </c>
-      <c r="U34" s="4">
-        <v>12</v>
       </c>
       <c r="V34" s="4">
         <v>12</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="4">
+        <v>12</v>
+      </c>
+      <c r="X34" s="3">
         <v>7</v>
       </c>
-      <c r="X34" s="3">
+      <c r="Y34" s="3">
         <v>6</v>
       </c>
-      <c r="Y34" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z34" s="3"/>
+      <c r="Z34" s="3">
+        <v>2</v>
+      </c>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -3332,76 +3418,77 @@
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ34" s="3"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C35" s="4">
         <v>256</v>
       </c>
       <c r="D35" s="4">
+        <v>256</v>
+      </c>
+      <c r="E35" s="4">
         <v>236</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>224</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>171</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>140</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>121</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>113</v>
-      </c>
-      <c r="J35" s="4">
-        <v>91</v>
       </c>
       <c r="K35" s="4">
         <v>91</v>
       </c>
       <c r="L35" s="4">
+        <v>91</v>
+      </c>
+      <c r="M35" s="4">
         <v>85</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>46</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>41</v>
-      </c>
-      <c r="O35" s="4">
-        <v>31</v>
       </c>
       <c r="P35" s="4">
         <v>31</v>
       </c>
       <c r="Q35" s="4">
+        <v>31</v>
+      </c>
+      <c r="R35" s="4">
         <v>20</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13</v>
       </c>
-      <c r="S35" s="4">
+      <c r="T35" s="4">
         <v>7</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5</v>
       </c>
-      <c r="U35" s="4">
-        <v>4</v>
-      </c>
       <c r="V35" s="4">
         <v>4</v>
       </c>
-      <c r="W35" s="3">
-        <v>3</v>
+      <c r="W35" s="4">
+        <v>4</v>
       </c>
       <c r="X35" s="3">
         <v>3</v>
@@ -3416,80 +3503,85 @@
         <v>3</v>
       </c>
       <c r="AB35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>1</v>
+      </c>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ35" s="3"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
+        <v>40</v>
+      </c>
+      <c r="C36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>29</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>25</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>22</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>20</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>19</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>18</v>
-      </c>
-      <c r="I36" s="4">
-        <v>16</v>
       </c>
       <c r="J36" s="4">
         <v>16</v>
       </c>
       <c r="K36" s="4">
+        <v>16</v>
+      </c>
+      <c r="L36" s="4">
         <v>14</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>11</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>7</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>6</v>
       </c>
-      <c r="O36" s="4">
+      <c r="P36" s="4">
         <v>5</v>
       </c>
-      <c r="P36" s="4">
-        <v>4</v>
-      </c>
       <c r="Q36" s="4">
         <v>4</v>
       </c>
-      <c r="R36" s="3">
-        <v>4</v>
-      </c>
-      <c r="S36" s="4">
-        <v>4</v>
-      </c>
-      <c r="T36" s="3">
-        <v>3</v>
-      </c>
-      <c r="U36" s="4"/>
+      <c r="R36" s="4">
+        <v>4</v>
+      </c>
+      <c r="S36" s="3">
+        <v>4</v>
+      </c>
+      <c r="T36" s="4">
+        <v>4</v>
+      </c>
+      <c r="U36" s="3">
+        <v>3</v>
+      </c>
       <c r="V36" s="4"/>
-      <c r="W36" s="3"/>
+      <c r="W36" s="4"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
@@ -3502,81 +3594,84 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ36" s="3"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>277</v>
+      </c>
+      <c r="C37" s="4">
         <v>252</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>240</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>222</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>194</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>180</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>156</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>146</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>100</v>
-      </c>
-      <c r="J37" s="4">
-        <v>81</v>
       </c>
       <c r="K37" s="4">
         <v>81</v>
       </c>
       <c r="L37" s="4">
+        <v>81</v>
+      </c>
+      <c r="M37" s="4">
         <v>64</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>53</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>37</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <v>34</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>26</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <v>19</v>
       </c>
-      <c r="R37" s="3">
+      <c r="S37" s="3">
         <v>12</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <v>11</v>
       </c>
-      <c r="T37" s="3">
-        <v>3</v>
-      </c>
-      <c r="U37" s="4">
-        <v>4</v>
+      <c r="U37" s="3">
+        <v>3</v>
       </c>
       <c r="V37" s="4">
-        <v>3</v>
-      </c>
-      <c r="W37" s="3">
+        <v>4</v>
+      </c>
+      <c r="W37" s="4">
         <v>3</v>
       </c>
       <c r="X37" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>2</v>
+      </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -3587,34 +3682,35 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ37" s="3"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>321</v>
+      </c>
+      <c r="C38" s="4">
         <v>320</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>318</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>304</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>281</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>255</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>176</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>127</v>
-      </c>
-      <c r="I38" s="4">
-        <v>110</v>
       </c>
       <c r="J38" s="4">
         <v>110</v>
@@ -3623,51 +3719,53 @@
         <v>110</v>
       </c>
       <c r="L38" s="4">
+        <v>110</v>
+      </c>
+      <c r="M38" s="4">
         <v>88</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>55</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>13</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <v>12</v>
-      </c>
-      <c r="P38" s="4">
-        <v>8</v>
       </c>
       <c r="Q38" s="4">
         <v>8</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R38" s="4">
         <v>8</v>
       </c>
-      <c r="S38" s="4">
+      <c r="S38" s="3">
+        <v>8</v>
+      </c>
+      <c r="T38" s="4">
         <v>5</v>
       </c>
-      <c r="T38" s="3">
+      <c r="U38" s="3">
         <v>5</v>
       </c>
-      <c r="U38" s="4">
+      <c r="V38" s="4">
         <v>6</v>
       </c>
-      <c r="V38" s="4">
-        <v>3</v>
-      </c>
-      <c r="W38" s="3">
+      <c r="W38" s="4">
         <v>3</v>
       </c>
       <c r="X38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y38" s="3">
         <v>2</v>
       </c>
       <c r="Z38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>1</v>
+      </c>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
@@ -3676,8 +3774,9 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ38" s="3"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -3691,16 +3790,16 @@
         <v>285</v>
       </c>
       <c r="E39" s="4">
+        <v>285</v>
+      </c>
+      <c r="F39" s="4">
         <v>243</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>190</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>172</v>
-      </c>
-      <c r="H39" s="4">
-        <v>117</v>
       </c>
       <c r="I39" s="4">
         <v>117</v>
@@ -3712,16 +3811,16 @@
         <v>117</v>
       </c>
       <c r="L39" s="4">
+        <v>117</v>
+      </c>
+      <c r="M39" s="4">
         <v>79</v>
-      </c>
-      <c r="M39" s="4">
-        <v>49</v>
       </c>
       <c r="N39" s="4">
         <v>49</v>
       </c>
       <c r="O39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="P39" s="4">
         <v>23</v>
@@ -3729,113 +3828,118 @@
       <c r="Q39" s="4">
         <v>23</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R39" s="4">
         <v>23</v>
       </c>
-      <c r="S39" s="4">
+      <c r="S39" s="3">
+        <v>23</v>
+      </c>
+      <c r="T39" s="4">
         <v>10</v>
       </c>
-      <c r="T39" s="3">
+      <c r="U39" s="3">
         <v>5</v>
       </c>
-      <c r="U39" s="4">
+      <c r="V39" s="4">
         <v>6</v>
       </c>
-      <c r="V39" s="4">
+      <c r="W39" s="4">
         <v>5</v>
       </c>
-      <c r="W39" s="3">
+      <c r="X39" s="3">
         <v>5</v>
       </c>
-      <c r="X39" s="3">
-        <v>4</v>
-      </c>
       <c r="Y39" s="3">
         <v>4</v>
       </c>
       <c r="Z39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA39" s="3">
         <v>2</v>
       </c>
       <c r="AB39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>1</v>
+      </c>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ39" s="3"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C40" s="4">
         <v>249</v>
       </c>
       <c r="D40" s="4">
+        <v>249</v>
+      </c>
+      <c r="E40" s="4">
         <v>235</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>200</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>167</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>117</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>113</v>
-      </c>
-      <c r="I40" s="4">
-        <v>95</v>
       </c>
       <c r="J40" s="4">
         <v>95</v>
       </c>
       <c r="K40" s="4">
+        <v>95</v>
+      </c>
+      <c r="L40" s="4">
         <v>94</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>43</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <v>33</v>
-      </c>
-      <c r="N40" s="4">
-        <v>31</v>
       </c>
       <c r="O40" s="4">
         <v>31</v>
       </c>
       <c r="P40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q40" s="4">
         <v>19</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40" s="4">
+        <v>19</v>
+      </c>
+      <c r="S40" s="3">
         <v>11</v>
       </c>
-      <c r="S40" s="4">
+      <c r="T40" s="4">
         <v>7</v>
       </c>
-      <c r="T40" s="3">
+      <c r="U40" s="3">
         <v>5</v>
       </c>
-      <c r="U40" s="4">
-        <v>1</v>
-      </c>
-      <c r="V40" s="4"/>
-      <c r="W40" s="3"/>
+      <c r="V40" s="4">
+        <v>1</v>
+      </c>
+      <c r="W40" s="4"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
@@ -3848,52 +3952,53 @@
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ40" s="3"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>564</v>
+      </c>
+      <c r="C41" s="4">
         <v>502</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>477</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>405</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>396</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>357</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>317</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>276</v>
-      </c>
-      <c r="I41" s="4">
-        <v>240</v>
       </c>
       <c r="J41" s="4">
         <v>240</v>
       </c>
       <c r="K41" s="4">
+        <v>240</v>
+      </c>
+      <c r="L41" s="4">
         <v>215</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>144</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>127</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>76</v>
-      </c>
-      <c r="O41" s="4">
-        <v>38</v>
       </c>
       <c r="P41" s="4">
         <v>38</v>
@@ -3901,38 +4006,38 @@
       <c r="Q41" s="4">
         <v>38</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="4">
+        <v>38</v>
+      </c>
+      <c r="S41" s="3">
         <v>28</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <v>28</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18</v>
       </c>
-      <c r="U41" s="4">
+      <c r="V41" s="4">
         <v>14</v>
       </c>
-      <c r="V41" s="4">
+      <c r="W41" s="4">
         <v>13</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7</v>
       </c>
-      <c r="Y41" s="3">
-        <v>4</v>
-      </c>
       <c r="Z41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC41" s="3">
         <v>1</v>
@@ -3946,34 +4051,37 @@
       <c r="AF41" s="3">
         <v>1</v>
       </c>
-      <c r="AG41" s="3"/>
+      <c r="AG41" s="3">
+        <v>1</v>
+      </c>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ41" s="3"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
+        <v>109</v>
+      </c>
+      <c r="C42" s="4">
         <v>108</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>98</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>87</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>60</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>29</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>9</v>
-      </c>
-      <c r="H42" s="4">
-        <v>8</v>
       </c>
       <c r="I42" s="4">
         <v>8</v>
@@ -3982,42 +4090,42 @@
         <v>8</v>
       </c>
       <c r="K42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42" s="4">
+        <v>3</v>
+      </c>
+      <c r="O42" s="4">
         <v>5</v>
       </c>
-      <c r="O42" s="4">
-        <v>4</v>
-      </c>
       <c r="P42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q42" s="4">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>2</v>
-      </c>
-      <c r="S42" s="4">
-        <v>1</v>
-      </c>
-      <c r="T42" s="3">
-        <v>1</v>
-      </c>
-      <c r="U42" s="4">
+      <c r="R42" s="4">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3">
+        <v>2</v>
+      </c>
+      <c r="T42" s="4">
+        <v>1</v>
+      </c>
+      <c r="U42" s="3">
         <v>1</v>
       </c>
       <c r="V42" s="4">
         <v>1</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="4">
         <v>1</v>
       </c>
       <c r="X42" s="3">
@@ -4053,53 +4161,56 @@
       <c r="AH42" s="3">
         <v>1</v>
       </c>
-      <c r="AI42" s="3"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="3"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="C43" s="4">
         <v>287</v>
       </c>
       <c r="D43" s="4">
+        <v>287</v>
+      </c>
+      <c r="E43" s="4">
         <v>253</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>206</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>175</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>148</v>
       </c>
-      <c r="H43" s="4">
+      <c r="I43" s="4">
         <v>145</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>111</v>
-      </c>
-      <c r="J43" s="4">
-        <v>98</v>
       </c>
       <c r="K43" s="4">
         <v>98</v>
       </c>
       <c r="L43" s="4">
+        <v>98</v>
+      </c>
+      <c r="M43" s="4">
         <v>61</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>47</v>
       </c>
-      <c r="N43" s="4">
+      <c r="O43" s="4">
         <v>34</v>
-      </c>
-      <c r="O43" s="4">
-        <v>21</v>
       </c>
       <c r="P43" s="4">
         <v>21</v>
@@ -4107,20 +4218,22 @@
       <c r="Q43" s="4">
         <v>21</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="4">
+        <v>21</v>
+      </c>
+      <c r="S43" s="3">
         <v>17</v>
       </c>
-      <c r="S43" s="4">
+      <c r="T43" s="4">
         <v>15</v>
       </c>
-      <c r="T43" s="3"/>
-      <c r="U43" s="4">
-        <v>1</v>
-      </c>
+      <c r="U43" s="3"/>
       <c r="V43" s="4">
         <v>1</v>
       </c>
-      <c r="W43" s="3"/>
+      <c r="W43" s="4">
+        <v>1</v>
+      </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
@@ -4133,52 +4246,53 @@
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ43" s="3"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C44" s="4">
         <v>170</v>
       </c>
       <c r="D44" s="4">
+        <v>170</v>
+      </c>
+      <c r="E44" s="4">
         <v>137</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>127</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>123</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>81</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>78</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>69</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>48</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>39</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>28</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>27</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>16</v>
-      </c>
-      <c r="O44" s="4">
-        <v>6</v>
       </c>
       <c r="P44" s="4">
         <v>6</v>
@@ -4186,28 +4300,30 @@
       <c r="Q44" s="4">
         <v>6</v>
       </c>
-      <c r="R44" s="3">
-        <v>3</v>
-      </c>
-      <c r="S44" s="4">
-        <v>2</v>
-      </c>
-      <c r="T44" s="3">
-        <v>2</v>
-      </c>
-      <c r="U44" s="4">
-        <v>1</v>
+      <c r="R44" s="4">
+        <v>6</v>
+      </c>
+      <c r="S44" s="3">
+        <v>3</v>
+      </c>
+      <c r="T44" s="4">
+        <v>2</v>
+      </c>
+      <c r="U44" s="3">
+        <v>2</v>
       </c>
       <c r="V44" s="4">
         <v>1</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="4">
         <v>1</v>
       </c>
       <c r="X44" s="3">
         <v>1</v>
       </c>
-      <c r="Y44" s="3"/>
+      <c r="Y44" s="3">
+        <v>1</v>
+      </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -4218,75 +4334,76 @@
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ44" s="3"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>311</v>
+      </c>
+      <c r="C45" s="4">
         <v>299</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>290</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>235</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>184</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>161</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>123</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>99</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>83</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>82</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>67</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>41</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>28</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>22</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>16</v>
-      </c>
-      <c r="P45" s="4">
-        <v>12</v>
       </c>
       <c r="Q45" s="4">
         <v>12</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="4">
+        <v>12</v>
+      </c>
+      <c r="S45" s="3">
         <v>6</v>
       </c>
-      <c r="S45" s="4">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
-        <v>3</v>
-      </c>
-      <c r="U45" s="4">
+      <c r="T45" s="4">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>3</v>
       </c>
       <c r="V45" s="4">
-        <v>1</v>
-      </c>
-      <c r="W45" s="3">
+        <v>3</v>
+      </c>
+      <c r="W45" s="4">
         <v>1</v>
       </c>
       <c r="X45" s="3">
@@ -4301,7 +4418,9 @@
       <c r="AA45" s="3">
         <v>1</v>
       </c>
-      <c r="AB45" s="3"/>
+      <c r="AB45" s="3">
+        <v>1</v>
+      </c>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
@@ -4309,43 +4428,44 @@
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ45" s="3"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="C46" s="4">
         <v>685</v>
       </c>
       <c r="D46" s="4">
+        <v>685</v>
+      </c>
+      <c r="E46" s="4">
         <v>635</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>561</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>504</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>451</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>441</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>350</v>
-      </c>
-      <c r="J46" s="4">
-        <v>308</v>
       </c>
       <c r="K46" s="4">
         <v>308</v>
       </c>
       <c r="L46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="M46" s="4">
         <v>196</v>
@@ -4354,7 +4474,7 @@
         <v>196</v>
       </c>
       <c r="O46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="P46" s="4">
         <v>60</v>
@@ -4362,37 +4482,39 @@
       <c r="Q46" s="4">
         <v>60</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="4">
+        <v>60</v>
+      </c>
+      <c r="S46" s="3">
         <v>40</v>
       </c>
-      <c r="S46" s="4">
+      <c r="T46" s="4">
         <v>35</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24</v>
       </c>
-      <c r="U46" s="4">
+      <c r="V46" s="4">
         <v>19</v>
       </c>
-      <c r="V46" s="4">
+      <c r="W46" s="4">
         <v>10</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8</v>
       </c>
-      <c r="Y46" s="3">
-        <v>4</v>
-      </c>
       <c r="Z46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA46" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>2</v>
+      </c>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
@@ -4400,76 +4522,77 @@
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ46" s="3"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>636</v>
+      </c>
+      <c r="C47" s="4">
         <v>630</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>556</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>525</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>377</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>324</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>161</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>144</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>133</v>
-      </c>
-      <c r="J47" s="4">
-        <v>112</v>
       </c>
       <c r="K47" s="4">
         <v>112</v>
       </c>
       <c r="L47" s="4">
+        <v>112</v>
+      </c>
+      <c r="M47" s="4">
         <v>93</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>85</v>
       </c>
-      <c r="N47" s="4">
+      <c r="O47" s="4">
         <v>67</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>61</v>
       </c>
-      <c r="P47" s="4">
+      <c r="Q47" s="4">
         <v>41</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <v>23</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <v>9</v>
       </c>
-      <c r="T47" s="3">
-        <v>3</v>
-      </c>
-      <c r="U47" s="4">
+      <c r="U47" s="3">
+        <v>3</v>
+      </c>
+      <c r="V47" s="4">
         <v>5</v>
       </c>
-      <c r="V47" s="4">
-        <v>3</v>
-      </c>
-      <c r="W47" s="3">
-        <v>2</v>
+      <c r="W47" s="4">
+        <v>3</v>
       </c>
       <c r="X47" s="3">
         <v>2</v>
@@ -4504,50 +4627,53 @@
       <c r="AH47" s="3">
         <v>2</v>
       </c>
-      <c r="AI47" s="3"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ47" s="3"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>142</v>
+      </c>
+      <c r="C48" s="4">
         <v>137</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>111</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>85</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>74</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>40</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>32</v>
-      </c>
-      <c r="H48" s="4">
-        <v>15</v>
       </c>
       <c r="I48" s="4">
         <v>15</v>
       </c>
       <c r="J48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K48" s="4">
         <v>13</v>
       </c>
       <c r="L48" s="4">
+        <v>13</v>
+      </c>
+      <c r="M48" s="4">
         <v>10</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
         <v>7</v>
-      </c>
-      <c r="N48" s="4">
-        <v>5</v>
       </c>
       <c r="O48" s="4">
         <v>5</v>
@@ -4556,14 +4682,16 @@
         <v>5</v>
       </c>
       <c r="Q48" s="4">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="R48" s="4">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="3"/>
       <c r="V48" s="4"/>
-      <c r="W48" s="3"/>
+      <c r="W48" s="4"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
@@ -4576,77 +4704,78 @@
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ48" s="3"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="4">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C49" s="4">
         <v>103</v>
       </c>
       <c r="D49" s="4">
+        <v>103</v>
+      </c>
+      <c r="E49" s="4">
         <v>89</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>81</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>72</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>58</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>53</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>40</v>
-      </c>
-      <c r="J49" s="4">
-        <v>35</v>
       </c>
       <c r="K49" s="4">
         <v>35</v>
       </c>
       <c r="L49" s="4">
+        <v>35</v>
+      </c>
+      <c r="M49" s="4">
         <v>21</v>
-      </c>
-      <c r="M49" s="4">
-        <v>19</v>
       </c>
       <c r="N49" s="4">
         <v>19</v>
       </c>
       <c r="O49" s="4">
+        <v>19</v>
+      </c>
+      <c r="P49" s="4">
         <v>13</v>
       </c>
-      <c r="P49" s="4">
+      <c r="Q49" s="4">
         <v>12</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="4">
         <v>7</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <v>6</v>
       </c>
-      <c r="V49" s="4">
+      <c r="W49" s="4">
         <v>5</v>
       </c>
-      <c r="W49" s="3">
-        <v>4</v>
-      </c>
       <c r="X49" s="3">
         <v>4</v>
       </c>
@@ -4660,60 +4789,63 @@
         <v>4</v>
       </c>
       <c r="AB49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC49" s="3">
         <v>1</v>
       </c>
-      <c r="AD49" s="3"/>
+      <c r="AD49" s="3">
+        <v>1</v>
+      </c>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ49" s="3"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>91</v>
+      </c>
+      <c r="C50" s="4">
         <v>83</v>
-      </c>
-      <c r="C50" s="4">
-        <v>61</v>
       </c>
       <c r="D50" s="4">
         <v>61</v>
       </c>
       <c r="E50" s="4">
+        <v>61</v>
+      </c>
+      <c r="F50" s="4">
         <v>51</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>48</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>40</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
         <v>25</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>15</v>
-      </c>
-      <c r="J50" s="4">
-        <v>13</v>
       </c>
       <c r="K50" s="4">
         <v>13</v>
       </c>
       <c r="L50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M50" s="4">
         <v>5</v>
       </c>
       <c r="N50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O50" s="4">
         <v>4</v>
@@ -4722,16 +4854,18 @@
         <v>4</v>
       </c>
       <c r="Q50" s="4">
-        <v>3</v>
-      </c>
-      <c r="R50" s="3">
-        <v>1</v>
-      </c>
-      <c r="S50" s="4"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="R50" s="4">
+        <v>3</v>
+      </c>
+      <c r="S50" s="3">
+        <v>1</v>
+      </c>
+      <c r="T50" s="4"/>
+      <c r="U50" s="3"/>
       <c r="V50" s="4"/>
-      <c r="W50" s="3"/>
+      <c r="W50" s="4"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
@@ -4744,8 +4878,9 @@
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ50" s="3"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -4753,25 +4888,25 @@
         <v>346</v>
       </c>
       <c r="C51" s="4">
+        <v>346</v>
+      </c>
+      <c r="D51" s="4">
         <v>336</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>232</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>219</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>184</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>151</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>109</v>
-      </c>
-      <c r="I51" s="4">
-        <v>70</v>
       </c>
       <c r="J51" s="4">
         <v>70</v>
@@ -4780,39 +4915,39 @@
         <v>70</v>
       </c>
       <c r="L51" s="4">
+        <v>70</v>
+      </c>
+      <c r="M51" s="4">
         <v>60</v>
       </c>
-      <c r="M51" s="4">
+      <c r="N51" s="4">
         <v>51</v>
-      </c>
-      <c r="N51" s="4">
-        <v>33</v>
       </c>
       <c r="O51" s="4">
         <v>33</v>
       </c>
       <c r="P51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="4">
         <v>21</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R51" s="4">
         <v>21</v>
       </c>
-      <c r="S51" s="4">
+      <c r="S51" s="3">
         <v>21</v>
       </c>
-      <c r="T51" s="3">
+      <c r="T51" s="4">
+        <v>21</v>
+      </c>
+      <c r="U51" s="3">
         <v>19</v>
       </c>
-      <c r="U51" s="4">
+      <c r="V51" s="4">
         <v>15</v>
       </c>
-      <c r="V51" s="4">
-        <v>11</v>
-      </c>
-      <c r="W51" s="3">
+      <c r="W51" s="4">
         <v>11</v>
       </c>
       <c r="X51" s="3">
@@ -4825,164 +4960,171 @@
         <v>11</v>
       </c>
       <c r="AA51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AB51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC51" s="3">
         <v>1</v>
       </c>
-      <c r="AD51" s="3"/>
+      <c r="AD51" s="3">
+        <v>1</v>
+      </c>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
-    </row>
-    <row r="52" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ51" s="3"/>
+    </row>
+    <row r="52" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
+        <v>12257</v>
+      </c>
+      <c r="C52" s="15">
+        <f t="shared" ref="C52:H52" si="0">SUM(C8:C51)</f>
         <v>11536</v>
       </c>
-      <c r="C52" s="15">
-        <f>SUM(C8:C51)</f>
+      <c r="D52" s="15">
+        <f t="shared" si="0"/>
         <v>10819</v>
       </c>
-      <c r="D52" s="15">
-        <f>SUM(D8:D51)</f>
+      <c r="E52" s="15">
+        <f t="shared" si="0"/>
         <v>9729</v>
       </c>
-      <c r="E52" s="15">
-        <f>SUM(E8:E51)</f>
+      <c r="F52" s="15">
+        <f t="shared" si="0"/>
         <v>8441</v>
       </c>
-      <c r="F52" s="15">
-        <f>SUM(F8:F51)</f>
+      <c r="G52" s="15">
+        <f t="shared" si="0"/>
         <v>7252</v>
       </c>
-      <c r="G52" s="15">
-        <f>SUM(G8:G51)</f>
+      <c r="H52" s="15">
+        <f t="shared" si="0"/>
         <v>6043</v>
       </c>
-      <c r="H52" s="15">
-        <f t="shared" ref="H52:M52" si="0">SUM(H8:H51)</f>
+      <c r="I52" s="15">
+        <f t="shared" ref="I52:N52" si="1">SUM(I8:I51)</f>
         <v>5333</v>
       </c>
-      <c r="I52" s="15">
-        <f t="shared" si="0"/>
+      <c r="J52" s="15">
+        <f t="shared" si="1"/>
         <v>4300</v>
       </c>
-      <c r="J52" s="15">
-        <f t="shared" si="0"/>
+      <c r="K52" s="15">
+        <f t="shared" si="1"/>
         <v>3818</v>
       </c>
-      <c r="K52" s="15">
-        <f t="shared" si="0"/>
+      <c r="L52" s="15">
+        <f t="shared" si="1"/>
         <v>3665</v>
       </c>
-      <c r="L52" s="15">
-        <f t="shared" si="0"/>
+      <c r="M52" s="15">
+        <f t="shared" si="1"/>
         <v>2748</v>
       </c>
-      <c r="M52" s="14">
-        <f t="shared" si="0"/>
+      <c r="N52" s="14">
+        <f t="shared" si="1"/>
         <v>2184</v>
       </c>
-      <c r="N52" s="5">
-        <f t="shared" ref="N52:AI52" si="1">SUM(N8:N51)</f>
+      <c r="O52" s="5">
+        <f t="shared" ref="O52:AJ52" si="2">SUM(O8:O51)</f>
         <v>1641</v>
       </c>
-      <c r="O52" s="5">
-        <f t="shared" si="1"/>
+      <c r="P52" s="5">
+        <f t="shared" si="2"/>
         <v>1105</v>
       </c>
-      <c r="P52" s="5">
-        <f t="shared" si="1"/>
+      <c r="Q52" s="5">
+        <f t="shared" si="2"/>
         <v>977</v>
       </c>
-      <c r="Q52" s="5">
-        <f t="shared" si="1"/>
+      <c r="R52" s="5">
+        <f t="shared" si="2"/>
         <v>827</v>
       </c>
-      <c r="R52" s="5">
-        <f t="shared" si="1"/>
+      <c r="S52" s="5">
+        <f t="shared" si="2"/>
         <v>569</v>
       </c>
-      <c r="S52" s="5">
-        <f t="shared" si="1"/>
+      <c r="T52" s="5">
+        <f t="shared" si="2"/>
         <v>454</v>
       </c>
-      <c r="T52" s="5">
-        <f t="shared" si="1"/>
+      <c r="U52" s="5">
+        <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="U52" s="5">
-        <f t="shared" si="1"/>
+      <c r="V52" s="5">
+        <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="V52" s="5">
-        <f t="shared" si="1"/>
+      <c r="W52" s="5">
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="W52" s="5">
-        <f t="shared" si="1"/>
+      <c r="X52" s="5">
+        <f t="shared" si="2"/>
         <v>199</v>
       </c>
-      <c r="X52" s="5">
-        <f t="shared" si="1"/>
+      <c r="Y52" s="5">
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="Y52" s="5">
-        <f t="shared" si="1"/>
+      <c r="Z52" s="5">
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="Z52" s="5">
-        <f t="shared" si="1"/>
+      <c r="AA52" s="5">
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="AA52" s="5">
-        <f t="shared" si="1"/>
+      <c r="AB52" s="5">
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="AB52" s="5">
-        <f t="shared" si="1"/>
+      <c r="AC52" s="5">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="AC52" s="5">
-        <f t="shared" si="1"/>
+      <c r="AD52" s="5">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="AD52" s="5">
-        <f t="shared" si="1"/>
+      <c r="AE52" s="5">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AE52" s="5">
-        <f t="shared" si="1"/>
+      <c r="AF52" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="AF52" s="5">
-        <f t="shared" si="1"/>
+      <c r="AG52" s="5">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AG52" s="5">
-        <f t="shared" si="1"/>
+      <c r="AH52" s="5">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AH52" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="AI52" s="5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AJ52" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:36" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -5006,16 +5148,17 @@
       <c r="S54" s="17"/>
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZuGZ4JzFxFWheekeAA97FTFrCV6BkZvyvcHiiz6MWcaEXGXYQmIOb2vTOA+gsYT5YKJGROV/1aYHJufcecJnEw==" saltValue="P9hIeIk+BJrQ2cqLshPfCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ajrE8z8qRa/ynqOIUw06ktVIzX3WJaSROL0bRtArioi6ZsBA0kYUCcifW3bxKFWloxGSDh3hI2AzDYjOg1bY2A==" saltValue="4p/TlCVCMhVQOWQaGWvXfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:U54"/>
+    <mergeCell ref="A54:V54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L52:AI52 H52:J52 B52:F52" formulaRange="1"/>
+    <ignoredError sqref="M52:AJ52 I52:K52 B52:G52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5025,31 +5168,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:S54"/>
+  <dimension ref="A2:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="19" width="11.140625" customWidth="1"/>
+    <col min="2" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="20" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -5107,65 +5250,71 @@
       <c r="S6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43920</v>
+      </c>
+      <c r="C7" s="13">
         <v>43919</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43918</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43917</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43916</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43915</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43914</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43913</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43912</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43911</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43910</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43909</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43908</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43907</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
         <v>43906</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43905</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43904</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43903</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43902</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -5185,15 +5334,16 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R8" s="4"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -5205,12 +5355,14 @@
         <v>2</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -5220,10 +5372,11 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -5236,7 +5389,9 @@
       <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -5249,15 +5404,16 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R10" s="4"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4">
         <v>7</v>
@@ -5266,12 +5422,14 @@
         <v>7</v>
       </c>
       <c r="E11" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -5282,17 +5440,20 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R11" s="4"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -5307,10 +5468,11 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -5318,15 +5480,17 @@
         <v>7</v>
       </c>
       <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
       <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -5338,10 +5502,11 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R13" s="4"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5364,7 +5529,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
@@ -5372,31 +5537,34 @@
       <c r="J14" s="4">
         <v>1</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="4"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11">
         <v>8</v>
-      </c>
-      <c r="C15" s="11">
-        <v>7</v>
       </c>
       <c r="D15" s="11">
         <v>7</v>
       </c>
       <c r="E15" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" s="11">
         <v>5</v>
@@ -5408,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="11">
         <v>4</v>
@@ -5417,19 +5585,22 @@
         <v>4</v>
       </c>
       <c r="L15" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" s="11">
-        <v>1</v>
-      </c>
-      <c r="N15" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1</v>
+      </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="11"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -5448,7 +5619,9 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5459,18 +5632,19 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R16" s="4"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
         <v>7</v>
-      </c>
-      <c r="C17" s="4">
-        <v>6</v>
       </c>
       <c r="D17" s="4">
         <v>6</v>
@@ -5479,7 +5653,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17" s="4">
         <v>3</v>
@@ -5491,7 +5665,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
@@ -5500,7 +5674,7 @@
         <v>2</v>
       </c>
       <c r="M17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="4">
         <v>1</v>
@@ -5514,29 +5688,32 @@
       <c r="Q17" s="4">
         <v>1</v>
       </c>
-      <c r="R17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4">
         <v>6</v>
-      </c>
-      <c r="C18" s="4">
-        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>5</v>
       </c>
       <c r="E18" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -5548,19 +5725,22 @@
         <v>2</v>
       </c>
       <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R18" s="4"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5580,15 +5760,16 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R19" s="4"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
@@ -5600,7 +5781,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -5635,12 +5816,15 @@
       <c r="Q20" s="4">
         <v>1</v>
       </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -5660,15 +5844,16 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R21" s="4"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4">
         <v>4</v>
@@ -5677,10 +5862,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -5688,7 +5873,9 @@
       <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -5697,10 +5884,11 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="4"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -5717,13 +5905,13 @@
         <v>5</v>
       </c>
       <c r="F23" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="11">
         <v>4</v>
       </c>
       <c r="H23" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="11">
         <v>3</v>
@@ -5732,10 +5920,10 @@
         <v>3</v>
       </c>
       <c r="K23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="11">
         <v>1</v>
@@ -5743,13 +5931,16 @@
       <c r="N23" s="11">
         <v>1</v>
       </c>
-      <c r="O23" s="11"/>
+      <c r="O23" s="11">
+        <v>1</v>
+      </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="11"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R23" s="11"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -5769,22 +5960,23 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="11"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R24" s="11"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4">
         <v>6</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>5</v>
       </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
       <c r="E25" s="4">
         <v>3</v>
       </c>
@@ -5798,13 +5990,13 @@
         <v>3</v>
       </c>
       <c r="I25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" s="4">
         <v>2</v>
       </c>
       <c r="K25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="4">
         <v>1</v>
@@ -5812,14 +6004,17 @@
       <c r="M25" s="4">
         <v>1</v>
       </c>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R25" s="4"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -5830,7 +6025,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="11">
         <v>1</v>
@@ -5838,7 +6033,9 @@
       <c r="F26" s="11">
         <v>1</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -5849,10 +6046,11 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="11"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R26" s="11"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
@@ -5872,10 +6070,11 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="11"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R27" s="11"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="11"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -5891,7 +6090,9 @@
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -5903,10 +6104,11 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R28" s="4"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -5925,7 +6127,9 @@
       <c r="F29" s="4">
         <v>3</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5936,18 +6140,19 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="4"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
@@ -5956,12 +6161,14 @@
         <v>3</v>
       </c>
       <c r="F30" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -5971,10 +6178,11 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R30" s="4"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -5994,10 +6202,11 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R31" s="4"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -6017,15 +6226,16 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R32" s="4"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -6039,7 +6249,9 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -6050,28 +6262,29 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R33" s="4"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4">
         <v>11</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>10</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>8</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="F34" s="4">
-        <v>4</v>
-      </c>
       <c r="G34" s="4">
         <v>4</v>
       </c>
@@ -6082,13 +6295,13 @@
         <v>4</v>
       </c>
       <c r="J34" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K34" s="4">
         <v>2</v>
       </c>
       <c r="L34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="4">
         <v>1</v>
@@ -6096,13 +6309,16 @@
       <c r="N34" s="4">
         <v>1</v>
       </c>
-      <c r="O34" s="4"/>
+      <c r="O34" s="4">
+        <v>1</v>
+      </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R34" s="4"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -6122,10 +6338,11 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R35" s="4"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -6145,10 +6362,11 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R36" s="4"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -6168,10 +6386,11 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R37" s="4"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -6191,10 +6410,11 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R38" s="4"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -6208,10 +6428,10 @@
         <v>3</v>
       </c>
       <c r="E39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -6246,19 +6466,22 @@
       <c r="Q39" s="4">
         <v>1</v>
       </c>
-      <c r="R39" s="3">
-        <v>1</v>
-      </c>
-      <c r="S39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="S39" s="3">
+        <v>1</v>
+      </c>
+      <c r="T39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="4">
         <v>5</v>
@@ -6267,10 +6490,10 @@
         <v>5</v>
       </c>
       <c r="E40" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="4">
         <v>2</v>
@@ -6279,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="4">
         <v>1</v>
@@ -6287,16 +6510,19 @@
       <c r="K40" s="4">
         <v>1</v>
       </c>
-      <c r="L40" s="4"/>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R40" s="4"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
@@ -6304,18 +6530,20 @@
         <v>4</v>
       </c>
       <c r="C41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -6326,15 +6554,16 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R41" s="4"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
@@ -6349,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="4">
         <v>1</v>
@@ -6372,13 +6601,16 @@
       <c r="N42" s="4">
         <v>1</v>
       </c>
-      <c r="O42" s="4"/>
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R42" s="4"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="4"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
@@ -6389,18 +6621,20 @@
         <v>9</v>
       </c>
       <c r="D43" s="4">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4">
         <v>7</v>
-      </c>
-      <c r="E43" s="4">
-        <v>5</v>
       </c>
       <c r="F43" s="4">
         <v>5</v>
       </c>
       <c r="G43" s="4">
-        <v>2</v>
-      </c>
-      <c r="H43" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -6410,10 +6644,11 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="4"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -6423,7 +6658,9 @@
       <c r="C44" s="4">
         <v>2</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -6437,10 +6674,11 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R44" s="4"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -6451,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
@@ -6472,40 +6710,43 @@
         <v>2</v>
       </c>
       <c r="K45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45" s="4">
         <v>1</v>
       </c>
-      <c r="M45" s="4"/>
+      <c r="M45" s="4">
+        <v>1</v>
+      </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R45" s="4"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" s="4">
         <v>6</v>
       </c>
       <c r="D46" s="4">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4">
         <v>5</v>
       </c>
-      <c r="E46" s="4">
-        <v>3</v>
-      </c>
       <c r="F46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="4">
         <v>1</v>
@@ -6516,33 +6757,38 @@
       <c r="J46" s="4">
         <v>1</v>
       </c>
-      <c r="K46" s="4"/>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="4"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R46" s="4"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -6554,10 +6800,11 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R47" s="4"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -6568,15 +6815,17 @@
         <v>3</v>
       </c>
       <c r="D48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -6587,10 +6836,11 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="4"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -6610,10 +6860,11 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="4"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -6647,16 +6898,19 @@
       <c r="K50" s="4">
         <v>1</v>
       </c>
-      <c r="L50" s="4"/>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="4"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R50" s="4"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -6670,12 +6924,14 @@
         <v>4</v>
       </c>
       <c r="E51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="4">
-        <v>2</v>
-      </c>
-      <c r="G51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="G51" s="4">
+        <v>2</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -6686,88 +6942,93 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="4"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="4"/>
+    </row>
+    <row r="52" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
+        <v>163</v>
+      </c>
+      <c r="C52" s="15">
+        <f t="shared" ref="C52:H52" si="0">SUM(C8:C51)</f>
         <v>128</v>
       </c>
-      <c r="C52" s="15">
-        <f>SUM(C8:C51)</f>
+      <c r="D52" s="15">
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="D52" s="15">
-        <f>SUM(D8:D51)</f>
+      <c r="E52" s="15">
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="E52" s="15">
-        <f>SUM(E8:E51)</f>
+      <c r="F52" s="15">
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="F52" s="15">
-        <f>SUM(F8:F51)</f>
+      <c r="G52" s="15">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="G52" s="15">
-        <f>SUM(G8:G51)</f>
+      <c r="H52" s="15">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="H52" s="15">
-        <f t="shared" ref="H52:S52" si="0">SUM(H8:H51)</f>
+      <c r="I52" s="15">
+        <f t="shared" ref="I52:T52" si="1">SUM(I8:I51)</f>
         <v>31</v>
       </c>
-      <c r="I52" s="15">
-        <f t="shared" si="0"/>
+      <c r="J52" s="15">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="J52" s="15">
-        <f t="shared" si="0"/>
+      <c r="K52" s="15">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="K52" s="15">
-        <f t="shared" si="0"/>
+      <c r="L52" s="15">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L52" s="15">
-        <f t="shared" si="0"/>
+      <c r="M52" s="15">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="M52" s="14">
-        <f t="shared" si="0"/>
+      <c r="N52" s="14">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N52" s="5">
-        <f t="shared" si="0"/>
+      <c r="O52" s="5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="O52" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="P52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S52" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T52" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -6789,16 +7050,17 @@
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
       <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u2dnBvy0jSG40eOrCwld7dG0oQzxt7ZcQDKwAbgZMBcZqw0HnaF23Z7WkU9SXHu11VZk8hc3izB3I0+NiaH+FA==" saltValue="tEinWv347wxlXbMAb9iUkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EgKkovaalQ1jdBRFWCCuYZqaI5womRQ3SVv9YWhKaTBMGZz1p7R4enTDLlR4oOjDxSeUP4teyp1jXoLJHatOlQ==" saltValue="rXYbh98SzlBa4Uja+C4kDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:S54"/>
+    <mergeCell ref="A54:T54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B52:S52" formulaRange="1"/>
+    <ignoredError sqref="B52:T52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
   <si>
     <t>Fälle</t>
   </si>
@@ -606,7 +606,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AJ54"/>
+  <dimension ref="A2:AK54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
@@ -615,28 +615,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" customWidth="1"/>
-    <col min="23" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="2" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="R3" s="9"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -745,193 +745,199 @@
       <c r="AJ6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43921</v>
+      </c>
+      <c r="C7" s="13">
         <v>43920</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43919</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43918</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43917</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43916</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43915</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43914</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43913</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43912</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43911</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43910</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43909</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43908</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>43907</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43906</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43905</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43904</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43903</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43902</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43901</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43900</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43899</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43898</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43897</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43896</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43895</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43894</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43893</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43892</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AF7" s="12">
         <v>43891</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AG7" s="12">
         <v>43890</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AH7" s="12">
         <v>43889</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AI7" s="12">
         <v>43888</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AJ7" s="12">
         <v>43887</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AK7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
+        <v>228</v>
+      </c>
+      <c r="C8" s="4">
         <v>217</v>
-      </c>
-      <c r="C8" s="4">
-        <v>189</v>
       </c>
       <c r="D8" s="4">
         <v>189</v>
       </c>
       <c r="E8" s="4">
+        <v>189</v>
+      </c>
+      <c r="F8" s="4">
         <v>130</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>99</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>85</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>64</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>60</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>44</v>
-      </c>
-      <c r="K8" s="4">
-        <v>39</v>
       </c>
       <c r="L8" s="4">
         <v>39</v>
       </c>
       <c r="M8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N8" s="4">
         <v>26</v>
       </c>
       <c r="O8" s="4">
+        <v>26</v>
+      </c>
+      <c r="P8" s="4">
         <v>24</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>13</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>12</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>7</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <v>6</v>
       </c>
-      <c r="U8" s="3">
-        <v>4</v>
-      </c>
-      <c r="V8" s="4">
-        <v>3</v>
+      <c r="V8" s="3">
+        <v>4</v>
       </c>
       <c r="W8" s="4">
         <v>3</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="4">
         <v>3</v>
       </c>
       <c r="Y8" s="3">
         <v>3</v>
       </c>
       <c r="Z8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA8" s="3">
         <v>2</v>
@@ -939,7 +945,9 @@
       <c r="AB8" s="3">
         <v>2</v>
       </c>
-      <c r="AC8" s="3"/>
+      <c r="AC8" s="3">
+        <v>2</v>
+      </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
@@ -947,84 +955,87 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK8" s="3"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4">
+        <v>84</v>
+      </c>
+      <c r="C9" s="4">
         <v>73</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>65</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>55</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>45</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>39</v>
-      </c>
-      <c r="G9" s="4">
-        <v>36</v>
       </c>
       <c r="H9" s="4">
         <v>36</v>
       </c>
       <c r="I9" s="4">
+        <v>36</v>
+      </c>
+      <c r="J9" s="4">
         <v>33</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>25</v>
-      </c>
-      <c r="K9" s="4">
-        <v>21</v>
       </c>
       <c r="L9" s="4">
         <v>21</v>
       </c>
       <c r="M9" s="4">
+        <v>21</v>
+      </c>
+      <c r="N9" s="4">
         <v>17</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>14</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>12</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>7</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>5</v>
       </c>
-      <c r="R9" s="4">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
-        <v>3</v>
-      </c>
-      <c r="T9" s="4">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2</v>
-      </c>
-      <c r="V9" s="4">
-        <v>1</v>
+      <c r="S9" s="4">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>3</v>
+      </c>
+      <c r="U9" s="4">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3">
+        <v>2</v>
       </c>
       <c r="W9" s="4">
         <v>1</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="4">
         <v>1</v>
       </c>
       <c r="Y9" s="3">
         <v>1</v>
       </c>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="3">
+        <v>1</v>
+      </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
@@ -1035,37 +1046,38 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C10" s="4">
         <v>216</v>
       </c>
       <c r="D10" s="4">
+        <v>216</v>
+      </c>
+      <c r="E10" s="4">
         <v>196</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>182</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>144</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>106</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>82</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>74</v>
-      </c>
-      <c r="J10" s="4">
-        <v>45</v>
       </c>
       <c r="K10" s="4">
         <v>45</v>
@@ -1077,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="N10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="O10" s="4">
         <v>17</v>
       </c>
       <c r="P10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="4">
         <v>5</v>
@@ -1091,31 +1103,33 @@
       <c r="R10" s="4">
         <v>5</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="4">
         <v>5</v>
       </c>
-      <c r="T10" s="4">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3">
-        <v>3</v>
-      </c>
-      <c r="V10" s="4">
+      <c r="T10" s="3">
+        <v>5</v>
+      </c>
+      <c r="U10" s="4">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>3</v>
       </c>
       <c r="W10" s="4">
         <v>3</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="4">
         <v>3</v>
       </c>
       <c r="Y10" s="3">
         <v>3</v>
       </c>
       <c r="Z10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1</v>
+      </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
@@ -1125,46 +1139,47 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK10" s="3"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>432</v>
+      </c>
+      <c r="C11" s="4">
         <v>413</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>385</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>369</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>333</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>263</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>233</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>224</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>187</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>117</v>
-      </c>
-      <c r="K11" s="4">
-        <v>67</v>
       </c>
       <c r="L11" s="4">
         <v>67</v>
       </c>
       <c r="M11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N11" s="4">
         <v>28</v>
@@ -1173,7 +1188,7 @@
         <v>28</v>
       </c>
       <c r="P11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="4">
         <v>9</v>
@@ -1181,22 +1196,22 @@
       <c r="R11" s="4">
         <v>9</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="4">
         <v>9</v>
       </c>
-      <c r="T11" s="4">
-        <v>4</v>
-      </c>
-      <c r="U11" s="3">
-        <v>4</v>
-      </c>
-      <c r="V11" s="4">
+      <c r="T11" s="3">
+        <v>9</v>
+      </c>
+      <c r="U11" s="4">
+        <v>4</v>
+      </c>
+      <c r="V11" s="3">
         <v>4</v>
       </c>
       <c r="W11" s="4">
-        <v>3</v>
-      </c>
-      <c r="X11" s="3">
+        <v>4</v>
+      </c>
+      <c r="X11" s="4">
         <v>3</v>
       </c>
       <c r="Y11" s="3">
@@ -1206,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB11" s="3">
         <v>1</v>
@@ -1229,80 +1244,83 @@
       <c r="AH11" s="3">
         <v>1</v>
       </c>
-      <c r="AI11" s="3"/>
+      <c r="AI11" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ11" s="3"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK11" s="3"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>190</v>
+      </c>
+      <c r="C12" s="4">
         <v>186</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>185</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>178</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>175</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>153</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>121</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>89</v>
-      </c>
-      <c r="I12" s="4">
-        <v>83</v>
       </c>
       <c r="J12" s="4">
         <v>83</v>
       </c>
       <c r="K12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L12" s="4">
         <v>71</v>
       </c>
       <c r="M12" s="4">
+        <v>71</v>
+      </c>
+      <c r="N12" s="4">
         <v>62</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>39</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>31</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>29</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>13</v>
       </c>
       <c r="R12" s="4">
         <v>13</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="4">
+        <v>13</v>
+      </c>
+      <c r="T12" s="3">
         <v>8</v>
       </c>
-      <c r="T12" s="4">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="U12" s="4">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3">
         <v>6</v>
       </c>
-      <c r="V12" s="4">
+      <c r="W12" s="4">
         <v>5</v>
       </c>
-      <c r="W12" s="4">
-        <v>4</v>
-      </c>
-      <c r="X12" s="3">
+      <c r="X12" s="4">
         <v>4</v>
       </c>
       <c r="Y12" s="3">
@@ -1312,12 +1330,14 @@
         <v>4</v>
       </c>
       <c r="AA12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1</v>
+      </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
@@ -1325,85 +1345,86 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK12" s="3"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>419</v>
+      </c>
+      <c r="C13" s="4">
         <v>392</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>372</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>299</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>273</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>254</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>223</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>197</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>178</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>167</v>
-      </c>
-      <c r="K13" s="4">
-        <v>134</v>
       </c>
       <c r="L13" s="4">
         <v>134</v>
       </c>
       <c r="M13" s="4">
+        <v>134</v>
+      </c>
+      <c r="N13" s="4">
         <v>101</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>78</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>54</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>45</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>42</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>26</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>19</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <v>18</v>
       </c>
-      <c r="U13" s="3">
+      <c r="V13" s="3">
         <v>12</v>
-      </c>
-      <c r="V13" s="4">
-        <v>6</v>
       </c>
       <c r="W13" s="4">
         <v>6</v>
       </c>
-      <c r="X13" s="3">
-        <v>5</v>
+      <c r="X13" s="4">
+        <v>6</v>
       </c>
       <c r="Y13" s="3">
         <v>5</v>
       </c>
       <c r="Z13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="3">
         <v>4</v>
@@ -1412,13 +1433,13 @@
         <v>4</v>
       </c>
       <c r="AC13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD13" s="3">
         <v>1</v>
       </c>
       <c r="AE13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="3">
         <v>3</v>
@@ -1429,81 +1450,84 @@
       <c r="AH13" s="3">
         <v>3</v>
       </c>
-      <c r="AI13" s="3"/>
+      <c r="AI13" s="3">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="3"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>308</v>
+      </c>
+      <c r="C14" s="4">
         <v>295</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>278</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>259</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>226</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>210</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>182</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>159</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>150</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>120</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>108</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>92</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>76</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>61</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>51</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>43</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>34</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>26</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <v>12</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7</v>
       </c>
-      <c r="V14" s="4">
+      <c r="W14" s="4">
         <v>6</v>
       </c>
-      <c r="W14" s="4">
-        <v>2</v>
-      </c>
-      <c r="X14" s="3">
-        <v>1</v>
+      <c r="X14" s="4">
+        <v>2</v>
       </c>
       <c r="Y14" s="3">
         <v>1</v>
@@ -1511,7 +1535,9 @@
       <c r="Z14" s="3">
         <v>1</v>
       </c>
-      <c r="AA14" s="3"/>
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
@@ -1521,178 +1547,184 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK14" s="3"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>287</v>
+      </c>
+      <c r="C15" s="11">
         <v>264</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>201</v>
-      </c>
-      <c r="D15" s="11">
-        <v>191</v>
       </c>
       <c r="E15" s="11">
         <v>191</v>
       </c>
       <c r="F15" s="11">
+        <v>191</v>
+      </c>
+      <c r="G15" s="11">
         <v>171</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>154</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>141</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>123</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="11">
         <v>121</v>
-      </c>
-      <c r="K15" s="11">
-        <v>110</v>
       </c>
       <c r="L15" s="11">
         <v>110</v>
       </c>
       <c r="M15" s="11">
+        <v>110</v>
+      </c>
+      <c r="N15" s="11">
         <v>99</v>
       </c>
-      <c r="N15" s="11">
+      <c r="O15" s="11">
         <v>60</v>
       </c>
-      <c r="O15" s="11">
+      <c r="P15" s="11">
         <v>59</v>
-      </c>
-      <c r="P15" s="11">
-        <v>35</v>
       </c>
       <c r="Q15" s="11">
         <v>35</v>
       </c>
       <c r="R15" s="11">
+        <v>35</v>
+      </c>
+      <c r="S15" s="11">
         <v>21</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>17</v>
       </c>
-      <c r="T15" s="11">
+      <c r="U15" s="11">
         <v>16</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>15</v>
-      </c>
-      <c r="V15" s="11">
-        <v>13</v>
       </c>
       <c r="W15" s="11">
         <v>13</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="11">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="3">
         <v>12</v>
       </c>
-      <c r="Y15" s="3">
-        <v>3</v>
-      </c>
       <c r="Z15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>1</v>
+      </c>
       <c r="AB15" s="3"/>
-      <c r="AC15" s="3">
-        <v>1</v>
-      </c>
+      <c r="AC15" s="3"/>
       <c r="AD15" s="3">
         <v>1</v>
       </c>
-      <c r="AE15" s="3"/>
+      <c r="AE15" s="3">
+        <v>1</v>
+      </c>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK15" s="3"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>125</v>
+      </c>
+      <c r="C16" s="4">
         <v>115</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>110</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>89</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>74</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>62</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>55</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>45</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>37</v>
-      </c>
-      <c r="J16" s="4">
-        <v>33</v>
       </c>
       <c r="K16" s="4">
         <v>33</v>
       </c>
       <c r="L16" s="4">
+        <v>33</v>
+      </c>
+      <c r="M16" s="4">
         <v>24</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>21</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>12</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>9</v>
       </c>
-      <c r="P16" s="4">
-        <v>4</v>
-      </c>
       <c r="Q16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" s="4">
         <v>3</v>
       </c>
-      <c r="S16" s="3">
-        <v>3</v>
-      </c>
-      <c r="T16" s="4">
-        <v>3</v>
-      </c>
-      <c r="U16" s="3">
-        <v>2</v>
-      </c>
-      <c r="V16" s="4">
-        <v>1</v>
+      <c r="S16" s="4">
+        <v>3</v>
+      </c>
+      <c r="T16" s="3">
+        <v>3</v>
+      </c>
+      <c r="U16" s="4">
+        <v>3</v>
+      </c>
+      <c r="V16" s="3">
+        <v>2</v>
       </c>
       <c r="W16" s="4">
         <v>1</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="4">
         <v>1</v>
       </c>
       <c r="Y16" s="3">
         <v>1</v>
       </c>
-      <c r="Z16" s="3"/>
+      <c r="Z16" s="3">
+        <v>1</v>
+      </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
@@ -1703,175 +1735,179 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK16" s="3"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>833</v>
+      </c>
+      <c r="C17" s="4">
         <v>761</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>737</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>705</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>648</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>596</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>493</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>462</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>435</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>362</v>
-      </c>
-      <c r="K17" s="4">
-        <v>323</v>
       </c>
       <c r="L17" s="4">
         <v>323</v>
       </c>
       <c r="M17" s="4">
+        <v>323</v>
+      </c>
+      <c r="N17" s="4">
         <v>234</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>193</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>128</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>123</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>111</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>82</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>65</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <v>47</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>43</v>
       </c>
-      <c r="V17" s="4">
+      <c r="W17" s="4">
         <v>23</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>18</v>
-      </c>
-      <c r="X17" s="3">
-        <v>16</v>
       </c>
       <c r="Y17" s="3">
         <v>16</v>
       </c>
       <c r="Z17" s="3">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="3">
         <v>14</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>13</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>5</v>
       </c>
       <c r="AC17" s="3">
         <v>5</v>
       </c>
-      <c r="AD17" s="3"/>
+      <c r="AD17" s="3">
+        <v>5</v>
+      </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>442</v>
+      </c>
+      <c r="C18" s="4">
         <v>414</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>386</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>346</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>325</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>284</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>254</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>227</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>212</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>191</v>
-      </c>
-      <c r="K18" s="4">
-        <v>150</v>
       </c>
       <c r="L18" s="4">
         <v>150</v>
       </c>
       <c r="M18" s="4">
+        <v>150</v>
+      </c>
+      <c r="N18" s="4">
         <v>114</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>79</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>62</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>53</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <v>43</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>34</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <v>18</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13</v>
-      </c>
-      <c r="V18" s="4">
-        <v>12</v>
       </c>
       <c r="W18" s="4">
         <v>12</v>
       </c>
-      <c r="X18" s="3">
-        <v>8</v>
+      <c r="X18" s="4">
+        <v>12</v>
       </c>
       <c r="Y18" s="3">
         <v>8</v>
@@ -1880,60 +1916,63 @@
         <v>8</v>
       </c>
       <c r="AA18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB18" s="3">
         <v>6</v>
       </c>
       <c r="AC18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD18" s="3">
         <v>4</v>
       </c>
       <c r="AE18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>1</v>
+      </c>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK18" s="3"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C19" s="4">
         <v>154</v>
       </c>
       <c r="D19" s="4">
+        <v>154</v>
+      </c>
+      <c r="E19" s="4">
         <v>136</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>110</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>76</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>69</v>
-      </c>
-      <c r="H19" s="4">
-        <v>39</v>
       </c>
       <c r="I19" s="4">
         <v>39</v>
       </c>
       <c r="J19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="K19" s="4">
         <v>14</v>
@@ -1948,31 +1987,33 @@
         <v>14</v>
       </c>
       <c r="O19" s="4">
+        <v>14</v>
+      </c>
+      <c r="P19" s="4">
         <v>10</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>8</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>7</v>
       </c>
-      <c r="R19" s="4">
-        <v>3</v>
-      </c>
-      <c r="S19" s="3">
-        <v>2</v>
-      </c>
-      <c r="T19" s="4">
-        <v>2</v>
-      </c>
-      <c r="U19" s="3">
-        <v>1</v>
-      </c>
-      <c r="V19" s="4">
-        <v>1</v>
-      </c>
-      <c r="W19" s="4"/>
-      <c r="X19" s="3"/>
+      <c r="S19" s="4">
+        <v>3</v>
+      </c>
+      <c r="T19" s="3">
+        <v>2</v>
+      </c>
+      <c r="U19" s="4">
+        <v>2</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -1985,37 +2026,38 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK19" s="3"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
+        <v>371</v>
+      </c>
+      <c r="C20" s="4">
         <v>361</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>340</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>317</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>278</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>249</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>216</v>
-      </c>
-      <c r="H20" s="4">
-        <v>166</v>
       </c>
       <c r="I20" s="4">
         <v>166</v>
       </c>
       <c r="J20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="K20" s="4">
         <v>97</v>
@@ -2024,46 +2066,46 @@
         <v>97</v>
       </c>
       <c r="M20" s="4">
+        <v>97</v>
+      </c>
+      <c r="N20" s="4">
         <v>60</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>59</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>39</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>29</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>16</v>
       </c>
       <c r="R20" s="4">
         <v>16</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="4">
+        <v>16</v>
+      </c>
+      <c r="T20" s="3">
         <v>14</v>
       </c>
-      <c r="T20" s="4">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1</v>
-      </c>
-      <c r="V20" s="4">
-        <v>4</v>
+      <c r="U20" s="4">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
       </c>
       <c r="W20" s="4">
-        <v>3</v>
-      </c>
-      <c r="X20" s="3">
+        <v>4</v>
+      </c>
+      <c r="X20" s="4">
         <v>3</v>
       </c>
       <c r="Y20" s="3">
         <v>3</v>
       </c>
       <c r="Z20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA20" s="3">
         <v>2</v>
@@ -2087,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="AH20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI20" s="3">
         <v>1</v>
@@ -2095,43 +2137,46 @@
       <c r="AJ20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4">
+        <v>154</v>
+      </c>
+      <c r="C21" s="4">
         <v>148</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>130</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>124</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>113</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>112</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>109</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>98</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>89</v>
-      </c>
-      <c r="J21" s="4">
-        <v>5</v>
       </c>
       <c r="K21" s="4">
         <v>5</v>
       </c>
       <c r="L21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21" s="4">
         <v>3</v>
@@ -2140,40 +2185,40 @@
         <v>3</v>
       </c>
       <c r="O21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" s="4">
         <v>2</v>
       </c>
       <c r="Q21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" s="4">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
-        <v>2</v>
-      </c>
-      <c r="T21" s="4">
-        <v>2</v>
-      </c>
-      <c r="U21" s="3">
-        <v>2</v>
-      </c>
-      <c r="V21" s="4">
-        <v>5</v>
+      <c r="S21" s="4">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
+        <v>2</v>
+      </c>
+      <c r="U21" s="4">
+        <v>2</v>
+      </c>
+      <c r="V21" s="3">
+        <v>2</v>
       </c>
       <c r="W21" s="4">
         <v>5</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="4">
         <v>5</v>
       </c>
       <c r="Y21" s="3">
         <v>5</v>
       </c>
       <c r="Z21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA21" s="3">
         <v>2</v>
@@ -2181,7 +2226,9 @@
       <c r="AB21" s="3">
         <v>2</v>
       </c>
-      <c r="AC21" s="3"/>
+      <c r="AC21" s="3">
+        <v>2</v>
+      </c>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
@@ -2189,8 +2236,9 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK21" s="3"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2198,76 +2246,76 @@
         <v>160</v>
       </c>
       <c r="C22" s="4">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D22" s="4">
         <v>125</v>
       </c>
       <c r="E22" s="4">
+        <v>125</v>
+      </c>
+      <c r="F22" s="4">
         <v>117</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>98</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>97</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>62</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>60</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>57</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>47</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>39</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>34</v>
-      </c>
-      <c r="N22" s="4">
-        <v>17</v>
       </c>
       <c r="O22" s="4">
         <v>17</v>
       </c>
       <c r="P22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="4">
         <v>21</v>
       </c>
       <c r="R22" s="4">
+        <v>21</v>
+      </c>
+      <c r="S22" s="4">
         <v>19</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>4</v>
-      </c>
-      <c r="V22" s="4">
-        <v>3</v>
+      <c r="V22" s="3">
+        <v>4</v>
       </c>
       <c r="W22" s="4">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="4">
         <v>3</v>
       </c>
       <c r="Y22" s="3">
         <v>3</v>
       </c>
       <c r="Z22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA22" s="3">
         <v>1</v>
@@ -2275,7 +2323,9 @@
       <c r="AB22" s="3">
         <v>1</v>
       </c>
-      <c r="AC22" s="3"/>
+      <c r="AC22" s="3">
+        <v>1</v>
+      </c>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
@@ -2283,100 +2333,101 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK22" s="3"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>427</v>
+      </c>
+      <c r="C23" s="11">
         <v>390</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>365</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>342</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>331</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>279</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>236</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>212</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>197</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>165</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>140</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>118</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>110</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>71</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>57</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="11">
         <v>50</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="R23" s="11">
         <v>47</v>
       </c>
-      <c r="R23" s="11">
+      <c r="S23" s="11">
         <v>37</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32</v>
       </c>
-      <c r="T23" s="11">
+      <c r="U23" s="11">
         <v>32</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30</v>
-      </c>
-      <c r="V23" s="11">
-        <v>26</v>
       </c>
       <c r="W23" s="11">
         <v>26</v>
       </c>
-      <c r="X23" s="3">
-        <v>20</v>
+      <c r="X23" s="11">
+        <v>26</v>
       </c>
       <c r="Y23" s="3">
         <v>20</v>
       </c>
       <c r="Z23" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA23" s="3">
         <v>14</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>10</v>
       </c>
       <c r="AB23" s="3">
         <v>10</v>
       </c>
       <c r="AC23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD23" s="3">
         <v>8</v>
       </c>
       <c r="AE23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AF23" s="3">
         <v>1</v>
@@ -2384,79 +2435,82 @@
       <c r="AG23" s="3">
         <v>1</v>
       </c>
-      <c r="AH23" s="3"/>
+      <c r="AH23" s="3">
+        <v>1</v>
+      </c>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK23" s="3"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="11">
+        <v>168</v>
+      </c>
+      <c r="C24" s="11">
         <v>147</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>124</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="11">
         <v>122</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>104</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>81</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>71</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>60</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>55</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="11">
         <v>28</v>
-      </c>
-      <c r="K24" s="11">
-        <v>20</v>
       </c>
       <c r="L24" s="11">
         <v>20</v>
       </c>
       <c r="M24" s="11">
+        <v>20</v>
+      </c>
+      <c r="N24" s="11">
         <v>19</v>
       </c>
-      <c r="N24" s="11">
+      <c r="O24" s="11">
         <v>13</v>
       </c>
-      <c r="O24" s="11">
+      <c r="P24" s="11">
         <v>9</v>
       </c>
-      <c r="P24" s="11">
-        <v>4</v>
-      </c>
       <c r="Q24" s="11">
         <v>4</v>
       </c>
       <c r="R24" s="11">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
-        <v>1</v>
-      </c>
-      <c r="T24" s="11">
-        <v>1</v>
-      </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="11">
-        <v>3</v>
-      </c>
+      <c r="S24" s="11">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="11">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3"/>
       <c r="W24" s="11">
         <v>3</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24" s="11">
         <v>3</v>
       </c>
       <c r="Y24" s="3">
@@ -2466,23 +2520,26 @@
         <v>3</v>
       </c>
       <c r="AA24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB24" s="3">
         <v>2</v>
       </c>
-      <c r="AC24" s="3"/>
+      <c r="AC24" s="3">
+        <v>2</v>
+      </c>
       <c r="AD24" s="3"/>
-      <c r="AE24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3">
+        <v>1</v>
+      </c>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK24" s="3"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2490,46 +2547,46 @@
         <v>453</v>
       </c>
       <c r="C25" s="4">
+        <v>453</v>
+      </c>
+      <c r="D25" s="4">
         <v>421</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>404</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>350</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>302</v>
-      </c>
-      <c r="G25" s="4">
-        <v>278</v>
       </c>
       <c r="H25" s="4">
         <v>278</v>
       </c>
       <c r="I25" s="4">
+        <v>278</v>
+      </c>
+      <c r="J25" s="4">
         <v>257</v>
-      </c>
-      <c r="J25" s="4">
-        <v>222</v>
       </c>
       <c r="K25" s="4">
         <v>222</v>
       </c>
       <c r="L25" s="4">
+        <v>222</v>
+      </c>
+      <c r="M25" s="4">
         <v>182</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>154</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>135</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>64</v>
-      </c>
-      <c r="P25" s="4">
-        <v>29</v>
       </c>
       <c r="Q25" s="4">
         <v>29</v>
@@ -2537,23 +2594,23 @@
       <c r="R25" s="4">
         <v>29</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="4">
+        <v>29</v>
+      </c>
+      <c r="T25" s="3">
         <v>8</v>
       </c>
-      <c r="T25" s="4">
+      <c r="U25" s="4">
         <v>8</v>
       </c>
-      <c r="U25" s="3">
+      <c r="V25" s="3">
         <v>6</v>
       </c>
-      <c r="V25" s="4">
-        <v>2</v>
-      </c>
       <c r="W25" s="4">
         <v>2</v>
       </c>
-      <c r="X25" s="3">
-        <v>1</v>
+      <c r="X25" s="4">
+        <v>2</v>
       </c>
       <c r="Y25" s="3">
         <v>1</v>
@@ -2564,7 +2621,9 @@
       <c r="AA25" s="3">
         <v>1</v>
       </c>
-      <c r="AB25" s="3"/>
+      <c r="AB25" s="3">
+        <v>1</v>
+      </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
@@ -2573,13 +2632,14 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK25" s="3"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="C26" s="11">
         <v>246</v>
@@ -2588,76 +2648,76 @@
         <v>246</v>
       </c>
       <c r="E26" s="11">
+        <v>246</v>
+      </c>
+      <c r="F26" s="11">
         <v>229</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>206</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>189</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>172</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>154</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>104</v>
-      </c>
-      <c r="K26" s="11">
-        <v>96</v>
       </c>
       <c r="L26" s="11">
         <v>96</v>
       </c>
       <c r="M26" s="11">
+        <v>96</v>
+      </c>
+      <c r="N26" s="11">
         <v>75</v>
       </c>
-      <c r="N26" s="11">
+      <c r="O26" s="11">
         <v>63</v>
       </c>
-      <c r="O26" s="11">
+      <c r="P26" s="11">
         <v>47</v>
       </c>
-      <c r="P26" s="11">
+      <c r="Q26" s="11">
         <v>24</v>
-      </c>
-      <c r="Q26" s="11">
-        <v>29</v>
       </c>
       <c r="R26" s="11">
         <v>29</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="11">
+        <v>29</v>
+      </c>
+      <c r="T26" s="3">
         <v>16</v>
       </c>
-      <c r="T26" s="11">
+      <c r="U26" s="11">
         <v>16</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12</v>
       </c>
-      <c r="V26" s="11">
+      <c r="W26" s="11">
         <v>9</v>
       </c>
-      <c r="W26" s="11">
-        <v>7</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="11">
         <v>7</v>
       </c>
       <c r="Y26" s="3">
         <v>7</v>
       </c>
       <c r="Z26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC26" s="3">
         <v>1</v>
@@ -2674,16 +2734,19 @@
       <c r="AG26" s="3">
         <v>1</v>
       </c>
-      <c r="AH26" s="3"/>
+      <c r="AH26" s="3">
+        <v>1</v>
+      </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK26" s="3"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="11">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="C27" s="11">
         <v>119</v>
@@ -2692,22 +2755,22 @@
         <v>119</v>
       </c>
       <c r="E27" s="11">
+        <v>119</v>
+      </c>
+      <c r="F27" s="11">
         <v>110</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>99</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11">
         <v>85</v>
       </c>
-      <c r="H27" s="11">
+      <c r="I27" s="11">
         <v>74</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11">
         <v>60</v>
-      </c>
-      <c r="J27" s="11">
-        <v>42</v>
       </c>
       <c r="K27" s="11">
         <v>42</v>
@@ -2716,16 +2779,16 @@
         <v>42</v>
       </c>
       <c r="M27" s="11">
+        <v>42</v>
+      </c>
+      <c r="N27" s="11">
         <v>34</v>
       </c>
-      <c r="N27" s="11">
+      <c r="O27" s="11">
         <v>29</v>
       </c>
-      <c r="O27" s="11">
+      <c r="P27" s="11">
         <v>26</v>
-      </c>
-      <c r="P27" s="11">
-        <v>14</v>
       </c>
       <c r="Q27" s="11">
         <v>14</v>
@@ -2733,20 +2796,22 @@
       <c r="R27" s="11">
         <v>14</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="11">
+        <v>14</v>
+      </c>
+      <c r="T27" s="3">
         <v>8</v>
       </c>
-      <c r="T27" s="11">
+      <c r="U27" s="11">
         <v>8</v>
       </c>
-      <c r="U27" s="3">
-        <v>3</v>
-      </c>
-      <c r="V27" s="11">
-        <v>2</v>
-      </c>
-      <c r="W27" s="11"/>
-      <c r="X27" s="3"/>
+      <c r="V27" s="3">
+        <v>3</v>
+      </c>
+      <c r="W27" s="11">
+        <v>2</v>
+      </c>
+      <c r="X27" s="11"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
@@ -2759,37 +2824,38 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK27" s="3"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>162</v>
+      </c>
+      <c r="C28" s="4">
         <v>144</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>137</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>132</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>124</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>109</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>89</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>81</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>70</v>
-      </c>
-      <c r="J28" s="4">
-        <v>52</v>
       </c>
       <c r="K28" s="4">
         <v>52</v>
@@ -2798,16 +2864,16 @@
         <v>52</v>
       </c>
       <c r="M28" s="4">
+        <v>52</v>
+      </c>
+      <c r="N28" s="4">
         <v>43</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>34</v>
       </c>
-      <c r="O28" s="4">
+      <c r="P28" s="4">
         <v>28</v>
-      </c>
-      <c r="P28" s="4">
-        <v>20</v>
       </c>
       <c r="Q28" s="4">
         <v>20</v>
@@ -2815,28 +2881,30 @@
       <c r="R28" s="4">
         <v>20</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="4">
+        <v>20</v>
+      </c>
+      <c r="T28" s="3">
         <v>7</v>
       </c>
-      <c r="T28" s="4">
-        <v>2</v>
-      </c>
-      <c r="U28" s="3">
-        <v>2</v>
-      </c>
-      <c r="V28" s="4">
-        <v>1</v>
+      <c r="U28" s="4">
+        <v>2</v>
+      </c>
+      <c r="V28" s="3">
+        <v>2</v>
       </c>
       <c r="W28" s="4">
         <v>1</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28" s="4">
         <v>1</v>
       </c>
       <c r="Y28" s="3">
         <v>1</v>
       </c>
-      <c r="Z28" s="3"/>
+      <c r="Z28" s="3">
+        <v>1</v>
+      </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -2847,34 +2915,35 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK28" s="3"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>251</v>
+      </c>
+      <c r="C29" s="4">
         <v>216</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>201</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>186</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>162</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>147</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>136</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>101</v>
-      </c>
-      <c r="I29" s="4">
-        <v>57</v>
       </c>
       <c r="J29" s="4">
         <v>57</v>
@@ -2886,16 +2955,16 @@
         <v>57</v>
       </c>
       <c r="M29" s="4">
+        <v>57</v>
+      </c>
+      <c r="N29" s="4">
         <v>41</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>25</v>
       </c>
-      <c r="O29" s="4">
+      <c r="P29" s="4">
         <v>16</v>
-      </c>
-      <c r="P29" s="4">
-        <v>10</v>
       </c>
       <c r="Q29" s="4">
         <v>10</v>
@@ -2903,20 +2972,20 @@
       <c r="R29" s="4">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="4">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>6</v>
       </c>
-      <c r="T29" s="4">
-        <v>4</v>
-      </c>
-      <c r="U29" s="3"/>
-      <c r="V29" s="4">
-        <v>1</v>
-      </c>
+      <c r="U29" s="4">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3"/>
       <c r="W29" s="4">
         <v>1</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="4">
         <v>1</v>
       </c>
       <c r="Y29" s="3">
@@ -2934,62 +3003,65 @@
       <c r="AC29" s="3">
         <v>1</v>
       </c>
-      <c r="AD29" s="3"/>
+      <c r="AD29" s="3">
+        <v>1</v>
+      </c>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK29" s="3"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>698</v>
+      </c>
+      <c r="C30" s="4">
         <v>671</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>657</v>
-      </c>
-      <c r="D30" s="4">
-        <v>543</v>
       </c>
       <c r="E30" s="4">
         <v>543</v>
       </c>
       <c r="F30" s="4">
+        <v>543</v>
+      </c>
+      <c r="G30" s="4">
         <v>450</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>352</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>275</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>250</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>236</v>
-      </c>
-      <c r="K30" s="4">
-        <v>175</v>
       </c>
       <c r="L30" s="4">
         <v>175</v>
       </c>
       <c r="M30" s="4">
+        <v>175</v>
+      </c>
+      <c r="N30" s="4">
         <v>126</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>112</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>87</v>
-      </c>
-      <c r="P30" s="4">
-        <v>38</v>
       </c>
       <c r="Q30" s="4">
         <v>38</v>
@@ -2997,41 +3069,41 @@
       <c r="R30" s="4">
         <v>38</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="4">
+        <v>38</v>
+      </c>
+      <c r="T30" s="3">
         <v>24</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <v>18</v>
       </c>
-      <c r="U30" s="3">
+      <c r="V30" s="3">
         <v>11</v>
       </c>
-      <c r="V30" s="4">
+      <c r="W30" s="4">
         <v>11</v>
       </c>
-      <c r="W30" s="4">
+      <c r="X30" s="4">
         <v>8</v>
-      </c>
-      <c r="X30" s="3">
-        <v>7</v>
       </c>
       <c r="Y30" s="3">
         <v>7</v>
       </c>
       <c r="Z30" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA30" s="3">
         <v>5</v>
       </c>
-      <c r="AA30" s="3">
-        <v>3</v>
-      </c>
       <c r="AB30" s="3">
         <v>3</v>
       </c>
       <c r="AC30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="3">
         <v>1</v>
@@ -3042,40 +3114,43 @@
       <c r="AG30" s="3">
         <v>1</v>
       </c>
-      <c r="AH30" s="3"/>
+      <c r="AH30" s="3">
+        <v>1</v>
+      </c>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK30" s="3"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C31" s="4">
         <v>112</v>
       </c>
       <c r="D31" s="4">
+        <v>112</v>
+      </c>
+      <c r="E31" s="4">
         <v>92</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>74</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>67</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>58</v>
-      </c>
-      <c r="H31" s="4">
-        <v>53</v>
       </c>
       <c r="I31" s="4">
         <v>53</v>
       </c>
       <c r="J31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K31" s="4">
         <v>36</v>
@@ -3084,10 +3159,10 @@
         <v>36</v>
       </c>
       <c r="M31" s="4">
+        <v>36</v>
+      </c>
+      <c r="N31" s="4">
         <v>33</v>
-      </c>
-      <c r="N31" s="4">
-        <v>31</v>
       </c>
       <c r="O31" s="4">
         <v>31</v>
@@ -3099,39 +3174,41 @@
         <v>31</v>
       </c>
       <c r="R31" s="4">
+        <v>31</v>
+      </c>
+      <c r="S31" s="4">
         <v>30</v>
       </c>
-      <c r="S31" s="3">
+      <c r="T31" s="3">
         <v>28</v>
       </c>
-      <c r="T31" s="4">
+      <c r="U31" s="4">
         <v>24</v>
       </c>
-      <c r="U31" s="3">
-        <v>24</v>
-      </c>
-      <c r="V31" s="4">
+      <c r="V31" s="3">
         <v>24</v>
       </c>
       <c r="W31" s="4">
         <v>24</v>
       </c>
-      <c r="X31" s="3">
-        <v>23</v>
+      <c r="X31" s="4">
+        <v>24</v>
       </c>
       <c r="Y31" s="3">
         <v>23</v>
       </c>
       <c r="Z31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AA31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB31" s="3">
         <v>1</v>
       </c>
-      <c r="AC31" s="3"/>
+      <c r="AC31" s="3">
+        <v>1</v>
+      </c>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
@@ -3139,34 +3216,35 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK31" s="3"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="4">
+        <v>226</v>
+      </c>
+      <c r="C32" s="4">
         <v>213</v>
-      </c>
-      <c r="C32" s="4">
-        <v>183</v>
       </c>
       <c r="D32" s="4">
         <v>183</v>
       </c>
       <c r="E32" s="4">
+        <v>183</v>
+      </c>
+      <c r="F32" s="4">
         <v>166</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>158</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>145</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>135</v>
-      </c>
-      <c r="I32" s="4">
-        <v>80</v>
       </c>
       <c r="J32" s="4">
         <v>80</v>
@@ -3178,13 +3256,13 @@
         <v>80</v>
       </c>
       <c r="M32" s="4">
+        <v>80</v>
+      </c>
+      <c r="N32" s="4">
         <v>73</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>71</v>
-      </c>
-      <c r="O32" s="4">
-        <v>27</v>
       </c>
       <c r="P32" s="4">
         <v>27</v>
@@ -3195,38 +3273,38 @@
       <c r="R32" s="4">
         <v>27</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="4">
+        <v>27</v>
+      </c>
+      <c r="T32" s="3">
         <v>22</v>
       </c>
-      <c r="T32" s="4">
+      <c r="U32" s="4">
         <v>12</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12</v>
-      </c>
-      <c r="V32" s="4">
-        <v>9</v>
       </c>
       <c r="W32" s="4">
         <v>9</v>
       </c>
-      <c r="X32" s="3">
-        <v>7</v>
+      <c r="X32" s="4">
+        <v>9</v>
       </c>
       <c r="Y32" s="3">
         <v>7</v>
       </c>
       <c r="Z32" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA32" s="3">
         <v>5</v>
       </c>
-      <c r="AA32" s="3">
-        <v>4</v>
-      </c>
       <c r="AB32" s="3">
         <v>4</v>
       </c>
       <c r="AC32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD32" s="3">
         <v>3</v>
@@ -3234,83 +3312,86 @@
       <c r="AE32" s="3">
         <v>3</v>
       </c>
-      <c r="AF32" s="3"/>
+      <c r="AF32" s="3">
+        <v>3</v>
+      </c>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK32" s="3"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4">
         <v>86</v>
-      </c>
-      <c r="C33" s="4">
-        <v>76</v>
       </c>
       <c r="D33" s="4">
         <v>76</v>
       </c>
       <c r="E33" s="4">
+        <v>76</v>
+      </c>
+      <c r="F33" s="4">
         <v>68</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>58</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>45</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>40</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>35</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>30</v>
-      </c>
-      <c r="K33" s="4">
-        <v>26</v>
       </c>
       <c r="L33" s="4">
         <v>26</v>
       </c>
       <c r="M33" s="4">
+        <v>26</v>
+      </c>
+      <c r="N33" s="4">
         <v>20</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>17</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <v>14</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>7</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="R33" s="4">
         <v>10</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>6</v>
       </c>
-      <c r="S33" s="3">
-        <v>4</v>
-      </c>
-      <c r="T33" s="4">
-        <v>2</v>
-      </c>
-      <c r="U33" s="3">
-        <v>2</v>
-      </c>
-      <c r="V33" s="4">
-        <v>1</v>
+      <c r="T33" s="3">
+        <v>4</v>
+      </c>
+      <c r="U33" s="4">
+        <v>2</v>
+      </c>
+      <c r="V33" s="3">
+        <v>2</v>
       </c>
       <c r="W33" s="4">
         <v>1</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="4">
         <v>1</v>
       </c>
       <c r="Y33" s="3">
@@ -3319,7 +3400,9 @@
       <c r="Z33" s="3">
         <v>1</v>
       </c>
-      <c r="AA33" s="3"/>
+      <c r="AA33" s="3">
+        <v>1</v>
+      </c>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
@@ -3329,8 +3412,9 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK33" s="3"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
@@ -3338,78 +3422,80 @@
         <v>316</v>
       </c>
       <c r="C34" s="4">
+        <v>316</v>
+      </c>
+      <c r="D34" s="4">
         <v>276</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>245</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>197</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>175</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>135</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>120</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>104</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>82</v>
-      </c>
-      <c r="K34" s="4">
-        <v>71</v>
       </c>
       <c r="L34" s="4">
         <v>71</v>
       </c>
       <c r="M34" s="4">
+        <v>71</v>
+      </c>
+      <c r="N34" s="4">
         <v>55</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>45</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>38</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>28</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <v>25</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>22</v>
       </c>
-      <c r="S34" s="3">
+      <c r="T34" s="3">
         <v>16</v>
       </c>
-      <c r="T34" s="4">
+      <c r="U34" s="4">
         <v>13</v>
       </c>
-      <c r="U34" s="3">
+      <c r="V34" s="3">
         <v>13</v>
-      </c>
-      <c r="V34" s="4">
-        <v>12</v>
       </c>
       <c r="W34" s="4">
         <v>12</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X34" s="4">
+        <v>12</v>
+      </c>
+      <c r="Y34" s="3">
         <v>7</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Z34" s="3">
         <v>6</v>
       </c>
-      <c r="Z34" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA34" s="3"/>
+      <c r="AA34" s="3">
+        <v>2</v>
+      </c>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
@@ -3419,79 +3505,80 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK34" s="3"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>298</v>
+      </c>
+      <c r="C35" s="4">
         <v>273</v>
-      </c>
-      <c r="C35" s="4">
-        <v>256</v>
       </c>
       <c r="D35" s="4">
         <v>256</v>
       </c>
       <c r="E35" s="4">
+        <v>256</v>
+      </c>
+      <c r="F35" s="4">
         <v>236</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>224</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>171</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>140</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>121</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>113</v>
-      </c>
-      <c r="K35" s="4">
-        <v>91</v>
       </c>
       <c r="L35" s="4">
         <v>91</v>
       </c>
       <c r="M35" s="4">
+        <v>91</v>
+      </c>
+      <c r="N35" s="4">
         <v>85</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>46</v>
       </c>
-      <c r="O35" s="4">
+      <c r="P35" s="4">
         <v>41</v>
-      </c>
-      <c r="P35" s="4">
-        <v>31</v>
       </c>
       <c r="Q35" s="4">
         <v>31</v>
       </c>
       <c r="R35" s="4">
+        <v>31</v>
+      </c>
+      <c r="S35" s="4">
         <v>20</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13</v>
       </c>
-      <c r="T35" s="4">
+      <c r="U35" s="4">
         <v>7</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5</v>
       </c>
-      <c r="V35" s="4">
-        <v>4</v>
-      </c>
       <c r="W35" s="4">
         <v>4</v>
       </c>
-      <c r="X35" s="3">
-        <v>3</v>
+      <c r="X35" s="4">
+        <v>4</v>
       </c>
       <c r="Y35" s="3">
         <v>3</v>
@@ -3506,83 +3593,88 @@
         <v>3</v>
       </c>
       <c r="AC35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>1</v>
+      </c>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK35" s="3"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
+        <v>46</v>
+      </c>
+      <c r="C36" s="4">
         <v>40</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>34</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>29</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>25</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>22</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>20</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>19</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>18</v>
-      </c>
-      <c r="J36" s="4">
-        <v>16</v>
       </c>
       <c r="K36" s="4">
         <v>16</v>
       </c>
       <c r="L36" s="4">
+        <v>16</v>
+      </c>
+      <c r="M36" s="4">
         <v>14</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>11</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>7</v>
       </c>
-      <c r="O36" s="4">
+      <c r="P36" s="4">
         <v>6</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <v>5</v>
       </c>
-      <c r="Q36" s="4">
-        <v>4</v>
-      </c>
       <c r="R36" s="4">
         <v>4</v>
       </c>
-      <c r="S36" s="3">
-        <v>4</v>
-      </c>
-      <c r="T36" s="4">
-        <v>4</v>
-      </c>
-      <c r="U36" s="3">
-        <v>3</v>
-      </c>
-      <c r="V36" s="4"/>
+      <c r="S36" s="4">
+        <v>4</v>
+      </c>
+      <c r="T36" s="3">
+        <v>4</v>
+      </c>
+      <c r="U36" s="4">
+        <v>4</v>
+      </c>
+      <c r="V36" s="3">
+        <v>3</v>
+      </c>
       <c r="W36" s="4"/>
-      <c r="X36" s="3"/>
+      <c r="X36" s="4"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
@@ -3595,84 +3687,87 @@
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK36" s="3"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>286</v>
+      </c>
+      <c r="C37" s="4">
         <v>277</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>252</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>240</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>222</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>194</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>180</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>156</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>146</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>100</v>
-      </c>
-      <c r="K37" s="4">
-        <v>81</v>
       </c>
       <c r="L37" s="4">
         <v>81</v>
       </c>
       <c r="M37" s="4">
+        <v>81</v>
+      </c>
+      <c r="N37" s="4">
         <v>64</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>53</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <v>37</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>34</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <v>26</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>19</v>
       </c>
-      <c r="S37" s="3">
+      <c r="T37" s="3">
         <v>12</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <v>11</v>
       </c>
-      <c r="U37" s="3">
-        <v>3</v>
-      </c>
-      <c r="V37" s="4">
-        <v>4</v>
+      <c r="V37" s="3">
+        <v>3</v>
       </c>
       <c r="W37" s="4">
-        <v>3</v>
-      </c>
-      <c r="X37" s="3">
+        <v>4</v>
+      </c>
+      <c r="X37" s="4">
         <v>3</v>
       </c>
       <c r="Y37" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>2</v>
+      </c>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
@@ -3683,37 +3778,38 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK37" s="3"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>340</v>
+      </c>
+      <c r="C38" s="4">
         <v>321</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>320</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>318</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>304</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>281</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>255</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>176</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>127</v>
-      </c>
-      <c r="J38" s="4">
-        <v>110</v>
       </c>
       <c r="K38" s="4">
         <v>110</v>
@@ -3722,51 +3818,53 @@
         <v>110</v>
       </c>
       <c r="M38" s="4">
+        <v>110</v>
+      </c>
+      <c r="N38" s="4">
         <v>88</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>55</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <v>13</v>
       </c>
-      <c r="P38" s="4">
+      <c r="Q38" s="4">
         <v>12</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>8</v>
       </c>
       <c r="R38" s="4">
         <v>8</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38" s="4">
         <v>8</v>
       </c>
-      <c r="T38" s="4">
+      <c r="T38" s="3">
+        <v>8</v>
+      </c>
+      <c r="U38" s="4">
         <v>5</v>
       </c>
-      <c r="U38" s="3">
+      <c r="V38" s="3">
         <v>5</v>
       </c>
-      <c r="V38" s="4">
+      <c r="W38" s="4">
         <v>6</v>
       </c>
-      <c r="W38" s="4">
-        <v>3</v>
-      </c>
-      <c r="X38" s="3">
+      <c r="X38" s="4">
         <v>3</v>
       </c>
       <c r="Y38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z38" s="3">
         <v>2</v>
       </c>
       <c r="AA38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>1</v>
+      </c>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
@@ -3775,13 +3873,14 @@
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK38" s="3"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="C39" s="4">
         <v>285</v>
@@ -3793,16 +3892,16 @@
         <v>285</v>
       </c>
       <c r="F39" s="4">
+        <v>285</v>
+      </c>
+      <c r="G39" s="4">
         <v>243</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>190</v>
       </c>
-      <c r="H39" s="4">
+      <c r="I39" s="4">
         <v>172</v>
-      </c>
-      <c r="I39" s="4">
-        <v>117</v>
       </c>
       <c r="J39" s="4">
         <v>117</v>
@@ -3814,16 +3913,16 @@
         <v>117</v>
       </c>
       <c r="M39" s="4">
+        <v>117</v>
+      </c>
+      <c r="N39" s="4">
         <v>79</v>
-      </c>
-      <c r="N39" s="4">
-        <v>49</v>
       </c>
       <c r="O39" s="4">
         <v>49</v>
       </c>
       <c r="P39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="Q39" s="4">
         <v>23</v>
@@ -3831,116 +3930,121 @@
       <c r="R39" s="4">
         <v>23</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39" s="4">
         <v>23</v>
       </c>
-      <c r="T39" s="4">
+      <c r="T39" s="3">
+        <v>23</v>
+      </c>
+      <c r="U39" s="4">
         <v>10</v>
       </c>
-      <c r="U39" s="3">
+      <c r="V39" s="3">
         <v>5</v>
       </c>
-      <c r="V39" s="4">
+      <c r="W39" s="4">
         <v>6</v>
       </c>
-      <c r="W39" s="4">
+      <c r="X39" s="4">
         <v>5</v>
       </c>
-      <c r="X39" s="3">
+      <c r="Y39" s="3">
         <v>5</v>
       </c>
-      <c r="Y39" s="3">
-        <v>4</v>
-      </c>
       <c r="Z39" s="3">
         <v>4</v>
       </c>
       <c r="AA39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB39" s="3">
         <v>2</v>
       </c>
       <c r="AC39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>1</v>
+      </c>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK39" s="3"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>325</v>
+      </c>
+      <c r="C40" s="4">
         <v>260</v>
-      </c>
-      <c r="C40" s="4">
-        <v>249</v>
       </c>
       <c r="D40" s="4">
         <v>249</v>
       </c>
       <c r="E40" s="4">
+        <v>249</v>
+      </c>
+      <c r="F40" s="4">
         <v>235</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>200</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>167</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>117</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>113</v>
-      </c>
-      <c r="J40" s="4">
-        <v>95</v>
       </c>
       <c r="K40" s="4">
         <v>95</v>
       </c>
       <c r="L40" s="4">
+        <v>95</v>
+      </c>
+      <c r="M40" s="4">
         <v>94</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <v>43</v>
       </c>
-      <c r="N40" s="4">
+      <c r="O40" s="4">
         <v>33</v>
-      </c>
-      <c r="O40" s="4">
-        <v>31</v>
       </c>
       <c r="P40" s="4">
         <v>31</v>
       </c>
       <c r="Q40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="R40" s="4">
         <v>19</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40" s="4">
+        <v>19</v>
+      </c>
+      <c r="T40" s="3">
         <v>11</v>
       </c>
-      <c r="T40" s="4">
+      <c r="U40" s="4">
         <v>7</v>
       </c>
-      <c r="U40" s="3">
+      <c r="V40" s="3">
         <v>5</v>
       </c>
-      <c r="V40" s="4">
-        <v>1</v>
-      </c>
-      <c r="W40" s="4"/>
-      <c r="X40" s="3"/>
+      <c r="W40" s="4">
+        <v>1</v>
+      </c>
+      <c r="X40" s="4"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
@@ -3953,55 +4057,56 @@
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK40" s="3"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>590</v>
+      </c>
+      <c r="C41" s="4">
         <v>564</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>502</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>477</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>405</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>396</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>357</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>317</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>276</v>
-      </c>
-      <c r="J41" s="4">
-        <v>240</v>
       </c>
       <c r="K41" s="4">
         <v>240</v>
       </c>
       <c r="L41" s="4">
+        <v>240</v>
+      </c>
+      <c r="M41" s="4">
         <v>215</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>144</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>127</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>76</v>
-      </c>
-      <c r="P41" s="4">
-        <v>38</v>
       </c>
       <c r="Q41" s="4">
         <v>38</v>
@@ -4009,38 +4114,38 @@
       <c r="R41" s="4">
         <v>38</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="4">
+        <v>38</v>
+      </c>
+      <c r="T41" s="3">
         <v>28</v>
       </c>
-      <c r="T41" s="4">
+      <c r="U41" s="4">
         <v>28</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18</v>
       </c>
-      <c r="V41" s="4">
+      <c r="W41" s="4">
         <v>14</v>
       </c>
-      <c r="W41" s="4">
+      <c r="X41" s="4">
         <v>13</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7</v>
       </c>
-      <c r="Z41" s="3">
-        <v>4</v>
-      </c>
       <c r="AA41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD41" s="3">
         <v>1</v>
@@ -4054,37 +4159,40 @@
       <c r="AG41" s="3">
         <v>1</v>
       </c>
-      <c r="AH41" s="3"/>
+      <c r="AH41" s="3">
+        <v>1</v>
+      </c>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK41" s="3"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
+        <v>152</v>
+      </c>
+      <c r="C42" s="4">
         <v>109</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>108</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>98</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>87</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>60</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>29</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>9</v>
-      </c>
-      <c r="I42" s="4">
-        <v>8</v>
       </c>
       <c r="J42" s="4">
         <v>8</v>
@@ -4093,42 +4201,42 @@
         <v>8</v>
       </c>
       <c r="L42" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42" s="4">
+        <v>3</v>
+      </c>
+      <c r="P42" s="4">
         <v>5</v>
       </c>
-      <c r="P42" s="4">
-        <v>4</v>
-      </c>
       <c r="Q42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R42" s="4">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
-        <v>2</v>
-      </c>
-      <c r="T42" s="4">
-        <v>1</v>
-      </c>
-      <c r="U42" s="3">
-        <v>1</v>
-      </c>
-      <c r="V42" s="4">
+      <c r="S42" s="4">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3">
+        <v>2</v>
+      </c>
+      <c r="U42" s="4">
+        <v>1</v>
+      </c>
+      <c r="V42" s="3">
         <v>1</v>
       </c>
       <c r="W42" s="4">
         <v>1</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="4">
         <v>1</v>
       </c>
       <c r="Y42" s="3">
@@ -4164,56 +4272,59 @@
       <c r="AI42" s="3">
         <v>1</v>
       </c>
-      <c r="AJ42" s="3"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="3"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>343</v>
+      </c>
+      <c r="C43" s="4">
         <v>316</v>
-      </c>
-      <c r="C43" s="4">
-        <v>287</v>
       </c>
       <c r="D43" s="4">
         <v>287</v>
       </c>
       <c r="E43" s="4">
+        <v>287</v>
+      </c>
+      <c r="F43" s="4">
         <v>253</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>206</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>175</v>
       </c>
-      <c r="H43" s="4">
+      <c r="I43" s="4">
         <v>148</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>145</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>111</v>
-      </c>
-      <c r="K43" s="4">
-        <v>98</v>
       </c>
       <c r="L43" s="4">
         <v>98</v>
       </c>
       <c r="M43" s="4">
+        <v>98</v>
+      </c>
+      <c r="N43" s="4">
         <v>61</v>
       </c>
-      <c r="N43" s="4">
+      <c r="O43" s="4">
         <v>47</v>
       </c>
-      <c r="O43" s="4">
+      <c r="P43" s="4">
         <v>34</v>
-      </c>
-      <c r="P43" s="4">
-        <v>21</v>
       </c>
       <c r="Q43" s="4">
         <v>21</v>
@@ -4221,20 +4332,22 @@
       <c r="R43" s="4">
         <v>21</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="4">
+        <v>21</v>
+      </c>
+      <c r="T43" s="3">
         <v>17</v>
       </c>
-      <c r="T43" s="4">
+      <c r="U43" s="4">
         <v>15</v>
       </c>
-      <c r="U43" s="3"/>
-      <c r="V43" s="4">
-        <v>1</v>
-      </c>
+      <c r="V43" s="3"/>
       <c r="W43" s="4">
         <v>1</v>
       </c>
-      <c r="X43" s="3"/>
+      <c r="X43" s="4">
+        <v>1</v>
+      </c>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
@@ -4247,8 +4360,9 @@
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK43" s="3"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -4256,46 +4370,46 @@
         <v>187</v>
       </c>
       <c r="C44" s="4">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D44" s="4">
         <v>170</v>
       </c>
       <c r="E44" s="4">
+        <v>170</v>
+      </c>
+      <c r="F44" s="4">
         <v>137</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>127</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>123</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>81</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>78</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>69</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>48</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>39</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>28</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>27</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <v>16</v>
-      </c>
-      <c r="P44" s="4">
-        <v>6</v>
       </c>
       <c r="Q44" s="4">
         <v>6</v>
@@ -4303,28 +4417,30 @@
       <c r="R44" s="4">
         <v>6</v>
       </c>
-      <c r="S44" s="3">
-        <v>3</v>
-      </c>
-      <c r="T44" s="4">
-        <v>2</v>
-      </c>
-      <c r="U44" s="3">
-        <v>2</v>
-      </c>
-      <c r="V44" s="4">
-        <v>1</v>
+      <c r="S44" s="4">
+        <v>6</v>
+      </c>
+      <c r="T44" s="3">
+        <v>3</v>
+      </c>
+      <c r="U44" s="4">
+        <v>2</v>
+      </c>
+      <c r="V44" s="3">
+        <v>2</v>
       </c>
       <c r="W44" s="4">
         <v>1</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="4">
         <v>1</v>
       </c>
       <c r="Y44" s="3">
         <v>1</v>
       </c>
-      <c r="Z44" s="3"/>
+      <c r="Z44" s="3">
+        <v>1</v>
+      </c>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
@@ -4335,78 +4451,79 @@
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK44" s="3"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>341</v>
+      </c>
+      <c r="C45" s="4">
         <v>311</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>299</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>290</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>235</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>184</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>161</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>123</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>99</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>83</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>82</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>67</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>41</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>28</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>22</v>
       </c>
-      <c r="P45" s="4">
+      <c r="Q45" s="4">
         <v>16</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>12</v>
       </c>
       <c r="R45" s="4">
         <v>12</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="4">
+        <v>12</v>
+      </c>
+      <c r="T45" s="3">
         <v>6</v>
       </c>
-      <c r="T45" s="4">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>3</v>
-      </c>
-      <c r="V45" s="4">
+      <c r="U45" s="4">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
         <v>3</v>
       </c>
       <c r="W45" s="4">
-        <v>1</v>
-      </c>
-      <c r="X45" s="3">
+        <v>3</v>
+      </c>
+      <c r="X45" s="4">
         <v>1</v>
       </c>
       <c r="Y45" s="3">
@@ -4421,7 +4538,9 @@
       <c r="AB45" s="3">
         <v>1</v>
       </c>
-      <c r="AC45" s="3"/>
+      <c r="AC45" s="3">
+        <v>1</v>
+      </c>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
@@ -4429,46 +4548,47 @@
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK45" s="3"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>784</v>
+      </c>
+      <c r="C46" s="4">
         <v>705</v>
-      </c>
-      <c r="C46" s="4">
-        <v>685</v>
       </c>
       <c r="D46" s="4">
         <v>685</v>
       </c>
       <c r="E46" s="4">
+        <v>685</v>
+      </c>
+      <c r="F46" s="4">
         <v>635</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>561</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>504</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>451</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>441</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>350</v>
-      </c>
-      <c r="K46" s="4">
-        <v>308</v>
       </c>
       <c r="L46" s="4">
         <v>308</v>
       </c>
       <c r="M46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="N46" s="4">
         <v>196</v>
@@ -4477,7 +4597,7 @@
         <v>196</v>
       </c>
       <c r="P46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="Q46" s="4">
         <v>60</v>
@@ -4485,37 +4605,39 @@
       <c r="R46" s="4">
         <v>60</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="4">
+        <v>60</v>
+      </c>
+      <c r="T46" s="3">
         <v>40</v>
       </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4">
         <v>35</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>24</v>
       </c>
-      <c r="V46" s="4">
+      <c r="W46" s="4">
         <v>19</v>
       </c>
-      <c r="W46" s="4">
+      <c r="X46" s="4">
         <v>10</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8</v>
       </c>
-      <c r="Z46" s="3">
-        <v>4</v>
-      </c>
       <c r="AA46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB46" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>2</v>
+      </c>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
@@ -4523,79 +4645,80 @@
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK46" s="3"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>655</v>
+      </c>
+      <c r="C47" s="4">
         <v>636</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>630</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>556</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>525</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>377</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>324</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>161</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>144</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>133</v>
-      </c>
-      <c r="K47" s="4">
-        <v>112</v>
       </c>
       <c r="L47" s="4">
         <v>112</v>
       </c>
       <c r="M47" s="4">
+        <v>112</v>
+      </c>
+      <c r="N47" s="4">
         <v>93</v>
       </c>
-      <c r="N47" s="4">
+      <c r="O47" s="4">
         <v>85</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>67</v>
       </c>
-      <c r="P47" s="4">
+      <c r="Q47" s="4">
         <v>61</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <v>41</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <v>23</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9</v>
       </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4">
         <v>9</v>
       </c>
-      <c r="U47" s="3">
-        <v>3</v>
-      </c>
-      <c r="V47" s="4">
+      <c r="V47" s="3">
+        <v>3</v>
+      </c>
+      <c r="W47" s="4">
         <v>5</v>
       </c>
-      <c r="W47" s="4">
-        <v>3</v>
-      </c>
-      <c r="X47" s="3">
-        <v>2</v>
+      <c r="X47" s="4">
+        <v>3</v>
       </c>
       <c r="Y47" s="3">
         <v>2</v>
@@ -4630,53 +4753,56 @@
       <c r="AI47" s="3">
         <v>2</v>
       </c>
-      <c r="AJ47" s="3"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK47" s="3"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>167</v>
+      </c>
+      <c r="C48" s="4">
         <v>142</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>137</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>111</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>85</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>74</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>40</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>32</v>
-      </c>
-      <c r="I48" s="4">
-        <v>15</v>
       </c>
       <c r="J48" s="4">
         <v>15</v>
       </c>
       <c r="K48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L48" s="4">
         <v>13</v>
       </c>
       <c r="M48" s="4">
+        <v>13</v>
+      </c>
+      <c r="N48" s="4">
         <v>10</v>
       </c>
-      <c r="N48" s="4">
+      <c r="O48" s="4">
         <v>7</v>
-      </c>
-      <c r="O48" s="4">
-        <v>5</v>
       </c>
       <c r="P48" s="4">
         <v>5</v>
@@ -4685,14 +4811,16 @@
         <v>5</v>
       </c>
       <c r="R48" s="4">
-        <v>3</v>
-      </c>
-      <c r="S48" s="3"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="S48" s="4">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="3"/>
       <c r="W48" s="4"/>
-      <c r="X48" s="3"/>
+      <c r="X48" s="4"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
@@ -4705,80 +4833,81 @@
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK48" s="3"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="4">
+        <v>118</v>
+      </c>
+      <c r="C49" s="4">
         <v>112</v>
-      </c>
-      <c r="C49" s="4">
-        <v>103</v>
       </c>
       <c r="D49" s="4">
         <v>103</v>
       </c>
       <c r="E49" s="4">
+        <v>103</v>
+      </c>
+      <c r="F49" s="4">
         <v>89</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>81</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>72</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>58</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>53</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>40</v>
-      </c>
-      <c r="K49" s="4">
-        <v>35</v>
       </c>
       <c r="L49" s="4">
         <v>35</v>
       </c>
       <c r="M49" s="4">
+        <v>35</v>
+      </c>
+      <c r="N49" s="4">
         <v>21</v>
-      </c>
-      <c r="N49" s="4">
-        <v>19</v>
       </c>
       <c r="O49" s="4">
         <v>19</v>
       </c>
       <c r="P49" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="4">
         <v>13</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="4">
         <v>12</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <v>7</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <v>5</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5</v>
       </c>
-      <c r="V49" s="4">
+      <c r="W49" s="4">
         <v>6</v>
       </c>
-      <c r="W49" s="4">
+      <c r="X49" s="4">
         <v>5</v>
       </c>
-      <c r="X49" s="3">
-        <v>4</v>
-      </c>
       <c r="Y49" s="3">
         <v>4</v>
       </c>
@@ -4792,63 +4921,66 @@
         <v>4</v>
       </c>
       <c r="AC49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD49" s="3">
         <v>1</v>
       </c>
-      <c r="AE49" s="3"/>
+      <c r="AE49" s="3">
+        <v>1</v>
+      </c>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK49" s="3"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>98</v>
+      </c>
+      <c r="C50" s="4">
         <v>91</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>83</v>
-      </c>
-      <c r="D50" s="4">
-        <v>61</v>
       </c>
       <c r="E50" s="4">
         <v>61</v>
       </c>
       <c r="F50" s="4">
+        <v>61</v>
+      </c>
+      <c r="G50" s="4">
         <v>51</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>48</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
         <v>40</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>25</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <v>15</v>
-      </c>
-      <c r="K50" s="4">
-        <v>13</v>
       </c>
       <c r="L50" s="4">
         <v>13</v>
       </c>
       <c r="M50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N50" s="4">
         <v>5</v>
       </c>
       <c r="O50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P50" s="4">
         <v>4</v>
@@ -4857,16 +4989,18 @@
         <v>4</v>
       </c>
       <c r="R50" s="4">
-        <v>3</v>
-      </c>
-      <c r="S50" s="3">
-        <v>1</v>
-      </c>
-      <c r="T50" s="4"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="S50" s="4">
+        <v>3</v>
+      </c>
+      <c r="T50" s="3">
+        <v>1</v>
+      </c>
+      <c r="U50" s="4"/>
+      <c r="V50" s="3"/>
       <c r="W50" s="4"/>
-      <c r="X50" s="3"/>
+      <c r="X50" s="4"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
@@ -4879,37 +5013,38 @@
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK50" s="3"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C51" s="4">
         <v>346</v>
       </c>
       <c r="D51" s="4">
+        <v>346</v>
+      </c>
+      <c r="E51" s="4">
         <v>336</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>232</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>219</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>184</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>151</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>109</v>
-      </c>
-      <c r="J51" s="4">
-        <v>70</v>
       </c>
       <c r="K51" s="4">
         <v>70</v>
@@ -4918,39 +5053,39 @@
         <v>70</v>
       </c>
       <c r="M51" s="4">
+        <v>70</v>
+      </c>
+      <c r="N51" s="4">
         <v>60</v>
       </c>
-      <c r="N51" s="4">
+      <c r="O51" s="4">
         <v>51</v>
-      </c>
-      <c r="O51" s="4">
-        <v>33</v>
       </c>
       <c r="P51" s="4">
         <v>33</v>
       </c>
       <c r="Q51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="R51" s="4">
         <v>21</v>
       </c>
-      <c r="S51" s="3">
+      <c r="S51" s="4">
         <v>21</v>
       </c>
-      <c r="T51" s="4">
+      <c r="T51" s="3">
         <v>21</v>
       </c>
-      <c r="U51" s="3">
+      <c r="U51" s="4">
+        <v>21</v>
+      </c>
+      <c r="V51" s="3">
         <v>19</v>
       </c>
-      <c r="V51" s="4">
+      <c r="W51" s="4">
         <v>15</v>
       </c>
-      <c r="W51" s="4">
-        <v>11</v>
-      </c>
-      <c r="X51" s="3">
+      <c r="X51" s="4">
         <v>11</v>
       </c>
       <c r="Y51" s="3">
@@ -4963,168 +5098,175 @@
         <v>11</v>
       </c>
       <c r="AB51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AC51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD51" s="3">
         <v>1</v>
       </c>
-      <c r="AE51" s="3"/>
+      <c r="AE51" s="3">
+        <v>1</v>
+      </c>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
-    </row>
-    <row r="52" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK51" s="3"/>
+    </row>
+    <row r="52" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
+        <v>13313</v>
+      </c>
+      <c r="C52" s="15">
+        <f>SUM(C8:C51)</f>
         <v>12257</v>
       </c>
-      <c r="C52" s="15">
-        <f t="shared" ref="C52:H52" si="0">SUM(C8:C51)</f>
+      <c r="D52" s="15">
+        <f t="shared" ref="D52:I52" si="0">SUM(D8:D51)</f>
         <v>11536</v>
       </c>
-      <c r="D52" s="15">
+      <c r="E52" s="15">
         <f t="shared" si="0"/>
         <v>10819</v>
       </c>
-      <c r="E52" s="15">
+      <c r="F52" s="15">
         <f t="shared" si="0"/>
         <v>9729</v>
       </c>
-      <c r="F52" s="15">
+      <c r="G52" s="15">
         <f t="shared" si="0"/>
         <v>8441</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>7252</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>6043</v>
       </c>
-      <c r="I52" s="15">
-        <f t="shared" ref="I52:N52" si="1">SUM(I8:I51)</f>
+      <c r="J52" s="15">
+        <f t="shared" ref="J52:O52" si="1">SUM(J8:J51)</f>
         <v>5333</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <f t="shared" si="1"/>
         <v>3818</v>
       </c>
-      <c r="L52" s="15">
+      <c r="M52" s="15">
         <f t="shared" si="1"/>
         <v>3665</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="15">
         <f t="shared" si="1"/>
         <v>2748</v>
       </c>
-      <c r="N52" s="14">
+      <c r="O52" s="14">
         <f t="shared" si="1"/>
         <v>2184</v>
       </c>
-      <c r="O52" s="5">
-        <f t="shared" ref="O52:AJ52" si="2">SUM(O8:O51)</f>
+      <c r="P52" s="5">
+        <f t="shared" ref="P52:AK52" si="2">SUM(P8:P51)</f>
         <v>1641</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="2"/>
         <v>1105</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="2"/>
         <v>977</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="2"/>
         <v>827</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="2"/>
         <v>569</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="2"/>
         <v>454</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="2"/>
         <v>199</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AB52" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AC52" s="5">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="AC52" s="5">
+      <c r="AD52" s="5">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="AD52" s="5">
+      <c r="AE52" s="5">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="AE52" s="5">
+      <c r="AF52" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AF52" s="5">
+      <c r="AG52" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="AG52" s="5">
+      <c r="AH52" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AH52" s="5">
+      <c r="AI52" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AI52" s="5">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
       <c r="AJ52" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:36" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="AK52" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:37" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -5149,16 +5291,17 @@
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ajrE8z8qRa/ynqOIUw06ktVIzX3WJaSROL0bRtArioi6ZsBA0kYUCcifW3bxKFWloxGSDh3hI2AzDYjOg1bY2A==" saltValue="4p/TlCVCMhVQOWQaGWvXfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Mo5FF+dcw7yu1sJf/dfgEj/kIiGjauu4UE7dkaOqCltSt7vLPcmG3Fwn4p4xxppKc4w6Pa/BUkwMOsN32uO3xw==" saltValue="TcmMC+/arimWOxAEqQ5SrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A54:W54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M52:AJ52 I52:K52 B52:G52" formulaRange="1"/>
+    <ignoredError sqref="N52:AK52 J52:L52 B52:H52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5168,7 +5311,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T54"/>
+  <dimension ref="A2:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
@@ -5177,22 +5320,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="20" width="11.140625" customWidth="1"/>
+    <col min="2" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="21" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R3" s="9"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -5253,68 +5396,74 @@
       <c r="T6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43921</v>
+      </c>
+      <c r="C7" s="13">
         <v>43920</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43919</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43918</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43917</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43916</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43915</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43914</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43913</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43912</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43911</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43910</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43909</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43908</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>43907</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>43906</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43905</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43904</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43903</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43902</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -5335,10 +5484,11 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S8" s="4"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -5346,7 +5496,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -5358,12 +5508,14 @@
         <v>2</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -5373,10 +5525,11 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S9" s="4"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -5392,7 +5545,9 @@
       <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -5405,18 +5560,19 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S10" s="4"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
         <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7</v>
       </c>
       <c r="D11" s="4">
         <v>7</v>
@@ -5425,12 +5581,14 @@
         <v>7</v>
       </c>
       <c r="F11" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -5441,10 +5599,11 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S11" s="4"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -5454,7 +5613,9 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -5469,29 +5630,32 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S12" s="4"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4">
         <v>7</v>
       </c>
       <c r="D13" s="4">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
       <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5503,10 +5667,11 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S13" s="4"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5532,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
@@ -5540,34 +5705,37 @@
       <c r="K14" s="4">
         <v>1</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="4"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>8</v>
-      </c>
-      <c r="D15" s="11">
-        <v>7</v>
       </c>
       <c r="E15" s="11">
         <v>7</v>
       </c>
       <c r="F15" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15" s="11">
         <v>5</v>
@@ -5579,7 +5747,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" s="11">
         <v>4</v>
@@ -5588,24 +5756,27 @@
         <v>4</v>
       </c>
       <c r="M15" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" s="11">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1</v>
+      </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S15" s="11"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -5622,7 +5793,9 @@
       <c r="G16" s="4">
         <v>1</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -5633,21 +5806,22 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S16" s="4"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>7</v>
-      </c>
-      <c r="D17" s="4">
-        <v>6</v>
       </c>
       <c r="E17" s="4">
         <v>6</v>
@@ -5656,7 +5830,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" s="4">
         <v>3</v>
@@ -5668,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="4">
         <v>2</v>
@@ -5677,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" s="4">
         <v>1</v>
@@ -5691,32 +5865,35 @@
       <c r="R17" s="4">
         <v>1</v>
       </c>
-      <c r="S17" s="3">
-        <v>1</v>
-      </c>
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
         <v>11</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>6</v>
-      </c>
-      <c r="D18" s="4">
-        <v>5</v>
       </c>
       <c r="E18" s="4">
         <v>5</v>
       </c>
       <c r="F18" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
         <v>2</v>
@@ -5728,19 +5905,22 @@
         <v>2</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S18" s="4"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5761,10 +5941,11 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -5772,7 +5953,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -5784,7 +5965,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
@@ -5819,12 +6000,15 @@
       <c r="R20" s="4">
         <v>1</v>
       </c>
-      <c r="S20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -5845,10 +6029,11 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S21" s="4"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -5856,7 +6041,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
@@ -5865,10 +6050,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
@@ -5876,7 +6061,9 @@
       <c r="I22" s="4">
         <v>1</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -5885,15 +6072,16 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="4"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" s="11">
         <v>5</v>
@@ -5908,13 +6096,13 @@
         <v>5</v>
       </c>
       <c r="G23" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" s="11">
         <v>4</v>
       </c>
       <c r="I23" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="11">
         <v>3</v>
@@ -5923,10 +6111,10 @@
         <v>3</v>
       </c>
       <c r="L23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" s="11">
         <v>1</v>
@@ -5934,13 +6122,16 @@
       <c r="O23" s="11">
         <v>1</v>
       </c>
-      <c r="P23" s="11"/>
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="11"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S23" s="11"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="11"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -5961,10 +6152,11 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="11"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="11"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -5972,14 +6164,14 @@
         <v>9</v>
       </c>
       <c r="C25" s="4">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4">
         <v>6</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>5</v>
       </c>
-      <c r="E25" s="4">
-        <v>3</v>
-      </c>
       <c r="F25" s="4">
         <v>3</v>
       </c>
@@ -5993,13 +6185,13 @@
         <v>3</v>
       </c>
       <c r="J25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" s="4">
         <v>2</v>
       </c>
       <c r="L25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="4">
         <v>1</v>
@@ -6007,19 +6199,22 @@
       <c r="N25" s="4">
         <v>1</v>
       </c>
-      <c r="O25" s="4"/>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S25" s="4"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="11">
         <v>3</v>
@@ -6028,7 +6223,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="11">
         <v>1</v>
@@ -6036,7 +6231,9 @@
       <c r="G26" s="11">
         <v>1</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="11">
+        <v>1</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -6047,14 +6244,17 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="11"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S26" s="11"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="11"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -6071,15 +6271,16 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="11"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S27" s="11"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="11"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -6093,7 +6294,9 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -6105,15 +6308,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S28" s="4"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -6130,7 +6334,9 @@
       <c r="G29" s="4">
         <v>3</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4">
+        <v>3</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -6141,21 +6347,22 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S29" s="4"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4">
         <v>6</v>
       </c>
-      <c r="C30" s="4">
-        <v>4</v>
-      </c>
       <c r="D30" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -6164,12 +6371,14 @@
         <v>3</v>
       </c>
       <c r="G30" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" s="4">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -6179,10 +6388,11 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="4"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S30" s="4"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -6203,10 +6413,11 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="4"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S31" s="4"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -6227,10 +6438,11 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S32" s="4"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -6238,7 +6450,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -6252,7 +6464,9 @@
       <c r="G33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -6263,31 +6477,32 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S33" s="4"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>18</v>
+      </c>
+      <c r="C34" s="4">
         <v>15</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>11</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>10</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>8</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>5</v>
       </c>
-      <c r="G34" s="4">
-        <v>4</v>
-      </c>
       <c r="H34" s="4">
         <v>4</v>
       </c>
@@ -6298,13 +6513,13 @@
         <v>4</v>
       </c>
       <c r="K34" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L34" s="4">
         <v>2</v>
       </c>
       <c r="M34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" s="4">
         <v>1</v>
@@ -6312,17 +6527,22 @@
       <c r="O34" s="4">
         <v>1</v>
       </c>
-      <c r="P34" s="4"/>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S34" s="4"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -6339,10 +6559,11 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S35" s="4"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -6363,10 +6584,11 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="4"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S36" s="4"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -6387,10 +6609,11 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="4"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S37" s="4"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -6411,10 +6634,11 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="4"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S38" s="4"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -6431,10 +6655,10 @@
         <v>3</v>
       </c>
       <c r="F39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -6469,14 +6693,17 @@
       <c r="R39" s="4">
         <v>1</v>
       </c>
-      <c r="S39" s="3">
-        <v>1</v>
-      </c>
-      <c r="T39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S39" s="4">
+        <v>1</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1</v>
+      </c>
+      <c r="U39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -6484,7 +6711,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="4">
         <v>5</v>
@@ -6493,10 +6720,10 @@
         <v>5</v>
       </c>
       <c r="F40" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="4">
         <v>2</v>
@@ -6505,7 +6732,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="4">
         <v>1</v>
@@ -6513,16 +6740,19 @@
       <c r="L40" s="4">
         <v>1</v>
       </c>
-      <c r="M40" s="4"/>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="4"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S40" s="4"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
@@ -6533,18 +6763,20 @@
         <v>4</v>
       </c>
       <c r="D41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -6555,18 +6787,19 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="4"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S41" s="4"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="4">
         <v>2</v>
@@ -6581,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="4">
         <v>1</v>
@@ -6604,18 +6837,21 @@
       <c r="O42" s="4">
         <v>1</v>
       </c>
-      <c r="P42" s="4"/>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="4"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S42" s="4"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" s="4">
         <v>9</v>
@@ -6624,18 +6860,20 @@
         <v>9</v>
       </c>
       <c r="E43" s="4">
+        <v>9</v>
+      </c>
+      <c r="F43" s="4">
         <v>7</v>
-      </c>
-      <c r="F43" s="4">
-        <v>5</v>
       </c>
       <c r="G43" s="4">
         <v>5</v>
       </c>
       <c r="H43" s="4">
-        <v>2</v>
-      </c>
-      <c r="I43" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2</v>
+      </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -6645,10 +6883,11 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="4"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="4"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -6661,7 +6900,9 @@
       <c r="D44" s="4">
         <v>2</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -6675,15 +6916,16 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="4"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S44" s="4"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
@@ -6692,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="4">
         <v>2</v>
@@ -6713,20 +6955,23 @@
         <v>2</v>
       </c>
       <c r="L45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" s="4">
         <v>1</v>
       </c>
-      <c r="N45" s="4"/>
+      <c r="N45" s="4">
+        <v>1</v>
+      </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="4"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S45" s="4"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="4"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -6734,22 +6979,22 @@
         <v>7</v>
       </c>
       <c r="C46" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" s="4">
         <v>6</v>
       </c>
       <c r="E46" s="4">
+        <v>6</v>
+      </c>
+      <c r="F46" s="4">
         <v>5</v>
       </c>
-      <c r="F46" s="4">
-        <v>3</v>
-      </c>
       <c r="G46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="4">
         <v>1</v>
@@ -6760,36 +7005,41 @@
       <c r="K46" s="4">
         <v>1</v>
       </c>
-      <c r="L46" s="4"/>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S46" s="4"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
       </c>
       <c r="E47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -6801,10 +7051,11 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S47" s="4"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -6818,15 +7069,17 @@
         <v>3</v>
       </c>
       <c r="E48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -6837,10 +7090,11 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="4"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="4"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="4"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -6861,10 +7115,11 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="4"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S49" s="4"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="4"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -6901,21 +7156,24 @@
       <c r="L50" s="4">
         <v>1</v>
       </c>
-      <c r="M50" s="4"/>
+      <c r="M50" s="4">
+        <v>1</v>
+      </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="4"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S50" s="4"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="4"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="4">
         <v>4</v>
@@ -6927,12 +7185,14 @@
         <v>4</v>
       </c>
       <c r="F51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="4">
-        <v>2</v>
-      </c>
-      <c r="H51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2</v>
+      </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -6943,73 +7203,74 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="4"/>
-    </row>
-    <row r="52" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S51" s="4"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="4"/>
+    </row>
+    <row r="52" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
+        <v>196</v>
+      </c>
+      <c r="C52" s="15">
+        <f>SUM(C8:C51)</f>
         <v>163</v>
       </c>
-      <c r="C52" s="15">
-        <f t="shared" ref="C52:H52" si="0">SUM(C8:C51)</f>
+      <c r="D52" s="15">
+        <f t="shared" ref="D52:I52" si="0">SUM(D8:D51)</f>
         <v>128</v>
       </c>
-      <c r="D52" s="15">
+      <c r="E52" s="15">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="E52" s="15">
+      <c r="F52" s="15">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="F52" s="15">
+      <c r="G52" s="15">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="I52" s="15">
-        <f t="shared" ref="I52:T52" si="1">SUM(I8:I51)</f>
+      <c r="J52" s="15">
+        <f t="shared" ref="J52:U52" si="1">SUM(J8:J51)</f>
         <v>31</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="L52" s="15">
+      <c r="M52" s="15">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="N52" s="14">
+      <c r="O52" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P52" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
       <c r="Q52" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -7024,11 +7285,15 @@
       </c>
       <c r="T52" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="U52" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -7051,16 +7316,17 @@
       <c r="R54" s="17"/>
       <c r="S54" s="17"/>
       <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EgKkovaalQ1jdBRFWCCuYZqaI5womRQ3SVv9YWhKaTBMGZz1p7R4enTDLlR4oOjDxSeUP4teyp1jXoLJHatOlQ==" saltValue="rXYbh98SzlBa4Uja+C4kDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zt7NhCbmDeRsEpGxTAVhiCgH72IFOE/PHuH0DkShxEYmxsT6aZWazC/KjtJNlBYc4DPdMA3W/plV7/Vkz/mBkg==" saltValue="ztAr4B2bba1yMS80pQDSVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:T54"/>
+    <mergeCell ref="A54:U54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B52:T52" formulaRange="1"/>
+    <ignoredError sqref="B52:U52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
   <si>
     <t>Fälle</t>
   </si>
@@ -606,7 +606,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AK54"/>
+  <dimension ref="A2:AL54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
@@ -615,28 +615,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="25" width="11.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" customWidth="1"/>
+    <col min="2" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1"/>
+    <col min="25" max="26" width="11.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="S3" s="9"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -748,119 +748,125 @@
       <c r="AK6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43922</v>
+      </c>
+      <c r="C7" s="13">
         <v>43921</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43920</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43919</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43918</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43917</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43916</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43915</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43914</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43913</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43912</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43911</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43910</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43909</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>43908</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="13">
         <v>43907</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43906</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43905</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43904</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43903</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43902</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43901</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43900</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43899</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43898</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43897</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43896</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43895</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43894</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43893</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AF7" s="12">
         <v>43892</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AG7" s="12">
         <v>43891</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AH7" s="12">
         <v>43890</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AI7" s="12">
         <v>43889</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AJ7" s="12">
         <v>43888</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AK7" s="12">
         <v>43887</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AL7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -868,79 +874,79 @@
         <v>228</v>
       </c>
       <c r="C8" s="4">
+        <v>228</v>
+      </c>
+      <c r="D8" s="4">
         <v>217</v>
-      </c>
-      <c r="D8" s="4">
-        <v>189</v>
       </c>
       <c r="E8" s="4">
         <v>189</v>
       </c>
       <c r="F8" s="4">
+        <v>189</v>
+      </c>
+      <c r="G8" s="4">
         <v>130</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>99</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>85</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>64</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>60</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>44</v>
-      </c>
-      <c r="L8" s="4">
-        <v>39</v>
       </c>
       <c r="M8" s="4">
         <v>39</v>
       </c>
       <c r="N8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="O8" s="4">
         <v>26</v>
       </c>
       <c r="P8" s="4">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="4">
         <v>24</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>13</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>12</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <v>7</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <v>6</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4</v>
       </c>
-      <c r="W8" s="4">
-        <v>3</v>
-      </c>
       <c r="X8" s="4">
         <v>3</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="4">
         <v>3</v>
       </c>
       <c r="Z8" s="3">
         <v>3</v>
       </c>
       <c r="AA8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB8" s="3">
         <v>2</v>
@@ -948,7 +954,9 @@
       <c r="AC8" s="3">
         <v>2</v>
       </c>
-      <c r="AD8" s="3"/>
+      <c r="AD8" s="3">
+        <v>2</v>
+      </c>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
@@ -956,87 +964,90 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4">
+        <v>91</v>
+      </c>
+      <c r="C9" s="4">
         <v>84</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>73</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>65</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>55</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>45</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>39</v>
-      </c>
-      <c r="H9" s="4">
-        <v>36</v>
       </c>
       <c r="I9" s="4">
         <v>36</v>
       </c>
       <c r="J9" s="4">
+        <v>36</v>
+      </c>
+      <c r="K9" s="4">
         <v>33</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>25</v>
-      </c>
-      <c r="L9" s="4">
-        <v>21</v>
       </c>
       <c r="M9" s="4">
         <v>21</v>
       </c>
       <c r="N9" s="4">
+        <v>21</v>
+      </c>
+      <c r="O9" s="4">
         <v>17</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>14</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>12</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>7</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>5</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>3</v>
-      </c>
-      <c r="U9" s="4">
-        <v>3</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2</v>
-      </c>
-      <c r="W9" s="4">
-        <v>1</v>
+      <c r="U9" s="3">
+        <v>3</v>
+      </c>
+      <c r="V9" s="4">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3">
+        <v>2</v>
       </c>
       <c r="X9" s="4">
         <v>1</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="4">
         <v>1</v>
       </c>
       <c r="Z9" s="3">
         <v>1</v>
       </c>
-      <c r="AA9" s="3"/>
+      <c r="AA9" s="3">
+        <v>1</v>
+      </c>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
@@ -1047,40 +1058,41 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
+        <v>245</v>
+      </c>
+      <c r="C10" s="4">
         <v>236</v>
-      </c>
-      <c r="C10" s="4">
-        <v>216</v>
       </c>
       <c r="D10" s="4">
         <v>216</v>
       </c>
       <c r="E10" s="4">
+        <v>216</v>
+      </c>
+      <c r="F10" s="4">
         <v>196</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>182</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>144</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>106</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>82</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>74</v>
-      </c>
-      <c r="K10" s="4">
-        <v>45</v>
       </c>
       <c r="L10" s="4">
         <v>45</v>
@@ -1092,13 +1104,13 @@
         <v>45</v>
       </c>
       <c r="O10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="P10" s="4">
         <v>17</v>
       </c>
       <c r="Q10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="R10" s="4">
         <v>5</v>
@@ -1106,31 +1118,33 @@
       <c r="S10" s="4">
         <v>5</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="4">
         <v>5</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
+        <v>5</v>
+      </c>
+      <c r="V10" s="4">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>3</v>
-      </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <v>3</v>
       </c>
       <c r="X10" s="4">
         <v>3</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="4">
         <v>3</v>
       </c>
       <c r="Z10" s="3">
         <v>3</v>
       </c>
       <c r="AA10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>1</v>
+      </c>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
@@ -1140,49 +1154,50 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL10" s="3"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>651</v>
+      </c>
+      <c r="C11" s="4">
         <v>432</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>413</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>385</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>369</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>333</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>263</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>233</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>224</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>187</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>117</v>
-      </c>
-      <c r="L11" s="4">
-        <v>67</v>
       </c>
       <c r="M11" s="4">
         <v>67</v>
       </c>
       <c r="N11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="O11" s="4">
         <v>28</v>
@@ -1191,7 +1206,7 @@
         <v>28</v>
       </c>
       <c r="Q11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="R11" s="4">
         <v>9</v>
@@ -1199,22 +1214,22 @@
       <c r="S11" s="4">
         <v>9</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="4">
         <v>9</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
+        <v>9</v>
+      </c>
+      <c r="V11" s="4">
         <v>4</v>
       </c>
-      <c r="V11" s="3">
+      <c r="W11" s="3">
         <v>4</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>4</v>
       </c>
-      <c r="X11" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="4">
         <v>3</v>
       </c>
       <c r="Z11" s="3">
@@ -1224,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="AB11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC11" s="3">
         <v>1</v>
@@ -1247,83 +1262,86 @@
       <c r="AI11" s="3">
         <v>1</v>
       </c>
-      <c r="AJ11" s="3"/>
+      <c r="AJ11" s="3">
+        <v>1</v>
+      </c>
       <c r="AK11" s="3"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL11" s="3"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>192</v>
+      </c>
+      <c r="C12" s="4">
         <v>190</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>186</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>185</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>178</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>175</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>153</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>121</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>89</v>
-      </c>
-      <c r="J12" s="4">
-        <v>83</v>
       </c>
       <c r="K12" s="4">
         <v>83</v>
       </c>
       <c r="L12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="M12" s="4">
         <v>71</v>
       </c>
       <c r="N12" s="4">
+        <v>71</v>
+      </c>
+      <c r="O12" s="4">
         <v>62</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>39</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>31</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>29</v>
-      </c>
-      <c r="R12" s="4">
-        <v>13</v>
       </c>
       <c r="S12" s="4">
         <v>13</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="4">
+        <v>13</v>
+      </c>
+      <c r="U12" s="3">
         <v>8</v>
       </c>
-      <c r="U12" s="4">
+      <c r="V12" s="4">
         <v>4</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <v>5</v>
       </c>
-      <c r="X12" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="4">
         <v>4</v>
       </c>
       <c r="Z12" s="3">
@@ -1333,12 +1351,14 @@
         <v>4</v>
       </c>
       <c r="AB12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1</v>
+      </c>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
@@ -1346,88 +1366,89 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL12" s="3"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>475</v>
+      </c>
+      <c r="C13" s="4">
         <v>419</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>392</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>372</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>299</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>273</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>254</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>223</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>197</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>178</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>167</v>
-      </c>
-      <c r="L13" s="4">
-        <v>134</v>
       </c>
       <c r="M13" s="4">
         <v>134</v>
       </c>
       <c r="N13" s="4">
+        <v>134</v>
+      </c>
+      <c r="O13" s="4">
         <v>101</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>78</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>54</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>45</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>42</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <v>26</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>19</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <v>18</v>
       </c>
-      <c r="V13" s="3">
+      <c r="W13" s="3">
         <v>12</v>
-      </c>
-      <c r="W13" s="4">
-        <v>6</v>
       </c>
       <c r="X13" s="4">
         <v>6</v>
       </c>
-      <c r="Y13" s="3">
-        <v>5</v>
+      <c r="Y13" s="4">
+        <v>6</v>
       </c>
       <c r="Z13" s="3">
         <v>5</v>
       </c>
       <c r="AA13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB13" s="3">
         <v>4</v>
@@ -1436,13 +1457,13 @@
         <v>4</v>
       </c>
       <c r="AD13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE13" s="3">
         <v>1</v>
       </c>
       <c r="AF13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="3">
         <v>3</v>
@@ -1453,84 +1474,87 @@
       <c r="AI13" s="3">
         <v>3</v>
       </c>
-      <c r="AJ13" s="3"/>
+      <c r="AJ13" s="3">
+        <v>3</v>
+      </c>
       <c r="AK13" s="3"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL13" s="3"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>329</v>
+      </c>
+      <c r="C14" s="4">
         <v>308</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>295</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>278</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>259</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>226</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>210</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>182</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>159</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>150</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>120</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>108</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>92</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>76</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>61</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>51</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>43</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>34</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>26</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <v>12</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>6</v>
       </c>
-      <c r="X14" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>1</v>
+      <c r="Y14" s="4">
+        <v>2</v>
       </c>
       <c r="Z14" s="3">
         <v>1</v>
@@ -1538,7 +1562,9 @@
       <c r="AA14" s="3">
         <v>1</v>
       </c>
-      <c r="AB14" s="3"/>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
@@ -1548,184 +1574,190 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL14" s="3"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>320</v>
+      </c>
+      <c r="C15" s="11">
         <v>287</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>264</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>201</v>
-      </c>
-      <c r="E15" s="11">
-        <v>191</v>
       </c>
       <c r="F15" s="11">
         <v>191</v>
       </c>
       <c r="G15" s="11">
+        <v>191</v>
+      </c>
+      <c r="H15" s="11">
         <v>171</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>154</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>141</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="11">
         <v>123</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>121</v>
-      </c>
-      <c r="L15" s="11">
-        <v>110</v>
       </c>
       <c r="M15" s="11">
         <v>110</v>
       </c>
       <c r="N15" s="11">
+        <v>110</v>
+      </c>
+      <c r="O15" s="11">
         <v>99</v>
       </c>
-      <c r="O15" s="11">
+      <c r="P15" s="11">
         <v>60</v>
       </c>
-      <c r="P15" s="11">
+      <c r="Q15" s="11">
         <v>59</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>35</v>
       </c>
       <c r="R15" s="11">
         <v>35</v>
       </c>
       <c r="S15" s="11">
+        <v>35</v>
+      </c>
+      <c r="T15" s="11">
         <v>21</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17</v>
       </c>
-      <c r="U15" s="11">
+      <c r="V15" s="11">
         <v>16</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>15</v>
-      </c>
-      <c r="W15" s="11">
-        <v>13</v>
       </c>
       <c r="X15" s="11">
         <v>13</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="11">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="3">
         <v>12</v>
       </c>
-      <c r="Z15" s="3">
-        <v>3</v>
-      </c>
       <c r="AA15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>1</v>
+      </c>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="3">
-        <v>1</v>
-      </c>
+      <c r="AD15" s="3"/>
       <c r="AE15" s="3">
         <v>1</v>
       </c>
-      <c r="AF15" s="3"/>
+      <c r="AF15" s="3">
+        <v>1</v>
+      </c>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL15" s="3"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>142</v>
+      </c>
+      <c r="C16" s="4">
         <v>125</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>115</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>110</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>89</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>74</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>62</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>55</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>45</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>37</v>
-      </c>
-      <c r="K16" s="4">
-        <v>33</v>
       </c>
       <c r="L16" s="4">
         <v>33</v>
       </c>
       <c r="M16" s="4">
+        <v>33</v>
+      </c>
+      <c r="N16" s="4">
         <v>24</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>21</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>12</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>9</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <v>4</v>
       </c>
-      <c r="R16" s="4">
-        <v>3</v>
-      </c>
       <c r="S16" s="4">
         <v>3</v>
       </c>
-      <c r="T16" s="3">
-        <v>3</v>
-      </c>
-      <c r="U16" s="4">
-        <v>3</v>
-      </c>
-      <c r="V16" s="3">
-        <v>2</v>
-      </c>
-      <c r="W16" s="4">
-        <v>1</v>
+      <c r="T16" s="4">
+        <v>3</v>
+      </c>
+      <c r="U16" s="3">
+        <v>3</v>
+      </c>
+      <c r="V16" s="4">
+        <v>3</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2</v>
       </c>
       <c r="X16" s="4">
         <v>1</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="4">
         <v>1</v>
       </c>
       <c r="Z16" s="3">
         <v>1</v>
       </c>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="3">
+        <v>1</v>
+      </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
@@ -1736,181 +1768,185 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL16" s="3"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>881</v>
+      </c>
+      <c r="C17" s="4">
         <v>833</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>761</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>737</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>705</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>648</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>596</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>493</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>462</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>435</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>362</v>
-      </c>
-      <c r="L17" s="4">
-        <v>323</v>
       </c>
       <c r="M17" s="4">
         <v>323</v>
       </c>
       <c r="N17" s="4">
+        <v>323</v>
+      </c>
+      <c r="O17" s="4">
         <v>234</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>193</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>128</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>123</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>111</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>82</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>65</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <v>47</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>43</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>23</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <v>18</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>16</v>
       </c>
       <c r="Z17" s="3">
         <v>16</v>
       </c>
       <c r="AA17" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB17" s="3">
         <v>14</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>13</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>5</v>
       </c>
       <c r="AD17" s="3">
         <v>5</v>
       </c>
-      <c r="AE17" s="3"/>
+      <c r="AE17" s="3">
+        <v>5</v>
+      </c>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL17" s="3"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>492</v>
+      </c>
+      <c r="C18" s="4">
         <v>442</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>414</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>386</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>346</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>325</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>284</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>254</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>227</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>212</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>191</v>
-      </c>
-      <c r="L18" s="4">
-        <v>150</v>
       </c>
       <c r="M18" s="4">
         <v>150</v>
       </c>
       <c r="N18" s="4">
+        <v>150</v>
+      </c>
+      <c r="O18" s="4">
         <v>114</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>79</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>62</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <v>53</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>43</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>34</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <v>18</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13</v>
-      </c>
-      <c r="W18" s="4">
-        <v>12</v>
       </c>
       <c r="X18" s="4">
         <v>12</v>
       </c>
-      <c r="Y18" s="3">
-        <v>8</v>
+      <c r="Y18" s="4">
+        <v>12</v>
       </c>
       <c r="Z18" s="3">
         <v>8</v>
@@ -1919,63 +1955,66 @@
         <v>8</v>
       </c>
       <c r="AB18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC18" s="3">
         <v>6</v>
       </c>
       <c r="AD18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE18" s="3">
         <v>4</v>
       </c>
       <c r="AF18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL18" s="3"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
+        <v>180</v>
+      </c>
+      <c r="C19" s="4">
         <v>174</v>
-      </c>
-      <c r="C19" s="4">
-        <v>154</v>
       </c>
       <c r="D19" s="4">
         <v>154</v>
       </c>
       <c r="E19" s="4">
+        <v>154</v>
+      </c>
+      <c r="F19" s="4">
         <v>136</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>110</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>76</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>69</v>
-      </c>
-      <c r="I19" s="4">
-        <v>39</v>
       </c>
       <c r="J19" s="4">
         <v>39</v>
       </c>
       <c r="K19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L19" s="4">
         <v>14</v>
@@ -1990,31 +2029,33 @@
         <v>14</v>
       </c>
       <c r="P19" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="4">
         <v>10</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>8</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>7</v>
       </c>
-      <c r="S19" s="4">
-        <v>3</v>
-      </c>
-      <c r="T19" s="3">
-        <v>2</v>
-      </c>
-      <c r="U19" s="4">
-        <v>2</v>
-      </c>
-      <c r="V19" s="3">
-        <v>1</v>
-      </c>
-      <c r="W19" s="4">
-        <v>1</v>
-      </c>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="3"/>
+      <c r="T19" s="4">
+        <v>3</v>
+      </c>
+      <c r="U19" s="3">
+        <v>2</v>
+      </c>
+      <c r="V19" s="4">
+        <v>2</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="4"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -2027,40 +2068,41 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL19" s="3"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
+        <v>422</v>
+      </c>
+      <c r="C20" s="4">
         <v>371</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>361</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>340</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>317</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>278</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>249</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>216</v>
-      </c>
-      <c r="I20" s="4">
-        <v>166</v>
       </c>
       <c r="J20" s="4">
         <v>166</v>
       </c>
       <c r="K20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="L20" s="4">
         <v>97</v>
@@ -2069,46 +2111,46 @@
         <v>97</v>
       </c>
       <c r="N20" s="4">
+        <v>97</v>
+      </c>
+      <c r="O20" s="4">
         <v>60</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>59</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>39</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <v>29</v>
-      </c>
-      <c r="R20" s="4">
-        <v>16</v>
       </c>
       <c r="S20" s="4">
         <v>16</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="4">
+        <v>16</v>
+      </c>
+      <c r="U20" s="3">
         <v>14</v>
       </c>
-      <c r="U20" s="4">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1</v>
-      </c>
-      <c r="W20" s="4">
+      <c r="V20" s="4">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="4">
         <v>4</v>
       </c>
-      <c r="X20" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="4">
         <v>3</v>
       </c>
       <c r="Z20" s="3">
         <v>3</v>
       </c>
       <c r="AA20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="3">
         <v>2</v>
@@ -2132,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="AI20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ20" s="3">
         <v>1</v>
@@ -2140,46 +2182,49 @@
       <c r="AK20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4">
+        <v>167</v>
+      </c>
+      <c r="C21" s="4">
         <v>154</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>148</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>130</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>124</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>113</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>112</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>109</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>98</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>89</v>
-      </c>
-      <c r="K21" s="4">
-        <v>5</v>
       </c>
       <c r="L21" s="4">
         <v>5</v>
       </c>
       <c r="M21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" s="4">
         <v>3</v>
@@ -2188,40 +2233,40 @@
         <v>3</v>
       </c>
       <c r="P21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="4">
         <v>2</v>
       </c>
       <c r="R21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S21" s="4">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
-        <v>2</v>
-      </c>
-      <c r="U21" s="4">
-        <v>2</v>
-      </c>
-      <c r="V21" s="3">
-        <v>2</v>
-      </c>
-      <c r="W21" s="4">
-        <v>5</v>
+      <c r="T21" s="4">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
+        <v>2</v>
+      </c>
+      <c r="V21" s="4">
+        <v>2</v>
+      </c>
+      <c r="W21" s="3">
+        <v>2</v>
       </c>
       <c r="X21" s="4">
         <v>5</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="4">
         <v>5</v>
       </c>
       <c r="Z21" s="3">
         <v>5</v>
       </c>
       <c r="AA21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB21" s="3">
         <v>2</v>
@@ -2229,7 +2274,9 @@
       <c r="AC21" s="3">
         <v>2</v>
       </c>
-      <c r="AD21" s="3"/>
+      <c r="AD21" s="3">
+        <v>2</v>
+      </c>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
@@ -2237,88 +2284,89 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL21" s="3"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="C22" s="4">
         <v>160</v>
       </c>
       <c r="D22" s="4">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E22" s="4">
         <v>125</v>
       </c>
       <c r="F22" s="4">
+        <v>125</v>
+      </c>
+      <c r="G22" s="4">
         <v>117</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>98</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>97</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>62</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>60</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>57</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>47</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>39</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>34</v>
-      </c>
-      <c r="O22" s="4">
-        <v>17</v>
       </c>
       <c r="P22" s="4">
         <v>17</v>
       </c>
       <c r="Q22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R22" s="4">
         <v>21</v>
       </c>
       <c r="S22" s="4">
+        <v>21</v>
+      </c>
+      <c r="T22" s="4">
         <v>19</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="4">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4</v>
       </c>
-      <c r="W22" s="4">
-        <v>3</v>
-      </c>
       <c r="X22" s="4">
         <v>3</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="4">
         <v>3</v>
       </c>
       <c r="Z22" s="3">
         <v>3</v>
       </c>
       <c r="AA22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="3">
         <v>1</v>
@@ -2326,7 +2374,9 @@
       <c r="AC22" s="3">
         <v>1</v>
       </c>
-      <c r="AD22" s="3"/>
+      <c r="AD22" s="3">
+        <v>1</v>
+      </c>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
@@ -2334,103 +2384,104 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL22" s="3"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>435</v>
+      </c>
+      <c r="C23" s="11">
         <v>427</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>390</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>365</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>342</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>331</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>279</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>236</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>212</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>197</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>165</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>140</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>118</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>110</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>71</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="11">
         <v>57</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="R23" s="11">
         <v>50</v>
       </c>
-      <c r="R23" s="11">
+      <c r="S23" s="11">
         <v>47</v>
       </c>
-      <c r="S23" s="11">
+      <c r="T23" s="11">
         <v>37</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32</v>
       </c>
-      <c r="U23" s="11">
+      <c r="V23" s="11">
         <v>32</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30</v>
-      </c>
-      <c r="W23" s="11">
-        <v>26</v>
       </c>
       <c r="X23" s="11">
         <v>26</v>
       </c>
-      <c r="Y23" s="3">
-        <v>20</v>
+      <c r="Y23" s="11">
+        <v>26</v>
       </c>
       <c r="Z23" s="3">
         <v>20</v>
       </c>
       <c r="AA23" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="3">
         <v>14</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>10</v>
       </c>
       <c r="AC23" s="3">
         <v>10</v>
       </c>
       <c r="AD23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE23" s="3">
         <v>8</v>
       </c>
       <c r="AF23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG23" s="3">
         <v>1</v>
@@ -2438,11 +2489,14 @@
       <c r="AH23" s="3">
         <v>1</v>
       </c>
-      <c r="AI23" s="3"/>
+      <c r="AI23" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL23" s="3"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -2450,49 +2504,49 @@
         <v>168</v>
       </c>
       <c r="C24" s="11">
+        <v>168</v>
+      </c>
+      <c r="D24" s="11">
         <v>147</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="11">
         <v>124</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>122</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>104</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>81</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>71</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>60</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="11">
         <v>55</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>28</v>
-      </c>
-      <c r="L24" s="11">
-        <v>20</v>
       </c>
       <c r="M24" s="11">
         <v>20</v>
       </c>
       <c r="N24" s="11">
+        <v>20</v>
+      </c>
+      <c r="O24" s="11">
         <v>19</v>
       </c>
-      <c r="O24" s="11">
+      <c r="P24" s="11">
         <v>13</v>
       </c>
-      <c r="P24" s="11">
+      <c r="Q24" s="11">
         <v>9</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>4</v>
       </c>
       <c r="R24" s="11">
         <v>4</v>
@@ -2500,20 +2554,20 @@
       <c r="S24" s="11">
         <v>4</v>
       </c>
-      <c r="T24" s="3">
-        <v>1</v>
-      </c>
-      <c r="U24" s="11">
-        <v>1</v>
-      </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="11">
-        <v>3</v>
-      </c>
+      <c r="T24" s="11">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="11">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3"/>
       <c r="X24" s="11">
         <v>3</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="11">
         <v>3</v>
       </c>
       <c r="Z24" s="3">
@@ -2523,73 +2577,76 @@
         <v>3</v>
       </c>
       <c r="AB24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC24" s="3">
         <v>2</v>
       </c>
-      <c r="AD24" s="3"/>
+      <c r="AD24" s="3">
+        <v>2</v>
+      </c>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3">
+        <v>1</v>
+      </c>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL24" s="3"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="C25" s="4">
         <v>453</v>
       </c>
       <c r="D25" s="4">
+        <v>453</v>
+      </c>
+      <c r="E25" s="4">
         <v>421</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>404</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>350</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>302</v>
-      </c>
-      <c r="H25" s="4">
-        <v>278</v>
       </c>
       <c r="I25" s="4">
         <v>278</v>
       </c>
       <c r="J25" s="4">
+        <v>278</v>
+      </c>
+      <c r="K25" s="4">
         <v>257</v>
-      </c>
-      <c r="K25" s="4">
-        <v>222</v>
       </c>
       <c r="L25" s="4">
         <v>222</v>
       </c>
       <c r="M25" s="4">
+        <v>222</v>
+      </c>
+      <c r="N25" s="4">
         <v>182</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>154</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>135</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>64</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>29</v>
       </c>
       <c r="R25" s="4">
         <v>29</v>
@@ -2597,23 +2654,23 @@
       <c r="S25" s="4">
         <v>29</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="4">
+        <v>29</v>
+      </c>
+      <c r="U25" s="3">
         <v>8</v>
       </c>
-      <c r="U25" s="4">
+      <c r="V25" s="4">
         <v>8</v>
       </c>
-      <c r="V25" s="3">
+      <c r="W25" s="3">
         <v>6</v>
       </c>
-      <c r="W25" s="4">
-        <v>2</v>
-      </c>
       <c r="X25" s="4">
         <v>2</v>
       </c>
-      <c r="Y25" s="3">
-        <v>1</v>
+      <c r="Y25" s="4">
+        <v>2</v>
       </c>
       <c r="Z25" s="3">
         <v>1</v>
@@ -2624,7 +2681,9 @@
       <c r="AB25" s="3">
         <v>1</v>
       </c>
-      <c r="AC25" s="3"/>
+      <c r="AC25" s="3">
+        <v>1</v>
+      </c>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
@@ -2633,16 +2692,17 @@
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL25" s="3"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
+        <v>335</v>
+      </c>
+      <c r="C26" s="11">
         <v>305</v>
-      </c>
-      <c r="C26" s="11">
-        <v>246</v>
       </c>
       <c r="D26" s="11">
         <v>246</v>
@@ -2651,76 +2711,76 @@
         <v>246</v>
       </c>
       <c r="F26" s="11">
+        <v>246</v>
+      </c>
+      <c r="G26" s="11">
         <v>229</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>206</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>189</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>172</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>154</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>104</v>
-      </c>
-      <c r="L26" s="11">
-        <v>96</v>
       </c>
       <c r="M26" s="11">
         <v>96</v>
       </c>
       <c r="N26" s="11">
+        <v>96</v>
+      </c>
+      <c r="O26" s="11">
         <v>75</v>
       </c>
-      <c r="O26" s="11">
+      <c r="P26" s="11">
         <v>63</v>
       </c>
-      <c r="P26" s="11">
+      <c r="Q26" s="11">
         <v>47</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="R26" s="11">
         <v>24</v>
-      </c>
-      <c r="R26" s="11">
-        <v>29</v>
       </c>
       <c r="S26" s="11">
         <v>29</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="11">
+        <v>29</v>
+      </c>
+      <c r="U26" s="3">
         <v>16</v>
       </c>
-      <c r="U26" s="11">
+      <c r="V26" s="11">
         <v>16</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12</v>
       </c>
-      <c r="W26" s="11">
+      <c r="X26" s="11">
         <v>9</v>
       </c>
-      <c r="X26" s="11">
-        <v>7</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="11">
         <v>7</v>
       </c>
       <c r="Z26" s="3">
         <v>7</v>
       </c>
       <c r="AA26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="3">
         <v>1</v>
@@ -2737,19 +2797,22 @@
       <c r="AH26" s="3">
         <v>1</v>
       </c>
-      <c r="AI26" s="3"/>
+      <c r="AI26" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL26" s="3"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="11">
+        <v>169</v>
+      </c>
+      <c r="C27" s="11">
         <v>159</v>
-      </c>
-      <c r="C27" s="11">
-        <v>119</v>
       </c>
       <c r="D27" s="11">
         <v>119</v>
@@ -2758,22 +2821,22 @@
         <v>119</v>
       </c>
       <c r="F27" s="11">
+        <v>119</v>
+      </c>
+      <c r="G27" s="11">
         <v>110</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11">
         <v>99</v>
       </c>
-      <c r="H27" s="11">
+      <c r="I27" s="11">
         <v>85</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11">
         <v>74</v>
       </c>
-      <c r="J27" s="11">
+      <c r="K27" s="11">
         <v>60</v>
-      </c>
-      <c r="K27" s="11">
-        <v>42</v>
       </c>
       <c r="L27" s="11">
         <v>42</v>
@@ -2782,16 +2845,16 @@
         <v>42</v>
       </c>
       <c r="N27" s="11">
+        <v>42</v>
+      </c>
+      <c r="O27" s="11">
         <v>34</v>
       </c>
-      <c r="O27" s="11">
+      <c r="P27" s="11">
         <v>29</v>
       </c>
-      <c r="P27" s="11">
+      <c r="Q27" s="11">
         <v>26</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>14</v>
       </c>
       <c r="R27" s="11">
         <v>14</v>
@@ -2799,20 +2862,22 @@
       <c r="S27" s="11">
         <v>14</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="11">
+        <v>14</v>
+      </c>
+      <c r="U27" s="3">
         <v>8</v>
       </c>
-      <c r="U27" s="11">
+      <c r="V27" s="11">
         <v>8</v>
       </c>
-      <c r="V27" s="3">
-        <v>3</v>
-      </c>
-      <c r="W27" s="11">
-        <v>2</v>
-      </c>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="3"/>
+      <c r="W27" s="3">
+        <v>3</v>
+      </c>
+      <c r="X27" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="11"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
@@ -2825,40 +2890,41 @@
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL27" s="3"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>183</v>
+      </c>
+      <c r="C28" s="4">
         <v>162</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>144</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>137</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>132</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>124</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>109</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>89</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>81</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>70</v>
-      </c>
-      <c r="K28" s="4">
-        <v>52</v>
       </c>
       <c r="L28" s="4">
         <v>52</v>
@@ -2867,16 +2933,16 @@
         <v>52</v>
       </c>
       <c r="N28" s="4">
+        <v>52</v>
+      </c>
+      <c r="O28" s="4">
         <v>43</v>
       </c>
-      <c r="O28" s="4">
+      <c r="P28" s="4">
         <v>34</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <v>28</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>20</v>
       </c>
       <c r="R28" s="4">
         <v>20</v>
@@ -2884,28 +2950,30 @@
       <c r="S28" s="4">
         <v>20</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="4">
+        <v>20</v>
+      </c>
+      <c r="U28" s="3">
         <v>7</v>
       </c>
-      <c r="U28" s="4">
-        <v>2</v>
-      </c>
-      <c r="V28" s="3">
-        <v>2</v>
-      </c>
-      <c r="W28" s="4">
-        <v>1</v>
+      <c r="V28" s="4">
+        <v>2</v>
+      </c>
+      <c r="W28" s="3">
+        <v>2</v>
       </c>
       <c r="X28" s="4">
         <v>1</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y28" s="4">
         <v>1</v>
       </c>
       <c r="Z28" s="3">
         <v>1</v>
       </c>
-      <c r="AA28" s="3"/>
+      <c r="AA28" s="3">
+        <v>1</v>
+      </c>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
@@ -2916,37 +2984,38 @@
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL28" s="3"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>285</v>
+      </c>
+      <c r="C29" s="4">
         <v>251</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>216</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>201</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>186</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>162</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>147</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>136</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>101</v>
-      </c>
-      <c r="J29" s="4">
-        <v>57</v>
       </c>
       <c r="K29" s="4">
         <v>57</v>
@@ -2958,16 +3027,16 @@
         <v>57</v>
       </c>
       <c r="N29" s="4">
+        <v>57</v>
+      </c>
+      <c r="O29" s="4">
         <v>41</v>
       </c>
-      <c r="O29" s="4">
+      <c r="P29" s="4">
         <v>25</v>
       </c>
-      <c r="P29" s="4">
+      <c r="Q29" s="4">
         <v>16</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>10</v>
       </c>
       <c r="R29" s="4">
         <v>10</v>
@@ -2975,20 +3044,20 @@
       <c r="S29" s="4">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="4">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>6</v>
       </c>
-      <c r="U29" s="4">
+      <c r="V29" s="4">
         <v>4</v>
       </c>
-      <c r="V29" s="3"/>
-      <c r="W29" s="4">
-        <v>1</v>
-      </c>
+      <c r="W29" s="3"/>
       <c r="X29" s="4">
         <v>1</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="4">
         <v>1</v>
       </c>
       <c r="Z29" s="3">
@@ -3006,65 +3075,68 @@
       <c r="AD29" s="3">
         <v>1</v>
       </c>
-      <c r="AE29" s="3"/>
+      <c r="AE29" s="3">
+        <v>1</v>
+      </c>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL29" s="3"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>746</v>
+      </c>
+      <c r="C30" s="4">
         <v>698</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>671</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>657</v>
-      </c>
-      <c r="E30" s="4">
-        <v>543</v>
       </c>
       <c r="F30" s="4">
         <v>543</v>
       </c>
       <c r="G30" s="4">
+        <v>543</v>
+      </c>
+      <c r="H30" s="4">
         <v>450</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>352</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>275</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>250</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>236</v>
-      </c>
-      <c r="L30" s="4">
-        <v>175</v>
       </c>
       <c r="M30" s="4">
         <v>175</v>
       </c>
       <c r="N30" s="4">
+        <v>175</v>
+      </c>
+      <c r="O30" s="4">
         <v>126</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>112</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>87</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>38</v>
       </c>
       <c r="R30" s="4">
         <v>38</v>
@@ -3072,41 +3144,41 @@
       <c r="S30" s="4">
         <v>38</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="4">
+        <v>38</v>
+      </c>
+      <c r="U30" s="3">
         <v>24</v>
       </c>
-      <c r="U30" s="4">
+      <c r="V30" s="4">
         <v>18</v>
       </c>
-      <c r="V30" s="3">
+      <c r="W30" s="3">
         <v>11</v>
       </c>
-      <c r="W30" s="4">
+      <c r="X30" s="4">
         <v>11</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Y30" s="4">
         <v>8</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>7</v>
       </c>
       <c r="Z30" s="3">
         <v>7</v>
       </c>
       <c r="AA30" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB30" s="3">
         <v>5</v>
       </c>
-      <c r="AB30" s="3">
-        <v>3</v>
-      </c>
       <c r="AC30" s="3">
         <v>3</v>
       </c>
       <c r="AD30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF30" s="3">
         <v>1</v>
@@ -3117,43 +3189,46 @@
       <c r="AH30" s="3">
         <v>1</v>
       </c>
-      <c r="AI30" s="3"/>
+      <c r="AI30" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL30" s="3"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
+        <v>140</v>
+      </c>
+      <c r="C31" s="4">
         <v>135</v>
-      </c>
-      <c r="C31" s="4">
-        <v>112</v>
       </c>
       <c r="D31" s="4">
         <v>112</v>
       </c>
       <c r="E31" s="4">
+        <v>112</v>
+      </c>
+      <c r="F31" s="4">
         <v>92</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>74</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>67</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>58</v>
-      </c>
-      <c r="I31" s="4">
-        <v>53</v>
       </c>
       <c r="J31" s="4">
         <v>53</v>
       </c>
       <c r="K31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="L31" s="4">
         <v>36</v>
@@ -3162,10 +3237,10 @@
         <v>36</v>
       </c>
       <c r="N31" s="4">
+        <v>36</v>
+      </c>
+      <c r="O31" s="4">
         <v>33</v>
-      </c>
-      <c r="O31" s="4">
-        <v>31</v>
       </c>
       <c r="P31" s="4">
         <v>31</v>
@@ -3177,39 +3252,41 @@
         <v>31</v>
       </c>
       <c r="S31" s="4">
+        <v>31</v>
+      </c>
+      <c r="T31" s="4">
         <v>30</v>
       </c>
-      <c r="T31" s="3">
+      <c r="U31" s="3">
         <v>28</v>
       </c>
-      <c r="U31" s="4">
+      <c r="V31" s="4">
         <v>24</v>
       </c>
-      <c r="V31" s="3">
-        <v>24</v>
-      </c>
-      <c r="W31" s="4">
+      <c r="W31" s="3">
         <v>24</v>
       </c>
       <c r="X31" s="4">
         <v>24</v>
       </c>
-      <c r="Y31" s="3">
-        <v>23</v>
+      <c r="Y31" s="4">
+        <v>24</v>
       </c>
       <c r="Z31" s="3">
         <v>23</v>
       </c>
       <c r="AA31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AB31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC31" s="3">
         <v>1</v>
       </c>
-      <c r="AD31" s="3"/>
+      <c r="AD31" s="3">
+        <v>1</v>
+      </c>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
@@ -3217,8 +3294,9 @@
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL31" s="3"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -3226,28 +3304,28 @@
         <v>226</v>
       </c>
       <c r="C32" s="4">
+        <v>226</v>
+      </c>
+      <c r="D32" s="4">
         <v>213</v>
-      </c>
-      <c r="D32" s="4">
-        <v>183</v>
       </c>
       <c r="E32" s="4">
         <v>183</v>
       </c>
       <c r="F32" s="4">
+        <v>183</v>
+      </c>
+      <c r="G32" s="4">
         <v>166</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>158</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>145</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>135</v>
-      </c>
-      <c r="J32" s="4">
-        <v>80</v>
       </c>
       <c r="K32" s="4">
         <v>80</v>
@@ -3259,13 +3337,13 @@
         <v>80</v>
       </c>
       <c r="N32" s="4">
+        <v>80</v>
+      </c>
+      <c r="O32" s="4">
         <v>73</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <v>71</v>
-      </c>
-      <c r="P32" s="4">
-        <v>27</v>
       </c>
       <c r="Q32" s="4">
         <v>27</v>
@@ -3276,38 +3354,38 @@
       <c r="S32" s="4">
         <v>27</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="4">
+        <v>27</v>
+      </c>
+      <c r="U32" s="3">
         <v>22</v>
       </c>
-      <c r="U32" s="4">
+      <c r="V32" s="4">
         <v>12</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12</v>
-      </c>
-      <c r="W32" s="4">
-        <v>9</v>
       </c>
       <c r="X32" s="4">
         <v>9</v>
       </c>
-      <c r="Y32" s="3">
-        <v>7</v>
+      <c r="Y32" s="4">
+        <v>9</v>
       </c>
       <c r="Z32" s="3">
         <v>7</v>
       </c>
       <c r="AA32" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB32" s="3">
         <v>5</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>4</v>
       </c>
       <c r="AC32" s="3">
         <v>4</v>
       </c>
       <c r="AD32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE32" s="3">
         <v>3</v>
@@ -3315,86 +3393,89 @@
       <c r="AF32" s="3">
         <v>3</v>
       </c>
-      <c r="AG32" s="3"/>
+      <c r="AG32" s="3">
+        <v>3</v>
+      </c>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL32" s="3"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>108</v>
+      </c>
+      <c r="C33" s="4">
         <v>99</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>86</v>
-      </c>
-      <c r="D33" s="4">
-        <v>76</v>
       </c>
       <c r="E33" s="4">
         <v>76</v>
       </c>
       <c r="F33" s="4">
+        <v>76</v>
+      </c>
+      <c r="G33" s="4">
         <v>68</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>58</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>45</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>40</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>35</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>30</v>
-      </c>
-      <c r="L33" s="4">
-        <v>26</v>
       </c>
       <c r="M33" s="4">
         <v>26</v>
       </c>
       <c r="N33" s="4">
+        <v>26</v>
+      </c>
+      <c r="O33" s="4">
         <v>20</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <v>17</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>14</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="R33" s="4">
         <v>7</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>10</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <v>6</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4</v>
       </c>
-      <c r="U33" s="4">
-        <v>2</v>
-      </c>
-      <c r="V33" s="3">
-        <v>2</v>
-      </c>
-      <c r="W33" s="4">
-        <v>1</v>
+      <c r="V33" s="4">
+        <v>2</v>
+      </c>
+      <c r="W33" s="3">
+        <v>2</v>
       </c>
       <c r="X33" s="4">
         <v>1</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="4">
         <v>1</v>
       </c>
       <c r="Z33" s="3">
@@ -3403,7 +3484,9 @@
       <c r="AA33" s="3">
         <v>1</v>
       </c>
-      <c r="AB33" s="3"/>
+      <c r="AB33" s="3">
+        <v>1</v>
+      </c>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
@@ -3413,90 +3496,93 @@
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL33" s="3"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C34" s="4">
         <v>316</v>
       </c>
       <c r="D34" s="4">
+        <v>316</v>
+      </c>
+      <c r="E34" s="4">
         <v>276</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>245</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>197</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>175</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>135</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>120</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>104</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>82</v>
-      </c>
-      <c r="L34" s="4">
-        <v>71</v>
       </c>
       <c r="M34" s="4">
         <v>71</v>
       </c>
       <c r="N34" s="4">
+        <v>71</v>
+      </c>
+      <c r="O34" s="4">
         <v>55</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>45</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>38</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <v>28</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>25</v>
       </c>
-      <c r="S34" s="4">
+      <c r="T34" s="4">
         <v>22</v>
       </c>
-      <c r="T34" s="3">
+      <c r="U34" s="3">
         <v>16</v>
       </c>
-      <c r="U34" s="4">
+      <c r="V34" s="4">
         <v>13</v>
       </c>
-      <c r="V34" s="3">
+      <c r="W34" s="3">
         <v>13</v>
-      </c>
-      <c r="W34" s="4">
-        <v>12</v>
       </c>
       <c r="X34" s="4">
         <v>12</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Y34" s="4">
+        <v>12</v>
+      </c>
+      <c r="Z34" s="3">
         <v>7</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="AA34" s="3">
         <v>6</v>
       </c>
-      <c r="AA34" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB34" s="3"/>
+      <c r="AB34" s="3">
+        <v>2</v>
+      </c>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
@@ -3506,82 +3592,83 @@
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL34" s="3"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>321</v>
+      </c>
+      <c r="C35" s="4">
         <v>298</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>273</v>
-      </c>
-      <c r="D35" s="4">
-        <v>256</v>
       </c>
       <c r="E35" s="4">
         <v>256</v>
       </c>
       <c r="F35" s="4">
+        <v>256</v>
+      </c>
+      <c r="G35" s="4">
         <v>236</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>224</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>171</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>140</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>121</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>113</v>
-      </c>
-      <c r="L35" s="4">
-        <v>91</v>
       </c>
       <c r="M35" s="4">
         <v>91</v>
       </c>
       <c r="N35" s="4">
+        <v>91</v>
+      </c>
+      <c r="O35" s="4">
         <v>85</v>
       </c>
-      <c r="O35" s="4">
+      <c r="P35" s="4">
         <v>46</v>
       </c>
-      <c r="P35" s="4">
+      <c r="Q35" s="4">
         <v>41</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>31</v>
       </c>
       <c r="R35" s="4">
         <v>31</v>
       </c>
       <c r="S35" s="4">
+        <v>31</v>
+      </c>
+      <c r="T35" s="4">
         <v>20</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13</v>
       </c>
-      <c r="U35" s="4">
+      <c r="V35" s="4">
         <v>7</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5</v>
-      </c>
-      <c r="W35" s="4">
-        <v>4</v>
       </c>
       <c r="X35" s="4">
         <v>4</v>
       </c>
-      <c r="Y35" s="3">
-        <v>3</v>
+      <c r="Y35" s="4">
+        <v>4</v>
       </c>
       <c r="Z35" s="3">
         <v>3</v>
@@ -3596,86 +3683,91 @@
         <v>3</v>
       </c>
       <c r="AD35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>1</v>
+      </c>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL35" s="3"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
+        <v>51</v>
+      </c>
+      <c r="C36" s="4">
         <v>46</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>40</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>34</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>29</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>25</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>22</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>20</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>19</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>18</v>
-      </c>
-      <c r="K36" s="4">
-        <v>16</v>
       </c>
       <c r="L36" s="4">
         <v>16</v>
       </c>
       <c r="M36" s="4">
+        <v>16</v>
+      </c>
+      <c r="N36" s="4">
         <v>14</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>11</v>
       </c>
-      <c r="O36" s="4">
+      <c r="P36" s="4">
         <v>7</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <v>6</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="4">
         <v>5</v>
-      </c>
-      <c r="R36" s="4">
-        <v>4</v>
       </c>
       <c r="S36" s="4">
         <v>4</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T36" s="4">
         <v>4</v>
       </c>
-      <c r="U36" s="4">
+      <c r="U36" s="3">
         <v>4</v>
       </c>
-      <c r="V36" s="3">
-        <v>3</v>
-      </c>
-      <c r="W36" s="4"/>
+      <c r="V36" s="4">
+        <v>4</v>
+      </c>
+      <c r="W36" s="3">
+        <v>3</v>
+      </c>
       <c r="X36" s="4"/>
-      <c r="Y36" s="3"/>
+      <c r="Y36" s="4"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -3688,87 +3780,90 @@
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL36" s="3"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>304</v>
+      </c>
+      <c r="C37" s="4">
         <v>286</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>277</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>252</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>240</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>222</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>194</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>180</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>156</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>146</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>100</v>
-      </c>
-      <c r="L37" s="4">
-        <v>81</v>
       </c>
       <c r="M37" s="4">
         <v>81</v>
       </c>
       <c r="N37" s="4">
+        <v>81</v>
+      </c>
+      <c r="O37" s="4">
         <v>64</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <v>53</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>37</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <v>34</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>26</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <v>19</v>
       </c>
-      <c r="T37" s="3">
+      <c r="U37" s="3">
         <v>12</v>
       </c>
-      <c r="U37" s="4">
+      <c r="V37" s="4">
         <v>11</v>
       </c>
-      <c r="V37" s="3">
-        <v>3</v>
-      </c>
-      <c r="W37" s="4">
+      <c r="W37" s="3">
+        <v>3</v>
+      </c>
+      <c r="X37" s="4">
         <v>4</v>
       </c>
-      <c r="X37" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y37" s="3">
+      <c r="Y37" s="4">
         <v>3</v>
       </c>
       <c r="Z37" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>2</v>
+      </c>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
@@ -3779,40 +3874,41 @@
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL37" s="3"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>361</v>
+      </c>
+      <c r="C38" s="4">
         <v>340</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>321</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>320</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>318</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>304</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>281</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>255</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>176</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>127</v>
-      </c>
-      <c r="K38" s="4">
-        <v>110</v>
       </c>
       <c r="L38" s="4">
         <v>110</v>
@@ -3821,51 +3917,53 @@
         <v>110</v>
       </c>
       <c r="N38" s="4">
+        <v>110</v>
+      </c>
+      <c r="O38" s="4">
         <v>88</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <v>55</v>
       </c>
-      <c r="P38" s="4">
+      <c r="Q38" s="4">
         <v>13</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="R38" s="4">
         <v>12</v>
-      </c>
-      <c r="R38" s="4">
-        <v>8</v>
       </c>
       <c r="S38" s="4">
         <v>8</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="4">
         <v>8</v>
       </c>
-      <c r="U38" s="4">
+      <c r="U38" s="3">
+        <v>8</v>
+      </c>
+      <c r="V38" s="4">
         <v>5</v>
       </c>
-      <c r="V38" s="3">
+      <c r="W38" s="3">
         <v>5</v>
       </c>
-      <c r="W38" s="4">
+      <c r="X38" s="4">
         <v>6</v>
       </c>
-      <c r="X38" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y38" s="3">
+      <c r="Y38" s="4">
         <v>3</v>
       </c>
       <c r="Z38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA38" s="3">
         <v>2</v>
       </c>
       <c r="AB38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>1</v>
+      </c>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
@@ -3874,16 +3972,17 @@
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL38" s="3"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
+        <v>459</v>
+      </c>
+      <c r="C39" s="4">
         <v>392</v>
-      </c>
-      <c r="C39" s="4">
-        <v>285</v>
       </c>
       <c r="D39" s="4">
         <v>285</v>
@@ -3895,16 +3994,16 @@
         <v>285</v>
       </c>
       <c r="G39" s="4">
+        <v>285</v>
+      </c>
+      <c r="H39" s="4">
         <v>243</v>
       </c>
-      <c r="H39" s="4">
+      <c r="I39" s="4">
         <v>190</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>172</v>
-      </c>
-      <c r="J39" s="4">
-        <v>117</v>
       </c>
       <c r="K39" s="4">
         <v>117</v>
@@ -3916,16 +4015,16 @@
         <v>117</v>
       </c>
       <c r="N39" s="4">
+        <v>117</v>
+      </c>
+      <c r="O39" s="4">
         <v>79</v>
-      </c>
-      <c r="O39" s="4">
-        <v>49</v>
       </c>
       <c r="P39" s="4">
         <v>49</v>
       </c>
       <c r="Q39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="R39" s="4">
         <v>23</v>
@@ -3933,119 +4032,124 @@
       <c r="S39" s="4">
         <v>23</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39" s="4">
         <v>23</v>
       </c>
-      <c r="U39" s="4">
+      <c r="U39" s="3">
+        <v>23</v>
+      </c>
+      <c r="V39" s="4">
         <v>10</v>
       </c>
-      <c r="V39" s="3">
+      <c r="W39" s="3">
         <v>5</v>
       </c>
-      <c r="W39" s="4">
+      <c r="X39" s="4">
         <v>6</v>
       </c>
-      <c r="X39" s="4">
+      <c r="Y39" s="4">
         <v>5</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="Z39" s="3">
         <v>5</v>
-      </c>
-      <c r="Z39" s="3">
-        <v>4</v>
       </c>
       <c r="AA39" s="3">
         <v>4</v>
       </c>
       <c r="AB39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC39" s="3">
         <v>2</v>
       </c>
       <c r="AD39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>1</v>
+      </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL39" s="3"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>356</v>
+      </c>
+      <c r="C40" s="4">
         <v>325</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>260</v>
-      </c>
-      <c r="D40" s="4">
-        <v>249</v>
       </c>
       <c r="E40" s="4">
         <v>249</v>
       </c>
       <c r="F40" s="4">
+        <v>249</v>
+      </c>
+      <c r="G40" s="4">
         <v>235</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>200</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>167</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>117</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>113</v>
-      </c>
-      <c r="K40" s="4">
-        <v>95</v>
       </c>
       <c r="L40" s="4">
         <v>95</v>
       </c>
       <c r="M40" s="4">
+        <v>95</v>
+      </c>
+      <c r="N40" s="4">
         <v>94</v>
       </c>
-      <c r="N40" s="4">
+      <c r="O40" s="4">
         <v>43</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <v>33</v>
-      </c>
-      <c r="P40" s="4">
-        <v>31</v>
       </c>
       <c r="Q40" s="4">
         <v>31</v>
       </c>
       <c r="R40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="S40" s="4">
         <v>19</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T40" s="4">
+        <v>19</v>
+      </c>
+      <c r="U40" s="3">
         <v>11</v>
       </c>
-      <c r="U40" s="4">
+      <c r="V40" s="4">
         <v>7</v>
       </c>
-      <c r="V40" s="3">
+      <c r="W40" s="3">
         <v>5</v>
       </c>
-      <c r="W40" s="4">
-        <v>1</v>
-      </c>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="3"/>
+      <c r="X40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="4"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -4058,58 +4162,59 @@
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL40" s="3"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>635</v>
+      </c>
+      <c r="C41" s="4">
         <v>590</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>564</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>502</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>477</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>405</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>396</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>357</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>317</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>276</v>
-      </c>
-      <c r="K41" s="4">
-        <v>240</v>
       </c>
       <c r="L41" s="4">
         <v>240</v>
       </c>
       <c r="M41" s="4">
+        <v>240</v>
+      </c>
+      <c r="N41" s="4">
         <v>215</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>144</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>127</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <v>76</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>38</v>
       </c>
       <c r="R41" s="4">
         <v>38</v>
@@ -4117,38 +4222,38 @@
       <c r="S41" s="4">
         <v>38</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="4">
+        <v>38</v>
+      </c>
+      <c r="U41" s="3">
         <v>28</v>
       </c>
-      <c r="U41" s="4">
+      <c r="V41" s="4">
         <v>28</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>18</v>
       </c>
-      <c r="W41" s="4">
+      <c r="X41" s="4">
         <v>14</v>
       </c>
-      <c r="X41" s="4">
+      <c r="Y41" s="4">
         <v>13</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4</v>
       </c>
-      <c r="AB41" s="3">
-        <v>3</v>
-      </c>
       <c r="AC41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE41" s="3">
         <v>1</v>
@@ -4162,11 +4267,14 @@
       <c r="AH41" s="3">
         <v>1</v>
       </c>
-      <c r="AI41" s="3"/>
+      <c r="AI41" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL41" s="3"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -4174,28 +4282,28 @@
         <v>152</v>
       </c>
       <c r="C42" s="4">
+        <v>152</v>
+      </c>
+      <c r="D42" s="4">
         <v>109</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>108</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>98</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>87</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>60</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>29</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>9</v>
-      </c>
-      <c r="J42" s="4">
-        <v>8</v>
       </c>
       <c r="K42" s="4">
         <v>8</v>
@@ -4204,42 +4312,42 @@
         <v>8</v>
       </c>
       <c r="M42" s="4">
+        <v>8</v>
+      </c>
+      <c r="N42" s="4">
         <v>4</v>
       </c>
-      <c r="N42" s="4">
-        <v>2</v>
-      </c>
       <c r="O42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="4">
         <v>5</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="R42" s="4">
         <v>4</v>
       </c>
-      <c r="R42" s="4">
-        <v>3</v>
-      </c>
       <c r="S42" s="4">
         <v>3</v>
       </c>
-      <c r="T42" s="3">
-        <v>2</v>
-      </c>
-      <c r="U42" s="4">
-        <v>1</v>
-      </c>
-      <c r="V42" s="3">
-        <v>1</v>
-      </c>
-      <c r="W42" s="4">
+      <c r="T42" s="4">
+        <v>3</v>
+      </c>
+      <c r="U42" s="3">
+        <v>2</v>
+      </c>
+      <c r="V42" s="4">
+        <v>1</v>
+      </c>
+      <c r="W42" s="3">
         <v>1</v>
       </c>
       <c r="X42" s="4">
         <v>1</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="4">
         <v>1</v>
       </c>
       <c r="Z42" s="3">
@@ -4275,59 +4383,62 @@
       <c r="AJ42" s="3">
         <v>1</v>
       </c>
-      <c r="AK42" s="3"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AK42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="3"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>357</v>
+      </c>
+      <c r="C43" s="4">
         <v>343</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>316</v>
-      </c>
-      <c r="D43" s="4">
-        <v>287</v>
       </c>
       <c r="E43" s="4">
         <v>287</v>
       </c>
       <c r="F43" s="4">
+        <v>287</v>
+      </c>
+      <c r="G43" s="4">
         <v>253</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>206</v>
       </c>
-      <c r="H43" s="4">
+      <c r="I43" s="4">
         <v>175</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>148</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>145</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>111</v>
-      </c>
-      <c r="L43" s="4">
-        <v>98</v>
       </c>
       <c r="M43" s="4">
         <v>98</v>
       </c>
       <c r="N43" s="4">
+        <v>98</v>
+      </c>
+      <c r="O43" s="4">
         <v>61</v>
       </c>
-      <c r="O43" s="4">
+      <c r="P43" s="4">
         <v>47</v>
       </c>
-      <c r="P43" s="4">
+      <c r="Q43" s="4">
         <v>34</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>21</v>
       </c>
       <c r="R43" s="4">
         <v>21</v>
@@ -4335,20 +4446,22 @@
       <c r="S43" s="4">
         <v>21</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="4">
+        <v>21</v>
+      </c>
+      <c r="U43" s="3">
         <v>17</v>
       </c>
-      <c r="U43" s="4">
+      <c r="V43" s="4">
         <v>15</v>
       </c>
-      <c r="V43" s="3"/>
-      <c r="W43" s="4">
-        <v>1</v>
-      </c>
+      <c r="W43" s="3"/>
       <c r="X43" s="4">
         <v>1</v>
       </c>
-      <c r="Y43" s="3"/>
+      <c r="Y43" s="4">
+        <v>1</v>
+      </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -4361,58 +4474,59 @@
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL43" s="3"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="C44" s="4">
         <v>187</v>
       </c>
       <c r="D44" s="4">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E44" s="4">
         <v>170</v>
       </c>
       <c r="F44" s="4">
+        <v>170</v>
+      </c>
+      <c r="G44" s="4">
         <v>137</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>127</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>123</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>81</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>78</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>69</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>48</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>39</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>28</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <v>27</v>
       </c>
-      <c r="P44" s="4">
+      <c r="Q44" s="4">
         <v>16</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>6</v>
       </c>
       <c r="R44" s="4">
         <v>6</v>
@@ -4420,28 +4534,30 @@
       <c r="S44" s="4">
         <v>6</v>
       </c>
-      <c r="T44" s="3">
-        <v>3</v>
-      </c>
-      <c r="U44" s="4">
-        <v>2</v>
-      </c>
-      <c r="V44" s="3">
-        <v>2</v>
-      </c>
-      <c r="W44" s="4">
-        <v>1</v>
+      <c r="T44" s="4">
+        <v>6</v>
+      </c>
+      <c r="U44" s="3">
+        <v>3</v>
+      </c>
+      <c r="V44" s="4">
+        <v>2</v>
+      </c>
+      <c r="W44" s="3">
+        <v>2</v>
       </c>
       <c r="X44" s="4">
         <v>1</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="4">
         <v>1</v>
       </c>
       <c r="Z44" s="3">
         <v>1</v>
       </c>
-      <c r="AA44" s="3"/>
+      <c r="AA44" s="3">
+        <v>1</v>
+      </c>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
@@ -4452,81 +4568,82 @@
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL44" s="3"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>390</v>
+      </c>
+      <c r="C45" s="4">
         <v>341</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>311</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>299</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>290</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>235</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>184</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>161</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>123</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>99</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>83</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>82</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>67</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>41</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>28</v>
       </c>
-      <c r="P45" s="4">
+      <c r="Q45" s="4">
         <v>22</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="4">
         <v>16</v>
-      </c>
-      <c r="R45" s="4">
-        <v>12</v>
       </c>
       <c r="S45" s="4">
         <v>12</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="4">
+        <v>12</v>
+      </c>
+      <c r="U45" s="3">
         <v>6</v>
       </c>
-      <c r="U45" s="4">
+      <c r="V45" s="4">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>3</v>
-      </c>
-      <c r="W45" s="4">
+      <c r="W45" s="3">
         <v>3</v>
       </c>
       <c r="X45" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="4">
         <v>1</v>
       </c>
       <c r="Z45" s="3">
@@ -4541,7 +4658,9 @@
       <c r="AC45" s="3">
         <v>1</v>
       </c>
-      <c r="AD45" s="3"/>
+      <c r="AD45" s="3">
+        <v>1</v>
+      </c>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
@@ -4549,49 +4668,50 @@
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL45" s="3"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>828</v>
+      </c>
+      <c r="C46" s="4">
         <v>784</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>705</v>
-      </c>
-      <c r="D46" s="4">
-        <v>685</v>
       </c>
       <c r="E46" s="4">
         <v>685</v>
       </c>
       <c r="F46" s="4">
+        <v>685</v>
+      </c>
+      <c r="G46" s="4">
         <v>635</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>561</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>504</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>451</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>441</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>350</v>
-      </c>
-      <c r="L46" s="4">
-        <v>308</v>
       </c>
       <c r="M46" s="4">
         <v>308</v>
       </c>
       <c r="N46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="O46" s="4">
         <v>196</v>
@@ -4600,7 +4720,7 @@
         <v>196</v>
       </c>
       <c r="Q46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="R46" s="4">
         <v>60</v>
@@ -4608,37 +4728,39 @@
       <c r="S46" s="4">
         <v>60</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="4">
+        <v>60</v>
+      </c>
+      <c r="U46" s="3">
         <v>40</v>
       </c>
-      <c r="U46" s="4">
+      <c r="V46" s="4">
         <v>35</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>24</v>
       </c>
-      <c r="W46" s="4">
+      <c r="X46" s="4">
         <v>19</v>
       </c>
-      <c r="X46" s="4">
+      <c r="Y46" s="4">
         <v>10</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4</v>
       </c>
-      <c r="AB46" s="3">
-        <v>3</v>
-      </c>
       <c r="AC46" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>2</v>
+      </c>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
@@ -4646,82 +4768,83 @@
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL46" s="3"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>720</v>
+      </c>
+      <c r="C47" s="4">
         <v>655</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>636</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>630</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>556</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>525</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>377</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>324</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>161</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>144</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>133</v>
-      </c>
-      <c r="L47" s="4">
-        <v>112</v>
       </c>
       <c r="M47" s="4">
         <v>112</v>
       </c>
       <c r="N47" s="4">
+        <v>112</v>
+      </c>
+      <c r="O47" s="4">
         <v>93</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>85</v>
       </c>
-      <c r="P47" s="4">
+      <c r="Q47" s="4">
         <v>67</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <v>61</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <v>41</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <v>23</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9</v>
       </c>
-      <c r="U47" s="4">
+      <c r="V47" s="4">
         <v>9</v>
       </c>
-      <c r="V47" s="3">
-        <v>3</v>
-      </c>
-      <c r="W47" s="4">
+      <c r="W47" s="3">
+        <v>3</v>
+      </c>
+      <c r="X47" s="4">
         <v>5</v>
       </c>
-      <c r="X47" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>2</v>
+      <c r="Y47" s="4">
+        <v>3</v>
       </c>
       <c r="Z47" s="3">
         <v>2</v>
@@ -4756,56 +4879,59 @@
       <c r="AJ47" s="3">
         <v>2</v>
       </c>
-      <c r="AK47" s="3"/>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AK47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL47" s="3"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>181</v>
+      </c>
+      <c r="C48" s="4">
         <v>167</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>142</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>137</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>111</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>85</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>74</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>40</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>32</v>
-      </c>
-      <c r="J48" s="4">
-        <v>15</v>
       </c>
       <c r="K48" s="4">
         <v>15</v>
       </c>
       <c r="L48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M48" s="4">
         <v>13</v>
       </c>
       <c r="N48" s="4">
+        <v>13</v>
+      </c>
+      <c r="O48" s="4">
         <v>10</v>
       </c>
-      <c r="O48" s="4">
+      <c r="P48" s="4">
         <v>7</v>
-      </c>
-      <c r="P48" s="4">
-        <v>5</v>
       </c>
       <c r="Q48" s="4">
         <v>5</v>
@@ -4814,14 +4940,16 @@
         <v>5</v>
       </c>
       <c r="S48" s="4">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="T48" s="4">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="3"/>
       <c r="X48" s="4"/>
-      <c r="Y48" s="3"/>
+      <c r="Y48" s="4"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -4834,8 +4962,9 @@
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL48" s="3"/>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -4843,73 +4972,73 @@
         <v>118</v>
       </c>
       <c r="C49" s="4">
+        <v>118</v>
+      </c>
+      <c r="D49" s="4">
         <v>112</v>
-      </c>
-      <c r="D49" s="4">
-        <v>103</v>
       </c>
       <c r="E49" s="4">
         <v>103</v>
       </c>
       <c r="F49" s="4">
+        <v>103</v>
+      </c>
+      <c r="G49" s="4">
         <v>89</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>81</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>72</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>58</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>53</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>40</v>
-      </c>
-      <c r="L49" s="4">
-        <v>35</v>
       </c>
       <c r="M49" s="4">
         <v>35</v>
       </c>
       <c r="N49" s="4">
+        <v>35</v>
+      </c>
+      <c r="O49" s="4">
         <v>21</v>
-      </c>
-      <c r="O49" s="4">
-        <v>19</v>
       </c>
       <c r="P49" s="4">
         <v>19</v>
       </c>
       <c r="Q49" s="4">
+        <v>19</v>
+      </c>
+      <c r="R49" s="4">
         <v>13</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <v>12</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <v>7</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <v>5</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5</v>
       </c>
-      <c r="W49" s="4">
+      <c r="X49" s="4">
         <v>6</v>
       </c>
-      <c r="X49" s="4">
+      <c r="Y49" s="4">
         <v>5</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>4</v>
       </c>
       <c r="Z49" s="3">
         <v>4</v>
@@ -4924,66 +5053,69 @@
         <v>4</v>
       </c>
       <c r="AD49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE49" s="3">
         <v>1</v>
       </c>
-      <c r="AF49" s="3"/>
+      <c r="AF49" s="3">
+        <v>1</v>
+      </c>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL49" s="3"/>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>101</v>
+      </c>
+      <c r="C50" s="4">
         <v>98</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>91</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>83</v>
-      </c>
-      <c r="E50" s="4">
-        <v>61</v>
       </c>
       <c r="F50" s="4">
         <v>61</v>
       </c>
       <c r="G50" s="4">
+        <v>61</v>
+      </c>
+      <c r="H50" s="4">
         <v>51</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
         <v>48</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>40</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <v>25</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>15</v>
-      </c>
-      <c r="L50" s="4">
-        <v>13</v>
       </c>
       <c r="M50" s="4">
         <v>13</v>
       </c>
       <c r="N50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O50" s="4">
         <v>5</v>
       </c>
       <c r="P50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="4">
         <v>4</v>
@@ -4992,16 +5124,18 @@
         <v>4</v>
       </c>
       <c r="S50" s="4">
-        <v>3</v>
-      </c>
-      <c r="T50" s="3">
-        <v>1</v>
-      </c>
-      <c r="U50" s="4"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="T50" s="4">
+        <v>3</v>
+      </c>
+      <c r="U50" s="3">
+        <v>1</v>
+      </c>
+      <c r="V50" s="4"/>
+      <c r="W50" s="3"/>
       <c r="X50" s="4"/>
-      <c r="Y50" s="3"/>
+      <c r="Y50" s="4"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
@@ -5014,40 +5148,41 @@
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL50" s="3"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>418</v>
+      </c>
+      <c r="C51" s="4">
         <v>349</v>
-      </c>
-      <c r="C51" s="4">
-        <v>346</v>
       </c>
       <c r="D51" s="4">
         <v>346</v>
       </c>
       <c r="E51" s="4">
+        <v>346</v>
+      </c>
+      <c r="F51" s="4">
         <v>336</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>232</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>219</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>184</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>151</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>109</v>
-      </c>
-      <c r="K51" s="4">
-        <v>70</v>
       </c>
       <c r="L51" s="4">
         <v>70</v>
@@ -5056,39 +5191,39 @@
         <v>70</v>
       </c>
       <c r="N51" s="4">
+        <v>70</v>
+      </c>
+      <c r="O51" s="4">
         <v>60</v>
       </c>
-      <c r="O51" s="4">
+      <c r="P51" s="4">
         <v>51</v>
-      </c>
-      <c r="P51" s="4">
-        <v>33</v>
       </c>
       <c r="Q51" s="4">
         <v>33</v>
       </c>
       <c r="R51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="S51" s="4">
         <v>21</v>
       </c>
-      <c r="T51" s="3">
+      <c r="T51" s="4">
         <v>21</v>
       </c>
-      <c r="U51" s="4">
+      <c r="U51" s="3">
         <v>21</v>
       </c>
-      <c r="V51" s="3">
+      <c r="V51" s="4">
+        <v>21</v>
+      </c>
+      <c r="W51" s="3">
         <v>19</v>
       </c>
-      <c r="W51" s="4">
+      <c r="X51" s="4">
         <v>15</v>
       </c>
-      <c r="X51" s="4">
-        <v>11</v>
-      </c>
-      <c r="Y51" s="3">
+      <c r="Y51" s="4">
         <v>11</v>
       </c>
       <c r="Z51" s="3">
@@ -5101,172 +5236,179 @@
         <v>11</v>
       </c>
       <c r="AC51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AD51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE51" s="3">
         <v>1</v>
       </c>
-      <c r="AF51" s="3"/>
+      <c r="AF51" s="3">
+        <v>1</v>
+      </c>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
-    </row>
-    <row r="52" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AL51" s="3"/>
+    </row>
+    <row r="52" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>13313</v>
+        <v>14580</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
+        <v>13313</v>
+      </c>
+      <c r="D52" s="15">
+        <f>SUM(D8:D51)</f>
         <v>12257</v>
       </c>
-      <c r="D52" s="15">
-        <f t="shared" ref="D52:I52" si="0">SUM(D8:D51)</f>
+      <c r="E52" s="15">
+        <f t="shared" ref="E52:J52" si="0">SUM(E8:E51)</f>
         <v>11536</v>
       </c>
-      <c r="E52" s="15">
+      <c r="F52" s="15">
         <f t="shared" si="0"/>
         <v>10819</v>
       </c>
-      <c r="F52" s="15">
+      <c r="G52" s="15">
         <f t="shared" si="0"/>
         <v>9729</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>8441</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>7252</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>6043</v>
       </c>
-      <c r="J52" s="15">
-        <f t="shared" ref="J52:O52" si="1">SUM(J8:J51)</f>
+      <c r="K52" s="15">
+        <f t="shared" ref="K52:P52" si="1">SUM(K8:K51)</f>
         <v>5333</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
-      <c r="L52" s="15">
+      <c r="M52" s="15">
         <f t="shared" si="1"/>
         <v>3818</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="15">
         <f t="shared" si="1"/>
         <v>3665</v>
       </c>
-      <c r="N52" s="15">
+      <c r="O52" s="15">
         <f t="shared" si="1"/>
         <v>2748</v>
       </c>
-      <c r="O52" s="14">
+      <c r="P52" s="14">
         <f t="shared" si="1"/>
         <v>2184</v>
       </c>
-      <c r="P52" s="5">
-        <f t="shared" ref="P52:AK52" si="2">SUM(P8:P51)</f>
+      <c r="Q52" s="5">
+        <f t="shared" ref="Q52:AL52" si="2">SUM(Q8:Q51)</f>
         <v>1641</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="2"/>
         <v>1105</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="2"/>
         <v>977</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="2"/>
         <v>827</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="2"/>
         <v>569</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="2"/>
         <v>454</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="2"/>
         <v>199</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AB52" s="5">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AC52" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="AC52" s="5">
+      <c r="AD52" s="5">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="AD52" s="5">
+      <c r="AE52" s="5">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="AE52" s="5">
+      <c r="AF52" s="5">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="AF52" s="5">
+      <c r="AG52" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AG52" s="5">
+      <c r="AH52" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="AH52" s="5">
+      <c r="AI52" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AI52" s="5">
+      <c r="AJ52" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AJ52" s="5">
+      <c r="AK52" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AK52" s="5">
+      <c r="AL52" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:37" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:38" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -5292,16 +5434,17 @@
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
       <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Mo5FF+dcw7yu1sJf/dfgEj/kIiGjauu4UE7dkaOqCltSt7vLPcmG3Fwn4p4xxppKc4w6Pa/BUkwMOsN32uO3xw==" saltValue="TcmMC+/arimWOxAEqQ5SrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PHMQnA8bFgpP5zT0VQLTZKdUW4LyFuxks7AruwEtwWdR9VmZu8pM41ZsLMCwMjS+zRy8h8MPlib46UnTtP7XLg==" saltValue="fUJ0XJZdkDQskONiLIy9IQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:W54"/>
+    <mergeCell ref="A54:X54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N52:AK52 J52:L52 B52:H52" formulaRange="1"/>
+    <ignoredError sqref="O52:AL52 K52:M52 B52:I52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5311,31 +5454,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:U54"/>
+  <dimension ref="A2:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="21" width="11.140625" customWidth="1"/>
+    <col min="2" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="22" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S3" s="9"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -5399,71 +5542,77 @@
       <c r="U6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43922</v>
+      </c>
+      <c r="C7" s="13">
         <v>43921</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43920</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43919</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43918</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43917</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43916</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43915</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43914</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43913</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43912</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43911</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43910</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43909</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>43908</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="13">
         <v>43907</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>43906</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43905</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43904</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43903</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43902</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -5485,10 +5634,11 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T8" s="4"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -5499,7 +5649,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -5511,12 +5661,14 @@
         <v>2</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -5526,10 +5678,11 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -5548,7 +5701,9 @@
       <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -5561,10 +5716,11 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -5572,10 +5728,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
         <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>7</v>
       </c>
       <c r="E11" s="4">
         <v>7</v>
@@ -5584,12 +5740,14 @@
         <v>7</v>
       </c>
       <c r="G11" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -5600,15 +5758,16 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T11" s="4"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -5616,7 +5775,9 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -5631,32 +5792,35 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T12" s="4"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
         <v>8</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7</v>
       </c>
       <c r="D13" s="4">
         <v>7</v>
       </c>
       <c r="E13" s="4">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
       <c r="G13" s="4">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -5668,15 +5832,16 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T13" s="4"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -5700,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
@@ -5708,37 +5873,40 @@
       <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T14" s="4"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11">
         <v>15</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>12</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>8</v>
-      </c>
-      <c r="E15" s="11">
-        <v>7</v>
       </c>
       <c r="F15" s="11">
         <v>7</v>
       </c>
       <c r="G15" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15" s="11">
         <v>5</v>
@@ -5750,7 +5918,7 @@
         <v>5</v>
       </c>
       <c r="K15" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" s="11">
         <v>4</v>
@@ -5759,19 +5927,22 @@
         <v>4</v>
       </c>
       <c r="N15" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O15" s="11">
-        <v>1</v>
-      </c>
-      <c r="P15" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="11"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T15" s="11"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -5779,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -5796,7 +5967,9 @@
       <c r="H16" s="4">
         <v>1</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -5807,24 +5980,25 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T16" s="4"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
         <v>18</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>11</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>7</v>
-      </c>
-      <c r="E17" s="4">
-        <v>6</v>
       </c>
       <c r="F17" s="4">
         <v>6</v>
@@ -5833,7 +6007,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4">
         <v>3</v>
@@ -5845,7 +6019,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="4">
         <v>2</v>
@@ -5854,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="4">
         <v>1</v>
@@ -5868,12 +6042,15 @@
       <c r="S17" s="4">
         <v>1</v>
       </c>
-      <c r="T17" s="3">
-        <v>1</v>
-      </c>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -5881,23 +6058,23 @@
         <v>12</v>
       </c>
       <c r="C18" s="4">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
         <v>11</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>6</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
       </c>
       <c r="F18" s="4">
         <v>5</v>
       </c>
       <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
         <v>4</v>
       </c>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
       <c r="I18" s="4">
         <v>2</v>
       </c>
@@ -5908,19 +6085,22 @@
         <v>2</v>
       </c>
       <c r="L18" s="4">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T18" s="4"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -5942,21 +6122,22 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T19" s="4"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4">
         <v>9</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4">
         <v>3</v>
@@ -5968,7 +6149,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -6003,12 +6184,15 @@
       <c r="S20" s="4">
         <v>1</v>
       </c>
-      <c r="T20" s="3">
-        <v>1</v>
-      </c>
-      <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T20" s="4">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -6030,21 +6214,22 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T21" s="4"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4">
         <v>4</v>
@@ -6053,10 +6238,10 @@
         <v>4</v>
       </c>
       <c r="G22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -6064,7 +6249,9 @@
       <c r="J22" s="4">
         <v>1</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -6073,10 +6260,11 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T22" s="4"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -6084,7 +6272,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D23" s="11">
         <v>5</v>
@@ -6099,13 +6287,13 @@
         <v>5</v>
       </c>
       <c r="H23" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" s="11">
         <v>4</v>
       </c>
       <c r="J23" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23" s="11">
         <v>3</v>
@@ -6114,10 +6302,10 @@
         <v>3</v>
       </c>
       <c r="M23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="11">
         <v>1</v>
@@ -6125,13 +6313,16 @@
       <c r="P23" s="11">
         <v>1</v>
       </c>
-      <c r="Q23" s="11"/>
+      <c r="Q23" s="11">
+        <v>1</v>
+      </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="11"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T23" s="11"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="11"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -6153,28 +6344,29 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T24" s="11"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
         <v>9</v>
       </c>
       <c r="D25" s="4">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4">
         <v>6</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="F25" s="4">
-        <v>3</v>
-      </c>
       <c r="G25" s="4">
         <v>3</v>
       </c>
@@ -6188,13 +6380,13 @@
         <v>3</v>
       </c>
       <c r="K25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" s="4">
         <v>2</v>
       </c>
       <c r="M25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
@@ -6202,23 +6394,26 @@
       <c r="O25" s="4">
         <v>1</v>
       </c>
-      <c r="P25" s="4"/>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T25" s="4"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11">
         <v>4</v>
       </c>
-      <c r="C26" s="11">
-        <v>3</v>
-      </c>
       <c r="D26" s="11">
         <v>3</v>
       </c>
@@ -6226,7 +6421,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="11">
         <v>1</v>
@@ -6234,7 +6429,9 @@
       <c r="H26" s="11">
         <v>1</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -6245,17 +6442,20 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="11"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T26" s="11"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="11">
         <v>1</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -6272,10 +6472,11 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="11"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T27" s="11"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="11"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -6283,7 +6484,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -6297,7 +6498,9 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -6309,19 +6512,20 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T28" s="4"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4">
         <v>5</v>
       </c>
-      <c r="C29" s="4">
-        <v>3</v>
-      </c>
       <c r="D29" s="4">
         <v>3</v>
       </c>
@@ -6337,7 +6541,9 @@
       <c r="H29" s="4">
         <v>3</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="4">
+        <v>3</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -6348,25 +6554,26 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T29" s="4"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4">
         <v>7</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>6</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>4</v>
       </c>
-      <c r="E30" s="4">
-        <v>3</v>
-      </c>
       <c r="F30" s="4">
         <v>3</v>
       </c>
@@ -6374,12 +6581,14 @@
         <v>3</v>
       </c>
       <c r="H30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4">
         <v>4</v>
       </c>
-      <c r="I30" s="4">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -6389,10 +6598,11 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T30" s="4"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -6414,10 +6624,11 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="4"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T31" s="4"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -6439,21 +6650,22 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T32" s="4"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -6467,7 +6679,9 @@
       <c r="H33" s="4">
         <v>1</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -6478,33 +6692,34 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="4"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T33" s="4"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4">
         <v>18</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>15</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>11</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>10</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>8</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>5</v>
-      </c>
-      <c r="H34" s="4">
-        <v>4</v>
       </c>
       <c r="I34" s="4">
         <v>4</v>
@@ -6516,13 +6731,13 @@
         <v>4</v>
       </c>
       <c r="L34" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M34" s="4">
         <v>2</v>
       </c>
       <c r="N34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="4">
         <v>1</v>
@@ -6530,20 +6745,25 @@
       <c r="P34" s="4">
         <v>1</v>
       </c>
-      <c r="Q34" s="4"/>
+      <c r="Q34" s="4">
+        <v>1</v>
+      </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="4"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T34" s="4"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -6560,10 +6780,11 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="4"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T35" s="4"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="4"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -6585,14 +6806,17 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="4"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T36" s="4"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -6610,10 +6834,11 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="4"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T37" s="4"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="4"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -6635,15 +6860,16 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="4"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T38" s="4"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39" s="4">
         <v>3</v>
@@ -6658,10 +6884,10 @@
         <v>3</v>
       </c>
       <c r="G39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="4">
         <v>1</v>
@@ -6696,14 +6922,17 @@
       <c r="S39" s="4">
         <v>1</v>
       </c>
-      <c r="T39" s="3">
-        <v>1</v>
-      </c>
-      <c r="U39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T39" s="4">
+        <v>1</v>
+      </c>
+      <c r="U39" s="3">
+        <v>1</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -6714,7 +6943,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" s="4">
         <v>5</v>
@@ -6723,10 +6952,10 @@
         <v>5</v>
       </c>
       <c r="G40" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" s="4">
         <v>2</v>
@@ -6735,7 +6964,7 @@
         <v>2</v>
       </c>
       <c r="K40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="4">
         <v>1</v>
@@ -6743,21 +6972,24 @@
       <c r="M40" s="4">
         <v>1</v>
       </c>
-      <c r="N40" s="4"/>
+      <c r="N40" s="4">
+        <v>1</v>
+      </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="4"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T40" s="4"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="4"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C41" s="4">
         <v>4</v>
@@ -6766,18 +6998,20 @@
         <v>4</v>
       </c>
       <c r="E41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
       </c>
-      <c r="I41" s="4"/>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -6788,10 +7022,11 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="4"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T41" s="4"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="4"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -6799,10 +7034,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -6817,7 +7052,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" s="4">
         <v>1</v>
@@ -6840,21 +7075,24 @@
       <c r="P42" s="4">
         <v>1</v>
       </c>
-      <c r="Q42" s="4"/>
+      <c r="Q42" s="4">
+        <v>1</v>
+      </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="4"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T42" s="4"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4">
         <v>10</v>
-      </c>
-      <c r="C43" s="4">
-        <v>9</v>
       </c>
       <c r="D43" s="4">
         <v>9</v>
@@ -6863,18 +7101,20 @@
         <v>9</v>
       </c>
       <c r="F43" s="4">
+        <v>9</v>
+      </c>
+      <c r="G43" s="4">
         <v>7</v>
-      </c>
-      <c r="G43" s="4">
-        <v>5</v>
       </c>
       <c r="H43" s="4">
         <v>5</v>
       </c>
       <c r="I43" s="4">
-        <v>2</v>
-      </c>
-      <c r="J43" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="J43" s="4">
+        <v>2</v>
+      </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -6884,10 +7124,11 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="4"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T43" s="4"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="4"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -6903,7 +7144,9 @@
       <c r="E44" s="4">
         <v>2</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -6917,10 +7160,11 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="4"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T44" s="4"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="4"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -6928,7 +7172,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D45" s="4">
         <v>3</v>
@@ -6937,7 +7181,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="4">
         <v>2</v>
@@ -6958,46 +7202,49 @@
         <v>2</v>
       </c>
       <c r="M45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45" s="4">
         <v>1</v>
       </c>
-      <c r="O45" s="4"/>
+      <c r="O45" s="4">
+        <v>1</v>
+      </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="4"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T45" s="4"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="4">
         <v>7</v>
       </c>
       <c r="D46" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E46" s="4">
         <v>6</v>
       </c>
       <c r="F46" s="4">
+        <v>6</v>
+      </c>
+      <c r="G46" s="4">
         <v>5</v>
       </c>
-      <c r="G46" s="4">
-        <v>3</v>
-      </c>
       <c r="H46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
@@ -7008,17 +7255,20 @@
       <c r="L46" s="4">
         <v>1</v>
       </c>
-      <c r="M46" s="4"/>
+      <c r="M46" s="4">
+        <v>1</v>
+      </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="4"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T46" s="4"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="4"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -7026,21 +7276,23 @@
         <v>5</v>
       </c>
       <c r="C47" s="4">
+        <v>5</v>
+      </c>
+      <c r="D47" s="4">
         <v>4</v>
       </c>
-      <c r="D47" s="4">
-        <v>2</v>
-      </c>
       <c r="E47" s="4">
         <v>2</v>
       </c>
       <c r="F47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="4"/>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -7052,15 +7304,16 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="4"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T47" s="4"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="4"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="4">
         <v>3</v>
@@ -7072,15 +7325,17 @@
         <v>3</v>
       </c>
       <c r="F48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="4">
         <v>1</v>
       </c>
-      <c r="I48" s="4"/>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -7091,10 +7346,11 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="4"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T48" s="4"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="4"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -7116,10 +7372,11 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="4"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T49" s="4"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="4"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -7159,24 +7416,27 @@
       <c r="M50" s="4">
         <v>1</v>
       </c>
-      <c r="N50" s="4"/>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="4"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T50" s="4"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="4"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>9</v>
+      </c>
+      <c r="C51" s="4">
         <v>5</v>
-      </c>
-      <c r="C51" s="4">
-        <v>4</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -7188,12 +7448,14 @@
         <v>4</v>
       </c>
       <c r="G51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" s="4">
-        <v>2</v>
-      </c>
-      <c r="I51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I51" s="4">
+        <v>2</v>
+      </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -7204,77 +7466,78 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="4"/>
-    </row>
-    <row r="52" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T51" s="4"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="4"/>
+    </row>
+    <row r="52" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
+        <v>196</v>
+      </c>
+      <c r="D52" s="15">
+        <f>SUM(D8:D51)</f>
         <v>163</v>
       </c>
-      <c r="D52" s="15">
-        <f t="shared" ref="D52:I52" si="0">SUM(D8:D51)</f>
+      <c r="E52" s="15">
+        <f t="shared" ref="E52:J52" si="0">SUM(E8:E51)</f>
         <v>128</v>
       </c>
-      <c r="E52" s="15">
+      <c r="F52" s="15">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="F52" s="15">
+      <c r="G52" s="15">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J52" s="15">
-        <f t="shared" ref="J52:U52" si="1">SUM(J8:J51)</f>
+      <c r="K52" s="15">
+        <f t="shared" ref="K52:V52" si="1">SUM(K8:K51)</f>
         <v>31</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="L52" s="15">
+      <c r="M52" s="15">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="15">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="N52" s="15">
+      <c r="O52" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O52" s="14">
+      <c r="P52" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P52" s="5">
+      <c r="Q52" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q52" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
       <c r="R52" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -7289,11 +7552,15 @@
       </c>
       <c r="U52" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="V52" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -7317,16 +7584,17 @@
       <c r="S54" s="17"/>
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zt7NhCbmDeRsEpGxTAVhiCgH72IFOE/PHuH0DkShxEYmxsT6aZWazC/KjtJNlBYc4DPdMA3W/plV7/Vkz/mBkg==" saltValue="ztAr4B2bba1yMS80pQDSVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7HTUxDo0ripOlCy5V6vVGrZZQkm+csiSfai6xcMVAdM66x5k7MpCOPo1hrV4NvTQWr8ustDMalRk2/zjxYNrcQ==" saltValue="nBNRrqBDYQG1UbHDvNunbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:U54"/>
+    <mergeCell ref="A54:V54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B52:U52" formulaRange="1"/>
+    <ignoredError sqref="B52:V52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
   <si>
     <t>Fälle</t>
   </si>
@@ -606,7 +606,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AL54"/>
+  <dimension ref="A2:AM54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
@@ -615,28 +615,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="22" width="11.140625" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" customWidth="1"/>
-    <col min="25" max="26" width="11.5703125" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" customWidth="1"/>
+    <col min="2" max="18" width="11.7109375" customWidth="1"/>
+    <col min="19" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T3" s="9"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -751,205 +751,211 @@
       <c r="AL6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43923</v>
+      </c>
+      <c r="C7" s="13">
         <v>43922</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43921</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43920</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43919</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43918</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43917</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43916</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43915</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43914</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43913</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43912</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43911</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43910</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>43909</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="13">
         <v>43908</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="R7" s="13">
         <v>43907</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43906</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43905</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43904</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43903</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43902</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43901</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43900</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43899</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43898</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43897</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43896</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43895</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43894</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AF7" s="12">
         <v>43893</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AG7" s="12">
         <v>43892</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AH7" s="12">
         <v>43891</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AI7" s="12">
         <v>43890</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AJ7" s="12">
         <v>43889</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AK7" s="12">
         <v>43888</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AL7" s="12">
         <v>43887</v>
       </c>
-      <c r="AL7" s="12">
+      <c r="AM7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="C8" s="4">
         <v>228</v>
       </c>
       <c r="D8" s="4">
+        <v>228</v>
+      </c>
+      <c r="E8" s="4">
         <v>217</v>
-      </c>
-      <c r="E8" s="4">
-        <v>189</v>
       </c>
       <c r="F8" s="4">
         <v>189</v>
       </c>
       <c r="G8" s="4">
+        <v>189</v>
+      </c>
+      <c r="H8" s="4">
         <v>130</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>99</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>85</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>64</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>60</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>44</v>
-      </c>
-      <c r="M8" s="4">
-        <v>39</v>
       </c>
       <c r="N8" s="4">
         <v>39</v>
       </c>
       <c r="O8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="P8" s="4">
         <v>26</v>
       </c>
       <c r="Q8" s="4">
+        <v>26</v>
+      </c>
+      <c r="R8" s="4">
         <v>24</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>13</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <v>12</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <v>7</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>6</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4</v>
       </c>
-      <c r="X8" s="4">
-        <v>3</v>
-      </c>
       <c r="Y8" s="4">
         <v>3</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="4">
         <v>3</v>
       </c>
       <c r="AA8" s="3">
         <v>3</v>
       </c>
       <c r="AB8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC8" s="3">
         <v>2</v>
@@ -957,7 +963,9 @@
       <c r="AD8" s="3">
         <v>2</v>
       </c>
-      <c r="AE8" s="3"/>
+      <c r="AE8" s="3">
+        <v>2</v>
+      </c>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
@@ -965,90 +973,93 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM8" s="3"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4">
+        <v>93</v>
+      </c>
+      <c r="C9" s="4">
         <v>91</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>84</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>73</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>65</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>55</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>45</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>39</v>
-      </c>
-      <c r="I9" s="4">
-        <v>36</v>
       </c>
       <c r="J9" s="4">
         <v>36</v>
       </c>
       <c r="K9" s="4">
+        <v>36</v>
+      </c>
+      <c r="L9" s="4">
         <v>33</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>25</v>
-      </c>
-      <c r="M9" s="4">
-        <v>21</v>
       </c>
       <c r="N9" s="4">
         <v>21</v>
       </c>
       <c r="O9" s="4">
+        <v>21</v>
+      </c>
+      <c r="P9" s="4">
         <v>17</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>14</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>12</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>7</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>5</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>3</v>
-      </c>
-      <c r="V9" s="4">
-        <v>3</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2</v>
-      </c>
-      <c r="X9" s="4">
-        <v>1</v>
+      <c r="V9" s="3">
+        <v>3</v>
+      </c>
+      <c r="W9" s="4">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3">
+        <v>2</v>
       </c>
       <c r="Y9" s="4">
         <v>1</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="4">
         <v>1</v>
       </c>
       <c r="AA9" s="3">
         <v>1</v>
       </c>
-      <c r="AB9" s="3"/>
+      <c r="AB9" s="3">
+        <v>1</v>
+      </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -1059,43 +1070,44 @@
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM9" s="3"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
+        <v>264</v>
+      </c>
+      <c r="C10" s="4">
         <v>245</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>236</v>
-      </c>
-      <c r="D10" s="4">
-        <v>216</v>
       </c>
       <c r="E10" s="4">
         <v>216</v>
       </c>
       <c r="F10" s="4">
+        <v>216</v>
+      </c>
+      <c r="G10" s="4">
         <v>196</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>182</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>144</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>106</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>82</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>74</v>
-      </c>
-      <c r="L10" s="4">
-        <v>45</v>
       </c>
       <c r="M10" s="4">
         <v>45</v>
@@ -1107,13 +1119,13 @@
         <v>45</v>
       </c>
       <c r="P10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="4">
         <v>17</v>
       </c>
       <c r="R10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="S10" s="4">
         <v>5</v>
@@ -1121,31 +1133,33 @@
       <c r="T10" s="4">
         <v>5</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="4">
         <v>5</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
+        <v>5</v>
+      </c>
+      <c r="W10" s="4">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>3</v>
-      </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <v>3</v>
       </c>
       <c r="Y10" s="4">
         <v>3</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="4">
         <v>3</v>
       </c>
       <c r="AA10" s="3">
         <v>3</v>
       </c>
       <c r="AB10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1</v>
+      </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
@@ -1155,52 +1169,53 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM10" s="3"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>695</v>
+      </c>
+      <c r="C11" s="4">
         <v>651</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>432</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>413</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>385</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>369</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>333</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>263</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>233</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>224</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>187</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>117</v>
-      </c>
-      <c r="M11" s="4">
-        <v>67</v>
       </c>
       <c r="N11" s="4">
         <v>67</v>
       </c>
       <c r="O11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="P11" s="4">
         <v>28</v>
@@ -1209,7 +1224,7 @@
         <v>28</v>
       </c>
       <c r="R11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="S11" s="4">
         <v>9</v>
@@ -1217,22 +1232,22 @@
       <c r="T11" s="4">
         <v>9</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="4">
         <v>9</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
+        <v>9</v>
+      </c>
+      <c r="W11" s="4">
         <v>4</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>4</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <v>4</v>
       </c>
-      <c r="Y11" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="4">
         <v>3</v>
       </c>
       <c r="AA11" s="3">
@@ -1242,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="AC11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="3">
         <v>1</v>
@@ -1265,86 +1280,89 @@
       <c r="AJ11" s="3">
         <v>1</v>
       </c>
-      <c r="AK11" s="3"/>
+      <c r="AK11" s="3">
+        <v>1</v>
+      </c>
       <c r="AL11" s="3"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM11" s="3"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>203</v>
+      </c>
+      <c r="C12" s="4">
         <v>192</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>190</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>186</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>185</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>178</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>175</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>153</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>121</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>89</v>
-      </c>
-      <c r="K12" s="4">
-        <v>83</v>
       </c>
       <c r="L12" s="4">
         <v>83</v>
       </c>
       <c r="M12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="N12" s="4">
         <v>71</v>
       </c>
       <c r="O12" s="4">
+        <v>71</v>
+      </c>
+      <c r="P12" s="4">
         <v>62</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>39</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>31</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>29</v>
-      </c>
-      <c r="S12" s="4">
-        <v>13</v>
       </c>
       <c r="T12" s="4">
         <v>13</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="4">
+        <v>13</v>
+      </c>
+      <c r="V12" s="3">
         <v>8</v>
       </c>
-      <c r="V12" s="4">
+      <c r="W12" s="4">
         <v>4</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <v>5</v>
       </c>
-      <c r="Y12" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="4">
         <v>4</v>
       </c>
       <c r="AA12" s="3">
@@ -1354,12 +1372,14 @@
         <v>4</v>
       </c>
       <c r="AC12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>1</v>
+      </c>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
@@ -1367,91 +1387,92 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM12" s="3"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>544</v>
+      </c>
+      <c r="C13" s="4">
         <v>475</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>419</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>392</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>372</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>299</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>273</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>254</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>223</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>197</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>178</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>167</v>
-      </c>
-      <c r="M13" s="4">
-        <v>134</v>
       </c>
       <c r="N13" s="4">
         <v>134</v>
       </c>
       <c r="O13" s="4">
+        <v>134</v>
+      </c>
+      <c r="P13" s="4">
         <v>101</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>78</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>54</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>45</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <v>42</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <v>26</v>
       </c>
-      <c r="U13" s="3">
+      <c r="V13" s="3">
         <v>19</v>
       </c>
-      <c r="V13" s="4">
+      <c r="W13" s="4">
         <v>18</v>
       </c>
-      <c r="W13" s="3">
+      <c r="X13" s="3">
         <v>12</v>
-      </c>
-      <c r="X13" s="4">
-        <v>6</v>
       </c>
       <c r="Y13" s="4">
         <v>6</v>
       </c>
-      <c r="Z13" s="3">
-        <v>5</v>
+      <c r="Z13" s="4">
+        <v>6</v>
       </c>
       <c r="AA13" s="3">
         <v>5</v>
       </c>
       <c r="AB13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC13" s="3">
         <v>4</v>
@@ -1460,13 +1481,13 @@
         <v>4</v>
       </c>
       <c r="AE13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF13" s="3">
         <v>1</v>
       </c>
       <c r="AG13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="3">
         <v>3</v>
@@ -1477,87 +1498,90 @@
       <c r="AJ13" s="3">
         <v>3</v>
       </c>
-      <c r="AK13" s="3"/>
+      <c r="AK13" s="3">
+        <v>3</v>
+      </c>
       <c r="AL13" s="3"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>345</v>
+      </c>
+      <c r="C14" s="4">
         <v>329</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>308</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>295</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>278</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>259</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>226</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>210</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>182</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>159</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>150</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>120</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>108</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>92</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>76</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>61</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>51</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>43</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>34</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <v>26</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15</v>
       </c>
-      <c r="V14" s="4">
+      <c r="W14" s="4">
         <v>12</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <v>6</v>
       </c>
-      <c r="Y14" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>1</v>
+      <c r="Z14" s="4">
+        <v>2</v>
       </c>
       <c r="AA14" s="3">
         <v>1</v>
@@ -1565,7 +1589,9 @@
       <c r="AB14" s="3">
         <v>1</v>
       </c>
-      <c r="AC14" s="3"/>
+      <c r="AC14" s="3">
+        <v>1</v>
+      </c>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
@@ -1575,190 +1601,196 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM14" s="3"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>348</v>
+      </c>
+      <c r="C15" s="11">
         <v>320</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>287</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>264</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>201</v>
-      </c>
-      <c r="F15" s="11">
-        <v>191</v>
       </c>
       <c r="G15" s="11">
         <v>191</v>
       </c>
       <c r="H15" s="11">
+        <v>191</v>
+      </c>
+      <c r="I15" s="11">
         <v>171</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>154</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="11">
         <v>141</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>123</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>121</v>
-      </c>
-      <c r="M15" s="11">
-        <v>110</v>
       </c>
       <c r="N15" s="11">
         <v>110</v>
       </c>
       <c r="O15" s="11">
+        <v>110</v>
+      </c>
+      <c r="P15" s="11">
         <v>99</v>
       </c>
-      <c r="P15" s="11">
+      <c r="Q15" s="11">
         <v>60</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="R15" s="11">
         <v>59</v>
-      </c>
-      <c r="R15" s="11">
-        <v>35</v>
       </c>
       <c r="S15" s="11">
         <v>35</v>
       </c>
       <c r="T15" s="11">
+        <v>35</v>
+      </c>
+      <c r="U15" s="11">
         <v>21</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>17</v>
       </c>
-      <c r="V15" s="11">
+      <c r="W15" s="11">
         <v>16</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>15</v>
-      </c>
-      <c r="X15" s="11">
-        <v>13</v>
       </c>
       <c r="Y15" s="11">
         <v>13</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="11">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="3">
         <v>12</v>
       </c>
-      <c r="AA15" s="3">
-        <v>3</v>
-      </c>
       <c r="AB15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1</v>
+      </c>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="3">
-        <v>1</v>
-      </c>
+      <c r="AE15" s="3"/>
       <c r="AF15" s="3">
         <v>1</v>
       </c>
-      <c r="AG15" s="3"/>
+      <c r="AG15" s="3">
+        <v>1</v>
+      </c>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM15" s="3"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>162</v>
+      </c>
+      <c r="C16" s="4">
         <v>142</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>125</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>115</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>110</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>89</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>74</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>62</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>55</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>45</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>37</v>
-      </c>
-      <c r="L16" s="4">
-        <v>33</v>
       </c>
       <c r="M16" s="4">
         <v>33</v>
       </c>
       <c r="N16" s="4">
+        <v>33</v>
+      </c>
+      <c r="O16" s="4">
         <v>24</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>21</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>12</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <v>9</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>4</v>
       </c>
-      <c r="S16" s="4">
-        <v>3</v>
-      </c>
       <c r="T16" s="4">
         <v>3</v>
       </c>
-      <c r="U16" s="3">
-        <v>3</v>
-      </c>
-      <c r="V16" s="4">
-        <v>3</v>
-      </c>
-      <c r="W16" s="3">
-        <v>2</v>
-      </c>
-      <c r="X16" s="4">
-        <v>1</v>
+      <c r="U16" s="4">
+        <v>3</v>
+      </c>
+      <c r="V16" s="3">
+        <v>3</v>
+      </c>
+      <c r="W16" s="4">
+        <v>3</v>
+      </c>
+      <c r="X16" s="3">
+        <v>2</v>
       </c>
       <c r="Y16" s="4">
         <v>1</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="4">
         <v>1</v>
       </c>
       <c r="AA16" s="3">
         <v>1</v>
       </c>
-      <c r="AB16" s="3"/>
+      <c r="AB16" s="3">
+        <v>1</v>
+      </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
@@ -1769,187 +1801,191 @@
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM16" s="3"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>945</v>
+      </c>
+      <c r="C17" s="4">
         <v>881</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>833</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>761</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>737</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>705</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>648</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>596</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>493</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>462</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>435</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>362</v>
-      </c>
-      <c r="M17" s="4">
-        <v>323</v>
       </c>
       <c r="N17" s="4">
         <v>323</v>
       </c>
       <c r="O17" s="4">
+        <v>323</v>
+      </c>
+      <c r="P17" s="4">
         <v>234</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>193</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>128</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>123</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>111</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <v>82</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>65</v>
       </c>
-      <c r="V17" s="4">
+      <c r="W17" s="4">
         <v>47</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>43</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <v>23</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Z17" s="4">
         <v>18</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>16</v>
       </c>
       <c r="AA17" s="3">
         <v>16</v>
       </c>
       <c r="AB17" s="3">
+        <v>16</v>
+      </c>
+      <c r="AC17" s="3">
         <v>14</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>13</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>5</v>
       </c>
       <c r="AE17" s="3">
         <v>5</v>
       </c>
-      <c r="AF17" s="3"/>
+      <c r="AF17" s="3">
+        <v>5</v>
+      </c>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM17" s="3"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>534</v>
+      </c>
+      <c r="C18" s="4">
         <v>492</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>442</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>414</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>386</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>346</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>325</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>284</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>254</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>227</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>212</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>191</v>
-      </c>
-      <c r="M18" s="4">
-        <v>150</v>
       </c>
       <c r="N18" s="4">
         <v>150</v>
       </c>
       <c r="O18" s="4">
+        <v>150</v>
+      </c>
+      <c r="P18" s="4">
         <v>114</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>79</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <v>62</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>53</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>43</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <v>34</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>18</v>
       </c>
-      <c r="V18" s="4">
+      <c r="W18" s="4">
         <v>18</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13</v>
-      </c>
-      <c r="X18" s="4">
-        <v>12</v>
       </c>
       <c r="Y18" s="4">
         <v>12</v>
       </c>
-      <c r="Z18" s="3">
-        <v>8</v>
+      <c r="Z18" s="4">
+        <v>12</v>
       </c>
       <c r="AA18" s="3">
         <v>8</v>
@@ -1958,66 +1994,69 @@
         <v>8</v>
       </c>
       <c r="AC18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD18" s="3">
         <v>6</v>
       </c>
       <c r="AE18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF18" s="3">
         <v>4</v>
       </c>
       <c r="AG18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>1</v>
+      </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM18" s="3"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
+        <v>185</v>
+      </c>
+      <c r="C19" s="4">
         <v>180</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>174</v>
-      </c>
-      <c r="D19" s="4">
-        <v>154</v>
       </c>
       <c r="E19" s="4">
         <v>154</v>
       </c>
       <c r="F19" s="4">
+        <v>154</v>
+      </c>
+      <c r="G19" s="4">
         <v>136</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>110</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>76</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>69</v>
-      </c>
-      <c r="J19" s="4">
-        <v>39</v>
       </c>
       <c r="K19" s="4">
         <v>39</v>
       </c>
       <c r="L19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M19" s="4">
         <v>14</v>
@@ -2032,31 +2071,33 @@
         <v>14</v>
       </c>
       <c r="Q19" s="4">
+        <v>14</v>
+      </c>
+      <c r="R19" s="4">
         <v>10</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>8</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <v>7</v>
       </c>
-      <c r="T19" s="4">
-        <v>3</v>
-      </c>
-      <c r="U19" s="3">
-        <v>2</v>
-      </c>
-      <c r="V19" s="4">
-        <v>2</v>
-      </c>
-      <c r="W19" s="3">
-        <v>1</v>
-      </c>
-      <c r="X19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="3"/>
+      <c r="U19" s="4">
+        <v>3</v>
+      </c>
+      <c r="V19" s="3">
+        <v>2</v>
+      </c>
+      <c r="W19" s="4">
+        <v>2</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="4"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
@@ -2069,43 +2110,44 @@
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM19" s="3"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
+        <v>446</v>
+      </c>
+      <c r="C20" s="4">
         <v>422</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>371</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>361</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>340</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>317</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>278</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>249</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>216</v>
-      </c>
-      <c r="J20" s="4">
-        <v>166</v>
       </c>
       <c r="K20" s="4">
         <v>166</v>
       </c>
       <c r="L20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="M20" s="4">
         <v>97</v>
@@ -2114,46 +2156,46 @@
         <v>97</v>
       </c>
       <c r="O20" s="4">
+        <v>97</v>
+      </c>
+      <c r="P20" s="4">
         <v>60</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>59</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <v>39</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <v>29</v>
-      </c>
-      <c r="S20" s="4">
-        <v>16</v>
       </c>
       <c r="T20" s="4">
         <v>16</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="4">
+        <v>16</v>
+      </c>
+      <c r="V20" s="3">
         <v>14</v>
       </c>
-      <c r="V20" s="4">
-        <v>3</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1</v>
-      </c>
-      <c r="X20" s="4">
+      <c r="W20" s="4">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="4">
         <v>4</v>
       </c>
-      <c r="Y20" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="4">
         <v>3</v>
       </c>
       <c r="AA20" s="3">
         <v>3</v>
       </c>
       <c r="AB20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC20" s="3">
         <v>2</v>
@@ -2177,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="AJ20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK20" s="3">
         <v>1</v>
@@ -2185,49 +2227,52 @@
       <c r="AL20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4">
+        <v>178</v>
+      </c>
+      <c r="C21" s="4">
         <v>167</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>154</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>148</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>130</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>124</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>113</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>112</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>109</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>98</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>89</v>
-      </c>
-      <c r="L21" s="4">
-        <v>5</v>
       </c>
       <c r="M21" s="4">
         <v>5</v>
       </c>
       <c r="N21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O21" s="4">
         <v>3</v>
@@ -2236,40 +2281,40 @@
         <v>3</v>
       </c>
       <c r="Q21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="4">
         <v>2</v>
       </c>
       <c r="S21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21" s="4">
         <v>3</v>
       </c>
-      <c r="U21" s="3">
-        <v>2</v>
-      </c>
-      <c r="V21" s="4">
-        <v>2</v>
-      </c>
-      <c r="W21" s="3">
-        <v>2</v>
-      </c>
-      <c r="X21" s="4">
-        <v>5</v>
+      <c r="U21" s="4">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
+        <v>2</v>
+      </c>
+      <c r="W21" s="4">
+        <v>2</v>
+      </c>
+      <c r="X21" s="3">
+        <v>2</v>
       </c>
       <c r="Y21" s="4">
         <v>5</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="4">
         <v>5</v>
       </c>
       <c r="AA21" s="3">
         <v>5</v>
       </c>
       <c r="AB21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC21" s="3">
         <v>2</v>
@@ -2277,7 +2322,9 @@
       <c r="AD21" s="3">
         <v>2</v>
       </c>
-      <c r="AE21" s="3"/>
+      <c r="AE21" s="3">
+        <v>2</v>
+      </c>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
@@ -2285,91 +2332,92 @@
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM21" s="3"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>225</v>
+      </c>
+      <c r="C22" s="4">
         <v>208</v>
-      </c>
-      <c r="C22" s="4">
-        <v>160</v>
       </c>
       <c r="D22" s="4">
         <v>160</v>
       </c>
       <c r="E22" s="4">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F22" s="4">
         <v>125</v>
       </c>
       <c r="G22" s="4">
+        <v>125</v>
+      </c>
+      <c r="H22" s="4">
         <v>117</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>98</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>97</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>62</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>60</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>57</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>47</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>39</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>34</v>
-      </c>
-      <c r="P22" s="4">
-        <v>17</v>
       </c>
       <c r="Q22" s="4">
         <v>17</v>
       </c>
       <c r="R22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S22" s="4">
         <v>21</v>
       </c>
       <c r="T22" s="4">
+        <v>21</v>
+      </c>
+      <c r="U22" s="4">
         <v>19</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8</v>
       </c>
-      <c r="V22" s="4">
+      <c r="W22" s="4">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4</v>
       </c>
-      <c r="X22" s="4">
-        <v>3</v>
-      </c>
       <c r="Y22" s="4">
         <v>3</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="4">
         <v>3</v>
       </c>
       <c r="AA22" s="3">
         <v>3</v>
       </c>
       <c r="AB22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="3">
         <v>1</v>
@@ -2377,7 +2425,9 @@
       <c r="AD22" s="3">
         <v>1</v>
       </c>
-      <c r="AE22" s="3"/>
+      <c r="AE22" s="3">
+        <v>1</v>
+      </c>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -2385,106 +2435,107 @@
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM22" s="3"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>484</v>
+      </c>
+      <c r="C23" s="11">
         <v>435</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>427</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>390</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>365</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>342</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>331</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>279</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>236</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>212</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>197</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>165</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>140</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>118</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>110</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="11">
         <v>71</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="R23" s="11">
         <v>57</v>
       </c>
-      <c r="R23" s="11">
+      <c r="S23" s="11">
         <v>50</v>
       </c>
-      <c r="S23" s="11">
+      <c r="T23" s="11">
         <v>47</v>
       </c>
-      <c r="T23" s="11">
+      <c r="U23" s="11">
         <v>37</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32</v>
       </c>
-      <c r="V23" s="11">
+      <c r="W23" s="11">
         <v>32</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>30</v>
-      </c>
-      <c r="X23" s="11">
-        <v>26</v>
       </c>
       <c r="Y23" s="11">
         <v>26</v>
       </c>
-      <c r="Z23" s="3">
-        <v>20</v>
+      <c r="Z23" s="11">
+        <v>26</v>
       </c>
       <c r="AA23" s="3">
         <v>20</v>
       </c>
       <c r="AB23" s="3">
+        <v>20</v>
+      </c>
+      <c r="AC23" s="3">
         <v>14</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>10</v>
       </c>
       <c r="AD23" s="3">
         <v>10</v>
       </c>
       <c r="AE23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF23" s="3">
         <v>8</v>
       </c>
       <c r="AG23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH23" s="3">
         <v>1</v>
@@ -2492,64 +2543,67 @@
       <c r="AI23" s="3">
         <v>1</v>
       </c>
-      <c r="AJ23" s="3"/>
+      <c r="AJ23" s="3">
+        <v>1</v>
+      </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM23" s="3"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="11">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="C24" s="11">
         <v>168</v>
       </c>
       <c r="D24" s="11">
+        <v>168</v>
+      </c>
+      <c r="E24" s="11">
         <v>147</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>124</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>122</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>104</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>81</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>71</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="11">
         <v>60</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>55</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
         <v>28</v>
-      </c>
-      <c r="M24" s="11">
-        <v>20</v>
       </c>
       <c r="N24" s="11">
         <v>20</v>
       </c>
       <c r="O24" s="11">
+        <v>20</v>
+      </c>
+      <c r="P24" s="11">
         <v>19</v>
       </c>
-      <c r="P24" s="11">
+      <c r="Q24" s="11">
         <v>13</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="R24" s="11">
         <v>9</v>
-      </c>
-      <c r="R24" s="11">
-        <v>4</v>
       </c>
       <c r="S24" s="11">
         <v>4</v>
@@ -2557,20 +2611,20 @@
       <c r="T24" s="11">
         <v>4</v>
       </c>
-      <c r="U24" s="3">
-        <v>1</v>
-      </c>
-      <c r="V24" s="11">
-        <v>1</v>
-      </c>
-      <c r="W24" s="3"/>
-      <c r="X24" s="11">
-        <v>3</v>
-      </c>
+      <c r="U24" s="11">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+      <c r="W24" s="11">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3"/>
       <c r="Y24" s="11">
         <v>3</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="11">
         <v>3</v>
       </c>
       <c r="AA24" s="3">
@@ -2580,76 +2634,79 @@
         <v>3</v>
       </c>
       <c r="AC24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD24" s="3">
         <v>2</v>
       </c>
-      <c r="AE24" s="3"/>
+      <c r="AE24" s="3">
+        <v>2</v>
+      </c>
       <c r="AF24" s="3"/>
-      <c r="AG24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3">
+        <v>1</v>
+      </c>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM24" s="3"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>508</v>
+      </c>
+      <c r="C25" s="4">
         <v>478</v>
-      </c>
-      <c r="C25" s="4">
-        <v>453</v>
       </c>
       <c r="D25" s="4">
         <v>453</v>
       </c>
       <c r="E25" s="4">
+        <v>453</v>
+      </c>
+      <c r="F25" s="4">
         <v>421</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>404</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>350</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>302</v>
-      </c>
-      <c r="I25" s="4">
-        <v>278</v>
       </c>
       <c r="J25" s="4">
         <v>278</v>
       </c>
       <c r="K25" s="4">
+        <v>278</v>
+      </c>
+      <c r="L25" s="4">
         <v>257</v>
-      </c>
-      <c r="L25" s="4">
-        <v>222</v>
       </c>
       <c r="M25" s="4">
         <v>222</v>
       </c>
       <c r="N25" s="4">
+        <v>222</v>
+      </c>
+      <c r="O25" s="4">
         <v>182</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>154</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>135</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <v>64</v>
-      </c>
-      <c r="R25" s="4">
-        <v>29</v>
       </c>
       <c r="S25" s="4">
         <v>29</v>
@@ -2657,23 +2714,23 @@
       <c r="T25" s="4">
         <v>29</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="4">
+        <v>29</v>
+      </c>
+      <c r="V25" s="3">
         <v>8</v>
       </c>
-      <c r="V25" s="4">
+      <c r="W25" s="4">
         <v>8</v>
       </c>
-      <c r="W25" s="3">
+      <c r="X25" s="3">
         <v>6</v>
       </c>
-      <c r="X25" s="4">
-        <v>2</v>
-      </c>
       <c r="Y25" s="4">
         <v>2</v>
       </c>
-      <c r="Z25" s="3">
-        <v>1</v>
+      <c r="Z25" s="4">
+        <v>2</v>
       </c>
       <c r="AA25" s="3">
         <v>1</v>
@@ -2684,7 +2741,9 @@
       <c r="AC25" s="3">
         <v>1</v>
       </c>
-      <c r="AD25" s="3"/>
+      <c r="AD25" s="3">
+        <v>1</v>
+      </c>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
@@ -2693,19 +2752,20 @@
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM25" s="3"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
+        <v>373</v>
+      </c>
+      <c r="C26" s="11">
         <v>335</v>
       </c>
-      <c r="C26" s="11">
+      <c r="D26" s="11">
         <v>305</v>
-      </c>
-      <c r="D26" s="11">
-        <v>246</v>
       </c>
       <c r="E26" s="11">
         <v>246</v>
@@ -2714,76 +2774,76 @@
         <v>246</v>
       </c>
       <c r="G26" s="11">
+        <v>246</v>
+      </c>
+      <c r="H26" s="11">
         <v>229</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>206</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>189</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>172</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>154</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>104</v>
-      </c>
-      <c r="M26" s="11">
-        <v>96</v>
       </c>
       <c r="N26" s="11">
         <v>96</v>
       </c>
       <c r="O26" s="11">
+        <v>96</v>
+      </c>
+      <c r="P26" s="11">
         <v>75</v>
       </c>
-      <c r="P26" s="11">
+      <c r="Q26" s="11">
         <v>63</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="R26" s="11">
         <v>47</v>
       </c>
-      <c r="R26" s="11">
+      <c r="S26" s="11">
         <v>24</v>
-      </c>
-      <c r="S26" s="11">
-        <v>29</v>
       </c>
       <c r="T26" s="11">
         <v>29</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="11">
+        <v>29</v>
+      </c>
+      <c r="V26" s="3">
         <v>16</v>
       </c>
-      <c r="V26" s="11">
+      <c r="W26" s="11">
         <v>16</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12</v>
       </c>
-      <c r="X26" s="11">
+      <c r="Y26" s="11">
         <v>9</v>
       </c>
-      <c r="Y26" s="11">
-        <v>7</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="11">
         <v>7</v>
       </c>
       <c r="AA26" s="3">
         <v>7</v>
       </c>
       <c r="AB26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" s="3">
         <v>1</v>
@@ -2800,22 +2860,25 @@
       <c r="AI26" s="3">
         <v>1</v>
       </c>
-      <c r="AJ26" s="3"/>
+      <c r="AJ26" s="3">
+        <v>1</v>
+      </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM26" s="3"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="11">
+        <v>177</v>
+      </c>
+      <c r="C27" s="11">
         <v>169</v>
       </c>
-      <c r="C27" s="11">
+      <c r="D27" s="11">
         <v>159</v>
-      </c>
-      <c r="D27" s="11">
-        <v>119</v>
       </c>
       <c r="E27" s="11">
         <v>119</v>
@@ -2824,22 +2887,22 @@
         <v>119</v>
       </c>
       <c r="G27" s="11">
+        <v>119</v>
+      </c>
+      <c r="H27" s="11">
         <v>110</v>
       </c>
-      <c r="H27" s="11">
+      <c r="I27" s="11">
         <v>99</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11">
         <v>85</v>
       </c>
-      <c r="J27" s="11">
+      <c r="K27" s="11">
         <v>74</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>60</v>
-      </c>
-      <c r="L27" s="11">
-        <v>42</v>
       </c>
       <c r="M27" s="11">
         <v>42</v>
@@ -2848,16 +2911,16 @@
         <v>42</v>
       </c>
       <c r="O27" s="11">
+        <v>42</v>
+      </c>
+      <c r="P27" s="11">
         <v>34</v>
       </c>
-      <c r="P27" s="11">
+      <c r="Q27" s="11">
         <v>29</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="R27" s="11">
         <v>26</v>
-      </c>
-      <c r="R27" s="11">
-        <v>14</v>
       </c>
       <c r="S27" s="11">
         <v>14</v>
@@ -2865,20 +2928,22 @@
       <c r="T27" s="11">
         <v>14</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="11">
+        <v>14</v>
+      </c>
+      <c r="V27" s="3">
         <v>8</v>
       </c>
-      <c r="V27" s="11">
+      <c r="W27" s="11">
         <v>8</v>
       </c>
-      <c r="W27" s="3">
-        <v>3</v>
-      </c>
-      <c r="X27" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="3"/>
+      <c r="X27" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="11"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
@@ -2891,43 +2956,44 @@
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM27" s="3"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>210</v>
+      </c>
+      <c r="C28" s="4">
         <v>183</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>162</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>144</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>137</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>132</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>124</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>109</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>89</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>81</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>70</v>
-      </c>
-      <c r="L28" s="4">
-        <v>52</v>
       </c>
       <c r="M28" s="4">
         <v>52</v>
@@ -2936,16 +3002,16 @@
         <v>52</v>
       </c>
       <c r="O28" s="4">
+        <v>52</v>
+      </c>
+      <c r="P28" s="4">
         <v>43</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <v>34</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <v>28</v>
-      </c>
-      <c r="R28" s="4">
-        <v>20</v>
       </c>
       <c r="S28" s="4">
         <v>20</v>
@@ -2953,28 +3019,30 @@
       <c r="T28" s="4">
         <v>20</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="4">
+        <v>20</v>
+      </c>
+      <c r="V28" s="3">
         <v>7</v>
       </c>
-      <c r="V28" s="4">
-        <v>2</v>
-      </c>
-      <c r="W28" s="3">
-        <v>2</v>
-      </c>
-      <c r="X28" s="4">
-        <v>1</v>
+      <c r="W28" s="4">
+        <v>2</v>
+      </c>
+      <c r="X28" s="3">
+        <v>2</v>
       </c>
       <c r="Y28" s="4">
         <v>1</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="Z28" s="4">
         <v>1</v>
       </c>
       <c r="AA28" s="3">
         <v>1</v>
       </c>
-      <c r="AB28" s="3"/>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
@@ -2985,40 +3053,41 @@
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM28" s="3"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>311</v>
+      </c>
+      <c r="C29" s="4">
         <v>285</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>251</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>216</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>201</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>186</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>162</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>147</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>136</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>101</v>
-      </c>
-      <c r="K29" s="4">
-        <v>57</v>
       </c>
       <c r="L29" s="4">
         <v>57</v>
@@ -3030,16 +3099,16 @@
         <v>57</v>
       </c>
       <c r="O29" s="4">
+        <v>57</v>
+      </c>
+      <c r="P29" s="4">
         <v>41</v>
       </c>
-      <c r="P29" s="4">
+      <c r="Q29" s="4">
         <v>25</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="4">
         <v>16</v>
-      </c>
-      <c r="R29" s="4">
-        <v>10</v>
       </c>
       <c r="S29" s="4">
         <v>10</v>
@@ -3047,20 +3116,20 @@
       <c r="T29" s="4">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="4">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>6</v>
       </c>
-      <c r="V29" s="4">
+      <c r="W29" s="4">
         <v>4</v>
       </c>
-      <c r="W29" s="3"/>
-      <c r="X29" s="4">
-        <v>1</v>
-      </c>
+      <c r="X29" s="3"/>
       <c r="Y29" s="4">
         <v>1</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="4">
         <v>1</v>
       </c>
       <c r="AA29" s="3">
@@ -3078,68 +3147,71 @@
       <c r="AE29" s="3">
         <v>1</v>
       </c>
-      <c r="AF29" s="3"/>
+      <c r="AF29" s="3">
+        <v>1</v>
+      </c>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM29" s="3"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>813</v>
+      </c>
+      <c r="C30" s="4">
         <v>746</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>698</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>671</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>657</v>
-      </c>
-      <c r="F30" s="4">
-        <v>543</v>
       </c>
       <c r="G30" s="4">
         <v>543</v>
       </c>
       <c r="H30" s="4">
+        <v>543</v>
+      </c>
+      <c r="I30" s="4">
         <v>450</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>352</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>275</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>250</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>236</v>
-      </c>
-      <c r="M30" s="4">
-        <v>175</v>
       </c>
       <c r="N30" s="4">
         <v>175</v>
       </c>
       <c r="O30" s="4">
+        <v>175</v>
+      </c>
+      <c r="P30" s="4">
         <v>126</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>112</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <v>87</v>
-      </c>
-      <c r="R30" s="4">
-        <v>38</v>
       </c>
       <c r="S30" s="4">
         <v>38</v>
@@ -3147,41 +3219,41 @@
       <c r="T30" s="4">
         <v>38</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="4">
+        <v>38</v>
+      </c>
+      <c r="V30" s="3">
         <v>24</v>
       </c>
-      <c r="V30" s="4">
+      <c r="W30" s="4">
         <v>18</v>
       </c>
-      <c r="W30" s="3">
+      <c r="X30" s="3">
         <v>11</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Y30" s="4">
         <v>11</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Z30" s="4">
         <v>8</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>7</v>
       </c>
       <c r="AA30" s="3">
         <v>7</v>
       </c>
       <c r="AB30" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC30" s="3">
         <v>5</v>
       </c>
-      <c r="AC30" s="3">
-        <v>3</v>
-      </c>
       <c r="AD30" s="3">
         <v>3</v>
       </c>
       <c r="AE30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG30" s="3">
         <v>1</v>
@@ -3192,46 +3264,49 @@
       <c r="AI30" s="3">
         <v>1</v>
       </c>
-      <c r="AJ30" s="3"/>
+      <c r="AJ30" s="3">
+        <v>1</v>
+      </c>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM30" s="3"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
+        <v>170</v>
+      </c>
+      <c r="C31" s="4">
         <v>140</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>135</v>
-      </c>
-      <c r="D31" s="4">
-        <v>112</v>
       </c>
       <c r="E31" s="4">
         <v>112</v>
       </c>
       <c r="F31" s="4">
+        <v>112</v>
+      </c>
+      <c r="G31" s="4">
         <v>92</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>74</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>67</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>58</v>
-      </c>
-      <c r="J31" s="4">
-        <v>53</v>
       </c>
       <c r="K31" s="4">
         <v>53</v>
       </c>
       <c r="L31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M31" s="4">
         <v>36</v>
@@ -3240,10 +3315,10 @@
         <v>36</v>
       </c>
       <c r="O31" s="4">
+        <v>36</v>
+      </c>
+      <c r="P31" s="4">
         <v>33</v>
-      </c>
-      <c r="P31" s="4">
-        <v>31</v>
       </c>
       <c r="Q31" s="4">
         <v>31</v>
@@ -3255,39 +3330,41 @@
         <v>31</v>
       </c>
       <c r="T31" s="4">
+        <v>31</v>
+      </c>
+      <c r="U31" s="4">
         <v>30</v>
       </c>
-      <c r="U31" s="3">
+      <c r="V31" s="3">
         <v>28</v>
       </c>
-      <c r="V31" s="4">
+      <c r="W31" s="4">
         <v>24</v>
       </c>
-      <c r="W31" s="3">
-        <v>24</v>
-      </c>
-      <c r="X31" s="4">
+      <c r="X31" s="3">
         <v>24</v>
       </c>
       <c r="Y31" s="4">
         <v>24</v>
       </c>
-      <c r="Z31" s="3">
-        <v>23</v>
+      <c r="Z31" s="4">
+        <v>24</v>
       </c>
       <c r="AA31" s="3">
         <v>23</v>
       </c>
       <c r="AB31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AC31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD31" s="3">
         <v>1</v>
       </c>
-      <c r="AE31" s="3"/>
+      <c r="AE31" s="3">
+        <v>1</v>
+      </c>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
@@ -3295,40 +3372,41 @@
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM31" s="3"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="4">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C32" s="4">
         <v>226</v>
       </c>
       <c r="D32" s="4">
+        <v>226</v>
+      </c>
+      <c r="E32" s="4">
         <v>213</v>
-      </c>
-      <c r="E32" s="4">
-        <v>183</v>
       </c>
       <c r="F32" s="4">
         <v>183</v>
       </c>
       <c r="G32" s="4">
+        <v>183</v>
+      </c>
+      <c r="H32" s="4">
         <v>166</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>158</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>145</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>135</v>
-      </c>
-      <c r="K32" s="4">
-        <v>80</v>
       </c>
       <c r="L32" s="4">
         <v>80</v>
@@ -3340,13 +3418,13 @@
         <v>80</v>
       </c>
       <c r="O32" s="4">
+        <v>80</v>
+      </c>
+      <c r="P32" s="4">
         <v>73</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="4">
         <v>71</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>27</v>
       </c>
       <c r="R32" s="4">
         <v>27</v>
@@ -3357,38 +3435,38 @@
       <c r="T32" s="4">
         <v>27</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="4">
+        <v>27</v>
+      </c>
+      <c r="V32" s="3">
         <v>22</v>
       </c>
-      <c r="V32" s="4">
+      <c r="W32" s="4">
         <v>12</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12</v>
-      </c>
-      <c r="X32" s="4">
-        <v>9</v>
       </c>
       <c r="Y32" s="4">
         <v>9</v>
       </c>
-      <c r="Z32" s="3">
-        <v>7</v>
+      <c r="Z32" s="4">
+        <v>9</v>
       </c>
       <c r="AA32" s="3">
         <v>7</v>
       </c>
       <c r="AB32" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC32" s="3">
         <v>5</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>4</v>
       </c>
       <c r="AD32" s="3">
         <v>4</v>
       </c>
       <c r="AE32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF32" s="3">
         <v>3</v>
@@ -3396,89 +3474,92 @@
       <c r="AG32" s="3">
         <v>3</v>
       </c>
-      <c r="AH32" s="3"/>
+      <c r="AH32" s="3">
+        <v>3</v>
+      </c>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM32" s="3"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>120</v>
+      </c>
+      <c r="C33" s="4">
         <v>108</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>99</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>86</v>
-      </c>
-      <c r="E33" s="4">
-        <v>76</v>
       </c>
       <c r="F33" s="4">
         <v>76</v>
       </c>
       <c r="G33" s="4">
+        <v>76</v>
+      </c>
+      <c r="H33" s="4">
         <v>68</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>58</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>45</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>40</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>35</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>30</v>
-      </c>
-      <c r="M33" s="4">
-        <v>26</v>
       </c>
       <c r="N33" s="4">
         <v>26</v>
       </c>
       <c r="O33" s="4">
+        <v>26</v>
+      </c>
+      <c r="P33" s="4">
         <v>20</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>17</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="R33" s="4">
         <v>14</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>7</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <v>10</v>
       </c>
-      <c r="T33" s="4">
+      <c r="U33" s="4">
         <v>6</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4</v>
       </c>
-      <c r="V33" s="4">
-        <v>2</v>
-      </c>
-      <c r="W33" s="3">
-        <v>2</v>
-      </c>
-      <c r="X33" s="4">
-        <v>1</v>
+      <c r="W33" s="4">
+        <v>2</v>
+      </c>
+      <c r="X33" s="3">
+        <v>2</v>
       </c>
       <c r="Y33" s="4">
         <v>1</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="4">
         <v>1</v>
       </c>
       <c r="AA33" s="3">
@@ -3487,7 +3568,9 @@
       <c r="AB33" s="3">
         <v>1</v>
       </c>
-      <c r="AC33" s="3"/>
+      <c r="AC33" s="3">
+        <v>1</v>
+      </c>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
@@ -3497,93 +3580,96 @@
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM33" s="3"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>320</v>
+      </c>
+      <c r="C34" s="4">
         <v>317</v>
-      </c>
-      <c r="C34" s="4">
-        <v>316</v>
       </c>
       <c r="D34" s="4">
         <v>316</v>
       </c>
       <c r="E34" s="4">
+        <v>316</v>
+      </c>
+      <c r="F34" s="4">
         <v>276</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>245</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>197</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>175</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>135</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>120</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>104</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>82</v>
-      </c>
-      <c r="M34" s="4">
-        <v>71</v>
       </c>
       <c r="N34" s="4">
         <v>71</v>
       </c>
       <c r="O34" s="4">
+        <v>71</v>
+      </c>
+      <c r="P34" s="4">
         <v>55</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>45</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <v>38</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>28</v>
       </c>
-      <c r="S34" s="4">
+      <c r="T34" s="4">
         <v>25</v>
       </c>
-      <c r="T34" s="4">
+      <c r="U34" s="4">
         <v>22</v>
       </c>
-      <c r="U34" s="3">
+      <c r="V34" s="3">
         <v>16</v>
       </c>
-      <c r="V34" s="4">
+      <c r="W34" s="4">
         <v>13</v>
       </c>
-      <c r="W34" s="3">
+      <c r="X34" s="3">
         <v>13</v>
-      </c>
-      <c r="X34" s="4">
-        <v>12</v>
       </c>
       <c r="Y34" s="4">
         <v>12</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="Z34" s="4">
+        <v>12</v>
+      </c>
+      <c r="AA34" s="3">
         <v>7</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AB34" s="3">
         <v>6</v>
       </c>
-      <c r="AB34" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC34" s="3"/>
+      <c r="AC34" s="3">
+        <v>2</v>
+      </c>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
@@ -3593,85 +3679,86 @@
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM34" s="3"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>368</v>
+      </c>
+      <c r="C35" s="4">
         <v>321</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>298</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>273</v>
-      </c>
-      <c r="E35" s="4">
-        <v>256</v>
       </c>
       <c r="F35" s="4">
         <v>256</v>
       </c>
       <c r="G35" s="4">
+        <v>256</v>
+      </c>
+      <c r="H35" s="4">
         <v>236</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>224</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>171</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>140</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>121</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>113</v>
-      </c>
-      <c r="M35" s="4">
-        <v>91</v>
       </c>
       <c r="N35" s="4">
         <v>91</v>
       </c>
       <c r="O35" s="4">
+        <v>91</v>
+      </c>
+      <c r="P35" s="4">
         <v>85</v>
       </c>
-      <c r="P35" s="4">
+      <c r="Q35" s="4">
         <v>46</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="4">
         <v>41</v>
-      </c>
-      <c r="R35" s="4">
-        <v>31</v>
       </c>
       <c r="S35" s="4">
         <v>31</v>
       </c>
       <c r="T35" s="4">
+        <v>31</v>
+      </c>
+      <c r="U35" s="4">
         <v>20</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13</v>
       </c>
-      <c r="V35" s="4">
+      <c r="W35" s="4">
         <v>7</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5</v>
-      </c>
-      <c r="X35" s="4">
-        <v>4</v>
       </c>
       <c r="Y35" s="4">
         <v>4</v>
       </c>
-      <c r="Z35" s="3">
-        <v>3</v>
+      <c r="Z35" s="4">
+        <v>4</v>
       </c>
       <c r="AA35" s="3">
         <v>3</v>
@@ -3686,89 +3773,94 @@
         <v>3</v>
       </c>
       <c r="AE35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>1</v>
+      </c>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM35" s="3"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
+        <v>54</v>
+      </c>
+      <c r="C36" s="4">
         <v>51</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>46</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>40</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>34</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>29</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>25</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>22</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>20</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>19</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>18</v>
-      </c>
-      <c r="L36" s="4">
-        <v>16</v>
       </c>
       <c r="M36" s="4">
         <v>16</v>
       </c>
       <c r="N36" s="4">
+        <v>16</v>
+      </c>
+      <c r="O36" s="4">
         <v>14</v>
       </c>
-      <c r="O36" s="4">
+      <c r="P36" s="4">
         <v>11</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <v>7</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="4">
         <v>6</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <v>5</v>
-      </c>
-      <c r="S36" s="4">
-        <v>4</v>
       </c>
       <c r="T36" s="4">
         <v>4</v>
       </c>
-      <c r="U36" s="3">
+      <c r="U36" s="4">
         <v>4</v>
       </c>
-      <c r="V36" s="4">
+      <c r="V36" s="3">
         <v>4</v>
       </c>
-      <c r="W36" s="3">
-        <v>3</v>
-      </c>
-      <c r="X36" s="4"/>
+      <c r="W36" s="4">
+        <v>4</v>
+      </c>
+      <c r="X36" s="3">
+        <v>3</v>
+      </c>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="3"/>
+      <c r="Z36" s="4"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
@@ -3781,90 +3873,93 @@
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM36" s="3"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>322</v>
+      </c>
+      <c r="C37" s="4">
         <v>304</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>286</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>277</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>252</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>240</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>222</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>194</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>180</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>156</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>146</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>100</v>
-      </c>
-      <c r="M37" s="4">
-        <v>81</v>
       </c>
       <c r="N37" s="4">
         <v>81</v>
       </c>
       <c r="O37" s="4">
+        <v>81</v>
+      </c>
+      <c r="P37" s="4">
         <v>64</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>53</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <v>37</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>34</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <v>26</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <v>19</v>
       </c>
-      <c r="U37" s="3">
+      <c r="V37" s="3">
         <v>12</v>
       </c>
-      <c r="V37" s="4">
+      <c r="W37" s="4">
         <v>11</v>
       </c>
-      <c r="W37" s="3">
-        <v>3</v>
-      </c>
-      <c r="X37" s="4">
+      <c r="X37" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="4">
         <v>4</v>
       </c>
-      <c r="Y37" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z37" s="3">
+      <c r="Z37" s="4">
         <v>3</v>
       </c>
       <c r="AA37" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>2</v>
+      </c>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
@@ -3875,43 +3970,44 @@
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM37" s="3"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>377</v>
+      </c>
+      <c r="C38" s="4">
         <v>361</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>340</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>321</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>320</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>318</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>304</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>281</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>255</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>176</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>127</v>
-      </c>
-      <c r="L38" s="4">
-        <v>110</v>
       </c>
       <c r="M38" s="4">
         <v>110</v>
@@ -3920,51 +4016,53 @@
         <v>110</v>
       </c>
       <c r="O38" s="4">
+        <v>110</v>
+      </c>
+      <c r="P38" s="4">
         <v>88</v>
       </c>
-      <c r="P38" s="4">
+      <c r="Q38" s="4">
         <v>55</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="R38" s="4">
         <v>13</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <v>12</v>
-      </c>
-      <c r="S38" s="4">
-        <v>8</v>
       </c>
       <c r="T38" s="4">
         <v>8</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38" s="4">
         <v>8</v>
       </c>
-      <c r="V38" s="4">
+      <c r="V38" s="3">
+        <v>8</v>
+      </c>
+      <c r="W38" s="4">
         <v>5</v>
       </c>
-      <c r="W38" s="3">
+      <c r="X38" s="3">
         <v>5</v>
       </c>
-      <c r="X38" s="4">
+      <c r="Y38" s="4">
         <v>6</v>
       </c>
-      <c r="Y38" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="3">
+      <c r="Z38" s="4">
         <v>3</v>
       </c>
       <c r="AA38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB38" s="3">
         <v>2</v>
       </c>
       <c r="AC38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>1</v>
+      </c>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
@@ -3973,19 +4071,20 @@
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM38" s="3"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
+        <v>537</v>
+      </c>
+      <c r="C39" s="4">
         <v>459</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>392</v>
-      </c>
-      <c r="D39" s="4">
-        <v>285</v>
       </c>
       <c r="E39" s="4">
         <v>285</v>
@@ -3997,16 +4096,16 @@
         <v>285</v>
       </c>
       <c r="H39" s="4">
+        <v>285</v>
+      </c>
+      <c r="I39" s="4">
         <v>243</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>190</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>172</v>
-      </c>
-      <c r="K39" s="4">
-        <v>117</v>
       </c>
       <c r="L39" s="4">
         <v>117</v>
@@ -4018,16 +4117,16 @@
         <v>117</v>
       </c>
       <c r="O39" s="4">
+        <v>117</v>
+      </c>
+      <c r="P39" s="4">
         <v>79</v>
-      </c>
-      <c r="P39" s="4">
-        <v>49</v>
       </c>
       <c r="Q39" s="4">
         <v>49</v>
       </c>
       <c r="R39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="S39" s="4">
         <v>23</v>
@@ -4035,122 +4134,127 @@
       <c r="T39" s="4">
         <v>23</v>
       </c>
-      <c r="U39" s="3">
+      <c r="U39" s="4">
         <v>23</v>
       </c>
-      <c r="V39" s="4">
+      <c r="V39" s="3">
+        <v>23</v>
+      </c>
+      <c r="W39" s="4">
         <v>10</v>
       </c>
-      <c r="W39" s="3">
+      <c r="X39" s="3">
         <v>5</v>
       </c>
-      <c r="X39" s="4">
+      <c r="Y39" s="4">
         <v>6</v>
       </c>
-      <c r="Y39" s="4">
+      <c r="Z39" s="4">
         <v>5</v>
       </c>
-      <c r="Z39" s="3">
+      <c r="AA39" s="3">
         <v>5</v>
-      </c>
-      <c r="AA39" s="3">
-        <v>4</v>
       </c>
       <c r="AB39" s="3">
         <v>4</v>
       </c>
       <c r="AC39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD39" s="3">
         <v>2</v>
       </c>
       <c r="AE39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>1</v>
+      </c>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM39" s="3"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>482</v>
+      </c>
+      <c r="C40" s="4">
         <v>356</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>325</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>260</v>
-      </c>
-      <c r="E40" s="4">
-        <v>249</v>
       </c>
       <c r="F40" s="4">
         <v>249</v>
       </c>
       <c r="G40" s="4">
+        <v>249</v>
+      </c>
+      <c r="H40" s="4">
         <v>235</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>200</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>167</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>117</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>113</v>
-      </c>
-      <c r="L40" s="4">
-        <v>95</v>
       </c>
       <c r="M40" s="4">
         <v>95</v>
       </c>
       <c r="N40" s="4">
+        <v>95</v>
+      </c>
+      <c r="O40" s="4">
         <v>94</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <v>43</v>
       </c>
-      <c r="P40" s="4">
+      <c r="Q40" s="4">
         <v>33</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>31</v>
       </c>
       <c r="R40" s="4">
         <v>31</v>
       </c>
       <c r="S40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="T40" s="4">
         <v>19</v>
       </c>
-      <c r="U40" s="3">
+      <c r="U40" s="4">
+        <v>19</v>
+      </c>
+      <c r="V40" s="3">
         <v>11</v>
       </c>
-      <c r="V40" s="4">
+      <c r="W40" s="4">
         <v>7</v>
       </c>
-      <c r="W40" s="3">
+      <c r="X40" s="3">
         <v>5</v>
       </c>
-      <c r="X40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="3"/>
+      <c r="Y40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="4"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
@@ -4163,61 +4267,62 @@
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM40" s="3"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>654</v>
+      </c>
+      <c r="C41" s="4">
         <v>635</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>590</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>564</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>502</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>477</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>405</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>396</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>357</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>317</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>276</v>
-      </c>
-      <c r="L41" s="4">
-        <v>240</v>
       </c>
       <c r="M41" s="4">
         <v>240</v>
       </c>
       <c r="N41" s="4">
+        <v>240</v>
+      </c>
+      <c r="O41" s="4">
         <v>215</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>144</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <v>127</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="4">
         <v>76</v>
-      </c>
-      <c r="R41" s="4">
-        <v>38</v>
       </c>
       <c r="S41" s="4">
         <v>38</v>
@@ -4225,38 +4330,38 @@
       <c r="T41" s="4">
         <v>38</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="4">
+        <v>38</v>
+      </c>
+      <c r="V41" s="3">
         <v>28</v>
       </c>
-      <c r="V41" s="4">
+      <c r="W41" s="4">
         <v>28</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>18</v>
       </c>
-      <c r="X41" s="4">
+      <c r="Y41" s="4">
         <v>14</v>
       </c>
-      <c r="Y41" s="4">
+      <c r="Z41" s="4">
         <v>13</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4</v>
       </c>
-      <c r="AC41" s="3">
-        <v>3</v>
-      </c>
       <c r="AD41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF41" s="3">
         <v>1</v>
@@ -4270,43 +4375,46 @@
       <c r="AI41" s="3">
         <v>1</v>
       </c>
-      <c r="AJ41" s="3"/>
+      <c r="AJ41" s="3">
+        <v>1</v>
+      </c>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM41" s="3"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C42" s="4">
         <v>152</v>
       </c>
       <c r="D42" s="4">
+        <v>152</v>
+      </c>
+      <c r="E42" s="4">
         <v>109</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>108</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>98</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>87</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>60</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>29</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>9</v>
-      </c>
-      <c r="K42" s="4">
-        <v>8</v>
       </c>
       <c r="L42" s="4">
         <v>8</v>
@@ -4315,42 +4423,42 @@
         <v>8</v>
       </c>
       <c r="N42" s="4">
+        <v>8</v>
+      </c>
+      <c r="O42" s="4">
         <v>4</v>
       </c>
-      <c r="O42" s="4">
-        <v>2</v>
-      </c>
       <c r="P42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="4">
+        <v>3</v>
+      </c>
+      <c r="R42" s="4">
         <v>5</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <v>4</v>
       </c>
-      <c r="S42" s="4">
-        <v>3</v>
-      </c>
       <c r="T42" s="4">
         <v>3</v>
       </c>
-      <c r="U42" s="3">
-        <v>2</v>
-      </c>
-      <c r="V42" s="4">
-        <v>1</v>
-      </c>
-      <c r="W42" s="3">
-        <v>1</v>
-      </c>
-      <c r="X42" s="4">
+      <c r="U42" s="4">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3">
+        <v>2</v>
+      </c>
+      <c r="W42" s="4">
+        <v>1</v>
+      </c>
+      <c r="X42" s="3">
         <v>1</v>
       </c>
       <c r="Y42" s="4">
         <v>1</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="4">
         <v>1</v>
       </c>
       <c r="AA42" s="3">
@@ -4386,62 +4494,65 @@
       <c r="AK42" s="3">
         <v>1</v>
       </c>
-      <c r="AL42" s="3"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="3"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>422</v>
+      </c>
+      <c r="C43" s="4">
         <v>357</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>343</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>316</v>
-      </c>
-      <c r="E43" s="4">
-        <v>287</v>
       </c>
       <c r="F43" s="4">
         <v>287</v>
       </c>
       <c r="G43" s="4">
+        <v>287</v>
+      </c>
+      <c r="H43" s="4">
         <v>253</v>
       </c>
-      <c r="H43" s="4">
+      <c r="I43" s="4">
         <v>206</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>175</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>148</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>145</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>111</v>
-      </c>
-      <c r="M43" s="4">
-        <v>98</v>
       </c>
       <c r="N43" s="4">
         <v>98</v>
       </c>
       <c r="O43" s="4">
+        <v>98</v>
+      </c>
+      <c r="P43" s="4">
         <v>61</v>
       </c>
-      <c r="P43" s="4">
+      <c r="Q43" s="4">
         <v>47</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="R43" s="4">
         <v>34</v>
-      </c>
-      <c r="R43" s="4">
-        <v>21</v>
       </c>
       <c r="S43" s="4">
         <v>21</v>
@@ -4449,20 +4560,22 @@
       <c r="T43" s="4">
         <v>21</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U43" s="4">
+        <v>21</v>
+      </c>
+      <c r="V43" s="3">
         <v>17</v>
       </c>
-      <c r="V43" s="4">
+      <c r="W43" s="4">
         <v>15</v>
       </c>
-      <c r="W43" s="3"/>
-      <c r="X43" s="4">
-        <v>1</v>
-      </c>
+      <c r="X43" s="3"/>
       <c r="Y43" s="4">
         <v>1</v>
       </c>
-      <c r="Z43" s="3"/>
+      <c r="Z43" s="4">
+        <v>1</v>
+      </c>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
@@ -4475,61 +4588,62 @@
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM43" s="3"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
+        <v>250</v>
+      </c>
+      <c r="C44" s="4">
         <v>215</v>
-      </c>
-      <c r="C44" s="4">
-        <v>187</v>
       </c>
       <c r="D44" s="4">
         <v>187</v>
       </c>
       <c r="E44" s="4">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F44" s="4">
         <v>170</v>
       </c>
       <c r="G44" s="4">
+        <v>170</v>
+      </c>
+      <c r="H44" s="4">
         <v>137</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>127</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>123</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>81</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>78</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>69</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>48</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>39</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <v>28</v>
       </c>
-      <c r="P44" s="4">
+      <c r="Q44" s="4">
         <v>27</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="R44" s="4">
         <v>16</v>
-      </c>
-      <c r="R44" s="4">
-        <v>6</v>
       </c>
       <c r="S44" s="4">
         <v>6</v>
@@ -4537,28 +4651,30 @@
       <c r="T44" s="4">
         <v>6</v>
       </c>
-      <c r="U44" s="3">
-        <v>3</v>
-      </c>
-      <c r="V44" s="4">
-        <v>2</v>
-      </c>
-      <c r="W44" s="3">
-        <v>2</v>
-      </c>
-      <c r="X44" s="4">
-        <v>1</v>
+      <c r="U44" s="4">
+        <v>6</v>
+      </c>
+      <c r="V44" s="3">
+        <v>3</v>
+      </c>
+      <c r="W44" s="4">
+        <v>2</v>
+      </c>
+      <c r="X44" s="3">
+        <v>2</v>
       </c>
       <c r="Y44" s="4">
         <v>1</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="4">
         <v>1</v>
       </c>
       <c r="AA44" s="3">
         <v>1</v>
       </c>
-      <c r="AB44" s="3"/>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
@@ -4569,84 +4685,85 @@
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM44" s="3"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>452</v>
+      </c>
+      <c r="C45" s="4">
         <v>390</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>341</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>311</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>299</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>290</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>235</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>184</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>161</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>123</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>99</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>83</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>82</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>67</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>41</v>
       </c>
-      <c r="P45" s="4">
+      <c r="Q45" s="4">
         <v>28</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="4">
         <v>22</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <v>16</v>
-      </c>
-      <c r="S45" s="4">
-        <v>12</v>
       </c>
       <c r="T45" s="4">
         <v>12</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="4">
+        <v>12</v>
+      </c>
+      <c r="V45" s="3">
         <v>6</v>
       </c>
-      <c r="V45" s="4">
+      <c r="W45" s="4">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>3</v>
-      </c>
-      <c r="X45" s="4">
+      <c r="X45" s="3">
         <v>3</v>
       </c>
       <c r="Y45" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="4">
         <v>1</v>
       </c>
       <c r="AA45" s="3">
@@ -4661,7 +4778,9 @@
       <c r="AD45" s="3">
         <v>1</v>
       </c>
-      <c r="AE45" s="3"/>
+      <c r="AE45" s="3">
+        <v>1</v>
+      </c>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
@@ -4669,52 +4788,53 @@
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM45" s="3"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>860</v>
+      </c>
+      <c r="C46" s="4">
         <v>828</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>784</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>705</v>
-      </c>
-      <c r="E46" s="4">
-        <v>685</v>
       </c>
       <c r="F46" s="4">
         <v>685</v>
       </c>
       <c r="G46" s="4">
+        <v>685</v>
+      </c>
+      <c r="H46" s="4">
         <v>635</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>561</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>504</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>451</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>441</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>350</v>
-      </c>
-      <c r="M46" s="4">
-        <v>308</v>
       </c>
       <c r="N46" s="4">
         <v>308</v>
       </c>
       <c r="O46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="P46" s="4">
         <v>196</v>
@@ -4723,7 +4843,7 @@
         <v>196</v>
       </c>
       <c r="R46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="S46" s="4">
         <v>60</v>
@@ -4731,37 +4851,39 @@
       <c r="T46" s="4">
         <v>60</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46" s="4">
+        <v>60</v>
+      </c>
+      <c r="V46" s="3">
         <v>40</v>
       </c>
-      <c r="V46" s="4">
+      <c r="W46" s="4">
         <v>35</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>24</v>
       </c>
-      <c r="X46" s="4">
+      <c r="Y46" s="4">
         <v>19</v>
       </c>
-      <c r="Y46" s="4">
+      <c r="Z46" s="4">
         <v>10</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4</v>
       </c>
-      <c r="AC46" s="3">
-        <v>3</v>
-      </c>
       <c r="AD46" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>2</v>
+      </c>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
@@ -4769,85 +4891,86 @@
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM46" s="3"/>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>764</v>
+      </c>
+      <c r="C47" s="4">
         <v>720</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>655</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>636</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>630</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>556</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>525</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>377</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>324</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>161</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>144</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>133</v>
-      </c>
-      <c r="M47" s="4">
-        <v>112</v>
       </c>
       <c r="N47" s="4">
         <v>112</v>
       </c>
       <c r="O47" s="4">
+        <v>112</v>
+      </c>
+      <c r="P47" s="4">
         <v>93</v>
       </c>
-      <c r="P47" s="4">
+      <c r="Q47" s="4">
         <v>85</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <v>67</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <v>61</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <v>41</v>
       </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4">
         <v>23</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9</v>
       </c>
-      <c r="V47" s="4">
+      <c r="W47" s="4">
         <v>9</v>
       </c>
-      <c r="W47" s="3">
-        <v>3</v>
-      </c>
-      <c r="X47" s="4">
+      <c r="X47" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="4">
         <v>5</v>
       </c>
-      <c r="Y47" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>2</v>
+      <c r="Z47" s="4">
+        <v>3</v>
       </c>
       <c r="AA47" s="3">
         <v>2</v>
@@ -4882,59 +5005,62 @@
       <c r="AK47" s="3">
         <v>2</v>
       </c>
-      <c r="AL47" s="3"/>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AM47" s="3"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>192</v>
+      </c>
+      <c r="C48" s="4">
         <v>181</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>167</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>142</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>137</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>111</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>85</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>74</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>40</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>32</v>
-      </c>
-      <c r="K48" s="4">
-        <v>15</v>
       </c>
       <c r="L48" s="4">
         <v>15</v>
       </c>
       <c r="M48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N48" s="4">
         <v>13</v>
       </c>
       <c r="O48" s="4">
+        <v>13</v>
+      </c>
+      <c r="P48" s="4">
         <v>10</v>
       </c>
-      <c r="P48" s="4">
+      <c r="Q48" s="4">
         <v>7</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>5</v>
       </c>
       <c r="R48" s="4">
         <v>5</v>
@@ -4943,14 +5069,16 @@
         <v>5</v>
       </c>
       <c r="T48" s="4">
-        <v>3</v>
-      </c>
-      <c r="U48" s="3"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="U48" s="4">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="3"/>
       <c r="Y48" s="4"/>
-      <c r="Z48" s="3"/>
+      <c r="Z48" s="4"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
@@ -4963,85 +5091,86 @@
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM48" s="3"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="4">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C49" s="4">
         <v>118</v>
       </c>
       <c r="D49" s="4">
+        <v>118</v>
+      </c>
+      <c r="E49" s="4">
         <v>112</v>
-      </c>
-      <c r="E49" s="4">
-        <v>103</v>
       </c>
       <c r="F49" s="4">
         <v>103</v>
       </c>
       <c r="G49" s="4">
+        <v>103</v>
+      </c>
+      <c r="H49" s="4">
         <v>89</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>81</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>72</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>58</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>53</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>40</v>
-      </c>
-      <c r="M49" s="4">
-        <v>35</v>
       </c>
       <c r="N49" s="4">
         <v>35</v>
       </c>
       <c r="O49" s="4">
+        <v>35</v>
+      </c>
+      <c r="P49" s="4">
         <v>21</v>
-      </c>
-      <c r="P49" s="4">
-        <v>19</v>
       </c>
       <c r="Q49" s="4">
         <v>19</v>
       </c>
       <c r="R49" s="4">
+        <v>19</v>
+      </c>
+      <c r="S49" s="4">
         <v>13</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <v>12</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <v>7</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5</v>
       </c>
-      <c r="V49" s="4">
+      <c r="W49" s="4">
         <v>5</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5</v>
       </c>
-      <c r="X49" s="4">
+      <c r="Y49" s="4">
         <v>6</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="Z49" s="4">
         <v>5</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>4</v>
       </c>
       <c r="AA49" s="3">
         <v>4</v>
@@ -5056,69 +5185,72 @@
         <v>4</v>
       </c>
       <c r="AE49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF49" s="3">
         <v>1</v>
       </c>
-      <c r="AG49" s="3"/>
+      <c r="AG49" s="3">
+        <v>1</v>
+      </c>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM49" s="3"/>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>119</v>
+      </c>
+      <c r="C50" s="4">
         <v>101</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>98</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>91</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>83</v>
-      </c>
-      <c r="F50" s="4">
-        <v>61</v>
       </c>
       <c r="G50" s="4">
         <v>61</v>
       </c>
       <c r="H50" s="4">
+        <v>61</v>
+      </c>
+      <c r="I50" s="4">
         <v>51</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>48</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <v>40</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>25</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <v>15</v>
-      </c>
-      <c r="M50" s="4">
-        <v>13</v>
       </c>
       <c r="N50" s="4">
         <v>13</v>
       </c>
       <c r="O50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P50" s="4">
         <v>5</v>
       </c>
       <c r="Q50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R50" s="4">
         <v>4</v>
@@ -5127,16 +5259,18 @@
         <v>4</v>
       </c>
       <c r="T50" s="4">
-        <v>3</v>
-      </c>
-      <c r="U50" s="3">
-        <v>1</v>
-      </c>
-      <c r="V50" s="4"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="U50" s="4">
+        <v>3</v>
+      </c>
+      <c r="V50" s="3">
+        <v>1</v>
+      </c>
+      <c r="W50" s="4"/>
+      <c r="X50" s="3"/>
       <c r="Y50" s="4"/>
-      <c r="Z50" s="3"/>
+      <c r="Z50" s="4"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
@@ -5149,43 +5283,44 @@
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM50" s="3"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>451</v>
+      </c>
+      <c r="C51" s="4">
         <v>418</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>349</v>
-      </c>
-      <c r="D51" s="4">
-        <v>346</v>
       </c>
       <c r="E51" s="4">
         <v>346</v>
       </c>
       <c r="F51" s="4">
+        <v>346</v>
+      </c>
+      <c r="G51" s="4">
         <v>336</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>232</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>219</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>184</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>151</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>109</v>
-      </c>
-      <c r="L51" s="4">
-        <v>70</v>
       </c>
       <c r="M51" s="4">
         <v>70</v>
@@ -5194,39 +5329,39 @@
         <v>70</v>
       </c>
       <c r="O51" s="4">
+        <v>70</v>
+      </c>
+      <c r="P51" s="4">
         <v>60</v>
       </c>
-      <c r="P51" s="4">
+      <c r="Q51" s="4">
         <v>51</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>33</v>
       </c>
       <c r="R51" s="4">
         <v>33</v>
       </c>
       <c r="S51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="T51" s="4">
         <v>21</v>
       </c>
-      <c r="U51" s="3">
+      <c r="U51" s="4">
         <v>21</v>
       </c>
-      <c r="V51" s="4">
+      <c r="V51" s="3">
         <v>21</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W51" s="4">
+        <v>21</v>
+      </c>
+      <c r="X51" s="3">
         <v>19</v>
       </c>
-      <c r="X51" s="4">
+      <c r="Y51" s="4">
         <v>15</v>
       </c>
-      <c r="Y51" s="4">
-        <v>11</v>
-      </c>
-      <c r="Z51" s="3">
+      <c r="Z51" s="4">
         <v>11</v>
       </c>
       <c r="AA51" s="3">
@@ -5239,176 +5374,183 @@
         <v>11</v>
       </c>
       <c r="AD51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AE51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF51" s="3">
         <v>1</v>
       </c>
-      <c r="AG51" s="3"/>
+      <c r="AG51" s="3">
+        <v>1</v>
+      </c>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
-    </row>
-    <row r="52" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM51" s="3"/>
+    </row>
+    <row r="52" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>14580</v>
+        <v>15971</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>13313</v>
+        <v>14580</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
+        <v>13313</v>
+      </c>
+      <c r="E52" s="15">
+        <f>SUM(E8:E51)</f>
         <v>12257</v>
       </c>
-      <c r="E52" s="15">
-        <f t="shared" ref="E52:J52" si="0">SUM(E8:E51)</f>
+      <c r="F52" s="15">
+        <f t="shared" ref="F52:K52" si="0">SUM(F8:F51)</f>
         <v>11536</v>
       </c>
-      <c r="F52" s="15">
+      <c r="G52" s="15">
         <f t="shared" si="0"/>
         <v>10819</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>9729</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>8441</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>7252</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>6043</v>
       </c>
-      <c r="K52" s="15">
-        <f t="shared" ref="K52:P52" si="1">SUM(K8:K51)</f>
+      <c r="L52" s="15">
+        <f t="shared" ref="L52:Q52" si="1">SUM(L8:L51)</f>
         <v>5333</v>
       </c>
-      <c r="L52" s="15">
+      <c r="M52" s="15">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="15">
         <f t="shared" si="1"/>
         <v>3818</v>
       </c>
-      <c r="N52" s="15">
+      <c r="O52" s="15">
         <f t="shared" si="1"/>
         <v>3665</v>
       </c>
-      <c r="O52" s="15">
+      <c r="P52" s="15">
         <f t="shared" si="1"/>
         <v>2748</v>
       </c>
-      <c r="P52" s="14">
+      <c r="Q52" s="14">
         <f t="shared" si="1"/>
         <v>2184</v>
       </c>
-      <c r="Q52" s="5">
-        <f t="shared" ref="Q52:AL52" si="2">SUM(Q8:Q51)</f>
+      <c r="R52" s="5">
+        <f t="shared" ref="R52:AM52" si="2">SUM(R8:R51)</f>
         <v>1641</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="2"/>
         <v>1105</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="2"/>
         <v>977</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="2"/>
         <v>827</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="2"/>
         <v>569</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="2"/>
         <v>454</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="2"/>
         <v>199</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AB52" s="5">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AC52" s="5">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="AC52" s="5">
+      <c r="AD52" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="AD52" s="5">
+      <c r="AE52" s="5">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="AE52" s="5">
+      <c r="AF52" s="5">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="AF52" s="5">
+      <c r="AG52" s="5">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="AG52" s="5">
+      <c r="AH52" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AH52" s="5">
+      <c r="AI52" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="AI52" s="5">
+      <c r="AJ52" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AJ52" s="5">
+      <c r="AK52" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AK52" s="5">
+      <c r="AL52" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AL52" s="5">
+      <c r="AM52" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:38" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:39" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -5435,16 +5577,17 @@
       <c r="V54" s="17"/>
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PHMQnA8bFgpP5zT0VQLTZKdUW4LyFuxks7AruwEtwWdR9VmZu8pM41ZsLMCwMjS+zRy8h8MPlib46UnTtP7XLg==" saltValue="fUJ0XJZdkDQskONiLIy9IQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="p1XoSnvWRVmbdzr2DiQeCkx1n6tsC/OHwMej1TjqAL7J98aGAdpzr+KMKVm41nKnrIUP8mQqaz33V5S5vQL5TA==" saltValue="xoWB3MC6zXDedUF9MZApBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="A54:Y54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="O52:AL52 K52:M52 B52:I52" formulaRange="1"/>
+    <ignoredError sqref="P52:AM52 L52:N52 B52:J52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5454,31 +5597,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V54"/>
+  <dimension ref="A2:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="22" width="11.140625" customWidth="1"/>
+    <col min="2" max="18" width="11.7109375" customWidth="1"/>
+    <col min="19" max="23" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T3" s="9"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -5545,74 +5688,80 @@
       <c r="V6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43923</v>
+      </c>
+      <c r="C7" s="13">
         <v>43922</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43921</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43920</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43919</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43918</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43917</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43916</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43915</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43914</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43913</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43912</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43911</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43910</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>43909</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="13">
         <v>43908</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="R7" s="13">
         <v>43907</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <v>43906</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43905</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43904</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43903</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43902</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -5635,10 +5784,11 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U8" s="4"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -5652,7 +5802,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -5664,12 +5814,14 @@
         <v>2</v>
       </c>
       <c r="I9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -5679,15 +5831,16 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U9" s="4"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -5704,7 +5857,9 @@
       <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -5717,24 +5872,25 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U10" s="4"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
         <v>8</v>
-      </c>
-      <c r="E11" s="4">
-        <v>7</v>
       </c>
       <c r="F11" s="4">
         <v>7</v>
@@ -5743,12 +5899,14 @@
         <v>7</v>
       </c>
       <c r="H11" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -5759,10 +5917,11 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U11" s="4"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -5770,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -5778,7 +5937,9 @@
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5793,35 +5954,38 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>8</v>
-      </c>
-      <c r="D13" s="4">
-        <v>7</v>
       </c>
       <c r="E13" s="4">
         <v>7</v>
       </c>
       <c r="F13" s="4">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
       <c r="H13" s="4">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -5833,10 +5997,11 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U13" s="4"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5844,7 +6009,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -5868,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="4">
         <v>1</v>
@@ -5876,17 +6041,20 @@
       <c r="M14" s="4">
         <v>1</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U14" s="4"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
@@ -5894,22 +6062,22 @@
         <v>18</v>
       </c>
       <c r="C15" s="11">
+        <v>18</v>
+      </c>
+      <c r="D15" s="11">
         <v>15</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>12</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>8</v>
-      </c>
-      <c r="F15" s="11">
-        <v>7</v>
       </c>
       <c r="G15" s="11">
         <v>7</v>
       </c>
       <c r="H15" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I15" s="11">
         <v>5</v>
@@ -5921,7 +6089,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" s="11">
         <v>4</v>
@@ -5930,30 +6098,33 @@
         <v>4</v>
       </c>
       <c r="O15" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>1</v>
+      </c>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U15" s="11"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="11"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -5970,7 +6141,9 @@
       <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -5981,27 +6154,28 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U16" s="4"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>18</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>11</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>7</v>
-      </c>
-      <c r="F17" s="4">
-        <v>6</v>
       </c>
       <c r="G17" s="4">
         <v>6</v>
@@ -6010,7 +6184,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" s="4">
         <v>3</v>
@@ -6022,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="M17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="4">
         <v>2</v>
@@ -6031,7 +6205,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="4">
         <v>1</v>
@@ -6045,39 +6219,42 @@
       <c r="T17" s="4">
         <v>1</v>
       </c>
-      <c r="U17" s="3">
-        <v>1</v>
-      </c>
-      <c r="V17" s="4"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4">
         <v>12</v>
       </c>
       <c r="D18" s="4">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
         <v>11</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>6</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
       </c>
       <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
         <v>4</v>
       </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
       <c r="J18" s="4">
         <v>2</v>
       </c>
@@ -6088,19 +6265,22 @@
         <v>2</v>
       </c>
       <c r="M18" s="4">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="4"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U18" s="4"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -6123,10 +6303,11 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="4"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U19" s="4"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -6134,13 +6315,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4">
         <v>9</v>
       </c>
       <c r="E20" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
@@ -6152,7 +6333,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
@@ -6187,12 +6368,15 @@
       <c r="T20" s="4">
         <v>1</v>
       </c>
-      <c r="U20" s="3">
-        <v>1</v>
-      </c>
-      <c r="V20" s="4"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -6215,10 +6399,11 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="4"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U21" s="4"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -6226,13 +6411,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
       </c>
       <c r="E22" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="4">
         <v>4</v>
@@ -6241,10 +6426,10 @@
         <v>4</v>
       </c>
       <c r="H22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
@@ -6252,7 +6437,9 @@
       <c r="K22" s="4">
         <v>1</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -6261,10 +6448,11 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="4"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U22" s="4"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -6275,7 +6463,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23" s="11">
         <v>5</v>
@@ -6290,13 +6478,13 @@
         <v>5</v>
       </c>
       <c r="I23" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23" s="11">
         <v>4</v>
       </c>
       <c r="K23" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" s="11">
         <v>3</v>
@@ -6305,10 +6493,10 @@
         <v>3</v>
       </c>
       <c r="N23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="11">
         <v>1</v>
@@ -6316,13 +6504,16 @@
       <c r="Q23" s="11">
         <v>1</v>
       </c>
-      <c r="R23" s="11"/>
+      <c r="R23" s="11">
+        <v>1</v>
+      </c>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="11"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U23" s="11"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="11"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -6345,31 +6536,32 @@
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="11"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U24" s="11"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4">
         <v>12</v>
-      </c>
-      <c r="C25" s="4">
-        <v>9</v>
       </c>
       <c r="D25" s="4">
         <v>9</v>
       </c>
       <c r="E25" s="4">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4">
         <v>6</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>5</v>
       </c>
-      <c r="G25" s="4">
-        <v>3</v>
-      </c>
       <c r="H25" s="4">
         <v>3</v>
       </c>
@@ -6383,13 +6575,13 @@
         <v>3</v>
       </c>
       <c r="L25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25" s="4">
         <v>2</v>
       </c>
       <c r="N25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" s="4">
         <v>1</v>
@@ -6397,14 +6589,17 @@
       <c r="P25" s="4">
         <v>1</v>
       </c>
-      <c r="Q25" s="4"/>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="4"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U25" s="4"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -6412,11 +6607,11 @@
         <v>7</v>
       </c>
       <c r="C26" s="11">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11">
         <v>4</v>
       </c>
-      <c r="D26" s="11">
-        <v>3</v>
-      </c>
       <c r="E26" s="11">
         <v>3</v>
       </c>
@@ -6424,7 +6619,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="11">
         <v>1</v>
@@ -6432,7 +6627,9 @@
       <c r="I26" s="11">
         <v>1</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="11">
+        <v>1</v>
+      </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -6443,10 +6640,11 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="11"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U26" s="11"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="11"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
@@ -6456,7 +6654,9 @@
       <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -6473,10 +6673,11 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="11"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U27" s="11"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="11"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -6487,7 +6688,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -6501,7 +6702,9 @@
       <c r="H28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -6513,22 +6716,23 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="4"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U28" s="4"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4">
         <v>8</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="D29" s="4">
-        <v>3</v>
-      </c>
       <c r="E29" s="4">
         <v>3</v>
       </c>
@@ -6544,7 +6748,9 @@
       <c r="I29" s="4">
         <v>3</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="4">
+        <v>3</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -6555,28 +6761,29 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="4"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U29" s="4"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4">
         <v>11</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>7</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>6</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>4</v>
       </c>
-      <c r="F30" s="4">
-        <v>3</v>
-      </c>
       <c r="G30" s="4">
         <v>3</v>
       </c>
@@ -6584,12 +6791,14 @@
         <v>3</v>
       </c>
       <c r="I30" s="4">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4">
         <v>4</v>
       </c>
-      <c r="J30" s="4">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4"/>
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -6599,10 +6808,11 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="4"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U30" s="4"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -6625,14 +6835,17 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="4"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U31" s="4"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -6651,24 +6864,25 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="4"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U32" s="4"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
       </c>
       <c r="E33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -6682,7 +6896,9 @@
       <c r="I33" s="4">
         <v>1</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -6693,36 +6909,37 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="4"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U33" s="4"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
         <v>21</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>18</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>15</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>11</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>10</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>8</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>5</v>
-      </c>
-      <c r="I34" s="4">
-        <v>4</v>
       </c>
       <c r="J34" s="4">
         <v>4</v>
@@ -6734,13 +6951,13 @@
         <v>4</v>
       </c>
       <c r="M34" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N34" s="4">
         <v>2</v>
       </c>
       <c r="O34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="4">
         <v>1</v>
@@ -6748,13 +6965,16 @@
       <c r="Q34" s="4">
         <v>1</v>
       </c>
-      <c r="R34" s="4"/>
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="4"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U34" s="4"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -6764,7 +6984,9 @@
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -6781,14 +7003,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="4"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U35" s="4"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -6807,17 +7032,20 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="4"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U36" s="4"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -6835,14 +7063,17 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="4"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U37" s="4"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -6861,19 +7092,20 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="4"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U38" s="4"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4">
         <v>5</v>
       </c>
-      <c r="C39" s="4">
-        <v>3</v>
-      </c>
       <c r="D39" s="4">
         <v>3</v>
       </c>
@@ -6887,10 +7119,10 @@
         <v>3</v>
       </c>
       <c r="H39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="4">
         <v>1</v>
@@ -6925,19 +7157,22 @@
       <c r="T39" s="4">
         <v>1</v>
       </c>
-      <c r="U39" s="3">
-        <v>1</v>
-      </c>
-      <c r="V39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U39" s="4">
+        <v>1</v>
+      </c>
+      <c r="V39" s="3">
+        <v>1</v>
+      </c>
+      <c r="W39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C40" s="4">
         <v>6</v>
@@ -6946,7 +7181,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="4">
         <v>5</v>
@@ -6955,10 +7190,10 @@
         <v>5</v>
       </c>
       <c r="H40" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" s="4">
         <v>2</v>
@@ -6967,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="4">
         <v>1</v>
@@ -6975,24 +7210,27 @@
       <c r="N40" s="4">
         <v>1</v>
       </c>
-      <c r="O40" s="4"/>
+      <c r="O40" s="4">
+        <v>1</v>
+      </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="4"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U40" s="4"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
         <v>8</v>
-      </c>
-      <c r="C41" s="4">
-        <v>4</v>
       </c>
       <c r="D41" s="4">
         <v>4</v>
@@ -7001,18 +7239,20 @@
         <v>4</v>
       </c>
       <c r="F41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="4">
         <v>1</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -7023,10 +7263,11 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="4"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U41" s="4"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -7037,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="4">
         <v>2</v>
@@ -7055,7 +7296,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="4">
         <v>1</v>
@@ -7078,24 +7319,27 @@
       <c r="Q42" s="4">
         <v>1</v>
       </c>
-      <c r="R42" s="4"/>
+      <c r="R42" s="4">
+        <v>1</v>
+      </c>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="4"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U42" s="4"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="4"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>13</v>
+      </c>
+      <c r="C43" s="4">
         <v>11</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>10</v>
-      </c>
-      <c r="D43" s="4">
-        <v>9</v>
       </c>
       <c r="E43" s="4">
         <v>9</v>
@@ -7104,18 +7348,20 @@
         <v>9</v>
       </c>
       <c r="G43" s="4">
+        <v>9</v>
+      </c>
+      <c r="H43" s="4">
         <v>7</v>
-      </c>
-      <c r="H43" s="4">
-        <v>5</v>
       </c>
       <c r="I43" s="4">
         <v>5</v>
       </c>
       <c r="J43" s="4">
-        <v>2</v>
-      </c>
-      <c r="K43" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -7125,15 +7371,16 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="4"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U43" s="4"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="4"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
@@ -7147,7 +7394,9 @@
       <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4">
+        <v>2</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -7161,21 +7410,22 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="4"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U44" s="4"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="4"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C45" s="4">
         <v>6</v>
       </c>
       <c r="D45" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E45" s="4">
         <v>3</v>
@@ -7184,7 +7434,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" s="4">
         <v>2</v>
@@ -7205,49 +7455,52 @@
         <v>2</v>
       </c>
       <c r="N45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" s="4">
         <v>1</v>
       </c>
-      <c r="P45" s="4"/>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="4"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U45" s="4"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="4"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4">
         <v>8</v>
-      </c>
-      <c r="C46" s="4">
-        <v>7</v>
       </c>
       <c r="D46" s="4">
         <v>7</v>
       </c>
       <c r="E46" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F46" s="4">
         <v>6</v>
       </c>
       <c r="G46" s="4">
+        <v>6</v>
+      </c>
+      <c r="H46" s="4">
         <v>5</v>
       </c>
-      <c r="H46" s="4">
-        <v>3</v>
-      </c>
       <c r="I46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" s="4">
         <v>1</v>
@@ -7258,42 +7511,47 @@
       <c r="M46" s="4">
         <v>1</v>
       </c>
-      <c r="N46" s="4"/>
+      <c r="N46" s="4">
+        <v>1</v>
+      </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="4"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U46" s="4"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="4"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" s="4">
         <v>5</v>
       </c>
       <c r="D47" s="4">
+        <v>5</v>
+      </c>
+      <c r="E47" s="4">
         <v>4</v>
       </c>
-      <c r="E47" s="4">
-        <v>2</v>
-      </c>
       <c r="F47" s="4">
         <v>2</v>
       </c>
       <c r="G47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="4">
         <v>1</v>
       </c>
-      <c r="I47" s="4"/>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -7305,10 +7563,11 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="4"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U47" s="4"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="4"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -7316,7 +7575,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" s="4">
         <v>3</v>
@@ -7328,15 +7587,17 @@
         <v>3</v>
       </c>
       <c r="G48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="4">
         <v>1</v>
       </c>
-      <c r="J48" s="4"/>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -7347,10 +7608,11 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="4"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U48" s="4"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="4"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -7373,10 +7635,11 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="4"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U49" s="4"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="4"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
@@ -7419,27 +7682,30 @@
       <c r="N50" s="4">
         <v>1</v>
       </c>
-      <c r="O50" s="4"/>
+      <c r="O50" s="4">
+        <v>1</v>
+      </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="4"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U50" s="4"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="4"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>10</v>
+      </c>
+      <c r="C51" s="4">
         <v>9</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>5</v>
-      </c>
-      <c r="D51" s="4">
-        <v>4</v>
       </c>
       <c r="E51" s="4">
         <v>4</v>
@@ -7451,12 +7717,14 @@
         <v>4</v>
       </c>
       <c r="H51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51" s="4">
-        <v>2</v>
-      </c>
-      <c r="J51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="J51" s="4">
+        <v>2</v>
+      </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -7467,81 +7735,82 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="4"/>
-    </row>
-    <row r="52" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U51" s="4"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="4"/>
+    </row>
+    <row r="52" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
+        <v>196</v>
+      </c>
+      <c r="E52" s="15">
+        <f>SUM(E8:E51)</f>
         <v>163</v>
       </c>
-      <c r="E52" s="15">
-        <f t="shared" ref="E52:J52" si="0">SUM(E8:E51)</f>
+      <c r="F52" s="15">
+        <f t="shared" ref="F52:K52" si="0">SUM(F8:F51)</f>
         <v>128</v>
       </c>
-      <c r="F52" s="15">
+      <c r="G52" s="15">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="K52" s="15">
-        <f t="shared" ref="K52:V52" si="1">SUM(K8:K51)</f>
+      <c r="L52" s="15">
+        <f t="shared" ref="L52:W52" si="1">SUM(L8:L51)</f>
         <v>31</v>
       </c>
-      <c r="L52" s="15">
+      <c r="M52" s="15">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="15">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="N52" s="15">
+      <c r="O52" s="15">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="O52" s="15">
+      <c r="P52" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P52" s="14">
+      <c r="Q52" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="R52" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="R52" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
       <c r="S52" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -7556,11 +7825,15 @@
       </c>
       <c r="V52" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="W52" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -7585,16 +7858,17 @@
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7HTUxDo0ripOlCy5V6vVGrZZQkm+csiSfai6xcMVAdM66x5k7MpCOPo1hrV4NvTQWr8ustDMalRk2/zjxYNrcQ==" saltValue="nBNRrqBDYQG1UbHDvNunbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l+hkYQH6mte9wSkXEWy8tduBvQsEx7DY0yk95suoeCXNkTHjkDOcLJkYC5hXIS4urJVWShHwgJZ8Qv6GQkLNlQ==" saltValue="7rKfISEn9HNlPG77ezZezg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A54:W54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B52:V52" formulaRange="1"/>
+    <ignoredError sqref="B52:W52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
   <si>
     <t>Fälle</t>
   </si>
@@ -606,7 +606,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AM54"/>
+  <dimension ref="A2:AN54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
@@ -615,28 +615,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
-    <col min="26" max="27" width="11.5703125" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" customWidth="1"/>
+    <col min="2" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="24" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" customWidth="1"/>
+    <col min="27" max="28" width="11.5703125" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="9"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="U3" s="9"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -754,211 +754,217 @@
       <c r="AM6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43924</v>
+      </c>
+      <c r="C7" s="13">
         <v>43923</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43922</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43921</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43920</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43919</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43918</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43917</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43916</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43915</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43914</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43913</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43912</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43911</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>43910</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="13">
         <v>43909</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="R7" s="13">
         <v>43908</v>
       </c>
-      <c r="R7" s="13">
+      <c r="S7" s="13">
         <v>43907</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43906</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43905</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43904</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43903</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43902</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43901</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43900</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43899</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43898</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43897</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43896</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43895</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AF7" s="12">
         <v>43894</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AG7" s="12">
         <v>43893</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AH7" s="12">
         <v>43892</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AI7" s="12">
         <v>43891</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AJ7" s="12">
         <v>43890</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AK7" s="12">
         <v>43889</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AL7" s="12">
         <v>43888</v>
       </c>
-      <c r="AL7" s="12">
+      <c r="AM7" s="12">
         <v>43887</v>
       </c>
-      <c r="AM7" s="12">
+      <c r="AN7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
+        <v>271</v>
+      </c>
+      <c r="C8" s="4">
         <v>251</v>
-      </c>
-      <c r="C8" s="4">
-        <v>228</v>
       </c>
       <c r="D8" s="4">
         <v>228</v>
       </c>
       <c r="E8" s="4">
+        <v>228</v>
+      </c>
+      <c r="F8" s="4">
         <v>217</v>
-      </c>
-      <c r="F8" s="4">
-        <v>189</v>
       </c>
       <c r="G8" s="4">
         <v>189</v>
       </c>
       <c r="H8" s="4">
+        <v>189</v>
+      </c>
+      <c r="I8" s="4">
         <v>130</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>99</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>85</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>64</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>60</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>44</v>
-      </c>
-      <c r="N8" s="4">
-        <v>39</v>
       </c>
       <c r="O8" s="4">
         <v>39</v>
       </c>
       <c r="P8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="4">
         <v>26</v>
       </c>
       <c r="R8" s="4">
+        <v>26</v>
+      </c>
+      <c r="S8" s="4">
         <v>24</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <v>13</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <v>12</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <v>7</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <v>6</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4</v>
       </c>
-      <c r="Y8" s="4">
-        <v>3</v>
-      </c>
       <c r="Z8" s="4">
         <v>3</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="4">
         <v>3</v>
       </c>
       <c r="AB8" s="3">
         <v>3</v>
       </c>
       <c r="AC8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="3">
         <v>2</v>
@@ -966,7 +972,9 @@
       <c r="AE8" s="3">
         <v>2</v>
       </c>
-      <c r="AF8" s="3"/>
+      <c r="AF8" s="3">
+        <v>2</v>
+      </c>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
@@ -974,93 +982,96 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4">
         <v>93</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>91</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>84</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>73</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>65</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>55</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>45</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>39</v>
-      </c>
-      <c r="J9" s="4">
-        <v>36</v>
       </c>
       <c r="K9" s="4">
         <v>36</v>
       </c>
       <c r="L9" s="4">
+        <v>36</v>
+      </c>
+      <c r="M9" s="4">
         <v>33</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>25</v>
-      </c>
-      <c r="N9" s="4">
-        <v>21</v>
       </c>
       <c r="O9" s="4">
         <v>21</v>
       </c>
       <c r="P9" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="4">
         <v>17</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>14</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>12</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>7</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <v>5</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>3</v>
-      </c>
-      <c r="W9" s="4">
-        <v>3</v>
-      </c>
-      <c r="X9" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>1</v>
+      <c r="W9" s="3">
+        <v>3</v>
+      </c>
+      <c r="X9" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>2</v>
       </c>
       <c r="Z9" s="4">
         <v>1</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="4">
         <v>1</v>
       </c>
       <c r="AB9" s="3">
         <v>1</v>
       </c>
-      <c r="AC9" s="3"/>
+      <c r="AC9" s="3">
+        <v>1</v>
+      </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
@@ -1071,46 +1082,47 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN9" s="3"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
+        <v>275</v>
+      </c>
+      <c r="C10" s="4">
         <v>264</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>245</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>236</v>
-      </c>
-      <c r="E10" s="4">
-        <v>216</v>
       </c>
       <c r="F10" s="4">
         <v>216</v>
       </c>
       <c r="G10" s="4">
+        <v>216</v>
+      </c>
+      <c r="H10" s="4">
         <v>196</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>182</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>144</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>106</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>82</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>74</v>
-      </c>
-      <c r="M10" s="4">
-        <v>45</v>
       </c>
       <c r="N10" s="4">
         <v>45</v>
@@ -1122,13 +1134,13 @@
         <v>45</v>
       </c>
       <c r="Q10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="R10" s="4">
         <v>17</v>
       </c>
       <c r="S10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="T10" s="4">
         <v>5</v>
@@ -1136,31 +1148,33 @@
       <c r="U10" s="4">
         <v>5</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="4">
         <v>5</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
+        <v>5</v>
+      </c>
+      <c r="X10" s="4">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="3">
         <v>3</v>
       </c>
       <c r="Z10" s="4">
         <v>3</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="4">
         <v>3</v>
       </c>
       <c r="AB10" s="3">
         <v>3</v>
       </c>
       <c r="AC10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>1</v>
+      </c>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
@@ -1170,55 +1184,56 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN10" s="3"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>783</v>
+      </c>
+      <c r="C11" s="4">
         <v>695</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>651</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>432</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>413</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>385</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>369</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>333</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>263</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>233</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>224</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>187</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>117</v>
-      </c>
-      <c r="N11" s="4">
-        <v>67</v>
       </c>
       <c r="O11" s="4">
         <v>67</v>
       </c>
       <c r="P11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="4">
         <v>28</v>
@@ -1227,7 +1242,7 @@
         <v>28</v>
       </c>
       <c r="S11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="T11" s="4">
         <v>9</v>
@@ -1235,22 +1250,22 @@
       <c r="U11" s="4">
         <v>9</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="4">
         <v>9</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
+        <v>9</v>
+      </c>
+      <c r="X11" s="4">
         <v>4</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>4</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Z11" s="4">
         <v>4</v>
       </c>
-      <c r="Z11" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="4">
         <v>3</v>
       </c>
       <c r="AB11" s="3">
@@ -1260,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="AD11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="3">
         <v>1</v>
@@ -1283,89 +1298,92 @@
       <c r="AK11" s="3">
         <v>1</v>
       </c>
-      <c r="AL11" s="3"/>
+      <c r="AL11" s="3">
+        <v>1</v>
+      </c>
       <c r="AM11" s="3"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN11" s="3"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>219</v>
+      </c>
+      <c r="C12" s="4">
         <v>203</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>192</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>190</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>186</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>185</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>178</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>175</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>153</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>121</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>89</v>
-      </c>
-      <c r="L12" s="4">
-        <v>83</v>
       </c>
       <c r="M12" s="4">
         <v>83</v>
       </c>
       <c r="N12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O12" s="4">
         <v>71</v>
       </c>
       <c r="P12" s="4">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="4">
         <v>62</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>39</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>31</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <v>29</v>
-      </c>
-      <c r="T12" s="4">
-        <v>13</v>
       </c>
       <c r="U12" s="4">
         <v>13</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="4">
+        <v>13</v>
+      </c>
+      <c r="W12" s="3">
         <v>8</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <v>4</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Z12" s="4">
         <v>5</v>
       </c>
-      <c r="Z12" s="4">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="4">
         <v>4</v>
       </c>
       <c r="AB12" s="3">
@@ -1375,12 +1393,14 @@
         <v>4</v>
       </c>
       <c r="AD12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>1</v>
+      </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
@@ -1388,94 +1408,95 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN12" s="3"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>585</v>
+      </c>
+      <c r="C13" s="4">
         <v>544</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>475</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>419</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>392</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>372</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>299</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>273</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>254</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>223</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>197</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>178</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>167</v>
-      </c>
-      <c r="N13" s="4">
-        <v>134</v>
       </c>
       <c r="O13" s="4">
         <v>134</v>
       </c>
       <c r="P13" s="4">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="4">
         <v>101</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>78</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>54</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <v>45</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <v>42</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <v>26</v>
       </c>
-      <c r="V13" s="3">
+      <c r="W13" s="3">
         <v>19</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>18</v>
       </c>
-      <c r="X13" s="3">
+      <c r="Y13" s="3">
         <v>12</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>6</v>
       </c>
       <c r="Z13" s="4">
         <v>6</v>
       </c>
-      <c r="AA13" s="3">
-        <v>5</v>
+      <c r="AA13" s="4">
+        <v>6</v>
       </c>
       <c r="AB13" s="3">
         <v>5</v>
       </c>
       <c r="AC13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD13" s="3">
         <v>4</v>
@@ -1484,13 +1505,13 @@
         <v>4</v>
       </c>
       <c r="AF13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG13" s="3">
         <v>1</v>
       </c>
       <c r="AH13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="3">
         <v>3</v>
@@ -1501,90 +1522,93 @@
       <c r="AK13" s="3">
         <v>3</v>
       </c>
-      <c r="AL13" s="3"/>
+      <c r="AL13" s="3">
+        <v>3</v>
+      </c>
       <c r="AM13" s="3"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN13" s="3"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>379</v>
+      </c>
+      <c r="C14" s="4">
         <v>345</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>329</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>308</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>295</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>278</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>259</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>226</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>210</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>182</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>159</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>150</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>120</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>108</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>92</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>76</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>61</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>51</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>43</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <v>34</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <v>26</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>12</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>7</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Z14" s="4">
         <v>6</v>
       </c>
-      <c r="Z14" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>1</v>
+      <c r="AA14" s="4">
+        <v>2</v>
       </c>
       <c r="AB14" s="3">
         <v>1</v>
@@ -1592,7 +1616,9 @@
       <c r="AC14" s="3">
         <v>1</v>
       </c>
-      <c r="AD14" s="3"/>
+      <c r="AD14" s="3">
+        <v>1</v>
+      </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
@@ -1602,196 +1628,202 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN14" s="3"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>368</v>
+      </c>
+      <c r="C15" s="11">
         <v>348</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>320</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>287</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>264</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>201</v>
-      </c>
-      <c r="G15" s="11">
-        <v>191</v>
       </c>
       <c r="H15" s="11">
         <v>191</v>
       </c>
       <c r="I15" s="11">
+        <v>191</v>
+      </c>
+      <c r="J15" s="11">
         <v>171</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="11">
         <v>154</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>141</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>123</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <v>121</v>
-      </c>
-      <c r="N15" s="11">
-        <v>110</v>
       </c>
       <c r="O15" s="11">
         <v>110</v>
       </c>
       <c r="P15" s="11">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="11">
         <v>99</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="R15" s="11">
         <v>60</v>
       </c>
-      <c r="R15" s="11">
+      <c r="S15" s="11">
         <v>59</v>
-      </c>
-      <c r="S15" s="11">
-        <v>35</v>
       </c>
       <c r="T15" s="11">
         <v>35</v>
       </c>
       <c r="U15" s="11">
+        <v>35</v>
+      </c>
+      <c r="V15" s="11">
         <v>21</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>17</v>
       </c>
-      <c r="W15" s="11">
+      <c r="X15" s="11">
         <v>16</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>15</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>13</v>
       </c>
       <c r="Z15" s="11">
         <v>13</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="11">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="3">
         <v>12</v>
       </c>
-      <c r="AB15" s="3">
-        <v>3</v>
-      </c>
       <c r="AC15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>1</v>
+      </c>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="3">
-        <v>1</v>
-      </c>
+      <c r="AF15" s="3"/>
       <c r="AG15" s="3">
         <v>1</v>
       </c>
-      <c r="AH15" s="3"/>
+      <c r="AH15" s="3">
+        <v>1</v>
+      </c>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN15" s="3"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>175</v>
+      </c>
+      <c r="C16" s="4">
         <v>162</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>142</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>125</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>115</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>110</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>89</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>74</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>62</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>55</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>45</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>37</v>
-      </c>
-      <c r="M16" s="4">
-        <v>33</v>
       </c>
       <c r="N16" s="4">
         <v>33</v>
       </c>
       <c r="O16" s="4">
+        <v>33</v>
+      </c>
+      <c r="P16" s="4">
         <v>24</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>21</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <v>12</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>9</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <v>4</v>
       </c>
-      <c r="T16" s="4">
-        <v>3</v>
-      </c>
       <c r="U16" s="4">
         <v>3</v>
       </c>
-      <c r="V16" s="3">
-        <v>3</v>
-      </c>
-      <c r="W16" s="4">
-        <v>3</v>
-      </c>
-      <c r="X16" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>1</v>
+      <c r="V16" s="4">
+        <v>3</v>
+      </c>
+      <c r="W16" s="3">
+        <v>3</v>
+      </c>
+      <c r="X16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>2</v>
       </c>
       <c r="Z16" s="4">
         <v>1</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="4">
         <v>1</v>
       </c>
       <c r="AB16" s="3">
         <v>1</v>
       </c>
-      <c r="AC16" s="3"/>
+      <c r="AC16" s="3">
+        <v>1</v>
+      </c>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
@@ -1802,193 +1834,197 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN16" s="3"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C17" s="4">
         <v>945</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>881</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>833</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>761</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>737</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>705</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>648</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>596</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>493</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>462</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>435</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>362</v>
-      </c>
-      <c r="N17" s="4">
-        <v>323</v>
       </c>
       <c r="O17" s="4">
         <v>323</v>
       </c>
       <c r="P17" s="4">
+        <v>323</v>
+      </c>
+      <c r="Q17" s="4">
         <v>234</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>193</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>128</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>123</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <v>111</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <v>82</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>65</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>47</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>43</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Z17" s="4">
         <v>23</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AA17" s="4">
         <v>18</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>16</v>
       </c>
       <c r="AB17" s="3">
         <v>16</v>
       </c>
       <c r="AC17" s="3">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="3">
         <v>14</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>13</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>5</v>
       </c>
       <c r="AF17" s="3">
         <v>5</v>
       </c>
-      <c r="AG17" s="3"/>
+      <c r="AG17" s="3">
+        <v>5</v>
+      </c>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN17" s="3"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>586</v>
+      </c>
+      <c r="C18" s="4">
         <v>534</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>492</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>442</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>414</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>386</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>346</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>325</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>284</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>254</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>227</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>212</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>191</v>
-      </c>
-      <c r="N18" s="4">
-        <v>150</v>
       </c>
       <c r="O18" s="4">
         <v>150</v>
       </c>
       <c r="P18" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q18" s="4">
         <v>114</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <v>79</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>62</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>53</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <v>43</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <v>34</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <v>18</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>12</v>
       </c>
       <c r="Z18" s="4">
         <v>12</v>
       </c>
-      <c r="AA18" s="3">
-        <v>8</v>
+      <c r="AA18" s="4">
+        <v>12</v>
       </c>
       <c r="AB18" s="3">
         <v>8</v>
@@ -1997,69 +2033,72 @@
         <v>8</v>
       </c>
       <c r="AD18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE18" s="3">
         <v>6</v>
       </c>
       <c r="AF18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG18" s="3">
         <v>4</v>
       </c>
       <c r="AH18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>1</v>
+      </c>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
+        <v>210</v>
+      </c>
+      <c r="C19" s="4">
         <v>185</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>180</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>174</v>
-      </c>
-      <c r="E19" s="4">
-        <v>154</v>
       </c>
       <c r="F19" s="4">
         <v>154</v>
       </c>
       <c r="G19" s="4">
+        <v>154</v>
+      </c>
+      <c r="H19" s="4">
         <v>136</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>110</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>76</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>69</v>
-      </c>
-      <c r="K19" s="4">
-        <v>39</v>
       </c>
       <c r="L19" s="4">
         <v>39</v>
       </c>
       <c r="M19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N19" s="4">
         <v>14</v>
@@ -2074,31 +2113,33 @@
         <v>14</v>
       </c>
       <c r="R19" s="4">
+        <v>14</v>
+      </c>
+      <c r="S19" s="4">
         <v>10</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <v>8</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <v>7</v>
       </c>
-      <c r="U19" s="4">
-        <v>3</v>
-      </c>
-      <c r="V19" s="3">
-        <v>2</v>
-      </c>
-      <c r="W19" s="4">
-        <v>2</v>
-      </c>
-      <c r="X19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="3"/>
+      <c r="V19" s="4">
+        <v>3</v>
+      </c>
+      <c r="W19" s="3">
+        <v>2</v>
+      </c>
+      <c r="X19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="4"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2111,46 +2152,47 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN19" s="3"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
+        <v>463</v>
+      </c>
+      <c r="C20" s="4">
         <v>446</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>422</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>371</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>361</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>340</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>317</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>278</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>249</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>216</v>
-      </c>
-      <c r="K20" s="4">
-        <v>166</v>
       </c>
       <c r="L20" s="4">
         <v>166</v>
       </c>
       <c r="M20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="N20" s="4">
         <v>97</v>
@@ -2159,46 +2201,46 @@
         <v>97</v>
       </c>
       <c r="P20" s="4">
+        <v>97</v>
+      </c>
+      <c r="Q20" s="4">
         <v>60</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <v>59</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <v>39</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <v>29</v>
-      </c>
-      <c r="T20" s="4">
-        <v>16</v>
       </c>
       <c r="U20" s="4">
         <v>16</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="4">
+        <v>16</v>
+      </c>
+      <c r="W20" s="3">
         <v>14</v>
       </c>
-      <c r="W20" s="4">
-        <v>3</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="4">
+      <c r="X20" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="4">
         <v>4</v>
       </c>
-      <c r="Z20" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="4">
         <v>3</v>
       </c>
       <c r="AB20" s="3">
         <v>3</v>
       </c>
       <c r="AC20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD20" s="3">
         <v>2</v>
@@ -2222,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="AK20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL20" s="3">
         <v>1</v>
@@ -2230,52 +2272,55 @@
       <c r="AM20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4">
+        <v>189</v>
+      </c>
+      <c r="C21" s="4">
         <v>178</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>167</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>154</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>148</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>130</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>124</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>113</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>112</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>109</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>98</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>89</v>
-      </c>
-      <c r="M21" s="4">
-        <v>5</v>
       </c>
       <c r="N21" s="4">
         <v>5</v>
       </c>
       <c r="O21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P21" s="4">
         <v>3</v>
@@ -2284,40 +2329,40 @@
         <v>3</v>
       </c>
       <c r="R21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" s="4">
         <v>2</v>
       </c>
       <c r="T21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U21" s="4">
         <v>3</v>
       </c>
-      <c r="V21" s="3">
-        <v>2</v>
-      </c>
-      <c r="W21" s="4">
-        <v>2</v>
-      </c>
-      <c r="X21" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>5</v>
+      <c r="V21" s="4">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
+        <v>2</v>
+      </c>
+      <c r="X21" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>2</v>
       </c>
       <c r="Z21" s="4">
         <v>5</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="4">
         <v>5</v>
       </c>
       <c r="AB21" s="3">
         <v>5</v>
       </c>
       <c r="AC21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD21" s="3">
         <v>2</v>
@@ -2325,7 +2370,9 @@
       <c r="AE21" s="3">
         <v>2</v>
       </c>
-      <c r="AF21" s="3"/>
+      <c r="AF21" s="3">
+        <v>2</v>
+      </c>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
@@ -2333,94 +2380,95 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN21" s="3"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>226</v>
+      </c>
+      <c r="C22" s="4">
         <v>225</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>208</v>
-      </c>
-      <c r="D22" s="4">
-        <v>160</v>
       </c>
       <c r="E22" s="4">
         <v>160</v>
       </c>
       <c r="F22" s="4">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G22" s="4">
         <v>125</v>
       </c>
       <c r="H22" s="4">
+        <v>125</v>
+      </c>
+      <c r="I22" s="4">
         <v>117</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>98</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>97</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>62</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>60</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>57</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>47</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>39</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>34</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>17</v>
       </c>
       <c r="R22" s="4">
         <v>17</v>
       </c>
       <c r="S22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="T22" s="4">
         <v>21</v>
       </c>
       <c r="U22" s="4">
+        <v>21</v>
+      </c>
+      <c r="V22" s="4">
         <v>19</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8</v>
       </c>
-      <c r="W22" s="4">
+      <c r="X22" s="4">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4</v>
       </c>
-      <c r="Y22" s="4">
-        <v>3</v>
-      </c>
       <c r="Z22" s="4">
         <v>3</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="4">
         <v>3</v>
       </c>
       <c r="AB22" s="3">
         <v>3</v>
       </c>
       <c r="AC22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD22" s="3">
         <v>1</v>
@@ -2428,7 +2476,9 @@
       <c r="AE22" s="3">
         <v>1</v>
       </c>
-      <c r="AF22" s="3"/>
+      <c r="AF22" s="3">
+        <v>1</v>
+      </c>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
@@ -2436,109 +2486,110 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN22" s="3"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>485</v>
+      </c>
+      <c r="C23" s="11">
         <v>484</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>435</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>427</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>390</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>365</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>342</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>331</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>279</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>236</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>212</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>197</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>165</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>140</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>118</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="11">
         <v>110</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="R23" s="11">
         <v>71</v>
       </c>
-      <c r="R23" s="11">
+      <c r="S23" s="11">
         <v>57</v>
       </c>
-      <c r="S23" s="11">
+      <c r="T23" s="11">
         <v>50</v>
       </c>
-      <c r="T23" s="11">
+      <c r="U23" s="11">
         <v>47</v>
       </c>
-      <c r="U23" s="11">
+      <c r="V23" s="11">
         <v>37</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32</v>
       </c>
-      <c r="W23" s="11">
+      <c r="X23" s="11">
         <v>32</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>30</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>26</v>
       </c>
       <c r="Z23" s="11">
         <v>26</v>
       </c>
-      <c r="AA23" s="3">
-        <v>20</v>
+      <c r="AA23" s="11">
+        <v>26</v>
       </c>
       <c r="AB23" s="3">
         <v>20</v>
       </c>
       <c r="AC23" s="3">
+        <v>20</v>
+      </c>
+      <c r="AD23" s="3">
         <v>14</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>10</v>
       </c>
       <c r="AE23" s="3">
         <v>10</v>
       </c>
       <c r="AF23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG23" s="3">
         <v>8</v>
       </c>
       <c r="AH23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI23" s="3">
         <v>1</v>
@@ -2546,11 +2597,14 @@
       <c r="AJ23" s="3">
         <v>1</v>
       </c>
-      <c r="AK23" s="3"/>
+      <c r="AK23" s="3">
+        <v>1</v>
+      </c>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN23" s="3"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -2558,55 +2612,55 @@
         <v>220</v>
       </c>
       <c r="C24" s="11">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="D24" s="11">
         <v>168</v>
       </c>
       <c r="E24" s="11">
+        <v>168</v>
+      </c>
+      <c r="F24" s="11">
         <v>147</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>124</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>122</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>104</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>81</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="11">
         <v>71</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>60</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
         <v>55</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="11">
         <v>28</v>
-      </c>
-      <c r="N24" s="11">
-        <v>20</v>
       </c>
       <c r="O24" s="11">
         <v>20</v>
       </c>
       <c r="P24" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="11">
         <v>19</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="R24" s="11">
         <v>13</v>
       </c>
-      <c r="R24" s="11">
+      <c r="S24" s="11">
         <v>9</v>
-      </c>
-      <c r="S24" s="11">
-        <v>4</v>
       </c>
       <c r="T24" s="11">
         <v>4</v>
@@ -2614,20 +2668,20 @@
       <c r="U24" s="11">
         <v>4</v>
       </c>
-      <c r="V24" s="3">
-        <v>1</v>
-      </c>
-      <c r="W24" s="11">
-        <v>1</v>
-      </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="11">
-        <v>3</v>
-      </c>
+      <c r="V24" s="11">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+      <c r="X24" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3"/>
       <c r="Z24" s="11">
         <v>3</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="11">
         <v>3</v>
       </c>
       <c r="AB24" s="3">
@@ -2637,79 +2691,82 @@
         <v>3</v>
       </c>
       <c r="AD24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE24" s="3">
         <v>2</v>
       </c>
-      <c r="AF24" s="3"/>
+      <c r="AF24" s="3">
+        <v>2</v>
+      </c>
       <c r="AG24" s="3"/>
-      <c r="AH24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN24" s="3"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>530</v>
+      </c>
+      <c r="C25" s="4">
         <v>508</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>478</v>
-      </c>
-      <c r="D25" s="4">
-        <v>453</v>
       </c>
       <c r="E25" s="4">
         <v>453</v>
       </c>
       <c r="F25" s="4">
+        <v>453</v>
+      </c>
+      <c r="G25" s="4">
         <v>421</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>404</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>350</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>302</v>
-      </c>
-      <c r="J25" s="4">
-        <v>278</v>
       </c>
       <c r="K25" s="4">
         <v>278</v>
       </c>
       <c r="L25" s="4">
+        <v>278</v>
+      </c>
+      <c r="M25" s="4">
         <v>257</v>
-      </c>
-      <c r="M25" s="4">
-        <v>222</v>
       </c>
       <c r="N25" s="4">
         <v>222</v>
       </c>
       <c r="O25" s="4">
+        <v>222</v>
+      </c>
+      <c r="P25" s="4">
         <v>182</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>154</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <v>135</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>64</v>
-      </c>
-      <c r="S25" s="4">
-        <v>29</v>
       </c>
       <c r="T25" s="4">
         <v>29</v>
@@ -2717,23 +2774,23 @@
       <c r="U25" s="4">
         <v>29</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="4">
+        <v>29</v>
+      </c>
+      <c r="W25" s="3">
         <v>8</v>
       </c>
-      <c r="W25" s="4">
+      <c r="X25" s="4">
         <v>8</v>
       </c>
-      <c r="X25" s="3">
+      <c r="Y25" s="3">
         <v>6</v>
       </c>
-      <c r="Y25" s="4">
-        <v>2</v>
-      </c>
       <c r="Z25" s="4">
         <v>2</v>
       </c>
-      <c r="AA25" s="3">
-        <v>1</v>
+      <c r="AA25" s="4">
+        <v>2</v>
       </c>
       <c r="AB25" s="3">
         <v>1</v>
@@ -2744,7 +2801,9 @@
       <c r="AD25" s="3">
         <v>1</v>
       </c>
-      <c r="AE25" s="3"/>
+      <c r="AE25" s="3">
+        <v>1</v>
+      </c>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
@@ -2753,8 +2812,9 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN25" s="3"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -2762,13 +2822,13 @@
         <v>373</v>
       </c>
       <c r="C26" s="11">
+        <v>373</v>
+      </c>
+      <c r="D26" s="11">
         <v>335</v>
       </c>
-      <c r="D26" s="11">
+      <c r="E26" s="11">
         <v>305</v>
-      </c>
-      <c r="E26" s="11">
-        <v>246</v>
       </c>
       <c r="F26" s="11">
         <v>246</v>
@@ -2777,76 +2837,76 @@
         <v>246</v>
       </c>
       <c r="H26" s="11">
+        <v>246</v>
+      </c>
+      <c r="I26" s="11">
         <v>229</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>206</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>189</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>172</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>154</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>104</v>
-      </c>
-      <c r="N26" s="11">
-        <v>96</v>
       </c>
       <c r="O26" s="11">
         <v>96</v>
       </c>
       <c r="P26" s="11">
+        <v>96</v>
+      </c>
+      <c r="Q26" s="11">
         <v>75</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="R26" s="11">
         <v>63</v>
       </c>
-      <c r="R26" s="11">
+      <c r="S26" s="11">
         <v>47</v>
       </c>
-      <c r="S26" s="11">
+      <c r="T26" s="11">
         <v>24</v>
-      </c>
-      <c r="T26" s="11">
-        <v>29</v>
       </c>
       <c r="U26" s="11">
         <v>29</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="11">
+        <v>29</v>
+      </c>
+      <c r="W26" s="3">
         <v>16</v>
       </c>
-      <c r="W26" s="11">
+      <c r="X26" s="11">
         <v>16</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Z26" s="11">
         <v>9</v>
       </c>
-      <c r="Z26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="11">
         <v>7</v>
       </c>
       <c r="AB26" s="3">
         <v>7</v>
       </c>
       <c r="AC26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF26" s="3">
         <v>1</v>
@@ -2863,11 +2923,14 @@
       <c r="AJ26" s="3">
         <v>1</v>
       </c>
-      <c r="AK26" s="3"/>
+      <c r="AK26" s="3">
+        <v>1</v>
+      </c>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN26" s="3"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
@@ -2875,13 +2938,13 @@
         <v>177</v>
       </c>
       <c r="C27" s="11">
+        <v>177</v>
+      </c>
+      <c r="D27" s="11">
         <v>169</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E27" s="11">
         <v>159</v>
-      </c>
-      <c r="E27" s="11">
-        <v>119</v>
       </c>
       <c r="F27" s="11">
         <v>119</v>
@@ -2890,22 +2953,22 @@
         <v>119</v>
       </c>
       <c r="H27" s="11">
+        <v>119</v>
+      </c>
+      <c r="I27" s="11">
         <v>110</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11">
         <v>99</v>
       </c>
-      <c r="J27" s="11">
+      <c r="K27" s="11">
         <v>85</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>74</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="11">
         <v>60</v>
-      </c>
-      <c r="M27" s="11">
-        <v>42</v>
       </c>
       <c r="N27" s="11">
         <v>42</v>
@@ -2914,16 +2977,16 @@
         <v>42</v>
       </c>
       <c r="P27" s="11">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="11">
         <v>34</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="R27" s="11">
         <v>29</v>
       </c>
-      <c r="R27" s="11">
+      <c r="S27" s="11">
         <v>26</v>
-      </c>
-      <c r="S27" s="11">
-        <v>14</v>
       </c>
       <c r="T27" s="11">
         <v>14</v>
@@ -2931,20 +2994,22 @@
       <c r="U27" s="11">
         <v>14</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="11">
+        <v>14</v>
+      </c>
+      <c r="W27" s="3">
         <v>8</v>
       </c>
-      <c r="W27" s="11">
+      <c r="X27" s="11">
         <v>8</v>
       </c>
-      <c r="X27" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="3"/>
+      <c r="Y27" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="11"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
@@ -2957,46 +3022,47 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN27" s="3"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>229</v>
+      </c>
+      <c r="C28" s="4">
         <v>210</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>183</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>162</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>144</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>137</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>132</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>124</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>109</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>89</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>81</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>70</v>
-      </c>
-      <c r="M28" s="4">
-        <v>52</v>
       </c>
       <c r="N28" s="4">
         <v>52</v>
@@ -3005,16 +3071,16 @@
         <v>52</v>
       </c>
       <c r="P28" s="4">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="4">
         <v>43</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <v>34</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>28</v>
-      </c>
-      <c r="S28" s="4">
-        <v>20</v>
       </c>
       <c r="T28" s="4">
         <v>20</v>
@@ -3022,28 +3088,30 @@
       <c r="U28" s="4">
         <v>20</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="4">
+        <v>20</v>
+      </c>
+      <c r="W28" s="3">
         <v>7</v>
       </c>
-      <c r="W28" s="4">
-        <v>2</v>
-      </c>
-      <c r="X28" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="4">
-        <v>1</v>
+      <c r="X28" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>2</v>
       </c>
       <c r="Z28" s="4">
         <v>1</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA28" s="4">
         <v>1</v>
       </c>
       <c r="AB28" s="3">
         <v>1</v>
       </c>
-      <c r="AC28" s="3"/>
+      <c r="AC28" s="3">
+        <v>1</v>
+      </c>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
@@ -3054,43 +3122,44 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN28" s="3"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>333</v>
+      </c>
+      <c r="C29" s="4">
         <v>311</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>285</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>251</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>216</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>201</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>186</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>162</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>147</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>136</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>101</v>
-      </c>
-      <c r="L29" s="4">
-        <v>57</v>
       </c>
       <c r="M29" s="4">
         <v>57</v>
@@ -3102,16 +3171,16 @@
         <v>57</v>
       </c>
       <c r="P29" s="4">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="4">
         <v>41</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="4">
         <v>25</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <v>16</v>
-      </c>
-      <c r="S29" s="4">
-        <v>10</v>
       </c>
       <c r="T29" s="4">
         <v>10</v>
@@ -3119,20 +3188,20 @@
       <c r="U29" s="4">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="4">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>6</v>
       </c>
-      <c r="W29" s="4">
+      <c r="X29" s="4">
         <v>4</v>
       </c>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="4">
-        <v>1</v>
-      </c>
+      <c r="Y29" s="3"/>
       <c r="Z29" s="4">
         <v>1</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA29" s="4">
         <v>1</v>
       </c>
       <c r="AB29" s="3">
@@ -3150,71 +3219,74 @@
       <c r="AF29" s="3">
         <v>1</v>
       </c>
-      <c r="AG29" s="3"/>
+      <c r="AG29" s="3">
+        <v>1</v>
+      </c>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN29" s="3"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>934</v>
+      </c>
+      <c r="C30" s="4">
         <v>813</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>746</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>698</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>671</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>657</v>
-      </c>
-      <c r="G30" s="4">
-        <v>543</v>
       </c>
       <c r="H30" s="4">
         <v>543</v>
       </c>
       <c r="I30" s="4">
+        <v>543</v>
+      </c>
+      <c r="J30" s="4">
         <v>450</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>352</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>275</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>250</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>236</v>
-      </c>
-      <c r="N30" s="4">
-        <v>175</v>
       </c>
       <c r="O30" s="4">
         <v>175</v>
       </c>
       <c r="P30" s="4">
+        <v>175</v>
+      </c>
+      <c r="Q30" s="4">
         <v>126</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <v>112</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>87</v>
-      </c>
-      <c r="S30" s="4">
-        <v>38</v>
       </c>
       <c r="T30" s="4">
         <v>38</v>
@@ -3222,41 +3294,41 @@
       <c r="U30" s="4">
         <v>38</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30" s="4">
+        <v>38</v>
+      </c>
+      <c r="W30" s="3">
         <v>24</v>
       </c>
-      <c r="W30" s="4">
+      <c r="X30" s="4">
         <v>18</v>
       </c>
-      <c r="X30" s="3">
+      <c r="Y30" s="3">
         <v>11</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Z30" s="4">
         <v>11</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="AA30" s="4">
         <v>8</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>7</v>
       </c>
       <c r="AB30" s="3">
         <v>7</v>
       </c>
       <c r="AC30" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD30" s="3">
         <v>5</v>
       </c>
-      <c r="AD30" s="3">
-        <v>3</v>
-      </c>
       <c r="AE30" s="3">
         <v>3</v>
       </c>
       <c r="AF30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH30" s="3">
         <v>1</v>
@@ -3267,49 +3339,52 @@
       <c r="AJ30" s="3">
         <v>1</v>
       </c>
-      <c r="AK30" s="3"/>
+      <c r="AK30" s="3">
+        <v>1</v>
+      </c>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN30" s="3"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
+        <v>177</v>
+      </c>
+      <c r="C31" s="4">
         <v>170</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>140</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>135</v>
-      </c>
-      <c r="E31" s="4">
-        <v>112</v>
       </c>
       <c r="F31" s="4">
         <v>112</v>
       </c>
       <c r="G31" s="4">
+        <v>112</v>
+      </c>
+      <c r="H31" s="4">
         <v>92</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>74</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>67</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>58</v>
-      </c>
-      <c r="K31" s="4">
-        <v>53</v>
       </c>
       <c r="L31" s="4">
         <v>53</v>
       </c>
       <c r="M31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N31" s="4">
         <v>36</v>
@@ -3318,10 +3393,10 @@
         <v>36</v>
       </c>
       <c r="P31" s="4">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="4">
         <v>33</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>31</v>
       </c>
       <c r="R31" s="4">
         <v>31</v>
@@ -3333,39 +3408,41 @@
         <v>31</v>
       </c>
       <c r="U31" s="4">
+        <v>31</v>
+      </c>
+      <c r="V31" s="4">
         <v>30</v>
       </c>
-      <c r="V31" s="3">
+      <c r="W31" s="3">
         <v>28</v>
       </c>
-      <c r="W31" s="4">
+      <c r="X31" s="4">
         <v>24</v>
       </c>
-      <c r="X31" s="3">
-        <v>24</v>
-      </c>
-      <c r="Y31" s="4">
+      <c r="Y31" s="3">
         <v>24</v>
       </c>
       <c r="Z31" s="4">
         <v>24</v>
       </c>
-      <c r="AA31" s="3">
-        <v>23</v>
+      <c r="AA31" s="4">
+        <v>24</v>
       </c>
       <c r="AB31" s="3">
         <v>23</v>
       </c>
       <c r="AC31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AD31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31" s="3">
         <v>1</v>
       </c>
-      <c r="AF31" s="3"/>
+      <c r="AF31" s="3">
+        <v>1</v>
+      </c>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
@@ -3373,43 +3450,44 @@
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN31" s="3"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="4">
+        <v>256</v>
+      </c>
+      <c r="C32" s="4">
         <v>240</v>
-      </c>
-      <c r="C32" s="4">
-        <v>226</v>
       </c>
       <c r="D32" s="4">
         <v>226</v>
       </c>
       <c r="E32" s="4">
+        <v>226</v>
+      </c>
+      <c r="F32" s="4">
         <v>213</v>
-      </c>
-      <c r="F32" s="4">
-        <v>183</v>
       </c>
       <c r="G32" s="4">
         <v>183</v>
       </c>
       <c r="H32" s="4">
+        <v>183</v>
+      </c>
+      <c r="I32" s="4">
         <v>166</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>158</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>145</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>135</v>
-      </c>
-      <c r="L32" s="4">
-        <v>80</v>
       </c>
       <c r="M32" s="4">
         <v>80</v>
@@ -3421,13 +3499,13 @@
         <v>80</v>
       </c>
       <c r="P32" s="4">
+        <v>80</v>
+      </c>
+      <c r="Q32" s="4">
         <v>73</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="R32" s="4">
         <v>71</v>
-      </c>
-      <c r="R32" s="4">
-        <v>27</v>
       </c>
       <c r="S32" s="4">
         <v>27</v>
@@ -3438,38 +3516,38 @@
       <c r="U32" s="4">
         <v>27</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="4">
+        <v>27</v>
+      </c>
+      <c r="W32" s="3">
         <v>22</v>
       </c>
-      <c r="W32" s="4">
+      <c r="X32" s="4">
         <v>12</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12</v>
-      </c>
-      <c r="Y32" s="4">
-        <v>9</v>
       </c>
       <c r="Z32" s="4">
         <v>9</v>
       </c>
-      <c r="AA32" s="3">
-        <v>7</v>
+      <c r="AA32" s="4">
+        <v>9</v>
       </c>
       <c r="AB32" s="3">
         <v>7</v>
       </c>
       <c r="AC32" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD32" s="3">
         <v>5</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>4</v>
       </c>
       <c r="AE32" s="3">
         <v>4</v>
       </c>
       <c r="AF32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG32" s="3">
         <v>3</v>
@@ -3477,92 +3555,95 @@
       <c r="AH32" s="3">
         <v>3</v>
       </c>
-      <c r="AI32" s="3"/>
+      <c r="AI32" s="3">
+        <v>3</v>
+      </c>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN32" s="3"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>125</v>
+      </c>
+      <c r="C33" s="4">
         <v>120</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>108</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>99</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>86</v>
-      </c>
-      <c r="F33" s="4">
-        <v>76</v>
       </c>
       <c r="G33" s="4">
         <v>76</v>
       </c>
       <c r="H33" s="4">
+        <v>76</v>
+      </c>
+      <c r="I33" s="4">
         <v>68</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>58</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>45</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>40</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>35</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>30</v>
-      </c>
-      <c r="N33" s="4">
-        <v>26</v>
       </c>
       <c r="O33" s="4">
         <v>26</v>
       </c>
       <c r="P33" s="4">
+        <v>26</v>
+      </c>
+      <c r="Q33" s="4">
         <v>20</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="R33" s="4">
         <v>17</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>14</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <v>7</v>
       </c>
-      <c r="T33" s="4">
+      <c r="U33" s="4">
         <v>10</v>
       </c>
-      <c r="U33" s="4">
+      <c r="V33" s="4">
         <v>6</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4</v>
       </c>
-      <c r="W33" s="4">
-        <v>2</v>
-      </c>
-      <c r="X33" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y33" s="4">
-        <v>1</v>
+      <c r="X33" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>2</v>
       </c>
       <c r="Z33" s="4">
         <v>1</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="4">
         <v>1</v>
       </c>
       <c r="AB33" s="3">
@@ -3571,7 +3652,9 @@
       <c r="AC33" s="3">
         <v>1</v>
       </c>
-      <c r="AD33" s="3"/>
+      <c r="AD33" s="3">
+        <v>1</v>
+      </c>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
@@ -3581,96 +3664,99 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN33" s="3"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>323</v>
+      </c>
+      <c r="C34" s="4">
         <v>320</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>317</v>
-      </c>
-      <c r="D34" s="4">
-        <v>316</v>
       </c>
       <c r="E34" s="4">
         <v>316</v>
       </c>
       <c r="F34" s="4">
+        <v>316</v>
+      </c>
+      <c r="G34" s="4">
         <v>276</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>245</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>197</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>175</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>135</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>120</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>104</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>82</v>
-      </c>
-      <c r="N34" s="4">
-        <v>71</v>
       </c>
       <c r="O34" s="4">
         <v>71</v>
       </c>
       <c r="P34" s="4">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="4">
         <v>55</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <v>45</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>38</v>
       </c>
-      <c r="S34" s="4">
+      <c r="T34" s="4">
         <v>28</v>
       </c>
-      <c r="T34" s="4">
+      <c r="U34" s="4">
         <v>25</v>
       </c>
-      <c r="U34" s="4">
+      <c r="V34" s="4">
         <v>22</v>
       </c>
-      <c r="V34" s="3">
+      <c r="W34" s="3">
         <v>16</v>
       </c>
-      <c r="W34" s="4">
+      <c r="X34" s="4">
         <v>13</v>
       </c>
-      <c r="X34" s="3">
+      <c r="Y34" s="3">
         <v>13</v>
-      </c>
-      <c r="Y34" s="4">
-        <v>12</v>
       </c>
       <c r="Z34" s="4">
         <v>12</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AA34" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB34" s="3">
         <v>7</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AC34" s="3">
         <v>6</v>
       </c>
-      <c r="AC34" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD34" s="3"/>
+      <c r="AD34" s="3">
+        <v>2</v>
+      </c>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
@@ -3680,88 +3766,89 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN34" s="3"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>400</v>
+      </c>
+      <c r="C35" s="4">
         <v>368</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>321</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>298</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>273</v>
-      </c>
-      <c r="F35" s="4">
-        <v>256</v>
       </c>
       <c r="G35" s="4">
         <v>256</v>
       </c>
       <c r="H35" s="4">
+        <v>256</v>
+      </c>
+      <c r="I35" s="4">
         <v>236</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>224</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>171</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>140</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>121</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>113</v>
-      </c>
-      <c r="N35" s="4">
-        <v>91</v>
       </c>
       <c r="O35" s="4">
         <v>91</v>
       </c>
       <c r="P35" s="4">
+        <v>91</v>
+      </c>
+      <c r="Q35" s="4">
         <v>85</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="4">
         <v>46</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <v>41</v>
-      </c>
-      <c r="S35" s="4">
-        <v>31</v>
       </c>
       <c r="T35" s="4">
         <v>31</v>
       </c>
       <c r="U35" s="4">
+        <v>31</v>
+      </c>
+      <c r="V35" s="4">
         <v>20</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13</v>
       </c>
-      <c r="W35" s="4">
+      <c r="X35" s="4">
         <v>7</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5</v>
-      </c>
-      <c r="Y35" s="4">
-        <v>4</v>
       </c>
       <c r="Z35" s="4">
         <v>4</v>
       </c>
-      <c r="AA35" s="3">
-        <v>3</v>
+      <c r="AA35" s="4">
+        <v>4</v>
       </c>
       <c r="AB35" s="3">
         <v>3</v>
@@ -3776,92 +3863,97 @@
         <v>3</v>
       </c>
       <c r="AF35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>1</v>
+      </c>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN35" s="3"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
+        <v>59</v>
+      </c>
+      <c r="C36" s="4">
         <v>54</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>51</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>46</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>40</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>34</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>29</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>25</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>22</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>20</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>19</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>18</v>
-      </c>
-      <c r="M36" s="4">
-        <v>16</v>
       </c>
       <c r="N36" s="4">
         <v>16</v>
       </c>
       <c r="O36" s="4">
+        <v>16</v>
+      </c>
+      <c r="P36" s="4">
         <v>14</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <v>11</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="4">
         <v>7</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <v>6</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <v>5</v>
-      </c>
-      <c r="T36" s="4">
-        <v>4</v>
       </c>
       <c r="U36" s="4">
         <v>4</v>
       </c>
-      <c r="V36" s="3">
+      <c r="V36" s="4">
         <v>4</v>
       </c>
-      <c r="W36" s="4">
+      <c r="W36" s="3">
         <v>4</v>
       </c>
-      <c r="X36" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y36" s="4"/>
+      <c r="X36" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>3</v>
+      </c>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="3"/>
+      <c r="AA36" s="4"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
@@ -3874,93 +3966,96 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN36" s="3"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>335</v>
+      </c>
+      <c r="C37" s="4">
         <v>322</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>304</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>286</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>277</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>252</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>240</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>222</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>194</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>180</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>156</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>146</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>100</v>
-      </c>
-      <c r="N37" s="4">
-        <v>81</v>
       </c>
       <c r="O37" s="4">
         <v>81</v>
       </c>
       <c r="P37" s="4">
+        <v>81</v>
+      </c>
+      <c r="Q37" s="4">
         <v>64</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <v>53</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>37</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <v>34</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <v>26</v>
       </c>
-      <c r="U37" s="4">
+      <c r="V37" s="4">
         <v>19</v>
       </c>
-      <c r="V37" s="3">
+      <c r="W37" s="3">
         <v>12</v>
       </c>
-      <c r="W37" s="4">
+      <c r="X37" s="4">
         <v>11</v>
       </c>
-      <c r="X37" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y37" s="4">
+      <c r="Y37" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="4">
         <v>4</v>
       </c>
-      <c r="Z37" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA37" s="3">
+      <c r="AA37" s="4">
         <v>3</v>
       </c>
       <c r="AB37" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>2</v>
+      </c>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
@@ -3971,46 +4066,47 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN37" s="3"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>387</v>
+      </c>
+      <c r="C38" s="4">
         <v>377</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>361</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>340</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>321</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>320</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>318</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>304</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>281</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>255</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>176</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>127</v>
-      </c>
-      <c r="M38" s="4">
-        <v>110</v>
       </c>
       <c r="N38" s="4">
         <v>110</v>
@@ -4019,51 +4115,53 @@
         <v>110</v>
       </c>
       <c r="P38" s="4">
+        <v>110</v>
+      </c>
+      <c r="Q38" s="4">
         <v>88</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="R38" s="4">
         <v>55</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <v>13</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <v>12</v>
-      </c>
-      <c r="T38" s="4">
-        <v>8</v>
       </c>
       <c r="U38" s="4">
         <v>8</v>
       </c>
-      <c r="V38" s="3">
+      <c r="V38" s="4">
         <v>8</v>
       </c>
-      <c r="W38" s="4">
+      <c r="W38" s="3">
+        <v>8</v>
+      </c>
+      <c r="X38" s="4">
         <v>5</v>
       </c>
-      <c r="X38" s="3">
+      <c r="Y38" s="3">
         <v>5</v>
       </c>
-      <c r="Y38" s="4">
+      <c r="Z38" s="4">
         <v>6</v>
       </c>
-      <c r="Z38" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA38" s="3">
+      <c r="AA38" s="4">
         <v>3</v>
       </c>
       <c r="AB38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC38" s="3">
         <v>2</v>
       </c>
       <c r="AD38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>1</v>
+      </c>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
@@ -4072,22 +4170,23 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN38" s="3"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
+        <v>600</v>
+      </c>
+      <c r="C39" s="4">
         <v>537</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>459</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>392</v>
-      </c>
-      <c r="E39" s="4">
-        <v>285</v>
       </c>
       <c r="F39" s="4">
         <v>285</v>
@@ -4099,16 +4198,16 @@
         <v>285</v>
       </c>
       <c r="I39" s="4">
+        <v>285</v>
+      </c>
+      <c r="J39" s="4">
         <v>243</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>190</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>172</v>
-      </c>
-      <c r="L39" s="4">
-        <v>117</v>
       </c>
       <c r="M39" s="4">
         <v>117</v>
@@ -4120,16 +4219,16 @@
         <v>117</v>
       </c>
       <c r="P39" s="4">
+        <v>117</v>
+      </c>
+      <c r="Q39" s="4">
         <v>79</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>49</v>
       </c>
       <c r="R39" s="4">
         <v>49</v>
       </c>
       <c r="S39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="T39" s="4">
         <v>23</v>
@@ -4137,125 +4236,130 @@
       <c r="U39" s="4">
         <v>23</v>
       </c>
-      <c r="V39" s="3">
+      <c r="V39" s="4">
         <v>23</v>
       </c>
-      <c r="W39" s="4">
+      <c r="W39" s="3">
+        <v>23</v>
+      </c>
+      <c r="X39" s="4">
         <v>10</v>
       </c>
-      <c r="X39" s="3">
+      <c r="Y39" s="3">
         <v>5</v>
       </c>
-      <c r="Y39" s="4">
+      <c r="Z39" s="4">
         <v>6</v>
       </c>
-      <c r="Z39" s="4">
+      <c r="AA39" s="4">
         <v>5</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="AB39" s="3">
         <v>5</v>
-      </c>
-      <c r="AB39" s="3">
-        <v>4</v>
       </c>
       <c r="AC39" s="3">
         <v>4</v>
       </c>
       <c r="AD39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE39" s="3">
         <v>2</v>
       </c>
       <c r="AF39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>1</v>
+      </c>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN39" s="3"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>586</v>
+      </c>
+      <c r="C40" s="4">
         <v>482</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>356</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>325</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>260</v>
-      </c>
-      <c r="F40" s="4">
-        <v>249</v>
       </c>
       <c r="G40" s="4">
         <v>249</v>
       </c>
       <c r="H40" s="4">
+        <v>249</v>
+      </c>
+      <c r="I40" s="4">
         <v>235</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>200</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>167</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>117</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>113</v>
-      </c>
-      <c r="M40" s="4">
-        <v>95</v>
       </c>
       <c r="N40" s="4">
         <v>95</v>
       </c>
       <c r="O40" s="4">
+        <v>95</v>
+      </c>
+      <c r="P40" s="4">
         <v>94</v>
       </c>
-      <c r="P40" s="4">
+      <c r="Q40" s="4">
         <v>43</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="R40" s="4">
         <v>33</v>
-      </c>
-      <c r="R40" s="4">
-        <v>31</v>
       </c>
       <c r="S40" s="4">
         <v>31</v>
       </c>
       <c r="T40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="U40" s="4">
         <v>19</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V40" s="4">
+        <v>19</v>
+      </c>
+      <c r="W40" s="3">
         <v>11</v>
       </c>
-      <c r="W40" s="4">
+      <c r="X40" s="4">
         <v>7</v>
       </c>
-      <c r="X40" s="3">
+      <c r="Y40" s="3">
         <v>5</v>
       </c>
-      <c r="Y40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="3"/>
+      <c r="Z40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="4"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
@@ -4268,64 +4372,65 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN40" s="3"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="4">
+        <v>703</v>
+      </c>
+      <c r="C41" s="4">
         <v>654</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>635</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>590</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>564</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>502</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>477</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>405</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>396</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>357</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>317</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>276</v>
-      </c>
-      <c r="M41" s="4">
-        <v>240</v>
       </c>
       <c r="N41" s="4">
         <v>240</v>
       </c>
       <c r="O41" s="4">
+        <v>240</v>
+      </c>
+      <c r="P41" s="4">
         <v>215</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <v>144</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="4">
         <v>127</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <v>76</v>
-      </c>
-      <c r="S41" s="4">
-        <v>38</v>
       </c>
       <c r="T41" s="4">
         <v>38</v>
@@ -4333,38 +4438,38 @@
       <c r="U41" s="4">
         <v>38</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="4">
+        <v>38</v>
+      </c>
+      <c r="W41" s="3">
         <v>28</v>
       </c>
-      <c r="W41" s="4">
+      <c r="X41" s="4">
         <v>28</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>18</v>
       </c>
-      <c r="Y41" s="4">
+      <c r="Z41" s="4">
         <v>14</v>
       </c>
-      <c r="Z41" s="4">
+      <c r="AA41" s="4">
         <v>13</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4</v>
       </c>
-      <c r="AD41" s="3">
-        <v>3</v>
-      </c>
       <c r="AE41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG41" s="3">
         <v>1</v>
@@ -4378,46 +4483,49 @@
       <c r="AJ41" s="3">
         <v>1</v>
       </c>
-      <c r="AK41" s="3"/>
+      <c r="AK41" s="3">
+        <v>1</v>
+      </c>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN41" s="3"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
+        <v>233</v>
+      </c>
+      <c r="C42" s="4">
         <v>175</v>
-      </c>
-      <c r="C42" s="4">
-        <v>152</v>
       </c>
       <c r="D42" s="4">
         <v>152</v>
       </c>
       <c r="E42" s="4">
+        <v>152</v>
+      </c>
+      <c r="F42" s="4">
         <v>109</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>108</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>98</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>87</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>60</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>29</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>9</v>
-      </c>
-      <c r="L42" s="4">
-        <v>8</v>
       </c>
       <c r="M42" s="4">
         <v>8</v>
@@ -4426,42 +4534,42 @@
         <v>8</v>
       </c>
       <c r="O42" s="4">
+        <v>8</v>
+      </c>
+      <c r="P42" s="4">
         <v>4</v>
       </c>
-      <c r="P42" s="4">
-        <v>2</v>
-      </c>
       <c r="Q42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R42" s="4">
+        <v>3</v>
+      </c>
+      <c r="S42" s="4">
         <v>5</v>
       </c>
-      <c r="S42" s="4">
+      <c r="T42" s="4">
         <v>4</v>
       </c>
-      <c r="T42" s="4">
-        <v>3</v>
-      </c>
       <c r="U42" s="4">
         <v>3</v>
       </c>
-      <c r="V42" s="3">
-        <v>2</v>
-      </c>
-      <c r="W42" s="4">
-        <v>1</v>
-      </c>
-      <c r="X42" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="4">
+      <c r="V42" s="4">
+        <v>3</v>
+      </c>
+      <c r="W42" s="3">
+        <v>2</v>
+      </c>
+      <c r="X42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="3">
         <v>1</v>
       </c>
       <c r="Z42" s="4">
         <v>1</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="4">
         <v>1</v>
       </c>
       <c r="AB42" s="3">
@@ -4497,65 +4605,68 @@
       <c r="AL42" s="3">
         <v>1</v>
       </c>
-      <c r="AM42" s="3"/>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AM42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="3"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>450</v>
+      </c>
+      <c r="C43" s="4">
         <v>422</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>357</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>343</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>316</v>
-      </c>
-      <c r="F43" s="4">
-        <v>287</v>
       </c>
       <c r="G43" s="4">
         <v>287</v>
       </c>
       <c r="H43" s="4">
+        <v>287</v>
+      </c>
+      <c r="I43" s="4">
         <v>253</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>206</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>175</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>148</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>145</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>111</v>
-      </c>
-      <c r="N43" s="4">
-        <v>98</v>
       </c>
       <c r="O43" s="4">
         <v>98</v>
       </c>
       <c r="P43" s="4">
+        <v>98</v>
+      </c>
+      <c r="Q43" s="4">
         <v>61</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="R43" s="4">
         <v>47</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <v>34</v>
-      </c>
-      <c r="S43" s="4">
-        <v>21</v>
       </c>
       <c r="T43" s="4">
         <v>21</v>
@@ -4563,20 +4674,22 @@
       <c r="U43" s="4">
         <v>21</v>
       </c>
-      <c r="V43" s="3">
+      <c r="V43" s="4">
+        <v>21</v>
+      </c>
+      <c r="W43" s="3">
         <v>17</v>
       </c>
-      <c r="W43" s="4">
+      <c r="X43" s="4">
         <v>15</v>
       </c>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="4">
-        <v>1</v>
-      </c>
+      <c r="Y43" s="3"/>
       <c r="Z43" s="4">
         <v>1</v>
       </c>
-      <c r="AA43" s="3"/>
+      <c r="AA43" s="4">
+        <v>1</v>
+      </c>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
@@ -4589,64 +4702,65 @@
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN43" s="3"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4">
+        <v>284</v>
+      </c>
+      <c r="C44" s="4">
         <v>250</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>215</v>
-      </c>
-      <c r="D44" s="4">
-        <v>187</v>
       </c>
       <c r="E44" s="4">
         <v>187</v>
       </c>
       <c r="F44" s="4">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G44" s="4">
         <v>170</v>
       </c>
       <c r="H44" s="4">
+        <v>170</v>
+      </c>
+      <c r="I44" s="4">
         <v>137</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>127</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>123</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>81</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>78</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>69</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>48</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <v>39</v>
       </c>
-      <c r="P44" s="4">
+      <c r="Q44" s="4">
         <v>28</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="R44" s="4">
         <v>27</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <v>16</v>
-      </c>
-      <c r="S44" s="4">
-        <v>6</v>
       </c>
       <c r="T44" s="4">
         <v>6</v>
@@ -4654,28 +4768,30 @@
       <c r="U44" s="4">
         <v>6</v>
       </c>
-      <c r="V44" s="3">
-        <v>3</v>
-      </c>
-      <c r="W44" s="4">
-        <v>2</v>
-      </c>
-      <c r="X44" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y44" s="4">
-        <v>1</v>
+      <c r="V44" s="4">
+        <v>6</v>
+      </c>
+      <c r="W44" s="3">
+        <v>3</v>
+      </c>
+      <c r="X44" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>2</v>
       </c>
       <c r="Z44" s="4">
         <v>1</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="4">
         <v>1</v>
       </c>
       <c r="AB44" s="3">
         <v>1</v>
       </c>
-      <c r="AC44" s="3"/>
+      <c r="AC44" s="3">
+        <v>1</v>
+      </c>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
@@ -4686,87 +4802,88 @@
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN44" s="3"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>478</v>
+      </c>
+      <c r="C45" s="4">
         <v>452</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>390</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>341</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>311</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>299</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>290</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>235</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>184</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>161</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>123</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>99</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>83</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>82</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>67</v>
       </c>
-      <c r="P45" s="4">
+      <c r="Q45" s="4">
         <v>41</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="4">
         <v>28</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <v>22</v>
       </c>
-      <c r="S45" s="4">
+      <c r="T45" s="4">
         <v>16</v>
-      </c>
-      <c r="T45" s="4">
-        <v>12</v>
       </c>
       <c r="U45" s="4">
         <v>12</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="4">
+        <v>12</v>
+      </c>
+      <c r="W45" s="3">
         <v>6</v>
       </c>
-      <c r="W45" s="4">
+      <c r="X45" s="4">
         <v>4</v>
       </c>
-      <c r="X45" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y45" s="4">
+      <c r="Y45" s="3">
         <v>3</v>
       </c>
       <c r="Z45" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="4">
         <v>1</v>
       </c>
       <c r="AB45" s="3">
@@ -4781,7 +4898,9 @@
       <c r="AE45" s="3">
         <v>1</v>
       </c>
-      <c r="AF45" s="3"/>
+      <c r="AF45" s="3">
+        <v>1</v>
+      </c>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
@@ -4789,55 +4908,56 @@
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN45" s="3"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>901</v>
+      </c>
+      <c r="C46" s="4">
         <v>860</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>828</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>784</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>705</v>
-      </c>
-      <c r="F46" s="4">
-        <v>685</v>
       </c>
       <c r="G46" s="4">
         <v>685</v>
       </c>
       <c r="H46" s="4">
+        <v>685</v>
+      </c>
+      <c r="I46" s="4">
         <v>635</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>561</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>504</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>451</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>441</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>350</v>
-      </c>
-      <c r="N46" s="4">
-        <v>308</v>
       </c>
       <c r="O46" s="4">
         <v>308</v>
       </c>
       <c r="P46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="Q46" s="4">
         <v>196</v>
@@ -4846,7 +4966,7 @@
         <v>196</v>
       </c>
       <c r="S46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="T46" s="4">
         <v>60</v>
@@ -4854,37 +4974,39 @@
       <c r="U46" s="4">
         <v>60</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V46" s="4">
+        <v>60</v>
+      </c>
+      <c r="W46" s="3">
         <v>40</v>
       </c>
-      <c r="W46" s="4">
+      <c r="X46" s="4">
         <v>35</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>24</v>
       </c>
-      <c r="Y46" s="4">
+      <c r="Z46" s="4">
         <v>19</v>
       </c>
-      <c r="Z46" s="4">
+      <c r="AA46" s="4">
         <v>10</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>9</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4</v>
       </c>
-      <c r="AD46" s="3">
-        <v>3</v>
-      </c>
       <c r="AE46" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>2</v>
+      </c>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
@@ -4892,88 +5014,89 @@
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN46" s="3"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>819</v>
+      </c>
+      <c r="C47" s="4">
         <v>764</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>720</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>655</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>636</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>630</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>556</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>525</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>377</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>324</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>161</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>144</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>133</v>
-      </c>
-      <c r="N47" s="4">
-        <v>112</v>
       </c>
       <c r="O47" s="4">
         <v>112</v>
       </c>
       <c r="P47" s="4">
+        <v>112</v>
+      </c>
+      <c r="Q47" s="4">
         <v>93</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <v>85</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <v>67</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <v>61</v>
       </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4">
         <v>41</v>
       </c>
-      <c r="U47" s="4">
+      <c r="V47" s="4">
         <v>23</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9</v>
       </c>
-      <c r="W47" s="4">
+      <c r="X47" s="4">
         <v>9</v>
       </c>
-      <c r="X47" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y47" s="4">
+      <c r="Y47" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="4">
         <v>5</v>
       </c>
-      <c r="Z47" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>2</v>
+      <c r="AA47" s="4">
+        <v>3</v>
       </c>
       <c r="AB47" s="3">
         <v>2</v>
@@ -5008,62 +5131,65 @@
       <c r="AL47" s="3">
         <v>2</v>
       </c>
-      <c r="AM47" s="3"/>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AM47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN47" s="3"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>197</v>
+      </c>
+      <c r="C48" s="4">
         <v>192</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>181</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>167</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>142</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>137</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>111</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>85</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>74</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>40</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>32</v>
-      </c>
-      <c r="L48" s="4">
-        <v>15</v>
       </c>
       <c r="M48" s="4">
         <v>15</v>
       </c>
       <c r="N48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O48" s="4">
         <v>13</v>
       </c>
       <c r="P48" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q48" s="4">
         <v>10</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="R48" s="4">
         <v>7</v>
-      </c>
-      <c r="R48" s="4">
-        <v>5</v>
       </c>
       <c r="S48" s="4">
         <v>5</v>
@@ -5072,14 +5198,16 @@
         <v>5</v>
       </c>
       <c r="U48" s="4">
-        <v>3</v>
-      </c>
-      <c r="V48" s="3"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="V48" s="4">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="3"/>
       <c r="Z48" s="4"/>
-      <c r="AA48" s="3"/>
+      <c r="AA48" s="4"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
@@ -5092,88 +5220,89 @@
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN48" s="3"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="4">
+        <v>138</v>
+      </c>
+      <c r="C49" s="4">
         <v>128</v>
-      </c>
-      <c r="C49" s="4">
-        <v>118</v>
       </c>
       <c r="D49" s="4">
         <v>118</v>
       </c>
       <c r="E49" s="4">
+        <v>118</v>
+      </c>
+      <c r="F49" s="4">
         <v>112</v>
-      </c>
-      <c r="F49" s="4">
-        <v>103</v>
       </c>
       <c r="G49" s="4">
         <v>103</v>
       </c>
       <c r="H49" s="4">
+        <v>103</v>
+      </c>
+      <c r="I49" s="4">
         <v>89</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>81</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>72</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>58</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>53</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>40</v>
-      </c>
-      <c r="N49" s="4">
-        <v>35</v>
       </c>
       <c r="O49" s="4">
         <v>35</v>
       </c>
       <c r="P49" s="4">
+        <v>35</v>
+      </c>
+      <c r="Q49" s="4">
         <v>21</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>19</v>
       </c>
       <c r="R49" s="4">
         <v>19</v>
       </c>
       <c r="S49" s="4">
+        <v>19</v>
+      </c>
+      <c r="T49" s="4">
         <v>13</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <v>12</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <v>7</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5</v>
       </c>
-      <c r="W49" s="4">
+      <c r="X49" s="4">
         <v>5</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="Z49" s="4">
         <v>6</v>
       </c>
-      <c r="Z49" s="4">
+      <c r="AA49" s="4">
         <v>5</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>4</v>
       </c>
       <c r="AB49" s="3">
         <v>4</v>
@@ -5188,72 +5317,75 @@
         <v>4</v>
       </c>
       <c r="AF49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG49" s="3">
         <v>1</v>
       </c>
-      <c r="AH49" s="3"/>
+      <c r="AH49" s="3">
+        <v>1</v>
+      </c>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN49" s="3"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>137</v>
+      </c>
+      <c r="C50" s="4">
         <v>119</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>101</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>98</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>91</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>83</v>
-      </c>
-      <c r="G50" s="4">
-        <v>61</v>
       </c>
       <c r="H50" s="4">
         <v>61</v>
       </c>
       <c r="I50" s="4">
+        <v>61</v>
+      </c>
+      <c r="J50" s="4">
         <v>51</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <v>48</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>40</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <v>25</v>
       </c>
-      <c r="M50" s="4">
+      <c r="N50" s="4">
         <v>15</v>
-      </c>
-      <c r="N50" s="4">
-        <v>13</v>
       </c>
       <c r="O50" s="4">
         <v>13</v>
       </c>
       <c r="P50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q50" s="4">
         <v>5</v>
       </c>
       <c r="R50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" s="4">
         <v>4</v>
@@ -5262,16 +5394,18 @@
         <v>4</v>
       </c>
       <c r="U50" s="4">
-        <v>3</v>
-      </c>
-      <c r="V50" s="3">
-        <v>1</v>
-      </c>
-      <c r="W50" s="4"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="V50" s="4">
+        <v>3</v>
+      </c>
+      <c r="W50" s="3">
+        <v>1</v>
+      </c>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="3"/>
       <c r="Z50" s="4"/>
-      <c r="AA50" s="3"/>
+      <c r="AA50" s="4"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
@@ -5284,46 +5418,47 @@
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN50" s="3"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>479</v>
+      </c>
+      <c r="C51" s="4">
         <v>451</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>418</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>349</v>
-      </c>
-      <c r="E51" s="4">
-        <v>346</v>
       </c>
       <c r="F51" s="4">
         <v>346</v>
       </c>
       <c r="G51" s="4">
+        <v>346</v>
+      </c>
+      <c r="H51" s="4">
         <v>336</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>232</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>219</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>184</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>151</v>
       </c>
-      <c r="L51" s="4">
+      <c r="M51" s="4">
         <v>109</v>
-      </c>
-      <c r="M51" s="4">
-        <v>70</v>
       </c>
       <c r="N51" s="4">
         <v>70</v>
@@ -5332,39 +5467,39 @@
         <v>70</v>
       </c>
       <c r="P51" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q51" s="4">
         <v>60</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="R51" s="4">
         <v>51</v>
-      </c>
-      <c r="R51" s="4">
-        <v>33</v>
       </c>
       <c r="S51" s="4">
         <v>33</v>
       </c>
       <c r="T51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="U51" s="4">
         <v>21</v>
       </c>
-      <c r="V51" s="3">
+      <c r="V51" s="4">
         <v>21</v>
       </c>
-      <c r="W51" s="4">
+      <c r="W51" s="3">
         <v>21</v>
       </c>
-      <c r="X51" s="3">
+      <c r="X51" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y51" s="3">
         <v>19</v>
       </c>
-      <c r="Y51" s="4">
+      <c r="Z51" s="4">
         <v>15</v>
       </c>
-      <c r="Z51" s="4">
-        <v>11</v>
-      </c>
-      <c r="AA51" s="3">
+      <c r="AA51" s="4">
         <v>11</v>
       </c>
       <c r="AB51" s="3">
@@ -5377,180 +5512,187 @@
         <v>11</v>
       </c>
       <c r="AE51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AF51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG51" s="3">
         <v>1</v>
       </c>
-      <c r="AH51" s="3"/>
+      <c r="AH51" s="3">
+        <v>1</v>
+      </c>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
-    </row>
-    <row r="52" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN51" s="3"/>
+    </row>
+    <row r="52" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>15971</v>
+        <v>17180</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>14580</v>
+        <v>15971</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
-        <v>13313</v>
+        <v>14580</v>
       </c>
       <c r="E52" s="15">
         <f>SUM(E8:E51)</f>
+        <v>13313</v>
+      </c>
+      <c r="F52" s="15">
+        <f>SUM(F8:F51)</f>
         <v>12257</v>
       </c>
-      <c r="F52" s="15">
-        <f t="shared" ref="F52:K52" si="0">SUM(F8:F51)</f>
+      <c r="G52" s="15">
+        <f t="shared" ref="G52:L52" si="0">SUM(G8:G51)</f>
         <v>11536</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>10819</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>9729</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>8441</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>7252</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <f t="shared" si="0"/>
         <v>6043</v>
       </c>
-      <c r="L52" s="15">
-        <f t="shared" ref="L52:Q52" si="1">SUM(L8:L51)</f>
+      <c r="M52" s="15">
+        <f t="shared" ref="M52:R52" si="1">SUM(M8:M51)</f>
         <v>5333</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="15">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
-      <c r="N52" s="15">
+      <c r="O52" s="15">
         <f t="shared" si="1"/>
         <v>3818</v>
       </c>
-      <c r="O52" s="15">
+      <c r="P52" s="15">
         <f t="shared" si="1"/>
         <v>3665</v>
       </c>
-      <c r="P52" s="15">
+      <c r="Q52" s="15">
         <f t="shared" si="1"/>
         <v>2748</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="R52" s="14">
         <f t="shared" si="1"/>
         <v>2184</v>
       </c>
-      <c r="R52" s="5">
-        <f t="shared" ref="R52:AM52" si="2">SUM(R8:R51)</f>
+      <c r="S52" s="5">
+        <f t="shared" ref="S52:AN52" si="2">SUM(S8:S51)</f>
         <v>1641</v>
       </c>
-      <c r="S52" s="5">
+      <c r="T52" s="5">
         <f t="shared" si="2"/>
         <v>1105</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="2"/>
         <v>977</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="2"/>
         <v>827</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="2"/>
         <v>569</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="2"/>
         <v>454</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AB52" s="5">
         <f t="shared" si="2"/>
         <v>199</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AC52" s="5">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="AC52" s="5">
+      <c r="AD52" s="5">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="AD52" s="5">
+      <c r="AE52" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="AE52" s="5">
+      <c r="AF52" s="5">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="AF52" s="5">
+      <c r="AG52" s="5">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="AG52" s="5">
+      <c r="AH52" s="5">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="AH52" s="5">
+      <c r="AI52" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AI52" s="5">
+      <c r="AJ52" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="AJ52" s="5">
+      <c r="AK52" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AK52" s="5">
+      <c r="AL52" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AL52" s="5">
+      <c r="AM52" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AM52" s="5">
+      <c r="AN52" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:39" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -5578,16 +5720,17 @@
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p1XoSnvWRVmbdzr2DiQeCkx1n6tsC/OHwMej1TjqAL7J98aGAdpzr+KMKVm41nKnrIUP8mQqaz33V5S5vQL5TA==" saltValue="xoWB3MC6zXDedUF9MZApBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="laEF4R3tFAyr1E/Vrvn4GHvy6jkJcdIX1s+8WVKNsSt6K5EszH+MrfDlxCbAl6uUqoklJFOhcLOCn1wACj/MgA==" saltValue="gmX8n6VSzFW/zCT/gzc7Lw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:Y54"/>
+    <mergeCell ref="A54:Z54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="P52:AM52 L52:N52 B52:J52" formulaRange="1"/>
+    <ignoredError sqref="Q52:AN52 M52:O52 B52:K52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5597,7 +5740,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:W54"/>
+  <dimension ref="A2:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
@@ -5606,22 +5749,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="23" width="11.140625" customWidth="1"/>
+    <col min="2" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="24" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="9"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U3" s="9"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -5691,77 +5834,83 @@
       <c r="W6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43924</v>
+      </c>
+      <c r="C7" s="13">
         <v>43923</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43922</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43921</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43920</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43919</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43918</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43917</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43916</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43915</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43914</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43913</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43912</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43911</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>43910</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="13">
         <v>43909</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="R7" s="13">
         <v>43908</v>
       </c>
-      <c r="R7" s="13">
+      <c r="S7" s="13">
         <v>43907</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="12">
         <v>43906</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43905</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43904</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43903</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43902</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -5785,15 +5934,16 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V8" s="4"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -5805,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
@@ -5817,12 +5967,14 @@
         <v>2</v>
       </c>
       <c r="J9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="4">
         <v>1</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -5832,10 +5984,11 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V9" s="4"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -5843,7 +5996,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -5860,7 +6013,9 @@
       <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -5873,27 +6028,28 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V10" s="4"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
         <v>11</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
       </c>
       <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
         <v>8</v>
-      </c>
-      <c r="F11" s="4">
-        <v>7</v>
       </c>
       <c r="G11" s="4">
         <v>7</v>
@@ -5902,12 +6058,14 @@
         <v>7</v>
       </c>
       <c r="I11" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -5918,10 +6076,11 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V11" s="4"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -5932,7 +6091,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -5940,7 +6099,9 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5955,10 +6116,11 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V12" s="4"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -5966,27 +6128,29 @@
         <v>12</v>
       </c>
       <c r="C13" s="4">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>8</v>
-      </c>
-      <c r="E13" s="4">
-        <v>7</v>
       </c>
       <c r="F13" s="4">
         <v>7</v>
       </c>
       <c r="G13" s="4">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
       <c r="I13" s="4">
-        <v>2</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -5998,21 +6162,22 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V13" s="4"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -6036,7 +6201,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="4">
         <v>1</v>
@@ -6044,43 +6209,46 @@
       <c r="N14" s="4">
         <v>1</v>
       </c>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V14" s="4"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11">
         <v>18</v>
       </c>
       <c r="D15" s="11">
+        <v>18</v>
+      </c>
+      <c r="E15" s="11">
         <v>15</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>12</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>8</v>
-      </c>
-      <c r="G15" s="11">
-        <v>7</v>
       </c>
       <c r="H15" s="11">
         <v>7</v>
       </c>
       <c r="I15" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J15" s="11">
         <v>5</v>
@@ -6092,7 +6260,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" s="11">
         <v>4</v>
@@ -6101,19 +6269,22 @@
         <v>4</v>
       </c>
       <c r="P15" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="11">
-        <v>1</v>
-      </c>
-      <c r="R15" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1</v>
+      </c>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="11"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V15" s="11"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="11"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -6121,13 +6292,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -6144,7 +6315,9 @@
       <c r="J16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -6155,30 +6328,31 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V16" s="4"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
         <v>22</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>20</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>18</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>11</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>7</v>
-      </c>
-      <c r="G17" s="4">
-        <v>6</v>
       </c>
       <c r="H17" s="4">
         <v>6</v>
@@ -6187,7 +6361,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K17" s="4">
         <v>3</v>
@@ -6199,7 +6373,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" s="4">
         <v>2</v>
@@ -6208,7 +6382,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" s="4">
         <v>1</v>
@@ -6222,42 +6396,45 @@
       <c r="U17" s="4">
         <v>1</v>
       </c>
-      <c r="V17" s="3">
-        <v>1</v>
-      </c>
-      <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1</v>
+      </c>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
         <v>15</v>
-      </c>
-      <c r="C18" s="4">
-        <v>12</v>
       </c>
       <c r="D18" s="4">
         <v>12</v>
       </c>
       <c r="E18" s="4">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4">
         <v>11</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>6</v>
-      </c>
-      <c r="G18" s="4">
-        <v>5</v>
       </c>
       <c r="H18" s="4">
         <v>5</v>
       </c>
       <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4">
         <v>4</v>
       </c>
-      <c r="J18" s="4">
-        <v>2</v>
-      </c>
       <c r="K18" s="4">
         <v>2</v>
       </c>
@@ -6268,23 +6445,28 @@
         <v>2</v>
       </c>
       <c r="N18" s="4">
-        <v>1</v>
-      </c>
-      <c r="O18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V18" s="4"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -6304,27 +6486,28 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="4"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V19" s="4"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
       </c>
       <c r="D20" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4">
         <v>9</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
@@ -6336,7 +6519,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -6371,16 +6554,21 @@
       <c r="U20" s="4">
         <v>1</v>
       </c>
-      <c r="V20" s="3">
-        <v>1</v>
-      </c>
-      <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -6400,27 +6588,28 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V21" s="4"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4">
         <v>5</v>
       </c>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
       </c>
       <c r="F22" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4">
         <v>4</v>
@@ -6429,10 +6618,10 @@
         <v>4</v>
       </c>
       <c r="I22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="4">
         <v>1</v>
@@ -6440,7 +6629,9 @@
       <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -6449,10 +6640,11 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="4"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V22" s="4"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -6466,7 +6658,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23" s="11">
         <v>5</v>
@@ -6481,13 +6673,13 @@
         <v>5</v>
       </c>
       <c r="J23" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="11">
         <v>4</v>
       </c>
       <c r="L23" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" s="11">
         <v>3</v>
@@ -6496,10 +6688,10 @@
         <v>3</v>
       </c>
       <c r="O23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="11">
         <v>1</v>
@@ -6507,13 +6699,16 @@
       <c r="R23" s="11">
         <v>1</v>
       </c>
-      <c r="S23" s="11"/>
+      <c r="S23" s="11">
+        <v>1</v>
+      </c>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V23" s="11"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="11"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -6537,34 +6732,35 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V24" s="11"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4">
         <v>11</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>12</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9</v>
       </c>
       <c r="E25" s="4">
         <v>9</v>
       </c>
       <c r="F25" s="4">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4">
         <v>6</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="4">
-        <v>3</v>
-      </c>
       <c r="I25" s="4">
         <v>3</v>
       </c>
@@ -6578,13 +6774,13 @@
         <v>3</v>
       </c>
       <c r="M25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" s="4">
         <v>2</v>
       </c>
       <c r="O25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="4">
         <v>1</v>
@@ -6592,14 +6788,17 @@
       <c r="Q25" s="4">
         <v>1</v>
       </c>
-      <c r="R25" s="4"/>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="4"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V25" s="4"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -6610,11 +6809,11 @@
         <v>7</v>
       </c>
       <c r="D26" s="11">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11">
         <v>4</v>
       </c>
-      <c r="E26" s="11">
-        <v>3</v>
-      </c>
       <c r="F26" s="11">
         <v>3</v>
       </c>
@@ -6622,7 +6821,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="11">
         <v>1</v>
@@ -6630,7 +6829,9 @@
       <c r="J26" s="11">
         <v>1</v>
       </c>
-      <c r="K26" s="11"/>
+      <c r="K26" s="11">
+        <v>1</v>
+      </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -6641,10 +6842,11 @@
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V26" s="11"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
@@ -6657,7 +6859,9 @@
       <c r="D27" s="11">
         <v>1</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -6674,10 +6878,11 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V27" s="11"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="11"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -6691,7 +6896,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -6705,7 +6910,9 @@
       <c r="I28" s="4">
         <v>1</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -6717,25 +6924,26 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="4"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V28" s="4"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4">
         <v>10</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>8</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="4">
-        <v>3</v>
-      </c>
       <c r="F29" s="4">
         <v>3</v>
       </c>
@@ -6751,7 +6959,9 @@
       <c r="J29" s="4">
         <v>3</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="4">
+        <v>3</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -6762,31 +6972,32 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V29" s="4"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4">
         <v>14</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>11</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>7</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>6</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>4</v>
       </c>
-      <c r="G30" s="4">
-        <v>3</v>
-      </c>
       <c r="H30" s="4">
         <v>3</v>
       </c>
@@ -6794,12 +7005,14 @@
         <v>3</v>
       </c>
       <c r="J30" s="4">
+        <v>3</v>
+      </c>
+      <c r="K30" s="4">
         <v>4</v>
       </c>
-      <c r="K30" s="4">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4"/>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -6809,10 +7022,11 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V30" s="4"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -6836,17 +7050,20 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V31" s="4"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="4"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="4">
         <v>2</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>2</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -6865,27 +7082,28 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V32" s="4"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4">
         <v>4</v>
       </c>
-      <c r="C33" s="4">
-        <v>3</v>
-      </c>
       <c r="D33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="4">
         <v>2</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -6899,7 +7117,9 @@
       <c r="J33" s="4">
         <v>1</v>
       </c>
-      <c r="K33" s="4"/>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -6910,39 +7130,40 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="4"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V33" s="4"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4">
         <v>24</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>21</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>18</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>15</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>11</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>10</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>8</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>5</v>
-      </c>
-      <c r="J34" s="4">
-        <v>4</v>
       </c>
       <c r="K34" s="4">
         <v>4</v>
@@ -6954,13 +7175,13 @@
         <v>4</v>
       </c>
       <c r="N34" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O34" s="4">
         <v>2</v>
       </c>
       <c r="P34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="4">
         <v>1</v>
@@ -6968,13 +7189,16 @@
       <c r="R34" s="4">
         <v>1</v>
       </c>
-      <c r="S34" s="4"/>
+      <c r="S34" s="4">
+        <v>1</v>
+      </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="4"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V34" s="4"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -6987,7 +7211,9 @@
       <c r="D35" s="4">
         <v>1</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -7004,17 +7230,20 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="4"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V35" s="4"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -7033,10 +7262,11 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="4"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V36" s="4"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7276,9 @@
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -7064,17 +7296,20 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="4"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V37" s="4"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
-        <v>2</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -7093,22 +7328,23 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="4"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V38" s="4"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4">
         <v>7</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>5</v>
       </c>
-      <c r="D39" s="4">
-        <v>3</v>
-      </c>
       <c r="E39" s="4">
         <v>3</v>
       </c>
@@ -7122,10 +7358,10 @@
         <v>3</v>
       </c>
       <c r="I39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="4">
         <v>1</v>
@@ -7160,14 +7396,17 @@
       <c r="U39" s="4">
         <v>1</v>
       </c>
-      <c r="V39" s="3">
-        <v>1</v>
-      </c>
-      <c r="W39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+      <c r="W39" s="3">
+        <v>1</v>
+      </c>
+      <c r="X39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -7175,7 +7414,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D40" s="4">
         <v>6</v>
@@ -7184,7 +7423,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" s="4">
         <v>5</v>
@@ -7193,10 +7432,10 @@
         <v>5</v>
       </c>
       <c r="I40" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" s="4">
         <v>2</v>
@@ -7205,7 +7444,7 @@
         <v>2</v>
       </c>
       <c r="M40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" s="4">
         <v>1</v>
@@ -7213,16 +7452,19 @@
       <c r="O40" s="4">
         <v>1</v>
       </c>
-      <c r="P40" s="4"/>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="4"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V40" s="4"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
@@ -7230,10 +7472,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="4">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4">
         <v>8</v>
-      </c>
-      <c r="D41" s="4">
-        <v>4</v>
       </c>
       <c r="E41" s="4">
         <v>4</v>
@@ -7242,18 +7484,20 @@
         <v>4</v>
       </c>
       <c r="G41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="4">
         <v>1</v>
       </c>
-      <c r="K41" s="4"/>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -7264,15 +7508,16 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="4"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V41" s="4"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
@@ -7281,10 +7526,10 @@
         <v>2</v>
       </c>
       <c r="E42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="4">
         <v>2</v>
@@ -7299,7 +7544,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="4">
         <v>1</v>
@@ -7322,13 +7567,16 @@
       <c r="R42" s="4">
         <v>1</v>
       </c>
-      <c r="S42" s="4"/>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="4"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V42" s="4"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
@@ -7336,13 +7584,13 @@
         <v>13</v>
       </c>
       <c r="C43" s="4">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4">
         <v>11</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>10</v>
-      </c>
-      <c r="E43" s="4">
-        <v>9</v>
       </c>
       <c r="F43" s="4">
         <v>9</v>
@@ -7351,18 +7599,20 @@
         <v>9</v>
       </c>
       <c r="H43" s="4">
+        <v>9</v>
+      </c>
+      <c r="I43" s="4">
         <v>7</v>
-      </c>
-      <c r="I43" s="4">
-        <v>5</v>
       </c>
       <c r="J43" s="4">
         <v>5</v>
       </c>
       <c r="K43" s="4">
-        <v>2</v>
-      </c>
-      <c r="L43" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="L43" s="4">
+        <v>2</v>
+      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -7372,10 +7622,11 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="4"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V43" s="4"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -7383,7 +7634,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="4">
         <v>2</v>
@@ -7397,7 +7648,9 @@
       <c r="G44" s="4">
         <v>2</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4">
+        <v>2</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -7411,24 +7664,25 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="4"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V44" s="4"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4">
         <v>10</v>
-      </c>
-      <c r="C45" s="4">
-        <v>6</v>
       </c>
       <c r="D45" s="4">
         <v>6</v>
       </c>
       <c r="E45" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F45" s="4">
         <v>3</v>
@@ -7437,7 +7691,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" s="4">
         <v>2</v>
@@ -7458,52 +7712,55 @@
         <v>2</v>
       </c>
       <c r="O45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P45" s="4">
         <v>1</v>
       </c>
-      <c r="Q45" s="4"/>
+      <c r="Q45" s="4">
+        <v>1</v>
+      </c>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="4"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V45" s="4"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>11</v>
+      </c>
+      <c r="C46" s="4">
         <v>9</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>8</v>
-      </c>
-      <c r="D46" s="4">
-        <v>7</v>
       </c>
       <c r="E46" s="4">
         <v>7</v>
       </c>
       <c r="F46" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G46" s="4">
         <v>6</v>
       </c>
       <c r="H46" s="4">
+        <v>6</v>
+      </c>
+      <c r="I46" s="4">
         <v>5</v>
       </c>
-      <c r="I46" s="4">
-        <v>3</v>
-      </c>
       <c r="J46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" s="4">
         <v>1</v>
@@ -7514,45 +7771,50 @@
       <c r="N46" s="4">
         <v>1</v>
       </c>
-      <c r="O46" s="4"/>
+      <c r="O46" s="4">
+        <v>1</v>
+      </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="4"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V46" s="4"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
+        <v>11</v>
+      </c>
+      <c r="C47" s="4">
         <v>8</v>
-      </c>
-      <c r="C47" s="4">
-        <v>5</v>
       </c>
       <c r="D47" s="4">
         <v>5</v>
       </c>
       <c r="E47" s="4">
+        <v>5</v>
+      </c>
+      <c r="F47" s="4">
         <v>4</v>
       </c>
-      <c r="F47" s="4">
-        <v>2</v>
-      </c>
       <c r="G47" s="4">
         <v>2</v>
       </c>
       <c r="H47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="4">
         <v>1</v>
       </c>
-      <c r="J47" s="4"/>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -7564,10 +7826,11 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="4"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V47" s="4"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -7578,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" s="4">
         <v>3</v>
@@ -7590,15 +7853,17 @@
         <v>3</v>
       </c>
       <c r="H48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="4">
         <v>1</v>
       </c>
-      <c r="K48" s="4"/>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -7609,10 +7874,11 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="4"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V48" s="4"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -7636,15 +7902,16 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="4"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V49" s="4"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="4"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -7685,30 +7952,33 @@
       <c r="O50" s="4">
         <v>1</v>
       </c>
-      <c r="P50" s="4"/>
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="4"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V50" s="4"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="4"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4">
         <v>10</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>9</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>5</v>
-      </c>
-      <c r="E51" s="4">
-        <v>4</v>
       </c>
       <c r="F51" s="4">
         <v>4</v>
@@ -7720,12 +7990,14 @@
         <v>4</v>
       </c>
       <c r="I51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J51" s="4">
-        <v>2</v>
-      </c>
-      <c r="K51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="K51" s="4">
+        <v>2</v>
+      </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -7736,85 +8008,86 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="4"/>
-    </row>
-    <row r="52" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V51" s="4"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="4"/>
+    </row>
+    <row r="52" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="E52" s="15">
         <f>SUM(E8:E51)</f>
+        <v>196</v>
+      </c>
+      <c r="F52" s="15">
+        <f>SUM(F8:F51)</f>
         <v>163</v>
       </c>
-      <c r="F52" s="15">
-        <f t="shared" ref="F52:K52" si="0">SUM(F8:F51)</f>
+      <c r="G52" s="15">
+        <f t="shared" ref="G52:L52" si="0">SUM(G8:G51)</f>
         <v>128</v>
       </c>
-      <c r="G52" s="15">
+      <c r="H52" s="15">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="L52" s="15">
-        <f t="shared" ref="L52:W52" si="1">SUM(L8:L51)</f>
+      <c r="M52" s="15">
+        <f t="shared" ref="M52:X52" si="1">SUM(M8:M51)</f>
         <v>31</v>
       </c>
-      <c r="M52" s="15">
+      <c r="N52" s="15">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N52" s="15">
+      <c r="O52" s="15">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="O52" s="15">
+      <c r="P52" s="15">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="P52" s="15">
+      <c r="Q52" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="R52" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="S52" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
       <c r="T52" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -7829,11 +8102,15 @@
       </c>
       <c r="W52" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="X52" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -7859,16 +8136,17 @@
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
       <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l+hkYQH6mte9wSkXEWy8tduBvQsEx7DY0yk95suoeCXNkTHjkDOcLJkYC5hXIS4urJVWShHwgJZ8Qv6GQkLNlQ==" saltValue="7rKfISEn9HNlPG77ezZezg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xnEqAXM1Dm3tXkJ2Osa2LLKM7xgfHguItWvm1R1G8CryPo6wXDkgzxqHwimV/pPEsLL9n4LgtuBFb+LzH6wV4w==" saltValue="srzbm4ud/m/j9ilM8esDbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:W54"/>
+    <mergeCell ref="A54:X54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B52:W52" formulaRange="1"/>
+    <ignoredError sqref="B52:X52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/table.xlsx
+++ b/assets/table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="51">
   <si>
     <t>Fälle</t>
   </si>
@@ -606,7 +606,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AN54"/>
+  <dimension ref="A2:AO54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
@@ -615,28 +615,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="24" width="11.140625" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" customWidth="1"/>
-    <col min="27" max="28" width="11.5703125" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" customWidth="1"/>
+    <col min="2" max="20" width="11.7109375" customWidth="1"/>
+    <col min="21" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" customWidth="1"/>
+    <col min="28" max="29" width="11.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="V3" s="9"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -757,217 +757,223 @@
       <c r="AN6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43925</v>
+      </c>
+      <c r="C7" s="13">
         <v>43924</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43923</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43922</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43921</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43920</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43919</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43918</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43917</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43916</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43915</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43914</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43913</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43912</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>43911</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="13">
         <v>43910</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="R7" s="13">
         <v>43909</v>
       </c>
-      <c r="R7" s="13">
+      <c r="S7" s="13">
         <v>43908</v>
       </c>
-      <c r="S7" s="13">
+      <c r="T7" s="13">
         <v>43907</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43906</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43905</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43904</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43903</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43902</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Z7" s="12">
         <v>43901</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="12">
         <v>43900</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AB7" s="12">
         <v>43899</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AC7" s="12">
         <v>43898</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AD7" s="12">
         <v>43897</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AE7" s="12">
         <v>43896</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AF7" s="12">
         <v>43895</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AG7" s="12">
         <v>43894</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AH7" s="12">
         <v>43893</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AI7" s="12">
         <v>43892</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AJ7" s="12">
         <v>43891</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AK7" s="12">
         <v>43890</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AL7" s="12">
         <v>43889</v>
       </c>
-      <c r="AL7" s="12">
+      <c r="AM7" s="12">
         <v>43888</v>
       </c>
-      <c r="AM7" s="12">
+      <c r="AN7" s="12">
         <v>43887</v>
       </c>
-      <c r="AN7" s="12">
+      <c r="AO7" s="12">
         <v>43886</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4">
+        <v>312</v>
+      </c>
+      <c r="C8" s="4">
         <v>271</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>251</v>
-      </c>
-      <c r="D8" s="4">
-        <v>228</v>
       </c>
       <c r="E8" s="4">
         <v>228</v>
       </c>
       <c r="F8" s="4">
+        <v>228</v>
+      </c>
+      <c r="G8" s="4">
         <v>217</v>
-      </c>
-      <c r="G8" s="4">
-        <v>189</v>
       </c>
       <c r="H8" s="4">
         <v>189</v>
       </c>
       <c r="I8" s="4">
+        <v>189</v>
+      </c>
+      <c r="J8" s="4">
         <v>130</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>99</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>85</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>64</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>60</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>44</v>
-      </c>
-      <c r="O8" s="4">
-        <v>39</v>
       </c>
       <c r="P8" s="4">
         <v>39</v>
       </c>
       <c r="Q8" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="R8" s="4">
         <v>26</v>
       </c>
       <c r="S8" s="4">
+        <v>26</v>
+      </c>
+      <c r="T8" s="4">
         <v>24</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <v>13</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <v>12</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>7</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <v>6</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4</v>
       </c>
-      <c r="Z8" s="4">
-        <v>3</v>
-      </c>
       <c r="AA8" s="4">
         <v>3</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="4">
         <v>3</v>
       </c>
       <c r="AC8" s="3">
         <v>3</v>
       </c>
       <c r="AD8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="3">
         <v>2</v>
@@ -975,7 +981,9 @@
       <c r="AF8" s="3">
         <v>2</v>
       </c>
-      <c r="AG8" s="3"/>
+      <c r="AG8" s="3">
+        <v>2</v>
+      </c>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
@@ -983,96 +991,99 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO8" s="3"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="4">
+        <v>104</v>
+      </c>
+      <c r="C9" s="4">
         <v>100</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>93</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>91</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>84</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>73</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>65</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>55</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>45</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>39</v>
-      </c>
-      <c r="K9" s="4">
-        <v>36</v>
       </c>
       <c r="L9" s="4">
         <v>36</v>
       </c>
       <c r="M9" s="4">
+        <v>36</v>
+      </c>
+      <c r="N9" s="4">
         <v>33</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>25</v>
-      </c>
-      <c r="O9" s="4">
-        <v>21</v>
       </c>
       <c r="P9" s="4">
         <v>21</v>
       </c>
       <c r="Q9" s="4">
+        <v>21</v>
+      </c>
+      <c r="R9" s="4">
         <v>17</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>14</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>12</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <v>7</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <v>5</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>3</v>
-      </c>
-      <c r="X9" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>1</v>
+      <c r="X9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2</v>
       </c>
       <c r="AA9" s="4">
         <v>1</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="4">
         <v>1</v>
       </c>
       <c r="AC9" s="3">
         <v>1</v>
       </c>
-      <c r="AD9" s="3"/>
+      <c r="AD9" s="3">
+        <v>1</v>
+      </c>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
@@ -1083,49 +1094,50 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO9" s="3"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4">
+        <v>304</v>
+      </c>
+      <c r="C10" s="4">
         <v>275</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>264</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>245</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>236</v>
-      </c>
-      <c r="F10" s="4">
-        <v>216</v>
       </c>
       <c r="G10" s="4">
         <v>216</v>
       </c>
       <c r="H10" s="4">
+        <v>216</v>
+      </c>
+      <c r="I10" s="4">
         <v>196</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>182</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>144</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>106</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>82</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>74</v>
-      </c>
-      <c r="N10" s="4">
-        <v>45</v>
       </c>
       <c r="O10" s="4">
         <v>45</v>
@@ -1137,13 +1149,13 @@
         <v>45</v>
       </c>
       <c r="R10" s="4">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="S10" s="4">
         <v>17</v>
       </c>
       <c r="T10" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="U10" s="4">
         <v>5</v>
@@ -1151,31 +1163,33 @@
       <c r="V10" s="4">
         <v>5</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="4">
         <v>5</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="4">
         <v>4</v>
       </c>
-      <c r="Y10" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="3">
         <v>3</v>
       </c>
       <c r="AA10" s="4">
         <v>3</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="4">
         <v>3</v>
       </c>
       <c r="AC10" s="3">
         <v>3</v>
       </c>
       <c r="AD10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>1</v>
+      </c>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
@@ -1185,58 +1199,59 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO10" s="3"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>821</v>
+      </c>
+      <c r="C11" s="4">
         <v>783</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>695</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>651</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>432</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>413</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>385</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>369</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>333</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>263</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>233</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>224</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>187</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>117</v>
-      </c>
-      <c r="O11" s="4">
-        <v>67</v>
       </c>
       <c r="P11" s="4">
         <v>67</v>
       </c>
       <c r="Q11" s="4">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="R11" s="4">
         <v>28</v>
@@ -1245,7 +1260,7 @@
         <v>28</v>
       </c>
       <c r="T11" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="U11" s="4">
         <v>9</v>
@@ -1253,22 +1268,22 @@
       <c r="V11" s="4">
         <v>9</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="4">
         <v>9</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="4">
         <v>4</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Z11" s="3">
         <v>4</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AA11" s="4">
         <v>4</v>
       </c>
-      <c r="AA11" s="4">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="4">
         <v>3</v>
       </c>
       <c r="AC11" s="3">
@@ -1278,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="AE11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="3">
         <v>1</v>
@@ -1301,92 +1316,95 @@
       <c r="AL11" s="3">
         <v>1</v>
       </c>
-      <c r="AM11" s="3"/>
+      <c r="AM11" s="3">
+        <v>1</v>
+      </c>
       <c r="AN11" s="3"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO11" s="3"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
+        <v>224</v>
+      </c>
+      <c r="C12" s="4">
         <v>219</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>203</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>192</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>190</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>186</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>185</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>178</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>175</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>153</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>121</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>89</v>
-      </c>
-      <c r="M12" s="4">
-        <v>83</v>
       </c>
       <c r="N12" s="4">
         <v>83</v>
       </c>
       <c r="O12" s="4">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P12" s="4">
         <v>71</v>
       </c>
       <c r="Q12" s="4">
+        <v>71</v>
+      </c>
+      <c r="R12" s="4">
         <v>62</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>39</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <v>31</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <v>29</v>
-      </c>
-      <c r="U12" s="4">
-        <v>13</v>
       </c>
       <c r="V12" s="4">
         <v>13</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="4">
+        <v>13</v>
+      </c>
+      <c r="X12" s="3">
         <v>8</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <v>4</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AA12" s="4">
         <v>5</v>
       </c>
-      <c r="AA12" s="4">
-        <v>4</v>
-      </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="4">
         <v>4</v>
       </c>
       <c r="AC12" s="3">
@@ -1396,12 +1414,14 @@
         <v>4</v>
       </c>
       <c r="AE12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>1</v>
+      </c>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
@@ -1409,97 +1429,98 @@
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO12" s="3"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="4">
+        <v>639</v>
+      </c>
+      <c r="C13" s="4">
         <v>585</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>544</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>475</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>419</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>392</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>372</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>299</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>273</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>254</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>223</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>197</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>178</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>167</v>
-      </c>
-      <c r="O13" s="4">
-        <v>134</v>
       </c>
       <c r="P13" s="4">
         <v>134</v>
       </c>
       <c r="Q13" s="4">
+        <v>134</v>
+      </c>
+      <c r="R13" s="4">
         <v>101</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>78</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <v>54</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <v>45</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <v>42</v>
       </c>
-      <c r="V13" s="4">
+      <c r="W13" s="4">
         <v>26</v>
       </c>
-      <c r="W13" s="3">
+      <c r="X13" s="3">
         <v>19</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <v>18</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Z13" s="3">
         <v>12</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>6</v>
       </c>
       <c r="AA13" s="4">
         <v>6</v>
       </c>
-      <c r="AB13" s="3">
-        <v>5</v>
+      <c r="AB13" s="4">
+        <v>6</v>
       </c>
       <c r="AC13" s="3">
         <v>5</v>
       </c>
       <c r="AD13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE13" s="3">
         <v>4</v>
@@ -1508,13 +1529,13 @@
         <v>4</v>
       </c>
       <c r="AG13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH13" s="3">
         <v>1</v>
       </c>
       <c r="AI13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="3">
         <v>3</v>
@@ -1525,93 +1546,96 @@
       <c r="AL13" s="3">
         <v>3</v>
       </c>
-      <c r="AM13" s="3"/>
+      <c r="AM13" s="3">
+        <v>3</v>
+      </c>
       <c r="AN13" s="3"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO13" s="3"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
+        <v>400</v>
+      </c>
+      <c r="C14" s="4">
         <v>379</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>345</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>329</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>308</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>295</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>278</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>259</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>226</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>210</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>182</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>159</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>150</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>120</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>108</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>92</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>76</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>61</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>51</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <v>43</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <v>34</v>
       </c>
-      <c r="V14" s="4">
+      <c r="W14" s="4">
         <v>26</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>15</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <v>12</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>7</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AA14" s="4">
         <v>6</v>
       </c>
-      <c r="AA14" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>1</v>
+      <c r="AB14" s="4">
+        <v>2</v>
       </c>
       <c r="AC14" s="3">
         <v>1</v>
@@ -1619,7 +1643,9 @@
       <c r="AD14" s="3">
         <v>1</v>
       </c>
-      <c r="AE14" s="3"/>
+      <c r="AE14" s="3">
+        <v>1</v>
+      </c>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
@@ -1629,202 +1655,208 @@
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO14" s="3"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>395</v>
+      </c>
+      <c r="C15" s="11">
         <v>368</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>348</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>320</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>287</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>264</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>201</v>
-      </c>
-      <c r="H15" s="11">
-        <v>191</v>
       </c>
       <c r="I15" s="11">
         <v>191</v>
       </c>
       <c r="J15" s="11">
+        <v>191</v>
+      </c>
+      <c r="K15" s="11">
         <v>171</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <v>154</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>141</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <v>123</v>
       </c>
-      <c r="N15" s="11">
+      <c r="O15" s="11">
         <v>121</v>
-      </c>
-      <c r="O15" s="11">
-        <v>110</v>
       </c>
       <c r="P15" s="11">
         <v>110</v>
       </c>
       <c r="Q15" s="11">
+        <v>110</v>
+      </c>
+      <c r="R15" s="11">
         <v>99</v>
       </c>
-      <c r="R15" s="11">
+      <c r="S15" s="11">
         <v>60</v>
       </c>
-      <c r="S15" s="11">
+      <c r="T15" s="11">
         <v>59</v>
-      </c>
-      <c r="T15" s="11">
-        <v>35</v>
       </c>
       <c r="U15" s="11">
         <v>35</v>
       </c>
       <c r="V15" s="11">
+        <v>35</v>
+      </c>
+      <c r="W15" s="11">
         <v>21</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17</v>
       </c>
-      <c r="X15" s="11">
+      <c r="Y15" s="11">
         <v>16</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>15</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>13</v>
       </c>
       <c r="AA15" s="11">
         <v>13</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="11">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="3">
         <v>12</v>
       </c>
-      <c r="AC15" s="3">
-        <v>3</v>
-      </c>
       <c r="AD15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>1</v>
+      </c>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="3">
-        <v>1</v>
-      </c>
+      <c r="AG15" s="3"/>
       <c r="AH15" s="3">
         <v>1</v>
       </c>
-      <c r="AI15" s="3"/>
+      <c r="AI15" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO15" s="3"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="4">
+        <v>198</v>
+      </c>
+      <c r="C16" s="4">
         <v>175</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>162</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>142</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>125</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>115</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>110</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>89</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>74</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>62</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>55</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>45</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>37</v>
-      </c>
-      <c r="N16" s="4">
-        <v>33</v>
       </c>
       <c r="O16" s="4">
         <v>33</v>
       </c>
       <c r="P16" s="4">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="4">
         <v>24</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <v>21</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>12</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <v>9</v>
       </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4">
         <v>4</v>
       </c>
-      <c r="U16" s="4">
-        <v>3</v>
-      </c>
       <c r="V16" s="4">
         <v>3</v>
       </c>
-      <c r="W16" s="3">
-        <v>3</v>
-      </c>
-      <c r="X16" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>1</v>
+      <c r="W16" s="4">
+        <v>3</v>
+      </c>
+      <c r="X16" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>2</v>
       </c>
       <c r="AA16" s="4">
         <v>1</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="4">
         <v>1</v>
       </c>
       <c r="AC16" s="3">
         <v>1</v>
       </c>
-      <c r="AD16" s="3"/>
+      <c r="AD16" s="3">
+        <v>1</v>
+      </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -1835,199 +1867,203 @@
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO16" s="3"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>1070</v>
+      </c>
+      <c r="C17" s="4">
         <v>1003</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>945</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>881</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>833</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>761</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>737</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>705</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>648</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>596</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>493</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>462</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>435</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>362</v>
-      </c>
-      <c r="O17" s="4">
-        <v>323</v>
       </c>
       <c r="P17" s="4">
         <v>323</v>
       </c>
       <c r="Q17" s="4">
+        <v>323</v>
+      </c>
+      <c r="R17" s="4">
         <v>234</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>193</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <v>128</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <v>123</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <v>111</v>
       </c>
-      <c r="V17" s="4">
+      <c r="W17" s="4">
         <v>82</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>65</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <v>47</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>43</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AA17" s="4">
         <v>23</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AB17" s="4">
         <v>18</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>16</v>
       </c>
       <c r="AC17" s="3">
         <v>16</v>
       </c>
       <c r="AD17" s="3">
+        <v>16</v>
+      </c>
+      <c r="AE17" s="3">
         <v>14</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>13</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>5</v>
       </c>
       <c r="AG17" s="3">
         <v>5</v>
       </c>
-      <c r="AH17" s="3"/>
+      <c r="AH17" s="3">
+        <v>5</v>
+      </c>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO17" s="3"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>633</v>
+      </c>
+      <c r="C18" s="4">
         <v>586</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>534</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>492</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>442</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>414</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>386</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>346</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>325</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>284</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>254</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>227</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>212</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>191</v>
-      </c>
-      <c r="O18" s="4">
-        <v>150</v>
       </c>
       <c r="P18" s="4">
         <v>150</v>
       </c>
       <c r="Q18" s="4">
+        <v>150</v>
+      </c>
+      <c r="R18" s="4">
         <v>114</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>79</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <v>62</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <v>53</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <v>43</v>
       </c>
-      <c r="V18" s="4">
+      <c r="W18" s="4">
         <v>34</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>18</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <v>18</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>12</v>
       </c>
       <c r="AA18" s="4">
         <v>12</v>
       </c>
-      <c r="AB18" s="3">
-        <v>8</v>
+      <c r="AB18" s="4">
+        <v>12</v>
       </c>
       <c r="AC18" s="3">
         <v>8</v>
@@ -2036,72 +2072,75 @@
         <v>8</v>
       </c>
       <c r="AE18" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF18" s="3">
         <v>6</v>
       </c>
       <c r="AG18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH18" s="3">
         <v>4</v>
       </c>
       <c r="AI18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>1</v>
+      </c>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO18" s="3"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
+        <v>218</v>
+      </c>
+      <c r="C19" s="4">
         <v>210</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>185</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>180</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>174</v>
-      </c>
-      <c r="F19" s="4">
-        <v>154</v>
       </c>
       <c r="G19" s="4">
         <v>154</v>
       </c>
       <c r="H19" s="4">
+        <v>154</v>
+      </c>
+      <c r="I19" s="4">
         <v>136</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>110</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>76</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>69</v>
-      </c>
-      <c r="L19" s="4">
-        <v>39</v>
       </c>
       <c r="M19" s="4">
         <v>39</v>
       </c>
       <c r="N19" s="4">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O19" s="4">
         <v>14</v>
@@ -2116,31 +2155,33 @@
         <v>14</v>
       </c>
       <c r="S19" s="4">
+        <v>14</v>
+      </c>
+      <c r="T19" s="4">
         <v>10</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <v>8</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <v>7</v>
       </c>
-      <c r="V19" s="4">
-        <v>3</v>
-      </c>
-      <c r="W19" s="3">
-        <v>2</v>
-      </c>
-      <c r="X19" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="3"/>
+      <c r="W19" s="4">
+        <v>3</v>
+      </c>
+      <c r="X19" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="4"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
@@ -2153,49 +2194,50 @@
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO19" s="3"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4">
+        <v>484</v>
+      </c>
+      <c r="C20" s="4">
         <v>463</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>446</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>422</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>371</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>361</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>340</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>317</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>278</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>249</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>216</v>
-      </c>
-      <c r="L20" s="4">
-        <v>166</v>
       </c>
       <c r="M20" s="4">
         <v>166</v>
       </c>
       <c r="N20" s="4">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="O20" s="4">
         <v>97</v>
@@ -2204,46 +2246,46 @@
         <v>97</v>
       </c>
       <c r="Q20" s="4">
+        <v>97</v>
+      </c>
+      <c r="R20" s="4">
         <v>60</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <v>59</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <v>39</v>
       </c>
-      <c r="T20" s="4">
+      <c r="U20" s="4">
         <v>29</v>
-      </c>
-      <c r="U20" s="4">
-        <v>16</v>
       </c>
       <c r="V20" s="4">
         <v>16</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="4">
+        <v>16</v>
+      </c>
+      <c r="X20" s="3">
         <v>14</v>
       </c>
-      <c r="X20" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="4">
+      <c r="Y20" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="4">
         <v>4</v>
       </c>
-      <c r="AA20" s="4">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="4">
         <v>3</v>
       </c>
       <c r="AC20" s="3">
         <v>3</v>
       </c>
       <c r="AD20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="3">
         <v>2</v>
@@ -2267,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="AL20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM20" s="3">
         <v>1</v>
@@ -2275,8 +2317,11 @@
       <c r="AN20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -2284,46 +2329,46 @@
         <v>189</v>
       </c>
       <c r="C21" s="4">
+        <v>189</v>
+      </c>
+      <c r="D21" s="4">
         <v>178</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>167</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>154</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>148</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>130</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>124</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>113</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>112</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>109</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>98</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>89</v>
-      </c>
-      <c r="N21" s="4">
-        <v>5</v>
       </c>
       <c r="O21" s="4">
         <v>5</v>
       </c>
       <c r="P21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="4">
         <v>3</v>
@@ -2332,40 +2377,40 @@
         <v>3</v>
       </c>
       <c r="S21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21" s="4">
         <v>2</v>
       </c>
       <c r="U21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" s="4">
         <v>3</v>
       </c>
-      <c r="W21" s="3">
-        <v>2</v>
-      </c>
-      <c r="X21" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>5</v>
+      <c r="W21" s="4">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>2</v>
       </c>
       <c r="AA21" s="4">
         <v>5</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="4">
         <v>5</v>
       </c>
       <c r="AC21" s="3">
         <v>5</v>
       </c>
       <c r="AD21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE21" s="3">
         <v>2</v>
@@ -2373,7 +2418,9 @@
       <c r="AF21" s="3">
         <v>2</v>
       </c>
-      <c r="AG21" s="3"/>
+      <c r="AG21" s="3">
+        <v>2</v>
+      </c>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
@@ -2381,97 +2428,98 @@
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO21" s="3"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>229</v>
+      </c>
+      <c r="C22" s="4">
         <v>226</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>225</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>208</v>
-      </c>
-      <c r="E22" s="4">
-        <v>160</v>
       </c>
       <c r="F22" s="4">
         <v>160</v>
       </c>
       <c r="G22" s="4">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="H22" s="4">
         <v>125</v>
       </c>
       <c r="I22" s="4">
+        <v>125</v>
+      </c>
+      <c r="J22" s="4">
         <v>117</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>98</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>97</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>62</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>60</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>57</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>47</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>39</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4">
         <v>34</v>
-      </c>
-      <c r="R22" s="4">
-        <v>17</v>
       </c>
       <c r="S22" s="4">
         <v>17</v>
       </c>
       <c r="T22" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U22" s="4">
         <v>21</v>
       </c>
       <c r="V22" s="4">
+        <v>21</v>
+      </c>
+      <c r="W22" s="4">
         <v>19</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Y22" s="4">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4</v>
       </c>
-      <c r="Z22" s="4">
-        <v>3</v>
-      </c>
       <c r="AA22" s="4">
         <v>3</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="4">
         <v>3</v>
       </c>
       <c r="AC22" s="3">
         <v>3</v>
       </c>
       <c r="AD22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" s="3">
         <v>1</v>
@@ -2479,7 +2527,9 @@
       <c r="AF22" s="3">
         <v>1</v>
       </c>
-      <c r="AG22" s="3"/>
+      <c r="AG22" s="3">
+        <v>1</v>
+      </c>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
@@ -2487,112 +2537,113 @@
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO22" s="3"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11">
+        <v>521</v>
+      </c>
+      <c r="C23" s="11">
         <v>485</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>484</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>435</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>427</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>390</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>365</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>342</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>331</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>279</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>236</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>212</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>197</v>
       </c>
-      <c r="N23" s="11">
+      <c r="O23" s="11">
         <v>165</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>140</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="11">
         <v>118</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="R23" s="11">
         <v>110</v>
       </c>
-      <c r="R23" s="11">
+      <c r="S23" s="11">
         <v>71</v>
       </c>
-      <c r="S23" s="11">
+      <c r="T23" s="11">
         <v>57</v>
       </c>
-      <c r="T23" s="11">
+      <c r="U23" s="11">
         <v>50</v>
       </c>
-      <c r="U23" s="11">
+      <c r="V23" s="11">
         <v>47</v>
       </c>
-      <c r="V23" s="11">
+      <c r="W23" s="11">
         <v>37</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>32</v>
       </c>
-      <c r="X23" s="11">
+      <c r="Y23" s="11">
         <v>32</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>30</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>26</v>
       </c>
       <c r="AA23" s="11">
         <v>26</v>
       </c>
-      <c r="AB23" s="3">
-        <v>20</v>
+      <c r="AB23" s="11">
+        <v>26</v>
       </c>
       <c r="AC23" s="3">
         <v>20</v>
       </c>
       <c r="AD23" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE23" s="3">
         <v>14</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>10</v>
       </c>
       <c r="AF23" s="3">
         <v>10</v>
       </c>
       <c r="AG23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH23" s="3">
         <v>8</v>
       </c>
       <c r="AI23" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ23" s="3">
         <v>1</v>
@@ -2600,70 +2651,73 @@
       <c r="AK23" s="3">
         <v>1</v>
       </c>
-      <c r="AL23" s="3"/>
+      <c r="AL23" s="3">
+        <v>1</v>
+      </c>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO23" s="3"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="11">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="C24" s="11">
         <v>220</v>
       </c>
       <c r="D24" s="11">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="E24" s="11">
         <v>168</v>
       </c>
       <c r="F24" s="11">
+        <v>168</v>
+      </c>
+      <c r="G24" s="11">
         <v>147</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>124</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>122</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>104</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="11">
         <v>81</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>71</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
         <v>60</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="11">
         <v>55</v>
       </c>
-      <c r="N24" s="11">
+      <c r="O24" s="11">
         <v>28</v>
-      </c>
-      <c r="O24" s="11">
-        <v>20</v>
       </c>
       <c r="P24" s="11">
         <v>20</v>
       </c>
       <c r="Q24" s="11">
+        <v>20</v>
+      </c>
+      <c r="R24" s="11">
         <v>19</v>
       </c>
-      <c r="R24" s="11">
+      <c r="S24" s="11">
         <v>13</v>
       </c>
-      <c r="S24" s="11">
+      <c r="T24" s="11">
         <v>9</v>
-      </c>
-      <c r="T24" s="11">
-        <v>4</v>
       </c>
       <c r="U24" s="11">
         <v>4</v>
@@ -2671,20 +2725,20 @@
       <c r="V24" s="11">
         <v>4</v>
       </c>
-      <c r="W24" s="3">
-        <v>1</v>
-      </c>
-      <c r="X24" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="11">
-        <v>3</v>
-      </c>
+      <c r="W24" s="11">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3"/>
       <c r="AA24" s="11">
         <v>3</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="11">
         <v>3</v>
       </c>
       <c r="AC24" s="3">
@@ -2694,82 +2748,85 @@
         <v>3</v>
       </c>
       <c r="AE24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF24" s="3">
         <v>2</v>
       </c>
-      <c r="AG24" s="3"/>
+      <c r="AG24" s="3">
+        <v>2</v>
+      </c>
       <c r="AH24" s="3"/>
-      <c r="AI24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3">
+        <v>1</v>
+      </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO24" s="3"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4">
+        <v>543</v>
+      </c>
+      <c r="C25" s="4">
         <v>530</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>508</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>478</v>
-      </c>
-      <c r="E25" s="4">
-        <v>453</v>
       </c>
       <c r="F25" s="4">
         <v>453</v>
       </c>
       <c r="G25" s="4">
+        <v>453</v>
+      </c>
+      <c r="H25" s="4">
         <v>421</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>404</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>350</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>302</v>
-      </c>
-      <c r="K25" s="4">
-        <v>278</v>
       </c>
       <c r="L25" s="4">
         <v>278</v>
       </c>
       <c r="M25" s="4">
+        <v>278</v>
+      </c>
+      <c r="N25" s="4">
         <v>257</v>
-      </c>
-      <c r="N25" s="4">
-        <v>222</v>
       </c>
       <c r="O25" s="4">
         <v>222</v>
       </c>
       <c r="P25" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q25" s="4">
         <v>182</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <v>154</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>135</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <v>64</v>
-      </c>
-      <c r="T25" s="4">
-        <v>29</v>
       </c>
       <c r="U25" s="4">
         <v>29</v>
@@ -2777,23 +2834,23 @@
       <c r="V25" s="4">
         <v>29</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="4">
+        <v>29</v>
+      </c>
+      <c r="X25" s="3">
         <v>8</v>
       </c>
-      <c r="X25" s="4">
+      <c r="Y25" s="4">
         <v>8</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Z25" s="3">
         <v>6</v>
       </c>
-      <c r="Z25" s="4">
-        <v>2</v>
-      </c>
       <c r="AA25" s="4">
         <v>2</v>
       </c>
-      <c r="AB25" s="3">
-        <v>1</v>
+      <c r="AB25" s="4">
+        <v>2</v>
       </c>
       <c r="AC25" s="3">
         <v>1</v>
@@ -2804,7 +2861,9 @@
       <c r="AE25" s="3">
         <v>1</v>
       </c>
-      <c r="AF25" s="3"/>
+      <c r="AF25" s="3">
+        <v>1</v>
+      </c>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
@@ -2813,25 +2872,26 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO25" s="3"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="C26" s="11">
         <v>373</v>
       </c>
       <c r="D26" s="11">
+        <v>373</v>
+      </c>
+      <c r="E26" s="11">
         <v>335</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>305</v>
-      </c>
-      <c r="F26" s="11">
-        <v>246</v>
       </c>
       <c r="G26" s="11">
         <v>246</v>
@@ -2840,76 +2900,76 @@
         <v>246</v>
       </c>
       <c r="I26" s="11">
+        <v>246</v>
+      </c>
+      <c r="J26" s="11">
         <v>229</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>206</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>189</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>172</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>154</v>
       </c>
-      <c r="N26" s="11">
+      <c r="O26" s="11">
         <v>104</v>
-      </c>
-      <c r="O26" s="11">
-        <v>96</v>
       </c>
       <c r="P26" s="11">
         <v>96</v>
       </c>
       <c r="Q26" s="11">
+        <v>96</v>
+      </c>
+      <c r="R26" s="11">
         <v>75</v>
       </c>
-      <c r="R26" s="11">
+      <c r="S26" s="11">
         <v>63</v>
       </c>
-      <c r="S26" s="11">
+      <c r="T26" s="11">
         <v>47</v>
       </c>
-      <c r="T26" s="11">
+      <c r="U26" s="11">
         <v>24</v>
-      </c>
-      <c r="U26" s="11">
-        <v>29</v>
       </c>
       <c r="V26" s="11">
         <v>29</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="11">
+        <v>29</v>
+      </c>
+      <c r="X26" s="3">
         <v>16</v>
       </c>
-      <c r="X26" s="11">
+      <c r="Y26" s="11">
         <v>16</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>12</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="AA26" s="11">
         <v>9</v>
       </c>
-      <c r="AA26" s="11">
-        <v>7</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="11">
         <v>7</v>
       </c>
       <c r="AC26" s="3">
         <v>7</v>
       </c>
       <c r="AD26" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG26" s="3">
         <v>1</v>
@@ -2926,28 +2986,31 @@
       <c r="AK26" s="3">
         <v>1</v>
       </c>
-      <c r="AL26" s="3"/>
+      <c r="AL26" s="3">
+        <v>1</v>
+      </c>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO26" s="3"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="11">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C27" s="11">
         <v>177</v>
       </c>
       <c r="D27" s="11">
+        <v>177</v>
+      </c>
+      <c r="E27" s="11">
         <v>169</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>159</v>
-      </c>
-      <c r="F27" s="11">
-        <v>119</v>
       </c>
       <c r="G27" s="11">
         <v>119</v>
@@ -2956,22 +3019,22 @@
         <v>119</v>
       </c>
       <c r="I27" s="11">
+        <v>119</v>
+      </c>
+      <c r="J27" s="11">
         <v>110</v>
       </c>
-      <c r="J27" s="11">
+      <c r="K27" s="11">
         <v>99</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>85</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="11">
         <v>74</v>
       </c>
-      <c r="M27" s="11">
+      <c r="N27" s="11">
         <v>60</v>
-      </c>
-      <c r="N27" s="11">
-        <v>42</v>
       </c>
       <c r="O27" s="11">
         <v>42</v>
@@ -2980,16 +3043,16 @@
         <v>42</v>
       </c>
       <c r="Q27" s="11">
+        <v>42</v>
+      </c>
+      <c r="R27" s="11">
         <v>34</v>
       </c>
-      <c r="R27" s="11">
+      <c r="S27" s="11">
         <v>29</v>
       </c>
-      <c r="S27" s="11">
+      <c r="T27" s="11">
         <v>26</v>
-      </c>
-      <c r="T27" s="11">
-        <v>14</v>
       </c>
       <c r="U27" s="11">
         <v>14</v>
@@ -2997,20 +3060,22 @@
       <c r="V27" s="11">
         <v>14</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="11">
+        <v>14</v>
+      </c>
+      <c r="X27" s="3">
         <v>8</v>
       </c>
-      <c r="X27" s="11">
+      <c r="Y27" s="11">
         <v>8</v>
       </c>
-      <c r="Y27" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="3"/>
+      <c r="Z27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="11"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
@@ -3023,49 +3088,50 @@
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
+        <v>267</v>
+      </c>
+      <c r="C28" s="4">
         <v>229</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>210</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>183</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>162</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>144</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>137</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>132</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>124</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>109</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>89</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>81</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>70</v>
-      </c>
-      <c r="N28" s="4">
-        <v>52</v>
       </c>
       <c r="O28" s="4">
         <v>52</v>
@@ -3074,16 +3140,16 @@
         <v>52</v>
       </c>
       <c r="Q28" s="4">
+        <v>52</v>
+      </c>
+      <c r="R28" s="4">
         <v>43</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>34</v>
       </c>
-      <c r="S28" s="4">
+      <c r="T28" s="4">
         <v>28</v>
-      </c>
-      <c r="T28" s="4">
-        <v>20</v>
       </c>
       <c r="U28" s="4">
         <v>20</v>
@@ -3091,28 +3157,30 @@
       <c r="V28" s="4">
         <v>20</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="4">
+        <v>20</v>
+      </c>
+      <c r="X28" s="3">
         <v>7</v>
       </c>
-      <c r="X28" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z28" s="4">
-        <v>1</v>
+      <c r="Y28" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>2</v>
       </c>
       <c r="AA28" s="4">
         <v>1</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AB28" s="4">
         <v>1</v>
       </c>
       <c r="AC28" s="3">
         <v>1</v>
       </c>
-      <c r="AD28" s="3"/>
+      <c r="AD28" s="3">
+        <v>1</v>
+      </c>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
@@ -3123,46 +3191,47 @@
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO28" s="3"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
+        <v>360</v>
+      </c>
+      <c r="C29" s="4">
         <v>333</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>311</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>285</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>251</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>216</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>201</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>186</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>162</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>147</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>136</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>101</v>
-      </c>
-      <c r="M29" s="4">
-        <v>57</v>
       </c>
       <c r="N29" s="4">
         <v>57</v>
@@ -3174,16 +3243,16 @@
         <v>57</v>
       </c>
       <c r="Q29" s="4">
+        <v>57</v>
+      </c>
+      <c r="R29" s="4">
         <v>41</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <v>25</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T29" s="4">
         <v>16</v>
-      </c>
-      <c r="T29" s="4">
-        <v>10</v>
       </c>
       <c r="U29" s="4">
         <v>10</v>
@@ -3191,20 +3260,20 @@
       <c r="V29" s="4">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="4">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3">
         <v>6</v>
       </c>
-      <c r="X29" s="4">
+      <c r="Y29" s="4">
         <v>4</v>
       </c>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="4">
-        <v>1</v>
-      </c>
+      <c r="Z29" s="3"/>
       <c r="AA29" s="4">
         <v>1</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AB29" s="4">
         <v>1</v>
       </c>
       <c r="AC29" s="3">
@@ -3222,74 +3291,77 @@
       <c r="AG29" s="3">
         <v>1</v>
       </c>
-      <c r="AH29" s="3"/>
+      <c r="AH29" s="3">
+        <v>1</v>
+      </c>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO29" s="3"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4">
+        <v>949</v>
+      </c>
+      <c r="C30" s="4">
         <v>934</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>813</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>746</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>698</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>671</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>657</v>
-      </c>
-      <c r="H30" s="4">
-        <v>543</v>
       </c>
       <c r="I30" s="4">
         <v>543</v>
       </c>
       <c r="J30" s="4">
+        <v>543</v>
+      </c>
+      <c r="K30" s="4">
         <v>450</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>352</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>275</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>250</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>236</v>
-      </c>
-      <c r="O30" s="4">
-        <v>175</v>
       </c>
       <c r="P30" s="4">
         <v>175</v>
       </c>
       <c r="Q30" s="4">
+        <v>175</v>
+      </c>
+      <c r="R30" s="4">
         <v>126</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>112</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <v>87</v>
-      </c>
-      <c r="T30" s="4">
-        <v>38</v>
       </c>
       <c r="U30" s="4">
         <v>38</v>
@@ -3297,41 +3369,41 @@
       <c r="V30" s="4">
         <v>38</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="4">
+        <v>38</v>
+      </c>
+      <c r="X30" s="3">
         <v>24</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Y30" s="4">
         <v>18</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Z30" s="3">
         <v>11</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="AA30" s="4">
         <v>11</v>
       </c>
-      <c r="AA30" s="4">
+      <c r="AB30" s="4">
         <v>8</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>7</v>
       </c>
       <c r="AC30" s="3">
         <v>7</v>
       </c>
       <c r="AD30" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE30" s="3">
         <v>5</v>
       </c>
-      <c r="AE30" s="3">
-        <v>3</v>
-      </c>
       <c r="AF30" s="3">
         <v>3</v>
       </c>
       <c r="AG30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI30" s="3">
         <v>1</v>
@@ -3342,52 +3414,55 @@
       <c r="AK30" s="3">
         <v>1</v>
       </c>
-      <c r="AL30" s="3"/>
+      <c r="AL30" s="3">
+        <v>1</v>
+      </c>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO30" s="3"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
+        <v>199</v>
+      </c>
+      <c r="C31" s="4">
         <v>177</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>170</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>140</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>135</v>
-      </c>
-      <c r="F31" s="4">
-        <v>112</v>
       </c>
       <c r="G31" s="4">
         <v>112</v>
       </c>
       <c r="H31" s="4">
+        <v>112</v>
+      </c>
+      <c r="I31" s="4">
         <v>92</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>74</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>67</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>58</v>
-      </c>
-      <c r="L31" s="4">
-        <v>53</v>
       </c>
       <c r="M31" s="4">
         <v>53</v>
       </c>
       <c r="N31" s="4">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="O31" s="4">
         <v>36</v>
@@ -3396,10 +3471,10 @@
         <v>36</v>
       </c>
       <c r="Q31" s="4">
+        <v>36</v>
+      </c>
+      <c r="R31" s="4">
         <v>33</v>
-      </c>
-      <c r="R31" s="4">
-        <v>31</v>
       </c>
       <c r="S31" s="4">
         <v>31</v>
@@ -3411,39 +3486,41 @@
         <v>31</v>
       </c>
       <c r="V31" s="4">
+        <v>31</v>
+      </c>
+      <c r="W31" s="4">
         <v>30</v>
       </c>
-      <c r="W31" s="3">
+      <c r="X31" s="3">
         <v>28</v>
       </c>
-      <c r="X31" s="4">
+      <c r="Y31" s="4">
         <v>24</v>
       </c>
-      <c r="Y31" s="3">
-        <v>24</v>
-      </c>
-      <c r="Z31" s="4">
+      <c r="Z31" s="3">
         <v>24</v>
       </c>
       <c r="AA31" s="4">
         <v>24</v>
       </c>
-      <c r="AB31" s="3">
-        <v>23</v>
+      <c r="AB31" s="4">
+        <v>24</v>
       </c>
       <c r="AC31" s="3">
         <v>23</v>
       </c>
       <c r="AD31" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AE31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF31" s="3">
         <v>1</v>
       </c>
-      <c r="AG31" s="3"/>
+      <c r="AG31" s="3">
+        <v>1</v>
+      </c>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
@@ -3451,46 +3528,47 @@
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO31" s="3"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="4">
+        <v>273</v>
+      </c>
+      <c r="C32" s="4">
         <v>256</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>240</v>
-      </c>
-      <c r="D32" s="4">
-        <v>226</v>
       </c>
       <c r="E32" s="4">
         <v>226</v>
       </c>
       <c r="F32" s="4">
+        <v>226</v>
+      </c>
+      <c r="G32" s="4">
         <v>213</v>
-      </c>
-      <c r="G32" s="4">
-        <v>183</v>
       </c>
       <c r="H32" s="4">
         <v>183</v>
       </c>
       <c r="I32" s="4">
+        <v>183</v>
+      </c>
+      <c r="J32" s="4">
         <v>166</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>158</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>145</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>135</v>
-      </c>
-      <c r="M32" s="4">
-        <v>80</v>
       </c>
       <c r="N32" s="4">
         <v>80</v>
@@ -3502,13 +3580,13 @@
         <v>80</v>
       </c>
       <c r="Q32" s="4">
+        <v>80</v>
+      </c>
+      <c r="R32" s="4">
         <v>73</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <v>71</v>
-      </c>
-      <c r="S32" s="4">
-        <v>27</v>
       </c>
       <c r="T32" s="4">
         <v>27</v>
@@ -3519,38 +3597,38 @@
       <c r="V32" s="4">
         <v>27</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="4">
+        <v>27</v>
+      </c>
+      <c r="X32" s="3">
         <v>22</v>
       </c>
-      <c r="X32" s="4">
+      <c r="Y32" s="4">
         <v>12</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>12</v>
-      </c>
-      <c r="Z32" s="4">
-        <v>9</v>
       </c>
       <c r="AA32" s="4">
         <v>9</v>
       </c>
-      <c r="AB32" s="3">
-        <v>7</v>
+      <c r="AB32" s="4">
+        <v>9</v>
       </c>
       <c r="AC32" s="3">
         <v>7</v>
       </c>
       <c r="AD32" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE32" s="3">
         <v>5</v>
-      </c>
-      <c r="AE32" s="3">
-        <v>4</v>
       </c>
       <c r="AF32" s="3">
         <v>4</v>
       </c>
       <c r="AG32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH32" s="3">
         <v>3</v>
@@ -3558,95 +3636,98 @@
       <c r="AI32" s="3">
         <v>3</v>
       </c>
-      <c r="AJ32" s="3"/>
+      <c r="AJ32" s="3">
+        <v>3</v>
+      </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO32" s="3"/>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
+        <v>135</v>
+      </c>
+      <c r="C33" s="4">
         <v>125</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>120</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>108</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>99</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>86</v>
-      </c>
-      <c r="G33" s="4">
-        <v>76</v>
       </c>
       <c r="H33" s="4">
         <v>76</v>
       </c>
       <c r="I33" s="4">
+        <v>76</v>
+      </c>
+      <c r="J33" s="4">
         <v>68</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>58</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>45</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>40</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>35</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>30</v>
-      </c>
-      <c r="O33" s="4">
-        <v>26</v>
       </c>
       <c r="P33" s="4">
         <v>26</v>
       </c>
       <c r="Q33" s="4">
+        <v>26</v>
+      </c>
+      <c r="R33" s="4">
         <v>20</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>17</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <v>14</v>
       </c>
-      <c r="T33" s="4">
+      <c r="U33" s="4">
         <v>7</v>
       </c>
-      <c r="U33" s="4">
+      <c r="V33" s="4">
         <v>10</v>
       </c>
-      <c r="V33" s="4">
+      <c r="W33" s="4">
         <v>6</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4</v>
       </c>
-      <c r="X33" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z33" s="4">
-        <v>1</v>
+      <c r="Y33" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>2</v>
       </c>
       <c r="AA33" s="4">
         <v>1</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="4">
         <v>1</v>
       </c>
       <c r="AC33" s="3">
@@ -3655,7 +3736,9 @@
       <c r="AD33" s="3">
         <v>1</v>
       </c>
-      <c r="AE33" s="3"/>
+      <c r="AE33" s="3">
+        <v>1</v>
+      </c>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
@@ -3665,99 +3748,102 @@
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO33" s="3"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="4">
+        <v>567</v>
+      </c>
+      <c r="C34" s="4">
         <v>323</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>320</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>317</v>
-      </c>
-      <c r="E34" s="4">
-        <v>316</v>
       </c>
       <c r="F34" s="4">
         <v>316</v>
       </c>
       <c r="G34" s="4">
+        <v>316</v>
+      </c>
+      <c r="H34" s="4">
         <v>276</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>245</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>197</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>175</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>135</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>120</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>104</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>82</v>
-      </c>
-      <c r="O34" s="4">
-        <v>71</v>
       </c>
       <c r="P34" s="4">
         <v>71</v>
       </c>
       <c r="Q34" s="4">
+        <v>71</v>
+      </c>
+      <c r="R34" s="4">
         <v>55</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>45</v>
       </c>
-      <c r="S34" s="4">
+      <c r="T34" s="4">
         <v>38</v>
       </c>
-      <c r="T34" s="4">
+      <c r="U34" s="4">
         <v>28</v>
       </c>
-      <c r="U34" s="4">
+      <c r="V34" s="4">
         <v>25</v>
       </c>
-      <c r="V34" s="4">
+      <c r="W34" s="4">
         <v>22</v>
       </c>
-      <c r="W34" s="3">
+      <c r="X34" s="3">
         <v>16</v>
       </c>
-      <c r="X34" s="4">
+      <c r="Y34" s="4">
         <v>13</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Z34" s="3">
         <v>13</v>
-      </c>
-      <c r="Z34" s="4">
-        <v>12</v>
       </c>
       <c r="AA34" s="4">
         <v>12</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AB34" s="4">
+        <v>12</v>
+      </c>
+      <c r="AC34" s="3">
         <v>7</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AD34" s="3">
         <v>6</v>
       </c>
-      <c r="AD34" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE34" s="3"/>
+      <c r="AE34" s="3">
+        <v>2</v>
+      </c>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
@@ -3767,91 +3853,92 @@
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO34" s="3"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
+        <v>417</v>
+      </c>
+      <c r="C35" s="4">
         <v>400</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>368</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>321</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>298</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>273</v>
-      </c>
-      <c r="G35" s="4">
-        <v>256</v>
       </c>
       <c r="H35" s="4">
         <v>256</v>
       </c>
       <c r="I35" s="4">
+        <v>256</v>
+      </c>
+      <c r="J35" s="4">
         <v>236</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>224</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>171</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>140</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>121</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>113</v>
-      </c>
-      <c r="O35" s="4">
-        <v>91</v>
       </c>
       <c r="P35" s="4">
         <v>91</v>
       </c>
       <c r="Q35" s="4">
+        <v>91</v>
+      </c>
+      <c r="R35" s="4">
         <v>85</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <v>46</v>
       </c>
-      <c r="S35" s="4">
+      <c r="T35" s="4">
         <v>41</v>
-      </c>
-      <c r="T35" s="4">
-        <v>31</v>
       </c>
       <c r="U35" s="4">
         <v>31</v>
       </c>
       <c r="V35" s="4">
+        <v>31</v>
+      </c>
+      <c r="W35" s="4">
         <v>20</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>13</v>
       </c>
-      <c r="X35" s="4">
+      <c r="Y35" s="4">
         <v>7</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>4</v>
       </c>
       <c r="AA35" s="4">
         <v>4</v>
       </c>
-      <c r="AB35" s="3">
-        <v>3</v>
+      <c r="AB35" s="4">
+        <v>4</v>
       </c>
       <c r="AC35" s="3">
         <v>3</v>
@@ -3866,95 +3953,100 @@
         <v>3</v>
       </c>
       <c r="AG35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>1</v>
+      </c>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO35" s="3"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
+        <v>69</v>
+      </c>
+      <c r="C36" s="4">
         <v>59</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>54</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>51</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>46</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>40</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>34</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>29</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>25</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>22</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>20</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>19</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>18</v>
-      </c>
-      <c r="N36" s="4">
-        <v>16</v>
       </c>
       <c r="O36" s="4">
         <v>16</v>
       </c>
       <c r="P36" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="4">
         <v>14</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="4">
         <v>11</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <v>7</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <v>6</v>
       </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4">
         <v>5</v>
-      </c>
-      <c r="U36" s="4">
-        <v>4</v>
       </c>
       <c r="V36" s="4">
         <v>4</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W36" s="4">
         <v>4</v>
       </c>
-      <c r="X36" s="4">
+      <c r="X36" s="3">
         <v>4</v>
       </c>
-      <c r="Y36" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z36" s="4"/>
+      <c r="Y36" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>3</v>
+      </c>
       <c r="AA36" s="4"/>
-      <c r="AB36" s="3"/>
+      <c r="AB36" s="4"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
@@ -3967,96 +4059,99 @@
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO36" s="3"/>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="4">
+        <v>342</v>
+      </c>
+      <c r="C37" s="4">
         <v>335</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>322</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>304</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>286</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>277</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>252</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>240</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>222</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>194</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>180</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>156</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>146</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>100</v>
-      </c>
-      <c r="O37" s="4">
-        <v>81</v>
       </c>
       <c r="P37" s="4">
         <v>81</v>
       </c>
       <c r="Q37" s="4">
+        <v>81</v>
+      </c>
+      <c r="R37" s="4">
         <v>64</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>53</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <v>37</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <v>34</v>
       </c>
-      <c r="U37" s="4">
+      <c r="V37" s="4">
         <v>26</v>
       </c>
-      <c r="V37" s="4">
+      <c r="W37" s="4">
         <v>19</v>
       </c>
-      <c r="W37" s="3">
+      <c r="X37" s="3">
         <v>12</v>
       </c>
-      <c r="X37" s="4">
+      <c r="Y37" s="4">
         <v>11</v>
       </c>
-      <c r="Y37" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z37" s="4">
+      <c r="Z37" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="4">
         <v>4</v>
       </c>
-      <c r="AA37" s="4">
-        <v>3</v>
-      </c>
-      <c r="AB37" s="3">
+      <c r="AB37" s="4">
         <v>3</v>
       </c>
       <c r="AC37" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>2</v>
+      </c>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
@@ -4067,49 +4162,50 @@
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO37" s="3"/>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4">
+        <v>394</v>
+      </c>
+      <c r="C38" s="4">
         <v>387</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>377</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>361</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>340</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>321</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>320</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>318</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>304</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>281</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>255</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>176</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>127</v>
-      </c>
-      <c r="N38" s="4">
-        <v>110</v>
       </c>
       <c r="O38" s="4">
         <v>110</v>
@@ -4118,51 +4214,53 @@
         <v>110</v>
       </c>
       <c r="Q38" s="4">
+        <v>110</v>
+      </c>
+      <c r="R38" s="4">
         <v>88</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <v>55</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <v>13</v>
       </c>
-      <c r="T38" s="4">
+      <c r="U38" s="4">
         <v>12</v>
-      </c>
-      <c r="U38" s="4">
-        <v>8</v>
       </c>
       <c r="V38" s="4">
         <v>8</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="4">
         <v>8</v>
       </c>
-      <c r="X38" s="4">
+      <c r="X38" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y38" s="4">
         <v>5</v>
       </c>
-      <c r="Y38" s="3">
+      <c r="Z38" s="3">
         <v>5</v>
       </c>
-      <c r="Z38" s="4">
+      <c r="AA38" s="4">
         <v>6</v>
       </c>
-      <c r="AA38" s="4">
-        <v>3</v>
-      </c>
-      <c r="AB38" s="3">
+      <c r="AB38" s="4">
         <v>3</v>
       </c>
       <c r="AC38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD38" s="3">
         <v>2</v>
       </c>
       <c r="AE38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>1</v>
+      </c>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
@@ -4171,8 +4269,9 @@
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO38" s="3"/>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -4180,16 +4279,16 @@
         <v>600</v>
       </c>
       <c r="C39" s="4">
+        <v>600</v>
+      </c>
+      <c r="D39" s="4">
         <v>537</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>459</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>392</v>
-      </c>
-      <c r="F39" s="4">
-        <v>285</v>
       </c>
       <c r="G39" s="4">
         <v>285</v>
@@ -4201,16 +4300,16 @@
         <v>285</v>
       </c>
       <c r="J39" s="4">
+        <v>285</v>
+      </c>
+      <c r="K39" s="4">
         <v>243</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>190</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>172</v>
-      </c>
-      <c r="M39" s="4">
-        <v>117</v>
       </c>
       <c r="N39" s="4">
         <v>117</v>
@@ -4222,16 +4321,16 @@
         <v>117</v>
       </c>
       <c r="Q39" s="4">
+        <v>117</v>
+      </c>
+      <c r="R39" s="4">
         <v>79</v>
-      </c>
-      <c r="R39" s="4">
-        <v>49</v>
       </c>
       <c r="S39" s="4">
         <v>49</v>
       </c>
       <c r="T39" s="4">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="U39" s="4">
         <v>23</v>
@@ -4239,128 +4338,133 @@
       <c r="V39" s="4">
         <v>23</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W39" s="4">
         <v>23</v>
       </c>
-      <c r="X39" s="4">
+      <c r="X39" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y39" s="4">
         <v>10</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="Z39" s="3">
         <v>5</v>
       </c>
-      <c r="Z39" s="4">
+      <c r="AA39" s="4">
         <v>6</v>
       </c>
-      <c r="AA39" s="4">
+      <c r="AB39" s="4">
         <v>5</v>
       </c>
-      <c r="AB39" s="3">
+      <c r="AC39" s="3">
         <v>5</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>4</v>
       </c>
       <c r="AD39" s="3">
         <v>4</v>
       </c>
       <c r="AE39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF39" s="3">
         <v>2</v>
       </c>
       <c r="AG39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>1</v>
+      </c>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO39" s="3"/>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4">
+        <v>623</v>
+      </c>
+      <c r="C40" s="4">
         <v>586</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>482</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>356</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>325</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>260</v>
-      </c>
-      <c r="G40" s="4">
-        <v>249</v>
       </c>
       <c r="H40" s="4">
         <v>249</v>
       </c>
       <c r="I40" s="4">
+        <v>249</v>
+      </c>
+      <c r="J40" s="4">
         <v>235</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>200</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>167</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>117</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <v>113</v>
-      </c>
-      <c r="N40" s="4">
-        <v>95</v>
       </c>
       <c r="O40" s="4">
         <v>95</v>
       </c>
       <c r="P40" s="4">
+        <v>95</v>
+      </c>
+      <c r="Q40" s="4">
         <v>94</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="R40" s="4">
         <v>43</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <v>33</v>
-      </c>
-      <c r="S40" s="4">
-        <v>31</v>
       </c>
       <c r="T40" s="4">
         <v>31</v>
       </c>
       <c r="U40" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="V40" s="4">
         <v>19</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W40" s="4">
+        <v>19</v>
+      </c>
+      <c r="X40" s="3">
         <v>11</v>
       </c>
-      <c r="X40" s="4">
+      <c r="Y40" s="4">
         <v>7</v>
       </c>
-      <c r="Y40" s="3">
+      <c r="Z40" s="3">
         <v>5</v>
       </c>
-      <c r="Z40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="3"/>
+      <c r="AA40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="4"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
@@ -4373,8 +4477,9 @@
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO40" s="3"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
@@ -4382,58 +4487,58 @@
         <v>703</v>
       </c>
       <c r="C41" s="4">
+        <v>703</v>
+      </c>
+      <c r="D41" s="4">
         <v>654</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>635</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>590</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>564</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>502</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>477</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>405</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>396</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>357</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>317</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>276</v>
-      </c>
-      <c r="N41" s="4">
-        <v>240</v>
       </c>
       <c r="O41" s="4">
         <v>240</v>
       </c>
       <c r="P41" s="4">
+        <v>240</v>
+      </c>
+      <c r="Q41" s="4">
         <v>215</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="4">
         <v>144</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <v>127</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <v>76</v>
-      </c>
-      <c r="T41" s="4">
-        <v>38</v>
       </c>
       <c r="U41" s="4">
         <v>38</v>
@@ -4441,38 +4546,38 @@
       <c r="V41" s="4">
         <v>38</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="4">
+        <v>38</v>
+      </c>
+      <c r="X41" s="3">
         <v>28</v>
       </c>
-      <c r="X41" s="4">
+      <c r="Y41" s="4">
         <v>28</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>18</v>
       </c>
-      <c r="Z41" s="4">
+      <c r="AA41" s="4">
         <v>14</v>
       </c>
-      <c r="AA41" s="4">
+      <c r="AB41" s="4">
         <v>13</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>10</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4</v>
       </c>
-      <c r="AE41" s="3">
-        <v>3</v>
-      </c>
       <c r="AF41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH41" s="3">
         <v>1</v>
@@ -4486,49 +4591,52 @@
       <c r="AK41" s="3">
         <v>1</v>
       </c>
-      <c r="AL41" s="3"/>
+      <c r="AL41" s="3">
+        <v>1</v>
+      </c>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO41" s="3"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="4">
+        <v>257</v>
+      </c>
+      <c r="C42" s="4">
         <v>233</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>175</v>
-      </c>
-      <c r="D42" s="4">
-        <v>152</v>
       </c>
       <c r="E42" s="4">
         <v>152</v>
       </c>
       <c r="F42" s="4">
+        <v>152</v>
+      </c>
+      <c r="G42" s="4">
         <v>109</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>108</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>98</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>87</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>60</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>29</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>9</v>
-      </c>
-      <c r="M42" s="4">
-        <v>8</v>
       </c>
       <c r="N42" s="4">
         <v>8</v>
@@ -4537,42 +4645,42 @@
         <v>8</v>
       </c>
       <c r="P42" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="4">
         <v>4</v>
       </c>
-      <c r="Q42" s="4">
-        <v>2</v>
-      </c>
       <c r="R42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S42" s="4">
+        <v>3</v>
+      </c>
+      <c r="T42" s="4">
         <v>5</v>
       </c>
-      <c r="T42" s="4">
+      <c r="U42" s="4">
         <v>4</v>
       </c>
-      <c r="U42" s="4">
-        <v>3</v>
-      </c>
       <c r="V42" s="4">
         <v>3</v>
       </c>
-      <c r="W42" s="3">
-        <v>2</v>
-      </c>
-      <c r="X42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="4">
+      <c r="W42" s="4">
+        <v>3</v>
+      </c>
+      <c r="X42" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="3">
         <v>1</v>
       </c>
       <c r="AA42" s="4">
         <v>1</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="4">
         <v>1</v>
       </c>
       <c r="AC42" s="3">
@@ -4608,68 +4716,71 @@
       <c r="AM42" s="3">
         <v>1</v>
       </c>
-      <c r="AN42" s="3"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="3"/>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="4">
+        <v>502</v>
+      </c>
+      <c r="C43" s="4">
         <v>450</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>422</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>357</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>343</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>316</v>
-      </c>
-      <c r="G43" s="4">
-        <v>287</v>
       </c>
       <c r="H43" s="4">
         <v>287</v>
       </c>
       <c r="I43" s="4">
+        <v>287</v>
+      </c>
+      <c r="J43" s="4">
         <v>253</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>206</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>175</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>148</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>145</v>
       </c>
-      <c r="N43" s="4">
+      <c r="O43" s="4">
         <v>111</v>
-      </c>
-      <c r="O43" s="4">
-        <v>98</v>
       </c>
       <c r="P43" s="4">
         <v>98</v>
       </c>
       <c r="Q43" s="4">
+        <v>98</v>
+      </c>
+      <c r="R43" s="4">
         <v>61</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <v>47</v>
       </c>
-      <c r="S43" s="4">
+      <c r="T43" s="4">
         <v>34</v>
-      </c>
-      <c r="T43" s="4">
-        <v>21</v>
       </c>
       <c r="U43" s="4">
         <v>21</v>
@@ -4677,20 +4788,22 @@
       <c r="V43" s="4">
         <v>21</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="4">
+        <v>21</v>
+      </c>
+      <c r="X43" s="3">
         <v>17</v>
       </c>
-      <c r="X43" s="4">
+      <c r="Y43" s="4">
         <v>15</v>
       </c>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="4">
-        <v>1</v>
-      </c>
+      <c r="Z43" s="3"/>
       <c r="AA43" s="4">
         <v>1</v>
       </c>
-      <c r="AB43" s="3"/>
+      <c r="AB43" s="4">
+        <v>1</v>
+      </c>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
@@ -4703,8 +4816,9 @@
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO43" s="3"/>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -4712,58 +4826,58 @@
         <v>284</v>
       </c>
       <c r="C44" s="4">
+        <v>284</v>
+      </c>
+      <c r="D44" s="4">
         <v>250</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>215</v>
-      </c>
-      <c r="E44" s="4">
-        <v>187</v>
       </c>
       <c r="F44" s="4">
         <v>187</v>
       </c>
       <c r="G44" s="4">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="H44" s="4">
         <v>170</v>
       </c>
       <c r="I44" s="4">
+        <v>170</v>
+      </c>
+      <c r="J44" s="4">
         <v>137</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>127</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>123</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>81</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>78</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>69</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <v>48</v>
       </c>
-      <c r="P44" s="4">
+      <c r="Q44" s="4">
         <v>39</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="R44" s="4">
         <v>28</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <v>27</v>
       </c>
-      <c r="S44" s="4">
+      <c r="T44" s="4">
         <v>16</v>
-      </c>
-      <c r="T44" s="4">
-        <v>6</v>
       </c>
       <c r="U44" s="4">
         <v>6</v>
@@ -4771,28 +4885,30 @@
       <c r="V44" s="4">
         <v>6</v>
       </c>
-      <c r="W44" s="3">
-        <v>3</v>
-      </c>
-      <c r="X44" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z44" s="4">
-        <v>1</v>
+      <c r="W44" s="4">
+        <v>6</v>
+      </c>
+      <c r="X44" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>2</v>
       </c>
       <c r="AA44" s="4">
         <v>1</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="4">
         <v>1</v>
       </c>
       <c r="AC44" s="3">
         <v>1</v>
       </c>
-      <c r="AD44" s="3"/>
+      <c r="AD44" s="3">
+        <v>1</v>
+      </c>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
@@ -4803,90 +4919,91 @@
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO44" s="3"/>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="4">
+        <v>482</v>
+      </c>
+      <c r="C45" s="4">
         <v>478</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>452</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>390</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>341</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>311</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>299</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>290</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>235</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>184</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>161</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>123</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>99</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>83</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>82</v>
       </c>
-      <c r="P45" s="4">
+      <c r="Q45" s="4">
         <v>67</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="4">
         <v>41</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <v>28</v>
       </c>
-      <c r="S45" s="4">
+      <c r="T45" s="4">
         <v>22</v>
       </c>
-      <c r="T45" s="4">
+      <c r="U45" s="4">
         <v>16</v>
-      </c>
-      <c r="U45" s="4">
-        <v>12</v>
       </c>
       <c r="V45" s="4">
         <v>12</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="4">
+        <v>12</v>
+      </c>
+      <c r="X45" s="3">
         <v>6</v>
       </c>
-      <c r="X45" s="4">
+      <c r="Y45" s="4">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z45" s="4">
+      <c r="Z45" s="3">
         <v>3</v>
       </c>
       <c r="AA45" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="4">
         <v>1</v>
       </c>
       <c r="AC45" s="3">
@@ -4901,7 +5018,9 @@
       <c r="AF45" s="3">
         <v>1</v>
       </c>
-      <c r="AG45" s="3"/>
+      <c r="AG45" s="3">
+        <v>1</v>
+      </c>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
@@ -4909,58 +5028,59 @@
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO45" s="3"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="4">
+        <v>926</v>
+      </c>
+      <c r="C46" s="4">
         <v>901</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>860</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>828</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>784</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>705</v>
-      </c>
-      <c r="G46" s="4">
-        <v>685</v>
       </c>
       <c r="H46" s="4">
         <v>685</v>
       </c>
       <c r="I46" s="4">
+        <v>685</v>
+      </c>
+      <c r="J46" s="4">
         <v>635</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>561</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>504</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>451</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>441</v>
       </c>
-      <c r="N46" s="4">
+      <c r="O46" s="4">
         <v>350</v>
-      </c>
-      <c r="O46" s="4">
-        <v>308</v>
       </c>
       <c r="P46" s="4">
         <v>308</v>
       </c>
       <c r="Q46" s="4">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="R46" s="4">
         <v>196</v>
@@ -4969,7 +5089,7 @@
         <v>196</v>
       </c>
       <c r="T46" s="4">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="U46" s="4">
         <v>60</v>
@@ -4977,37 +5097,39 @@
       <c r="V46" s="4">
         <v>60</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W46" s="4">
+        <v>60</v>
+      </c>
+      <c r="X46" s="3">
         <v>40</v>
       </c>
-      <c r="X46" s="4">
+      <c r="Y46" s="4">
         <v>35</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>24</v>
       </c>
-      <c r="Z46" s="4">
+      <c r="AA46" s="4">
         <v>19</v>
       </c>
-      <c r="AA46" s="4">
+      <c r="AB46" s="4">
         <v>10</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>9</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4</v>
       </c>
-      <c r="AE46" s="3">
-        <v>3</v>
-      </c>
       <c r="AF46" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>2</v>
+      </c>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
@@ -5015,8 +5137,9 @@
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO46" s="3"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -5024,82 +5147,82 @@
         <v>819</v>
       </c>
       <c r="C47" s="4">
+        <v>819</v>
+      </c>
+      <c r="D47" s="4">
         <v>764</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>720</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>655</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>636</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>630</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>556</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>525</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>377</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>324</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>161</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>144</v>
       </c>
-      <c r="N47" s="4">
+      <c r="O47" s="4">
         <v>133</v>
-      </c>
-      <c r="O47" s="4">
-        <v>112</v>
       </c>
       <c r="P47" s="4">
         <v>112</v>
       </c>
       <c r="Q47" s="4">
+        <v>112</v>
+      </c>
+      <c r="R47" s="4">
         <v>93</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <v>85</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <v>67</v>
       </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4">
         <v>61</v>
       </c>
-      <c r="U47" s="4">
+      <c r="V47" s="4">
         <v>41</v>
       </c>
-      <c r="V47" s="4">
+      <c r="W47" s="4">
         <v>23</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9</v>
       </c>
-      <c r="X47" s="4">
+      <c r="Y47" s="4">
         <v>9</v>
       </c>
-      <c r="Y47" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z47" s="4">
+      <c r="Z47" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA47" s="4">
         <v>5</v>
       </c>
-      <c r="AA47" s="4">
-        <v>3</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>2</v>
+      <c r="AB47" s="4">
+        <v>3</v>
       </c>
       <c r="AC47" s="3">
         <v>2</v>
@@ -5134,65 +5257,68 @@
       <c r="AM47" s="3">
         <v>2</v>
       </c>
-      <c r="AN47" s="3"/>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN47" s="3">
+        <v>2</v>
+      </c>
+      <c r="AO47" s="3"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="4">
+        <v>238</v>
+      </c>
+      <c r="C48" s="4">
         <v>197</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>192</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>181</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>167</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>142</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>137</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>111</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>85</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>74</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>40</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>32</v>
-      </c>
-      <c r="M48" s="4">
-        <v>15</v>
       </c>
       <c r="N48" s="4">
         <v>15</v>
       </c>
       <c r="O48" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P48" s="4">
         <v>13</v>
       </c>
       <c r="Q48" s="4">
+        <v>13</v>
+      </c>
+      <c r="R48" s="4">
         <v>10</v>
       </c>
-      <c r="R48" s="4">
+      <c r="S48" s="4">
         <v>7</v>
-      </c>
-      <c r="S48" s="4">
-        <v>5</v>
       </c>
       <c r="T48" s="4">
         <v>5</v>
@@ -5201,14 +5327,16 @@
         <v>5</v>
       </c>
       <c r="V48" s="4">
-        <v>3</v>
-      </c>
-      <c r="W48" s="3"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="W48" s="4">
+        <v>3</v>
+      </c>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="3"/>
       <c r="AA48" s="4"/>
-      <c r="AB48" s="3"/>
+      <c r="AB48" s="4"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
@@ -5221,91 +5349,92 @@
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO48" s="3"/>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="4">
+        <v>164</v>
+      </c>
+      <c r="C49" s="4">
         <v>138</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>128</v>
-      </c>
-      <c r="D49" s="4">
-        <v>118</v>
       </c>
       <c r="E49" s="4">
         <v>118</v>
       </c>
       <c r="F49" s="4">
+        <v>118</v>
+      </c>
+      <c r="G49" s="4">
         <v>112</v>
-      </c>
-      <c r="G49" s="4">
-        <v>103</v>
       </c>
       <c r="H49" s="4">
         <v>103</v>
       </c>
       <c r="I49" s="4">
+        <v>103</v>
+      </c>
+      <c r="J49" s="4">
         <v>89</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>81</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>72</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>58</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>53</v>
       </c>
-      <c r="N49" s="4">
+      <c r="O49" s="4">
         <v>40</v>
-      </c>
-      <c r="O49" s="4">
-        <v>35</v>
       </c>
       <c r="P49" s="4">
         <v>35</v>
       </c>
       <c r="Q49" s="4">
+        <v>35</v>
+      </c>
+      <c r="R49" s="4">
         <v>21</v>
-      </c>
-      <c r="R49" s="4">
-        <v>19</v>
       </c>
       <c r="S49" s="4">
         <v>19</v>
       </c>
       <c r="T49" s="4">
+        <v>19</v>
+      </c>
+      <c r="U49" s="4">
         <v>13</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <v>12</v>
       </c>
-      <c r="V49" s="4">
+      <c r="W49" s="4">
         <v>7</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5</v>
       </c>
-      <c r="X49" s="4">
+      <c r="Y49" s="4">
         <v>5</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5</v>
       </c>
-      <c r="Z49" s="4">
+      <c r="AA49" s="4">
         <v>6</v>
       </c>
-      <c r="AA49" s="4">
+      <c r="AB49" s="4">
         <v>5</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>4</v>
       </c>
       <c r="AC49" s="3">
         <v>4</v>
@@ -5320,75 +5449,78 @@
         <v>4</v>
       </c>
       <c r="AG49" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH49" s="3">
         <v>1</v>
       </c>
-      <c r="AI49" s="3"/>
+      <c r="AI49" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO49" s="3"/>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="4">
+        <v>162</v>
+      </c>
+      <c r="C50" s="4">
         <v>137</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>119</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>101</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>98</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>91</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>83</v>
-      </c>
-      <c r="H50" s="4">
-        <v>61</v>
       </c>
       <c r="I50" s="4">
         <v>61</v>
       </c>
       <c r="J50" s="4">
+        <v>61</v>
+      </c>
+      <c r="K50" s="4">
         <v>51</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>48</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <v>40</v>
       </c>
-      <c r="M50" s="4">
+      <c r="N50" s="4">
         <v>25</v>
       </c>
-      <c r="N50" s="4">
+      <c r="O50" s="4">
         <v>15</v>
-      </c>
-      <c r="O50" s="4">
-        <v>13</v>
       </c>
       <c r="P50" s="4">
         <v>13</v>
       </c>
       <c r="Q50" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R50" s="4">
         <v>5</v>
       </c>
       <c r="S50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T50" s="4">
         <v>4</v>
@@ -5397,16 +5529,18 @@
         <v>4</v>
       </c>
       <c r="V50" s="4">
-        <v>3</v>
-      </c>
-      <c r="W50" s="3">
-        <v>1</v>
-      </c>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="W50" s="4">
+        <v>3</v>
+      </c>
+      <c r="X50" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="3"/>
       <c r="AA50" s="4"/>
-      <c r="AB50" s="3"/>
+      <c r="AB50" s="4"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
@@ -5419,49 +5553,50 @@
       <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO50" s="3"/>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="4">
+        <v>548</v>
+      </c>
+      <c r="C51" s="4">
         <v>479</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>451</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>418</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>349</v>
-      </c>
-      <c r="F51" s="4">
-        <v>346</v>
       </c>
       <c r="G51" s="4">
         <v>346</v>
       </c>
       <c r="H51" s="4">
+        <v>346</v>
+      </c>
+      <c r="I51" s="4">
         <v>336</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>232</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>219</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>184</v>
       </c>
-      <c r="L51" s="4">
+      <c r="M51" s="4">
         <v>151</v>
       </c>
-      <c r="M51" s="4">
+      <c r="N51" s="4">
         <v>109</v>
-      </c>
-      <c r="N51" s="4">
-        <v>70</v>
       </c>
       <c r="O51" s="4">
         <v>70</v>
@@ -5470,39 +5605,39 @@
         <v>70</v>
       </c>
       <c r="Q51" s="4">
+        <v>70</v>
+      </c>
+      <c r="R51" s="4">
         <v>60</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <v>51</v>
-      </c>
-      <c r="S51" s="4">
-        <v>33</v>
       </c>
       <c r="T51" s="4">
         <v>33</v>
       </c>
       <c r="U51" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="V51" s="4">
         <v>21</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W51" s="4">
         <v>21</v>
       </c>
-      <c r="X51" s="4">
+      <c r="X51" s="3">
         <v>21</v>
       </c>
-      <c r="Y51" s="3">
+      <c r="Y51" s="4">
+        <v>21</v>
+      </c>
+      <c r="Z51" s="3">
         <v>19</v>
       </c>
-      <c r="Z51" s="4">
+      <c r="AA51" s="4">
         <v>15</v>
       </c>
-      <c r="AA51" s="4">
-        <v>11</v>
-      </c>
-      <c r="AB51" s="3">
+      <c r="AB51" s="4">
         <v>11</v>
       </c>
       <c r="AC51" s="3">
@@ -5515,184 +5650,191 @@
         <v>11</v>
       </c>
       <c r="AF51" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AG51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH51" s="3">
         <v>1</v>
       </c>
-      <c r="AI51" s="3"/>
+      <c r="AI51" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
-    </row>
-    <row r="52" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AO51" s="3"/>
+    </row>
+    <row r="52" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <f>SUM(B8:B51)</f>
-        <v>17180</v>
+        <v>18515</v>
       </c>
       <c r="C52" s="15">
         <f>SUM(C8:C51)</f>
-        <v>15971</v>
+        <v>17180</v>
       </c>
       <c r="D52" s="15">
         <f>SUM(D8:D51)</f>
-        <v>14580</v>
+        <v>15971</v>
       </c>
       <c r="E52" s="15">
         <f>SUM(E8:E51)</f>
-        <v>13313</v>
+        <v>14580</v>
       </c>
       <c r="F52" s="15">
         <f>SUM(F8:F51)</f>
+        <v>13313</v>
+      </c>
+      <c r="G52" s="15">
+        <f>SUM(G8:G51)</f>
         <v>12257</v>
       </c>
-      <c r="G52" s="15">
-        <f t="shared" ref="G52:L52" si="0">SUM(G8:G51)</f>
+      <c r="H52" s="15">
+        <f t="shared" ref="H52:M52" si="0">SUM(H8:H51)</f>
         <v>11536</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f t="shared" si="0"/>
         <v>10819</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f t="shared" si="0"/>
         <v>9729</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>8441</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <f t="shared" si="0"/>
         <v>7252</v>
       </c>
-      <c r="L52" s="15">
+      <c r="M52" s="15">
         <f t="shared" si="0"/>
         <v>6043</v>
       </c>
-      <c r="M52" s="15">
-        <f t="shared" ref="M52:R52" si="1">SUM(M8:M51)</f>
+      <c r="N52" s="15">
+        <f t="shared" ref="N52:S52" si="1">SUM(N8:N51)</f>
         <v>5333</v>
       </c>
-      <c r="N52" s="15">
+      <c r="O52" s="15">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
-      <c r="O52" s="15">
+      <c r="P52" s="15">
         <f t="shared" si="1"/>
         <v>3818</v>
       </c>
-      <c r="P52" s="15">
+      <c r="Q52" s="15">
         <f t="shared" si="1"/>
         <v>3665</v>
       </c>
-      <c r="Q52" s="15">
+      <c r="R52" s="15">
         <f t="shared" si="1"/>
         <v>2748</v>
       </c>
-      <c r="R52" s="14">
+      <c r="S52" s="14">
         <f t="shared" si="1"/>
         <v>2184</v>
       </c>
-      <c r="S52" s="5">
-        <f t="shared" ref="S52:AN52" si="2">SUM(S8:S51)</f>
+      <c r="T52" s="5">
+        <f t="shared" ref="T52:AO52" si="2">SUM(T8:T51)</f>
         <v>1641</v>
       </c>
-      <c r="T52" s="5">
+      <c r="U52" s="5">
         <f t="shared" si="2"/>
         <v>1105</v>
       </c>
-      <c r="U52" s="5">
+      <c r="V52" s="5">
         <f t="shared" si="2"/>
         <v>977</v>
       </c>
-      <c r="V52" s="5">
+      <c r="W52" s="5">
         <f t="shared" si="2"/>
         <v>827</v>
       </c>
-      <c r="W52" s="5">
+      <c r="X52" s="5">
         <f t="shared" si="2"/>
         <v>569</v>
       </c>
-      <c r="X52" s="5">
+      <c r="Y52" s="5">
         <f t="shared" si="2"/>
         <v>454</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Z52" s="5">
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="AA52" s="5">
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AB52" s="5">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AC52" s="5">
         <f t="shared" si="2"/>
         <v>199</v>
       </c>
-      <c r="AC52" s="5">
+      <c r="AD52" s="5">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="AD52" s="5">
+      <c r="AE52" s="5">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="AE52" s="5">
+      <c r="AF52" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="AF52" s="5">
+      <c r="AG52" s="5">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="AG52" s="5">
+      <c r="AH52" s="5">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="AH52" s="5">
+      <c r="AI52" s="5">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="AI52" s="5">
+      <c r="AJ52" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AJ52" s="5">
+      <c r="AK52" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="AK52" s="5">
+      <c r="AL52" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AL52" s="5">
+      <c r="AM52" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AM52" s="5">
+      <c r="AN52" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AN52" s="5">
+      <c r="AO52" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>48</v>
       </c>
@@ -5721,16 +5863,17 @@
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
       <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="laEF4R3tFAyr1E/Vrvn4GHvy6jkJcdIX1s+8WVKNsSt6K5EszH+MrfDlxCbAl6uUqoklJFOhcLOCn1wACj/MgA==" saltValue="gmX8n6VSzFW/zCT/gzc7Lw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RRPl/tS49wBBOh0g+kWHygIWI1K6un/hS+puKOD13uhDgBNeiXL8rn8kNSXgWsljV1gOhTpXzfF59i6g7nmWeg==" saltValue="NO41pW5uPJF/PFIHOx8plw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A54:Z54"/>
+    <mergeCell ref="A54:AA54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Q52:AN52 M52:O52 B52:K52" formulaRange="1"/>
+    <ignoredError sqref="R52:AO52 N52:P52 B52:L52" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5740,7 +5883,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:X54"/>
+  <dimension ref="A2:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
@@ -5749,22 +5892,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="24" width="11.140625" customWidth="1"/>
+    <col min="2" max="20" width="11.7109375" customWidth="1"/>
+    <col min="21" max="25" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V3" s="9"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -5837,84 +5980,92 @@
       <c r="X6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13">
+        <v>43925</v>
+      </c>
+      <c r="C7" s="13">
         <v>43924</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>43923</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>43922</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>43921</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>43920</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <v>43919</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>43918</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>43917</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>43916</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7" s="13">
         <v>43915</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>43914</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>43913</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>43912</v>
       </c>
-      <c r="O7" s="13">
+      <c r="P7" s="13">
         <v>43911</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="13">
         <v>43910</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="R7" s="13">
         <v>43909</v>
       </c>
-      <c r="R7" s="13">
+      <c r="S7" s="13">
         <v>43908</v>
       </c>
-      <c r="S7" s="13">
+      <c r="T7" s="13">
         <v>43907</v>
       </c>
-      <c r="T7" s="12">
+      <c r="U7" s="12">
         <v>43906</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>43905</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="12">
         <v>43904</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>43903</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>43902</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5935,10 +6086,11 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W8" s="4"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -5946,7 +6098,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -5958,7 +6110,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="4">
         <v>2</v>
@@ -5970,12 +6122,14 @@
         <v>2</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -5985,10 +6139,11 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W9" s="4"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -5999,7 +6154,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -6016,7 +6171,9 @@
       <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -6029,30 +6186,31 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W10" s="4"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <v>10</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
       </c>
       <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
         <v>8</v>
-      </c>
-      <c r="G11" s="4">
-        <v>7</v>
       </c>
       <c r="H11" s="4">
         <v>7</v>
@@ -6061,12 +6219,14 @@
         <v>7</v>
       </c>
       <c r="J11" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K11" s="4">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -6077,15 +6237,16 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W11" s="4"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -6094,7 +6255,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -6102,7 +6263,9 @@
       <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -6117,10 +6280,11 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W12" s="4"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -6131,27 +6295,29 @@
         <v>12</v>
       </c>
       <c r="D13" s="4">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>8</v>
-      </c>
-      <c r="F13" s="4">
-        <v>7</v>
       </c>
       <c r="G13" s="4">
         <v>7</v>
       </c>
       <c r="H13" s="4">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4">
         <v>5</v>
       </c>
-      <c r="I13" s="4">
-        <v>3</v>
-      </c>
       <c r="J13" s="4">
-        <v>2</v>
-      </c>
-      <c r="K13" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -6163,10 +6329,11 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W13" s="4"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -6174,13 +6341,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
       </c>
       <c r="E14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
@@ -6204,7 +6371,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="4">
         <v>1</v>
@@ -6212,46 +6379,49 @@
       <c r="O14" s="4">
         <v>1</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W14" s="4"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="11">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11">
         <v>19</v>
-      </c>
-      <c r="C15" s="11">
-        <v>18</v>
       </c>
       <c r="D15" s="11">
         <v>18</v>
       </c>
       <c r="E15" s="11">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11">
         <v>15</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>12</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>8</v>
-      </c>
-      <c r="H15" s="11">
-        <v>7</v>
       </c>
       <c r="I15" s="11">
         <v>7</v>
       </c>
       <c r="J15" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K15" s="11">
         <v>5</v>
@@ -6263,7 +6433,7 @@
         <v>5</v>
       </c>
       <c r="N15" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O15" s="11">
         <v>4</v>
@@ -6272,19 +6442,22 @@
         <v>4</v>
       </c>
       <c r="Q15" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15" s="11">
-        <v>1</v>
-      </c>
-      <c r="S15" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="11">
+        <v>1</v>
+      </c>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="11"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W15" s="11"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="11"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -6295,13 +6468,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -6318,7 +6491,9 @@
       <c r="K16" s="4">
         <v>1</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -6329,33 +6504,34 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W16" s="4"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>22</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>20</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>18</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>11</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>7</v>
-      </c>
-      <c r="H17" s="4">
-        <v>6</v>
       </c>
       <c r="I17" s="4">
         <v>6</v>
@@ -6364,7 +6540,7 @@
         <v>6</v>
       </c>
       <c r="K17" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L17" s="4">
         <v>3</v>
@@ -6376,7 +6552,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" s="4">
         <v>2</v>
@@ -6385,7 +6561,7 @@
         <v>2</v>
       </c>
       <c r="R17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" s="4">
         <v>1</v>
@@ -6399,45 +6575,48 @@
       <c r="V17" s="4">
         <v>1</v>
       </c>
-      <c r="W17" s="3">
-        <v>1</v>
-      </c>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W17" s="4">
+        <v>1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>15</v>
-      </c>
-      <c r="D18" s="4">
-        <v>12</v>
       </c>
       <c r="E18" s="4">
         <v>12</v>
       </c>
       <c r="F18" s="4">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4">
         <v>11</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>6</v>
-      </c>
-      <c r="H18" s="4">
-        <v>5</v>
       </c>
       <c r="I18" s="4">
         <v>5</v>
       </c>
       <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
         <v>4</v>
       </c>
-      <c r="K18" s="4">
-        <v>2</v>
-      </c>
       <c r="L18" s="4">
         <v>2</v>
       </c>
@@ -6448,26 +6627,31 @@
         <v>2</v>
       </c>
       <c r="O18" s="4">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W18" s="4"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -6487,10 +6671,11 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="4"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W19" s="4"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -6498,19 +6683,19 @@
         <v>12</v>
       </c>
       <c r="C20" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4">
         <v>10</v>
       </c>
       <c r="E20" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4">
         <v>9</v>
       </c>
       <c r="G20" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H20" s="4">
         <v>3</v>
@@ -6522,7 +6707,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="4">
         <v>1</v>
@@ -6557,19 +6742,24 @@
       <c r="V20" s="4">
         <v>1</v>
       </c>
-      <c r="W20" s="3">
-        <v>1</v>
-      </c>
-      <c r="X20" s="4"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W20" s="4">
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4">
         <v>2</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -6589,30 +6779,31 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="4"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W21" s="4"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4">
         <v>6</v>
-      </c>
-      <c r="C22" s="4">
-        <v>5</v>
       </c>
       <c r="D22" s="4">
         <v>5</v>
       </c>
       <c r="E22" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
         <v>3</v>
       </c>
       <c r="G22" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="4">
         <v>4</v>
@@ -6621,10 +6812,10 @@
         <v>4</v>
       </c>
       <c r="J22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="4">
         <v>1</v>
@@ -6632,7 +6823,9 @@
       <c r="M22" s="4">
         <v>1</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -6641,10 +6834,11 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="4"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -6661,7 +6855,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="11">
         <v>5</v>
@@ -6676,13 +6870,13 @@
         <v>5</v>
       </c>
       <c r="K23" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" s="11">
         <v>4</v>
       </c>
       <c r="M23" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" s="11">
         <v>3</v>
@@ -6691,10 +6885,10 @@
         <v>3</v>
       </c>
       <c r="P23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" s="11">
         <v>1</v>
@@ -6702,17 +6896,22 @@
       <c r="S23" s="11">
         <v>1</v>
       </c>
-      <c r="T23" s="11"/>
+      <c r="T23" s="11">
+        <v>1</v>
+      </c>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="11"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W23" s="11"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="11"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -6733,10 +6932,11 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="11"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W24" s="11"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="11"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -6744,26 +6944,26 @@
         <v>15</v>
       </c>
       <c r="C25" s="4">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4">
         <v>11</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>12</v>
-      </c>
-      <c r="E25" s="4">
-        <v>9</v>
       </c>
       <c r="F25" s="4">
         <v>9</v>
       </c>
       <c r="G25" s="4">
+        <v>9</v>
+      </c>
+      <c r="H25" s="4">
         <v>6</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="I25" s="4">
-        <v>3</v>
-      </c>
       <c r="J25" s="4">
         <v>3</v>
       </c>
@@ -6777,13 +6977,13 @@
         <v>3</v>
       </c>
       <c r="N25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="4">
         <v>2</v>
       </c>
       <c r="P25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="4">
         <v>1</v>
@@ -6791,19 +6991,22 @@
       <c r="R25" s="4">
         <v>1</v>
       </c>
-      <c r="S25" s="4"/>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="4"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W25" s="4"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="11">
         <v>7</v>
@@ -6812,11 +7015,11 @@
         <v>7</v>
       </c>
       <c r="E26" s="11">
+        <v>7</v>
+      </c>
+      <c r="F26" s="11">
         <v>4</v>
       </c>
-      <c r="F26" s="11">
-        <v>3</v>
-      </c>
       <c r="G26" s="11">
         <v>3</v>
       </c>
@@ -6824,7 +7027,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" s="11">
         <v>1</v>
@@ -6832,7 +7035,9 @@
       <c r="K26" s="11">
         <v>1</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="11">
+        <v>1</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -6843,10 +7048,11 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="11"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W26" s="11"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="11"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
@@ -6862,7 +7068,9